--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Documents\GitHub\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0A6280-589A-400F-AA56-FA642485DFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE3F71A-6BD5-4CE8-B7FF-6CB0E06B6F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6660" yWindow="1665" windowWidth="30390" windowHeight="13245" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="167">
   <si>
     <t>Degree</t>
   </si>
@@ -488,9 +488,6 @@
     <t>Seung Choi; Sangdon Lim; Luping Niu; Sooyong Lee; Christina M. Schneider; Jay Lee; Garron J.</t>
   </si>
   <si>
-    <t>https://cran.r-project.org/web/packages/maat/index.html</t>
-  </si>
-  <si>
     <t>R package</t>
   </si>
   <si>
@@ -525,6 +522,12 @@
   </si>
   <si>
     <t>flps package</t>
+  </si>
+  <si>
+    <t>https://sooyongl.github.io/EmStanS/</t>
+  </si>
+  <si>
+    <t>https://choi-phd.github.io/maat/</t>
   </si>
 </sst>
 </file>
@@ -705,7 +708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -750,6 +753,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -982,7 +986,7 @@
     <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -999,9 +1003,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="12.75">
       <c r="A2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -1014,9 +1018,9 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" thickBot="1">
+    <row r="3" spans="1:5" ht="13.5" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -1031,13 +1035,13 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>10</v>
@@ -56889,18 +56893,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" customWidth="1"/>
     <col min="5" max="5" width="46.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" ht="12.75">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -56937,7 +56943,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" ht="12.75">
       <c r="A2" s="2" t="s">
         <v>143</v>
       </c>
@@ -56951,7 +56957,7 @@
         <v>145</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>146</v>
@@ -56974,7 +56980,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" ht="12.75">
       <c r="A3" s="2" t="s">
         <v>143</v>
       </c>
@@ -57011,24 +57017,24 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" thickBot="1">
+    <row r="4" spans="1:21" ht="12.75">
       <c r="A4" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C4" s="12">
         <v>2022</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>152</v>
+      <c r="D4" s="2" t="s">
+        <v>149</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>153</v>
+      <c r="E4" s="28" t="s">
+        <v>165</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>147</v>
@@ -57048,24 +57054,24 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="13.5" thickBot="1">
+    <row r="5" spans="1:21" ht="15" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>165</v>
+      <c r="B5" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="C5" s="12">
         <v>2022</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>155</v>
+      <c r="D5" s="19" t="s">
+        <v>152</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>164</v>
+      <c r="E5" s="18" t="s">
+        <v>166</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>147</v>
@@ -57089,20 +57095,20 @@
       <c r="A6" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>156</v>
+      <c r="B6" s="27" t="s">
+        <v>164</v>
       </c>
       <c r="C6" s="12">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>147</v>
@@ -57122,12 +57128,49 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
+    <row r="7" spans="1:21" ht="13.5" thickBot="1">
+      <c r="A7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2023</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{FBC3E818-F89B-4F41-A0CD-0B878DE56DD7}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{4ED9CC33-30A2-4C7E-939A-6F7E3EC9CD8E}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{FBC3E818-F89B-4F41-A0CD-0B878DE56DD7}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{4ED9CC33-30A2-4C7E-939A-6F7E3EC9CD8E}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{BCD04B13-E80F-4AEC-9182-CC623E83ECFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sooyong\Documents\GitHub\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF1122E-37B8-4E82-9422-32BF7C9A12A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8331FF4-EFE8-4811-9A5A-4DADCEBACC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="2304" windowWidth="17280" windowHeight="9072" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -524,9 +524,6 @@
     <t>The Effects of Community Child-Center Service on School Adjustment Change Trajectory</t>
   </si>
   <si>
-    <t>KOREAN JOURNAL OF SOCIAL WELFARE RESEARCH</t>
-  </si>
-  <si>
     <t>59-85</t>
   </si>
   <si>
@@ -579,6 +576,9 @@
   </si>
   <si>
     <t>Investigating Latent Interaction Effects in Multiple-Group Analysis in the Structural Equation Modeling Framework</t>
+  </si>
+  <si>
+    <t>Korean Journal of Social Wellfare Research</t>
   </si>
 </sst>
 </file>
@@ -1644,16 +1644,16 @@
         <v>41</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" s="20">
         <v>45039</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>45</v>
@@ -31106,7 +31106,7 @@
   <dimension ref="A1:X999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -31544,14 +31544,14 @@
         <v>2023</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -31580,14 +31580,14 @@
         <v>2023</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -31610,7 +31610,7 @@
         <v>106</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2">
         <v>2016</v>
@@ -31619,13 +31619,13 @@
         <v>164</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="F13">
         <v>50</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J13" s="30" t="s">
         <v>112</v>
@@ -31636,22 +31636,22 @@
         <v>106</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C14" s="27">
         <v>2016</v>
       </c>
       <c r="D14" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="F14" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="G14" s="27" t="s">
         <v>171</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>172</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="30" t="s">
@@ -31663,16 +31663,16 @@
         <v>106</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" s="27">
         <v>2023</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1">
@@ -31680,16 +31680,16 @@
         <v>106</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16" s="27">
         <v>2023</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="15.75" customHeight="1">
@@ -31697,16 +31697,16 @@
         <v>106</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C17" s="27">
         <v>2023</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="13.2">

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sooyong\Documents\GitHub\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8331FF4-EFE8-4811-9A5A-4DADCEBACC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB6B30D-FAF8-4B0F-8909-602991052329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,9 +437,6 @@
     <t>Bayesian MIMIC for DIF Detection under Violation of Equal Variance Assumption</t>
   </si>
   <si>
-    <t>In review</t>
-  </si>
-  <si>
     <t>Tiffany A. Whittaker, Laura Stapleton &amp; Sooyong Lee</t>
   </si>
   <si>
@@ -579,6 +576,9 @@
   </si>
   <si>
     <t>Korean Journal of Social Wellfare Research</t>
+  </si>
+  <si>
+    <t>Under review</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="2" spans="1:5" ht="13.2">
       <c r="A2" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="3" spans="1:5" ht="13.8" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -1149,13 +1149,13 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>10</v>
@@ -1644,16 +1644,16 @@
         <v>41</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" s="20">
         <v>45039</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>45</v>
@@ -31106,7 +31106,7 @@
   <dimension ref="A1:X999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -31477,7 +31477,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>136</v>
+        <v>183</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -31500,13 +31500,13 @@
         <v>106</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2">
         <v>2023</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>113</v>
@@ -31515,7 +31515,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>136</v>
+        <v>183</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -31544,14 +31544,14 @@
         <v>2023</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -31580,14 +31580,14 @@
         <v>2023</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -31610,22 +31610,22 @@
         <v>106</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2">
         <v>2016</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F13">
         <v>50</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J13" s="30" t="s">
         <v>112</v>
@@ -31636,22 +31636,22 @@
         <v>106</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C14" s="27">
         <v>2016</v>
       </c>
       <c r="D14" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="F14" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="G14" s="27" t="s">
         <v>170</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>171</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="30" t="s">
@@ -31663,16 +31663,16 @@
         <v>106</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C15" s="27">
         <v>2023</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1">
@@ -31680,16 +31680,16 @@
         <v>106</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C16" s="27">
         <v>2023</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="15.75" customHeight="1">
@@ -31697,16 +31697,16 @@
         <v>106</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C17" s="27">
         <v>2023</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="13.2">
@@ -57156,7 +57156,7 @@
         <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -57181,25 +57181,25 @@
     </row>
     <row r="2" spans="1:21" ht="13.2">
       <c r="A2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="12">
         <v>2022</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -57218,25 +57218,25 @@
     </row>
     <row r="3" spans="1:21" ht="13.2">
       <c r="A3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3" s="12">
         <v>2021</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>147</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -57255,25 +57255,25 @@
     </row>
     <row r="4" spans="1:21" ht="13.2">
       <c r="A4" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="12">
         <v>2022</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -57292,25 +57292,25 @@
     </row>
     <row r="5" spans="1:21" ht="14.4" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" s="12">
         <v>2022</v>
       </c>
       <c r="D5" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -57329,25 +57329,25 @@
     </row>
     <row r="6" spans="1:21" ht="13.8" thickBot="1">
       <c r="A6" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" s="12">
         <v>2022</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -57366,25 +57366,25 @@
     </row>
     <row r="7" spans="1:21" ht="13.8" thickBot="1">
       <c r="A7" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" s="12">
         <v>2023</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sooyong\Documents\GitHub\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB6B30D-FAF8-4B0F-8909-602991052329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9722EBA0-A3B5-4C19-AD23-3A2A4DA5DBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -494,9 +494,6 @@
     <t>https://github.com/sooyongl/clavaan</t>
   </si>
   <si>
-    <t>https://sooyongl.github.io/GRShiny/</t>
-  </si>
-  <si>
     <t>2007-2014</t>
   </si>
   <si>
@@ -579,6 +576,9 @@
   </si>
   <si>
     <t>Under review</t>
+  </si>
+  <si>
+    <t>https://sooyonglee.shinyapps.io/GRShiny/</t>
   </si>
 </sst>
 </file>
@@ -1149,13 +1149,13 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>10</v>
@@ -1644,16 +1644,16 @@
         <v>41</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C11" s="20">
         <v>45039</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>45</v>
@@ -31105,7 +31105,7 @@
   </sheetPr>
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -31477,7 +31477,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -31515,7 +31515,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -31544,14 +31544,14 @@
         <v>2023</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -31580,14 +31580,14 @@
         <v>2023</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -31610,22 +31610,22 @@
         <v>106</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2">
         <v>2016</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F13">
         <v>50</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J13" s="30" t="s">
         <v>112</v>
@@ -31636,22 +31636,22 @@
         <v>106</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="27">
         <v>2016</v>
       </c>
       <c r="D14" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="F14" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="G14" s="27" t="s">
         <v>169</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>170</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="30" t="s">
@@ -31663,16 +31663,16 @@
         <v>106</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="27">
         <v>2023</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1">
@@ -31680,16 +31680,16 @@
         <v>106</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="27">
         <v>2023</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="15.75" customHeight="1">
@@ -31697,16 +31697,16 @@
         <v>106</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" s="27">
         <v>2023</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="13.2">
@@ -57131,8 +57131,8 @@
   </sheetPr>
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -57193,7 +57193,7 @@
         <v>141</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>142</v>
@@ -57267,7 +57267,7 @@
         <v>145</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>149</v>
@@ -57304,7 +57304,7 @@
         <v>148</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>149</v>
@@ -57332,7 +57332,7 @@
         <v>139</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="12">
         <v>2022</v>
@@ -57341,7 +57341,7 @@
         <v>150</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>149</v>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sooyong\Documents\GitHub\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9722EBA0-A3B5-4C19-AD23-3A2A4DA5DBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F23F74B-19C7-46C4-A701-0A55910B892D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="187">
   <si>
     <t>Degree</t>
   </si>
@@ -275,9 +275,6 @@
     <t>2019/9-2020/5</t>
   </si>
   <si>
-    <t>MAAT package development project</t>
-  </si>
-  <si>
     <t>Development of MAAT package for Computerized Adaptive Testing for Northwest Evaluation Association (NWEA)</t>
   </si>
   <si>
@@ -309,9 +306,6 @@
   </si>
   <si>
     <t>Creative Measurement Solutions LLC</t>
-  </si>
-  <si>
-    <t>2021/6-2020/8</t>
   </si>
   <si>
     <t>Internship for developing ESS package for Embeded Standard Setting</t>
@@ -485,9 +479,6 @@
     <t>clavaan package</t>
   </si>
   <si>
-    <t>Ph.D., Major in Quantitative Methods</t>
-  </si>
-  <si>
     <t>M.A., Major in Educational Statistics and Measurement</t>
   </si>
   <si>
@@ -498,9 +489,6 @@
   </si>
   <si>
     <t>Hanyang University</t>
-  </si>
-  <si>
-    <t>B.A. Major in Sociology</t>
   </si>
   <si>
     <t>https://sooyongl.github.io/flps/</t>
@@ -579,6 +567,27 @@
   </si>
   <si>
     <t>https://sooyonglee.shinyapps.io/GRShiny/</t>
+  </si>
+  <si>
+    <t>B.A. Major in International Studies</t>
+  </si>
+  <si>
+    <t>maat package development project</t>
+  </si>
+  <si>
+    <t>Sooyong Lee; Tiffany A. Whittaker; Laura Stapleton;</t>
+  </si>
+  <si>
+    <t>https://sooyongl.github.io/GRShiny/</t>
+  </si>
+  <si>
+    <t>GRshiny package</t>
+  </si>
+  <si>
+    <t>2021/6-2021/8</t>
+  </si>
+  <si>
+    <t>Ph.D., Major in Quantitative Methods in Educational Psychology</t>
   </si>
 </sst>
 </file>
@@ -1089,8 +1098,8 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -1119,7 +1128,7 @@
     </row>
     <row r="2" spans="1:5" ht="13.2">
       <c r="A2" s="1" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -1134,7 +1143,7 @@
     </row>
     <row r="3" spans="1:5" ht="13.8" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -1149,13 +1158,13 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="24" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>10</v>
@@ -1644,16 +1653,16 @@
         <v>41</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C11" s="20">
         <v>45039</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>45</v>
@@ -30626,7 +30635,9 @@
   </sheetPr>
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -30749,13 +30760,13 @@
         <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -30771,19 +30782,19 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -30799,19 +30810,19 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -30827,19 +30838,19 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -31051,21 +31062,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -31073,10 +31084,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -31084,10 +31095,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -31106,7 +31117,7 @@
   <dimension ref="A1:X999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -31131,16 +31142,16 @@
         <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>18</v>
@@ -31165,32 +31176,32 @@
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" s="12">
         <v>2021</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F2" s="12">
         <v>81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -31209,7 +31220,7 @@
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>35</v>
@@ -31221,20 +31232,20 @@
         <v>36</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F3" s="12">
         <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -31253,32 +31264,32 @@
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C4" s="12">
         <v>2022</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="G4" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>121</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -31297,7 +31308,7 @@
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>39</v>
@@ -31306,23 +31317,23 @@
         <v>2022</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="G5" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>126</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -31341,7 +31352,7 @@
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>35</v>
@@ -31350,19 +31361,19 @@
         <v>2022</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="16"/>
       <c r="H6" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -31381,28 +31392,28 @@
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C7" s="12">
         <v>2022</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -31421,7 +31432,7 @@
     </row>
     <row r="8" spans="1:24" ht="13.2">
       <c r="A8" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>53</v>
@@ -31430,16 +31441,16 @@
         <v>2023</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -31459,7 +31470,7 @@
     </row>
     <row r="9" spans="1:24" ht="13.2">
       <c r="A9" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>39</v>
@@ -31468,16 +31479,16 @@
         <v>2023</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -31497,25 +31508,25 @@
     </row>
     <row r="10" spans="1:24" ht="13.2">
       <c r="A10" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C10" s="2">
         <v>2023</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -31535,7 +31546,7 @@
     </row>
     <row r="11" spans="1:24" ht="13.2">
       <c r="A11" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>53</v>
@@ -31544,14 +31555,14 @@
         <v>2023</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="27" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -31571,7 +31582,7 @@
     </row>
     <row r="12" spans="1:24" ht="13.2">
       <c r="A12" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>53</v>
@@ -31580,14 +31591,14 @@
         <v>2023</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="27" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -31607,106 +31618,106 @@
     </row>
     <row r="13" spans="1:24" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2">
         <v>2016</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F13">
         <v>50</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C14" s="27">
         <v>2016</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C15" s="27">
         <v>2023</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C16" s="27">
         <v>2023</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C17" s="27">
         <v>2023</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="13.2">
@@ -57129,10 +57140,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -57156,7 +57167,7 @@
         <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>18</v>
@@ -57181,25 +57192,25 @@
     </row>
     <row r="2" spans="1:21" ht="13.2">
       <c r="A2" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
-      <c r="C2" s="12">
-        <v>2022</v>
+      <c r="C2" s="2">
+        <v>2023</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="2" t="s">
         <v>183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -57218,25 +57229,25 @@
     </row>
     <row r="3" spans="1:21" ht="13.2">
       <c r="A3" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C3" s="12">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -57255,25 +57266,25 @@
     </row>
     <row r="4" spans="1:21" ht="13.2">
       <c r="A4" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="12">
+        <v>2021</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="12">
-        <v>2022</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>160</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -57290,27 +57301,27 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="14.4" thickBot="1">
+    <row r="5" spans="1:21" ht="13.2">
       <c r="A5" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C5" s="12">
         <v>2022</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>148</v>
+      <c r="D5" s="2" t="s">
+        <v>143</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>161</v>
+      <c r="E5" s="28" t="s">
+        <v>156</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -57327,27 +57338,27 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="13.8" thickBot="1">
+    <row r="6" spans="1:21" ht="14.4" thickBot="1">
       <c r="A6" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>159</v>
+      <c r="B6" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="C6" s="12">
         <v>2022</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>150</v>
+      <c r="D6" s="19" t="s">
+        <v>146</v>
       </c>
-      <c r="E6" s="26" t="s">
-        <v>158</v>
+      <c r="E6" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -57366,25 +57377,25 @@
     </row>
     <row r="7" spans="1:21" ht="13.8" thickBot="1">
       <c r="A7" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>151</v>
+      <c r="B7" s="27" t="s">
+        <v>155</v>
       </c>
       <c r="C7" s="12">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>154</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -57401,12 +57412,49 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
+    <row r="8" spans="1:21" ht="13.8" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2023</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="E6" r:id="rId2" xr:uid="{FBC3E818-F89B-4F41-A0CD-0B878DE56DD7}"/>
-    <hyperlink ref="E7" r:id="rId3" xr:uid="{4ED9CC33-30A2-4C7E-939A-6F7E3EC9CD8E}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{BCD04B13-E80F-4AEC-9182-CC623E83ECFB}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{FBC3E818-F89B-4F41-A0CD-0B878DE56DD7}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{4ED9CC33-30A2-4C7E-939A-6F7E3EC9CD8E}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{BCD04B13-E80F-4AEC-9182-CC623E83ECFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sooyong\Documents\GitHub\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F23F74B-19C7-46C4-A701-0A55910B892D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612CEB83-266F-4366-BD28-5DD4FB696EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="187">
   <si>
     <t>Degree</t>
   </si>
@@ -1098,7 +1098,7 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1184,8 +1184,8 @@
   </sheetPr>
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -1656,7 +1656,7 @@
         <v>167</v>
       </c>
       <c r="C11" s="20">
-        <v>45039</v>
+        <v>45029</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>166</v>
@@ -31117,7 +31117,7 @@
   <dimension ref="A1:X999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -31519,14 +31519,12 @@
       <c r="D10" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>111</v>
-      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2" t="s">
-        <v>178</v>
+      <c r="I10" s="27" t="s">
+        <v>169</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Documents\GitHub\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926ADA63-EC2B-480F-BE53-428FECF9FFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2A4538-6690-4BEA-908E-D8C1D2A303CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,15 @@
     <sheet name="Experience" sheetId="5" r:id="rId5"/>
     <sheet name="Skills" sheetId="6" r:id="rId6"/>
     <sheet name="Publication" sheetId="7" r:id="rId7"/>
-    <sheet name="Software" sheetId="8" r:id="rId8"/>
+    <sheet name="Service" sheetId="9" r:id="rId8"/>
+    <sheet name="Software" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="191">
   <si>
     <t>Degree</t>
   </si>
@@ -595,6 +596,12 @@
   <si>
     <t>book chapter</t>
   </si>
+  <si>
+    <t>Reviewer</t>
+  </si>
+  <si>
+    <t>7/1/2023 - present</t>
+  </si>
 </sst>
 </file>
 
@@ -841,7 +848,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -899,6 +906,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -30658,7 +30666,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
@@ -31138,7 +31146,7 @@
   </sheetPr>
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -57160,6 +57168,50 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4445EC-8FC5-4E63-800B-686D768A8FCC}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Documents\GitHub\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9973BE-07D5-48E8-99F4-EBDE0DDEC12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058B9A41-B0BC-4945-B1FA-7D192BBA2256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7005" yWindow="2010" windowWidth="30390" windowHeight="13245" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15405" yWindow="0" windowWidth="22995" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
-    <sheet name="Presentation" sheetId="2" r:id="rId2"/>
-    <sheet name="Teaching" sheetId="3" r:id="rId3"/>
-    <sheet name="FellowshipAwards" sheetId="4" r:id="rId4"/>
-    <sheet name="Experience" sheetId="5" r:id="rId5"/>
+    <sheet name="Experience" sheetId="5" r:id="rId2"/>
+    <sheet name="Presentation" sheetId="2" r:id="rId3"/>
+    <sheet name="Teaching" sheetId="3" r:id="rId4"/>
+    <sheet name="FellowshipAwards" sheetId="4" r:id="rId5"/>
     <sheet name="Skills" sheetId="6" r:id="rId6"/>
     <sheet name="Publication" sheetId="7" r:id="rId7"/>
     <sheet name="Service" sheetId="9" r:id="rId8"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="205">
   <si>
     <t>Degree</t>
   </si>
@@ -659,6 +659,12 @@
   <si>
     <t>Journal of Personality and Social Psychology</t>
   </si>
+  <si>
+    <t>Dissertation: Development of a Method for Addressing Various Censoring Effects in a Latent Growth Curve Modeling Framework. Advisor: Tiffany Whittaker</t>
+  </si>
+  <si>
+    <t>Thesis: Exploration of LCA conditions in Latent Class with Low Proportion. Advisore: Sehee Hong</t>
+  </si>
 </sst>
 </file>
 
@@ -926,7 +932,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -993,6 +999,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1214,8 +1223,8 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1223,6 +1232,7 @@
     <col min="1" max="1" width="29.42578125" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="136.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="12.75">
@@ -1238,12 +1248,12 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="38.25">
+      <c r="A2" s="44" t="s">
         <v>181</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1255,10 +1265,12 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="44" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="13.5" thickBot="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="31" t="s">
         <v>146</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1270,7 +1282,9 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="31" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="24" t="s">
@@ -1294,6 +1308,437 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:P18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="3" max="3" width="39.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -30521,7 +30966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -30646,7 +31091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -30738,437 +31183,6 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:P18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="3" max="3" width="39.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31242,7 +31256,7 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Documents\GitHub\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F02899C-5BDC-489A-AB0C-C060E301200A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7792A774-4777-4906-B473-DF31323CC1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -680,7 +680,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]mmmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\-yy;@"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -979,11 +979,11 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -31277,7 +31277,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
@@ -31563,7 +31563,7 @@
         <v>125</v>
       </c>
       <c r="C7" s="12">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>126</v>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Documents\GitHub\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7792A774-4777-4906-B473-DF31323CC1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6233AED-A8AE-4D9D-AE32-3005D8E6F0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="209">
   <si>
     <t>Degree</t>
   </si>
@@ -674,6 +674,9 @@
   <si>
     <t>1-12</t>
   </si>
+  <si>
+    <t>In review</t>
+  </si>
 </sst>
 </file>
 
@@ -31276,8 +31279,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
@@ -31981,7 +31984,7 @@
         <v>202</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="15.75" customHeight="1">

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Documents\GitHub\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6233AED-A8AE-4D9D-AE32-3005D8E6F0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2401ABF3-477E-43BC-BCA9-B57E3E860ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="208">
   <si>
     <t>Degree</t>
   </si>
@@ -417,9 +417,6 @@
     <t>The Annual Meeting of the Psychometric Society</t>
   </si>
   <si>
-    <t>Bayesian MIMIC for DIF Detection under Violation of Equal Variance Assumption</t>
-  </si>
-  <si>
     <t>Tiffany A. Whittaker, Laura Stapleton &amp; Sooyong Lee</t>
   </si>
   <si>
@@ -675,7 +672,7 @@
     <t>1-12</t>
   </si>
   <si>
-    <t>In review</t>
+    <t>Bayesian Moderated Non-linear Factor Analysis for DIF Detection under Violation of Equal Variance Assumption</t>
   </si>
 </sst>
 </file>
@@ -1277,10 +1274,10 @@
     </row>
     <row r="2" spans="1:5" ht="39">
       <c r="A2" s="43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1289,12 +1286,12 @@
         <v>6</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.75" thickBot="1">
       <c r="A3" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -1306,18 +1303,18 @@
         <v>9</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>9</v>
@@ -1462,7 +1459,7 @@
         <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>81</v>
@@ -1484,7 +1481,7 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>71</v>
@@ -1540,7 +1537,7 @@
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>87</v>
@@ -1568,10 +1565,10 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>83</v>
@@ -2237,16 +2234,16 @@
         <v>40</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11" s="19">
         <v>45029</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>44</v>
@@ -31279,8 +31276,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
@@ -31531,10 +31528,10 @@
         <v>109</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H6" s="44" t="s">
         <v>124</v>
@@ -31576,7 +31573,7 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>127</v>
@@ -31611,21 +31608,21 @@
         <v>2023</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>128</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -31653,16 +31650,16 @@
         <v>2024</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="36"/>
       <c r="H9" s="2"/>
       <c r="I9" s="26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J9" s="26"/>
       <c r="K9" s="2"/>
@@ -31691,7 +31688,7 @@
         <v>2023</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>119</v>
@@ -31700,7 +31697,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -31723,20 +31720,20 @@
         <v>102</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" s="2">
         <v>2023</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -31765,14 +31762,14 @@
         <v>2023</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -31801,14 +31798,14 @@
         <v>2023</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -31831,22 +31828,22 @@
         <v>102</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" s="2">
         <v>2016</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F14">
         <v>50</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J14" s="29" t="s">
         <v>108</v>
@@ -31857,22 +31854,22 @@
         <v>102</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C15" s="26">
         <v>2016</v>
       </c>
       <c r="D15" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="F15" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="G15" s="26" t="s">
         <v>159</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>160</v>
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="29" t="s">
@@ -31884,16 +31881,16 @@
         <v>102</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C16" s="26">
         <v>2023</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="15.75" customHeight="1">
@@ -31901,16 +31898,16 @@
         <v>102</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C17" s="26">
         <v>2023</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1">
@@ -31918,16 +31915,16 @@
         <v>102</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" s="26">
         <v>2023</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" customHeight="1">
@@ -31935,19 +31932,19 @@
         <v>102</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C19" s="26">
         <v>2023</v>
       </c>
       <c r="D19" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E19" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="I19" s="26" t="s">
         <v>189</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.75" customHeight="1">
@@ -31955,16 +31952,16 @@
         <v>102</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C20" s="26">
         <v>2023</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" customHeight="1">
@@ -31972,19 +31969,19 @@
         <v>102</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C21" s="26">
         <v>2023</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="15.75" customHeight="1">
@@ -57437,10 +57434,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C2" t="s">
         <v>105</v>
@@ -57484,7 +57481,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>17</v>
@@ -57509,25 +57506,25 @@
     </row>
     <row r="2" spans="1:21" ht="13">
       <c r="A2" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2">
         <v>2023</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -57546,25 +57543,25 @@
     </row>
     <row r="3" spans="1:21" ht="13">
       <c r="A3" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="12">
         <v>2022</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -57583,25 +57580,25 @@
     </row>
     <row r="4" spans="1:21" ht="13">
       <c r="A4" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" s="12">
         <v>2021</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>140</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -57620,25 +57617,25 @@
     </row>
     <row r="5" spans="1:21" ht="13">
       <c r="A5" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="12">
         <v>2022</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -57657,25 +57654,25 @@
     </row>
     <row r="6" spans="1:21" ht="14.25">
       <c r="A6" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" s="12">
         <v>2022</v>
       </c>
       <c r="D6" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -57694,25 +57691,25 @@
     </row>
     <row r="7" spans="1:21" ht="13.75" thickBot="1">
       <c r="A7" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" s="12">
         <v>2022</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -57731,25 +57728,25 @@
     </row>
     <row r="8" spans="1:21" ht="13.75" thickBot="1">
       <c r="A8" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="12">
         <v>2023</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Documents\GitHub\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2401ABF3-477E-43BC-BCA9-B57E3E860ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF052C7-A8F8-4D91-B708-D9F7A23668AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -447,9 +447,6 @@
     <t>Sooyong Lee; Daniel Lewis</t>
   </si>
   <si>
-    <t>https://sooyonglee.shinyapps.io/ESS_test/</t>
-  </si>
-  <si>
     <t>maat package</t>
   </si>
   <si>
@@ -673,6 +670,9 @@
   </si>
   <si>
     <t>Bayesian Moderated Non-linear Factor Analysis for DIF Detection under Violation of Equal Variance Assumption</t>
+  </si>
+  <si>
+    <t>https://sooyonglee.shinyapps.io/ESS_shiny/</t>
   </si>
 </sst>
 </file>
@@ -1274,10 +1274,10 @@
     </row>
     <row r="2" spans="1:5" ht="39">
       <c r="A2" s="43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1286,12 +1286,12 @@
         <v>6</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.75" thickBot="1">
       <c r="A3" s="30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -1303,18 +1303,18 @@
         <v>9</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>9</v>
@@ -1459,7 +1459,7 @@
         <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>81</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>71</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>87</v>
@@ -1565,10 +1565,10 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>83</v>
@@ -2234,16 +2234,16 @@
         <v>40</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" s="19">
         <v>45029</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>44</v>
@@ -31276,8 +31276,8 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
@@ -31528,10 +31528,10 @@
         <v>109</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H6" s="44" t="s">
         <v>124</v>
@@ -31573,7 +31573,7 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>127</v>
@@ -31608,21 +31608,21 @@
         <v>2023</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>128</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -31647,19 +31647,19 @@
         <v>52</v>
       </c>
       <c r="C9" s="12">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="36"/>
       <c r="H9" s="2"/>
       <c r="I9" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J9" s="26"/>
       <c r="K9" s="2"/>
@@ -31688,7 +31688,7 @@
         <v>2023</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>119</v>
@@ -31697,7 +31697,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -31733,7 +31733,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -31762,14 +31762,14 @@
         <v>2023</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -31798,14 +31798,14 @@
         <v>2023</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -31828,22 +31828,22 @@
         <v>102</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C14" s="2">
         <v>2016</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F14">
         <v>50</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J14" s="29" t="s">
         <v>108</v>
@@ -31854,22 +31854,22 @@
         <v>102</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C15" s="26">
         <v>2016</v>
       </c>
       <c r="D15" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="F15" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="G15" s="26" t="s">
         <v>158</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>159</v>
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="29" t="s">
@@ -31881,16 +31881,16 @@
         <v>102</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="26">
         <v>2023</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="15.75" customHeight="1">
@@ -31898,16 +31898,16 @@
         <v>102</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" s="26">
         <v>2023</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1">
@@ -31915,16 +31915,16 @@
         <v>102</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C18" s="26">
         <v>2023</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" customHeight="1">
@@ -31932,19 +31932,19 @@
         <v>102</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C19" s="26">
         <v>2023</v>
       </c>
       <c r="D19" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="I19" s="26" t="s">
         <v>188</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.75" customHeight="1">
@@ -31952,16 +31952,16 @@
         <v>102</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C20" s="26">
         <v>2023</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" customHeight="1">
@@ -31969,19 +31969,19 @@
         <v>102</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C21" s="26">
         <v>2023</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:24" ht="15.75" customHeight="1">
@@ -57434,10 +57434,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
         <v>105</v>
@@ -57456,8 +57456,8 @@
   </sheetPr>
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
@@ -57509,19 +57509,19 @@
         <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C2" s="2">
         <v>2023</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>136</v>
@@ -57552,10 +57552,10 @@
         <v>2022</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>135</v>
@@ -57592,7 +57592,7 @@
         <v>138</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>135</v>
@@ -57629,10 +57629,10 @@
         <v>138</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>136</v>
@@ -57657,19 +57657,19 @@
         <v>132</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="12">
         <v>2022</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>136</v>
@@ -57694,19 +57694,19 @@
         <v>132</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="12">
         <v>2022</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
-      <c r="E7" t="s">
-        <v>193</v>
+      <c r="E7" s="27" t="s">
+        <v>192</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>136</v>
@@ -57731,7 +57731,7 @@
         <v>132</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="12">
         <v>2023</v>
@@ -57740,10 +57740,10 @@
         <v>134</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>136</v>
@@ -57765,11 +57765,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="E8" r:id="rId2" xr:uid="{4ED9CC33-30A2-4C7E-939A-6F7E3EC9CD8E}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{BCD04B13-E80F-4AEC-9182-CC623E83ECFB}"/>
+    <hyperlink ref="E8" r:id="rId1" xr:uid="{4ED9CC33-30A2-4C7E-939A-6F7E3EC9CD8E}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{BCD04B13-E80F-4AEC-9182-CC623E83ECFB}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{14F6E379-7354-4883-876A-75200C8AE4A2}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{EDA79C1A-D71B-4766-BEB2-AD97DF34FB6D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Documents\GitHub\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4488C43-3CCE-488C-BFAD-32ABDE1E5BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAD8750-9FA3-4E58-84F2-AC1723C3238F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -241,9 +241,6 @@
   </si>
   <si>
     <t>2018/9-2019/5</t>
-  </si>
-  <si>
-    <t>Graduate Research Assistant</t>
   </si>
   <si>
     <t>CGS PhD Career Pathways project</t>
@@ -648,9 +645,6 @@
     <t>Dissertation: Development of a Method for Addressing Various Censoring Effects in a Latent Growth Curve Modeling Framework. Advisor: Tiffany Whittaker</t>
   </si>
   <si>
-    <t>Thesis: Exploration of LCA conditions in Latent Class with Low Proportion. Advisore: Sehee Hong</t>
-  </si>
-  <si>
     <t>30(2)</t>
   </si>
   <si>
@@ -664,9 +658,6 @@
   </si>
   <si>
     <t>https://sooyonglee.shinyapps.io/ESS_shiny/</t>
-  </si>
-  <si>
-    <t>Post-doc fellow</t>
   </si>
   <si>
     <t>Sooyong Lee, Kahyun Lee, &amp; Allison Master</t>
@@ -709,6 +700,15 @@
   </si>
   <si>
     <t>2023-04</t>
+  </si>
+  <si>
+    <t>Research Assistant</t>
+  </si>
+  <si>
+    <t>Post-doc Fellow</t>
+  </si>
+  <si>
+    <t>Thesis: Exploration of LCA conditions in Latent Class with Low Proportion. Advisor: Sehee Hong</t>
   </si>
 </sst>
 </file>
@@ -1287,8 +1287,8 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
@@ -1318,10 +1318,10 @@
     </row>
     <row r="2" spans="1:5" ht="39">
       <c r="A2" s="42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1330,12 +1330,12 @@
         <v>6</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.75" thickBot="1">
       <c r="A3" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -1347,18 +1347,18 @@
         <v>9</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>9</v>
@@ -1379,7 +1379,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
@@ -1420,13 +1420,13 @@
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1443,19 +1443,19 @@
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="E3" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1471,16 +1471,16 @@
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1497,19 +1497,19 @@
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1525,19 +1525,19 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1553,19 +1553,19 @@
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1581,19 +1581,19 @@
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1609,19 +1609,19 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1809,7 +1809,7 @@
   </sheetPr>
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1880,7 +1880,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -1925,7 +1925,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -1970,7 +1970,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
@@ -2015,7 +2015,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>35</v>
@@ -2058,7 +2058,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
@@ -2101,7 +2101,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>42</v>
@@ -2148,7 +2148,7 @@
         <v>46</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>47</v>
@@ -2193,7 +2193,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>51</v>
@@ -2238,7 +2238,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>53</v>
@@ -2278,16 +2278,16 @@
         <v>40</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>44</v>
@@ -2319,19 +2319,19 @@
         <v>19</v>
       </c>
       <c r="B12" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="F12" s="45" t="s">
         <v>207</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>208</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>210</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2363,16 +2363,16 @@
         <v>52</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -31291,21 +31291,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -31313,10 +31313,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -31324,10 +31324,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -31372,16 +31372,16 @@
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>17</v>
@@ -31406,32 +31406,32 @@
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="12">
         <v>2021</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" s="12">
         <v>81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -31450,7 +31450,7 @@
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>34</v>
@@ -31462,20 +31462,20 @@
         <v>35</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F3" s="12">
         <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -31494,32 +31494,32 @@
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="12">
         <v>2022</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>117</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -31538,7 +31538,7 @@
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>38</v>
@@ -31547,23 +31547,23 @@
         <v>2022</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="15" t="s">
         <v>121</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>122</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -31582,7 +31582,7 @@
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>34</v>
@@ -31591,23 +31591,23 @@
         <v>2023</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -31626,30 +31626,30 @@
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C7" s="12">
         <v>2023</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="44" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -31668,7 +31668,7 @@
     </row>
     <row r="8" spans="1:24" ht="14.25">
       <c r="A8" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>52</v>
@@ -31677,21 +31677,21 @@
         <v>2023</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -31710,7 +31710,7 @@
     </row>
     <row r="9" spans="1:24" ht="12" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>52</v>
@@ -31719,16 +31719,16 @@
         <v>2023</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="35"/>
       <c r="H9" s="2"/>
       <c r="I9" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J9" s="26"/>
       <c r="K9" s="2"/>
@@ -31748,7 +31748,7 @@
     </row>
     <row r="10" spans="1:24" ht="13">
       <c r="A10" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>38</v>
@@ -31757,16 +31757,16 @@
         <v>2023</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -31786,23 +31786,23 @@
     </row>
     <row r="11" spans="1:24" ht="13">
       <c r="A11" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="2">
         <v>2023</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -31822,7 +31822,7 @@
     </row>
     <row r="12" spans="1:24" ht="13">
       <c r="A12" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>52</v>
@@ -31831,14 +31831,14 @@
         <v>2023</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -31858,7 +31858,7 @@
     </row>
     <row r="13" spans="1:24" ht="13">
       <c r="A13" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>52</v>
@@ -31867,14 +31867,14 @@
         <v>2023</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -31894,146 +31894,146 @@
     </row>
     <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C14" s="2">
         <v>2016</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F14">
         <v>50</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C15" s="26">
         <v>2016</v>
       </c>
       <c r="D15" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="F15" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="G15" s="26" t="s">
         <v>157</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>158</v>
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C16" s="26">
         <v>2023</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" s="26">
         <v>2023</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C18" s="26">
         <v>2023</v>
       </c>
       <c r="D18" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="I18" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="I18" s="26" t="s">
-        <v>186</v>
-      </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19" s="26">
         <v>2023</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C20" s="26">
         <v>2023</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" customHeight="1">
@@ -57486,13 +57486,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -57533,7 +57533,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>17</v>
@@ -57558,25 +57558,25 @@
     </row>
     <row r="2" spans="1:21" ht="13">
       <c r="A2" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C2" s="2">
         <v>2023</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>174</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -57595,25 +57595,25 @@
     </row>
     <row r="3" spans="1:21" ht="13">
       <c r="A3" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="12">
         <v>2022</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -57632,25 +57632,25 @@
     </row>
     <row r="4" spans="1:21" ht="13">
       <c r="A4" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="12">
         <v>2021</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -57669,25 +57669,25 @@
     </row>
     <row r="5" spans="1:21" ht="13">
       <c r="A5" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="12">
         <v>2022</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -57706,25 +57706,25 @@
     </row>
     <row r="6" spans="1:21" ht="14.25">
       <c r="A6" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" s="12">
         <v>2022</v>
       </c>
       <c r="D6" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -57743,25 +57743,25 @@
     </row>
     <row r="7" spans="1:21" ht="13.75" thickBot="1">
       <c r="A7" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" s="12">
         <v>2022</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -57780,25 +57780,25 @@
     </row>
     <row r="8" spans="1:21" ht="13.75" thickBot="1">
       <c r="A8" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" s="12">
         <v>2023</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Documents\GitHub\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAD8750-9FA3-4E58-84F2-AC1723C3238F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405D2519-14E8-43AD-A55D-32412B754B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -261,9 +261,6 @@
     <t>2019/9-2019/12</t>
   </si>
   <si>
-    <t>COE Full-Time Tenured and Tenure-Track Faculty</t>
-  </si>
-  <si>
     <t>Data analysis for surveys of graduate programs of education at the Univerisity of Texas at Austin</t>
   </si>
   <si>
@@ -273,16 +270,7 @@
     <t>Development of MAAT package for Computerized Adaptive Testing for Northwest Evaluation Association (NWEA)</t>
   </si>
   <si>
-    <t>Northwest Evaluation Association (NWEA)</t>
-  </si>
-  <si>
     <t>FLPS project</t>
-  </si>
-  <si>
-    <t>Development of FLPS package for Fully-latent Principal Stratification</t>
-  </si>
-  <si>
-    <t>IES grant</t>
   </si>
   <si>
     <t>2020/6-2020/8</t>
@@ -543,9 +531,6 @@
     <t>B.A. Major in International Studies</t>
   </si>
   <si>
-    <t>maat package development project</t>
-  </si>
-  <si>
     <t>Sooyong Lee; Tiffany A. Whittaker; Laura Stapleton;</t>
   </si>
   <si>
@@ -709,6 +694,21 @@
   </si>
   <si>
     <t>Thesis: Exploration of LCA conditions in Latent Class with Low Proportion. Advisor: Sehee Hong</t>
+  </si>
+  <si>
+    <t>Survey of COE Full-Time Tenured and Tenure-Track Faculty</t>
+  </si>
+  <si>
+    <t>`maat` package development project</t>
+  </si>
+  <si>
+    <t>Development of `flps` package for Fully-latent Principal Stratification</t>
+  </si>
+  <si>
+    <t>Institute of Educational Sciences (IES) grant</t>
+  </si>
+  <si>
+    <t>Grant from Northwest Evaluation Association (NWEA)</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1287,7 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1318,10 +1318,10 @@
     </row>
     <row r="2" spans="1:5" ht="39">
       <c r="A2" s="42" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1330,12 +1330,12 @@
         <v>6</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.75" thickBot="1">
       <c r="A3" s="30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -1347,18 +1347,18 @@
         <v>9</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="23" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>9</v>
@@ -1378,8 +1378,8 @@
   </sheetPr>
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
@@ -1420,7 +1420,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>71</v>
@@ -1446,7 +1446,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>74</v>
@@ -1474,13 +1474,13 @@
         <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1497,19 +1497,19 @@
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>81</v>
+        <v>219</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1525,19 +1525,19 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E6" s="9" t="s">
-        <v>84</v>
+        <v>218</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1553,19 +1553,19 @@
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1581,19 +1581,19 @@
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1609,19 +1609,19 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>83</v>
+        <v>217</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>84</v>
+        <v>218</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1674,9 +1674,9 @@
     <row r="12" spans="1:16" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1692,7 +1692,7 @@
     <row r="13" spans="1:16" ht="15.75" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1799,6 +1799,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1880,7 +1881,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -1925,7 +1926,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -1970,7 +1971,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
@@ -2015,7 +2016,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>35</v>
@@ -2058,7 +2059,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
@@ -2101,7 +2102,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>42</v>
@@ -2148,7 +2149,7 @@
         <v>46</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>47</v>
@@ -2193,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>51</v>
@@ -2238,7 +2239,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>53</v>
@@ -2278,16 +2279,16 @@
         <v>40</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>44</v>
@@ -2319,19 +2320,19 @@
         <v>19</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2363,16 +2364,16 @@
         <v>52</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -31291,21 +31292,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1">
         <v>5</v>
@@ -31313,10 +31314,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -31324,10 +31325,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -31372,16 +31373,16 @@
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>17</v>
@@ -31406,32 +31407,32 @@
     </row>
     <row r="2" spans="1:24" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C2" s="12">
         <v>2021</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F2" s="12">
         <v>81</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -31450,7 +31451,7 @@
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>34</v>
@@ -31462,20 +31463,20 @@
         <v>35</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F3" s="12">
         <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -31494,32 +31495,32 @@
     </row>
     <row r="4" spans="1:24" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C4" s="12">
         <v>2022</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -31538,7 +31539,7 @@
     </row>
     <row r="5" spans="1:24" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>38</v>
@@ -31547,23 +31548,23 @@
         <v>2022</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -31582,7 +31583,7 @@
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>34</v>
@@ -31591,23 +31592,23 @@
         <v>2023</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -31626,30 +31627,30 @@
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C7" s="12">
         <v>2023</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="44" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -31668,7 +31669,7 @@
     </row>
     <row r="8" spans="1:24" ht="14.25">
       <c r="A8" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>52</v>
@@ -31677,21 +31678,21 @@
         <v>2023</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="35" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="26" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -31710,7 +31711,7 @@
     </row>
     <row r="9" spans="1:24" ht="12" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>52</v>
@@ -31719,16 +31720,16 @@
         <v>2023</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="35"/>
       <c r="H9" s="2"/>
       <c r="I9" s="26" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J9" s="26"/>
       <c r="K9" s="2"/>
@@ -31748,7 +31749,7 @@
     </row>
     <row r="10" spans="1:24" ht="13">
       <c r="A10" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>38</v>
@@ -31757,16 +31758,16 @@
         <v>2023</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -31786,23 +31787,23 @@
     </row>
     <row r="11" spans="1:24" ht="13">
       <c r="A11" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C11" s="2">
         <v>2023</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="26" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -31822,7 +31823,7 @@
     </row>
     <row r="12" spans="1:24" ht="13">
       <c r="A12" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>52</v>
@@ -31831,14 +31832,14 @@
         <v>2023</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="26" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -31858,7 +31859,7 @@
     </row>
     <row r="13" spans="1:24" ht="13">
       <c r="A13" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>52</v>
@@ -31867,14 +31868,14 @@
         <v>2023</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="26" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -31894,146 +31895,146 @@
     </row>
     <row r="14" spans="1:24" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C14" s="2">
         <v>2016</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F14">
         <v>50</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C15" s="26">
         <v>2016</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I15" s="26"/>
       <c r="J15" s="29" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C16" s="26">
         <v>2023</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C17" s="26">
         <v>2023</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C18" s="26">
         <v>2023</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C19" s="26">
         <v>2023</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I19" s="26" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C20" s="26">
         <v>2023</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" customHeight="1">
@@ -57486,13 +57487,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="37" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -57533,7 +57534,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>17</v>
@@ -57558,25 +57559,25 @@
     </row>
     <row r="2" spans="1:21" ht="13">
       <c r="A2" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C2" s="2">
         <v>2023</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -57595,25 +57596,25 @@
     </row>
     <row r="3" spans="1:21" ht="13">
       <c r="A3" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C3" s="12">
         <v>2022</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -57632,25 +57633,25 @@
     </row>
     <row r="4" spans="1:21" ht="13">
       <c r="A4" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C4" s="12">
         <v>2021</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -57669,25 +57670,25 @@
     </row>
     <row r="5" spans="1:21" ht="13">
       <c r="A5" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C5" s="12">
         <v>2022</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -57706,25 +57707,25 @@
     </row>
     <row r="6" spans="1:21" ht="14.25">
       <c r="A6" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C6" s="12">
         <v>2022</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -57743,25 +57744,25 @@
     </row>
     <row r="7" spans="1:21" ht="13.75" thickBot="1">
       <c r="A7" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C7" s="12">
         <v>2022</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -57780,25 +57781,25 @@
     </row>
     <row r="8" spans="1:21" ht="13.75" thickBot="1">
       <c r="A8" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C8" s="12">
         <v>2023</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Documents\GitHub\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405D2519-14E8-43AD-A55D-32412B754B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD3119A-BF24-424C-8961-95443E68BC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -1378,7 +1378,7 @@
   </sheetPr>
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -57509,8 +57509,8 @@
   </sheetPr>
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
@@ -57819,9 +57819,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1" xr:uid="{4ED9CC33-30A2-4C7E-939A-6F7E3EC9CD8E}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{BCD04B13-E80F-4AEC-9182-CC623E83ECFB}"/>
-    <hyperlink ref="E7" r:id="rId3" xr:uid="{14F6E379-7354-4883-876A-75200C8AE4A2}"/>
-    <hyperlink ref="E2" r:id="rId4" xr:uid="{EDA79C1A-D71B-4766-BEB2-AD97DF34FB6D}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{14F6E379-7354-4883-876A-75200C8AE4A2}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{EDA79C1A-D71B-4766-BEB2-AD97DF34FB6D}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{BCD04B13-E80F-4AEC-9182-CC623E83ECFB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Documents\GitHub\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D05A1EB-2AD0-41D3-B04B-E05F719C19A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACAFE35-F03F-4B1B-AC52-FE44C95997C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="227">
   <si>
     <t>Degree</t>
   </si>
@@ -585,9 +585,6 @@
     <t>2017-2023</t>
   </si>
   <si>
-    <t>2023/9-present</t>
-  </si>
-  <si>
     <t>2021/9-2023/8</t>
   </si>
   <si>
@@ -688,6 +685,30 @@
   </si>
   <si>
     <t>Exploring the Dynamics of Daily Experiences, Emotions, and  Depression among Asian American Students: The Moderating Role of Growth Mindsets</t>
+  </si>
+  <si>
+    <t>2023/9-2024/3</t>
+  </si>
+  <si>
+    <t>2024/4-present</t>
+  </si>
+  <si>
+    <t>Psychometrician</t>
+  </si>
+  <si>
+    <t>WIDA</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/jedm.12388</t>
+  </si>
+  <si>
+    <t>Journal of Educational Measurement</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>Data analysis for measurements and statistics</t>
   </si>
 </sst>
 </file>
@@ -970,27 +991,27 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1257,7 +1278,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.5" thickBot="1">
@@ -1274,7 +1295,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
@@ -1305,8 +1326,8 @@
   </sheetPr>
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1347,7 +1368,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>71</v>
@@ -1373,7 +1394,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>74</v>
@@ -1401,10 +1422,10 @@
         <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>77</v>
@@ -1427,16 +1448,16 @@
         <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1452,19 +1473,19 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1536,19 +1557,19 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1563,10 +1584,18 @@
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>226</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1808,7 +1837,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -1853,7 +1882,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -1898,7 +1927,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
@@ -1943,7 +1972,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>35</v>
@@ -1986,7 +2015,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
@@ -2029,7 +2058,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>42</v>
@@ -2076,7 +2105,7 @@
         <v>46</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>47</v>
@@ -2121,7 +2150,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>51</v>
@@ -2166,7 +2195,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>53</v>
@@ -2209,7 +2238,7 @@
         <v>155</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>154</v>
@@ -2247,19 +2276,19 @@
         <v>19</v>
       </c>
       <c r="B12" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="E12" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="F12" s="27" t="s">
         <v>200</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>201</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2291,16 +2320,16 @@
         <v>52</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -31273,15 +31302,15 @@
   </sheetPr>
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I7"/>
+    <sheetView topLeftCell="C1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="34" customWidth="1"/>
     <col min="2" max="2" width="127.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="34" customWidth="1"/>
     <col min="4" max="4" width="184.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="62.28515625" style="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" style="34" customWidth="1"/>
@@ -31531,10 +31560,10 @@
         <v>104</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>119</v>
@@ -31576,7 +31605,7 @@
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H7" s="30" t="s">
         <v>122</v>
@@ -31650,7 +31679,7 @@
         <v>52</v>
       </c>
       <c r="C9" s="31">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>181</v>
@@ -31693,18 +31722,22 @@
         <v>2024</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="H10" s="22" t="s">
+        <v>223</v>
+      </c>
       <c r="I10" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="J10" s="30"/>
+      <c r="J10" s="30" t="s">
+        <v>103</v>
+      </c>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
@@ -31722,7 +31755,7 @@
     </row>
     <row r="11" spans="1:24" ht="20.25" customHeight="1">
       <c r="A11" s="30" t="s">
-        <v>97</v>
+        <v>225</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>124</v>
@@ -31764,7 +31797,7 @@
         <v>52</v>
       </c>
       <c r="C12" s="30">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D12" s="34" t="s">
         <v>154</v>
@@ -31800,7 +31833,7 @@
         <v>52</v>
       </c>
       <c r="C13" s="30">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>161</v>
@@ -31909,7 +31942,7 @@
         <v>159</v>
       </c>
       <c r="C17" s="30">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>160</v>
@@ -31940,16 +31973,16 @@
     </row>
     <row r="19" spans="1:24" ht="20.25" customHeight="1">
       <c r="A19" s="30" t="s">
-        <v>97</v>
+        <v>225</v>
       </c>
       <c r="B19" s="30" t="s">
         <v>159</v>
       </c>
       <c r="C19" s="30">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I19" s="30" t="s">
         <v>157</v>
@@ -31957,19 +31990,19 @@
     </row>
     <row r="20" spans="1:24" ht="20.25" customHeight="1">
       <c r="A20" s="30" t="s">
-        <v>97</v>
+        <v>225</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C20" s="30">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I20" s="30" t="s">
         <v>164</v>
@@ -57393,9 +57426,10 @@
     <hyperlink ref="H6" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
     <hyperlink ref="E18" r:id="rId6" display="https://jcatpub.net/" xr:uid="{9516199D-419C-4305-ACCB-37D6B06669B1}"/>
     <hyperlink ref="E9" r:id="rId7" display="https://journals.sagepub.com/home/jeb" xr:uid="{F248E9F7-08E7-4CAF-9290-0ED6905A9175}"/>
+    <hyperlink ref="H10" r:id="rId8" xr:uid="{2CEA1259-3579-4814-B146-A75C21FE5BDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -57428,7 +57462,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
         <v>176</v>
@@ -57592,7 +57626,7 @@
         <v>131</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Documents\GitHub\sylcv\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitfolder\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACAFE35-F03F-4B1B-AC52-FE44C95997C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360B6FBE-E648-400C-A106-269C3C34B2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="228">
   <si>
     <t>Degree</t>
   </si>
@@ -710,15 +710,18 @@
   <si>
     <t>Data analysis for measurements and statistics</t>
   </si>
+  <si>
+    <t>https://doi.org/10.1080/10705511.2024.2363827</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]mmmm\-yy;@"/>
+    <numFmt numFmtId="176" formatCode="[$-409]mmmm\-yy;@"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -772,6 +775,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -779,6 +783,7 @@
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -796,6 +801,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -840,6 +846,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -893,6 +900,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -942,7 +956,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -963,11 +977,11 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -987,7 +1001,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1013,6 +1027,9 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1239,15 +1256,15 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="136.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.40625" customWidth="1"/>
+    <col min="3" max="3" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="136.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75">
+    <row r="1" spans="1:5" ht="13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1264,7 +1281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="38.25">
+    <row r="2" spans="1:5" ht="26">
       <c r="A2" s="26" t="s">
         <v>171</v>
       </c>
@@ -1281,7 +1298,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.5" thickBot="1">
+    <row r="3" spans="1:5" ht="13.75" thickBot="1">
       <c r="A3" s="24" t="s">
         <v>139</v>
       </c>
@@ -1314,6 +1331,7 @@
       <c r="E4" s="19"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1326,13 +1344,13 @@
   </sheetPr>
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="39.140625" customWidth="1"/>
+    <col min="3" max="3" width="39.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1">
@@ -1754,6 +1772,7 @@
       <c r="P18" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1770,19 +1789,19 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" customWidth="1"/>
+    <col min="2" max="2" width="27.86328125" customWidth="1"/>
+    <col min="3" max="3" width="23.86328125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.40625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="12.75">
+    <row r="1" spans="1:27" ht="13">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1829,7 +1848,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="12.75">
+    <row r="2" spans="1:27" ht="13">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1874,7 +1893,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="12.75">
+    <row r="3" spans="1:27" ht="13">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1919,7 +1938,7 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:27" ht="12.75">
+    <row r="4" spans="1:27" ht="13.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -2007,7 +2026,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:27" ht="12.75">
+    <row r="6" spans="1:27" ht="13">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2050,7 +2069,7 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:27" ht="18">
+    <row r="7" spans="1:27" ht="14.75">
       <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
@@ -2097,7 +2116,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:27" ht="18">
+    <row r="8" spans="1:27" ht="14.75">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
@@ -2142,7 +2161,7 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:27" ht="18">
+    <row r="9" spans="1:27" ht="14.75">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -2187,7 +2206,7 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:27" ht="12.75">
+    <row r="10" spans="1:27" ht="13.25">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -2230,7 +2249,7 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:27" ht="12.75">
+    <row r="11" spans="1:27" ht="13">
       <c r="A11" s="21" t="s">
         <v>40</v>
       </c>
@@ -2353,7 +2372,7 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="1:27" ht="12.75">
+    <row r="14" spans="1:27" ht="13">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="14"/>
@@ -2382,7 +2401,7 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="1:27" ht="12.75">
+    <row r="15" spans="1:27" ht="13">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="14"/>
@@ -2411,7 +2430,7 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="1:27" ht="12.75">
+    <row r="16" spans="1:27" ht="13">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="14"/>
@@ -2440,7 +2459,7 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
     </row>
-    <row r="17" spans="1:27" ht="12.75">
+    <row r="17" spans="1:27" ht="13">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="14"/>
@@ -2469,7 +2488,7 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
     </row>
-    <row r="18" spans="1:27" ht="12.75">
+    <row r="18" spans="1:27" ht="13">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="14"/>
@@ -2498,7 +2517,7 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="1:27" ht="12.75">
+    <row r="19" spans="1:27" ht="13">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="14"/>
@@ -2527,7 +2546,7 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
-    <row r="20" spans="1:27" ht="12.75">
+    <row r="20" spans="1:27" ht="13">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="14"/>
@@ -2556,7 +2575,7 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21" spans="1:27" ht="12.75">
+    <row r="21" spans="1:27" ht="13">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="14"/>
@@ -2585,7 +2604,7 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
     </row>
-    <row r="22" spans="1:27" ht="12.75">
+    <row r="22" spans="1:27" ht="13">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="14"/>
@@ -2614,7 +2633,7 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" spans="1:27" ht="12.75">
+    <row r="23" spans="1:27" ht="13">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="14"/>
@@ -2643,7 +2662,7 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" spans="1:27" ht="12.75">
+    <row r="24" spans="1:27" ht="13">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="14"/>
@@ -2672,7 +2691,7 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" spans="1:27" ht="12.75">
+    <row r="25" spans="1:27" ht="13">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="14"/>
@@ -2701,7 +2720,7 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
     </row>
-    <row r="26" spans="1:27" ht="12.75">
+    <row r="26" spans="1:27" ht="13">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="14"/>
@@ -2730,7 +2749,7 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" spans="1:27" ht="12.75">
+    <row r="27" spans="1:27" ht="13">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="14"/>
@@ -2759,7 +2778,7 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
     </row>
-    <row r="28" spans="1:27" ht="12.75">
+    <row r="28" spans="1:27" ht="13">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="14"/>
@@ -2788,7 +2807,7 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
     </row>
-    <row r="29" spans="1:27" ht="12.75">
+    <row r="29" spans="1:27" ht="13">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="14"/>
@@ -2817,7 +2836,7 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" spans="1:27" ht="12.75">
+    <row r="30" spans="1:27" ht="13">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="14"/>
@@ -2846,7 +2865,7 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" spans="1:27" ht="12.75">
+    <row r="31" spans="1:27" ht="13">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="14"/>
@@ -2875,7 +2894,7 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
     </row>
-    <row r="32" spans="1:27" ht="12.75">
+    <row r="32" spans="1:27" ht="13">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="14"/>
@@ -2904,7 +2923,7 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="1:27" ht="12.75">
+    <row r="33" spans="1:27" ht="13">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="14"/>
@@ -2933,7 +2952,7 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="1:27" ht="12.75">
+    <row r="34" spans="1:27" ht="13">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="14"/>
@@ -2962,7 +2981,7 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="1:27" ht="12.75">
+    <row r="35" spans="1:27" ht="13">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="14"/>
@@ -2991,7 +3010,7 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
     </row>
-    <row r="36" spans="1:27" ht="12.75">
+    <row r="36" spans="1:27" ht="13">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="14"/>
@@ -3020,7 +3039,7 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
     </row>
-    <row r="37" spans="1:27" ht="12.75">
+    <row r="37" spans="1:27" ht="13">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="14"/>
@@ -3049,7 +3068,7 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
     </row>
-    <row r="38" spans="1:27" ht="12.75">
+    <row r="38" spans="1:27" ht="13">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="14"/>
@@ -3078,7 +3097,7 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
     </row>
-    <row r="39" spans="1:27" ht="12.75">
+    <row r="39" spans="1:27" ht="13">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="14"/>
@@ -3107,7 +3126,7 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
     </row>
-    <row r="40" spans="1:27" ht="12.75">
+    <row r="40" spans="1:27" ht="13">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="14"/>
@@ -3136,7 +3155,7 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="1:27" ht="12.75">
+    <row r="41" spans="1:27" ht="13">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="14"/>
@@ -3165,7 +3184,7 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
     </row>
-    <row r="42" spans="1:27" ht="12.75">
+    <row r="42" spans="1:27" ht="13">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="14"/>
@@ -3194,7 +3213,7 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
     </row>
-    <row r="43" spans="1:27" ht="12.75">
+    <row r="43" spans="1:27" ht="13">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="14"/>
@@ -3223,7 +3242,7 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
     </row>
-    <row r="44" spans="1:27" ht="12.75">
+    <row r="44" spans="1:27" ht="13">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="14"/>
@@ -3252,7 +3271,7 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
     </row>
-    <row r="45" spans="1:27" ht="12.75">
+    <row r="45" spans="1:27" ht="13">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="14"/>
@@ -3281,7 +3300,7 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" spans="1:27" ht="12.75">
+    <row r="46" spans="1:27" ht="13">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="14"/>
@@ -3310,7 +3329,7 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
     </row>
-    <row r="47" spans="1:27" ht="12.75">
+    <row r="47" spans="1:27" ht="13">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="14"/>
@@ -3339,7 +3358,7 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
     </row>
-    <row r="48" spans="1:27" ht="12.75">
+    <row r="48" spans="1:27" ht="13">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="14"/>
@@ -3368,7 +3387,7 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
     </row>
-    <row r="49" spans="1:27" ht="12.75">
+    <row r="49" spans="1:27" ht="13">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="14"/>
@@ -3397,7 +3416,7 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
     </row>
-    <row r="50" spans="1:27" ht="12.75">
+    <row r="50" spans="1:27" ht="13">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="14"/>
@@ -3426,7 +3445,7 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
     </row>
-    <row r="51" spans="1:27" ht="12.75">
+    <row r="51" spans="1:27" ht="13">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="14"/>
@@ -3455,7 +3474,7 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
     </row>
-    <row r="52" spans="1:27" ht="12.75">
+    <row r="52" spans="1:27" ht="13">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="14"/>
@@ -3484,7 +3503,7 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
     </row>
-    <row r="53" spans="1:27" ht="12.75">
+    <row r="53" spans="1:27" ht="13">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="14"/>
@@ -3513,7 +3532,7 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
     </row>
-    <row r="54" spans="1:27" ht="12.75">
+    <row r="54" spans="1:27" ht="13">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="14"/>
@@ -3542,7 +3561,7 @@
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
     </row>
-    <row r="55" spans="1:27" ht="12.75">
+    <row r="55" spans="1:27" ht="13">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="14"/>
@@ -3571,7 +3590,7 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
     </row>
-    <row r="56" spans="1:27" ht="12.75">
+    <row r="56" spans="1:27" ht="13">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="14"/>
@@ -3600,7 +3619,7 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
     </row>
-    <row r="57" spans="1:27" ht="12.75">
+    <row r="57" spans="1:27" ht="13">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="14"/>
@@ -3629,7 +3648,7 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
     </row>
-    <row r="58" spans="1:27" ht="12.75">
+    <row r="58" spans="1:27" ht="13">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="14"/>
@@ -3658,7 +3677,7 @@
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
     </row>
-    <row r="59" spans="1:27" ht="12.75">
+    <row r="59" spans="1:27" ht="13">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="14"/>
@@ -3687,7 +3706,7 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
     </row>
-    <row r="60" spans="1:27" ht="12.75">
+    <row r="60" spans="1:27" ht="13">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="14"/>
@@ -3716,7 +3735,7 @@
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
     </row>
-    <row r="61" spans="1:27" ht="12.75">
+    <row r="61" spans="1:27" ht="13">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="14"/>
@@ -3745,7 +3764,7 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
     </row>
-    <row r="62" spans="1:27" ht="12.75">
+    <row r="62" spans="1:27" ht="13">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="14"/>
@@ -3774,7 +3793,7 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
     </row>
-    <row r="63" spans="1:27" ht="12.75">
+    <row r="63" spans="1:27" ht="13">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="14"/>
@@ -3803,7 +3822,7 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
     </row>
-    <row r="64" spans="1:27" ht="12.75">
+    <row r="64" spans="1:27" ht="13">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="14"/>
@@ -3832,7 +3851,7 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
     </row>
-    <row r="65" spans="1:27" ht="12.75">
+    <row r="65" spans="1:27" ht="13">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="14"/>
@@ -3861,7 +3880,7 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66" spans="1:27" ht="12.75">
+    <row r="66" spans="1:27" ht="13">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="14"/>
@@ -3890,7 +3909,7 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
     </row>
-    <row r="67" spans="1:27" ht="12.75">
+    <row r="67" spans="1:27" ht="13">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="14"/>
@@ -3919,7 +3938,7 @@
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
     </row>
-    <row r="68" spans="1:27" ht="12.75">
+    <row r="68" spans="1:27" ht="13">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="14"/>
@@ -3948,7 +3967,7 @@
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
     </row>
-    <row r="69" spans="1:27" ht="12.75">
+    <row r="69" spans="1:27" ht="13">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="14"/>
@@ -3977,7 +3996,7 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
     </row>
-    <row r="70" spans="1:27" ht="12.75">
+    <row r="70" spans="1:27" ht="13">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="14"/>
@@ -4006,7 +4025,7 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
     </row>
-    <row r="71" spans="1:27" ht="12.75">
+    <row r="71" spans="1:27" ht="13">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="14"/>
@@ -4035,7 +4054,7 @@
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
     </row>
-    <row r="72" spans="1:27" ht="12.75">
+    <row r="72" spans="1:27" ht="13">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="14"/>
@@ -4064,7 +4083,7 @@
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
     </row>
-    <row r="73" spans="1:27" ht="12.75">
+    <row r="73" spans="1:27" ht="13">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="14"/>
@@ -4093,7 +4112,7 @@
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
     </row>
-    <row r="74" spans="1:27" ht="12.75">
+    <row r="74" spans="1:27" ht="13">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="14"/>
@@ -4122,7 +4141,7 @@
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
     </row>
-    <row r="75" spans="1:27" ht="12.75">
+    <row r="75" spans="1:27" ht="13">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="14"/>
@@ -4151,7 +4170,7 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
     </row>
-    <row r="76" spans="1:27" ht="12.75">
+    <row r="76" spans="1:27" ht="13">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="14"/>
@@ -4180,7 +4199,7 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
     </row>
-    <row r="77" spans="1:27" ht="12.75">
+    <row r="77" spans="1:27" ht="13">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="14"/>
@@ -4209,7 +4228,7 @@
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
     </row>
-    <row r="78" spans="1:27" ht="12.75">
+    <row r="78" spans="1:27" ht="13">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="14"/>
@@ -4238,7 +4257,7 @@
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
     </row>
-    <row r="79" spans="1:27" ht="12.75">
+    <row r="79" spans="1:27" ht="13">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="14"/>
@@ -4267,7 +4286,7 @@
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
     </row>
-    <row r="80" spans="1:27" ht="12.75">
+    <row r="80" spans="1:27" ht="13">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="14"/>
@@ -4296,7 +4315,7 @@
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
     </row>
-    <row r="81" spans="1:27" ht="12.75">
+    <row r="81" spans="1:27" ht="13">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="14"/>
@@ -4325,7 +4344,7 @@
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
     </row>
-    <row r="82" spans="1:27" ht="12.75">
+    <row r="82" spans="1:27" ht="13">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="14"/>
@@ -4354,7 +4373,7 @@
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
     </row>
-    <row r="83" spans="1:27" ht="12.75">
+    <row r="83" spans="1:27" ht="13">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="14"/>
@@ -4383,7 +4402,7 @@
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
     </row>
-    <row r="84" spans="1:27" ht="12.75">
+    <row r="84" spans="1:27" ht="13">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="14"/>
@@ -4412,7 +4431,7 @@
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
     </row>
-    <row r="85" spans="1:27" ht="12.75">
+    <row r="85" spans="1:27" ht="13">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="14"/>
@@ -4441,7 +4460,7 @@
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
     </row>
-    <row r="86" spans="1:27" ht="12.75">
+    <row r="86" spans="1:27" ht="13">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="14"/>
@@ -4470,7 +4489,7 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
     </row>
-    <row r="87" spans="1:27" ht="12.75">
+    <row r="87" spans="1:27" ht="13">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="14"/>
@@ -4499,7 +4518,7 @@
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
     </row>
-    <row r="88" spans="1:27" ht="12.75">
+    <row r="88" spans="1:27" ht="13">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="14"/>
@@ -4528,7 +4547,7 @@
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
     </row>
-    <row r="89" spans="1:27" ht="12.75">
+    <row r="89" spans="1:27" ht="13">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="14"/>
@@ -4557,7 +4576,7 @@
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
     </row>
-    <row r="90" spans="1:27" ht="12.75">
+    <row r="90" spans="1:27" ht="13">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="14"/>
@@ -4586,7 +4605,7 @@
       <c r="Z90" s="2"/>
       <c r="AA90" s="2"/>
     </row>
-    <row r="91" spans="1:27" ht="12.75">
+    <row r="91" spans="1:27" ht="13">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="14"/>
@@ -4615,7 +4634,7 @@
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
     </row>
-    <row r="92" spans="1:27" ht="12.75">
+    <row r="92" spans="1:27" ht="13">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="14"/>
@@ -4644,7 +4663,7 @@
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
     </row>
-    <row r="93" spans="1:27" ht="12.75">
+    <row r="93" spans="1:27" ht="13">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="14"/>
@@ -4673,7 +4692,7 @@
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
     </row>
-    <row r="94" spans="1:27" ht="12.75">
+    <row r="94" spans="1:27" ht="13">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="14"/>
@@ -4702,7 +4721,7 @@
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
     </row>
-    <row r="95" spans="1:27" ht="12.75">
+    <row r="95" spans="1:27" ht="13">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="14"/>
@@ -4731,7 +4750,7 @@
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
     </row>
-    <row r="96" spans="1:27" ht="12.75">
+    <row r="96" spans="1:27" ht="13">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="14"/>
@@ -4760,7 +4779,7 @@
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
     </row>
-    <row r="97" spans="1:27" ht="12.75">
+    <row r="97" spans="1:27" ht="13">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="14"/>
@@ -4789,7 +4808,7 @@
       <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
     </row>
-    <row r="98" spans="1:27" ht="12.75">
+    <row r="98" spans="1:27" ht="13">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="14"/>
@@ -4818,7 +4837,7 @@
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
     </row>
-    <row r="99" spans="1:27" ht="12.75">
+    <row r="99" spans="1:27" ht="13">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="14"/>
@@ -4847,7 +4866,7 @@
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
     </row>
-    <row r="100" spans="1:27" ht="12.75">
+    <row r="100" spans="1:27" ht="13">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="14"/>
@@ -4876,7 +4895,7 @@
       <c r="Z100" s="2"/>
       <c r="AA100" s="2"/>
     </row>
-    <row r="101" spans="1:27" ht="12.75">
+    <row r="101" spans="1:27" ht="13">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="14"/>
@@ -4905,7 +4924,7 @@
       <c r="Z101" s="2"/>
       <c r="AA101" s="2"/>
     </row>
-    <row r="102" spans="1:27" ht="12.75">
+    <row r="102" spans="1:27" ht="13">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="14"/>
@@ -4934,7 +4953,7 @@
       <c r="Z102" s="2"/>
       <c r="AA102" s="2"/>
     </row>
-    <row r="103" spans="1:27" ht="12.75">
+    <row r="103" spans="1:27" ht="13">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="14"/>
@@ -4963,7 +4982,7 @@
       <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
     </row>
-    <row r="104" spans="1:27" ht="12.75">
+    <row r="104" spans="1:27" ht="13">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="14"/>
@@ -4992,7 +5011,7 @@
       <c r="Z104" s="2"/>
       <c r="AA104" s="2"/>
     </row>
-    <row r="105" spans="1:27" ht="12.75">
+    <row r="105" spans="1:27" ht="13">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="14"/>
@@ -5021,7 +5040,7 @@
       <c r="Z105" s="2"/>
       <c r="AA105" s="2"/>
     </row>
-    <row r="106" spans="1:27" ht="12.75">
+    <row r="106" spans="1:27" ht="13">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="14"/>
@@ -5050,7 +5069,7 @@
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
     </row>
-    <row r="107" spans="1:27" ht="12.75">
+    <row r="107" spans="1:27" ht="13">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="14"/>
@@ -5079,7 +5098,7 @@
       <c r="Z107" s="2"/>
       <c r="AA107" s="2"/>
     </row>
-    <row r="108" spans="1:27" ht="12.75">
+    <row r="108" spans="1:27" ht="13">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="14"/>
@@ -5108,7 +5127,7 @@
       <c r="Z108" s="2"/>
       <c r="AA108" s="2"/>
     </row>
-    <row r="109" spans="1:27" ht="12.75">
+    <row r="109" spans="1:27" ht="13">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="14"/>
@@ -5137,7 +5156,7 @@
       <c r="Z109" s="2"/>
       <c r="AA109" s="2"/>
     </row>
-    <row r="110" spans="1:27" ht="12.75">
+    <row r="110" spans="1:27" ht="13">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="14"/>
@@ -5166,7 +5185,7 @@
       <c r="Z110" s="2"/>
       <c r="AA110" s="2"/>
     </row>
-    <row r="111" spans="1:27" ht="12.75">
+    <row r="111" spans="1:27" ht="13">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="14"/>
@@ -5195,7 +5214,7 @@
       <c r="Z111" s="2"/>
       <c r="AA111" s="2"/>
     </row>
-    <row r="112" spans="1:27" ht="12.75">
+    <row r="112" spans="1:27" ht="13">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="14"/>
@@ -5224,7 +5243,7 @@
       <c r="Z112" s="2"/>
       <c r="AA112" s="2"/>
     </row>
-    <row r="113" spans="1:27" ht="12.75">
+    <row r="113" spans="1:27" ht="13">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="14"/>
@@ -5253,7 +5272,7 @@
       <c r="Z113" s="2"/>
       <c r="AA113" s="2"/>
     </row>
-    <row r="114" spans="1:27" ht="12.75">
+    <row r="114" spans="1:27" ht="13">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="14"/>
@@ -5282,7 +5301,7 @@
       <c r="Z114" s="2"/>
       <c r="AA114" s="2"/>
     </row>
-    <row r="115" spans="1:27" ht="12.75">
+    <row r="115" spans="1:27" ht="13">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="14"/>
@@ -5311,7 +5330,7 @@
       <c r="Z115" s="2"/>
       <c r="AA115" s="2"/>
     </row>
-    <row r="116" spans="1:27" ht="12.75">
+    <row r="116" spans="1:27" ht="13">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="14"/>
@@ -5340,7 +5359,7 @@
       <c r="Z116" s="2"/>
       <c r="AA116" s="2"/>
     </row>
-    <row r="117" spans="1:27" ht="12.75">
+    <row r="117" spans="1:27" ht="13">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="14"/>
@@ -5369,7 +5388,7 @@
       <c r="Z117" s="2"/>
       <c r="AA117" s="2"/>
     </row>
-    <row r="118" spans="1:27" ht="12.75">
+    <row r="118" spans="1:27" ht="13">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="14"/>
@@ -5398,7 +5417,7 @@
       <c r="Z118" s="2"/>
       <c r="AA118" s="2"/>
     </row>
-    <row r="119" spans="1:27" ht="12.75">
+    <row r="119" spans="1:27" ht="13">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="14"/>
@@ -5427,7 +5446,7 @@
       <c r="Z119" s="2"/>
       <c r="AA119" s="2"/>
     </row>
-    <row r="120" spans="1:27" ht="12.75">
+    <row r="120" spans="1:27" ht="13">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="14"/>
@@ -5456,7 +5475,7 @@
       <c r="Z120" s="2"/>
       <c r="AA120" s="2"/>
     </row>
-    <row r="121" spans="1:27" ht="12.75">
+    <row r="121" spans="1:27" ht="13">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="14"/>
@@ -5485,7 +5504,7 @@
       <c r="Z121" s="2"/>
       <c r="AA121" s="2"/>
     </row>
-    <row r="122" spans="1:27" ht="12.75">
+    <row r="122" spans="1:27" ht="13">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="14"/>
@@ -5514,7 +5533,7 @@
       <c r="Z122" s="2"/>
       <c r="AA122" s="2"/>
     </row>
-    <row r="123" spans="1:27" ht="12.75">
+    <row r="123" spans="1:27" ht="13">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="14"/>
@@ -5543,7 +5562,7 @@
       <c r="Z123" s="2"/>
       <c r="AA123" s="2"/>
     </row>
-    <row r="124" spans="1:27" ht="12.75">
+    <row r="124" spans="1:27" ht="13">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="14"/>
@@ -5572,7 +5591,7 @@
       <c r="Z124" s="2"/>
       <c r="AA124" s="2"/>
     </row>
-    <row r="125" spans="1:27" ht="12.75">
+    <row r="125" spans="1:27" ht="13">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="14"/>
@@ -5601,7 +5620,7 @@
       <c r="Z125" s="2"/>
       <c r="AA125" s="2"/>
     </row>
-    <row r="126" spans="1:27" ht="12.75">
+    <row r="126" spans="1:27" ht="13">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="14"/>
@@ -5630,7 +5649,7 @@
       <c r="Z126" s="2"/>
       <c r="AA126" s="2"/>
     </row>
-    <row r="127" spans="1:27" ht="12.75">
+    <row r="127" spans="1:27" ht="13">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="14"/>
@@ -5659,7 +5678,7 @@
       <c r="Z127" s="2"/>
       <c r="AA127" s="2"/>
     </row>
-    <row r="128" spans="1:27" ht="12.75">
+    <row r="128" spans="1:27" ht="13">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="14"/>
@@ -5688,7 +5707,7 @@
       <c r="Z128" s="2"/>
       <c r="AA128" s="2"/>
     </row>
-    <row r="129" spans="1:27" ht="12.75">
+    <row r="129" spans="1:27" ht="13">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="14"/>
@@ -5717,7 +5736,7 @@
       <c r="Z129" s="2"/>
       <c r="AA129" s="2"/>
     </row>
-    <row r="130" spans="1:27" ht="12.75">
+    <row r="130" spans="1:27" ht="13">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="14"/>
@@ -5746,7 +5765,7 @@
       <c r="Z130" s="2"/>
       <c r="AA130" s="2"/>
     </row>
-    <row r="131" spans="1:27" ht="12.75">
+    <row r="131" spans="1:27" ht="13">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="14"/>
@@ -5775,7 +5794,7 @@
       <c r="Z131" s="2"/>
       <c r="AA131" s="2"/>
     </row>
-    <row r="132" spans="1:27" ht="12.75">
+    <row r="132" spans="1:27" ht="13">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="14"/>
@@ -5804,7 +5823,7 @@
       <c r="Z132" s="2"/>
       <c r="AA132" s="2"/>
     </row>
-    <row r="133" spans="1:27" ht="12.75">
+    <row r="133" spans="1:27" ht="13">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="14"/>
@@ -5833,7 +5852,7 @@
       <c r="Z133" s="2"/>
       <c r="AA133" s="2"/>
     </row>
-    <row r="134" spans="1:27" ht="12.75">
+    <row r="134" spans="1:27" ht="13">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="14"/>
@@ -5862,7 +5881,7 @@
       <c r="Z134" s="2"/>
       <c r="AA134" s="2"/>
     </row>
-    <row r="135" spans="1:27" ht="12.75">
+    <row r="135" spans="1:27" ht="13">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="14"/>
@@ -5891,7 +5910,7 @@
       <c r="Z135" s="2"/>
       <c r="AA135" s="2"/>
     </row>
-    <row r="136" spans="1:27" ht="12.75">
+    <row r="136" spans="1:27" ht="13">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="14"/>
@@ -5920,7 +5939,7 @@
       <c r="Z136" s="2"/>
       <c r="AA136" s="2"/>
     </row>
-    <row r="137" spans="1:27" ht="12.75">
+    <row r="137" spans="1:27" ht="13">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="14"/>
@@ -5949,7 +5968,7 @@
       <c r="Z137" s="2"/>
       <c r="AA137" s="2"/>
     </row>
-    <row r="138" spans="1:27" ht="12.75">
+    <row r="138" spans="1:27" ht="13">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="14"/>
@@ -5978,7 +5997,7 @@
       <c r="Z138" s="2"/>
       <c r="AA138" s="2"/>
     </row>
-    <row r="139" spans="1:27" ht="12.75">
+    <row r="139" spans="1:27" ht="13">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="14"/>
@@ -6007,7 +6026,7 @@
       <c r="Z139" s="2"/>
       <c r="AA139" s="2"/>
     </row>
-    <row r="140" spans="1:27" ht="12.75">
+    <row r="140" spans="1:27" ht="13">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="14"/>
@@ -6036,7 +6055,7 @@
       <c r="Z140" s="2"/>
       <c r="AA140" s="2"/>
     </row>
-    <row r="141" spans="1:27" ht="12.75">
+    <row r="141" spans="1:27" ht="13">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="14"/>
@@ -6065,7 +6084,7 @@
       <c r="Z141" s="2"/>
       <c r="AA141" s="2"/>
     </row>
-    <row r="142" spans="1:27" ht="12.75">
+    <row r="142" spans="1:27" ht="13">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="14"/>
@@ -6094,7 +6113,7 @@
       <c r="Z142" s="2"/>
       <c r="AA142" s="2"/>
     </row>
-    <row r="143" spans="1:27" ht="12.75">
+    <row r="143" spans="1:27" ht="13">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="14"/>
@@ -6123,7 +6142,7 @@
       <c r="Z143" s="2"/>
       <c r="AA143" s="2"/>
     </row>
-    <row r="144" spans="1:27" ht="12.75">
+    <row r="144" spans="1:27" ht="13">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="14"/>
@@ -6152,7 +6171,7 @@
       <c r="Z144" s="2"/>
       <c r="AA144" s="2"/>
     </row>
-    <row r="145" spans="1:27" ht="12.75">
+    <row r="145" spans="1:27" ht="13">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="14"/>
@@ -6181,7 +6200,7 @@
       <c r="Z145" s="2"/>
       <c r="AA145" s="2"/>
     </row>
-    <row r="146" spans="1:27" ht="12.75">
+    <row r="146" spans="1:27" ht="13">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="14"/>
@@ -6210,7 +6229,7 @@
       <c r="Z146" s="2"/>
       <c r="AA146" s="2"/>
     </row>
-    <row r="147" spans="1:27" ht="12.75">
+    <row r="147" spans="1:27" ht="13">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="14"/>
@@ -6239,7 +6258,7 @@
       <c r="Z147" s="2"/>
       <c r="AA147" s="2"/>
     </row>
-    <row r="148" spans="1:27" ht="12.75">
+    <row r="148" spans="1:27" ht="13">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="14"/>
@@ -6268,7 +6287,7 @@
       <c r="Z148" s="2"/>
       <c r="AA148" s="2"/>
     </row>
-    <row r="149" spans="1:27" ht="12.75">
+    <row r="149" spans="1:27" ht="13">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="14"/>
@@ -6297,7 +6316,7 @@
       <c r="Z149" s="2"/>
       <c r="AA149" s="2"/>
     </row>
-    <row r="150" spans="1:27" ht="12.75">
+    <row r="150" spans="1:27" ht="13">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="14"/>
@@ -6326,7 +6345,7 @@
       <c r="Z150" s="2"/>
       <c r="AA150" s="2"/>
     </row>
-    <row r="151" spans="1:27" ht="12.75">
+    <row r="151" spans="1:27" ht="13">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="14"/>
@@ -6355,7 +6374,7 @@
       <c r="Z151" s="2"/>
       <c r="AA151" s="2"/>
     </row>
-    <row r="152" spans="1:27" ht="12.75">
+    <row r="152" spans="1:27" ht="13">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="14"/>
@@ -6384,7 +6403,7 @@
       <c r="Z152" s="2"/>
       <c r="AA152" s="2"/>
     </row>
-    <row r="153" spans="1:27" ht="12.75">
+    <row r="153" spans="1:27" ht="13">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="14"/>
@@ -6413,7 +6432,7 @@
       <c r="Z153" s="2"/>
       <c r="AA153" s="2"/>
     </row>
-    <row r="154" spans="1:27" ht="12.75">
+    <row r="154" spans="1:27" ht="13">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="14"/>
@@ -6442,7 +6461,7 @@
       <c r="Z154" s="2"/>
       <c r="AA154" s="2"/>
     </row>
-    <row r="155" spans="1:27" ht="12.75">
+    <row r="155" spans="1:27" ht="13">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="14"/>
@@ -6471,7 +6490,7 @@
       <c r="Z155" s="2"/>
       <c r="AA155" s="2"/>
     </row>
-    <row r="156" spans="1:27" ht="12.75">
+    <row r="156" spans="1:27" ht="13">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="14"/>
@@ -6500,7 +6519,7 @@
       <c r="Z156" s="2"/>
       <c r="AA156" s="2"/>
     </row>
-    <row r="157" spans="1:27" ht="12.75">
+    <row r="157" spans="1:27" ht="13">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="14"/>
@@ -6529,7 +6548,7 @@
       <c r="Z157" s="2"/>
       <c r="AA157" s="2"/>
     </row>
-    <row r="158" spans="1:27" ht="12.75">
+    <row r="158" spans="1:27" ht="13">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="14"/>
@@ -6558,7 +6577,7 @@
       <c r="Z158" s="2"/>
       <c r="AA158" s="2"/>
     </row>
-    <row r="159" spans="1:27" ht="12.75">
+    <row r="159" spans="1:27" ht="13">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="14"/>
@@ -6587,7 +6606,7 @@
       <c r="Z159" s="2"/>
       <c r="AA159" s="2"/>
     </row>
-    <row r="160" spans="1:27" ht="12.75">
+    <row r="160" spans="1:27" ht="13">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="14"/>
@@ -6616,7 +6635,7 @@
       <c r="Z160" s="2"/>
       <c r="AA160" s="2"/>
     </row>
-    <row r="161" spans="1:27" ht="12.75">
+    <row r="161" spans="1:27" ht="13">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="14"/>
@@ -6645,7 +6664,7 @@
       <c r="Z161" s="2"/>
       <c r="AA161" s="2"/>
     </row>
-    <row r="162" spans="1:27" ht="12.75">
+    <row r="162" spans="1:27" ht="13">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="14"/>
@@ -6674,7 +6693,7 @@
       <c r="Z162" s="2"/>
       <c r="AA162" s="2"/>
     </row>
-    <row r="163" spans="1:27" ht="12.75">
+    <row r="163" spans="1:27" ht="13">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="14"/>
@@ -6703,7 +6722,7 @@
       <c r="Z163" s="2"/>
       <c r="AA163" s="2"/>
     </row>
-    <row r="164" spans="1:27" ht="12.75">
+    <row r="164" spans="1:27" ht="13">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="14"/>
@@ -6732,7 +6751,7 @@
       <c r="Z164" s="2"/>
       <c r="AA164" s="2"/>
     </row>
-    <row r="165" spans="1:27" ht="12.75">
+    <row r="165" spans="1:27" ht="13">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="14"/>
@@ -6761,7 +6780,7 @@
       <c r="Z165" s="2"/>
       <c r="AA165" s="2"/>
     </row>
-    <row r="166" spans="1:27" ht="12.75">
+    <row r="166" spans="1:27" ht="13">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="14"/>
@@ -6790,7 +6809,7 @@
       <c r="Z166" s="2"/>
       <c r="AA166" s="2"/>
     </row>
-    <row r="167" spans="1:27" ht="12.75">
+    <row r="167" spans="1:27" ht="13">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="14"/>
@@ -6819,7 +6838,7 @@
       <c r="Z167" s="2"/>
       <c r="AA167" s="2"/>
     </row>
-    <row r="168" spans="1:27" ht="12.75">
+    <row r="168" spans="1:27" ht="13">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="14"/>
@@ -6848,7 +6867,7 @@
       <c r="Z168" s="2"/>
       <c r="AA168" s="2"/>
     </row>
-    <row r="169" spans="1:27" ht="12.75">
+    <row r="169" spans="1:27" ht="13">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="14"/>
@@ -6877,7 +6896,7 @@
       <c r="Z169" s="2"/>
       <c r="AA169" s="2"/>
     </row>
-    <row r="170" spans="1:27" ht="12.75">
+    <row r="170" spans="1:27" ht="13">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="14"/>
@@ -6906,7 +6925,7 @@
       <c r="Z170" s="2"/>
       <c r="AA170" s="2"/>
     </row>
-    <row r="171" spans="1:27" ht="12.75">
+    <row r="171" spans="1:27" ht="13">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="14"/>
@@ -6935,7 +6954,7 @@
       <c r="Z171" s="2"/>
       <c r="AA171" s="2"/>
     </row>
-    <row r="172" spans="1:27" ht="12.75">
+    <row r="172" spans="1:27" ht="13">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="14"/>
@@ -6964,7 +6983,7 @@
       <c r="Z172" s="2"/>
       <c r="AA172" s="2"/>
     </row>
-    <row r="173" spans="1:27" ht="12.75">
+    <row r="173" spans="1:27" ht="13">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="14"/>
@@ -6993,7 +7012,7 @@
       <c r="Z173" s="2"/>
       <c r="AA173" s="2"/>
     </row>
-    <row r="174" spans="1:27" ht="12.75">
+    <row r="174" spans="1:27" ht="13">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="14"/>
@@ -7022,7 +7041,7 @@
       <c r="Z174" s="2"/>
       <c r="AA174" s="2"/>
     </row>
-    <row r="175" spans="1:27" ht="12.75">
+    <row r="175" spans="1:27" ht="13">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="14"/>
@@ -7051,7 +7070,7 @@
       <c r="Z175" s="2"/>
       <c r="AA175" s="2"/>
     </row>
-    <row r="176" spans="1:27" ht="12.75">
+    <row r="176" spans="1:27" ht="13">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="14"/>
@@ -7080,7 +7099,7 @@
       <c r="Z176" s="2"/>
       <c r="AA176" s="2"/>
     </row>
-    <row r="177" spans="1:27" ht="12.75">
+    <row r="177" spans="1:27" ht="13">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="14"/>
@@ -7109,7 +7128,7 @@
       <c r="Z177" s="2"/>
       <c r="AA177" s="2"/>
     </row>
-    <row r="178" spans="1:27" ht="12.75">
+    <row r="178" spans="1:27" ht="13">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="14"/>
@@ -7138,7 +7157,7 @@
       <c r="Z178" s="2"/>
       <c r="AA178" s="2"/>
     </row>
-    <row r="179" spans="1:27" ht="12.75">
+    <row r="179" spans="1:27" ht="13">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="14"/>
@@ -7167,7 +7186,7 @@
       <c r="Z179" s="2"/>
       <c r="AA179" s="2"/>
     </row>
-    <row r="180" spans="1:27" ht="12.75">
+    <row r="180" spans="1:27" ht="13">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="14"/>
@@ -7196,7 +7215,7 @@
       <c r="Z180" s="2"/>
       <c r="AA180" s="2"/>
     </row>
-    <row r="181" spans="1:27" ht="12.75">
+    <row r="181" spans="1:27" ht="13">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="14"/>
@@ -7225,7 +7244,7 @@
       <c r="Z181" s="2"/>
       <c r="AA181" s="2"/>
     </row>
-    <row r="182" spans="1:27" ht="12.75">
+    <row r="182" spans="1:27" ht="13">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="14"/>
@@ -7254,7 +7273,7 @@
       <c r="Z182" s="2"/>
       <c r="AA182" s="2"/>
     </row>
-    <row r="183" spans="1:27" ht="12.75">
+    <row r="183" spans="1:27" ht="13">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="14"/>
@@ -7283,7 +7302,7 @@
       <c r="Z183" s="2"/>
       <c r="AA183" s="2"/>
     </row>
-    <row r="184" spans="1:27" ht="12.75">
+    <row r="184" spans="1:27" ht="13">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="14"/>
@@ -7312,7 +7331,7 @@
       <c r="Z184" s="2"/>
       <c r="AA184" s="2"/>
     </row>
-    <row r="185" spans="1:27" ht="12.75">
+    <row r="185" spans="1:27" ht="13">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="14"/>
@@ -7341,7 +7360,7 @@
       <c r="Z185" s="2"/>
       <c r="AA185" s="2"/>
     </row>
-    <row r="186" spans="1:27" ht="12.75">
+    <row r="186" spans="1:27" ht="13">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="14"/>
@@ -7370,7 +7389,7 @@
       <c r="Z186" s="2"/>
       <c r="AA186" s="2"/>
     </row>
-    <row r="187" spans="1:27" ht="12.75">
+    <row r="187" spans="1:27" ht="13">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="14"/>
@@ -7399,7 +7418,7 @@
       <c r="Z187" s="2"/>
       <c r="AA187" s="2"/>
     </row>
-    <row r="188" spans="1:27" ht="12.75">
+    <row r="188" spans="1:27" ht="13">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="14"/>
@@ -7428,7 +7447,7 @@
       <c r="Z188" s="2"/>
       <c r="AA188" s="2"/>
     </row>
-    <row r="189" spans="1:27" ht="12.75">
+    <row r="189" spans="1:27" ht="13">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="14"/>
@@ -7457,7 +7476,7 @@
       <c r="Z189" s="2"/>
       <c r="AA189" s="2"/>
     </row>
-    <row r="190" spans="1:27" ht="12.75">
+    <row r="190" spans="1:27" ht="13">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="14"/>
@@ -7486,7 +7505,7 @@
       <c r="Z190" s="2"/>
       <c r="AA190" s="2"/>
     </row>
-    <row r="191" spans="1:27" ht="12.75">
+    <row r="191" spans="1:27" ht="13">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="14"/>
@@ -7515,7 +7534,7 @@
       <c r="Z191" s="2"/>
       <c r="AA191" s="2"/>
     </row>
-    <row r="192" spans="1:27" ht="12.75">
+    <row r="192" spans="1:27" ht="13">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="14"/>
@@ -7544,7 +7563,7 @@
       <c r="Z192" s="2"/>
       <c r="AA192" s="2"/>
     </row>
-    <row r="193" spans="1:27" ht="12.75">
+    <row r="193" spans="1:27" ht="13">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="14"/>
@@ -7573,7 +7592,7 @@
       <c r="Z193" s="2"/>
       <c r="AA193" s="2"/>
     </row>
-    <row r="194" spans="1:27" ht="12.75">
+    <row r="194" spans="1:27" ht="13">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="14"/>
@@ -7602,7 +7621,7 @@
       <c r="Z194" s="2"/>
       <c r="AA194" s="2"/>
     </row>
-    <row r="195" spans="1:27" ht="12.75">
+    <row r="195" spans="1:27" ht="13">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="14"/>
@@ -7631,7 +7650,7 @@
       <c r="Z195" s="2"/>
       <c r="AA195" s="2"/>
     </row>
-    <row r="196" spans="1:27" ht="12.75">
+    <row r="196" spans="1:27" ht="13">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="14"/>
@@ -7660,7 +7679,7 @@
       <c r="Z196" s="2"/>
       <c r="AA196" s="2"/>
     </row>
-    <row r="197" spans="1:27" ht="12.75">
+    <row r="197" spans="1:27" ht="13">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="14"/>
@@ -7689,7 +7708,7 @@
       <c r="Z197" s="2"/>
       <c r="AA197" s="2"/>
     </row>
-    <row r="198" spans="1:27" ht="12.75">
+    <row r="198" spans="1:27" ht="13">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="14"/>
@@ -7718,7 +7737,7 @@
       <c r="Z198" s="2"/>
       <c r="AA198" s="2"/>
     </row>
-    <row r="199" spans="1:27" ht="12.75">
+    <row r="199" spans="1:27" ht="13">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="14"/>
@@ -7747,7 +7766,7 @@
       <c r="Z199" s="2"/>
       <c r="AA199" s="2"/>
     </row>
-    <row r="200" spans="1:27" ht="12.75">
+    <row r="200" spans="1:27" ht="13">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="14"/>
@@ -7776,7 +7795,7 @@
       <c r="Z200" s="2"/>
       <c r="AA200" s="2"/>
     </row>
-    <row r="201" spans="1:27" ht="12.75">
+    <row r="201" spans="1:27" ht="13">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="14"/>
@@ -7805,7 +7824,7 @@
       <c r="Z201" s="2"/>
       <c r="AA201" s="2"/>
     </row>
-    <row r="202" spans="1:27" ht="12.75">
+    <row r="202" spans="1:27" ht="13">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="14"/>
@@ -7834,7 +7853,7 @@
       <c r="Z202" s="2"/>
       <c r="AA202" s="2"/>
     </row>
-    <row r="203" spans="1:27" ht="12.75">
+    <row r="203" spans="1:27" ht="13">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="14"/>
@@ -7863,7 +7882,7 @@
       <c r="Z203" s="2"/>
       <c r="AA203" s="2"/>
     </row>
-    <row r="204" spans="1:27" ht="12.75">
+    <row r="204" spans="1:27" ht="13">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="14"/>
@@ -7892,7 +7911,7 @@
       <c r="Z204" s="2"/>
       <c r="AA204" s="2"/>
     </row>
-    <row r="205" spans="1:27" ht="12.75">
+    <row r="205" spans="1:27" ht="13">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="14"/>
@@ -7921,7 +7940,7 @@
       <c r="Z205" s="2"/>
       <c r="AA205" s="2"/>
     </row>
-    <row r="206" spans="1:27" ht="12.75">
+    <row r="206" spans="1:27" ht="13">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="14"/>
@@ -7950,7 +7969,7 @@
       <c r="Z206" s="2"/>
       <c r="AA206" s="2"/>
     </row>
-    <row r="207" spans="1:27" ht="12.75">
+    <row r="207" spans="1:27" ht="13">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="14"/>
@@ -7979,7 +7998,7 @@
       <c r="Z207" s="2"/>
       <c r="AA207" s="2"/>
     </row>
-    <row r="208" spans="1:27" ht="12.75">
+    <row r="208" spans="1:27" ht="13">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="14"/>
@@ -8008,7 +8027,7 @@
       <c r="Z208" s="2"/>
       <c r="AA208" s="2"/>
     </row>
-    <row r="209" spans="1:27" ht="12.75">
+    <row r="209" spans="1:27" ht="13">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="14"/>
@@ -8037,7 +8056,7 @@
       <c r="Z209" s="2"/>
       <c r="AA209" s="2"/>
     </row>
-    <row r="210" spans="1:27" ht="12.75">
+    <row r="210" spans="1:27" ht="13">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="14"/>
@@ -8066,7 +8085,7 @@
       <c r="Z210" s="2"/>
       <c r="AA210" s="2"/>
     </row>
-    <row r="211" spans="1:27" ht="12.75">
+    <row r="211" spans="1:27" ht="13">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="14"/>
@@ -8095,7 +8114,7 @@
       <c r="Z211" s="2"/>
       <c r="AA211" s="2"/>
     </row>
-    <row r="212" spans="1:27" ht="12.75">
+    <row r="212" spans="1:27" ht="13">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="14"/>
@@ -8124,7 +8143,7 @@
       <c r="Z212" s="2"/>
       <c r="AA212" s="2"/>
     </row>
-    <row r="213" spans="1:27" ht="12.75">
+    <row r="213" spans="1:27" ht="13">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="14"/>
@@ -8153,7 +8172,7 @@
       <c r="Z213" s="2"/>
       <c r="AA213" s="2"/>
     </row>
-    <row r="214" spans="1:27" ht="12.75">
+    <row r="214" spans="1:27" ht="13">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="14"/>
@@ -8182,7 +8201,7 @@
       <c r="Z214" s="2"/>
       <c r="AA214" s="2"/>
     </row>
-    <row r="215" spans="1:27" ht="12.75">
+    <row r="215" spans="1:27" ht="13">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="14"/>
@@ -8211,7 +8230,7 @@
       <c r="Z215" s="2"/>
       <c r="AA215" s="2"/>
     </row>
-    <row r="216" spans="1:27" ht="12.75">
+    <row r="216" spans="1:27" ht="13">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="14"/>
@@ -8240,7 +8259,7 @@
       <c r="Z216" s="2"/>
       <c r="AA216" s="2"/>
     </row>
-    <row r="217" spans="1:27" ht="12.75">
+    <row r="217" spans="1:27" ht="13">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="14"/>
@@ -8269,7 +8288,7 @@
       <c r="Z217" s="2"/>
       <c r="AA217" s="2"/>
     </row>
-    <row r="218" spans="1:27" ht="12.75">
+    <row r="218" spans="1:27" ht="13">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="14"/>
@@ -8298,7 +8317,7 @@
       <c r="Z218" s="2"/>
       <c r="AA218" s="2"/>
     </row>
-    <row r="219" spans="1:27" ht="12.75">
+    <row r="219" spans="1:27" ht="13">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="14"/>
@@ -8327,7 +8346,7 @@
       <c r="Z219" s="2"/>
       <c r="AA219" s="2"/>
     </row>
-    <row r="220" spans="1:27" ht="12.75">
+    <row r="220" spans="1:27" ht="13">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="14"/>
@@ -8356,7 +8375,7 @@
       <c r="Z220" s="2"/>
       <c r="AA220" s="2"/>
     </row>
-    <row r="221" spans="1:27" ht="12.75">
+    <row r="221" spans="1:27" ht="13">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="14"/>
@@ -8385,7 +8404,7 @@
       <c r="Z221" s="2"/>
       <c r="AA221" s="2"/>
     </row>
-    <row r="222" spans="1:27" ht="12.75">
+    <row r="222" spans="1:27" ht="13">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="14"/>
@@ -8414,7 +8433,7 @@
       <c r="Z222" s="2"/>
       <c r="AA222" s="2"/>
     </row>
-    <row r="223" spans="1:27" ht="12.75">
+    <row r="223" spans="1:27" ht="13">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="14"/>
@@ -8443,7 +8462,7 @@
       <c r="Z223" s="2"/>
       <c r="AA223" s="2"/>
     </row>
-    <row r="224" spans="1:27" ht="12.75">
+    <row r="224" spans="1:27" ht="13">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="14"/>
@@ -8472,7 +8491,7 @@
       <c r="Z224" s="2"/>
       <c r="AA224" s="2"/>
     </row>
-    <row r="225" spans="1:27" ht="12.75">
+    <row r="225" spans="1:27" ht="13">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="14"/>
@@ -8501,7 +8520,7 @@
       <c r="Z225" s="2"/>
       <c r="AA225" s="2"/>
     </row>
-    <row r="226" spans="1:27" ht="12.75">
+    <row r="226" spans="1:27" ht="13">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="14"/>
@@ -8530,7 +8549,7 @@
       <c r="Z226" s="2"/>
       <c r="AA226" s="2"/>
     </row>
-    <row r="227" spans="1:27" ht="12.75">
+    <row r="227" spans="1:27" ht="13">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="14"/>
@@ -8559,7 +8578,7 @@
       <c r="Z227" s="2"/>
       <c r="AA227" s="2"/>
     </row>
-    <row r="228" spans="1:27" ht="12.75">
+    <row r="228" spans="1:27" ht="13">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="14"/>
@@ -8588,7 +8607,7 @@
       <c r="Z228" s="2"/>
       <c r="AA228" s="2"/>
     </row>
-    <row r="229" spans="1:27" ht="12.75">
+    <row r="229" spans="1:27" ht="13">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="14"/>
@@ -8617,7 +8636,7 @@
       <c r="Z229" s="2"/>
       <c r="AA229" s="2"/>
     </row>
-    <row r="230" spans="1:27" ht="12.75">
+    <row r="230" spans="1:27" ht="13">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="14"/>
@@ -8646,7 +8665,7 @@
       <c r="Z230" s="2"/>
       <c r="AA230" s="2"/>
     </row>
-    <row r="231" spans="1:27" ht="12.75">
+    <row r="231" spans="1:27" ht="13">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="14"/>
@@ -8675,7 +8694,7 @@
       <c r="Z231" s="2"/>
       <c r="AA231" s="2"/>
     </row>
-    <row r="232" spans="1:27" ht="12.75">
+    <row r="232" spans="1:27" ht="13">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="14"/>
@@ -8704,7 +8723,7 @@
       <c r="Z232" s="2"/>
       <c r="AA232" s="2"/>
     </row>
-    <row r="233" spans="1:27" ht="12.75">
+    <row r="233" spans="1:27" ht="13">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="14"/>
@@ -8733,7 +8752,7 @@
       <c r="Z233" s="2"/>
       <c r="AA233" s="2"/>
     </row>
-    <row r="234" spans="1:27" ht="12.75">
+    <row r="234" spans="1:27" ht="13">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="14"/>
@@ -8762,7 +8781,7 @@
       <c r="Z234" s="2"/>
       <c r="AA234" s="2"/>
     </row>
-    <row r="235" spans="1:27" ht="12.75">
+    <row r="235" spans="1:27" ht="13">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="14"/>
@@ -8791,7 +8810,7 @@
       <c r="Z235" s="2"/>
       <c r="AA235" s="2"/>
     </row>
-    <row r="236" spans="1:27" ht="12.75">
+    <row r="236" spans="1:27" ht="13">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="14"/>
@@ -8820,7 +8839,7 @@
       <c r="Z236" s="2"/>
       <c r="AA236" s="2"/>
     </row>
-    <row r="237" spans="1:27" ht="12.75">
+    <row r="237" spans="1:27" ht="13">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="14"/>
@@ -8849,7 +8868,7 @@
       <c r="Z237" s="2"/>
       <c r="AA237" s="2"/>
     </row>
-    <row r="238" spans="1:27" ht="12.75">
+    <row r="238" spans="1:27" ht="13">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="14"/>
@@ -8878,7 +8897,7 @@
       <c r="Z238" s="2"/>
       <c r="AA238" s="2"/>
     </row>
-    <row r="239" spans="1:27" ht="12.75">
+    <row r="239" spans="1:27" ht="13">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="14"/>
@@ -8907,7 +8926,7 @@
       <c r="Z239" s="2"/>
       <c r="AA239" s="2"/>
     </row>
-    <row r="240" spans="1:27" ht="12.75">
+    <row r="240" spans="1:27" ht="13">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="14"/>
@@ -8936,7 +8955,7 @@
       <c r="Z240" s="2"/>
       <c r="AA240" s="2"/>
     </row>
-    <row r="241" spans="1:27" ht="12.75">
+    <row r="241" spans="1:27" ht="13">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="14"/>
@@ -8965,7 +8984,7 @@
       <c r="Z241" s="2"/>
       <c r="AA241" s="2"/>
     </row>
-    <row r="242" spans="1:27" ht="12.75">
+    <row r="242" spans="1:27" ht="13">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="14"/>
@@ -8994,7 +9013,7 @@
       <c r="Z242" s="2"/>
       <c r="AA242" s="2"/>
     </row>
-    <row r="243" spans="1:27" ht="12.75">
+    <row r="243" spans="1:27" ht="13">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="14"/>
@@ -9023,7 +9042,7 @@
       <c r="Z243" s="2"/>
       <c r="AA243" s="2"/>
     </row>
-    <row r="244" spans="1:27" ht="12.75">
+    <row r="244" spans="1:27" ht="13">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="14"/>
@@ -9052,7 +9071,7 @@
       <c r="Z244" s="2"/>
       <c r="AA244" s="2"/>
     </row>
-    <row r="245" spans="1:27" ht="12.75">
+    <row r="245" spans="1:27" ht="13">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="14"/>
@@ -9081,7 +9100,7 @@
       <c r="Z245" s="2"/>
       <c r="AA245" s="2"/>
     </row>
-    <row r="246" spans="1:27" ht="12.75">
+    <row r="246" spans="1:27" ht="13">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="14"/>
@@ -9110,7 +9129,7 @@
       <c r="Z246" s="2"/>
       <c r="AA246" s="2"/>
     </row>
-    <row r="247" spans="1:27" ht="12.75">
+    <row r="247" spans="1:27" ht="13">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="14"/>
@@ -9139,7 +9158,7 @@
       <c r="Z247" s="2"/>
       <c r="AA247" s="2"/>
     </row>
-    <row r="248" spans="1:27" ht="12.75">
+    <row r="248" spans="1:27" ht="13">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="14"/>
@@ -9168,7 +9187,7 @@
       <c r="Z248" s="2"/>
       <c r="AA248" s="2"/>
     </row>
-    <row r="249" spans="1:27" ht="12.75">
+    <row r="249" spans="1:27" ht="13">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="14"/>
@@ -9197,7 +9216,7 @@
       <c r="Z249" s="2"/>
       <c r="AA249" s="2"/>
     </row>
-    <row r="250" spans="1:27" ht="12.75">
+    <row r="250" spans="1:27" ht="13">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="14"/>
@@ -9226,7 +9245,7 @@
       <c r="Z250" s="2"/>
       <c r="AA250" s="2"/>
     </row>
-    <row r="251" spans="1:27" ht="12.75">
+    <row r="251" spans="1:27" ht="13">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="14"/>
@@ -9255,7 +9274,7 @@
       <c r="Z251" s="2"/>
       <c r="AA251" s="2"/>
     </row>
-    <row r="252" spans="1:27" ht="12.75">
+    <row r="252" spans="1:27" ht="13">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="14"/>
@@ -9284,7 +9303,7 @@
       <c r="Z252" s="2"/>
       <c r="AA252" s="2"/>
     </row>
-    <row r="253" spans="1:27" ht="12.75">
+    <row r="253" spans="1:27" ht="13">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="14"/>
@@ -9313,7 +9332,7 @@
       <c r="Z253" s="2"/>
       <c r="AA253" s="2"/>
     </row>
-    <row r="254" spans="1:27" ht="12.75">
+    <row r="254" spans="1:27" ht="13">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="14"/>
@@ -9342,7 +9361,7 @@
       <c r="Z254" s="2"/>
       <c r="AA254" s="2"/>
     </row>
-    <row r="255" spans="1:27" ht="12.75">
+    <row r="255" spans="1:27" ht="13">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="14"/>
@@ -9371,7 +9390,7 @@
       <c r="Z255" s="2"/>
       <c r="AA255" s="2"/>
     </row>
-    <row r="256" spans="1:27" ht="12.75">
+    <row r="256" spans="1:27" ht="13">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="14"/>
@@ -9400,7 +9419,7 @@
       <c r="Z256" s="2"/>
       <c r="AA256" s="2"/>
     </row>
-    <row r="257" spans="1:27" ht="12.75">
+    <row r="257" spans="1:27" ht="13">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="14"/>
@@ -9429,7 +9448,7 @@
       <c r="Z257" s="2"/>
       <c r="AA257" s="2"/>
     </row>
-    <row r="258" spans="1:27" ht="12.75">
+    <row r="258" spans="1:27" ht="13">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="14"/>
@@ -9458,7 +9477,7 @@
       <c r="Z258" s="2"/>
       <c r="AA258" s="2"/>
     </row>
-    <row r="259" spans="1:27" ht="12.75">
+    <row r="259" spans="1:27" ht="13">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="14"/>
@@ -9487,7 +9506,7 @@
       <c r="Z259" s="2"/>
       <c r="AA259" s="2"/>
     </row>
-    <row r="260" spans="1:27" ht="12.75">
+    <row r="260" spans="1:27" ht="13">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="14"/>
@@ -9516,7 +9535,7 @@
       <c r="Z260" s="2"/>
       <c r="AA260" s="2"/>
     </row>
-    <row r="261" spans="1:27" ht="12.75">
+    <row r="261" spans="1:27" ht="13">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="14"/>
@@ -9545,7 +9564,7 @@
       <c r="Z261" s="2"/>
       <c r="AA261" s="2"/>
     </row>
-    <row r="262" spans="1:27" ht="12.75">
+    <row r="262" spans="1:27" ht="13">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="14"/>
@@ -9574,7 +9593,7 @@
       <c r="Z262" s="2"/>
       <c r="AA262" s="2"/>
     </row>
-    <row r="263" spans="1:27" ht="12.75">
+    <row r="263" spans="1:27" ht="13">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="14"/>
@@ -9603,7 +9622,7 @@
       <c r="Z263" s="2"/>
       <c r="AA263" s="2"/>
     </row>
-    <row r="264" spans="1:27" ht="12.75">
+    <row r="264" spans="1:27" ht="13">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="14"/>
@@ -9632,7 +9651,7 @@
       <c r="Z264" s="2"/>
       <c r="AA264" s="2"/>
     </row>
-    <row r="265" spans="1:27" ht="12.75">
+    <row r="265" spans="1:27" ht="13">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="14"/>
@@ -9661,7 +9680,7 @@
       <c r="Z265" s="2"/>
       <c r="AA265" s="2"/>
     </row>
-    <row r="266" spans="1:27" ht="12.75">
+    <row r="266" spans="1:27" ht="13">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="14"/>
@@ -9690,7 +9709,7 @@
       <c r="Z266" s="2"/>
       <c r="AA266" s="2"/>
     </row>
-    <row r="267" spans="1:27" ht="12.75">
+    <row r="267" spans="1:27" ht="13">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="14"/>
@@ -9719,7 +9738,7 @@
       <c r="Z267" s="2"/>
       <c r="AA267" s="2"/>
     </row>
-    <row r="268" spans="1:27" ht="12.75">
+    <row r="268" spans="1:27" ht="13">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="14"/>
@@ -9748,7 +9767,7 @@
       <c r="Z268" s="2"/>
       <c r="AA268" s="2"/>
     </row>
-    <row r="269" spans="1:27" ht="12.75">
+    <row r="269" spans="1:27" ht="13">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="14"/>
@@ -9777,7 +9796,7 @@
       <c r="Z269" s="2"/>
       <c r="AA269" s="2"/>
     </row>
-    <row r="270" spans="1:27" ht="12.75">
+    <row r="270" spans="1:27" ht="13">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="14"/>
@@ -9806,7 +9825,7 @@
       <c r="Z270" s="2"/>
       <c r="AA270" s="2"/>
     </row>
-    <row r="271" spans="1:27" ht="12.75">
+    <row r="271" spans="1:27" ht="13">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="14"/>
@@ -9835,7 +9854,7 @@
       <c r="Z271" s="2"/>
       <c r="AA271" s="2"/>
     </row>
-    <row r="272" spans="1:27" ht="12.75">
+    <row r="272" spans="1:27" ht="13">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="14"/>
@@ -9864,7 +9883,7 @@
       <c r="Z272" s="2"/>
       <c r="AA272" s="2"/>
     </row>
-    <row r="273" spans="1:27" ht="12.75">
+    <row r="273" spans="1:27" ht="13">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="14"/>
@@ -9893,7 +9912,7 @@
       <c r="Z273" s="2"/>
       <c r="AA273" s="2"/>
     </row>
-    <row r="274" spans="1:27" ht="12.75">
+    <row r="274" spans="1:27" ht="13">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="14"/>
@@ -9922,7 +9941,7 @@
       <c r="Z274" s="2"/>
       <c r="AA274" s="2"/>
     </row>
-    <row r="275" spans="1:27" ht="12.75">
+    <row r="275" spans="1:27" ht="13">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="14"/>
@@ -9951,7 +9970,7 @@
       <c r="Z275" s="2"/>
       <c r="AA275" s="2"/>
     </row>
-    <row r="276" spans="1:27" ht="12.75">
+    <row r="276" spans="1:27" ht="13">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="14"/>
@@ -9980,7 +9999,7 @@
       <c r="Z276" s="2"/>
       <c r="AA276" s="2"/>
     </row>
-    <row r="277" spans="1:27" ht="12.75">
+    <row r="277" spans="1:27" ht="13">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="14"/>
@@ -10009,7 +10028,7 @@
       <c r="Z277" s="2"/>
       <c r="AA277" s="2"/>
     </row>
-    <row r="278" spans="1:27" ht="12.75">
+    <row r="278" spans="1:27" ht="13">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="14"/>
@@ -10038,7 +10057,7 @@
       <c r="Z278" s="2"/>
       <c r="AA278" s="2"/>
     </row>
-    <row r="279" spans="1:27" ht="12.75">
+    <row r="279" spans="1:27" ht="13">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="14"/>
@@ -10067,7 +10086,7 @@
       <c r="Z279" s="2"/>
       <c r="AA279" s="2"/>
     </row>
-    <row r="280" spans="1:27" ht="12.75">
+    <row r="280" spans="1:27" ht="13">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="14"/>
@@ -10096,7 +10115,7 @@
       <c r="Z280" s="2"/>
       <c r="AA280" s="2"/>
     </row>
-    <row r="281" spans="1:27" ht="12.75">
+    <row r="281" spans="1:27" ht="13">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="14"/>
@@ -10125,7 +10144,7 @@
       <c r="Z281" s="2"/>
       <c r="AA281" s="2"/>
     </row>
-    <row r="282" spans="1:27" ht="12.75">
+    <row r="282" spans="1:27" ht="13">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="14"/>
@@ -10154,7 +10173,7 @@
       <c r="Z282" s="2"/>
       <c r="AA282" s="2"/>
     </row>
-    <row r="283" spans="1:27" ht="12.75">
+    <row r="283" spans="1:27" ht="13">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="14"/>
@@ -10183,7 +10202,7 @@
       <c r="Z283" s="2"/>
       <c r="AA283" s="2"/>
     </row>
-    <row r="284" spans="1:27" ht="12.75">
+    <row r="284" spans="1:27" ht="13">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="14"/>
@@ -10212,7 +10231,7 @@
       <c r="Z284" s="2"/>
       <c r="AA284" s="2"/>
     </row>
-    <row r="285" spans="1:27" ht="12.75">
+    <row r="285" spans="1:27" ht="13">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="14"/>
@@ -10241,7 +10260,7 @@
       <c r="Z285" s="2"/>
       <c r="AA285" s="2"/>
     </row>
-    <row r="286" spans="1:27" ht="12.75">
+    <row r="286" spans="1:27" ht="13">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="14"/>
@@ -10270,7 +10289,7 @@
       <c r="Z286" s="2"/>
       <c r="AA286" s="2"/>
     </row>
-    <row r="287" spans="1:27" ht="12.75">
+    <row r="287" spans="1:27" ht="13">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="14"/>
@@ -10299,7 +10318,7 @@
       <c r="Z287" s="2"/>
       <c r="AA287" s="2"/>
     </row>
-    <row r="288" spans="1:27" ht="12.75">
+    <row r="288" spans="1:27" ht="13">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="14"/>
@@ -10328,7 +10347,7 @@
       <c r="Z288" s="2"/>
       <c r="AA288" s="2"/>
     </row>
-    <row r="289" spans="1:27" ht="12.75">
+    <row r="289" spans="1:27" ht="13">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="14"/>
@@ -10357,7 +10376,7 @@
       <c r="Z289" s="2"/>
       <c r="AA289" s="2"/>
     </row>
-    <row r="290" spans="1:27" ht="12.75">
+    <row r="290" spans="1:27" ht="13">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="14"/>
@@ -10386,7 +10405,7 @@
       <c r="Z290" s="2"/>
       <c r="AA290" s="2"/>
     </row>
-    <row r="291" spans="1:27" ht="12.75">
+    <row r="291" spans="1:27" ht="13">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="14"/>
@@ -10415,7 +10434,7 @@
       <c r="Z291" s="2"/>
       <c r="AA291" s="2"/>
     </row>
-    <row r="292" spans="1:27" ht="12.75">
+    <row r="292" spans="1:27" ht="13">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="14"/>
@@ -10444,7 +10463,7 @@
       <c r="Z292" s="2"/>
       <c r="AA292" s="2"/>
     </row>
-    <row r="293" spans="1:27" ht="12.75">
+    <row r="293" spans="1:27" ht="13">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="14"/>
@@ -10473,7 +10492,7 @@
       <c r="Z293" s="2"/>
       <c r="AA293" s="2"/>
     </row>
-    <row r="294" spans="1:27" ht="12.75">
+    <row r="294" spans="1:27" ht="13">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="14"/>
@@ -10502,7 +10521,7 @@
       <c r="Z294" s="2"/>
       <c r="AA294" s="2"/>
     </row>
-    <row r="295" spans="1:27" ht="12.75">
+    <row r="295" spans="1:27" ht="13">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="14"/>
@@ -10531,7 +10550,7 @@
       <c r="Z295" s="2"/>
       <c r="AA295" s="2"/>
     </row>
-    <row r="296" spans="1:27" ht="12.75">
+    <row r="296" spans="1:27" ht="13">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="14"/>
@@ -10560,7 +10579,7 @@
       <c r="Z296" s="2"/>
       <c r="AA296" s="2"/>
     </row>
-    <row r="297" spans="1:27" ht="12.75">
+    <row r="297" spans="1:27" ht="13">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="14"/>
@@ -10589,7 +10608,7 @@
       <c r="Z297" s="2"/>
       <c r="AA297" s="2"/>
     </row>
-    <row r="298" spans="1:27" ht="12.75">
+    <row r="298" spans="1:27" ht="13">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="14"/>
@@ -10618,7 +10637,7 @@
       <c r="Z298" s="2"/>
       <c r="AA298" s="2"/>
     </row>
-    <row r="299" spans="1:27" ht="12.75">
+    <row r="299" spans="1:27" ht="13">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="14"/>
@@ -10647,7 +10666,7 @@
       <c r="Z299" s="2"/>
       <c r="AA299" s="2"/>
     </row>
-    <row r="300" spans="1:27" ht="12.75">
+    <row r="300" spans="1:27" ht="13">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="14"/>
@@ -10676,7 +10695,7 @@
       <c r="Z300" s="2"/>
       <c r="AA300" s="2"/>
     </row>
-    <row r="301" spans="1:27" ht="12.75">
+    <row r="301" spans="1:27" ht="13">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="14"/>
@@ -10705,7 +10724,7 @@
       <c r="Z301" s="2"/>
       <c r="AA301" s="2"/>
     </row>
-    <row r="302" spans="1:27" ht="12.75">
+    <row r="302" spans="1:27" ht="13">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="14"/>
@@ -10734,7 +10753,7 @@
       <c r="Z302" s="2"/>
       <c r="AA302" s="2"/>
     </row>
-    <row r="303" spans="1:27" ht="12.75">
+    <row r="303" spans="1:27" ht="13">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="14"/>
@@ -10763,7 +10782,7 @@
       <c r="Z303" s="2"/>
       <c r="AA303" s="2"/>
     </row>
-    <row r="304" spans="1:27" ht="12.75">
+    <row r="304" spans="1:27" ht="13">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="14"/>
@@ -10792,7 +10811,7 @@
       <c r="Z304" s="2"/>
       <c r="AA304" s="2"/>
     </row>
-    <row r="305" spans="1:27" ht="12.75">
+    <row r="305" spans="1:27" ht="13">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="14"/>
@@ -10821,7 +10840,7 @@
       <c r="Z305" s="2"/>
       <c r="AA305" s="2"/>
     </row>
-    <row r="306" spans="1:27" ht="12.75">
+    <row r="306" spans="1:27" ht="13">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="14"/>
@@ -10850,7 +10869,7 @@
       <c r="Z306" s="2"/>
       <c r="AA306" s="2"/>
     </row>
-    <row r="307" spans="1:27" ht="12.75">
+    <row r="307" spans="1:27" ht="13">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="14"/>
@@ -10879,7 +10898,7 @@
       <c r="Z307" s="2"/>
       <c r="AA307" s="2"/>
     </row>
-    <row r="308" spans="1:27" ht="12.75">
+    <row r="308" spans="1:27" ht="13">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="14"/>
@@ -10908,7 +10927,7 @@
       <c r="Z308" s="2"/>
       <c r="AA308" s="2"/>
     </row>
-    <row r="309" spans="1:27" ht="12.75">
+    <row r="309" spans="1:27" ht="13">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="14"/>
@@ -10937,7 +10956,7 @@
       <c r="Z309" s="2"/>
       <c r="AA309" s="2"/>
     </row>
-    <row r="310" spans="1:27" ht="12.75">
+    <row r="310" spans="1:27" ht="13">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="14"/>
@@ -10966,7 +10985,7 @@
       <c r="Z310" s="2"/>
       <c r="AA310" s="2"/>
     </row>
-    <row r="311" spans="1:27" ht="12.75">
+    <row r="311" spans="1:27" ht="13">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="14"/>
@@ -10995,7 +11014,7 @@
       <c r="Z311" s="2"/>
       <c r="AA311" s="2"/>
     </row>
-    <row r="312" spans="1:27" ht="12.75">
+    <row r="312" spans="1:27" ht="13">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="14"/>
@@ -11024,7 +11043,7 @@
       <c r="Z312" s="2"/>
       <c r="AA312" s="2"/>
     </row>
-    <row r="313" spans="1:27" ht="12.75">
+    <row r="313" spans="1:27" ht="13">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="14"/>
@@ -11053,7 +11072,7 @@
       <c r="Z313" s="2"/>
       <c r="AA313" s="2"/>
     </row>
-    <row r="314" spans="1:27" ht="12.75">
+    <row r="314" spans="1:27" ht="13">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="14"/>
@@ -11082,7 +11101,7 @@
       <c r="Z314" s="2"/>
       <c r="AA314" s="2"/>
     </row>
-    <row r="315" spans="1:27" ht="12.75">
+    <row r="315" spans="1:27" ht="13">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="14"/>
@@ -11111,7 +11130,7 @@
       <c r="Z315" s="2"/>
       <c r="AA315" s="2"/>
     </row>
-    <row r="316" spans="1:27" ht="12.75">
+    <row r="316" spans="1:27" ht="13">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="14"/>
@@ -11140,7 +11159,7 @@
       <c r="Z316" s="2"/>
       <c r="AA316" s="2"/>
     </row>
-    <row r="317" spans="1:27" ht="12.75">
+    <row r="317" spans="1:27" ht="13">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="14"/>
@@ -11169,7 +11188,7 @@
       <c r="Z317" s="2"/>
       <c r="AA317" s="2"/>
     </row>
-    <row r="318" spans="1:27" ht="12.75">
+    <row r="318" spans="1:27" ht="13">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="14"/>
@@ -11198,7 +11217,7 @@
       <c r="Z318" s="2"/>
       <c r="AA318" s="2"/>
     </row>
-    <row r="319" spans="1:27" ht="12.75">
+    <row r="319" spans="1:27" ht="13">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="14"/>
@@ -11227,7 +11246,7 @@
       <c r="Z319" s="2"/>
       <c r="AA319" s="2"/>
     </row>
-    <row r="320" spans="1:27" ht="12.75">
+    <row r="320" spans="1:27" ht="13">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="14"/>
@@ -11256,7 +11275,7 @@
       <c r="Z320" s="2"/>
       <c r="AA320" s="2"/>
     </row>
-    <row r="321" spans="1:27" ht="12.75">
+    <row r="321" spans="1:27" ht="13">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="14"/>
@@ -11285,7 +11304,7 @@
       <c r="Z321" s="2"/>
       <c r="AA321" s="2"/>
     </row>
-    <row r="322" spans="1:27" ht="12.75">
+    <row r="322" spans="1:27" ht="13">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="14"/>
@@ -11314,7 +11333,7 @@
       <c r="Z322" s="2"/>
       <c r="AA322" s="2"/>
     </row>
-    <row r="323" spans="1:27" ht="12.75">
+    <row r="323" spans="1:27" ht="13">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="14"/>
@@ -11343,7 +11362,7 @@
       <c r="Z323" s="2"/>
       <c r="AA323" s="2"/>
     </row>
-    <row r="324" spans="1:27" ht="12.75">
+    <row r="324" spans="1:27" ht="13">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="14"/>
@@ -11372,7 +11391,7 @@
       <c r="Z324" s="2"/>
       <c r="AA324" s="2"/>
     </row>
-    <row r="325" spans="1:27" ht="12.75">
+    <row r="325" spans="1:27" ht="13">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="14"/>
@@ -11401,7 +11420,7 @@
       <c r="Z325" s="2"/>
       <c r="AA325" s="2"/>
     </row>
-    <row r="326" spans="1:27" ht="12.75">
+    <row r="326" spans="1:27" ht="13">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="14"/>
@@ -11430,7 +11449,7 @@
       <c r="Z326" s="2"/>
       <c r="AA326" s="2"/>
     </row>
-    <row r="327" spans="1:27" ht="12.75">
+    <row r="327" spans="1:27" ht="13">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="14"/>
@@ -11459,7 +11478,7 @@
       <c r="Z327" s="2"/>
       <c r="AA327" s="2"/>
     </row>
-    <row r="328" spans="1:27" ht="12.75">
+    <row r="328" spans="1:27" ht="13">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="14"/>
@@ -11488,7 +11507,7 @@
       <c r="Z328" s="2"/>
       <c r="AA328" s="2"/>
     </row>
-    <row r="329" spans="1:27" ht="12.75">
+    <row r="329" spans="1:27" ht="13">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="14"/>
@@ -11517,7 +11536,7 @@
       <c r="Z329" s="2"/>
       <c r="AA329" s="2"/>
     </row>
-    <row r="330" spans="1:27" ht="12.75">
+    <row r="330" spans="1:27" ht="13">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="14"/>
@@ -11546,7 +11565,7 @@
       <c r="Z330" s="2"/>
       <c r="AA330" s="2"/>
     </row>
-    <row r="331" spans="1:27" ht="12.75">
+    <row r="331" spans="1:27" ht="13">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="14"/>
@@ -11575,7 +11594,7 @@
       <c r="Z331" s="2"/>
       <c r="AA331" s="2"/>
     </row>
-    <row r="332" spans="1:27" ht="12.75">
+    <row r="332" spans="1:27" ht="13">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="14"/>
@@ -11604,7 +11623,7 @@
       <c r="Z332" s="2"/>
       <c r="AA332" s="2"/>
     </row>
-    <row r="333" spans="1:27" ht="12.75">
+    <row r="333" spans="1:27" ht="13">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="14"/>
@@ -11633,7 +11652,7 @@
       <c r="Z333" s="2"/>
       <c r="AA333" s="2"/>
     </row>
-    <row r="334" spans="1:27" ht="12.75">
+    <row r="334" spans="1:27" ht="13">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="14"/>
@@ -11662,7 +11681,7 @@
       <c r="Z334" s="2"/>
       <c r="AA334" s="2"/>
     </row>
-    <row r="335" spans="1:27" ht="12.75">
+    <row r="335" spans="1:27" ht="13">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="14"/>
@@ -11691,7 +11710,7 @@
       <c r="Z335" s="2"/>
       <c r="AA335" s="2"/>
     </row>
-    <row r="336" spans="1:27" ht="12.75">
+    <row r="336" spans="1:27" ht="13">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="14"/>
@@ -11720,7 +11739,7 @@
       <c r="Z336" s="2"/>
       <c r="AA336" s="2"/>
     </row>
-    <row r="337" spans="1:27" ht="12.75">
+    <row r="337" spans="1:27" ht="13">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="14"/>
@@ -11749,7 +11768,7 @@
       <c r="Z337" s="2"/>
       <c r="AA337" s="2"/>
     </row>
-    <row r="338" spans="1:27" ht="12.75">
+    <row r="338" spans="1:27" ht="13">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="14"/>
@@ -11778,7 +11797,7 @@
       <c r="Z338" s="2"/>
       <c r="AA338" s="2"/>
     </row>
-    <row r="339" spans="1:27" ht="12.75">
+    <row r="339" spans="1:27" ht="13">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="14"/>
@@ -11807,7 +11826,7 @@
       <c r="Z339" s="2"/>
       <c r="AA339" s="2"/>
     </row>
-    <row r="340" spans="1:27" ht="12.75">
+    <row r="340" spans="1:27" ht="13">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="14"/>
@@ -11836,7 +11855,7 @@
       <c r="Z340" s="2"/>
       <c r="AA340" s="2"/>
     </row>
-    <row r="341" spans="1:27" ht="12.75">
+    <row r="341" spans="1:27" ht="13">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="14"/>
@@ -11865,7 +11884,7 @@
       <c r="Z341" s="2"/>
       <c r="AA341" s="2"/>
     </row>
-    <row r="342" spans="1:27" ht="12.75">
+    <row r="342" spans="1:27" ht="13">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="14"/>
@@ -11894,7 +11913,7 @@
       <c r="Z342" s="2"/>
       <c r="AA342" s="2"/>
     </row>
-    <row r="343" spans="1:27" ht="12.75">
+    <row r="343" spans="1:27" ht="13">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="14"/>
@@ -11923,7 +11942,7 @@
       <c r="Z343" s="2"/>
       <c r="AA343" s="2"/>
     </row>
-    <row r="344" spans="1:27" ht="12.75">
+    <row r="344" spans="1:27" ht="13">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="14"/>
@@ -11952,7 +11971,7 @@
       <c r="Z344" s="2"/>
       <c r="AA344" s="2"/>
     </row>
-    <row r="345" spans="1:27" ht="12.75">
+    <row r="345" spans="1:27" ht="13">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="14"/>
@@ -11981,7 +12000,7 @@
       <c r="Z345" s="2"/>
       <c r="AA345" s="2"/>
     </row>
-    <row r="346" spans="1:27" ht="12.75">
+    <row r="346" spans="1:27" ht="13">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="14"/>
@@ -12010,7 +12029,7 @@
       <c r="Z346" s="2"/>
       <c r="AA346" s="2"/>
     </row>
-    <row r="347" spans="1:27" ht="12.75">
+    <row r="347" spans="1:27" ht="13">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="14"/>
@@ -12039,7 +12058,7 @@
       <c r="Z347" s="2"/>
       <c r="AA347" s="2"/>
     </row>
-    <row r="348" spans="1:27" ht="12.75">
+    <row r="348" spans="1:27" ht="13">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="14"/>
@@ -12068,7 +12087,7 @@
       <c r="Z348" s="2"/>
       <c r="AA348" s="2"/>
     </row>
-    <row r="349" spans="1:27" ht="12.75">
+    <row r="349" spans="1:27" ht="13">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="14"/>
@@ -12097,7 +12116,7 @@
       <c r="Z349" s="2"/>
       <c r="AA349" s="2"/>
     </row>
-    <row r="350" spans="1:27" ht="12.75">
+    <row r="350" spans="1:27" ht="13">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="14"/>
@@ -12126,7 +12145,7 @@
       <c r="Z350" s="2"/>
       <c r="AA350" s="2"/>
     </row>
-    <row r="351" spans="1:27" ht="12.75">
+    <row r="351" spans="1:27" ht="13">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="14"/>
@@ -12155,7 +12174,7 @@
       <c r="Z351" s="2"/>
       <c r="AA351" s="2"/>
     </row>
-    <row r="352" spans="1:27" ht="12.75">
+    <row r="352" spans="1:27" ht="13">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="14"/>
@@ -12184,7 +12203,7 @@
       <c r="Z352" s="2"/>
       <c r="AA352" s="2"/>
     </row>
-    <row r="353" spans="1:27" ht="12.75">
+    <row r="353" spans="1:27" ht="13">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="14"/>
@@ -12213,7 +12232,7 @@
       <c r="Z353" s="2"/>
       <c r="AA353" s="2"/>
     </row>
-    <row r="354" spans="1:27" ht="12.75">
+    <row r="354" spans="1:27" ht="13">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="14"/>
@@ -12242,7 +12261,7 @@
       <c r="Z354" s="2"/>
       <c r="AA354" s="2"/>
     </row>
-    <row r="355" spans="1:27" ht="12.75">
+    <row r="355" spans="1:27" ht="13">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="14"/>
@@ -12271,7 +12290,7 @@
       <c r="Z355" s="2"/>
       <c r="AA355" s="2"/>
     </row>
-    <row r="356" spans="1:27" ht="12.75">
+    <row r="356" spans="1:27" ht="13">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="14"/>
@@ -12300,7 +12319,7 @@
       <c r="Z356" s="2"/>
       <c r="AA356" s="2"/>
     </row>
-    <row r="357" spans="1:27" ht="12.75">
+    <row r="357" spans="1:27" ht="13">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="14"/>
@@ -12329,7 +12348,7 @@
       <c r="Z357" s="2"/>
       <c r="AA357" s="2"/>
     </row>
-    <row r="358" spans="1:27" ht="12.75">
+    <row r="358" spans="1:27" ht="13">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="14"/>
@@ -12358,7 +12377,7 @@
       <c r="Z358" s="2"/>
       <c r="AA358" s="2"/>
     </row>
-    <row r="359" spans="1:27" ht="12.75">
+    <row r="359" spans="1:27" ht="13">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="14"/>
@@ -12387,7 +12406,7 @@
       <c r="Z359" s="2"/>
       <c r="AA359" s="2"/>
     </row>
-    <row r="360" spans="1:27" ht="12.75">
+    <row r="360" spans="1:27" ht="13">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="14"/>
@@ -12416,7 +12435,7 @@
       <c r="Z360" s="2"/>
       <c r="AA360" s="2"/>
     </row>
-    <row r="361" spans="1:27" ht="12.75">
+    <row r="361" spans="1:27" ht="13">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="14"/>
@@ -12445,7 +12464,7 @@
       <c r="Z361" s="2"/>
       <c r="AA361" s="2"/>
     </row>
-    <row r="362" spans="1:27" ht="12.75">
+    <row r="362" spans="1:27" ht="13">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="14"/>
@@ -12474,7 +12493,7 @@
       <c r="Z362" s="2"/>
       <c r="AA362" s="2"/>
     </row>
-    <row r="363" spans="1:27" ht="12.75">
+    <row r="363" spans="1:27" ht="13">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="14"/>
@@ -12503,7 +12522,7 @@
       <c r="Z363" s="2"/>
       <c r="AA363" s="2"/>
     </row>
-    <row r="364" spans="1:27" ht="12.75">
+    <row r="364" spans="1:27" ht="13">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="14"/>
@@ -12532,7 +12551,7 @@
       <c r="Z364" s="2"/>
       <c r="AA364" s="2"/>
     </row>
-    <row r="365" spans="1:27" ht="12.75">
+    <row r="365" spans="1:27" ht="13">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="14"/>
@@ -12561,7 +12580,7 @@
       <c r="Z365" s="2"/>
       <c r="AA365" s="2"/>
     </row>
-    <row r="366" spans="1:27" ht="12.75">
+    <row r="366" spans="1:27" ht="13">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="14"/>
@@ -12590,7 +12609,7 @@
       <c r="Z366" s="2"/>
       <c r="AA366" s="2"/>
     </row>
-    <row r="367" spans="1:27" ht="12.75">
+    <row r="367" spans="1:27" ht="13">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="14"/>
@@ -12619,7 +12638,7 @@
       <c r="Z367" s="2"/>
       <c r="AA367" s="2"/>
     </row>
-    <row r="368" spans="1:27" ht="12.75">
+    <row r="368" spans="1:27" ht="13">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="14"/>
@@ -12648,7 +12667,7 @@
       <c r="Z368" s="2"/>
       <c r="AA368" s="2"/>
     </row>
-    <row r="369" spans="1:27" ht="12.75">
+    <row r="369" spans="1:27" ht="13">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="14"/>
@@ -12677,7 +12696,7 @@
       <c r="Z369" s="2"/>
       <c r="AA369" s="2"/>
     </row>
-    <row r="370" spans="1:27" ht="12.75">
+    <row r="370" spans="1:27" ht="13">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="14"/>
@@ -12706,7 +12725,7 @@
       <c r="Z370" s="2"/>
       <c r="AA370" s="2"/>
     </row>
-    <row r="371" spans="1:27" ht="12.75">
+    <row r="371" spans="1:27" ht="13">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="14"/>
@@ -12735,7 +12754,7 @@
       <c r="Z371" s="2"/>
       <c r="AA371" s="2"/>
     </row>
-    <row r="372" spans="1:27" ht="12.75">
+    <row r="372" spans="1:27" ht="13">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="14"/>
@@ -12764,7 +12783,7 @@
       <c r="Z372" s="2"/>
       <c r="AA372" s="2"/>
     </row>
-    <row r="373" spans="1:27" ht="12.75">
+    <row r="373" spans="1:27" ht="13">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="14"/>
@@ -12793,7 +12812,7 @@
       <c r="Z373" s="2"/>
       <c r="AA373" s="2"/>
     </row>
-    <row r="374" spans="1:27" ht="12.75">
+    <row r="374" spans="1:27" ht="13">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="14"/>
@@ -12822,7 +12841,7 @@
       <c r="Z374" s="2"/>
       <c r="AA374" s="2"/>
     </row>
-    <row r="375" spans="1:27" ht="12.75">
+    <row r="375" spans="1:27" ht="13">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="14"/>
@@ -12851,7 +12870,7 @@
       <c r="Z375" s="2"/>
       <c r="AA375" s="2"/>
     </row>
-    <row r="376" spans="1:27" ht="12.75">
+    <row r="376" spans="1:27" ht="13">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="14"/>
@@ -12880,7 +12899,7 @@
       <c r="Z376" s="2"/>
       <c r="AA376" s="2"/>
     </row>
-    <row r="377" spans="1:27" ht="12.75">
+    <row r="377" spans="1:27" ht="13">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="14"/>
@@ -12909,7 +12928,7 @@
       <c r="Z377" s="2"/>
       <c r="AA377" s="2"/>
     </row>
-    <row r="378" spans="1:27" ht="12.75">
+    <row r="378" spans="1:27" ht="13">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="14"/>
@@ -12938,7 +12957,7 @@
       <c r="Z378" s="2"/>
       <c r="AA378" s="2"/>
     </row>
-    <row r="379" spans="1:27" ht="12.75">
+    <row r="379" spans="1:27" ht="13">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="14"/>
@@ -12967,7 +12986,7 @@
       <c r="Z379" s="2"/>
       <c r="AA379" s="2"/>
     </row>
-    <row r="380" spans="1:27" ht="12.75">
+    <row r="380" spans="1:27" ht="13">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="14"/>
@@ -12996,7 +13015,7 @@
       <c r="Z380" s="2"/>
       <c r="AA380" s="2"/>
     </row>
-    <row r="381" spans="1:27" ht="12.75">
+    <row r="381" spans="1:27" ht="13">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="14"/>
@@ -13025,7 +13044,7 @@
       <c r="Z381" s="2"/>
       <c r="AA381" s="2"/>
     </row>
-    <row r="382" spans="1:27" ht="12.75">
+    <row r="382" spans="1:27" ht="13">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="14"/>
@@ -13054,7 +13073,7 @@
       <c r="Z382" s="2"/>
       <c r="AA382" s="2"/>
     </row>
-    <row r="383" spans="1:27" ht="12.75">
+    <row r="383" spans="1:27" ht="13">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="14"/>
@@ -13083,7 +13102,7 @@
       <c r="Z383" s="2"/>
       <c r="AA383" s="2"/>
     </row>
-    <row r="384" spans="1:27" ht="12.75">
+    <row r="384" spans="1:27" ht="13">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="14"/>
@@ -13112,7 +13131,7 @@
       <c r="Z384" s="2"/>
       <c r="AA384" s="2"/>
     </row>
-    <row r="385" spans="1:27" ht="12.75">
+    <row r="385" spans="1:27" ht="13">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="14"/>
@@ -13141,7 +13160,7 @@
       <c r="Z385" s="2"/>
       <c r="AA385" s="2"/>
     </row>
-    <row r="386" spans="1:27" ht="12.75">
+    <row r="386" spans="1:27" ht="13">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="14"/>
@@ -13170,7 +13189,7 @@
       <c r="Z386" s="2"/>
       <c r="AA386" s="2"/>
     </row>
-    <row r="387" spans="1:27" ht="12.75">
+    <row r="387" spans="1:27" ht="13">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="14"/>
@@ -13199,7 +13218,7 @@
       <c r="Z387" s="2"/>
       <c r="AA387" s="2"/>
     </row>
-    <row r="388" spans="1:27" ht="12.75">
+    <row r="388" spans="1:27" ht="13">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="14"/>
@@ -13228,7 +13247,7 @@
       <c r="Z388" s="2"/>
       <c r="AA388" s="2"/>
     </row>
-    <row r="389" spans="1:27" ht="12.75">
+    <row r="389" spans="1:27" ht="13">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="14"/>
@@ -13257,7 +13276,7 @@
       <c r="Z389" s="2"/>
       <c r="AA389" s="2"/>
     </row>
-    <row r="390" spans="1:27" ht="12.75">
+    <row r="390" spans="1:27" ht="13">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="14"/>
@@ -13286,7 +13305,7 @@
       <c r="Z390" s="2"/>
       <c r="AA390" s="2"/>
     </row>
-    <row r="391" spans="1:27" ht="12.75">
+    <row r="391" spans="1:27" ht="13">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="14"/>
@@ -13315,7 +13334,7 @@
       <c r="Z391" s="2"/>
       <c r="AA391" s="2"/>
     </row>
-    <row r="392" spans="1:27" ht="12.75">
+    <row r="392" spans="1:27" ht="13">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="14"/>
@@ -13344,7 +13363,7 @@
       <c r="Z392" s="2"/>
       <c r="AA392" s="2"/>
     </row>
-    <row r="393" spans="1:27" ht="12.75">
+    <row r="393" spans="1:27" ht="13">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="14"/>
@@ -13373,7 +13392,7 @@
       <c r="Z393" s="2"/>
       <c r="AA393" s="2"/>
     </row>
-    <row r="394" spans="1:27" ht="12.75">
+    <row r="394" spans="1:27" ht="13">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="14"/>
@@ -13402,7 +13421,7 @@
       <c r="Z394" s="2"/>
       <c r="AA394" s="2"/>
     </row>
-    <row r="395" spans="1:27" ht="12.75">
+    <row r="395" spans="1:27" ht="13">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="14"/>
@@ -13431,7 +13450,7 @@
       <c r="Z395" s="2"/>
       <c r="AA395" s="2"/>
     </row>
-    <row r="396" spans="1:27" ht="12.75">
+    <row r="396" spans="1:27" ht="13">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="14"/>
@@ -13460,7 +13479,7 @@
       <c r="Z396" s="2"/>
       <c r="AA396" s="2"/>
     </row>
-    <row r="397" spans="1:27" ht="12.75">
+    <row r="397" spans="1:27" ht="13">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="14"/>
@@ -13489,7 +13508,7 @@
       <c r="Z397" s="2"/>
       <c r="AA397" s="2"/>
     </row>
-    <row r="398" spans="1:27" ht="12.75">
+    <row r="398" spans="1:27" ht="13">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="14"/>
@@ -13518,7 +13537,7 @@
       <c r="Z398" s="2"/>
       <c r="AA398" s="2"/>
     </row>
-    <row r="399" spans="1:27" ht="12.75">
+    <row r="399" spans="1:27" ht="13">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="14"/>
@@ -13547,7 +13566,7 @@
       <c r="Z399" s="2"/>
       <c r="AA399" s="2"/>
     </row>
-    <row r="400" spans="1:27" ht="12.75">
+    <row r="400" spans="1:27" ht="13">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="14"/>
@@ -13576,7 +13595,7 @@
       <c r="Z400" s="2"/>
       <c r="AA400" s="2"/>
     </row>
-    <row r="401" spans="1:27" ht="12.75">
+    <row r="401" spans="1:27" ht="13">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="14"/>
@@ -13605,7 +13624,7 @@
       <c r="Z401" s="2"/>
       <c r="AA401" s="2"/>
     </row>
-    <row r="402" spans="1:27" ht="12.75">
+    <row r="402" spans="1:27" ht="13">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="14"/>
@@ -13634,7 +13653,7 @@
       <c r="Z402" s="2"/>
       <c r="AA402" s="2"/>
     </row>
-    <row r="403" spans="1:27" ht="12.75">
+    <row r="403" spans="1:27" ht="13">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="14"/>
@@ -13663,7 +13682,7 @@
       <c r="Z403" s="2"/>
       <c r="AA403" s="2"/>
     </row>
-    <row r="404" spans="1:27" ht="12.75">
+    <row r="404" spans="1:27" ht="13">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="14"/>
@@ -13692,7 +13711,7 @@
       <c r="Z404" s="2"/>
       <c r="AA404" s="2"/>
     </row>
-    <row r="405" spans="1:27" ht="12.75">
+    <row r="405" spans="1:27" ht="13">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="14"/>
@@ -13721,7 +13740,7 @@
       <c r="Z405" s="2"/>
       <c r="AA405" s="2"/>
     </row>
-    <row r="406" spans="1:27" ht="12.75">
+    <row r="406" spans="1:27" ht="13">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="14"/>
@@ -13750,7 +13769,7 @@
       <c r="Z406" s="2"/>
       <c r="AA406" s="2"/>
     </row>
-    <row r="407" spans="1:27" ht="12.75">
+    <row r="407" spans="1:27" ht="13">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="14"/>
@@ -13779,7 +13798,7 @@
       <c r="Z407" s="2"/>
       <c r="AA407" s="2"/>
     </row>
-    <row r="408" spans="1:27" ht="12.75">
+    <row r="408" spans="1:27" ht="13">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="14"/>
@@ -13808,7 +13827,7 @@
       <c r="Z408" s="2"/>
       <c r="AA408" s="2"/>
     </row>
-    <row r="409" spans="1:27" ht="12.75">
+    <row r="409" spans="1:27" ht="13">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="14"/>
@@ -13837,7 +13856,7 @@
       <c r="Z409" s="2"/>
       <c r="AA409" s="2"/>
     </row>
-    <row r="410" spans="1:27" ht="12.75">
+    <row r="410" spans="1:27" ht="13">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="14"/>
@@ -13866,7 +13885,7 @@
       <c r="Z410" s="2"/>
       <c r="AA410" s="2"/>
     </row>
-    <row r="411" spans="1:27" ht="12.75">
+    <row r="411" spans="1:27" ht="13">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="14"/>
@@ -13895,7 +13914,7 @@
       <c r="Z411" s="2"/>
       <c r="AA411" s="2"/>
     </row>
-    <row r="412" spans="1:27" ht="12.75">
+    <row r="412" spans="1:27" ht="13">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="14"/>
@@ -13924,7 +13943,7 @@
       <c r="Z412" s="2"/>
       <c r="AA412" s="2"/>
     </row>
-    <row r="413" spans="1:27" ht="12.75">
+    <row r="413" spans="1:27" ht="13">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="14"/>
@@ -13953,7 +13972,7 @@
       <c r="Z413" s="2"/>
       <c r="AA413" s="2"/>
     </row>
-    <row r="414" spans="1:27" ht="12.75">
+    <row r="414" spans="1:27" ht="13">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="14"/>
@@ -13982,7 +14001,7 @@
       <c r="Z414" s="2"/>
       <c r="AA414" s="2"/>
     </row>
-    <row r="415" spans="1:27" ht="12.75">
+    <row r="415" spans="1:27" ht="13">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="14"/>
@@ -14011,7 +14030,7 @@
       <c r="Z415" s="2"/>
       <c r="AA415" s="2"/>
     </row>
-    <row r="416" spans="1:27" ht="12.75">
+    <row r="416" spans="1:27" ht="13">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="14"/>
@@ -14040,7 +14059,7 @@
       <c r="Z416" s="2"/>
       <c r="AA416" s="2"/>
     </row>
-    <row r="417" spans="1:27" ht="12.75">
+    <row r="417" spans="1:27" ht="13">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="14"/>
@@ -14069,7 +14088,7 @@
       <c r="Z417" s="2"/>
       <c r="AA417" s="2"/>
     </row>
-    <row r="418" spans="1:27" ht="12.75">
+    <row r="418" spans="1:27" ht="13">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="14"/>
@@ -14098,7 +14117,7 @@
       <c r="Z418" s="2"/>
       <c r="AA418" s="2"/>
     </row>
-    <row r="419" spans="1:27" ht="12.75">
+    <row r="419" spans="1:27" ht="13">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="14"/>
@@ -14127,7 +14146,7 @@
       <c r="Z419" s="2"/>
       <c r="AA419" s="2"/>
     </row>
-    <row r="420" spans="1:27" ht="12.75">
+    <row r="420" spans="1:27" ht="13">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="14"/>
@@ -14156,7 +14175,7 @@
       <c r="Z420" s="2"/>
       <c r="AA420" s="2"/>
     </row>
-    <row r="421" spans="1:27" ht="12.75">
+    <row r="421" spans="1:27" ht="13">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="14"/>
@@ -14185,7 +14204,7 @@
       <c r="Z421" s="2"/>
       <c r="AA421" s="2"/>
     </row>
-    <row r="422" spans="1:27" ht="12.75">
+    <row r="422" spans="1:27" ht="13">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="14"/>
@@ -14214,7 +14233,7 @@
       <c r="Z422" s="2"/>
       <c r="AA422" s="2"/>
     </row>
-    <row r="423" spans="1:27" ht="12.75">
+    <row r="423" spans="1:27" ht="13">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="14"/>
@@ -14243,7 +14262,7 @@
       <c r="Z423" s="2"/>
       <c r="AA423" s="2"/>
     </row>
-    <row r="424" spans="1:27" ht="12.75">
+    <row r="424" spans="1:27" ht="13">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="14"/>
@@ -14272,7 +14291,7 @@
       <c r="Z424" s="2"/>
       <c r="AA424" s="2"/>
     </row>
-    <row r="425" spans="1:27" ht="12.75">
+    <row r="425" spans="1:27" ht="13">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="14"/>
@@ -14301,7 +14320,7 @@
       <c r="Z425" s="2"/>
       <c r="AA425" s="2"/>
     </row>
-    <row r="426" spans="1:27" ht="12.75">
+    <row r="426" spans="1:27" ht="13">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="14"/>
@@ -14330,7 +14349,7 @@
       <c r="Z426" s="2"/>
       <c r="AA426" s="2"/>
     </row>
-    <row r="427" spans="1:27" ht="12.75">
+    <row r="427" spans="1:27" ht="13">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="14"/>
@@ -14359,7 +14378,7 @@
       <c r="Z427" s="2"/>
       <c r="AA427" s="2"/>
     </row>
-    <row r="428" spans="1:27" ht="12.75">
+    <row r="428" spans="1:27" ht="13">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="14"/>
@@ -14388,7 +14407,7 @@
       <c r="Z428" s="2"/>
       <c r="AA428" s="2"/>
     </row>
-    <row r="429" spans="1:27" ht="12.75">
+    <row r="429" spans="1:27" ht="13">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="14"/>
@@ -14417,7 +14436,7 @@
       <c r="Z429" s="2"/>
       <c r="AA429" s="2"/>
     </row>
-    <row r="430" spans="1:27" ht="12.75">
+    <row r="430" spans="1:27" ht="13">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="14"/>
@@ -14446,7 +14465,7 @@
       <c r="Z430" s="2"/>
       <c r="AA430" s="2"/>
     </row>
-    <row r="431" spans="1:27" ht="12.75">
+    <row r="431" spans="1:27" ht="13">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="14"/>
@@ -14475,7 +14494,7 @@
       <c r="Z431" s="2"/>
       <c r="AA431" s="2"/>
     </row>
-    <row r="432" spans="1:27" ht="12.75">
+    <row r="432" spans="1:27" ht="13">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="14"/>
@@ -14504,7 +14523,7 @@
       <c r="Z432" s="2"/>
       <c r="AA432" s="2"/>
     </row>
-    <row r="433" spans="1:27" ht="12.75">
+    <row r="433" spans="1:27" ht="13">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="14"/>
@@ -14533,7 +14552,7 @@
       <c r="Z433" s="2"/>
       <c r="AA433" s="2"/>
     </row>
-    <row r="434" spans="1:27" ht="12.75">
+    <row r="434" spans="1:27" ht="13">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="14"/>
@@ -14562,7 +14581,7 @@
       <c r="Z434" s="2"/>
       <c r="AA434" s="2"/>
     </row>
-    <row r="435" spans="1:27" ht="12.75">
+    <row r="435" spans="1:27" ht="13">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="14"/>
@@ -14591,7 +14610,7 @@
       <c r="Z435" s="2"/>
       <c r="AA435" s="2"/>
     </row>
-    <row r="436" spans="1:27" ht="12.75">
+    <row r="436" spans="1:27" ht="13">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="14"/>
@@ -14620,7 +14639,7 @@
       <c r="Z436" s="2"/>
       <c r="AA436" s="2"/>
     </row>
-    <row r="437" spans="1:27" ht="12.75">
+    <row r="437" spans="1:27" ht="13">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="14"/>
@@ -14649,7 +14668,7 @@
       <c r="Z437" s="2"/>
       <c r="AA437" s="2"/>
     </row>
-    <row r="438" spans="1:27" ht="12.75">
+    <row r="438" spans="1:27" ht="13">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="14"/>
@@ -14678,7 +14697,7 @@
       <c r="Z438" s="2"/>
       <c r="AA438" s="2"/>
     </row>
-    <row r="439" spans="1:27" ht="12.75">
+    <row r="439" spans="1:27" ht="13">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="14"/>
@@ -14707,7 +14726,7 @@
       <c r="Z439" s="2"/>
       <c r="AA439" s="2"/>
     </row>
-    <row r="440" spans="1:27" ht="12.75">
+    <row r="440" spans="1:27" ht="13">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="14"/>
@@ -14736,7 +14755,7 @@
       <c r="Z440" s="2"/>
       <c r="AA440" s="2"/>
     </row>
-    <row r="441" spans="1:27" ht="12.75">
+    <row r="441" spans="1:27" ht="13">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="14"/>
@@ -14765,7 +14784,7 @@
       <c r="Z441" s="2"/>
       <c r="AA441" s="2"/>
     </row>
-    <row r="442" spans="1:27" ht="12.75">
+    <row r="442" spans="1:27" ht="13">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="14"/>
@@ -14794,7 +14813,7 @@
       <c r="Z442" s="2"/>
       <c r="AA442" s="2"/>
     </row>
-    <row r="443" spans="1:27" ht="12.75">
+    <row r="443" spans="1:27" ht="13">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="14"/>
@@ -14823,7 +14842,7 @@
       <c r="Z443" s="2"/>
       <c r="AA443" s="2"/>
     </row>
-    <row r="444" spans="1:27" ht="12.75">
+    <row r="444" spans="1:27" ht="13">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="14"/>
@@ -14852,7 +14871,7 @@
       <c r="Z444" s="2"/>
       <c r="AA444" s="2"/>
     </row>
-    <row r="445" spans="1:27" ht="12.75">
+    <row r="445" spans="1:27" ht="13">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="14"/>
@@ -14881,7 +14900,7 @@
       <c r="Z445" s="2"/>
       <c r="AA445" s="2"/>
     </row>
-    <row r="446" spans="1:27" ht="12.75">
+    <row r="446" spans="1:27" ht="13">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="14"/>
@@ -14910,7 +14929,7 @@
       <c r="Z446" s="2"/>
       <c r="AA446" s="2"/>
     </row>
-    <row r="447" spans="1:27" ht="12.75">
+    <row r="447" spans="1:27" ht="13">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="14"/>
@@ -14939,7 +14958,7 @@
       <c r="Z447" s="2"/>
       <c r="AA447" s="2"/>
     </row>
-    <row r="448" spans="1:27" ht="12.75">
+    <row r="448" spans="1:27" ht="13">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="14"/>
@@ -14968,7 +14987,7 @@
       <c r="Z448" s="2"/>
       <c r="AA448" s="2"/>
     </row>
-    <row r="449" spans="1:27" ht="12.75">
+    <row r="449" spans="1:27" ht="13">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="14"/>
@@ -14997,7 +15016,7 @@
       <c r="Z449" s="2"/>
       <c r="AA449" s="2"/>
     </row>
-    <row r="450" spans="1:27" ht="12.75">
+    <row r="450" spans="1:27" ht="13">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="14"/>
@@ -15026,7 +15045,7 @@
       <c r="Z450" s="2"/>
       <c r="AA450" s="2"/>
     </row>
-    <row r="451" spans="1:27" ht="12.75">
+    <row r="451" spans="1:27" ht="13">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="14"/>
@@ -15055,7 +15074,7 @@
       <c r="Z451" s="2"/>
       <c r="AA451" s="2"/>
     </row>
-    <row r="452" spans="1:27" ht="12.75">
+    <row r="452" spans="1:27" ht="13">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="14"/>
@@ -15084,7 +15103,7 @@
       <c r="Z452" s="2"/>
       <c r="AA452" s="2"/>
     </row>
-    <row r="453" spans="1:27" ht="12.75">
+    <row r="453" spans="1:27" ht="13">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="14"/>
@@ -15113,7 +15132,7 @@
       <c r="Z453" s="2"/>
       <c r="AA453" s="2"/>
     </row>
-    <row r="454" spans="1:27" ht="12.75">
+    <row r="454" spans="1:27" ht="13">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="14"/>
@@ -15142,7 +15161,7 @@
       <c r="Z454" s="2"/>
       <c r="AA454" s="2"/>
     </row>
-    <row r="455" spans="1:27" ht="12.75">
+    <row r="455" spans="1:27" ht="13">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="14"/>
@@ -15171,7 +15190,7 @@
       <c r="Z455" s="2"/>
       <c r="AA455" s="2"/>
     </row>
-    <row r="456" spans="1:27" ht="12.75">
+    <row r="456" spans="1:27" ht="13">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="14"/>
@@ -15200,7 +15219,7 @@
       <c r="Z456" s="2"/>
       <c r="AA456" s="2"/>
     </row>
-    <row r="457" spans="1:27" ht="12.75">
+    <row r="457" spans="1:27" ht="13">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="14"/>
@@ -15229,7 +15248,7 @@
       <c r="Z457" s="2"/>
       <c r="AA457" s="2"/>
     </row>
-    <row r="458" spans="1:27" ht="12.75">
+    <row r="458" spans="1:27" ht="13">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="14"/>
@@ -15258,7 +15277,7 @@
       <c r="Z458" s="2"/>
       <c r="AA458" s="2"/>
     </row>
-    <row r="459" spans="1:27" ht="12.75">
+    <row r="459" spans="1:27" ht="13">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="14"/>
@@ -15287,7 +15306,7 @@
       <c r="Z459" s="2"/>
       <c r="AA459" s="2"/>
     </row>
-    <row r="460" spans="1:27" ht="12.75">
+    <row r="460" spans="1:27" ht="13">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="14"/>
@@ -15316,7 +15335,7 @@
       <c r="Z460" s="2"/>
       <c r="AA460" s="2"/>
     </row>
-    <row r="461" spans="1:27" ht="12.75">
+    <row r="461" spans="1:27" ht="13">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="14"/>
@@ -15345,7 +15364,7 @@
       <c r="Z461" s="2"/>
       <c r="AA461" s="2"/>
     </row>
-    <row r="462" spans="1:27" ht="12.75">
+    <row r="462" spans="1:27" ht="13">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="14"/>
@@ -15374,7 +15393,7 @@
       <c r="Z462" s="2"/>
       <c r="AA462" s="2"/>
     </row>
-    <row r="463" spans="1:27" ht="12.75">
+    <row r="463" spans="1:27" ht="13">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="14"/>
@@ -15403,7 +15422,7 @@
       <c r="Z463" s="2"/>
       <c r="AA463" s="2"/>
     </row>
-    <row r="464" spans="1:27" ht="12.75">
+    <row r="464" spans="1:27" ht="13">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="14"/>
@@ -15432,7 +15451,7 @@
       <c r="Z464" s="2"/>
       <c r="AA464" s="2"/>
     </row>
-    <row r="465" spans="1:27" ht="12.75">
+    <row r="465" spans="1:27" ht="13">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="14"/>
@@ -15461,7 +15480,7 @@
       <c r="Z465" s="2"/>
       <c r="AA465" s="2"/>
     </row>
-    <row r="466" spans="1:27" ht="12.75">
+    <row r="466" spans="1:27" ht="13">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="14"/>
@@ -15490,7 +15509,7 @@
       <c r="Z466" s="2"/>
       <c r="AA466" s="2"/>
     </row>
-    <row r="467" spans="1:27" ht="12.75">
+    <row r="467" spans="1:27" ht="13">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="14"/>
@@ -15519,7 +15538,7 @@
       <c r="Z467" s="2"/>
       <c r="AA467" s="2"/>
     </row>
-    <row r="468" spans="1:27" ht="12.75">
+    <row r="468" spans="1:27" ht="13">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="14"/>
@@ -15548,7 +15567,7 @@
       <c r="Z468" s="2"/>
       <c r="AA468" s="2"/>
     </row>
-    <row r="469" spans="1:27" ht="12.75">
+    <row r="469" spans="1:27" ht="13">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="14"/>
@@ -15577,7 +15596,7 @@
       <c r="Z469" s="2"/>
       <c r="AA469" s="2"/>
     </row>
-    <row r="470" spans="1:27" ht="12.75">
+    <row r="470" spans="1:27" ht="13">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="14"/>
@@ -15606,7 +15625,7 @@
       <c r="Z470" s="2"/>
       <c r="AA470" s="2"/>
     </row>
-    <row r="471" spans="1:27" ht="12.75">
+    <row r="471" spans="1:27" ht="13">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="14"/>
@@ -15635,7 +15654,7 @@
       <c r="Z471" s="2"/>
       <c r="AA471" s="2"/>
     </row>
-    <row r="472" spans="1:27" ht="12.75">
+    <row r="472" spans="1:27" ht="13">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="14"/>
@@ -15664,7 +15683,7 @@
       <c r="Z472" s="2"/>
       <c r="AA472" s="2"/>
     </row>
-    <row r="473" spans="1:27" ht="12.75">
+    <row r="473" spans="1:27" ht="13">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="14"/>
@@ -15693,7 +15712,7 @@
       <c r="Z473" s="2"/>
       <c r="AA473" s="2"/>
     </row>
-    <row r="474" spans="1:27" ht="12.75">
+    <row r="474" spans="1:27" ht="13">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="14"/>
@@ -15722,7 +15741,7 @@
       <c r="Z474" s="2"/>
       <c r="AA474" s="2"/>
     </row>
-    <row r="475" spans="1:27" ht="12.75">
+    <row r="475" spans="1:27" ht="13">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="14"/>
@@ -15751,7 +15770,7 @@
       <c r="Z475" s="2"/>
       <c r="AA475" s="2"/>
     </row>
-    <row r="476" spans="1:27" ht="12.75">
+    <row r="476" spans="1:27" ht="13">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="14"/>
@@ -15780,7 +15799,7 @@
       <c r="Z476" s="2"/>
       <c r="AA476" s="2"/>
     </row>
-    <row r="477" spans="1:27" ht="12.75">
+    <row r="477" spans="1:27" ht="13">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="14"/>
@@ -15809,7 +15828,7 @@
       <c r="Z477" s="2"/>
       <c r="AA477" s="2"/>
     </row>
-    <row r="478" spans="1:27" ht="12.75">
+    <row r="478" spans="1:27" ht="13">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="14"/>
@@ -15838,7 +15857,7 @@
       <c r="Z478" s="2"/>
       <c r="AA478" s="2"/>
     </row>
-    <row r="479" spans="1:27" ht="12.75">
+    <row r="479" spans="1:27" ht="13">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="14"/>
@@ -15867,7 +15886,7 @@
       <c r="Z479" s="2"/>
       <c r="AA479" s="2"/>
     </row>
-    <row r="480" spans="1:27" ht="12.75">
+    <row r="480" spans="1:27" ht="13">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="14"/>
@@ -15896,7 +15915,7 @@
       <c r="Z480" s="2"/>
       <c r="AA480" s="2"/>
     </row>
-    <row r="481" spans="1:27" ht="12.75">
+    <row r="481" spans="1:27" ht="13">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="14"/>
@@ -15925,7 +15944,7 @@
       <c r="Z481" s="2"/>
       <c r="AA481" s="2"/>
     </row>
-    <row r="482" spans="1:27" ht="12.75">
+    <row r="482" spans="1:27" ht="13">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="14"/>
@@ -15954,7 +15973,7 @@
       <c r="Z482" s="2"/>
       <c r="AA482" s="2"/>
     </row>
-    <row r="483" spans="1:27" ht="12.75">
+    <row r="483" spans="1:27" ht="13">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="14"/>
@@ -15983,7 +16002,7 @@
       <c r="Z483" s="2"/>
       <c r="AA483" s="2"/>
     </row>
-    <row r="484" spans="1:27" ht="12.75">
+    <row r="484" spans="1:27" ht="13">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="14"/>
@@ -16012,7 +16031,7 @@
       <c r="Z484" s="2"/>
       <c r="AA484" s="2"/>
     </row>
-    <row r="485" spans="1:27" ht="12.75">
+    <row r="485" spans="1:27" ht="13">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="14"/>
@@ -16041,7 +16060,7 @@
       <c r="Z485" s="2"/>
       <c r="AA485" s="2"/>
     </row>
-    <row r="486" spans="1:27" ht="12.75">
+    <row r="486" spans="1:27" ht="13">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="14"/>
@@ -16070,7 +16089,7 @@
       <c r="Z486" s="2"/>
       <c r="AA486" s="2"/>
     </row>
-    <row r="487" spans="1:27" ht="12.75">
+    <row r="487" spans="1:27" ht="13">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="14"/>
@@ -16099,7 +16118,7 @@
       <c r="Z487" s="2"/>
       <c r="AA487" s="2"/>
     </row>
-    <row r="488" spans="1:27" ht="12.75">
+    <row r="488" spans="1:27" ht="13">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="14"/>
@@ -16128,7 +16147,7 @@
       <c r="Z488" s="2"/>
       <c r="AA488" s="2"/>
     </row>
-    <row r="489" spans="1:27" ht="12.75">
+    <row r="489" spans="1:27" ht="13">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="14"/>
@@ -16157,7 +16176,7 @@
       <c r="Z489" s="2"/>
       <c r="AA489" s="2"/>
     </row>
-    <row r="490" spans="1:27" ht="12.75">
+    <row r="490" spans="1:27" ht="13">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="14"/>
@@ -16186,7 +16205,7 @@
       <c r="Z490" s="2"/>
       <c r="AA490" s="2"/>
     </row>
-    <row r="491" spans="1:27" ht="12.75">
+    <row r="491" spans="1:27" ht="13">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="14"/>
@@ -16215,7 +16234,7 @@
       <c r="Z491" s="2"/>
       <c r="AA491" s="2"/>
     </row>
-    <row r="492" spans="1:27" ht="12.75">
+    <row r="492" spans="1:27" ht="13">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="14"/>
@@ -16244,7 +16263,7 @@
       <c r="Z492" s="2"/>
       <c r="AA492" s="2"/>
     </row>
-    <row r="493" spans="1:27" ht="12.75">
+    <row r="493" spans="1:27" ht="13">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="14"/>
@@ -16273,7 +16292,7 @@
       <c r="Z493" s="2"/>
       <c r="AA493" s="2"/>
     </row>
-    <row r="494" spans="1:27" ht="12.75">
+    <row r="494" spans="1:27" ht="13">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="14"/>
@@ -16302,7 +16321,7 @@
       <c r="Z494" s="2"/>
       <c r="AA494" s="2"/>
     </row>
-    <row r="495" spans="1:27" ht="12.75">
+    <row r="495" spans="1:27" ht="13">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="14"/>
@@ -16331,7 +16350,7 @@
       <c r="Z495" s="2"/>
       <c r="AA495" s="2"/>
     </row>
-    <row r="496" spans="1:27" ht="12.75">
+    <row r="496" spans="1:27" ht="13">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="14"/>
@@ -16360,7 +16379,7 @@
       <c r="Z496" s="2"/>
       <c r="AA496" s="2"/>
     </row>
-    <row r="497" spans="1:27" ht="12.75">
+    <row r="497" spans="1:27" ht="13">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="14"/>
@@ -16389,7 +16408,7 @@
       <c r="Z497" s="2"/>
       <c r="AA497" s="2"/>
     </row>
-    <row r="498" spans="1:27" ht="12.75">
+    <row r="498" spans="1:27" ht="13">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="14"/>
@@ -16418,7 +16437,7 @@
       <c r="Z498" s="2"/>
       <c r="AA498" s="2"/>
     </row>
-    <row r="499" spans="1:27" ht="12.75">
+    <row r="499" spans="1:27" ht="13">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="14"/>
@@ -16447,7 +16466,7 @@
       <c r="Z499" s="2"/>
       <c r="AA499" s="2"/>
     </row>
-    <row r="500" spans="1:27" ht="12.75">
+    <row r="500" spans="1:27" ht="13">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="14"/>
@@ -16476,7 +16495,7 @@
       <c r="Z500" s="2"/>
       <c r="AA500" s="2"/>
     </row>
-    <row r="501" spans="1:27" ht="12.75">
+    <row r="501" spans="1:27" ht="13">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="14"/>
@@ -16505,7 +16524,7 @@
       <c r="Z501" s="2"/>
       <c r="AA501" s="2"/>
     </row>
-    <row r="502" spans="1:27" ht="12.75">
+    <row r="502" spans="1:27" ht="13">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="14"/>
@@ -16534,7 +16553,7 @@
       <c r="Z502" s="2"/>
       <c r="AA502" s="2"/>
     </row>
-    <row r="503" spans="1:27" ht="12.75">
+    <row r="503" spans="1:27" ht="13">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="14"/>
@@ -16563,7 +16582,7 @@
       <c r="Z503" s="2"/>
       <c r="AA503" s="2"/>
     </row>
-    <row r="504" spans="1:27" ht="12.75">
+    <row r="504" spans="1:27" ht="13">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="14"/>
@@ -16592,7 +16611,7 @@
       <c r="Z504" s="2"/>
       <c r="AA504" s="2"/>
     </row>
-    <row r="505" spans="1:27" ht="12.75">
+    <row r="505" spans="1:27" ht="13">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="14"/>
@@ -16621,7 +16640,7 @@
       <c r="Z505" s="2"/>
       <c r="AA505" s="2"/>
     </row>
-    <row r="506" spans="1:27" ht="12.75">
+    <row r="506" spans="1:27" ht="13">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="14"/>
@@ -16650,7 +16669,7 @@
       <c r="Z506" s="2"/>
       <c r="AA506" s="2"/>
     </row>
-    <row r="507" spans="1:27" ht="12.75">
+    <row r="507" spans="1:27" ht="13">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="14"/>
@@ -16679,7 +16698,7 @@
       <c r="Z507" s="2"/>
       <c r="AA507" s="2"/>
     </row>
-    <row r="508" spans="1:27" ht="12.75">
+    <row r="508" spans="1:27" ht="13">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="14"/>
@@ -16708,7 +16727,7 @@
       <c r="Z508" s="2"/>
       <c r="AA508" s="2"/>
     </row>
-    <row r="509" spans="1:27" ht="12.75">
+    <row r="509" spans="1:27" ht="13">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="14"/>
@@ -16737,7 +16756,7 @@
       <c r="Z509" s="2"/>
       <c r="AA509" s="2"/>
     </row>
-    <row r="510" spans="1:27" ht="12.75">
+    <row r="510" spans="1:27" ht="13">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="14"/>
@@ -16766,7 +16785,7 @@
       <c r="Z510" s="2"/>
       <c r="AA510" s="2"/>
     </row>
-    <row r="511" spans="1:27" ht="12.75">
+    <row r="511" spans="1:27" ht="13">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="14"/>
@@ -16795,7 +16814,7 @@
       <c r="Z511" s="2"/>
       <c r="AA511" s="2"/>
     </row>
-    <row r="512" spans="1:27" ht="12.75">
+    <row r="512" spans="1:27" ht="13">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="14"/>
@@ -16824,7 +16843,7 @@
       <c r="Z512" s="2"/>
       <c r="AA512" s="2"/>
     </row>
-    <row r="513" spans="1:27" ht="12.75">
+    <row r="513" spans="1:27" ht="13">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="14"/>
@@ -16853,7 +16872,7 @@
       <c r="Z513" s="2"/>
       <c r="AA513" s="2"/>
     </row>
-    <row r="514" spans="1:27" ht="12.75">
+    <row r="514" spans="1:27" ht="13">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="14"/>
@@ -16882,7 +16901,7 @@
       <c r="Z514" s="2"/>
       <c r="AA514" s="2"/>
     </row>
-    <row r="515" spans="1:27" ht="12.75">
+    <row r="515" spans="1:27" ht="13">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="14"/>
@@ -16911,7 +16930,7 @@
       <c r="Z515" s="2"/>
       <c r="AA515" s="2"/>
     </row>
-    <row r="516" spans="1:27" ht="12.75">
+    <row r="516" spans="1:27" ht="13">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="14"/>
@@ -16940,7 +16959,7 @@
       <c r="Z516" s="2"/>
       <c r="AA516" s="2"/>
     </row>
-    <row r="517" spans="1:27" ht="12.75">
+    <row r="517" spans="1:27" ht="13">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="14"/>
@@ -16969,7 +16988,7 @@
       <c r="Z517" s="2"/>
       <c r="AA517" s="2"/>
     </row>
-    <row r="518" spans="1:27" ht="12.75">
+    <row r="518" spans="1:27" ht="13">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="14"/>
@@ -16998,7 +17017,7 @@
       <c r="Z518" s="2"/>
       <c r="AA518" s="2"/>
     </row>
-    <row r="519" spans="1:27" ht="12.75">
+    <row r="519" spans="1:27" ht="13">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="14"/>
@@ -17027,7 +17046,7 @@
       <c r="Z519" s="2"/>
       <c r="AA519" s="2"/>
     </row>
-    <row r="520" spans="1:27" ht="12.75">
+    <row r="520" spans="1:27" ht="13">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="14"/>
@@ -17056,7 +17075,7 @@
       <c r="Z520" s="2"/>
       <c r="AA520" s="2"/>
     </row>
-    <row r="521" spans="1:27" ht="12.75">
+    <row r="521" spans="1:27" ht="13">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="14"/>
@@ -17085,7 +17104,7 @@
       <c r="Z521" s="2"/>
       <c r="AA521" s="2"/>
     </row>
-    <row r="522" spans="1:27" ht="12.75">
+    <row r="522" spans="1:27" ht="13">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="14"/>
@@ -17114,7 +17133,7 @@
       <c r="Z522" s="2"/>
       <c r="AA522" s="2"/>
     </row>
-    <row r="523" spans="1:27" ht="12.75">
+    <row r="523" spans="1:27" ht="13">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="14"/>
@@ -17143,7 +17162,7 @@
       <c r="Z523" s="2"/>
       <c r="AA523" s="2"/>
     </row>
-    <row r="524" spans="1:27" ht="12.75">
+    <row r="524" spans="1:27" ht="13">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="14"/>
@@ -17172,7 +17191,7 @@
       <c r="Z524" s="2"/>
       <c r="AA524" s="2"/>
     </row>
-    <row r="525" spans="1:27" ht="12.75">
+    <row r="525" spans="1:27" ht="13">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="14"/>
@@ -17201,7 +17220,7 @@
       <c r="Z525" s="2"/>
       <c r="AA525" s="2"/>
     </row>
-    <row r="526" spans="1:27" ht="12.75">
+    <row r="526" spans="1:27" ht="13">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="14"/>
@@ -17230,7 +17249,7 @@
       <c r="Z526" s="2"/>
       <c r="AA526" s="2"/>
     </row>
-    <row r="527" spans="1:27" ht="12.75">
+    <row r="527" spans="1:27" ht="13">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="14"/>
@@ -17259,7 +17278,7 @@
       <c r="Z527" s="2"/>
       <c r="AA527" s="2"/>
     </row>
-    <row r="528" spans="1:27" ht="12.75">
+    <row r="528" spans="1:27" ht="13">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="14"/>
@@ -17288,7 +17307,7 @@
       <c r="Z528" s="2"/>
       <c r="AA528" s="2"/>
     </row>
-    <row r="529" spans="1:27" ht="12.75">
+    <row r="529" spans="1:27" ht="13">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="14"/>
@@ -17317,7 +17336,7 @@
       <c r="Z529" s="2"/>
       <c r="AA529" s="2"/>
     </row>
-    <row r="530" spans="1:27" ht="12.75">
+    <row r="530" spans="1:27" ht="13">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="14"/>
@@ -17346,7 +17365,7 @@
       <c r="Z530" s="2"/>
       <c r="AA530" s="2"/>
     </row>
-    <row r="531" spans="1:27" ht="12.75">
+    <row r="531" spans="1:27" ht="13">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="14"/>
@@ -17375,7 +17394,7 @@
       <c r="Z531" s="2"/>
       <c r="AA531" s="2"/>
     </row>
-    <row r="532" spans="1:27" ht="12.75">
+    <row r="532" spans="1:27" ht="13">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="14"/>
@@ -17404,7 +17423,7 @@
       <c r="Z532" s="2"/>
       <c r="AA532" s="2"/>
     </row>
-    <row r="533" spans="1:27" ht="12.75">
+    <row r="533" spans="1:27" ht="13">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="14"/>
@@ -17433,7 +17452,7 @@
       <c r="Z533" s="2"/>
       <c r="AA533" s="2"/>
     </row>
-    <row r="534" spans="1:27" ht="12.75">
+    <row r="534" spans="1:27" ht="13">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="14"/>
@@ -17462,7 +17481,7 @@
       <c r="Z534" s="2"/>
       <c r="AA534" s="2"/>
     </row>
-    <row r="535" spans="1:27" ht="12.75">
+    <row r="535" spans="1:27" ht="13">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="14"/>
@@ -17491,7 +17510,7 @@
       <c r="Z535" s="2"/>
       <c r="AA535" s="2"/>
     </row>
-    <row r="536" spans="1:27" ht="12.75">
+    <row r="536" spans="1:27" ht="13">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="14"/>
@@ -17520,7 +17539,7 @@
       <c r="Z536" s="2"/>
       <c r="AA536" s="2"/>
     </row>
-    <row r="537" spans="1:27" ht="12.75">
+    <row r="537" spans="1:27" ht="13">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="14"/>
@@ -17549,7 +17568,7 @@
       <c r="Z537" s="2"/>
       <c r="AA537" s="2"/>
     </row>
-    <row r="538" spans="1:27" ht="12.75">
+    <row r="538" spans="1:27" ht="13">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="14"/>
@@ -17578,7 +17597,7 @@
       <c r="Z538" s="2"/>
       <c r="AA538" s="2"/>
     </row>
-    <row r="539" spans="1:27" ht="12.75">
+    <row r="539" spans="1:27" ht="13">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="14"/>
@@ -17607,7 +17626,7 @@
       <c r="Z539" s="2"/>
       <c r="AA539" s="2"/>
     </row>
-    <row r="540" spans="1:27" ht="12.75">
+    <row r="540" spans="1:27" ht="13">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="14"/>
@@ -17636,7 +17655,7 @@
       <c r="Z540" s="2"/>
       <c r="AA540" s="2"/>
     </row>
-    <row r="541" spans="1:27" ht="12.75">
+    <row r="541" spans="1:27" ht="13">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="14"/>
@@ -17665,7 +17684,7 @@
       <c r="Z541" s="2"/>
       <c r="AA541" s="2"/>
     </row>
-    <row r="542" spans="1:27" ht="12.75">
+    <row r="542" spans="1:27" ht="13">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="14"/>
@@ -17694,7 +17713,7 @@
       <c r="Z542" s="2"/>
       <c r="AA542" s="2"/>
     </row>
-    <row r="543" spans="1:27" ht="12.75">
+    <row r="543" spans="1:27" ht="13">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="14"/>
@@ -17723,7 +17742,7 @@
       <c r="Z543" s="2"/>
       <c r="AA543" s="2"/>
     </row>
-    <row r="544" spans="1:27" ht="12.75">
+    <row r="544" spans="1:27" ht="13">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="14"/>
@@ -17752,7 +17771,7 @@
       <c r="Z544" s="2"/>
       <c r="AA544" s="2"/>
     </row>
-    <row r="545" spans="1:27" ht="12.75">
+    <row r="545" spans="1:27" ht="13">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="14"/>
@@ -17781,7 +17800,7 @@
       <c r="Z545" s="2"/>
       <c r="AA545" s="2"/>
     </row>
-    <row r="546" spans="1:27" ht="12.75">
+    <row r="546" spans="1:27" ht="13">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="14"/>
@@ -17810,7 +17829,7 @@
       <c r="Z546" s="2"/>
       <c r="AA546" s="2"/>
     </row>
-    <row r="547" spans="1:27" ht="12.75">
+    <row r="547" spans="1:27" ht="13">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="14"/>
@@ -17839,7 +17858,7 @@
       <c r="Z547" s="2"/>
       <c r="AA547" s="2"/>
     </row>
-    <row r="548" spans="1:27" ht="12.75">
+    <row r="548" spans="1:27" ht="13">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="14"/>
@@ -17868,7 +17887,7 @@
       <c r="Z548" s="2"/>
       <c r="AA548" s="2"/>
     </row>
-    <row r="549" spans="1:27" ht="12.75">
+    <row r="549" spans="1:27" ht="13">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="14"/>
@@ -17897,7 +17916,7 @@
       <c r="Z549" s="2"/>
       <c r="AA549" s="2"/>
     </row>
-    <row r="550" spans="1:27" ht="12.75">
+    <row r="550" spans="1:27" ht="13">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="14"/>
@@ -17926,7 +17945,7 @@
       <c r="Z550" s="2"/>
       <c r="AA550" s="2"/>
     </row>
-    <row r="551" spans="1:27" ht="12.75">
+    <row r="551" spans="1:27" ht="13">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="14"/>
@@ -17955,7 +17974,7 @@
       <c r="Z551" s="2"/>
       <c r="AA551" s="2"/>
     </row>
-    <row r="552" spans="1:27" ht="12.75">
+    <row r="552" spans="1:27" ht="13">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="14"/>
@@ -17984,7 +18003,7 @@
       <c r="Z552" s="2"/>
       <c r="AA552" s="2"/>
     </row>
-    <row r="553" spans="1:27" ht="12.75">
+    <row r="553" spans="1:27" ht="13">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="14"/>
@@ -18013,7 +18032,7 @@
       <c r="Z553" s="2"/>
       <c r="AA553" s="2"/>
     </row>
-    <row r="554" spans="1:27" ht="12.75">
+    <row r="554" spans="1:27" ht="13">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="14"/>
@@ -18042,7 +18061,7 @@
       <c r="Z554" s="2"/>
       <c r="AA554" s="2"/>
     </row>
-    <row r="555" spans="1:27" ht="12.75">
+    <row r="555" spans="1:27" ht="13">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="14"/>
@@ -18071,7 +18090,7 @@
       <c r="Z555" s="2"/>
       <c r="AA555" s="2"/>
     </row>
-    <row r="556" spans="1:27" ht="12.75">
+    <row r="556" spans="1:27" ht="13">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="14"/>
@@ -18100,7 +18119,7 @@
       <c r="Z556" s="2"/>
       <c r="AA556" s="2"/>
     </row>
-    <row r="557" spans="1:27" ht="12.75">
+    <row r="557" spans="1:27" ht="13">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="14"/>
@@ -18129,7 +18148,7 @@
       <c r="Z557" s="2"/>
       <c r="AA557" s="2"/>
     </row>
-    <row r="558" spans="1:27" ht="12.75">
+    <row r="558" spans="1:27" ht="13">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="14"/>
@@ -18158,7 +18177,7 @@
       <c r="Z558" s="2"/>
       <c r="AA558" s="2"/>
     </row>
-    <row r="559" spans="1:27" ht="12.75">
+    <row r="559" spans="1:27" ht="13">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="14"/>
@@ -18187,7 +18206,7 @@
       <c r="Z559" s="2"/>
       <c r="AA559" s="2"/>
     </row>
-    <row r="560" spans="1:27" ht="12.75">
+    <row r="560" spans="1:27" ht="13">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="14"/>
@@ -18216,7 +18235,7 @@
       <c r="Z560" s="2"/>
       <c r="AA560" s="2"/>
     </row>
-    <row r="561" spans="1:27" ht="12.75">
+    <row r="561" spans="1:27" ht="13">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="14"/>
@@ -18245,7 +18264,7 @@
       <c r="Z561" s="2"/>
       <c r="AA561" s="2"/>
     </row>
-    <row r="562" spans="1:27" ht="12.75">
+    <row r="562" spans="1:27" ht="13">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="14"/>
@@ -18274,7 +18293,7 @@
       <c r="Z562" s="2"/>
       <c r="AA562" s="2"/>
     </row>
-    <row r="563" spans="1:27" ht="12.75">
+    <row r="563" spans="1:27" ht="13">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="14"/>
@@ -18303,7 +18322,7 @@
       <c r="Z563" s="2"/>
       <c r="AA563" s="2"/>
     </row>
-    <row r="564" spans="1:27" ht="12.75">
+    <row r="564" spans="1:27" ht="13">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="14"/>
@@ -18332,7 +18351,7 @@
       <c r="Z564" s="2"/>
       <c r="AA564" s="2"/>
     </row>
-    <row r="565" spans="1:27" ht="12.75">
+    <row r="565" spans="1:27" ht="13">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="14"/>
@@ -18361,7 +18380,7 @@
       <c r="Z565" s="2"/>
       <c r="AA565" s="2"/>
     </row>
-    <row r="566" spans="1:27" ht="12.75">
+    <row r="566" spans="1:27" ht="13">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="14"/>
@@ -18390,7 +18409,7 @@
       <c r="Z566" s="2"/>
       <c r="AA566" s="2"/>
     </row>
-    <row r="567" spans="1:27" ht="12.75">
+    <row r="567" spans="1:27" ht="13">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="14"/>
@@ -18419,7 +18438,7 @@
       <c r="Z567" s="2"/>
       <c r="AA567" s="2"/>
     </row>
-    <row r="568" spans="1:27" ht="12.75">
+    <row r="568" spans="1:27" ht="13">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="14"/>
@@ -18448,7 +18467,7 @@
       <c r="Z568" s="2"/>
       <c r="AA568" s="2"/>
     </row>
-    <row r="569" spans="1:27" ht="12.75">
+    <row r="569" spans="1:27" ht="13">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="14"/>
@@ -18477,7 +18496,7 @@
       <c r="Z569" s="2"/>
       <c r="AA569" s="2"/>
     </row>
-    <row r="570" spans="1:27" ht="12.75">
+    <row r="570" spans="1:27" ht="13">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="14"/>
@@ -18506,7 +18525,7 @@
       <c r="Z570" s="2"/>
       <c r="AA570" s="2"/>
     </row>
-    <row r="571" spans="1:27" ht="12.75">
+    <row r="571" spans="1:27" ht="13">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="14"/>
@@ -18535,7 +18554,7 @@
       <c r="Z571" s="2"/>
       <c r="AA571" s="2"/>
     </row>
-    <row r="572" spans="1:27" ht="12.75">
+    <row r="572" spans="1:27" ht="13">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="14"/>
@@ -18564,7 +18583,7 @@
       <c r="Z572" s="2"/>
       <c r="AA572" s="2"/>
     </row>
-    <row r="573" spans="1:27" ht="12.75">
+    <row r="573" spans="1:27" ht="13">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="14"/>
@@ -18593,7 +18612,7 @@
       <c r="Z573" s="2"/>
       <c r="AA573" s="2"/>
     </row>
-    <row r="574" spans="1:27" ht="12.75">
+    <row r="574" spans="1:27" ht="13">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="14"/>
@@ -18622,7 +18641,7 @@
       <c r="Z574" s="2"/>
       <c r="AA574" s="2"/>
     </row>
-    <row r="575" spans="1:27" ht="12.75">
+    <row r="575" spans="1:27" ht="13">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="14"/>
@@ -18651,7 +18670,7 @@
       <c r="Z575" s="2"/>
       <c r="AA575" s="2"/>
     </row>
-    <row r="576" spans="1:27" ht="12.75">
+    <row r="576" spans="1:27" ht="13">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="14"/>
@@ -18680,7 +18699,7 @@
       <c r="Z576" s="2"/>
       <c r="AA576" s="2"/>
     </row>
-    <row r="577" spans="1:27" ht="12.75">
+    <row r="577" spans="1:27" ht="13">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="14"/>
@@ -18709,7 +18728,7 @@
       <c r="Z577" s="2"/>
       <c r="AA577" s="2"/>
     </row>
-    <row r="578" spans="1:27" ht="12.75">
+    <row r="578" spans="1:27" ht="13">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="14"/>
@@ -18738,7 +18757,7 @@
       <c r="Z578" s="2"/>
       <c r="AA578" s="2"/>
     </row>
-    <row r="579" spans="1:27" ht="12.75">
+    <row r="579" spans="1:27" ht="13">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="14"/>
@@ -18767,7 +18786,7 @@
       <c r="Z579" s="2"/>
       <c r="AA579" s="2"/>
     </row>
-    <row r="580" spans="1:27" ht="12.75">
+    <row r="580" spans="1:27" ht="13">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="14"/>
@@ -18796,7 +18815,7 @@
       <c r="Z580" s="2"/>
       <c r="AA580" s="2"/>
     </row>
-    <row r="581" spans="1:27" ht="12.75">
+    <row r="581" spans="1:27" ht="13">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="14"/>
@@ -18825,7 +18844,7 @@
       <c r="Z581" s="2"/>
       <c r="AA581" s="2"/>
     </row>
-    <row r="582" spans="1:27" ht="12.75">
+    <row r="582" spans="1:27" ht="13">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="14"/>
@@ -18854,7 +18873,7 @@
       <c r="Z582" s="2"/>
       <c r="AA582" s="2"/>
     </row>
-    <row r="583" spans="1:27" ht="12.75">
+    <row r="583" spans="1:27" ht="13">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="14"/>
@@ -18883,7 +18902,7 @@
       <c r="Z583" s="2"/>
       <c r="AA583" s="2"/>
     </row>
-    <row r="584" spans="1:27" ht="12.75">
+    <row r="584" spans="1:27" ht="13">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="14"/>
@@ -18912,7 +18931,7 @@
       <c r="Z584" s="2"/>
       <c r="AA584" s="2"/>
     </row>
-    <row r="585" spans="1:27" ht="12.75">
+    <row r="585" spans="1:27" ht="13">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="14"/>
@@ -18941,7 +18960,7 @@
       <c r="Z585" s="2"/>
       <c r="AA585" s="2"/>
     </row>
-    <row r="586" spans="1:27" ht="12.75">
+    <row r="586" spans="1:27" ht="13">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="14"/>
@@ -18970,7 +18989,7 @@
       <c r="Z586" s="2"/>
       <c r="AA586" s="2"/>
     </row>
-    <row r="587" spans="1:27" ht="12.75">
+    <row r="587" spans="1:27" ht="13">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="14"/>
@@ -18999,7 +19018,7 @@
       <c r="Z587" s="2"/>
       <c r="AA587" s="2"/>
     </row>
-    <row r="588" spans="1:27" ht="12.75">
+    <row r="588" spans="1:27" ht="13">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="14"/>
@@ -19028,7 +19047,7 @@
       <c r="Z588" s="2"/>
       <c r="AA588" s="2"/>
     </row>
-    <row r="589" spans="1:27" ht="12.75">
+    <row r="589" spans="1:27" ht="13">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="14"/>
@@ -19057,7 +19076,7 @@
       <c r="Z589" s="2"/>
       <c r="AA589" s="2"/>
     </row>
-    <row r="590" spans="1:27" ht="12.75">
+    <row r="590" spans="1:27" ht="13">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="14"/>
@@ -19086,7 +19105,7 @@
       <c r="Z590" s="2"/>
       <c r="AA590" s="2"/>
     </row>
-    <row r="591" spans="1:27" ht="12.75">
+    <row r="591" spans="1:27" ht="13">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="14"/>
@@ -19115,7 +19134,7 @@
       <c r="Z591" s="2"/>
       <c r="AA591" s="2"/>
     </row>
-    <row r="592" spans="1:27" ht="12.75">
+    <row r="592" spans="1:27" ht="13">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="14"/>
@@ -19144,7 +19163,7 @@
       <c r="Z592" s="2"/>
       <c r="AA592" s="2"/>
     </row>
-    <row r="593" spans="1:27" ht="12.75">
+    <row r="593" spans="1:27" ht="13">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="14"/>
@@ -19173,7 +19192,7 @@
       <c r="Z593" s="2"/>
       <c r="AA593" s="2"/>
     </row>
-    <row r="594" spans="1:27" ht="12.75">
+    <row r="594" spans="1:27" ht="13">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="14"/>
@@ -19202,7 +19221,7 @@
       <c r="Z594" s="2"/>
       <c r="AA594" s="2"/>
     </row>
-    <row r="595" spans="1:27" ht="12.75">
+    <row r="595" spans="1:27" ht="13">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="14"/>
@@ -19231,7 +19250,7 @@
       <c r="Z595" s="2"/>
       <c r="AA595" s="2"/>
     </row>
-    <row r="596" spans="1:27" ht="12.75">
+    <row r="596" spans="1:27" ht="13">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="14"/>
@@ -19260,7 +19279,7 @@
       <c r="Z596" s="2"/>
       <c r="AA596" s="2"/>
     </row>
-    <row r="597" spans="1:27" ht="12.75">
+    <row r="597" spans="1:27" ht="13">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="14"/>
@@ -19289,7 +19308,7 @@
       <c r="Z597" s="2"/>
       <c r="AA597" s="2"/>
     </row>
-    <row r="598" spans="1:27" ht="12.75">
+    <row r="598" spans="1:27" ht="13">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="14"/>
@@ -19318,7 +19337,7 @@
       <c r="Z598" s="2"/>
       <c r="AA598" s="2"/>
     </row>
-    <row r="599" spans="1:27" ht="12.75">
+    <row r="599" spans="1:27" ht="13">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="14"/>
@@ -19347,7 +19366,7 @@
       <c r="Z599" s="2"/>
       <c r="AA599" s="2"/>
     </row>
-    <row r="600" spans="1:27" ht="12.75">
+    <row r="600" spans="1:27" ht="13">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="14"/>
@@ -19376,7 +19395,7 @@
       <c r="Z600" s="2"/>
       <c r="AA600" s="2"/>
     </row>
-    <row r="601" spans="1:27" ht="12.75">
+    <row r="601" spans="1:27" ht="13">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="14"/>
@@ -19405,7 +19424,7 @@
       <c r="Z601" s="2"/>
       <c r="AA601" s="2"/>
     </row>
-    <row r="602" spans="1:27" ht="12.75">
+    <row r="602" spans="1:27" ht="13">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="14"/>
@@ -19434,7 +19453,7 @@
       <c r="Z602" s="2"/>
       <c r="AA602" s="2"/>
     </row>
-    <row r="603" spans="1:27" ht="12.75">
+    <row r="603" spans="1:27" ht="13">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="14"/>
@@ -19463,7 +19482,7 @@
       <c r="Z603" s="2"/>
       <c r="AA603" s="2"/>
     </row>
-    <row r="604" spans="1:27" ht="12.75">
+    <row r="604" spans="1:27" ht="13">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="14"/>
@@ -19492,7 +19511,7 @@
       <c r="Z604" s="2"/>
       <c r="AA604" s="2"/>
     </row>
-    <row r="605" spans="1:27" ht="12.75">
+    <row r="605" spans="1:27" ht="13">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="14"/>
@@ -19521,7 +19540,7 @@
       <c r="Z605" s="2"/>
       <c r="AA605" s="2"/>
     </row>
-    <row r="606" spans="1:27" ht="12.75">
+    <row r="606" spans="1:27" ht="13">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="14"/>
@@ -19550,7 +19569,7 @@
       <c r="Z606" s="2"/>
       <c r="AA606" s="2"/>
     </row>
-    <row r="607" spans="1:27" ht="12.75">
+    <row r="607" spans="1:27" ht="13">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="14"/>
@@ -19579,7 +19598,7 @@
       <c r="Z607" s="2"/>
       <c r="AA607" s="2"/>
     </row>
-    <row r="608" spans="1:27" ht="12.75">
+    <row r="608" spans="1:27" ht="13">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="14"/>
@@ -19608,7 +19627,7 @@
       <c r="Z608" s="2"/>
       <c r="AA608" s="2"/>
     </row>
-    <row r="609" spans="1:27" ht="12.75">
+    <row r="609" spans="1:27" ht="13">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="14"/>
@@ -19637,7 +19656,7 @@
       <c r="Z609" s="2"/>
       <c r="AA609" s="2"/>
     </row>
-    <row r="610" spans="1:27" ht="12.75">
+    <row r="610" spans="1:27" ht="13">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="14"/>
@@ -19666,7 +19685,7 @@
       <c r="Z610" s="2"/>
       <c r="AA610" s="2"/>
     </row>
-    <row r="611" spans="1:27" ht="12.75">
+    <row r="611" spans="1:27" ht="13">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="14"/>
@@ -19695,7 +19714,7 @@
       <c r="Z611" s="2"/>
       <c r="AA611" s="2"/>
     </row>
-    <row r="612" spans="1:27" ht="12.75">
+    <row r="612" spans="1:27" ht="13">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="14"/>
@@ -19724,7 +19743,7 @@
       <c r="Z612" s="2"/>
       <c r="AA612" s="2"/>
     </row>
-    <row r="613" spans="1:27" ht="12.75">
+    <row r="613" spans="1:27" ht="13">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="14"/>
@@ -19753,7 +19772,7 @@
       <c r="Z613" s="2"/>
       <c r="AA613" s="2"/>
     </row>
-    <row r="614" spans="1:27" ht="12.75">
+    <row r="614" spans="1:27" ht="13">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="14"/>
@@ -19782,7 +19801,7 @@
       <c r="Z614" s="2"/>
       <c r="AA614" s="2"/>
     </row>
-    <row r="615" spans="1:27" ht="12.75">
+    <row r="615" spans="1:27" ht="13">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="14"/>
@@ -19811,7 +19830,7 @@
       <c r="Z615" s="2"/>
       <c r="AA615" s="2"/>
     </row>
-    <row r="616" spans="1:27" ht="12.75">
+    <row r="616" spans="1:27" ht="13">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="14"/>
@@ -19840,7 +19859,7 @@
       <c r="Z616" s="2"/>
       <c r="AA616" s="2"/>
     </row>
-    <row r="617" spans="1:27" ht="12.75">
+    <row r="617" spans="1:27" ht="13">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="14"/>
@@ -19869,7 +19888,7 @@
       <c r="Z617" s="2"/>
       <c r="AA617" s="2"/>
     </row>
-    <row r="618" spans="1:27" ht="12.75">
+    <row r="618" spans="1:27" ht="13">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="14"/>
@@ -19898,7 +19917,7 @@
       <c r="Z618" s="2"/>
       <c r="AA618" s="2"/>
     </row>
-    <row r="619" spans="1:27" ht="12.75">
+    <row r="619" spans="1:27" ht="13">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="14"/>
@@ -19927,7 +19946,7 @@
       <c r="Z619" s="2"/>
       <c r="AA619" s="2"/>
     </row>
-    <row r="620" spans="1:27" ht="12.75">
+    <row r="620" spans="1:27" ht="13">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="14"/>
@@ -19956,7 +19975,7 @@
       <c r="Z620" s="2"/>
       <c r="AA620" s="2"/>
     </row>
-    <row r="621" spans="1:27" ht="12.75">
+    <row r="621" spans="1:27" ht="13">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="14"/>
@@ -19985,7 +20004,7 @@
       <c r="Z621" s="2"/>
       <c r="AA621" s="2"/>
     </row>
-    <row r="622" spans="1:27" ht="12.75">
+    <row r="622" spans="1:27" ht="13">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="14"/>
@@ -20014,7 +20033,7 @@
       <c r="Z622" s="2"/>
       <c r="AA622" s="2"/>
     </row>
-    <row r="623" spans="1:27" ht="12.75">
+    <row r="623" spans="1:27" ht="13">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="14"/>
@@ -20043,7 +20062,7 @@
       <c r="Z623" s="2"/>
       <c r="AA623" s="2"/>
     </row>
-    <row r="624" spans="1:27" ht="12.75">
+    <row r="624" spans="1:27" ht="13">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="14"/>
@@ -20072,7 +20091,7 @@
       <c r="Z624" s="2"/>
       <c r="AA624" s="2"/>
     </row>
-    <row r="625" spans="1:27" ht="12.75">
+    <row r="625" spans="1:27" ht="13">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="14"/>
@@ -20101,7 +20120,7 @@
       <c r="Z625" s="2"/>
       <c r="AA625" s="2"/>
     </row>
-    <row r="626" spans="1:27" ht="12.75">
+    <row r="626" spans="1:27" ht="13">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="14"/>
@@ -20130,7 +20149,7 @@
       <c r="Z626" s="2"/>
       <c r="AA626" s="2"/>
     </row>
-    <row r="627" spans="1:27" ht="12.75">
+    <row r="627" spans="1:27" ht="13">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="14"/>
@@ -20159,7 +20178,7 @@
       <c r="Z627" s="2"/>
       <c r="AA627" s="2"/>
     </row>
-    <row r="628" spans="1:27" ht="12.75">
+    <row r="628" spans="1:27" ht="13">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="14"/>
@@ -20188,7 +20207,7 @@
       <c r="Z628" s="2"/>
       <c r="AA628" s="2"/>
     </row>
-    <row r="629" spans="1:27" ht="12.75">
+    <row r="629" spans="1:27" ht="13">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="14"/>
@@ -20217,7 +20236,7 @@
       <c r="Z629" s="2"/>
       <c r="AA629" s="2"/>
     </row>
-    <row r="630" spans="1:27" ht="12.75">
+    <row r="630" spans="1:27" ht="13">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="14"/>
@@ -20246,7 +20265,7 @@
       <c r="Z630" s="2"/>
       <c r="AA630" s="2"/>
     </row>
-    <row r="631" spans="1:27" ht="12.75">
+    <row r="631" spans="1:27" ht="13">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="14"/>
@@ -20275,7 +20294,7 @@
       <c r="Z631" s="2"/>
       <c r="AA631" s="2"/>
     </row>
-    <row r="632" spans="1:27" ht="12.75">
+    <row r="632" spans="1:27" ht="13">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="14"/>
@@ -20304,7 +20323,7 @@
       <c r="Z632" s="2"/>
       <c r="AA632" s="2"/>
     </row>
-    <row r="633" spans="1:27" ht="12.75">
+    <row r="633" spans="1:27" ht="13">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="14"/>
@@ -20333,7 +20352,7 @@
       <c r="Z633" s="2"/>
       <c r="AA633" s="2"/>
     </row>
-    <row r="634" spans="1:27" ht="12.75">
+    <row r="634" spans="1:27" ht="13">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="14"/>
@@ -20362,7 +20381,7 @@
       <c r="Z634" s="2"/>
       <c r="AA634" s="2"/>
     </row>
-    <row r="635" spans="1:27" ht="12.75">
+    <row r="635" spans="1:27" ht="13">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="14"/>
@@ -20391,7 +20410,7 @@
       <c r="Z635" s="2"/>
       <c r="AA635" s="2"/>
     </row>
-    <row r="636" spans="1:27" ht="12.75">
+    <row r="636" spans="1:27" ht="13">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="14"/>
@@ -20420,7 +20439,7 @@
       <c r="Z636" s="2"/>
       <c r="AA636" s="2"/>
     </row>
-    <row r="637" spans="1:27" ht="12.75">
+    <row r="637" spans="1:27" ht="13">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="14"/>
@@ -20449,7 +20468,7 @@
       <c r="Z637" s="2"/>
       <c r="AA637" s="2"/>
     </row>
-    <row r="638" spans="1:27" ht="12.75">
+    <row r="638" spans="1:27" ht="13">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="14"/>
@@ -20478,7 +20497,7 @@
       <c r="Z638" s="2"/>
       <c r="AA638" s="2"/>
     </row>
-    <row r="639" spans="1:27" ht="12.75">
+    <row r="639" spans="1:27" ht="13">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="14"/>
@@ -20507,7 +20526,7 @@
       <c r="Z639" s="2"/>
       <c r="AA639" s="2"/>
     </row>
-    <row r="640" spans="1:27" ht="12.75">
+    <row r="640" spans="1:27" ht="13">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="14"/>
@@ -20536,7 +20555,7 @@
       <c r="Z640" s="2"/>
       <c r="AA640" s="2"/>
     </row>
-    <row r="641" spans="1:27" ht="12.75">
+    <row r="641" spans="1:27" ht="13">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="14"/>
@@ -20565,7 +20584,7 @@
       <c r="Z641" s="2"/>
       <c r="AA641" s="2"/>
     </row>
-    <row r="642" spans="1:27" ht="12.75">
+    <row r="642" spans="1:27" ht="13">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="14"/>
@@ -20594,7 +20613,7 @@
       <c r="Z642" s="2"/>
       <c r="AA642" s="2"/>
     </row>
-    <row r="643" spans="1:27" ht="12.75">
+    <row r="643" spans="1:27" ht="13">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="14"/>
@@ -20623,7 +20642,7 @@
       <c r="Z643" s="2"/>
       <c r="AA643" s="2"/>
     </row>
-    <row r="644" spans="1:27" ht="12.75">
+    <row r="644" spans="1:27" ht="13">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="14"/>
@@ -20652,7 +20671,7 @@
       <c r="Z644" s="2"/>
       <c r="AA644" s="2"/>
     </row>
-    <row r="645" spans="1:27" ht="12.75">
+    <row r="645" spans="1:27" ht="13">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="14"/>
@@ -20681,7 +20700,7 @@
       <c r="Z645" s="2"/>
       <c r="AA645" s="2"/>
     </row>
-    <row r="646" spans="1:27" ht="12.75">
+    <row r="646" spans="1:27" ht="13">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="14"/>
@@ -20710,7 +20729,7 @@
       <c r="Z646" s="2"/>
       <c r="AA646" s="2"/>
     </row>
-    <row r="647" spans="1:27" ht="12.75">
+    <row r="647" spans="1:27" ht="13">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="14"/>
@@ -20739,7 +20758,7 @@
       <c r="Z647" s="2"/>
       <c r="AA647" s="2"/>
     </row>
-    <row r="648" spans="1:27" ht="12.75">
+    <row r="648" spans="1:27" ht="13">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="14"/>
@@ -20768,7 +20787,7 @@
       <c r="Z648" s="2"/>
       <c r="AA648" s="2"/>
     </row>
-    <row r="649" spans="1:27" ht="12.75">
+    <row r="649" spans="1:27" ht="13">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="14"/>
@@ -20797,7 +20816,7 @@
       <c r="Z649" s="2"/>
       <c r="AA649" s="2"/>
     </row>
-    <row r="650" spans="1:27" ht="12.75">
+    <row r="650" spans="1:27" ht="13">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="14"/>
@@ -20826,7 +20845,7 @@
       <c r="Z650" s="2"/>
       <c r="AA650" s="2"/>
     </row>
-    <row r="651" spans="1:27" ht="12.75">
+    <row r="651" spans="1:27" ht="13">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="14"/>
@@ -20855,7 +20874,7 @@
       <c r="Z651" s="2"/>
       <c r="AA651" s="2"/>
     </row>
-    <row r="652" spans="1:27" ht="12.75">
+    <row r="652" spans="1:27" ht="13">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="14"/>
@@ -20884,7 +20903,7 @@
       <c r="Z652" s="2"/>
       <c r="AA652" s="2"/>
     </row>
-    <row r="653" spans="1:27" ht="12.75">
+    <row r="653" spans="1:27" ht="13">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="14"/>
@@ -20913,7 +20932,7 @@
       <c r="Z653" s="2"/>
       <c r="AA653" s="2"/>
     </row>
-    <row r="654" spans="1:27" ht="12.75">
+    <row r="654" spans="1:27" ht="13">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="14"/>
@@ -20942,7 +20961,7 @@
       <c r="Z654" s="2"/>
       <c r="AA654" s="2"/>
     </row>
-    <row r="655" spans="1:27" ht="12.75">
+    <row r="655" spans="1:27" ht="13">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="14"/>
@@ -20971,7 +20990,7 @@
       <c r="Z655" s="2"/>
       <c r="AA655" s="2"/>
     </row>
-    <row r="656" spans="1:27" ht="12.75">
+    <row r="656" spans="1:27" ht="13">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="14"/>
@@ -21000,7 +21019,7 @@
       <c r="Z656" s="2"/>
       <c r="AA656" s="2"/>
     </row>
-    <row r="657" spans="1:27" ht="12.75">
+    <row r="657" spans="1:27" ht="13">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="14"/>
@@ -21029,7 +21048,7 @@
       <c r="Z657" s="2"/>
       <c r="AA657" s="2"/>
     </row>
-    <row r="658" spans="1:27" ht="12.75">
+    <row r="658" spans="1:27" ht="13">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="14"/>
@@ -21058,7 +21077,7 @@
       <c r="Z658" s="2"/>
       <c r="AA658" s="2"/>
     </row>
-    <row r="659" spans="1:27" ht="12.75">
+    <row r="659" spans="1:27" ht="13">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="14"/>
@@ -21087,7 +21106,7 @@
       <c r="Z659" s="2"/>
       <c r="AA659" s="2"/>
     </row>
-    <row r="660" spans="1:27" ht="12.75">
+    <row r="660" spans="1:27" ht="13">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="14"/>
@@ -21116,7 +21135,7 @@
       <c r="Z660" s="2"/>
       <c r="AA660" s="2"/>
     </row>
-    <row r="661" spans="1:27" ht="12.75">
+    <row r="661" spans="1:27" ht="13">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="14"/>
@@ -21145,7 +21164,7 @@
       <c r="Z661" s="2"/>
       <c r="AA661" s="2"/>
     </row>
-    <row r="662" spans="1:27" ht="12.75">
+    <row r="662" spans="1:27" ht="13">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="14"/>
@@ -21174,7 +21193,7 @@
       <c r="Z662" s="2"/>
       <c r="AA662" s="2"/>
     </row>
-    <row r="663" spans="1:27" ht="12.75">
+    <row r="663" spans="1:27" ht="13">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="14"/>
@@ -21203,7 +21222,7 @@
       <c r="Z663" s="2"/>
       <c r="AA663" s="2"/>
     </row>
-    <row r="664" spans="1:27" ht="12.75">
+    <row r="664" spans="1:27" ht="13">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="14"/>
@@ -21232,7 +21251,7 @@
       <c r="Z664" s="2"/>
       <c r="AA664" s="2"/>
     </row>
-    <row r="665" spans="1:27" ht="12.75">
+    <row r="665" spans="1:27" ht="13">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="14"/>
@@ -21261,7 +21280,7 @@
       <c r="Z665" s="2"/>
       <c r="AA665" s="2"/>
     </row>
-    <row r="666" spans="1:27" ht="12.75">
+    <row r="666" spans="1:27" ht="13">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="14"/>
@@ -21290,7 +21309,7 @@
       <c r="Z666" s="2"/>
       <c r="AA666" s="2"/>
     </row>
-    <row r="667" spans="1:27" ht="12.75">
+    <row r="667" spans="1:27" ht="13">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="14"/>
@@ -21319,7 +21338,7 @@
       <c r="Z667" s="2"/>
       <c r="AA667" s="2"/>
     </row>
-    <row r="668" spans="1:27" ht="12.75">
+    <row r="668" spans="1:27" ht="13">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="14"/>
@@ -21348,7 +21367,7 @@
       <c r="Z668" s="2"/>
       <c r="AA668" s="2"/>
     </row>
-    <row r="669" spans="1:27" ht="12.75">
+    <row r="669" spans="1:27" ht="13">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="14"/>
@@ -21377,7 +21396,7 @@
       <c r="Z669" s="2"/>
       <c r="AA669" s="2"/>
     </row>
-    <row r="670" spans="1:27" ht="12.75">
+    <row r="670" spans="1:27" ht="13">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="14"/>
@@ -21406,7 +21425,7 @@
       <c r="Z670" s="2"/>
       <c r="AA670" s="2"/>
     </row>
-    <row r="671" spans="1:27" ht="12.75">
+    <row r="671" spans="1:27" ht="13">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="14"/>
@@ -21435,7 +21454,7 @@
       <c r="Z671" s="2"/>
       <c r="AA671" s="2"/>
     </row>
-    <row r="672" spans="1:27" ht="12.75">
+    <row r="672" spans="1:27" ht="13">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="14"/>
@@ -21464,7 +21483,7 @@
       <c r="Z672" s="2"/>
       <c r="AA672" s="2"/>
     </row>
-    <row r="673" spans="1:27" ht="12.75">
+    <row r="673" spans="1:27" ht="13">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="14"/>
@@ -21493,7 +21512,7 @@
       <c r="Z673" s="2"/>
       <c r="AA673" s="2"/>
     </row>
-    <row r="674" spans="1:27" ht="12.75">
+    <row r="674" spans="1:27" ht="13">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="14"/>
@@ -21522,7 +21541,7 @@
       <c r="Z674" s="2"/>
       <c r="AA674" s="2"/>
     </row>
-    <row r="675" spans="1:27" ht="12.75">
+    <row r="675" spans="1:27" ht="13">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="14"/>
@@ -21551,7 +21570,7 @@
       <c r="Z675" s="2"/>
       <c r="AA675" s="2"/>
     </row>
-    <row r="676" spans="1:27" ht="12.75">
+    <row r="676" spans="1:27" ht="13">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="14"/>
@@ -21580,7 +21599,7 @@
       <c r="Z676" s="2"/>
       <c r="AA676" s="2"/>
     </row>
-    <row r="677" spans="1:27" ht="12.75">
+    <row r="677" spans="1:27" ht="13">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="14"/>
@@ -21609,7 +21628,7 @@
       <c r="Z677" s="2"/>
       <c r="AA677" s="2"/>
     </row>
-    <row r="678" spans="1:27" ht="12.75">
+    <row r="678" spans="1:27" ht="13">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="14"/>
@@ -21638,7 +21657,7 @@
       <c r="Z678" s="2"/>
       <c r="AA678" s="2"/>
     </row>
-    <row r="679" spans="1:27" ht="12.75">
+    <row r="679" spans="1:27" ht="13">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="14"/>
@@ -21667,7 +21686,7 @@
       <c r="Z679" s="2"/>
       <c r="AA679" s="2"/>
     </row>
-    <row r="680" spans="1:27" ht="12.75">
+    <row r="680" spans="1:27" ht="13">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="14"/>
@@ -21696,7 +21715,7 @@
       <c r="Z680" s="2"/>
       <c r="AA680" s="2"/>
     </row>
-    <row r="681" spans="1:27" ht="12.75">
+    <row r="681" spans="1:27" ht="13">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="14"/>
@@ -21725,7 +21744,7 @@
       <c r="Z681" s="2"/>
       <c r="AA681" s="2"/>
     </row>
-    <row r="682" spans="1:27" ht="12.75">
+    <row r="682" spans="1:27" ht="13">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="14"/>
@@ -21754,7 +21773,7 @@
       <c r="Z682" s="2"/>
       <c r="AA682" s="2"/>
     </row>
-    <row r="683" spans="1:27" ht="12.75">
+    <row r="683" spans="1:27" ht="13">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="14"/>
@@ -21783,7 +21802,7 @@
       <c r="Z683" s="2"/>
       <c r="AA683" s="2"/>
     </row>
-    <row r="684" spans="1:27" ht="12.75">
+    <row r="684" spans="1:27" ht="13">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="14"/>
@@ -21812,7 +21831,7 @@
       <c r="Z684" s="2"/>
       <c r="AA684" s="2"/>
     </row>
-    <row r="685" spans="1:27" ht="12.75">
+    <row r="685" spans="1:27" ht="13">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="14"/>
@@ -21841,7 +21860,7 @@
       <c r="Z685" s="2"/>
       <c r="AA685" s="2"/>
     </row>
-    <row r="686" spans="1:27" ht="12.75">
+    <row r="686" spans="1:27" ht="13">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="14"/>
@@ -21870,7 +21889,7 @@
       <c r="Z686" s="2"/>
       <c r="AA686" s="2"/>
     </row>
-    <row r="687" spans="1:27" ht="12.75">
+    <row r="687" spans="1:27" ht="13">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="14"/>
@@ -21899,7 +21918,7 @@
       <c r="Z687" s="2"/>
       <c r="AA687" s="2"/>
     </row>
-    <row r="688" spans="1:27" ht="12.75">
+    <row r="688" spans="1:27" ht="13">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="14"/>
@@ -21928,7 +21947,7 @@
       <c r="Z688" s="2"/>
       <c r="AA688" s="2"/>
     </row>
-    <row r="689" spans="1:27" ht="12.75">
+    <row r="689" spans="1:27" ht="13">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="14"/>
@@ -21957,7 +21976,7 @@
       <c r="Z689" s="2"/>
       <c r="AA689" s="2"/>
     </row>
-    <row r="690" spans="1:27" ht="12.75">
+    <row r="690" spans="1:27" ht="13">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="14"/>
@@ -21986,7 +22005,7 @@
       <c r="Z690" s="2"/>
       <c r="AA690" s="2"/>
     </row>
-    <row r="691" spans="1:27" ht="12.75">
+    <row r="691" spans="1:27" ht="13">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="14"/>
@@ -22015,7 +22034,7 @@
       <c r="Z691" s="2"/>
       <c r="AA691" s="2"/>
     </row>
-    <row r="692" spans="1:27" ht="12.75">
+    <row r="692" spans="1:27" ht="13">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="14"/>
@@ -22044,7 +22063,7 @@
       <c r="Z692" s="2"/>
       <c r="AA692" s="2"/>
     </row>
-    <row r="693" spans="1:27" ht="12.75">
+    <row r="693" spans="1:27" ht="13">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="14"/>
@@ -22073,7 +22092,7 @@
       <c r="Z693" s="2"/>
       <c r="AA693" s="2"/>
     </row>
-    <row r="694" spans="1:27" ht="12.75">
+    <row r="694" spans="1:27" ht="13">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="14"/>
@@ -22102,7 +22121,7 @@
       <c r="Z694" s="2"/>
       <c r="AA694" s="2"/>
     </row>
-    <row r="695" spans="1:27" ht="12.75">
+    <row r="695" spans="1:27" ht="13">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="14"/>
@@ -22131,7 +22150,7 @@
       <c r="Z695" s="2"/>
       <c r="AA695" s="2"/>
     </row>
-    <row r="696" spans="1:27" ht="12.75">
+    <row r="696" spans="1:27" ht="13">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="14"/>
@@ -22160,7 +22179,7 @@
       <c r="Z696" s="2"/>
       <c r="AA696" s="2"/>
     </row>
-    <row r="697" spans="1:27" ht="12.75">
+    <row r="697" spans="1:27" ht="13">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="14"/>
@@ -22189,7 +22208,7 @@
       <c r="Z697" s="2"/>
       <c r="AA697" s="2"/>
     </row>
-    <row r="698" spans="1:27" ht="12.75">
+    <row r="698" spans="1:27" ht="13">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="14"/>
@@ -22218,7 +22237,7 @@
       <c r="Z698" s="2"/>
       <c r="AA698" s="2"/>
     </row>
-    <row r="699" spans="1:27" ht="12.75">
+    <row r="699" spans="1:27" ht="13">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="14"/>
@@ -22247,7 +22266,7 @@
       <c r="Z699" s="2"/>
       <c r="AA699" s="2"/>
     </row>
-    <row r="700" spans="1:27" ht="12.75">
+    <row r="700" spans="1:27" ht="13">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="14"/>
@@ -22276,7 +22295,7 @@
       <c r="Z700" s="2"/>
       <c r="AA700" s="2"/>
     </row>
-    <row r="701" spans="1:27" ht="12.75">
+    <row r="701" spans="1:27" ht="13">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="14"/>
@@ -22305,7 +22324,7 @@
       <c r="Z701" s="2"/>
       <c r="AA701" s="2"/>
     </row>
-    <row r="702" spans="1:27" ht="12.75">
+    <row r="702" spans="1:27" ht="13">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="14"/>
@@ -22334,7 +22353,7 @@
       <c r="Z702" s="2"/>
       <c r="AA702" s="2"/>
     </row>
-    <row r="703" spans="1:27" ht="12.75">
+    <row r="703" spans="1:27" ht="13">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="14"/>
@@ -22363,7 +22382,7 @@
       <c r="Z703" s="2"/>
       <c r="AA703" s="2"/>
     </row>
-    <row r="704" spans="1:27" ht="12.75">
+    <row r="704" spans="1:27" ht="13">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="14"/>
@@ -22392,7 +22411,7 @@
       <c r="Z704" s="2"/>
       <c r="AA704" s="2"/>
     </row>
-    <row r="705" spans="1:27" ht="12.75">
+    <row r="705" spans="1:27" ht="13">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="14"/>
@@ -22421,7 +22440,7 @@
       <c r="Z705" s="2"/>
       <c r="AA705" s="2"/>
     </row>
-    <row r="706" spans="1:27" ht="12.75">
+    <row r="706" spans="1:27" ht="13">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="14"/>
@@ -22450,7 +22469,7 @@
       <c r="Z706" s="2"/>
       <c r="AA706" s="2"/>
     </row>
-    <row r="707" spans="1:27" ht="12.75">
+    <row r="707" spans="1:27" ht="13">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="14"/>
@@ -22479,7 +22498,7 @@
       <c r="Z707" s="2"/>
       <c r="AA707" s="2"/>
     </row>
-    <row r="708" spans="1:27" ht="12.75">
+    <row r="708" spans="1:27" ht="13">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="14"/>
@@ -22508,7 +22527,7 @@
       <c r="Z708" s="2"/>
       <c r="AA708" s="2"/>
     </row>
-    <row r="709" spans="1:27" ht="12.75">
+    <row r="709" spans="1:27" ht="13">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="14"/>
@@ -22537,7 +22556,7 @@
       <c r="Z709" s="2"/>
       <c r="AA709" s="2"/>
     </row>
-    <row r="710" spans="1:27" ht="12.75">
+    <row r="710" spans="1:27" ht="13">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="14"/>
@@ -22566,7 +22585,7 @@
       <c r="Z710" s="2"/>
       <c r="AA710" s="2"/>
     </row>
-    <row r="711" spans="1:27" ht="12.75">
+    <row r="711" spans="1:27" ht="13">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="14"/>
@@ -22595,7 +22614,7 @@
       <c r="Z711" s="2"/>
       <c r="AA711" s="2"/>
     </row>
-    <row r="712" spans="1:27" ht="12.75">
+    <row r="712" spans="1:27" ht="13">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="14"/>
@@ -22624,7 +22643,7 @@
       <c r="Z712" s="2"/>
       <c r="AA712" s="2"/>
     </row>
-    <row r="713" spans="1:27" ht="12.75">
+    <row r="713" spans="1:27" ht="13">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="14"/>
@@ -22653,7 +22672,7 @@
       <c r="Z713" s="2"/>
       <c r="AA713" s="2"/>
     </row>
-    <row r="714" spans="1:27" ht="12.75">
+    <row r="714" spans="1:27" ht="13">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="14"/>
@@ -22682,7 +22701,7 @@
       <c r="Z714" s="2"/>
       <c r="AA714" s="2"/>
     </row>
-    <row r="715" spans="1:27" ht="12.75">
+    <row r="715" spans="1:27" ht="13">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="14"/>
@@ -22711,7 +22730,7 @@
       <c r="Z715" s="2"/>
       <c r="AA715" s="2"/>
     </row>
-    <row r="716" spans="1:27" ht="12.75">
+    <row r="716" spans="1:27" ht="13">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="14"/>
@@ -22740,7 +22759,7 @@
       <c r="Z716" s="2"/>
       <c r="AA716" s="2"/>
     </row>
-    <row r="717" spans="1:27" ht="12.75">
+    <row r="717" spans="1:27" ht="13">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="14"/>
@@ -22769,7 +22788,7 @@
       <c r="Z717" s="2"/>
       <c r="AA717" s="2"/>
     </row>
-    <row r="718" spans="1:27" ht="12.75">
+    <row r="718" spans="1:27" ht="13">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="14"/>
@@ -22798,7 +22817,7 @@
       <c r="Z718" s="2"/>
       <c r="AA718" s="2"/>
     </row>
-    <row r="719" spans="1:27" ht="12.75">
+    <row r="719" spans="1:27" ht="13">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="14"/>
@@ -22827,7 +22846,7 @@
       <c r="Z719" s="2"/>
       <c r="AA719" s="2"/>
     </row>
-    <row r="720" spans="1:27" ht="12.75">
+    <row r="720" spans="1:27" ht="13">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="14"/>
@@ -22856,7 +22875,7 @@
       <c r="Z720" s="2"/>
       <c r="AA720" s="2"/>
     </row>
-    <row r="721" spans="1:27" ht="12.75">
+    <row r="721" spans="1:27" ht="13">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="14"/>
@@ -22885,7 +22904,7 @@
       <c r="Z721" s="2"/>
       <c r="AA721" s="2"/>
     </row>
-    <row r="722" spans="1:27" ht="12.75">
+    <row r="722" spans="1:27" ht="13">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="14"/>
@@ -22914,7 +22933,7 @@
       <c r="Z722" s="2"/>
       <c r="AA722" s="2"/>
     </row>
-    <row r="723" spans="1:27" ht="12.75">
+    <row r="723" spans="1:27" ht="13">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="14"/>
@@ -22943,7 +22962,7 @@
       <c r="Z723" s="2"/>
       <c r="AA723" s="2"/>
     </row>
-    <row r="724" spans="1:27" ht="12.75">
+    <row r="724" spans="1:27" ht="13">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="14"/>
@@ -22972,7 +22991,7 @@
       <c r="Z724" s="2"/>
       <c r="AA724" s="2"/>
     </row>
-    <row r="725" spans="1:27" ht="12.75">
+    <row r="725" spans="1:27" ht="13">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="14"/>
@@ -23001,7 +23020,7 @@
       <c r="Z725" s="2"/>
       <c r="AA725" s="2"/>
     </row>
-    <row r="726" spans="1:27" ht="12.75">
+    <row r="726" spans="1:27" ht="13">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="14"/>
@@ -23030,7 +23049,7 @@
       <c r="Z726" s="2"/>
       <c r="AA726" s="2"/>
     </row>
-    <row r="727" spans="1:27" ht="12.75">
+    <row r="727" spans="1:27" ht="13">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="14"/>
@@ -23059,7 +23078,7 @@
       <c r="Z727" s="2"/>
       <c r="AA727" s="2"/>
     </row>
-    <row r="728" spans="1:27" ht="12.75">
+    <row r="728" spans="1:27" ht="13">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="14"/>
@@ -23088,7 +23107,7 @@
       <c r="Z728" s="2"/>
       <c r="AA728" s="2"/>
     </row>
-    <row r="729" spans="1:27" ht="12.75">
+    <row r="729" spans="1:27" ht="13">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="14"/>
@@ -23117,7 +23136,7 @@
       <c r="Z729" s="2"/>
       <c r="AA729" s="2"/>
     </row>
-    <row r="730" spans="1:27" ht="12.75">
+    <row r="730" spans="1:27" ht="13">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="14"/>
@@ -23146,7 +23165,7 @@
       <c r="Z730" s="2"/>
       <c r="AA730" s="2"/>
     </row>
-    <row r="731" spans="1:27" ht="12.75">
+    <row r="731" spans="1:27" ht="13">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="14"/>
@@ -23175,7 +23194,7 @@
       <c r="Z731" s="2"/>
       <c r="AA731" s="2"/>
     </row>
-    <row r="732" spans="1:27" ht="12.75">
+    <row r="732" spans="1:27" ht="13">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="14"/>
@@ -23204,7 +23223,7 @@
       <c r="Z732" s="2"/>
       <c r="AA732" s="2"/>
     </row>
-    <row r="733" spans="1:27" ht="12.75">
+    <row r="733" spans="1:27" ht="13">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="14"/>
@@ -23233,7 +23252,7 @@
       <c r="Z733" s="2"/>
       <c r="AA733" s="2"/>
     </row>
-    <row r="734" spans="1:27" ht="12.75">
+    <row r="734" spans="1:27" ht="13">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="14"/>
@@ -23262,7 +23281,7 @@
       <c r="Z734" s="2"/>
       <c r="AA734" s="2"/>
     </row>
-    <row r="735" spans="1:27" ht="12.75">
+    <row r="735" spans="1:27" ht="13">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="14"/>
@@ -23291,7 +23310,7 @@
       <c r="Z735" s="2"/>
       <c r="AA735" s="2"/>
     </row>
-    <row r="736" spans="1:27" ht="12.75">
+    <row r="736" spans="1:27" ht="13">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="14"/>
@@ -23320,7 +23339,7 @@
       <c r="Z736" s="2"/>
       <c r="AA736" s="2"/>
     </row>
-    <row r="737" spans="1:27" ht="12.75">
+    <row r="737" spans="1:27" ht="13">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="14"/>
@@ -23349,7 +23368,7 @@
       <c r="Z737" s="2"/>
       <c r="AA737" s="2"/>
     </row>
-    <row r="738" spans="1:27" ht="12.75">
+    <row r="738" spans="1:27" ht="13">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="14"/>
@@ -23378,7 +23397,7 @@
       <c r="Z738" s="2"/>
       <c r="AA738" s="2"/>
     </row>
-    <row r="739" spans="1:27" ht="12.75">
+    <row r="739" spans="1:27" ht="13">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="14"/>
@@ -23407,7 +23426,7 @@
       <c r="Z739" s="2"/>
       <c r="AA739" s="2"/>
     </row>
-    <row r="740" spans="1:27" ht="12.75">
+    <row r="740" spans="1:27" ht="13">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="14"/>
@@ -23436,7 +23455,7 @@
       <c r="Z740" s="2"/>
       <c r="AA740" s="2"/>
     </row>
-    <row r="741" spans="1:27" ht="12.75">
+    <row r="741" spans="1:27" ht="13">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="14"/>
@@ -23465,7 +23484,7 @@
       <c r="Z741" s="2"/>
       <c r="AA741" s="2"/>
     </row>
-    <row r="742" spans="1:27" ht="12.75">
+    <row r="742" spans="1:27" ht="13">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="14"/>
@@ -23494,7 +23513,7 @@
       <c r="Z742" s="2"/>
       <c r="AA742" s="2"/>
     </row>
-    <row r="743" spans="1:27" ht="12.75">
+    <row r="743" spans="1:27" ht="13">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="14"/>
@@ -23523,7 +23542,7 @@
       <c r="Z743" s="2"/>
       <c r="AA743" s="2"/>
     </row>
-    <row r="744" spans="1:27" ht="12.75">
+    <row r="744" spans="1:27" ht="13">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="14"/>
@@ -23552,7 +23571,7 @@
       <c r="Z744" s="2"/>
       <c r="AA744" s="2"/>
     </row>
-    <row r="745" spans="1:27" ht="12.75">
+    <row r="745" spans="1:27" ht="13">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="14"/>
@@ -23581,7 +23600,7 @@
       <c r="Z745" s="2"/>
       <c r="AA745" s="2"/>
     </row>
-    <row r="746" spans="1:27" ht="12.75">
+    <row r="746" spans="1:27" ht="13">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="14"/>
@@ -23610,7 +23629,7 @@
       <c r="Z746" s="2"/>
       <c r="AA746" s="2"/>
     </row>
-    <row r="747" spans="1:27" ht="12.75">
+    <row r="747" spans="1:27" ht="13">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="14"/>
@@ -23639,7 +23658,7 @@
       <c r="Z747" s="2"/>
       <c r="AA747" s="2"/>
     </row>
-    <row r="748" spans="1:27" ht="12.75">
+    <row r="748" spans="1:27" ht="13">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="14"/>
@@ -23668,7 +23687,7 @@
       <c r="Z748" s="2"/>
       <c r="AA748" s="2"/>
     </row>
-    <row r="749" spans="1:27" ht="12.75">
+    <row r="749" spans="1:27" ht="13">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="14"/>
@@ -23697,7 +23716,7 @@
       <c r="Z749" s="2"/>
       <c r="AA749" s="2"/>
     </row>
-    <row r="750" spans="1:27" ht="12.75">
+    <row r="750" spans="1:27" ht="13">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="14"/>
@@ -23726,7 +23745,7 @@
       <c r="Z750" s="2"/>
       <c r="AA750" s="2"/>
     </row>
-    <row r="751" spans="1:27" ht="12.75">
+    <row r="751" spans="1:27" ht="13">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="14"/>
@@ -23755,7 +23774,7 @@
       <c r="Z751" s="2"/>
       <c r="AA751" s="2"/>
     </row>
-    <row r="752" spans="1:27" ht="12.75">
+    <row r="752" spans="1:27" ht="13">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="14"/>
@@ -23784,7 +23803,7 @@
       <c r="Z752" s="2"/>
       <c r="AA752" s="2"/>
     </row>
-    <row r="753" spans="1:27" ht="12.75">
+    <row r="753" spans="1:27" ht="13">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="14"/>
@@ -23813,7 +23832,7 @@
       <c r="Z753" s="2"/>
       <c r="AA753" s="2"/>
     </row>
-    <row r="754" spans="1:27" ht="12.75">
+    <row r="754" spans="1:27" ht="13">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="14"/>
@@ -23842,7 +23861,7 @@
       <c r="Z754" s="2"/>
       <c r="AA754" s="2"/>
     </row>
-    <row r="755" spans="1:27" ht="12.75">
+    <row r="755" spans="1:27" ht="13">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="14"/>
@@ -23871,7 +23890,7 @@
       <c r="Z755" s="2"/>
       <c r="AA755" s="2"/>
     </row>
-    <row r="756" spans="1:27" ht="12.75">
+    <row r="756" spans="1:27" ht="13">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="14"/>
@@ -23900,7 +23919,7 @@
       <c r="Z756" s="2"/>
       <c r="AA756" s="2"/>
     </row>
-    <row r="757" spans="1:27" ht="12.75">
+    <row r="757" spans="1:27" ht="13">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="14"/>
@@ -23929,7 +23948,7 @@
       <c r="Z757" s="2"/>
       <c r="AA757" s="2"/>
     </row>
-    <row r="758" spans="1:27" ht="12.75">
+    <row r="758" spans="1:27" ht="13">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="14"/>
@@ -23958,7 +23977,7 @@
       <c r="Z758" s="2"/>
       <c r="AA758" s="2"/>
     </row>
-    <row r="759" spans="1:27" ht="12.75">
+    <row r="759" spans="1:27" ht="13">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="14"/>
@@ -23987,7 +24006,7 @@
       <c r="Z759" s="2"/>
       <c r="AA759" s="2"/>
     </row>
-    <row r="760" spans="1:27" ht="12.75">
+    <row r="760" spans="1:27" ht="13">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="14"/>
@@ -24016,7 +24035,7 @@
       <c r="Z760" s="2"/>
       <c r="AA760" s="2"/>
     </row>
-    <row r="761" spans="1:27" ht="12.75">
+    <row r="761" spans="1:27" ht="13">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="14"/>
@@ -24045,7 +24064,7 @@
       <c r="Z761" s="2"/>
       <c r="AA761" s="2"/>
     </row>
-    <row r="762" spans="1:27" ht="12.75">
+    <row r="762" spans="1:27" ht="13">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="14"/>
@@ -24074,7 +24093,7 @@
       <c r="Z762" s="2"/>
       <c r="AA762" s="2"/>
     </row>
-    <row r="763" spans="1:27" ht="12.75">
+    <row r="763" spans="1:27" ht="13">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="14"/>
@@ -24103,7 +24122,7 @@
       <c r="Z763" s="2"/>
       <c r="AA763" s="2"/>
     </row>
-    <row r="764" spans="1:27" ht="12.75">
+    <row r="764" spans="1:27" ht="13">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="14"/>
@@ -24132,7 +24151,7 @@
       <c r="Z764" s="2"/>
       <c r="AA764" s="2"/>
     </row>
-    <row r="765" spans="1:27" ht="12.75">
+    <row r="765" spans="1:27" ht="13">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="14"/>
@@ -24161,7 +24180,7 @@
       <c r="Z765" s="2"/>
       <c r="AA765" s="2"/>
     </row>
-    <row r="766" spans="1:27" ht="12.75">
+    <row r="766" spans="1:27" ht="13">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="14"/>
@@ -24190,7 +24209,7 @@
       <c r="Z766" s="2"/>
       <c r="AA766" s="2"/>
     </row>
-    <row r="767" spans="1:27" ht="12.75">
+    <row r="767" spans="1:27" ht="13">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="14"/>
@@ -24219,7 +24238,7 @@
       <c r="Z767" s="2"/>
       <c r="AA767" s="2"/>
     </row>
-    <row r="768" spans="1:27" ht="12.75">
+    <row r="768" spans="1:27" ht="13">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="14"/>
@@ -24248,7 +24267,7 @@
       <c r="Z768" s="2"/>
       <c r="AA768" s="2"/>
     </row>
-    <row r="769" spans="1:27" ht="12.75">
+    <row r="769" spans="1:27" ht="13">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="14"/>
@@ -24277,7 +24296,7 @@
       <c r="Z769" s="2"/>
       <c r="AA769" s="2"/>
     </row>
-    <row r="770" spans="1:27" ht="12.75">
+    <row r="770" spans="1:27" ht="13">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="14"/>
@@ -24306,7 +24325,7 @@
       <c r="Z770" s="2"/>
       <c r="AA770" s="2"/>
     </row>
-    <row r="771" spans="1:27" ht="12.75">
+    <row r="771" spans="1:27" ht="13">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="14"/>
@@ -24335,7 +24354,7 @@
       <c r="Z771" s="2"/>
       <c r="AA771" s="2"/>
     </row>
-    <row r="772" spans="1:27" ht="12.75">
+    <row r="772" spans="1:27" ht="13">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="14"/>
@@ -24364,7 +24383,7 @@
       <c r="Z772" s="2"/>
       <c r="AA772" s="2"/>
     </row>
-    <row r="773" spans="1:27" ht="12.75">
+    <row r="773" spans="1:27" ht="13">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="14"/>
@@ -24393,7 +24412,7 @@
       <c r="Z773" s="2"/>
       <c r="AA773" s="2"/>
     </row>
-    <row r="774" spans="1:27" ht="12.75">
+    <row r="774" spans="1:27" ht="13">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="14"/>
@@ -24422,7 +24441,7 @@
       <c r="Z774" s="2"/>
       <c r="AA774" s="2"/>
     </row>
-    <row r="775" spans="1:27" ht="12.75">
+    <row r="775" spans="1:27" ht="13">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="14"/>
@@ -24451,7 +24470,7 @@
       <c r="Z775" s="2"/>
       <c r="AA775" s="2"/>
     </row>
-    <row r="776" spans="1:27" ht="12.75">
+    <row r="776" spans="1:27" ht="13">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="14"/>
@@ -24480,7 +24499,7 @@
       <c r="Z776" s="2"/>
       <c r="AA776" s="2"/>
     </row>
-    <row r="777" spans="1:27" ht="12.75">
+    <row r="777" spans="1:27" ht="13">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="14"/>
@@ -24509,7 +24528,7 @@
       <c r="Z777" s="2"/>
       <c r="AA777" s="2"/>
     </row>
-    <row r="778" spans="1:27" ht="12.75">
+    <row r="778" spans="1:27" ht="13">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="14"/>
@@ -24538,7 +24557,7 @@
       <c r="Z778" s="2"/>
       <c r="AA778" s="2"/>
     </row>
-    <row r="779" spans="1:27" ht="12.75">
+    <row r="779" spans="1:27" ht="13">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="14"/>
@@ -24567,7 +24586,7 @@
       <c r="Z779" s="2"/>
       <c r="AA779" s="2"/>
     </row>
-    <row r="780" spans="1:27" ht="12.75">
+    <row r="780" spans="1:27" ht="13">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="14"/>
@@ -24596,7 +24615,7 @@
       <c r="Z780" s="2"/>
       <c r="AA780" s="2"/>
     </row>
-    <row r="781" spans="1:27" ht="12.75">
+    <row r="781" spans="1:27" ht="13">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="14"/>
@@ -24625,7 +24644,7 @@
       <c r="Z781" s="2"/>
       <c r="AA781" s="2"/>
     </row>
-    <row r="782" spans="1:27" ht="12.75">
+    <row r="782" spans="1:27" ht="13">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="14"/>
@@ -24654,7 +24673,7 @@
       <c r="Z782" s="2"/>
       <c r="AA782" s="2"/>
     </row>
-    <row r="783" spans="1:27" ht="12.75">
+    <row r="783" spans="1:27" ht="13">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="14"/>
@@ -24683,7 +24702,7 @@
       <c r="Z783" s="2"/>
       <c r="AA783" s="2"/>
     </row>
-    <row r="784" spans="1:27" ht="12.75">
+    <row r="784" spans="1:27" ht="13">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="14"/>
@@ -24712,7 +24731,7 @@
       <c r="Z784" s="2"/>
       <c r="AA784" s="2"/>
     </row>
-    <row r="785" spans="1:27" ht="12.75">
+    <row r="785" spans="1:27" ht="13">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="14"/>
@@ -24741,7 +24760,7 @@
       <c r="Z785" s="2"/>
       <c r="AA785" s="2"/>
     </row>
-    <row r="786" spans="1:27" ht="12.75">
+    <row r="786" spans="1:27" ht="13">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="14"/>
@@ -24770,7 +24789,7 @@
       <c r="Z786" s="2"/>
       <c r="AA786" s="2"/>
     </row>
-    <row r="787" spans="1:27" ht="12.75">
+    <row r="787" spans="1:27" ht="13">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="14"/>
@@ -24799,7 +24818,7 @@
       <c r="Z787" s="2"/>
       <c r="AA787" s="2"/>
     </row>
-    <row r="788" spans="1:27" ht="12.75">
+    <row r="788" spans="1:27" ht="13">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="14"/>
@@ -24828,7 +24847,7 @@
       <c r="Z788" s="2"/>
       <c r="AA788" s="2"/>
     </row>
-    <row r="789" spans="1:27" ht="12.75">
+    <row r="789" spans="1:27" ht="13">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="14"/>
@@ -24857,7 +24876,7 @@
       <c r="Z789" s="2"/>
       <c r="AA789" s="2"/>
     </row>
-    <row r="790" spans="1:27" ht="12.75">
+    <row r="790" spans="1:27" ht="13">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="14"/>
@@ -24886,7 +24905,7 @@
       <c r="Z790" s="2"/>
       <c r="AA790" s="2"/>
     </row>
-    <row r="791" spans="1:27" ht="12.75">
+    <row r="791" spans="1:27" ht="13">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="14"/>
@@ -24915,7 +24934,7 @@
       <c r="Z791" s="2"/>
       <c r="AA791" s="2"/>
     </row>
-    <row r="792" spans="1:27" ht="12.75">
+    <row r="792" spans="1:27" ht="13">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="14"/>
@@ -24944,7 +24963,7 @@
       <c r="Z792" s="2"/>
       <c r="AA792" s="2"/>
     </row>
-    <row r="793" spans="1:27" ht="12.75">
+    <row r="793" spans="1:27" ht="13">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="14"/>
@@ -24973,7 +24992,7 @@
       <c r="Z793" s="2"/>
       <c r="AA793" s="2"/>
     </row>
-    <row r="794" spans="1:27" ht="12.75">
+    <row r="794" spans="1:27" ht="13">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="14"/>
@@ -25002,7 +25021,7 @@
       <c r="Z794" s="2"/>
       <c r="AA794" s="2"/>
     </row>
-    <row r="795" spans="1:27" ht="12.75">
+    <row r="795" spans="1:27" ht="13">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="14"/>
@@ -25031,7 +25050,7 @@
       <c r="Z795" s="2"/>
       <c r="AA795" s="2"/>
     </row>
-    <row r="796" spans="1:27" ht="12.75">
+    <row r="796" spans="1:27" ht="13">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="14"/>
@@ -25060,7 +25079,7 @@
       <c r="Z796" s="2"/>
       <c r="AA796" s="2"/>
     </row>
-    <row r="797" spans="1:27" ht="12.75">
+    <row r="797" spans="1:27" ht="13">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="14"/>
@@ -25089,7 +25108,7 @@
       <c r="Z797" s="2"/>
       <c r="AA797" s="2"/>
     </row>
-    <row r="798" spans="1:27" ht="12.75">
+    <row r="798" spans="1:27" ht="13">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="14"/>
@@ -25118,7 +25137,7 @@
       <c r="Z798" s="2"/>
       <c r="AA798" s="2"/>
     </row>
-    <row r="799" spans="1:27" ht="12.75">
+    <row r="799" spans="1:27" ht="13">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="14"/>
@@ -25147,7 +25166,7 @@
       <c r="Z799" s="2"/>
       <c r="AA799" s="2"/>
     </row>
-    <row r="800" spans="1:27" ht="12.75">
+    <row r="800" spans="1:27" ht="13">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="14"/>
@@ -25176,7 +25195,7 @@
       <c r="Z800" s="2"/>
       <c r="AA800" s="2"/>
     </row>
-    <row r="801" spans="1:27" ht="12.75">
+    <row r="801" spans="1:27" ht="13">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="14"/>
@@ -25205,7 +25224,7 @@
       <c r="Z801" s="2"/>
       <c r="AA801" s="2"/>
     </row>
-    <row r="802" spans="1:27" ht="12.75">
+    <row r="802" spans="1:27" ht="13">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="14"/>
@@ -25234,7 +25253,7 @@
       <c r="Z802" s="2"/>
       <c r="AA802" s="2"/>
     </row>
-    <row r="803" spans="1:27" ht="12.75">
+    <row r="803" spans="1:27" ht="13">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="14"/>
@@ -25263,7 +25282,7 @@
       <c r="Z803" s="2"/>
       <c r="AA803" s="2"/>
     </row>
-    <row r="804" spans="1:27" ht="12.75">
+    <row r="804" spans="1:27" ht="13">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="14"/>
@@ -25292,7 +25311,7 @@
       <c r="Z804" s="2"/>
       <c r="AA804" s="2"/>
     </row>
-    <row r="805" spans="1:27" ht="12.75">
+    <row r="805" spans="1:27" ht="13">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="14"/>
@@ -25321,7 +25340,7 @@
       <c r="Z805" s="2"/>
       <c r="AA805" s="2"/>
     </row>
-    <row r="806" spans="1:27" ht="12.75">
+    <row r="806" spans="1:27" ht="13">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="14"/>
@@ -25350,7 +25369,7 @@
       <c r="Z806" s="2"/>
       <c r="AA806" s="2"/>
     </row>
-    <row r="807" spans="1:27" ht="12.75">
+    <row r="807" spans="1:27" ht="13">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="14"/>
@@ -25379,7 +25398,7 @@
       <c r="Z807" s="2"/>
       <c r="AA807" s="2"/>
     </row>
-    <row r="808" spans="1:27" ht="12.75">
+    <row r="808" spans="1:27" ht="13">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="14"/>
@@ -25408,7 +25427,7 @@
       <c r="Z808" s="2"/>
       <c r="AA808" s="2"/>
     </row>
-    <row r="809" spans="1:27" ht="12.75">
+    <row r="809" spans="1:27" ht="13">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="14"/>
@@ -25437,7 +25456,7 @@
       <c r="Z809" s="2"/>
       <c r="AA809" s="2"/>
     </row>
-    <row r="810" spans="1:27" ht="12.75">
+    <row r="810" spans="1:27" ht="13">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="14"/>
@@ -25466,7 +25485,7 @@
       <c r="Z810" s="2"/>
       <c r="AA810" s="2"/>
     </row>
-    <row r="811" spans="1:27" ht="12.75">
+    <row r="811" spans="1:27" ht="13">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="14"/>
@@ -25495,7 +25514,7 @@
       <c r="Z811" s="2"/>
       <c r="AA811" s="2"/>
     </row>
-    <row r="812" spans="1:27" ht="12.75">
+    <row r="812" spans="1:27" ht="13">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="14"/>
@@ -25524,7 +25543,7 @@
       <c r="Z812" s="2"/>
       <c r="AA812" s="2"/>
     </row>
-    <row r="813" spans="1:27" ht="12.75">
+    <row r="813" spans="1:27" ht="13">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="14"/>
@@ -25553,7 +25572,7 @@
       <c r="Z813" s="2"/>
       <c r="AA813" s="2"/>
     </row>
-    <row r="814" spans="1:27" ht="12.75">
+    <row r="814" spans="1:27" ht="13">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="14"/>
@@ -25582,7 +25601,7 @@
       <c r="Z814" s="2"/>
       <c r="AA814" s="2"/>
     </row>
-    <row r="815" spans="1:27" ht="12.75">
+    <row r="815" spans="1:27" ht="13">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="14"/>
@@ -25611,7 +25630,7 @@
       <c r="Z815" s="2"/>
       <c r="AA815" s="2"/>
     </row>
-    <row r="816" spans="1:27" ht="12.75">
+    <row r="816" spans="1:27" ht="13">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="14"/>
@@ -25640,7 +25659,7 @@
       <c r="Z816" s="2"/>
       <c r="AA816" s="2"/>
     </row>
-    <row r="817" spans="1:27" ht="12.75">
+    <row r="817" spans="1:27" ht="13">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="14"/>
@@ -25669,7 +25688,7 @@
       <c r="Z817" s="2"/>
       <c r="AA817" s="2"/>
     </row>
-    <row r="818" spans="1:27" ht="12.75">
+    <row r="818" spans="1:27" ht="13">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="14"/>
@@ -25698,7 +25717,7 @@
       <c r="Z818" s="2"/>
       <c r="AA818" s="2"/>
     </row>
-    <row r="819" spans="1:27" ht="12.75">
+    <row r="819" spans="1:27" ht="13">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="14"/>
@@ -25727,7 +25746,7 @@
       <c r="Z819" s="2"/>
       <c r="AA819" s="2"/>
     </row>
-    <row r="820" spans="1:27" ht="12.75">
+    <row r="820" spans="1:27" ht="13">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="14"/>
@@ -25756,7 +25775,7 @@
       <c r="Z820" s="2"/>
       <c r="AA820" s="2"/>
     </row>
-    <row r="821" spans="1:27" ht="12.75">
+    <row r="821" spans="1:27" ht="13">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="14"/>
@@ -25785,7 +25804,7 @@
       <c r="Z821" s="2"/>
       <c r="AA821" s="2"/>
     </row>
-    <row r="822" spans="1:27" ht="12.75">
+    <row r="822" spans="1:27" ht="13">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="14"/>
@@ -25814,7 +25833,7 @@
       <c r="Z822" s="2"/>
       <c r="AA822" s="2"/>
     </row>
-    <row r="823" spans="1:27" ht="12.75">
+    <row r="823" spans="1:27" ht="13">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="14"/>
@@ -25843,7 +25862,7 @@
       <c r="Z823" s="2"/>
       <c r="AA823" s="2"/>
     </row>
-    <row r="824" spans="1:27" ht="12.75">
+    <row r="824" spans="1:27" ht="13">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="14"/>
@@ -25872,7 +25891,7 @@
       <c r="Z824" s="2"/>
       <c r="AA824" s="2"/>
     </row>
-    <row r="825" spans="1:27" ht="12.75">
+    <row r="825" spans="1:27" ht="13">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="14"/>
@@ -25901,7 +25920,7 @@
       <c r="Z825" s="2"/>
       <c r="AA825" s="2"/>
     </row>
-    <row r="826" spans="1:27" ht="12.75">
+    <row r="826" spans="1:27" ht="13">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="14"/>
@@ -25930,7 +25949,7 @@
       <c r="Z826" s="2"/>
       <c r="AA826" s="2"/>
     </row>
-    <row r="827" spans="1:27" ht="12.75">
+    <row r="827" spans="1:27" ht="13">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="14"/>
@@ -25959,7 +25978,7 @@
       <c r="Z827" s="2"/>
       <c r="AA827" s="2"/>
     </row>
-    <row r="828" spans="1:27" ht="12.75">
+    <row r="828" spans="1:27" ht="13">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="14"/>
@@ -25988,7 +26007,7 @@
       <c r="Z828" s="2"/>
       <c r="AA828" s="2"/>
     </row>
-    <row r="829" spans="1:27" ht="12.75">
+    <row r="829" spans="1:27" ht="13">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="14"/>
@@ -26017,7 +26036,7 @@
       <c r="Z829" s="2"/>
       <c r="AA829" s="2"/>
     </row>
-    <row r="830" spans="1:27" ht="12.75">
+    <row r="830" spans="1:27" ht="13">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="14"/>
@@ -26046,7 +26065,7 @@
       <c r="Z830" s="2"/>
       <c r="AA830" s="2"/>
     </row>
-    <row r="831" spans="1:27" ht="12.75">
+    <row r="831" spans="1:27" ht="13">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="14"/>
@@ -26075,7 +26094,7 @@
       <c r="Z831" s="2"/>
       <c r="AA831" s="2"/>
     </row>
-    <row r="832" spans="1:27" ht="12.75">
+    <row r="832" spans="1:27" ht="13">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="14"/>
@@ -26104,7 +26123,7 @@
       <c r="Z832" s="2"/>
       <c r="AA832" s="2"/>
     </row>
-    <row r="833" spans="1:27" ht="12.75">
+    <row r="833" spans="1:27" ht="13">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="14"/>
@@ -26133,7 +26152,7 @@
       <c r="Z833" s="2"/>
       <c r="AA833" s="2"/>
     </row>
-    <row r="834" spans="1:27" ht="12.75">
+    <row r="834" spans="1:27" ht="13">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="14"/>
@@ -26162,7 +26181,7 @@
       <c r="Z834" s="2"/>
       <c r="AA834" s="2"/>
     </row>
-    <row r="835" spans="1:27" ht="12.75">
+    <row r="835" spans="1:27" ht="13">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="14"/>
@@ -26191,7 +26210,7 @@
       <c r="Z835" s="2"/>
       <c r="AA835" s="2"/>
     </row>
-    <row r="836" spans="1:27" ht="12.75">
+    <row r="836" spans="1:27" ht="13">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="14"/>
@@ -26220,7 +26239,7 @@
       <c r="Z836" s="2"/>
       <c r="AA836" s="2"/>
     </row>
-    <row r="837" spans="1:27" ht="12.75">
+    <row r="837" spans="1:27" ht="13">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="14"/>
@@ -26249,7 +26268,7 @@
       <c r="Z837" s="2"/>
       <c r="AA837" s="2"/>
     </row>
-    <row r="838" spans="1:27" ht="12.75">
+    <row r="838" spans="1:27" ht="13">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="14"/>
@@ -26278,7 +26297,7 @@
       <c r="Z838" s="2"/>
       <c r="AA838" s="2"/>
     </row>
-    <row r="839" spans="1:27" ht="12.75">
+    <row r="839" spans="1:27" ht="13">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="14"/>
@@ -26307,7 +26326,7 @@
       <c r="Z839" s="2"/>
       <c r="AA839" s="2"/>
     </row>
-    <row r="840" spans="1:27" ht="12.75">
+    <row r="840" spans="1:27" ht="13">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="14"/>
@@ -26336,7 +26355,7 @@
       <c r="Z840" s="2"/>
       <c r="AA840" s="2"/>
     </row>
-    <row r="841" spans="1:27" ht="12.75">
+    <row r="841" spans="1:27" ht="13">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="14"/>
@@ -26365,7 +26384,7 @@
       <c r="Z841" s="2"/>
       <c r="AA841" s="2"/>
     </row>
-    <row r="842" spans="1:27" ht="12.75">
+    <row r="842" spans="1:27" ht="13">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="14"/>
@@ -26394,7 +26413,7 @@
       <c r="Z842" s="2"/>
       <c r="AA842" s="2"/>
     </row>
-    <row r="843" spans="1:27" ht="12.75">
+    <row r="843" spans="1:27" ht="13">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="14"/>
@@ -26423,7 +26442,7 @@
       <c r="Z843" s="2"/>
       <c r="AA843" s="2"/>
     </row>
-    <row r="844" spans="1:27" ht="12.75">
+    <row r="844" spans="1:27" ht="13">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="14"/>
@@ -26452,7 +26471,7 @@
       <c r="Z844" s="2"/>
       <c r="AA844" s="2"/>
     </row>
-    <row r="845" spans="1:27" ht="12.75">
+    <row r="845" spans="1:27" ht="13">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="14"/>
@@ -26481,7 +26500,7 @@
       <c r="Z845" s="2"/>
       <c r="AA845" s="2"/>
     </row>
-    <row r="846" spans="1:27" ht="12.75">
+    <row r="846" spans="1:27" ht="13">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="14"/>
@@ -26510,7 +26529,7 @@
       <c r="Z846" s="2"/>
       <c r="AA846" s="2"/>
     </row>
-    <row r="847" spans="1:27" ht="12.75">
+    <row r="847" spans="1:27" ht="13">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="14"/>
@@ -26539,7 +26558,7 @@
       <c r="Z847" s="2"/>
       <c r="AA847" s="2"/>
     </row>
-    <row r="848" spans="1:27" ht="12.75">
+    <row r="848" spans="1:27" ht="13">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="14"/>
@@ -26568,7 +26587,7 @@
       <c r="Z848" s="2"/>
       <c r="AA848" s="2"/>
     </row>
-    <row r="849" spans="1:27" ht="12.75">
+    <row r="849" spans="1:27" ht="13">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="14"/>
@@ -26597,7 +26616,7 @@
       <c r="Z849" s="2"/>
       <c r="AA849" s="2"/>
     </row>
-    <row r="850" spans="1:27" ht="12.75">
+    <row r="850" spans="1:27" ht="13">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="14"/>
@@ -26626,7 +26645,7 @@
       <c r="Z850" s="2"/>
       <c r="AA850" s="2"/>
     </row>
-    <row r="851" spans="1:27" ht="12.75">
+    <row r="851" spans="1:27" ht="13">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="14"/>
@@ -26655,7 +26674,7 @@
       <c r="Z851" s="2"/>
       <c r="AA851" s="2"/>
     </row>
-    <row r="852" spans="1:27" ht="12.75">
+    <row r="852" spans="1:27" ht="13">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="14"/>
@@ -26684,7 +26703,7 @@
       <c r="Z852" s="2"/>
       <c r="AA852" s="2"/>
     </row>
-    <row r="853" spans="1:27" ht="12.75">
+    <row r="853" spans="1:27" ht="13">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="14"/>
@@ -26713,7 +26732,7 @@
       <c r="Z853" s="2"/>
       <c r="AA853" s="2"/>
     </row>
-    <row r="854" spans="1:27" ht="12.75">
+    <row r="854" spans="1:27" ht="13">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="14"/>
@@ -26742,7 +26761,7 @@
       <c r="Z854" s="2"/>
       <c r="AA854" s="2"/>
     </row>
-    <row r="855" spans="1:27" ht="12.75">
+    <row r="855" spans="1:27" ht="13">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="14"/>
@@ -26771,7 +26790,7 @@
       <c r="Z855" s="2"/>
       <c r="AA855" s="2"/>
     </row>
-    <row r="856" spans="1:27" ht="12.75">
+    <row r="856" spans="1:27" ht="13">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="14"/>
@@ -26800,7 +26819,7 @@
       <c r="Z856" s="2"/>
       <c r="AA856" s="2"/>
     </row>
-    <row r="857" spans="1:27" ht="12.75">
+    <row r="857" spans="1:27" ht="13">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="14"/>
@@ -26829,7 +26848,7 @@
       <c r="Z857" s="2"/>
       <c r="AA857" s="2"/>
     </row>
-    <row r="858" spans="1:27" ht="12.75">
+    <row r="858" spans="1:27" ht="13">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="14"/>
@@ -26858,7 +26877,7 @@
       <c r="Z858" s="2"/>
       <c r="AA858" s="2"/>
     </row>
-    <row r="859" spans="1:27" ht="12.75">
+    <row r="859" spans="1:27" ht="13">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="14"/>
@@ -26887,7 +26906,7 @@
       <c r="Z859" s="2"/>
       <c r="AA859" s="2"/>
     </row>
-    <row r="860" spans="1:27" ht="12.75">
+    <row r="860" spans="1:27" ht="13">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="14"/>
@@ -26916,7 +26935,7 @@
       <c r="Z860" s="2"/>
       <c r="AA860" s="2"/>
     </row>
-    <row r="861" spans="1:27" ht="12.75">
+    <row r="861" spans="1:27" ht="13">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="14"/>
@@ -26945,7 +26964,7 @@
       <c r="Z861" s="2"/>
       <c r="AA861" s="2"/>
     </row>
-    <row r="862" spans="1:27" ht="12.75">
+    <row r="862" spans="1:27" ht="13">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="14"/>
@@ -26974,7 +26993,7 @@
       <c r="Z862" s="2"/>
       <c r="AA862" s="2"/>
     </row>
-    <row r="863" spans="1:27" ht="12.75">
+    <row r="863" spans="1:27" ht="13">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="14"/>
@@ -27003,7 +27022,7 @@
       <c r="Z863" s="2"/>
       <c r="AA863" s="2"/>
     </row>
-    <row r="864" spans="1:27" ht="12.75">
+    <row r="864" spans="1:27" ht="13">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="14"/>
@@ -27032,7 +27051,7 @@
       <c r="Z864" s="2"/>
       <c r="AA864" s="2"/>
     </row>
-    <row r="865" spans="1:27" ht="12.75">
+    <row r="865" spans="1:27" ht="13">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="14"/>
@@ -27061,7 +27080,7 @@
       <c r="Z865" s="2"/>
       <c r="AA865" s="2"/>
     </row>
-    <row r="866" spans="1:27" ht="12.75">
+    <row r="866" spans="1:27" ht="13">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="14"/>
@@ -27090,7 +27109,7 @@
       <c r="Z866" s="2"/>
       <c r="AA866" s="2"/>
     </row>
-    <row r="867" spans="1:27" ht="12.75">
+    <row r="867" spans="1:27" ht="13">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="14"/>
@@ -27119,7 +27138,7 @@
       <c r="Z867" s="2"/>
       <c r="AA867" s="2"/>
     </row>
-    <row r="868" spans="1:27" ht="12.75">
+    <row r="868" spans="1:27" ht="13">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="14"/>
@@ -27148,7 +27167,7 @@
       <c r="Z868" s="2"/>
       <c r="AA868" s="2"/>
     </row>
-    <row r="869" spans="1:27" ht="12.75">
+    <row r="869" spans="1:27" ht="13">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="14"/>
@@ -27177,7 +27196,7 @@
       <c r="Z869" s="2"/>
       <c r="AA869" s="2"/>
     </row>
-    <row r="870" spans="1:27" ht="12.75">
+    <row r="870" spans="1:27" ht="13">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="14"/>
@@ -27206,7 +27225,7 @@
       <c r="Z870" s="2"/>
       <c r="AA870" s="2"/>
     </row>
-    <row r="871" spans="1:27" ht="12.75">
+    <row r="871" spans="1:27" ht="13">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="14"/>
@@ -27235,7 +27254,7 @@
       <c r="Z871" s="2"/>
       <c r="AA871" s="2"/>
     </row>
-    <row r="872" spans="1:27" ht="12.75">
+    <row r="872" spans="1:27" ht="13">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="14"/>
@@ -27264,7 +27283,7 @@
       <c r="Z872" s="2"/>
       <c r="AA872" s="2"/>
     </row>
-    <row r="873" spans="1:27" ht="12.75">
+    <row r="873" spans="1:27" ht="13">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="14"/>
@@ -27293,7 +27312,7 @@
       <c r="Z873" s="2"/>
       <c r="AA873" s="2"/>
     </row>
-    <row r="874" spans="1:27" ht="12.75">
+    <row r="874" spans="1:27" ht="13">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="14"/>
@@ -27322,7 +27341,7 @@
       <c r="Z874" s="2"/>
       <c r="AA874" s="2"/>
     </row>
-    <row r="875" spans="1:27" ht="12.75">
+    <row r="875" spans="1:27" ht="13">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="14"/>
@@ -27351,7 +27370,7 @@
       <c r="Z875" s="2"/>
       <c r="AA875" s="2"/>
     </row>
-    <row r="876" spans="1:27" ht="12.75">
+    <row r="876" spans="1:27" ht="13">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="14"/>
@@ -27380,7 +27399,7 @@
       <c r="Z876" s="2"/>
       <c r="AA876" s="2"/>
     </row>
-    <row r="877" spans="1:27" ht="12.75">
+    <row r="877" spans="1:27" ht="13">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="14"/>
@@ -27409,7 +27428,7 @@
       <c r="Z877" s="2"/>
       <c r="AA877" s="2"/>
     </row>
-    <row r="878" spans="1:27" ht="12.75">
+    <row r="878" spans="1:27" ht="13">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="14"/>
@@ -27438,7 +27457,7 @@
       <c r="Z878" s="2"/>
       <c r="AA878" s="2"/>
     </row>
-    <row r="879" spans="1:27" ht="12.75">
+    <row r="879" spans="1:27" ht="13">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="14"/>
@@ -27467,7 +27486,7 @@
       <c r="Z879" s="2"/>
       <c r="AA879" s="2"/>
     </row>
-    <row r="880" spans="1:27" ht="12.75">
+    <row r="880" spans="1:27" ht="13">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="14"/>
@@ -27496,7 +27515,7 @@
       <c r="Z880" s="2"/>
       <c r="AA880" s="2"/>
     </row>
-    <row r="881" spans="1:27" ht="12.75">
+    <row r="881" spans="1:27" ht="13">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="14"/>
@@ -27525,7 +27544,7 @@
       <c r="Z881" s="2"/>
       <c r="AA881" s="2"/>
     </row>
-    <row r="882" spans="1:27" ht="12.75">
+    <row r="882" spans="1:27" ht="13">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="14"/>
@@ -27554,7 +27573,7 @@
       <c r="Z882" s="2"/>
       <c r="AA882" s="2"/>
     </row>
-    <row r="883" spans="1:27" ht="12.75">
+    <row r="883" spans="1:27" ht="13">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="14"/>
@@ -27583,7 +27602,7 @@
       <c r="Z883" s="2"/>
       <c r="AA883" s="2"/>
     </row>
-    <row r="884" spans="1:27" ht="12.75">
+    <row r="884" spans="1:27" ht="13">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="14"/>
@@ -27612,7 +27631,7 @@
       <c r="Z884" s="2"/>
       <c r="AA884" s="2"/>
     </row>
-    <row r="885" spans="1:27" ht="12.75">
+    <row r="885" spans="1:27" ht="13">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="14"/>
@@ -27641,7 +27660,7 @@
       <c r="Z885" s="2"/>
       <c r="AA885" s="2"/>
     </row>
-    <row r="886" spans="1:27" ht="12.75">
+    <row r="886" spans="1:27" ht="13">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="14"/>
@@ -27670,7 +27689,7 @@
       <c r="Z886" s="2"/>
       <c r="AA886" s="2"/>
     </row>
-    <row r="887" spans="1:27" ht="12.75">
+    <row r="887" spans="1:27" ht="13">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="14"/>
@@ -27699,7 +27718,7 @@
       <c r="Z887" s="2"/>
       <c r="AA887" s="2"/>
     </row>
-    <row r="888" spans="1:27" ht="12.75">
+    <row r="888" spans="1:27" ht="13">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="14"/>
@@ -27728,7 +27747,7 @@
       <c r="Z888" s="2"/>
       <c r="AA888" s="2"/>
     </row>
-    <row r="889" spans="1:27" ht="12.75">
+    <row r="889" spans="1:27" ht="13">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="14"/>
@@ -27757,7 +27776,7 @@
       <c r="Z889" s="2"/>
       <c r="AA889" s="2"/>
     </row>
-    <row r="890" spans="1:27" ht="12.75">
+    <row r="890" spans="1:27" ht="13">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="14"/>
@@ -27786,7 +27805,7 @@
       <c r="Z890" s="2"/>
       <c r="AA890" s="2"/>
     </row>
-    <row r="891" spans="1:27" ht="12.75">
+    <row r="891" spans="1:27" ht="13">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="14"/>
@@ -27815,7 +27834,7 @@
       <c r="Z891" s="2"/>
       <c r="AA891" s="2"/>
     </row>
-    <row r="892" spans="1:27" ht="12.75">
+    <row r="892" spans="1:27" ht="13">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="14"/>
@@ -27844,7 +27863,7 @@
       <c r="Z892" s="2"/>
       <c r="AA892" s="2"/>
     </row>
-    <row r="893" spans="1:27" ht="12.75">
+    <row r="893" spans="1:27" ht="13">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="14"/>
@@ -27873,7 +27892,7 @@
       <c r="Z893" s="2"/>
       <c r="AA893" s="2"/>
     </row>
-    <row r="894" spans="1:27" ht="12.75">
+    <row r="894" spans="1:27" ht="13">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="14"/>
@@ -27902,7 +27921,7 @@
       <c r="Z894" s="2"/>
       <c r="AA894" s="2"/>
     </row>
-    <row r="895" spans="1:27" ht="12.75">
+    <row r="895" spans="1:27" ht="13">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="14"/>
@@ -27931,7 +27950,7 @@
       <c r="Z895" s="2"/>
       <c r="AA895" s="2"/>
     </row>
-    <row r="896" spans="1:27" ht="12.75">
+    <row r="896" spans="1:27" ht="13">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="14"/>
@@ -27960,7 +27979,7 @@
       <c r="Z896" s="2"/>
       <c r="AA896" s="2"/>
     </row>
-    <row r="897" spans="1:27" ht="12.75">
+    <row r="897" spans="1:27" ht="13">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="14"/>
@@ -27989,7 +28008,7 @@
       <c r="Z897" s="2"/>
       <c r="AA897" s="2"/>
     </row>
-    <row r="898" spans="1:27" ht="12.75">
+    <row r="898" spans="1:27" ht="13">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="14"/>
@@ -28018,7 +28037,7 @@
       <c r="Z898" s="2"/>
       <c r="AA898" s="2"/>
     </row>
-    <row r="899" spans="1:27" ht="12.75">
+    <row r="899" spans="1:27" ht="13">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="14"/>
@@ -28047,7 +28066,7 @@
       <c r="Z899" s="2"/>
       <c r="AA899" s="2"/>
     </row>
-    <row r="900" spans="1:27" ht="12.75">
+    <row r="900" spans="1:27" ht="13">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="14"/>
@@ -28076,7 +28095,7 @@
       <c r="Z900" s="2"/>
       <c r="AA900" s="2"/>
     </row>
-    <row r="901" spans="1:27" ht="12.75">
+    <row r="901" spans="1:27" ht="13">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="14"/>
@@ -28105,7 +28124,7 @@
       <c r="Z901" s="2"/>
       <c r="AA901" s="2"/>
     </row>
-    <row r="902" spans="1:27" ht="12.75">
+    <row r="902" spans="1:27" ht="13">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="14"/>
@@ -28134,7 +28153,7 @@
       <c r="Z902" s="2"/>
       <c r="AA902" s="2"/>
     </row>
-    <row r="903" spans="1:27" ht="12.75">
+    <row r="903" spans="1:27" ht="13">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="14"/>
@@ -28163,7 +28182,7 @@
       <c r="Z903" s="2"/>
       <c r="AA903" s="2"/>
     </row>
-    <row r="904" spans="1:27" ht="12.75">
+    <row r="904" spans="1:27" ht="13">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="14"/>
@@ -28192,7 +28211,7 @@
       <c r="Z904" s="2"/>
       <c r="AA904" s="2"/>
     </row>
-    <row r="905" spans="1:27" ht="12.75">
+    <row r="905" spans="1:27" ht="13">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="14"/>
@@ -28221,7 +28240,7 @@
       <c r="Z905" s="2"/>
       <c r="AA905" s="2"/>
     </row>
-    <row r="906" spans="1:27" ht="12.75">
+    <row r="906" spans="1:27" ht="13">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="14"/>
@@ -28250,7 +28269,7 @@
       <c r="Z906" s="2"/>
       <c r="AA906" s="2"/>
     </row>
-    <row r="907" spans="1:27" ht="12.75">
+    <row r="907" spans="1:27" ht="13">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="14"/>
@@ -28279,7 +28298,7 @@
       <c r="Z907" s="2"/>
       <c r="AA907" s="2"/>
     </row>
-    <row r="908" spans="1:27" ht="12.75">
+    <row r="908" spans="1:27" ht="13">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="14"/>
@@ -28308,7 +28327,7 @@
       <c r="Z908" s="2"/>
       <c r="AA908" s="2"/>
     </row>
-    <row r="909" spans="1:27" ht="12.75">
+    <row r="909" spans="1:27" ht="13">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="14"/>
@@ -28337,7 +28356,7 @@
       <c r="Z909" s="2"/>
       <c r="AA909" s="2"/>
     </row>
-    <row r="910" spans="1:27" ht="12.75">
+    <row r="910" spans="1:27" ht="13">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="14"/>
@@ -28366,7 +28385,7 @@
       <c r="Z910" s="2"/>
       <c r="AA910" s="2"/>
     </row>
-    <row r="911" spans="1:27" ht="12.75">
+    <row r="911" spans="1:27" ht="13">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="14"/>
@@ -28395,7 +28414,7 @@
       <c r="Z911" s="2"/>
       <c r="AA911" s="2"/>
     </row>
-    <row r="912" spans="1:27" ht="12.75">
+    <row r="912" spans="1:27" ht="13">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="14"/>
@@ -28424,7 +28443,7 @@
       <c r="Z912" s="2"/>
       <c r="AA912" s="2"/>
     </row>
-    <row r="913" spans="1:27" ht="12.75">
+    <row r="913" spans="1:27" ht="13">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="14"/>
@@ -28453,7 +28472,7 @@
       <c r="Z913" s="2"/>
       <c r="AA913" s="2"/>
     </row>
-    <row r="914" spans="1:27" ht="12.75">
+    <row r="914" spans="1:27" ht="13">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="14"/>
@@ -28482,7 +28501,7 @@
       <c r="Z914" s="2"/>
       <c r="AA914" s="2"/>
     </row>
-    <row r="915" spans="1:27" ht="12.75">
+    <row r="915" spans="1:27" ht="13">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="14"/>
@@ -28511,7 +28530,7 @@
       <c r="Z915" s="2"/>
       <c r="AA915" s="2"/>
     </row>
-    <row r="916" spans="1:27" ht="12.75">
+    <row r="916" spans="1:27" ht="13">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="14"/>
@@ -28540,7 +28559,7 @@
       <c r="Z916" s="2"/>
       <c r="AA916" s="2"/>
     </row>
-    <row r="917" spans="1:27" ht="12.75">
+    <row r="917" spans="1:27" ht="13">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="14"/>
@@ -28569,7 +28588,7 @@
       <c r="Z917" s="2"/>
       <c r="AA917" s="2"/>
     </row>
-    <row r="918" spans="1:27" ht="12.75">
+    <row r="918" spans="1:27" ht="13">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="14"/>
@@ -28598,7 +28617,7 @@
       <c r="Z918" s="2"/>
       <c r="AA918" s="2"/>
     </row>
-    <row r="919" spans="1:27" ht="12.75">
+    <row r="919" spans="1:27" ht="13">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="14"/>
@@ -28627,7 +28646,7 @@
       <c r="Z919" s="2"/>
       <c r="AA919" s="2"/>
     </row>
-    <row r="920" spans="1:27" ht="12.75">
+    <row r="920" spans="1:27" ht="13">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="14"/>
@@ -28656,7 +28675,7 @@
       <c r="Z920" s="2"/>
       <c r="AA920" s="2"/>
     </row>
-    <row r="921" spans="1:27" ht="12.75">
+    <row r="921" spans="1:27" ht="13">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="14"/>
@@ -28685,7 +28704,7 @@
       <c r="Z921" s="2"/>
       <c r="AA921" s="2"/>
     </row>
-    <row r="922" spans="1:27" ht="12.75">
+    <row r="922" spans="1:27" ht="13">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="14"/>
@@ -28714,7 +28733,7 @@
       <c r="Z922" s="2"/>
       <c r="AA922" s="2"/>
     </row>
-    <row r="923" spans="1:27" ht="12.75">
+    <row r="923" spans="1:27" ht="13">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="14"/>
@@ -28743,7 +28762,7 @@
       <c r="Z923" s="2"/>
       <c r="AA923" s="2"/>
     </row>
-    <row r="924" spans="1:27" ht="12.75">
+    <row r="924" spans="1:27" ht="13">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="14"/>
@@ -28772,7 +28791,7 @@
       <c r="Z924" s="2"/>
       <c r="AA924" s="2"/>
     </row>
-    <row r="925" spans="1:27" ht="12.75">
+    <row r="925" spans="1:27" ht="13">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="14"/>
@@ -28801,7 +28820,7 @@
       <c r="Z925" s="2"/>
       <c r="AA925" s="2"/>
     </row>
-    <row r="926" spans="1:27" ht="12.75">
+    <row r="926" spans="1:27" ht="13">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="14"/>
@@ -28830,7 +28849,7 @@
       <c r="Z926" s="2"/>
       <c r="AA926" s="2"/>
     </row>
-    <row r="927" spans="1:27" ht="12.75">
+    <row r="927" spans="1:27" ht="13">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="14"/>
@@ -28859,7 +28878,7 @@
       <c r="Z927" s="2"/>
       <c r="AA927" s="2"/>
     </row>
-    <row r="928" spans="1:27" ht="12.75">
+    <row r="928" spans="1:27" ht="13">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="14"/>
@@ -28888,7 +28907,7 @@
       <c r="Z928" s="2"/>
       <c r="AA928" s="2"/>
     </row>
-    <row r="929" spans="1:27" ht="12.75">
+    <row r="929" spans="1:27" ht="13">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="14"/>
@@ -28917,7 +28936,7 @@
       <c r="Z929" s="2"/>
       <c r="AA929" s="2"/>
     </row>
-    <row r="930" spans="1:27" ht="12.75">
+    <row r="930" spans="1:27" ht="13">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="14"/>
@@ -28946,7 +28965,7 @@
       <c r="Z930" s="2"/>
       <c r="AA930" s="2"/>
     </row>
-    <row r="931" spans="1:27" ht="12.75">
+    <row r="931" spans="1:27" ht="13">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="14"/>
@@ -28975,7 +28994,7 @@
       <c r="Z931" s="2"/>
       <c r="AA931" s="2"/>
     </row>
-    <row r="932" spans="1:27" ht="12.75">
+    <row r="932" spans="1:27" ht="13">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="14"/>
@@ -29004,7 +29023,7 @@
       <c r="Z932" s="2"/>
       <c r="AA932" s="2"/>
     </row>
-    <row r="933" spans="1:27" ht="12.75">
+    <row r="933" spans="1:27" ht="13">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="14"/>
@@ -29033,7 +29052,7 @@
       <c r="Z933" s="2"/>
       <c r="AA933" s="2"/>
     </row>
-    <row r="934" spans="1:27" ht="12.75">
+    <row r="934" spans="1:27" ht="13">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="14"/>
@@ -29062,7 +29081,7 @@
       <c r="Z934" s="2"/>
       <c r="AA934" s="2"/>
     </row>
-    <row r="935" spans="1:27" ht="12.75">
+    <row r="935" spans="1:27" ht="13">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="14"/>
@@ -29091,7 +29110,7 @@
       <c r="Z935" s="2"/>
       <c r="AA935" s="2"/>
     </row>
-    <row r="936" spans="1:27" ht="12.75">
+    <row r="936" spans="1:27" ht="13">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="14"/>
@@ -29120,7 +29139,7 @@
       <c r="Z936" s="2"/>
       <c r="AA936" s="2"/>
     </row>
-    <row r="937" spans="1:27" ht="12.75">
+    <row r="937" spans="1:27" ht="13">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="14"/>
@@ -29149,7 +29168,7 @@
       <c r="Z937" s="2"/>
       <c r="AA937" s="2"/>
     </row>
-    <row r="938" spans="1:27" ht="12.75">
+    <row r="938" spans="1:27" ht="13">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="14"/>
@@ -29178,7 +29197,7 @@
       <c r="Z938" s="2"/>
       <c r="AA938" s="2"/>
     </row>
-    <row r="939" spans="1:27" ht="12.75">
+    <row r="939" spans="1:27" ht="13">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="14"/>
@@ -29207,7 +29226,7 @@
       <c r="Z939" s="2"/>
       <c r="AA939" s="2"/>
     </row>
-    <row r="940" spans="1:27" ht="12.75">
+    <row r="940" spans="1:27" ht="13">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="14"/>
@@ -29236,7 +29255,7 @@
       <c r="Z940" s="2"/>
       <c r="AA940" s="2"/>
     </row>
-    <row r="941" spans="1:27" ht="12.75">
+    <row r="941" spans="1:27" ht="13">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="14"/>
@@ -29265,7 +29284,7 @@
       <c r="Z941" s="2"/>
       <c r="AA941" s="2"/>
     </row>
-    <row r="942" spans="1:27" ht="12.75">
+    <row r="942" spans="1:27" ht="13">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="14"/>
@@ -29294,7 +29313,7 @@
       <c r="Z942" s="2"/>
       <c r="AA942" s="2"/>
     </row>
-    <row r="943" spans="1:27" ht="12.75">
+    <row r="943" spans="1:27" ht="13">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="14"/>
@@ -29323,7 +29342,7 @@
       <c r="Z943" s="2"/>
       <c r="AA943" s="2"/>
     </row>
-    <row r="944" spans="1:27" ht="12.75">
+    <row r="944" spans="1:27" ht="13">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="14"/>
@@ -29352,7 +29371,7 @@
       <c r="Z944" s="2"/>
       <c r="AA944" s="2"/>
     </row>
-    <row r="945" spans="1:27" ht="12.75">
+    <row r="945" spans="1:27" ht="13">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="14"/>
@@ -29381,7 +29400,7 @@
       <c r="Z945" s="2"/>
       <c r="AA945" s="2"/>
     </row>
-    <row r="946" spans="1:27" ht="12.75">
+    <row r="946" spans="1:27" ht="13">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="14"/>
@@ -29410,7 +29429,7 @@
       <c r="Z946" s="2"/>
       <c r="AA946" s="2"/>
     </row>
-    <row r="947" spans="1:27" ht="12.75">
+    <row r="947" spans="1:27" ht="13">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="14"/>
@@ -29439,7 +29458,7 @@
       <c r="Z947" s="2"/>
       <c r="AA947" s="2"/>
     </row>
-    <row r="948" spans="1:27" ht="12.75">
+    <row r="948" spans="1:27" ht="13">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="14"/>
@@ -29468,7 +29487,7 @@
       <c r="Z948" s="2"/>
       <c r="AA948" s="2"/>
     </row>
-    <row r="949" spans="1:27" ht="12.75">
+    <row r="949" spans="1:27" ht="13">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="14"/>
@@ -29497,7 +29516,7 @@
       <c r="Z949" s="2"/>
       <c r="AA949" s="2"/>
     </row>
-    <row r="950" spans="1:27" ht="12.75">
+    <row r="950" spans="1:27" ht="13">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="14"/>
@@ -29526,7 +29545,7 @@
       <c r="Z950" s="2"/>
       <c r="AA950" s="2"/>
     </row>
-    <row r="951" spans="1:27" ht="12.75">
+    <row r="951" spans="1:27" ht="13">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="14"/>
@@ -29555,7 +29574,7 @@
       <c r="Z951" s="2"/>
       <c r="AA951" s="2"/>
     </row>
-    <row r="952" spans="1:27" ht="12.75">
+    <row r="952" spans="1:27" ht="13">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="14"/>
@@ -29584,7 +29603,7 @@
       <c r="Z952" s="2"/>
       <c r="AA952" s="2"/>
     </row>
-    <row r="953" spans="1:27" ht="12.75">
+    <row r="953" spans="1:27" ht="13">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="14"/>
@@ -29613,7 +29632,7 @@
       <c r="Z953" s="2"/>
       <c r="AA953" s="2"/>
     </row>
-    <row r="954" spans="1:27" ht="12.75">
+    <row r="954" spans="1:27" ht="13">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="14"/>
@@ -29642,7 +29661,7 @@
       <c r="Z954" s="2"/>
       <c r="AA954" s="2"/>
     </row>
-    <row r="955" spans="1:27" ht="12.75">
+    <row r="955" spans="1:27" ht="13">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="14"/>
@@ -29671,7 +29690,7 @@
       <c r="Z955" s="2"/>
       <c r="AA955" s="2"/>
     </row>
-    <row r="956" spans="1:27" ht="12.75">
+    <row r="956" spans="1:27" ht="13">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="14"/>
@@ -29700,7 +29719,7 @@
       <c r="Z956" s="2"/>
       <c r="AA956" s="2"/>
     </row>
-    <row r="957" spans="1:27" ht="12.75">
+    <row r="957" spans="1:27" ht="13">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="14"/>
@@ -29729,7 +29748,7 @@
       <c r="Z957" s="2"/>
       <c r="AA957" s="2"/>
     </row>
-    <row r="958" spans="1:27" ht="12.75">
+    <row r="958" spans="1:27" ht="13">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="14"/>
@@ -29758,7 +29777,7 @@
       <c r="Z958" s="2"/>
       <c r="AA958" s="2"/>
     </row>
-    <row r="959" spans="1:27" ht="12.75">
+    <row r="959" spans="1:27" ht="13">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="14"/>
@@ -29787,7 +29806,7 @@
       <c r="Z959" s="2"/>
       <c r="AA959" s="2"/>
     </row>
-    <row r="960" spans="1:27" ht="12.75">
+    <row r="960" spans="1:27" ht="13">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="14"/>
@@ -29816,7 +29835,7 @@
       <c r="Z960" s="2"/>
       <c r="AA960" s="2"/>
     </row>
-    <row r="961" spans="1:27" ht="12.75">
+    <row r="961" spans="1:27" ht="13">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="14"/>
@@ -29845,7 +29864,7 @@
       <c r="Z961" s="2"/>
       <c r="AA961" s="2"/>
     </row>
-    <row r="962" spans="1:27" ht="12.75">
+    <row r="962" spans="1:27" ht="13">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="14"/>
@@ -29874,7 +29893,7 @@
       <c r="Z962" s="2"/>
       <c r="AA962" s="2"/>
     </row>
-    <row r="963" spans="1:27" ht="12.75">
+    <row r="963" spans="1:27" ht="13">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="14"/>
@@ -29903,7 +29922,7 @@
       <c r="Z963" s="2"/>
       <c r="AA963" s="2"/>
     </row>
-    <row r="964" spans="1:27" ht="12.75">
+    <row r="964" spans="1:27" ht="13">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="14"/>
@@ -29932,7 +29951,7 @@
       <c r="Z964" s="2"/>
       <c r="AA964" s="2"/>
     </row>
-    <row r="965" spans="1:27" ht="12.75">
+    <row r="965" spans="1:27" ht="13">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="14"/>
@@ -29961,7 +29980,7 @@
       <c r="Z965" s="2"/>
       <c r="AA965" s="2"/>
     </row>
-    <row r="966" spans="1:27" ht="12.75">
+    <row r="966" spans="1:27" ht="13">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="14"/>
@@ -29990,7 +30009,7 @@
       <c r="Z966" s="2"/>
       <c r="AA966" s="2"/>
     </row>
-    <row r="967" spans="1:27" ht="12.75">
+    <row r="967" spans="1:27" ht="13">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="14"/>
@@ -30019,7 +30038,7 @@
       <c r="Z967" s="2"/>
       <c r="AA967" s="2"/>
     </row>
-    <row r="968" spans="1:27" ht="12.75">
+    <row r="968" spans="1:27" ht="13">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="14"/>
@@ -30048,7 +30067,7 @@
       <c r="Z968" s="2"/>
       <c r="AA968" s="2"/>
     </row>
-    <row r="969" spans="1:27" ht="12.75">
+    <row r="969" spans="1:27" ht="13">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="14"/>
@@ -30077,7 +30096,7 @@
       <c r="Z969" s="2"/>
       <c r="AA969" s="2"/>
     </row>
-    <row r="970" spans="1:27" ht="12.75">
+    <row r="970" spans="1:27" ht="13">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="14"/>
@@ -30106,7 +30125,7 @@
       <c r="Z970" s="2"/>
       <c r="AA970" s="2"/>
     </row>
-    <row r="971" spans="1:27" ht="12.75">
+    <row r="971" spans="1:27" ht="13">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="14"/>
@@ -30135,7 +30154,7 @@
       <c r="Z971" s="2"/>
       <c r="AA971" s="2"/>
     </row>
-    <row r="972" spans="1:27" ht="12.75">
+    <row r="972" spans="1:27" ht="13">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="14"/>
@@ -30164,7 +30183,7 @@
       <c r="Z972" s="2"/>
       <c r="AA972" s="2"/>
     </row>
-    <row r="973" spans="1:27" ht="12.75">
+    <row r="973" spans="1:27" ht="13">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="14"/>
@@ -30193,7 +30212,7 @@
       <c r="Z973" s="2"/>
       <c r="AA973" s="2"/>
     </row>
-    <row r="974" spans="1:27" ht="12.75">
+    <row r="974" spans="1:27" ht="13">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="14"/>
@@ -30222,7 +30241,7 @@
       <c r="Z974" s="2"/>
       <c r="AA974" s="2"/>
     </row>
-    <row r="975" spans="1:27" ht="12.75">
+    <row r="975" spans="1:27" ht="13">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="14"/>
@@ -30251,7 +30270,7 @@
       <c r="Z975" s="2"/>
       <c r="AA975" s="2"/>
     </row>
-    <row r="976" spans="1:27" ht="12.75">
+    <row r="976" spans="1:27" ht="13">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="14"/>
@@ -30280,7 +30299,7 @@
       <c r="Z976" s="2"/>
       <c r="AA976" s="2"/>
     </row>
-    <row r="977" spans="1:27" ht="12.75">
+    <row r="977" spans="1:27" ht="13">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="14"/>
@@ -30309,7 +30328,7 @@
       <c r="Z977" s="2"/>
       <c r="AA977" s="2"/>
     </row>
-    <row r="978" spans="1:27" ht="12.75">
+    <row r="978" spans="1:27" ht="13">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="14"/>
@@ -30338,7 +30357,7 @@
       <c r="Z978" s="2"/>
       <c r="AA978" s="2"/>
     </row>
-    <row r="979" spans="1:27" ht="12.75">
+    <row r="979" spans="1:27" ht="13">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="14"/>
@@ -30367,7 +30386,7 @@
       <c r="Z979" s="2"/>
       <c r="AA979" s="2"/>
     </row>
-    <row r="980" spans="1:27" ht="12.75">
+    <row r="980" spans="1:27" ht="13">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="14"/>
@@ -30396,7 +30415,7 @@
       <c r="Z980" s="2"/>
       <c r="AA980" s="2"/>
     </row>
-    <row r="981" spans="1:27" ht="12.75">
+    <row r="981" spans="1:27" ht="13">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="14"/>
@@ -30425,7 +30444,7 @@
       <c r="Z981" s="2"/>
       <c r="AA981" s="2"/>
     </row>
-    <row r="982" spans="1:27" ht="12.75">
+    <row r="982" spans="1:27" ht="13">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="14"/>
@@ -30454,7 +30473,7 @@
       <c r="Z982" s="2"/>
       <c r="AA982" s="2"/>
     </row>
-    <row r="983" spans="1:27" ht="12.75">
+    <row r="983" spans="1:27" ht="13">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="14"/>
@@ -30483,7 +30502,7 @@
       <c r="Z983" s="2"/>
       <c r="AA983" s="2"/>
     </row>
-    <row r="984" spans="1:27" ht="12.75">
+    <row r="984" spans="1:27" ht="13">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="14"/>
@@ -30512,7 +30531,7 @@
       <c r="Z984" s="2"/>
       <c r="AA984" s="2"/>
     </row>
-    <row r="985" spans="1:27" ht="12.75">
+    <row r="985" spans="1:27" ht="13">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="14"/>
@@ -30541,7 +30560,7 @@
       <c r="Z985" s="2"/>
       <c r="AA985" s="2"/>
     </row>
-    <row r="986" spans="1:27" ht="12.75">
+    <row r="986" spans="1:27" ht="13">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="14"/>
@@ -30570,7 +30589,7 @@
       <c r="Z986" s="2"/>
       <c r="AA986" s="2"/>
     </row>
-    <row r="987" spans="1:27" ht="12.75">
+    <row r="987" spans="1:27" ht="13">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="14"/>
@@ -30599,7 +30618,7 @@
       <c r="Z987" s="2"/>
       <c r="AA987" s="2"/>
     </row>
-    <row r="988" spans="1:27" ht="12.75">
+    <row r="988" spans="1:27" ht="13">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="14"/>
@@ -30628,7 +30647,7 @@
       <c r="Z988" s="2"/>
       <c r="AA988" s="2"/>
     </row>
-    <row r="989" spans="1:27" ht="12.75">
+    <row r="989" spans="1:27" ht="13">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="14"/>
@@ -30657,7 +30676,7 @@
       <c r="Z989" s="2"/>
       <c r="AA989" s="2"/>
     </row>
-    <row r="990" spans="1:27" ht="12.75">
+    <row r="990" spans="1:27" ht="13">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="14"/>
@@ -30686,7 +30705,7 @@
       <c r="Z990" s="2"/>
       <c r="AA990" s="2"/>
     </row>
-    <row r="991" spans="1:27" ht="12.75">
+    <row r="991" spans="1:27" ht="13">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="14"/>
@@ -30715,7 +30734,7 @@
       <c r="Z991" s="2"/>
       <c r="AA991" s="2"/>
     </row>
-    <row r="992" spans="1:27" ht="12.75">
+    <row r="992" spans="1:27" ht="13">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="14"/>
@@ -30744,7 +30763,7 @@
       <c r="Z992" s="2"/>
       <c r="AA992" s="2"/>
     </row>
-    <row r="993" spans="1:27" ht="12.75">
+    <row r="993" spans="1:27" ht="13">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="14"/>
@@ -30773,7 +30792,7 @@
       <c r="Z993" s="2"/>
       <c r="AA993" s="2"/>
     </row>
-    <row r="994" spans="1:27" ht="12.75">
+    <row r="994" spans="1:27" ht="13">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="14"/>
@@ -30802,7 +30821,7 @@
       <c r="Z994" s="2"/>
       <c r="AA994" s="2"/>
     </row>
-    <row r="995" spans="1:27" ht="12.75">
+    <row r="995" spans="1:27" ht="13">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="14"/>
@@ -30831,7 +30850,7 @@
       <c r="Z995" s="2"/>
       <c r="AA995" s="2"/>
     </row>
-    <row r="996" spans="1:27" ht="12.75">
+    <row r="996" spans="1:27" ht="13">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="14"/>
@@ -30860,7 +30879,7 @@
       <c r="Z996" s="2"/>
       <c r="AA996" s="2"/>
     </row>
-    <row r="997" spans="1:27" ht="12.75">
+    <row r="997" spans="1:27" ht="13">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="14"/>
@@ -30889,7 +30908,7 @@
       <c r="Z997" s="2"/>
       <c r="AA997" s="2"/>
     </row>
-    <row r="998" spans="1:27" ht="12.75">
+    <row r="998" spans="1:27" ht="13">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="14"/>
@@ -30918,7 +30937,7 @@
       <c r="Z998" s="2"/>
       <c r="AA998" s="2"/>
     </row>
-    <row r="999" spans="1:27" ht="12.75">
+    <row r="999" spans="1:27" ht="13">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="C999" s="14"/>
@@ -30947,7 +30966,7 @@
       <c r="Z999" s="2"/>
       <c r="AA999" s="2"/>
     </row>
-    <row r="1000" spans="1:27" ht="12.75">
+    <row r="1000" spans="1:27" ht="13">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="14"/>
@@ -30976,7 +30995,7 @@
       <c r="Z1000" s="2"/>
       <c r="AA1000" s="2"/>
     </row>
-    <row r="1001" spans="1:27" ht="12.75">
+    <row r="1001" spans="1:27" ht="13">
       <c r="A1001" s="2"/>
       <c r="B1001" s="2"/>
       <c r="C1001" s="14"/>
@@ -31021,9 +31040,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.40625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -31133,6 +31152,7 @@
       <c r="D5" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -31146,7 +31166,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
@@ -31231,6 +31251,7 @@
       <c r="F8" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -31244,7 +31265,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
@@ -31291,6 +31312,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -31302,23 +31324,23 @@
   </sheetPr>
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="127.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="184.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="34" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.40625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="127.1328125" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="184.54296875" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.26953125" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.40625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.54296875" style="34" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.5703125" style="34"/>
+    <col min="10" max="10" width="15.26953125" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.54296875" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20.25" customHeight="1">
@@ -31930,9 +31952,10 @@
       <c r="E16" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="I16" s="30" t="s">
-        <v>164</v>
+      <c r="H16" s="43" t="s">
+        <v>227</v>
       </c>
+      <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:24" ht="20.25" customHeight="1">
       <c r="A17" s="30" t="s">
@@ -57427,9 +57450,10 @@
     <hyperlink ref="E18" r:id="rId6" display="https://jcatpub.net/" xr:uid="{9516199D-419C-4305-ACCB-37D6B06669B1}"/>
     <hyperlink ref="E9" r:id="rId7" display="https://journals.sagepub.com/home/jeb" xr:uid="{F248E9F7-08E7-4CAF-9290-0ED6905A9175}"/>
     <hyperlink ref="H10" r:id="rId8" xr:uid="{2CEA1259-3579-4814-B146-A75C21FE5BDD}"/>
+    <hyperlink ref="H16" r:id="rId9" xr:uid="{9797778D-90F2-47D4-9323-47BBCF070BF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -57441,7 +57465,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
@@ -57472,6 +57496,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -57488,14 +57513,14 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7265625" customWidth="1"/>
+    <col min="5" max="5" width="46.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="12.75">
+    <row r="1" spans="1:21" ht="13">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -57532,7 +57557,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" ht="12.75">
+    <row r="2" spans="1:21" ht="13">
       <c r="A2" s="2" t="s">
         <v>127</v>
       </c>
@@ -57569,7 +57594,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" ht="12.75">
+    <row r="3" spans="1:21" ht="13">
       <c r="A3" s="2" t="s">
         <v>127</v>
       </c>
@@ -57606,7 +57631,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="12.75">
+    <row r="4" spans="1:21" ht="13">
       <c r="A4" s="2" t="s">
         <v>127</v>
       </c>
@@ -57642,7 +57667,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="12.75">
+    <row r="5" spans="1:21" ht="13">
       <c r="A5" s="2" t="s">
         <v>127</v>
       </c>
@@ -57716,7 +57741,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="13.5" thickBot="1">
+    <row r="7" spans="1:21" ht="13.75" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>127</v>
       </c>
@@ -57753,7 +57778,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="13.5" thickBot="1">
+    <row r="8" spans="1:21" ht="13.75" thickBot="1">
       <c r="A8" s="2" t="s">
         <v>127</v>
       </c>
@@ -57791,6 +57816,7 @@
       <c r="U8" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1" xr:uid="{4ED9CC33-30A2-4C7E-939A-6F7E3EC9CD8E}"/>
     <hyperlink ref="E7" r:id="rId2" xr:uid="{14F6E379-7354-4883-876A-75200C8AE4A2}"/>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitfolder\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360B6FBE-E648-400C-A106-269C3C34B2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDBD9BA-8F2F-45A4-B0BE-F4EE23603E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,12 +23,15 @@
     <sheet name="Service" sheetId="9" r:id="rId8"/>
     <sheet name="Software" sheetId="8" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Publication!$A$1:$J$21</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="252">
   <si>
     <t>Degree</t>
   </si>
@@ -504,9 +507,6 @@
     <t>In preparation</t>
   </si>
   <si>
-    <t>Sooyong Lee, Suyoung Kim, &amp; Jiwon Kim</t>
-  </si>
-  <si>
     <t>Kahyun Lee, Sooyong Lee, &amp; Allison Master</t>
   </si>
   <si>
@@ -705,13 +705,116 @@
     <t>Journal of Educational Measurement</t>
   </si>
   <si>
-    <t>failed</t>
+    <t>https://doi.org/10.1080/10705511.2024.2363827</t>
   </si>
   <si>
-    <t>Data analysis for measurements and statistics</t>
+    <t>In print</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>https://doi.org/10.1080/10705511.2024.2363827</t>
+    <t>Suyoung Kim, Sooyong Lee, Jiwon Kim, &amp; Tiffany A. Whittaker</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Model Estimation Approaches for Fully-latent Principal Stratification with Small Samples</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>In Print</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>article</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sooyong Lee, Kahyun Lee, &amp; Kejin Lee</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discrete-time Survival Analysis Incorporating Time Structure in Developmental Research</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Under review</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>peer</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>failed</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Psychometrics for K-12 students Langauge tests</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jiwon Kim, Suyoung Kim, Sooyong Lee, &amp; Brian Keller</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sooyong Lee, Kahyun Lee, &amp; Hanjo Kim</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sooyong Lee &amp; Seung W. Choi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sooyong Lee &amp; Tiffany A. Whittaker</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Comparative Study of Bayesian and Maximum-Likelihood Moderated Nonlinear Factor Analysis for Graded Response Data</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multivariate Behavioral Research</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Development of a Method for Addressing Doubly-Censored Effects in a Latent Growth Curve Modeling Framework </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mediation Analysis with an Event-history Mediator: A Simulation Comparing between ML and Bayesian Estimation</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sooyong Lee &amp; Soyoung Kim</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comparing Approaches to Moderated Mediation in Multilevel Structural Equation Modeling</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>In preparation</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comparing Blimp vs. Mplus for Bayesian Multilevel Structural Equation Modeling with random slopes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enhancing Special Education Assessment: Censored Confirmatory Factor Analysis for Non-Normal Likert-Type Data in Language Proficiency Tests</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sooyong Lee &amp; Kyungsun Bisop</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Investigating the Efficacy of Plausible Classes Derived from Mixture Modeling for Secondary Analysis</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sooyong Lee &amp; Cory L. Cobb</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -956,7 +1059,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1025,11 +1128,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1283,10 +1389,10 @@
     </row>
     <row r="2" spans="1:5" ht="26">
       <c r="A2" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1295,7 +1401,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.75" thickBot="1">
@@ -1312,12 +1418,12 @@
         <v>9</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>141</v>
@@ -1386,7 +1492,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>71</v>
@@ -1412,7 +1518,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>74</v>
@@ -1440,10 +1546,10 @@
         <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>77</v>
@@ -1466,16 +1572,16 @@
         <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1491,19 +1597,19 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1547,7 +1653,7 @@
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>82</v>
@@ -1575,19 +1681,19 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1603,16 +1709,16 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>226</v>
+      <c r="D10" s="21" t="s">
+        <v>235</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1786,7 +1892,7 @@
   <dimension ref="A1:AA1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
@@ -1856,7 +1962,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -1901,7 +2007,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -1946,7 +2052,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
@@ -1991,7 +2097,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>35</v>
@@ -2034,7 +2140,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
@@ -2069,7 +2175,7 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:27" ht="14.75">
+    <row r="7" spans="1:27" ht="17.5">
       <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
@@ -2077,7 +2183,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>42</v>
@@ -2116,7 +2222,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:27" ht="14.75">
+    <row r="8" spans="1:27" ht="17.5">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
@@ -2124,7 +2230,7 @@
         <v>46</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>47</v>
@@ -2161,7 +2267,7 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:27" ht="14.75">
+    <row r="9" spans="1:27" ht="17.5">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -2169,7 +2275,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>51</v>
@@ -2214,7 +2320,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>53</v>
@@ -2257,7 +2363,7 @@
         <v>155</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>154</v>
@@ -2295,19 +2401,19 @@
         <v>19</v>
       </c>
       <c r="B12" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="E12" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="F12" s="27" t="s">
         <v>199</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>200</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2339,16 +2445,16 @@
         <v>52</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -2373,7 +2479,7 @@
       <c r="AA13" s="2"/>
     </row>
     <row r="14" spans="1:27" ht="13">
-      <c r="A14" s="2"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="2"/>
       <c r="C14" s="14"/>
       <c r="D14" s="2"/>
@@ -31324,8 +31430,8 @@
   </sheetPr>
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="20.25" customHeight="1"/>
@@ -31394,28 +31500,24 @@
         <v>97</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
-      <c r="C2" s="31">
-        <v>2021</v>
+      <c r="C2" s="30">
+        <v>2016</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
-      <c r="E2" s="30" t="s">
-        <v>100</v>
+      <c r="E2" s="37" t="s">
+        <v>162</v>
       </c>
-      <c r="F2" s="31">
-        <v>81</v>
+      <c r="F2" s="34">
+        <v>50</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
-      <c r="H2" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="34" t="s">
         <v>103</v>
       </c>
       <c r="K2" s="30"/>
@@ -31438,28 +31540,25 @@
         <v>97</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
-      <c r="C3" s="31">
-        <v>2022</v>
+      <c r="C3" s="30">
+        <v>2016</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>35</v>
+      <c r="D3" s="38" t="s">
+        <v>150</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>104</v>
+      <c r="E3" s="39" t="s">
+        <v>151</v>
       </c>
-      <c r="F3" s="31">
-        <v>29</v>
+      <c r="F3" s="30" t="s">
+        <v>152</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="I3" s="30"/>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="34" t="s">
         <v>103</v>
       </c>
       <c r="K3" s="30"/>
@@ -31482,25 +31581,25 @@
         <v>97</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C4" s="31">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
-      <c r="F4" s="30" t="s">
-        <v>110</v>
+      <c r="F4" s="31">
+        <v>81</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="I4" s="30"/>
       <c r="J4" s="30" t="s">
@@ -31526,25 +31625,25 @@
         <v>97</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C5" s="31">
         <v>2022</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
-      <c r="F5" s="30" t="s">
-        <v>115</v>
+      <c r="F5" s="31">
+        <v>29</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="I5" s="30"/>
       <c r="J5" s="30" t="s">
@@ -31570,25 +31669,25 @@
         <v>97</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="C6" s="31">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
-      <c r="G6" s="33" t="s">
-        <v>192</v>
+      <c r="G6" s="30" t="s">
+        <v>111</v>
       </c>
       <c r="H6" s="32" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="30" t="s">
@@ -31614,23 +31713,25 @@
         <v>97</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="C7" s="31">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="35" t="s">
-        <v>193</v>
+      <c r="F7" s="30" t="s">
+        <v>115</v>
       </c>
-      <c r="H7" s="30" t="s">
-        <v>122</v>
+      <c r="G7" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>117</v>
       </c>
       <c r="I7" s="30"/>
       <c r="J7" s="30" t="s">
@@ -31656,27 +31757,29 @@
         <v>97</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C8" s="31">
         <v>2023</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>172</v>
+      <c r="D8" s="30" t="s">
+        <v>118</v>
       </c>
-      <c r="E8" s="33" t="s">
-        <v>123</v>
+      <c r="E8" s="30" t="s">
+        <v>104</v>
       </c>
-      <c r="F8" s="30"/>
+      <c r="F8" s="30" t="s">
+        <v>190</v>
+      </c>
       <c r="G8" s="33" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30" t="s">
-        <v>174</v>
+      <c r="H8" s="32" t="s">
+        <v>119</v>
       </c>
+      <c r="I8" s="30"/>
       <c r="J8" s="30" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
@@ -31698,24 +31801,26 @@
         <v>97</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="C9" s="31">
-        <v>2024</v>
+        <v>2023</v>
       </c>
-      <c r="D9" s="33" t="s">
-        <v>181</v>
+      <c r="D9" s="30" t="s">
+        <v>121</v>
       </c>
-      <c r="E9" s="36" t="s">
-        <v>182</v>
+      <c r="E9" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="F9" s="30"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30" t="s">
-        <v>164</v>
+      <c r="G9" s="35" t="s">
+        <v>192</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="H9" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30" t="s">
         <v>103</v>
       </c>
       <c r="K9" s="30"/>
@@ -31738,27 +31843,27 @@
         <v>97</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
-      <c r="C10" s="30">
-        <v>2024</v>
+      <c r="C10" s="31">
+        <v>2023</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>194</v>
+      <c r="D10" s="33" t="s">
+        <v>171</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>224</v>
+      <c r="E10" s="33" t="s">
+        <v>123</v>
       </c>
       <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="22" t="s">
-        <v>223</v>
+      <c r="G10" s="33" t="s">
+        <v>172</v>
       </c>
+      <c r="H10" s="30"/>
       <c r="I10" s="30" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>103</v>
+        <v>174</v>
       </c>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
@@ -31777,25 +31882,26 @@
     </row>
     <row r="11" spans="1:24" ht="20.25" customHeight="1">
       <c r="A11" s="30" t="s">
-        <v>225</v>
+        <v>97</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>124</v>
+      <c r="B11" s="33" t="s">
+        <v>176</v>
       </c>
       <c r="C11" s="30">
         <v>2023</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>125</v>
+      <c r="D11" s="33" t="s">
+        <v>177</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="E11" s="36" t="s">
+        <v>178</v>
+      </c>
       <c r="I11" s="30" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
-      <c r="J11" s="30"/>
+      <c r="J11" s="34" t="s">
+        <v>103</v>
+      </c>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
@@ -31818,20 +31924,24 @@
       <c r="B12" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="31">
         <v>2024</v>
       </c>
-      <c r="D12" s="34" t="s">
-        <v>154</v>
+      <c r="D12" s="33" t="s">
+        <v>180</v>
       </c>
-      <c r="E12" s="30"/>
+      <c r="E12" s="36" t="s">
+        <v>181</v>
+      </c>
       <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="30"/>
       <c r="I12" s="30" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
-      <c r="J12" s="30"/>
+      <c r="J12" s="34" t="s">
+        <v>103</v>
+      </c>
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
@@ -31852,22 +31962,28 @@
         <v>97</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C13" s="30">
         <v>2024</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
-      <c r="E13" s="30"/>
+      <c r="E13" s="30" t="s">
+        <v>223</v>
+      </c>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="H13" s="22" t="s">
+        <v>222</v>
+      </c>
       <c r="I13" s="30" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
-      <c r="J13" s="30"/>
+      <c r="J13" s="30" t="s">
+        <v>103</v>
+      </c>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
       <c r="M13" s="30"/>
@@ -31888,22 +32004,22 @@
         <v>97</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="C14" s="30">
-        <v>2016</v>
+        <v>2024</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>146</v>
+      <c r="D14" s="43" t="s">
+        <v>227</v>
       </c>
-      <c r="E14" s="37" t="s">
-        <v>163</v>
+      <c r="E14" s="30" t="s">
+        <v>104</v>
       </c>
-      <c r="F14" s="34">
-        <v>50</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>147</v>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30" t="s">
+        <v>228</v>
       </c>
       <c r="J14" s="34" t="s">
         <v>103</v>
@@ -31914,24 +32030,23 @@
         <v>97</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="C15" s="30">
-        <v>2016</v>
+        <v>2024</v>
       </c>
-      <c r="D15" s="38" t="s">
-        <v>150</v>
+      <c r="D15" s="34" t="s">
+        <v>161</v>
       </c>
-      <c r="E15" s="39" t="s">
-        <v>151</v>
+      <c r="E15" s="30" t="s">
+        <v>104</v>
       </c>
-      <c r="F15" s="30" t="s">
-        <v>152</v>
+      <c r="H15" s="42" t="s">
+        <v>224</v>
       </c>
-      <c r="G15" s="30" t="s">
-        <v>153</v>
+      <c r="I15" s="30" t="s">
+        <v>225</v>
       </c>
-      <c r="I15" s="30"/>
       <c r="J15" s="34" t="s">
         <v>103</v>
       </c>
@@ -31946,107 +32061,164 @@
       <c r="C16" s="30">
         <v>2024</v>
       </c>
-      <c r="D16" s="34" t="s">
-        <v>162</v>
+      <c r="D16" s="37" t="s">
+        <v>159</v>
       </c>
-      <c r="E16" s="30" t="s">
-        <v>104</v>
+      <c r="I16" s="30" t="s">
+        <v>157</v>
       </c>
-      <c r="H16" s="43" t="s">
-        <v>227</v>
+      <c r="J16" s="34" t="s">
+        <v>103</v>
       </c>
-      <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:24" ht="20.25" customHeight="1">
       <c r="A17" s="30" t="s">
-        <v>97</v>
+        <v>229</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C17" s="30">
         <v>2024</v>
       </c>
-      <c r="D17" s="37" t="s">
-        <v>160</v>
+      <c r="D17" s="34" t="s">
+        <v>217</v>
       </c>
       <c r="I17" s="30" t="s">
         <v>157</v>
       </c>
+      <c r="J17" s="34" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="18" spans="1:24" ht="20.25" customHeight="1">
       <c r="A18" s="30" t="s">
-        <v>97</v>
+        <v>229</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>177</v>
+      <c r="B18" s="34" t="s">
+        <v>187</v>
       </c>
       <c r="C18" s="30">
+        <v>2024</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="20.25" customHeight="1">
+      <c r="A19" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="34">
+        <v>2024</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="20.25" customHeight="1">
+      <c r="A20" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="30">
         <v>2023</v>
       </c>
-      <c r="D18" s="33" t="s">
-        <v>178</v>
+      <c r="D20" s="30" t="s">
+        <v>125</v>
       </c>
-      <c r="E18" s="36" t="s">
-        <v>179</v>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30" t="s">
+        <v>157</v>
       </c>
-      <c r="I18" s="30" t="s">
-        <v>180</v>
+    </row>
+    <row r="21" spans="1:24" ht="20.25" customHeight="1">
+      <c r="A21" s="30" t="s">
+        <v>234</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A19" s="30" t="s">
-        <v>225</v>
+      <c r="B21" s="30" t="s">
+        <v>52</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="30">
+      <c r="C21" s="30">
         <v>2024</v>
       </c>
-      <c r="D19" s="34" t="s">
-        <v>218</v>
+      <c r="D21" s="30" t="s">
+        <v>160</v>
       </c>
-      <c r="I19" s="30" t="s">
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A20" s="30" t="s">
-        <v>225</v>
+      <c r="J21" s="34" t="s">
+        <v>103</v>
       </c>
-      <c r="B20" s="34" t="s">
-        <v>188</v>
+    </row>
+    <row r="22" spans="1:24" ht="20.25" customHeight="1">
+      <c r="A22" s="34" t="s">
+        <v>229</v>
       </c>
-      <c r="C20" s="30">
+      <c r="B22" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="C22" s="34">
         <v>2024</v>
       </c>
-      <c r="D20" s="40" t="s">
-        <v>187</v>
+      <c r="D22" s="34" t="s">
+        <v>247</v>
       </c>
-      <c r="E20" s="41" t="s">
-        <v>189</v>
+      <c r="I22" s="30" t="s">
+        <v>157</v>
       </c>
-      <c r="I20" s="30" t="s">
-        <v>164</v>
+    </row>
+    <row r="23" spans="1:24" ht="20.25" customHeight="1">
+      <c r="A23" s="34" t="s">
+        <v>229</v>
       </c>
-      <c r="J20" s="34" t="s">
-        <v>103</v>
+      <c r="B23" s="30" t="s">
+        <v>237</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" ht="20.25" customHeight="1">
-      <c r="D21" s="42"/>
-    </row>
-    <row r="23" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
+      <c r="C23" s="30">
+        <v>2024</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>243</v>
+      </c>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
+      <c r="I23" s="30" t="s">
+        <v>157</v>
+      </c>
       <c r="J23" s="30"/>
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
@@ -32064,15 +32236,25 @@
       <c r="X23" s="30"/>
     </row>
     <row r="24" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
+      <c r="A24" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" s="30">
+        <v>2024</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>240</v>
+      </c>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
       <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
+      <c r="I24" s="30" t="s">
+        <v>157</v>
+      </c>
       <c r="J24" s="30"/>
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
@@ -32090,15 +32272,27 @@
       <c r="X24" s="30"/>
     </row>
     <row r="25" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
+      <c r="A25" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" s="30">
+        <v>2024</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>241</v>
+      </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
+      <c r="I25" s="30" t="s">
+        <v>232</v>
+      </c>
       <c r="J25" s="30"/>
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
@@ -32116,15 +32310,25 @@
       <c r="X25" s="30"/>
     </row>
     <row r="26" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
+      <c r="A26" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="C26" s="30">
+        <v>2024</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>245</v>
+      </c>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
+      <c r="I26" s="30" t="s">
+        <v>246</v>
+      </c>
       <c r="J26" s="30"/>
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
@@ -32142,15 +32346,25 @@
       <c r="X26" s="30"/>
     </row>
     <row r="27" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
+      <c r="A27" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="C27" s="30">
+        <v>2024</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>248</v>
+      </c>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
+      <c r="I27" s="30" t="s">
+        <v>246</v>
+      </c>
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
@@ -32168,15 +32382,25 @@
       <c r="X27" s="30"/>
     </row>
     <row r="28" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
+      <c r="A28" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="C28" s="30">
+        <v>2024</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>250</v>
+      </c>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
+      <c r="I28" s="30" t="s">
+        <v>246</v>
+      </c>
       <c r="J28" s="30"/>
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
@@ -57440,17 +57664,22 @@
       <c r="X999" s="30"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J21" xr:uid="{00000000-0001-0000-0600-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J21">
+      <sortCondition ref="A1:A21"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
-    <hyperlink ref="H6" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
-    <hyperlink ref="E18" r:id="rId6" display="https://jcatpub.net/" xr:uid="{9516199D-419C-4305-ACCB-37D6B06669B1}"/>
-    <hyperlink ref="E9" r:id="rId7" display="https://journals.sagepub.com/home/jeb" xr:uid="{F248E9F7-08E7-4CAF-9290-0ED6905A9175}"/>
-    <hyperlink ref="H10" r:id="rId8" xr:uid="{2CEA1259-3579-4814-B146-A75C21FE5BDD}"/>
-    <hyperlink ref="H16" r:id="rId9" xr:uid="{9797778D-90F2-47D4-9323-47BBCF070BF3}"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="H6" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="H7" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="H8" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="E11" r:id="rId6" display="https://jcatpub.net/" xr:uid="{9516199D-419C-4305-ACCB-37D6B06669B1}"/>
+    <hyperlink ref="E12" r:id="rId7" display="https://journals.sagepub.com/home/jeb" xr:uid="{F248E9F7-08E7-4CAF-9290-0ED6905A9175}"/>
+    <hyperlink ref="H13" r:id="rId8" xr:uid="{2CEA1259-3579-4814-B146-A75C21FE5BDD}"/>
+    <hyperlink ref="H15" r:id="rId9" xr:uid="{9797778D-90F2-47D4-9323-47BBCF070BF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
@@ -57486,10 +57715,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
         <v>100</v>
@@ -57562,16 +57791,16 @@
         <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C2" s="2">
         <v>2023</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>136</v>
@@ -57605,10 +57834,10 @@
         <v>2022</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>130</v>
@@ -57651,7 +57880,7 @@
         <v>131</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
@@ -57755,7 +57984,7 @@
         <v>137</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>136</v>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitfolder\sylcv\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slee2462\Documents\github\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDBD9BA-8F2F-45A4-B0BE-F4EE23603E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75C35CD-88AE-42DB-ACA6-0C26834FC347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47895" yWindow="0" windowWidth="19410" windowHeight="16305" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="253">
   <si>
     <t>Degree</t>
   </si>
@@ -597,9 +597,6 @@
     <t>Rene M. Dailey, ..., &amp; Sooyong Lee</t>
   </si>
   <si>
-    <t>Journal of Personality and Social Psychology</t>
-  </si>
-  <si>
     <t>Dissertation: Development of a Method for Addressing Various Censoring Effects in a Latent Growth Curve Modeling Framework. Advisor: Tiffany Whittaker</t>
   </si>
   <si>
@@ -721,10 +718,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>In Print</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>article</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -816,13 +809,22 @@
     <t>Sooyong Lee &amp; Cory L. Cobb</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>Journal of Social and Personal Relationships</t>
+  </si>
+  <si>
+    <t>The impact of item pool size and item pool distribution on student ability estimates for a hybrid interim-summative CAT</t>
+  </si>
+  <si>
+    <t>Gianopulos, G., Lee, J., Lim, S., Niu, L., Sooyong Lee., &amp; Choi, S. W.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="[$-409]mmmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\-yy;@"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1080,11 +1082,11 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1104,7 +1106,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1362,15 +1364,15 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.40625" customWidth="1"/>
-    <col min="3" max="3" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="136.7265625" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="136.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13">
+    <row r="1" spans="1:5" ht="13.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1387,7 +1389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="26">
+    <row r="2" spans="1:5" ht="39.6">
       <c r="A2" s="26" t="s">
         <v>170</v>
       </c>
@@ -1401,10 +1403,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.75" thickBot="1">
+    <row r="3" spans="1:5" ht="13.8" thickBot="1">
       <c r="A3" s="24" t="s">
         <v>139</v>
       </c>
@@ -1418,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
@@ -1454,9 +1456,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="39.1328125" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1">
@@ -1492,7 +1494,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>71</v>
@@ -1518,7 +1520,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>74</v>
@@ -1546,10 +1548,10 @@
         <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>77</v>
@@ -1572,16 +1574,16 @@
         <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1600,16 +1602,16 @@
         <v>184</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1681,19 +1683,19 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1709,16 +1711,16 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="D10" s="21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1895,19 +1897,19 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" customWidth="1"/>
-    <col min="2" max="2" width="27.86328125" customWidth="1"/>
-    <col min="3" max="3" width="23.86328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="14.40625" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="13">
+    <row r="1" spans="1:27" ht="13.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1954,7 +1956,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="13">
+    <row r="2" spans="1:27" ht="13.2">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1962,7 +1964,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -1999,7 +2001,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="13">
+    <row r="3" spans="1:27" ht="13.2">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -2007,7 +2009,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -2044,7 +2046,7 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:27" ht="13.25">
+    <row r="4" spans="1:27" ht="13.2">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -2052,7 +2054,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
@@ -2097,7 +2099,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>35</v>
@@ -2132,7 +2134,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:27" ht="13">
+    <row r="6" spans="1:27" ht="13.2">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2140,7 +2142,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
@@ -2175,7 +2177,7 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:27" ht="17.5">
+    <row r="7" spans="1:27" ht="16.8">
       <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
@@ -2183,7 +2185,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>42</v>
@@ -2222,7 +2224,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:27" ht="17.5">
+    <row r="8" spans="1:27" ht="16.8">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
@@ -2230,7 +2232,7 @@
         <v>46</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>47</v>
@@ -2267,7 +2269,7 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:27" ht="17.5">
+    <row r="9" spans="1:27" ht="16.8">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -2275,7 +2277,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>51</v>
@@ -2312,7 +2314,7 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:27" ht="13.25">
+    <row r="10" spans="1:27" ht="13.2">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -2320,7 +2322,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>53</v>
@@ -2355,7 +2357,7 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:27" ht="13">
+    <row r="11" spans="1:27" ht="13.2">
       <c r="A11" s="21" t="s">
         <v>40</v>
       </c>
@@ -2363,7 +2365,7 @@
         <v>155</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>154</v>
@@ -2396,24 +2398,24 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" ht="15.6">
       <c r="A12" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="E12" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="F12" s="27" t="s">
         <v>198</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>199</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2437,7 +2439,7 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" ht="15.6">
       <c r="A13" s="21" t="s">
         <v>40</v>
       </c>
@@ -2445,16 +2447,16 @@
         <v>52</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -2478,7 +2480,7 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="1:27" ht="13">
+    <row r="14" spans="1:27" ht="13.2">
       <c r="A14" s="21"/>
       <c r="B14" s="2"/>
       <c r="C14" s="14"/>
@@ -2507,7 +2509,7 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="1:27" ht="13">
+    <row r="15" spans="1:27" ht="13.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="14"/>
@@ -2536,7 +2538,7 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="1:27" ht="13">
+    <row r="16" spans="1:27" ht="13.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="14"/>
@@ -2565,7 +2567,7 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
     </row>
-    <row r="17" spans="1:27" ht="13">
+    <row r="17" spans="1:27" ht="13.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="14"/>
@@ -2594,7 +2596,7 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
     </row>
-    <row r="18" spans="1:27" ht="13">
+    <row r="18" spans="1:27" ht="13.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="14"/>
@@ -2623,7 +2625,7 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="1:27" ht="13">
+    <row r="19" spans="1:27" ht="13.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="14"/>
@@ -2652,7 +2654,7 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
-    <row r="20" spans="1:27" ht="13">
+    <row r="20" spans="1:27" ht="13.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="14"/>
@@ -2681,7 +2683,7 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21" spans="1:27" ht="13">
+    <row r="21" spans="1:27" ht="13.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="14"/>
@@ -2710,7 +2712,7 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
     </row>
-    <row r="22" spans="1:27" ht="13">
+    <row r="22" spans="1:27" ht="13.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="14"/>
@@ -2739,7 +2741,7 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" spans="1:27" ht="13">
+    <row r="23" spans="1:27" ht="13.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="14"/>
@@ -2768,7 +2770,7 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" spans="1:27" ht="13">
+    <row r="24" spans="1:27" ht="13.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="14"/>
@@ -2797,7 +2799,7 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" spans="1:27" ht="13">
+    <row r="25" spans="1:27" ht="13.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="14"/>
@@ -2826,7 +2828,7 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
     </row>
-    <row r="26" spans="1:27" ht="13">
+    <row r="26" spans="1:27" ht="13.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="14"/>
@@ -2855,7 +2857,7 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" spans="1:27" ht="13">
+    <row r="27" spans="1:27" ht="13.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="14"/>
@@ -2884,7 +2886,7 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
     </row>
-    <row r="28" spans="1:27" ht="13">
+    <row r="28" spans="1:27" ht="13.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="14"/>
@@ -2913,7 +2915,7 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
     </row>
-    <row r="29" spans="1:27" ht="13">
+    <row r="29" spans="1:27" ht="13.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="14"/>
@@ -2942,7 +2944,7 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" spans="1:27" ht="13">
+    <row r="30" spans="1:27" ht="13.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="14"/>
@@ -2971,7 +2973,7 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" spans="1:27" ht="13">
+    <row r="31" spans="1:27" ht="13.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="14"/>
@@ -3000,7 +3002,7 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
     </row>
-    <row r="32" spans="1:27" ht="13">
+    <row r="32" spans="1:27" ht="13.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="14"/>
@@ -3029,7 +3031,7 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="1:27" ht="13">
+    <row r="33" spans="1:27" ht="13.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="14"/>
@@ -3058,7 +3060,7 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="1:27" ht="13">
+    <row r="34" spans="1:27" ht="13.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="14"/>
@@ -3087,7 +3089,7 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="1:27" ht="13">
+    <row r="35" spans="1:27" ht="13.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="14"/>
@@ -3116,7 +3118,7 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
     </row>
-    <row r="36" spans="1:27" ht="13">
+    <row r="36" spans="1:27" ht="13.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="14"/>
@@ -3145,7 +3147,7 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
     </row>
-    <row r="37" spans="1:27" ht="13">
+    <row r="37" spans="1:27" ht="13.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="14"/>
@@ -3174,7 +3176,7 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
     </row>
-    <row r="38" spans="1:27" ht="13">
+    <row r="38" spans="1:27" ht="13.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="14"/>
@@ -3203,7 +3205,7 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
     </row>
-    <row r="39" spans="1:27" ht="13">
+    <row r="39" spans="1:27" ht="13.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="14"/>
@@ -3232,7 +3234,7 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
     </row>
-    <row r="40" spans="1:27" ht="13">
+    <row r="40" spans="1:27" ht="13.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="14"/>
@@ -3261,7 +3263,7 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="1:27" ht="13">
+    <row r="41" spans="1:27" ht="13.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="14"/>
@@ -3290,7 +3292,7 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
     </row>
-    <row r="42" spans="1:27" ht="13">
+    <row r="42" spans="1:27" ht="13.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="14"/>
@@ -3319,7 +3321,7 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
     </row>
-    <row r="43" spans="1:27" ht="13">
+    <row r="43" spans="1:27" ht="13.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="14"/>
@@ -3348,7 +3350,7 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
     </row>
-    <row r="44" spans="1:27" ht="13">
+    <row r="44" spans="1:27" ht="13.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="14"/>
@@ -3377,7 +3379,7 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
     </row>
-    <row r="45" spans="1:27" ht="13">
+    <row r="45" spans="1:27" ht="13.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="14"/>
@@ -3406,7 +3408,7 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" spans="1:27" ht="13">
+    <row r="46" spans="1:27" ht="13.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="14"/>
@@ -3435,7 +3437,7 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
     </row>
-    <row r="47" spans="1:27" ht="13">
+    <row r="47" spans="1:27" ht="13.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="14"/>
@@ -3464,7 +3466,7 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
     </row>
-    <row r="48" spans="1:27" ht="13">
+    <row r="48" spans="1:27" ht="13.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="14"/>
@@ -3493,7 +3495,7 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
     </row>
-    <row r="49" spans="1:27" ht="13">
+    <row r="49" spans="1:27" ht="13.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="14"/>
@@ -3522,7 +3524,7 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
     </row>
-    <row r="50" spans="1:27" ht="13">
+    <row r="50" spans="1:27" ht="13.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="14"/>
@@ -3551,7 +3553,7 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
     </row>
-    <row r="51" spans="1:27" ht="13">
+    <row r="51" spans="1:27" ht="13.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="14"/>
@@ -3580,7 +3582,7 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
     </row>
-    <row r="52" spans="1:27" ht="13">
+    <row r="52" spans="1:27" ht="13.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="14"/>
@@ -3609,7 +3611,7 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
     </row>
-    <row r="53" spans="1:27" ht="13">
+    <row r="53" spans="1:27" ht="13.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="14"/>
@@ -3638,7 +3640,7 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
     </row>
-    <row r="54" spans="1:27" ht="13">
+    <row r="54" spans="1:27" ht="13.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="14"/>
@@ -3667,7 +3669,7 @@
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
     </row>
-    <row r="55" spans="1:27" ht="13">
+    <row r="55" spans="1:27" ht="13.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="14"/>
@@ -3696,7 +3698,7 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
     </row>
-    <row r="56" spans="1:27" ht="13">
+    <row r="56" spans="1:27" ht="13.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="14"/>
@@ -3725,7 +3727,7 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
     </row>
-    <row r="57" spans="1:27" ht="13">
+    <row r="57" spans="1:27" ht="13.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="14"/>
@@ -3754,7 +3756,7 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
     </row>
-    <row r="58" spans="1:27" ht="13">
+    <row r="58" spans="1:27" ht="13.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="14"/>
@@ -3783,7 +3785,7 @@
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
     </row>
-    <row r="59" spans="1:27" ht="13">
+    <row r="59" spans="1:27" ht="13.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="14"/>
@@ -3812,7 +3814,7 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
     </row>
-    <row r="60" spans="1:27" ht="13">
+    <row r="60" spans="1:27" ht="13.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="14"/>
@@ -3841,7 +3843,7 @@
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
     </row>
-    <row r="61" spans="1:27" ht="13">
+    <row r="61" spans="1:27" ht="13.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="14"/>
@@ -3870,7 +3872,7 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
     </row>
-    <row r="62" spans="1:27" ht="13">
+    <row r="62" spans="1:27" ht="13.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="14"/>
@@ -3899,7 +3901,7 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
     </row>
-    <row r="63" spans="1:27" ht="13">
+    <row r="63" spans="1:27" ht="13.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="14"/>
@@ -3928,7 +3930,7 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
     </row>
-    <row r="64" spans="1:27" ht="13">
+    <row r="64" spans="1:27" ht="13.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="14"/>
@@ -3957,7 +3959,7 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
     </row>
-    <row r="65" spans="1:27" ht="13">
+    <row r="65" spans="1:27" ht="13.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="14"/>
@@ -3986,7 +3988,7 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66" spans="1:27" ht="13">
+    <row r="66" spans="1:27" ht="13.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="14"/>
@@ -4015,7 +4017,7 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
     </row>
-    <row r="67" spans="1:27" ht="13">
+    <row r="67" spans="1:27" ht="13.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="14"/>
@@ -4044,7 +4046,7 @@
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
     </row>
-    <row r="68" spans="1:27" ht="13">
+    <row r="68" spans="1:27" ht="13.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="14"/>
@@ -4073,7 +4075,7 @@
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
     </row>
-    <row r="69" spans="1:27" ht="13">
+    <row r="69" spans="1:27" ht="13.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="14"/>
@@ -4102,7 +4104,7 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
     </row>
-    <row r="70" spans="1:27" ht="13">
+    <row r="70" spans="1:27" ht="13.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="14"/>
@@ -4131,7 +4133,7 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
     </row>
-    <row r="71" spans="1:27" ht="13">
+    <row r="71" spans="1:27" ht="13.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="14"/>
@@ -4160,7 +4162,7 @@
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
     </row>
-    <row r="72" spans="1:27" ht="13">
+    <row r="72" spans="1:27" ht="13.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="14"/>
@@ -4189,7 +4191,7 @@
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
     </row>
-    <row r="73" spans="1:27" ht="13">
+    <row r="73" spans="1:27" ht="13.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="14"/>
@@ -4218,7 +4220,7 @@
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
     </row>
-    <row r="74" spans="1:27" ht="13">
+    <row r="74" spans="1:27" ht="13.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="14"/>
@@ -4247,7 +4249,7 @@
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
     </row>
-    <row r="75" spans="1:27" ht="13">
+    <row r="75" spans="1:27" ht="13.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="14"/>
@@ -4276,7 +4278,7 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
     </row>
-    <row r="76" spans="1:27" ht="13">
+    <row r="76" spans="1:27" ht="13.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="14"/>
@@ -4305,7 +4307,7 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
     </row>
-    <row r="77" spans="1:27" ht="13">
+    <row r="77" spans="1:27" ht="13.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="14"/>
@@ -4334,7 +4336,7 @@
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
     </row>
-    <row r="78" spans="1:27" ht="13">
+    <row r="78" spans="1:27" ht="13.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="14"/>
@@ -4363,7 +4365,7 @@
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
     </row>
-    <row r="79" spans="1:27" ht="13">
+    <row r="79" spans="1:27" ht="13.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="14"/>
@@ -4392,7 +4394,7 @@
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
     </row>
-    <row r="80" spans="1:27" ht="13">
+    <row r="80" spans="1:27" ht="13.2">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="14"/>
@@ -4421,7 +4423,7 @@
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
     </row>
-    <row r="81" spans="1:27" ht="13">
+    <row r="81" spans="1:27" ht="13.2">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="14"/>
@@ -4450,7 +4452,7 @@
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
     </row>
-    <row r="82" spans="1:27" ht="13">
+    <row r="82" spans="1:27" ht="13.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="14"/>
@@ -4479,7 +4481,7 @@
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
     </row>
-    <row r="83" spans="1:27" ht="13">
+    <row r="83" spans="1:27" ht="13.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="14"/>
@@ -4508,7 +4510,7 @@
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
     </row>
-    <row r="84" spans="1:27" ht="13">
+    <row r="84" spans="1:27" ht="13.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="14"/>
@@ -4537,7 +4539,7 @@
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
     </row>
-    <row r="85" spans="1:27" ht="13">
+    <row r="85" spans="1:27" ht="13.2">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="14"/>
@@ -4566,7 +4568,7 @@
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
     </row>
-    <row r="86" spans="1:27" ht="13">
+    <row r="86" spans="1:27" ht="13.2">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="14"/>
@@ -4595,7 +4597,7 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
     </row>
-    <row r="87" spans="1:27" ht="13">
+    <row r="87" spans="1:27" ht="13.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="14"/>
@@ -4624,7 +4626,7 @@
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
     </row>
-    <row r="88" spans="1:27" ht="13">
+    <row r="88" spans="1:27" ht="13.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="14"/>
@@ -4653,7 +4655,7 @@
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
     </row>
-    <row r="89" spans="1:27" ht="13">
+    <row r="89" spans="1:27" ht="13.2">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="14"/>
@@ -4682,7 +4684,7 @@
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
     </row>
-    <row r="90" spans="1:27" ht="13">
+    <row r="90" spans="1:27" ht="13.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="14"/>
@@ -4711,7 +4713,7 @@
       <c r="Z90" s="2"/>
       <c r="AA90" s="2"/>
     </row>
-    <row r="91" spans="1:27" ht="13">
+    <row r="91" spans="1:27" ht="13.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="14"/>
@@ -4740,7 +4742,7 @@
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
     </row>
-    <row r="92" spans="1:27" ht="13">
+    <row r="92" spans="1:27" ht="13.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="14"/>
@@ -4769,7 +4771,7 @@
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
     </row>
-    <row r="93" spans="1:27" ht="13">
+    <row r="93" spans="1:27" ht="13.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="14"/>
@@ -4798,7 +4800,7 @@
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
     </row>
-    <row r="94" spans="1:27" ht="13">
+    <row r="94" spans="1:27" ht="13.2">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="14"/>
@@ -4827,7 +4829,7 @@
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
     </row>
-    <row r="95" spans="1:27" ht="13">
+    <row r="95" spans="1:27" ht="13.2">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="14"/>
@@ -4856,7 +4858,7 @@
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
     </row>
-    <row r="96" spans="1:27" ht="13">
+    <row r="96" spans="1:27" ht="13.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="14"/>
@@ -4885,7 +4887,7 @@
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
     </row>
-    <row r="97" spans="1:27" ht="13">
+    <row r="97" spans="1:27" ht="13.2">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="14"/>
@@ -4914,7 +4916,7 @@
       <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
     </row>
-    <row r="98" spans="1:27" ht="13">
+    <row r="98" spans="1:27" ht="13.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="14"/>
@@ -4943,7 +4945,7 @@
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
     </row>
-    <row r="99" spans="1:27" ht="13">
+    <row r="99" spans="1:27" ht="13.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="14"/>
@@ -4972,7 +4974,7 @@
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
     </row>
-    <row r="100" spans="1:27" ht="13">
+    <row r="100" spans="1:27" ht="13.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="14"/>
@@ -5001,7 +5003,7 @@
       <c r="Z100" s="2"/>
       <c r="AA100" s="2"/>
     </row>
-    <row r="101" spans="1:27" ht="13">
+    <row r="101" spans="1:27" ht="13.2">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="14"/>
@@ -5030,7 +5032,7 @@
       <c r="Z101" s="2"/>
       <c r="AA101" s="2"/>
     </row>
-    <row r="102" spans="1:27" ht="13">
+    <row r="102" spans="1:27" ht="13.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="14"/>
@@ -5059,7 +5061,7 @@
       <c r="Z102" s="2"/>
       <c r="AA102" s="2"/>
     </row>
-    <row r="103" spans="1:27" ht="13">
+    <row r="103" spans="1:27" ht="13.2">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="14"/>
@@ -5088,7 +5090,7 @@
       <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
     </row>
-    <row r="104" spans="1:27" ht="13">
+    <row r="104" spans="1:27" ht="13.2">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="14"/>
@@ -5117,7 +5119,7 @@
       <c r="Z104" s="2"/>
       <c r="AA104" s="2"/>
     </row>
-    <row r="105" spans="1:27" ht="13">
+    <row r="105" spans="1:27" ht="13.2">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="14"/>
@@ -5146,7 +5148,7 @@
       <c r="Z105" s="2"/>
       <c r="AA105" s="2"/>
     </row>
-    <row r="106" spans="1:27" ht="13">
+    <row r="106" spans="1:27" ht="13.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="14"/>
@@ -5175,7 +5177,7 @@
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
     </row>
-    <row r="107" spans="1:27" ht="13">
+    <row r="107" spans="1:27" ht="13.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="14"/>
@@ -5204,7 +5206,7 @@
       <c r="Z107" s="2"/>
       <c r="AA107" s="2"/>
     </row>
-    <row r="108" spans="1:27" ht="13">
+    <row r="108" spans="1:27" ht="13.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="14"/>
@@ -5233,7 +5235,7 @@
       <c r="Z108" s="2"/>
       <c r="AA108" s="2"/>
     </row>
-    <row r="109" spans="1:27" ht="13">
+    <row r="109" spans="1:27" ht="13.2">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="14"/>
@@ -5262,7 +5264,7 @@
       <c r="Z109" s="2"/>
       <c r="AA109" s="2"/>
     </row>
-    <row r="110" spans="1:27" ht="13">
+    <row r="110" spans="1:27" ht="13.2">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="14"/>
@@ -5291,7 +5293,7 @@
       <c r="Z110" s="2"/>
       <c r="AA110" s="2"/>
     </row>
-    <row r="111" spans="1:27" ht="13">
+    <row r="111" spans="1:27" ht="13.2">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="14"/>
@@ -5320,7 +5322,7 @@
       <c r="Z111" s="2"/>
       <c r="AA111" s="2"/>
     </row>
-    <row r="112" spans="1:27" ht="13">
+    <row r="112" spans="1:27" ht="13.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="14"/>
@@ -5349,7 +5351,7 @@
       <c r="Z112" s="2"/>
       <c r="AA112" s="2"/>
     </row>
-    <row r="113" spans="1:27" ht="13">
+    <row r="113" spans="1:27" ht="13.2">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="14"/>
@@ -5378,7 +5380,7 @@
       <c r="Z113" s="2"/>
       <c r="AA113" s="2"/>
     </row>
-    <row r="114" spans="1:27" ht="13">
+    <row r="114" spans="1:27" ht="13.2">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="14"/>
@@ -5407,7 +5409,7 @@
       <c r="Z114" s="2"/>
       <c r="AA114" s="2"/>
     </row>
-    <row r="115" spans="1:27" ht="13">
+    <row r="115" spans="1:27" ht="13.2">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="14"/>
@@ -5436,7 +5438,7 @@
       <c r="Z115" s="2"/>
       <c r="AA115" s="2"/>
     </row>
-    <row r="116" spans="1:27" ht="13">
+    <row r="116" spans="1:27" ht="13.2">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="14"/>
@@ -5465,7 +5467,7 @@
       <c r="Z116" s="2"/>
       <c r="AA116" s="2"/>
     </row>
-    <row r="117" spans="1:27" ht="13">
+    <row r="117" spans="1:27" ht="13.2">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="14"/>
@@ -5494,7 +5496,7 @@
       <c r="Z117" s="2"/>
       <c r="AA117" s="2"/>
     </row>
-    <row r="118" spans="1:27" ht="13">
+    <row r="118" spans="1:27" ht="13.2">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="14"/>
@@ -5523,7 +5525,7 @@
       <c r="Z118" s="2"/>
       <c r="AA118" s="2"/>
     </row>
-    <row r="119" spans="1:27" ht="13">
+    <row r="119" spans="1:27" ht="13.2">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="14"/>
@@ -5552,7 +5554,7 @@
       <c r="Z119" s="2"/>
       <c r="AA119" s="2"/>
     </row>
-    <row r="120" spans="1:27" ht="13">
+    <row r="120" spans="1:27" ht="13.2">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="14"/>
@@ -5581,7 +5583,7 @@
       <c r="Z120" s="2"/>
       <c r="AA120" s="2"/>
     </row>
-    <row r="121" spans="1:27" ht="13">
+    <row r="121" spans="1:27" ht="13.2">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="14"/>
@@ -5610,7 +5612,7 @@
       <c r="Z121" s="2"/>
       <c r="AA121" s="2"/>
     </row>
-    <row r="122" spans="1:27" ht="13">
+    <row r="122" spans="1:27" ht="13.2">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="14"/>
@@ -5639,7 +5641,7 @@
       <c r="Z122" s="2"/>
       <c r="AA122" s="2"/>
     </row>
-    <row r="123" spans="1:27" ht="13">
+    <row r="123" spans="1:27" ht="13.2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="14"/>
@@ -5668,7 +5670,7 @@
       <c r="Z123" s="2"/>
       <c r="AA123" s="2"/>
     </row>
-    <row r="124" spans="1:27" ht="13">
+    <row r="124" spans="1:27" ht="13.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="14"/>
@@ -5697,7 +5699,7 @@
       <c r="Z124" s="2"/>
       <c r="AA124" s="2"/>
     </row>
-    <row r="125" spans="1:27" ht="13">
+    <row r="125" spans="1:27" ht="13.2">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="14"/>
@@ -5726,7 +5728,7 @@
       <c r="Z125" s="2"/>
       <c r="AA125" s="2"/>
     </row>
-    <row r="126" spans="1:27" ht="13">
+    <row r="126" spans="1:27" ht="13.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="14"/>
@@ -5755,7 +5757,7 @@
       <c r="Z126" s="2"/>
       <c r="AA126" s="2"/>
     </row>
-    <row r="127" spans="1:27" ht="13">
+    <row r="127" spans="1:27" ht="13.2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="14"/>
@@ -5784,7 +5786,7 @@
       <c r="Z127" s="2"/>
       <c r="AA127" s="2"/>
     </row>
-    <row r="128" spans="1:27" ht="13">
+    <row r="128" spans="1:27" ht="13.2">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="14"/>
@@ -5813,7 +5815,7 @@
       <c r="Z128" s="2"/>
       <c r="AA128" s="2"/>
     </row>
-    <row r="129" spans="1:27" ht="13">
+    <row r="129" spans="1:27" ht="13.2">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="14"/>
@@ -5842,7 +5844,7 @@
       <c r="Z129" s="2"/>
       <c r="AA129" s="2"/>
     </row>
-    <row r="130" spans="1:27" ht="13">
+    <row r="130" spans="1:27" ht="13.2">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="14"/>
@@ -5871,7 +5873,7 @@
       <c r="Z130" s="2"/>
       <c r="AA130" s="2"/>
     </row>
-    <row r="131" spans="1:27" ht="13">
+    <row r="131" spans="1:27" ht="13.2">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="14"/>
@@ -5900,7 +5902,7 @@
       <c r="Z131" s="2"/>
       <c r="AA131" s="2"/>
     </row>
-    <row r="132" spans="1:27" ht="13">
+    <row r="132" spans="1:27" ht="13.2">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="14"/>
@@ -5929,7 +5931,7 @@
       <c r="Z132" s="2"/>
       <c r="AA132" s="2"/>
     </row>
-    <row r="133" spans="1:27" ht="13">
+    <row r="133" spans="1:27" ht="13.2">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="14"/>
@@ -5958,7 +5960,7 @@
       <c r="Z133" s="2"/>
       <c r="AA133" s="2"/>
     </row>
-    <row r="134" spans="1:27" ht="13">
+    <row r="134" spans="1:27" ht="13.2">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="14"/>
@@ -5987,7 +5989,7 @@
       <c r="Z134" s="2"/>
       <c r="AA134" s="2"/>
     </row>
-    <row r="135" spans="1:27" ht="13">
+    <row r="135" spans="1:27" ht="13.2">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="14"/>
@@ -6016,7 +6018,7 @@
       <c r="Z135" s="2"/>
       <c r="AA135" s="2"/>
     </row>
-    <row r="136" spans="1:27" ht="13">
+    <row r="136" spans="1:27" ht="13.2">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="14"/>
@@ -6045,7 +6047,7 @@
       <c r="Z136" s="2"/>
       <c r="AA136" s="2"/>
     </row>
-    <row r="137" spans="1:27" ht="13">
+    <row r="137" spans="1:27" ht="13.2">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="14"/>
@@ -6074,7 +6076,7 @@
       <c r="Z137" s="2"/>
       <c r="AA137" s="2"/>
     </row>
-    <row r="138" spans="1:27" ht="13">
+    <row r="138" spans="1:27" ht="13.2">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="14"/>
@@ -6103,7 +6105,7 @@
       <c r="Z138" s="2"/>
       <c r="AA138" s="2"/>
     </row>
-    <row r="139" spans="1:27" ht="13">
+    <row r="139" spans="1:27" ht="13.2">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="14"/>
@@ -6132,7 +6134,7 @@
       <c r="Z139" s="2"/>
       <c r="AA139" s="2"/>
     </row>
-    <row r="140" spans="1:27" ht="13">
+    <row r="140" spans="1:27" ht="13.2">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="14"/>
@@ -6161,7 +6163,7 @@
       <c r="Z140" s="2"/>
       <c r="AA140" s="2"/>
     </row>
-    <row r="141" spans="1:27" ht="13">
+    <row r="141" spans="1:27" ht="13.2">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="14"/>
@@ -6190,7 +6192,7 @@
       <c r="Z141" s="2"/>
       <c r="AA141" s="2"/>
     </row>
-    <row r="142" spans="1:27" ht="13">
+    <row r="142" spans="1:27" ht="13.2">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="14"/>
@@ -6219,7 +6221,7 @@
       <c r="Z142" s="2"/>
       <c r="AA142" s="2"/>
     </row>
-    <row r="143" spans="1:27" ht="13">
+    <row r="143" spans="1:27" ht="13.2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="14"/>
@@ -6248,7 +6250,7 @@
       <c r="Z143" s="2"/>
       <c r="AA143" s="2"/>
     </row>
-    <row r="144" spans="1:27" ht="13">
+    <row r="144" spans="1:27" ht="13.2">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="14"/>
@@ -6277,7 +6279,7 @@
       <c r="Z144" s="2"/>
       <c r="AA144" s="2"/>
     </row>
-    <row r="145" spans="1:27" ht="13">
+    <row r="145" spans="1:27" ht="13.2">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="14"/>
@@ -6306,7 +6308,7 @@
       <c r="Z145" s="2"/>
       <c r="AA145" s="2"/>
     </row>
-    <row r="146" spans="1:27" ht="13">
+    <row r="146" spans="1:27" ht="13.2">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="14"/>
@@ -6335,7 +6337,7 @@
       <c r="Z146" s="2"/>
       <c r="AA146" s="2"/>
     </row>
-    <row r="147" spans="1:27" ht="13">
+    <row r="147" spans="1:27" ht="13.2">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="14"/>
@@ -6364,7 +6366,7 @@
       <c r="Z147" s="2"/>
       <c r="AA147" s="2"/>
     </row>
-    <row r="148" spans="1:27" ht="13">
+    <row r="148" spans="1:27" ht="13.2">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="14"/>
@@ -6393,7 +6395,7 @@
       <c r="Z148" s="2"/>
       <c r="AA148" s="2"/>
     </row>
-    <row r="149" spans="1:27" ht="13">
+    <row r="149" spans="1:27" ht="13.2">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="14"/>
@@ -6422,7 +6424,7 @@
       <c r="Z149" s="2"/>
       <c r="AA149" s="2"/>
     </row>
-    <row r="150" spans="1:27" ht="13">
+    <row r="150" spans="1:27" ht="13.2">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="14"/>
@@ -6451,7 +6453,7 @@
       <c r="Z150" s="2"/>
       <c r="AA150" s="2"/>
     </row>
-    <row r="151" spans="1:27" ht="13">
+    <row r="151" spans="1:27" ht="13.2">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="14"/>
@@ -6480,7 +6482,7 @@
       <c r="Z151" s="2"/>
       <c r="AA151" s="2"/>
     </row>
-    <row r="152" spans="1:27" ht="13">
+    <row r="152" spans="1:27" ht="13.2">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="14"/>
@@ -6509,7 +6511,7 @@
       <c r="Z152" s="2"/>
       <c r="AA152" s="2"/>
     </row>
-    <row r="153" spans="1:27" ht="13">
+    <row r="153" spans="1:27" ht="13.2">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="14"/>
@@ -6538,7 +6540,7 @@
       <c r="Z153" s="2"/>
       <c r="AA153" s="2"/>
     </row>
-    <row r="154" spans="1:27" ht="13">
+    <row r="154" spans="1:27" ht="13.2">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="14"/>
@@ -6567,7 +6569,7 @@
       <c r="Z154" s="2"/>
       <c r="AA154" s="2"/>
     </row>
-    <row r="155" spans="1:27" ht="13">
+    <row r="155" spans="1:27" ht="13.2">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="14"/>
@@ -6596,7 +6598,7 @@
       <c r="Z155" s="2"/>
       <c r="AA155" s="2"/>
     </row>
-    <row r="156" spans="1:27" ht="13">
+    <row r="156" spans="1:27" ht="13.2">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="14"/>
@@ -6625,7 +6627,7 @@
       <c r="Z156" s="2"/>
       <c r="AA156" s="2"/>
     </row>
-    <row r="157" spans="1:27" ht="13">
+    <row r="157" spans="1:27" ht="13.2">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="14"/>
@@ -6654,7 +6656,7 @@
       <c r="Z157" s="2"/>
       <c r="AA157" s="2"/>
     </row>
-    <row r="158" spans="1:27" ht="13">
+    <row r="158" spans="1:27" ht="13.2">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="14"/>
@@ -6683,7 +6685,7 @@
       <c r="Z158" s="2"/>
       <c r="AA158" s="2"/>
     </row>
-    <row r="159" spans="1:27" ht="13">
+    <row r="159" spans="1:27" ht="13.2">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="14"/>
@@ -6712,7 +6714,7 @@
       <c r="Z159" s="2"/>
       <c r="AA159" s="2"/>
     </row>
-    <row r="160" spans="1:27" ht="13">
+    <row r="160" spans="1:27" ht="13.2">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="14"/>
@@ -6741,7 +6743,7 @@
       <c r="Z160" s="2"/>
       <c r="AA160" s="2"/>
     </row>
-    <row r="161" spans="1:27" ht="13">
+    <row r="161" spans="1:27" ht="13.2">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="14"/>
@@ -6770,7 +6772,7 @@
       <c r="Z161" s="2"/>
       <c r="AA161" s="2"/>
     </row>
-    <row r="162" spans="1:27" ht="13">
+    <row r="162" spans="1:27" ht="13.2">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="14"/>
@@ -6799,7 +6801,7 @@
       <c r="Z162" s="2"/>
       <c r="AA162" s="2"/>
     </row>
-    <row r="163" spans="1:27" ht="13">
+    <row r="163" spans="1:27" ht="13.2">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="14"/>
@@ -6828,7 +6830,7 @@
       <c r="Z163" s="2"/>
       <c r="AA163" s="2"/>
     </row>
-    <row r="164" spans="1:27" ht="13">
+    <row r="164" spans="1:27" ht="13.2">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="14"/>
@@ -6857,7 +6859,7 @@
       <c r="Z164" s="2"/>
       <c r="AA164" s="2"/>
     </row>
-    <row r="165" spans="1:27" ht="13">
+    <row r="165" spans="1:27" ht="13.2">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="14"/>
@@ -6886,7 +6888,7 @@
       <c r="Z165" s="2"/>
       <c r="AA165" s="2"/>
     </row>
-    <row r="166" spans="1:27" ht="13">
+    <row r="166" spans="1:27" ht="13.2">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="14"/>
@@ -6915,7 +6917,7 @@
       <c r="Z166" s="2"/>
       <c r="AA166" s="2"/>
     </row>
-    <row r="167" spans="1:27" ht="13">
+    <row r="167" spans="1:27" ht="13.2">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="14"/>
@@ -6944,7 +6946,7 @@
       <c r="Z167" s="2"/>
       <c r="AA167" s="2"/>
     </row>
-    <row r="168" spans="1:27" ht="13">
+    <row r="168" spans="1:27" ht="13.2">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="14"/>
@@ -6973,7 +6975,7 @@
       <c r="Z168" s="2"/>
       <c r="AA168" s="2"/>
     </row>
-    <row r="169" spans="1:27" ht="13">
+    <row r="169" spans="1:27" ht="13.2">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="14"/>
@@ -7002,7 +7004,7 @@
       <c r="Z169" s="2"/>
       <c r="AA169" s="2"/>
     </row>
-    <row r="170" spans="1:27" ht="13">
+    <row r="170" spans="1:27" ht="13.2">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="14"/>
@@ -7031,7 +7033,7 @@
       <c r="Z170" s="2"/>
       <c r="AA170" s="2"/>
     </row>
-    <row r="171" spans="1:27" ht="13">
+    <row r="171" spans="1:27" ht="13.2">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="14"/>
@@ -7060,7 +7062,7 @@
       <c r="Z171" s="2"/>
       <c r="AA171" s="2"/>
     </row>
-    <row r="172" spans="1:27" ht="13">
+    <row r="172" spans="1:27" ht="13.2">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="14"/>
@@ -7089,7 +7091,7 @@
       <c r="Z172" s="2"/>
       <c r="AA172" s="2"/>
     </row>
-    <row r="173" spans="1:27" ht="13">
+    <row r="173" spans="1:27" ht="13.2">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="14"/>
@@ -7118,7 +7120,7 @@
       <c r="Z173" s="2"/>
       <c r="AA173" s="2"/>
     </row>
-    <row r="174" spans="1:27" ht="13">
+    <row r="174" spans="1:27" ht="13.2">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="14"/>
@@ -7147,7 +7149,7 @@
       <c r="Z174" s="2"/>
       <c r="AA174" s="2"/>
     </row>
-    <row r="175" spans="1:27" ht="13">
+    <row r="175" spans="1:27" ht="13.2">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="14"/>
@@ -7176,7 +7178,7 @@
       <c r="Z175" s="2"/>
       <c r="AA175" s="2"/>
     </row>
-    <row r="176" spans="1:27" ht="13">
+    <row r="176" spans="1:27" ht="13.2">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="14"/>
@@ -7205,7 +7207,7 @@
       <c r="Z176" s="2"/>
       <c r="AA176" s="2"/>
     </row>
-    <row r="177" spans="1:27" ht="13">
+    <row r="177" spans="1:27" ht="13.2">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="14"/>
@@ -7234,7 +7236,7 @@
       <c r="Z177" s="2"/>
       <c r="AA177" s="2"/>
     </row>
-    <row r="178" spans="1:27" ht="13">
+    <row r="178" spans="1:27" ht="13.2">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="14"/>
@@ -7263,7 +7265,7 @@
       <c r="Z178" s="2"/>
       <c r="AA178" s="2"/>
     </row>
-    <row r="179" spans="1:27" ht="13">
+    <row r="179" spans="1:27" ht="13.2">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="14"/>
@@ -7292,7 +7294,7 @@
       <c r="Z179" s="2"/>
       <c r="AA179" s="2"/>
     </row>
-    <row r="180" spans="1:27" ht="13">
+    <row r="180" spans="1:27" ht="13.2">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="14"/>
@@ -7321,7 +7323,7 @@
       <c r="Z180" s="2"/>
       <c r="AA180" s="2"/>
     </row>
-    <row r="181" spans="1:27" ht="13">
+    <row r="181" spans="1:27" ht="13.2">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="14"/>
@@ -7350,7 +7352,7 @@
       <c r="Z181" s="2"/>
       <c r="AA181" s="2"/>
     </row>
-    <row r="182" spans="1:27" ht="13">
+    <row r="182" spans="1:27" ht="13.2">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="14"/>
@@ -7379,7 +7381,7 @@
       <c r="Z182" s="2"/>
       <c r="AA182" s="2"/>
     </row>
-    <row r="183" spans="1:27" ht="13">
+    <row r="183" spans="1:27" ht="13.2">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="14"/>
@@ -7408,7 +7410,7 @@
       <c r="Z183" s="2"/>
       <c r="AA183" s="2"/>
     </row>
-    <row r="184" spans="1:27" ht="13">
+    <row r="184" spans="1:27" ht="13.2">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="14"/>
@@ -7437,7 +7439,7 @@
       <c r="Z184" s="2"/>
       <c r="AA184" s="2"/>
     </row>
-    <row r="185" spans="1:27" ht="13">
+    <row r="185" spans="1:27" ht="13.2">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="14"/>
@@ -7466,7 +7468,7 @@
       <c r="Z185" s="2"/>
       <c r="AA185" s="2"/>
     </row>
-    <row r="186" spans="1:27" ht="13">
+    <row r="186" spans="1:27" ht="13.2">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="14"/>
@@ -7495,7 +7497,7 @@
       <c r="Z186" s="2"/>
       <c r="AA186" s="2"/>
     </row>
-    <row r="187" spans="1:27" ht="13">
+    <row r="187" spans="1:27" ht="13.2">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="14"/>
@@ -7524,7 +7526,7 @@
       <c r="Z187" s="2"/>
       <c r="AA187" s="2"/>
     </row>
-    <row r="188" spans="1:27" ht="13">
+    <row r="188" spans="1:27" ht="13.2">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="14"/>
@@ -7553,7 +7555,7 @@
       <c r="Z188" s="2"/>
       <c r="AA188" s="2"/>
     </row>
-    <row r="189" spans="1:27" ht="13">
+    <row r="189" spans="1:27" ht="13.2">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="14"/>
@@ -7582,7 +7584,7 @@
       <c r="Z189" s="2"/>
       <c r="AA189" s="2"/>
     </row>
-    <row r="190" spans="1:27" ht="13">
+    <row r="190" spans="1:27" ht="13.2">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="14"/>
@@ -7611,7 +7613,7 @@
       <c r="Z190" s="2"/>
       <c r="AA190" s="2"/>
     </row>
-    <row r="191" spans="1:27" ht="13">
+    <row r="191" spans="1:27" ht="13.2">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="14"/>
@@ -7640,7 +7642,7 @@
       <c r="Z191" s="2"/>
       <c r="AA191" s="2"/>
     </row>
-    <row r="192" spans="1:27" ht="13">
+    <row r="192" spans="1:27" ht="13.2">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="14"/>
@@ -7669,7 +7671,7 @@
       <c r="Z192" s="2"/>
       <c r="AA192" s="2"/>
     </row>
-    <row r="193" spans="1:27" ht="13">
+    <row r="193" spans="1:27" ht="13.2">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="14"/>
@@ -7698,7 +7700,7 @@
       <c r="Z193" s="2"/>
       <c r="AA193" s="2"/>
     </row>
-    <row r="194" spans="1:27" ht="13">
+    <row r="194" spans="1:27" ht="13.2">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="14"/>
@@ -7727,7 +7729,7 @@
       <c r="Z194" s="2"/>
       <c r="AA194" s="2"/>
     </row>
-    <row r="195" spans="1:27" ht="13">
+    <row r="195" spans="1:27" ht="13.2">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="14"/>
@@ -7756,7 +7758,7 @@
       <c r="Z195" s="2"/>
       <c r="AA195" s="2"/>
     </row>
-    <row r="196" spans="1:27" ht="13">
+    <row r="196" spans="1:27" ht="13.2">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="14"/>
@@ -7785,7 +7787,7 @@
       <c r="Z196" s="2"/>
       <c r="AA196" s="2"/>
     </row>
-    <row r="197" spans="1:27" ht="13">
+    <row r="197" spans="1:27" ht="13.2">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="14"/>
@@ -7814,7 +7816,7 @@
       <c r="Z197" s="2"/>
       <c r="AA197" s="2"/>
     </row>
-    <row r="198" spans="1:27" ht="13">
+    <row r="198" spans="1:27" ht="13.2">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="14"/>
@@ -7843,7 +7845,7 @@
       <c r="Z198" s="2"/>
       <c r="AA198" s="2"/>
     </row>
-    <row r="199" spans="1:27" ht="13">
+    <row r="199" spans="1:27" ht="13.2">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="14"/>
@@ -7872,7 +7874,7 @@
       <c r="Z199" s="2"/>
       <c r="AA199" s="2"/>
     </row>
-    <row r="200" spans="1:27" ht="13">
+    <row r="200" spans="1:27" ht="13.2">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="14"/>
@@ -7901,7 +7903,7 @@
       <c r="Z200" s="2"/>
       <c r="AA200" s="2"/>
     </row>
-    <row r="201" spans="1:27" ht="13">
+    <row r="201" spans="1:27" ht="13.2">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="14"/>
@@ -7930,7 +7932,7 @@
       <c r="Z201" s="2"/>
       <c r="AA201" s="2"/>
     </row>
-    <row r="202" spans="1:27" ht="13">
+    <row r="202" spans="1:27" ht="13.2">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="14"/>
@@ -7959,7 +7961,7 @@
       <c r="Z202" s="2"/>
       <c r="AA202" s="2"/>
     </row>
-    <row r="203" spans="1:27" ht="13">
+    <row r="203" spans="1:27" ht="13.2">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="14"/>
@@ -7988,7 +7990,7 @@
       <c r="Z203" s="2"/>
       <c r="AA203" s="2"/>
     </row>
-    <row r="204" spans="1:27" ht="13">
+    <row r="204" spans="1:27" ht="13.2">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="14"/>
@@ -8017,7 +8019,7 @@
       <c r="Z204" s="2"/>
       <c r="AA204" s="2"/>
     </row>
-    <row r="205" spans="1:27" ht="13">
+    <row r="205" spans="1:27" ht="13.2">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="14"/>
@@ -8046,7 +8048,7 @@
       <c r="Z205" s="2"/>
       <c r="AA205" s="2"/>
     </row>
-    <row r="206" spans="1:27" ht="13">
+    <row r="206" spans="1:27" ht="13.2">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="14"/>
@@ -8075,7 +8077,7 @@
       <c r="Z206" s="2"/>
       <c r="AA206" s="2"/>
     </row>
-    <row r="207" spans="1:27" ht="13">
+    <row r="207" spans="1:27" ht="13.2">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="14"/>
@@ -8104,7 +8106,7 @@
       <c r="Z207" s="2"/>
       <c r="AA207" s="2"/>
     </row>
-    <row r="208" spans="1:27" ht="13">
+    <row r="208" spans="1:27" ht="13.2">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="14"/>
@@ -8133,7 +8135,7 @@
       <c r="Z208" s="2"/>
       <c r="AA208" s="2"/>
     </row>
-    <row r="209" spans="1:27" ht="13">
+    <row r="209" spans="1:27" ht="13.2">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="14"/>
@@ -8162,7 +8164,7 @@
       <c r="Z209" s="2"/>
       <c r="AA209" s="2"/>
     </row>
-    <row r="210" spans="1:27" ht="13">
+    <row r="210" spans="1:27" ht="13.2">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="14"/>
@@ -8191,7 +8193,7 @@
       <c r="Z210" s="2"/>
       <c r="AA210" s="2"/>
     </row>
-    <row r="211" spans="1:27" ht="13">
+    <row r="211" spans="1:27" ht="13.2">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="14"/>
@@ -8220,7 +8222,7 @@
       <c r="Z211" s="2"/>
       <c r="AA211" s="2"/>
     </row>
-    <row r="212" spans="1:27" ht="13">
+    <row r="212" spans="1:27" ht="13.2">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="14"/>
@@ -8249,7 +8251,7 @@
       <c r="Z212" s="2"/>
       <c r="AA212" s="2"/>
     </row>
-    <row r="213" spans="1:27" ht="13">
+    <row r="213" spans="1:27" ht="13.2">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="14"/>
@@ -8278,7 +8280,7 @@
       <c r="Z213" s="2"/>
       <c r="AA213" s="2"/>
     </row>
-    <row r="214" spans="1:27" ht="13">
+    <row r="214" spans="1:27" ht="13.2">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="14"/>
@@ -8307,7 +8309,7 @@
       <c r="Z214" s="2"/>
       <c r="AA214" s="2"/>
     </row>
-    <row r="215" spans="1:27" ht="13">
+    <row r="215" spans="1:27" ht="13.2">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="14"/>
@@ -8336,7 +8338,7 @@
       <c r="Z215" s="2"/>
       <c r="AA215" s="2"/>
     </row>
-    <row r="216" spans="1:27" ht="13">
+    <row r="216" spans="1:27" ht="13.2">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="14"/>
@@ -8365,7 +8367,7 @@
       <c r="Z216" s="2"/>
       <c r="AA216" s="2"/>
     </row>
-    <row r="217" spans="1:27" ht="13">
+    <row r="217" spans="1:27" ht="13.2">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="14"/>
@@ -8394,7 +8396,7 @@
       <c r="Z217" s="2"/>
       <c r="AA217" s="2"/>
     </row>
-    <row r="218" spans="1:27" ht="13">
+    <row r="218" spans="1:27" ht="13.2">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="14"/>
@@ -8423,7 +8425,7 @@
       <c r="Z218" s="2"/>
       <c r="AA218" s="2"/>
     </row>
-    <row r="219" spans="1:27" ht="13">
+    <row r="219" spans="1:27" ht="13.2">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="14"/>
@@ -8452,7 +8454,7 @@
       <c r="Z219" s="2"/>
       <c r="AA219" s="2"/>
     </row>
-    <row r="220" spans="1:27" ht="13">
+    <row r="220" spans="1:27" ht="13.2">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="14"/>
@@ -8481,7 +8483,7 @@
       <c r="Z220" s="2"/>
       <c r="AA220" s="2"/>
     </row>
-    <row r="221" spans="1:27" ht="13">
+    <row r="221" spans="1:27" ht="13.2">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="14"/>
@@ -8510,7 +8512,7 @@
       <c r="Z221" s="2"/>
       <c r="AA221" s="2"/>
     </row>
-    <row r="222" spans="1:27" ht="13">
+    <row r="222" spans="1:27" ht="13.2">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="14"/>
@@ -8539,7 +8541,7 @@
       <c r="Z222" s="2"/>
       <c r="AA222" s="2"/>
     </row>
-    <row r="223" spans="1:27" ht="13">
+    <row r="223" spans="1:27" ht="13.2">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="14"/>
@@ -8568,7 +8570,7 @@
       <c r="Z223" s="2"/>
       <c r="AA223" s="2"/>
     </row>
-    <row r="224" spans="1:27" ht="13">
+    <row r="224" spans="1:27" ht="13.2">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="14"/>
@@ -8597,7 +8599,7 @@
       <c r="Z224" s="2"/>
       <c r="AA224" s="2"/>
     </row>
-    <row r="225" spans="1:27" ht="13">
+    <row r="225" spans="1:27" ht="13.2">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="14"/>
@@ -8626,7 +8628,7 @@
       <c r="Z225" s="2"/>
       <c r="AA225" s="2"/>
     </row>
-    <row r="226" spans="1:27" ht="13">
+    <row r="226" spans="1:27" ht="13.2">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="14"/>
@@ -8655,7 +8657,7 @@
       <c r="Z226" s="2"/>
       <c r="AA226" s="2"/>
     </row>
-    <row r="227" spans="1:27" ht="13">
+    <row r="227" spans="1:27" ht="13.2">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="14"/>
@@ -8684,7 +8686,7 @@
       <c r="Z227" s="2"/>
       <c r="AA227" s="2"/>
     </row>
-    <row r="228" spans="1:27" ht="13">
+    <row r="228" spans="1:27" ht="13.2">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="14"/>
@@ -8713,7 +8715,7 @@
       <c r="Z228" s="2"/>
       <c r="AA228" s="2"/>
     </row>
-    <row r="229" spans="1:27" ht="13">
+    <row r="229" spans="1:27" ht="13.2">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="14"/>
@@ -8742,7 +8744,7 @@
       <c r="Z229" s="2"/>
       <c r="AA229" s="2"/>
     </row>
-    <row r="230" spans="1:27" ht="13">
+    <row r="230" spans="1:27" ht="13.2">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="14"/>
@@ -8771,7 +8773,7 @@
       <c r="Z230" s="2"/>
       <c r="AA230" s="2"/>
     </row>
-    <row r="231" spans="1:27" ht="13">
+    <row r="231" spans="1:27" ht="13.2">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="14"/>
@@ -8800,7 +8802,7 @@
       <c r="Z231" s="2"/>
       <c r="AA231" s="2"/>
     </row>
-    <row r="232" spans="1:27" ht="13">
+    <row r="232" spans="1:27" ht="13.2">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="14"/>
@@ -8829,7 +8831,7 @@
       <c r="Z232" s="2"/>
       <c r="AA232" s="2"/>
     </row>
-    <row r="233" spans="1:27" ht="13">
+    <row r="233" spans="1:27" ht="13.2">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="14"/>
@@ -8858,7 +8860,7 @@
       <c r="Z233" s="2"/>
       <c r="AA233" s="2"/>
     </row>
-    <row r="234" spans="1:27" ht="13">
+    <row r="234" spans="1:27" ht="13.2">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="14"/>
@@ -8887,7 +8889,7 @@
       <c r="Z234" s="2"/>
       <c r="AA234" s="2"/>
     </row>
-    <row r="235" spans="1:27" ht="13">
+    <row r="235" spans="1:27" ht="13.2">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="14"/>
@@ -8916,7 +8918,7 @@
       <c r="Z235" s="2"/>
       <c r="AA235" s="2"/>
     </row>
-    <row r="236" spans="1:27" ht="13">
+    <row r="236" spans="1:27" ht="13.2">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="14"/>
@@ -8945,7 +8947,7 @@
       <c r="Z236" s="2"/>
       <c r="AA236" s="2"/>
     </row>
-    <row r="237" spans="1:27" ht="13">
+    <row r="237" spans="1:27" ht="13.2">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="14"/>
@@ -8974,7 +8976,7 @@
       <c r="Z237" s="2"/>
       <c r="AA237" s="2"/>
     </row>
-    <row r="238" spans="1:27" ht="13">
+    <row r="238" spans="1:27" ht="13.2">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="14"/>
@@ -9003,7 +9005,7 @@
       <c r="Z238" s="2"/>
       <c r="AA238" s="2"/>
     </row>
-    <row r="239" spans="1:27" ht="13">
+    <row r="239" spans="1:27" ht="13.2">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="14"/>
@@ -9032,7 +9034,7 @@
       <c r="Z239" s="2"/>
       <c r="AA239" s="2"/>
     </row>
-    <row r="240" spans="1:27" ht="13">
+    <row r="240" spans="1:27" ht="13.2">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="14"/>
@@ -9061,7 +9063,7 @@
       <c r="Z240" s="2"/>
       <c r="AA240" s="2"/>
     </row>
-    <row r="241" spans="1:27" ht="13">
+    <row r="241" spans="1:27" ht="13.2">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="14"/>
@@ -9090,7 +9092,7 @@
       <c r="Z241" s="2"/>
       <c r="AA241" s="2"/>
     </row>
-    <row r="242" spans="1:27" ht="13">
+    <row r="242" spans="1:27" ht="13.2">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="14"/>
@@ -9119,7 +9121,7 @@
       <c r="Z242" s="2"/>
       <c r="AA242" s="2"/>
     </row>
-    <row r="243" spans="1:27" ht="13">
+    <row r="243" spans="1:27" ht="13.2">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="14"/>
@@ -9148,7 +9150,7 @@
       <c r="Z243" s="2"/>
       <c r="AA243" s="2"/>
     </row>
-    <row r="244" spans="1:27" ht="13">
+    <row r="244" spans="1:27" ht="13.2">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="14"/>
@@ -9177,7 +9179,7 @@
       <c r="Z244" s="2"/>
       <c r="AA244" s="2"/>
     </row>
-    <row r="245" spans="1:27" ht="13">
+    <row r="245" spans="1:27" ht="13.2">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="14"/>
@@ -9206,7 +9208,7 @@
       <c r="Z245" s="2"/>
       <c r="AA245" s="2"/>
     </row>
-    <row r="246" spans="1:27" ht="13">
+    <row r="246" spans="1:27" ht="13.2">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="14"/>
@@ -9235,7 +9237,7 @@
       <c r="Z246" s="2"/>
       <c r="AA246" s="2"/>
     </row>
-    <row r="247" spans="1:27" ht="13">
+    <row r="247" spans="1:27" ht="13.2">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="14"/>
@@ -9264,7 +9266,7 @@
       <c r="Z247" s="2"/>
       <c r="AA247" s="2"/>
     </row>
-    <row r="248" spans="1:27" ht="13">
+    <row r="248" spans="1:27" ht="13.2">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="14"/>
@@ -9293,7 +9295,7 @@
       <c r="Z248" s="2"/>
       <c r="AA248" s="2"/>
     </row>
-    <row r="249" spans="1:27" ht="13">
+    <row r="249" spans="1:27" ht="13.2">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="14"/>
@@ -9322,7 +9324,7 @@
       <c r="Z249" s="2"/>
       <c r="AA249" s="2"/>
     </row>
-    <row r="250" spans="1:27" ht="13">
+    <row r="250" spans="1:27" ht="13.2">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="14"/>
@@ -9351,7 +9353,7 @@
       <c r="Z250" s="2"/>
       <c r="AA250" s="2"/>
     </row>
-    <row r="251" spans="1:27" ht="13">
+    <row r="251" spans="1:27" ht="13.2">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="14"/>
@@ -9380,7 +9382,7 @@
       <c r="Z251" s="2"/>
       <c r="AA251" s="2"/>
     </row>
-    <row r="252" spans="1:27" ht="13">
+    <row r="252" spans="1:27" ht="13.2">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="14"/>
@@ -9409,7 +9411,7 @@
       <c r="Z252" s="2"/>
       <c r="AA252" s="2"/>
     </row>
-    <row r="253" spans="1:27" ht="13">
+    <row r="253" spans="1:27" ht="13.2">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="14"/>
@@ -9438,7 +9440,7 @@
       <c r="Z253" s="2"/>
       <c r="AA253" s="2"/>
     </row>
-    <row r="254" spans="1:27" ht="13">
+    <row r="254" spans="1:27" ht="13.2">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="14"/>
@@ -9467,7 +9469,7 @@
       <c r="Z254" s="2"/>
       <c r="AA254" s="2"/>
     </row>
-    <row r="255" spans="1:27" ht="13">
+    <row r="255" spans="1:27" ht="13.2">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="14"/>
@@ -9496,7 +9498,7 @@
       <c r="Z255" s="2"/>
       <c r="AA255" s="2"/>
     </row>
-    <row r="256" spans="1:27" ht="13">
+    <row r="256" spans="1:27" ht="13.2">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="14"/>
@@ -9525,7 +9527,7 @@
       <c r="Z256" s="2"/>
       <c r="AA256" s="2"/>
     </row>
-    <row r="257" spans="1:27" ht="13">
+    <row r="257" spans="1:27" ht="13.2">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="14"/>
@@ -9554,7 +9556,7 @@
       <c r="Z257" s="2"/>
       <c r="AA257" s="2"/>
     </row>
-    <row r="258" spans="1:27" ht="13">
+    <row r="258" spans="1:27" ht="13.2">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="14"/>
@@ -9583,7 +9585,7 @@
       <c r="Z258" s="2"/>
       <c r="AA258" s="2"/>
     </row>
-    <row r="259" spans="1:27" ht="13">
+    <row r="259" spans="1:27" ht="13.2">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="14"/>
@@ -9612,7 +9614,7 @@
       <c r="Z259" s="2"/>
       <c r="AA259" s="2"/>
     </row>
-    <row r="260" spans="1:27" ht="13">
+    <row r="260" spans="1:27" ht="13.2">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="14"/>
@@ -9641,7 +9643,7 @@
       <c r="Z260" s="2"/>
       <c r="AA260" s="2"/>
     </row>
-    <row r="261" spans="1:27" ht="13">
+    <row r="261" spans="1:27" ht="13.2">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="14"/>
@@ -9670,7 +9672,7 @@
       <c r="Z261" s="2"/>
       <c r="AA261" s="2"/>
     </row>
-    <row r="262" spans="1:27" ht="13">
+    <row r="262" spans="1:27" ht="13.2">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="14"/>
@@ -9699,7 +9701,7 @@
       <c r="Z262" s="2"/>
       <c r="AA262" s="2"/>
     </row>
-    <row r="263" spans="1:27" ht="13">
+    <row r="263" spans="1:27" ht="13.2">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="14"/>
@@ -9728,7 +9730,7 @@
       <c r="Z263" s="2"/>
       <c r="AA263" s="2"/>
     </row>
-    <row r="264" spans="1:27" ht="13">
+    <row r="264" spans="1:27" ht="13.2">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="14"/>
@@ -9757,7 +9759,7 @@
       <c r="Z264" s="2"/>
       <c r="AA264" s="2"/>
     </row>
-    <row r="265" spans="1:27" ht="13">
+    <row r="265" spans="1:27" ht="13.2">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="14"/>
@@ -9786,7 +9788,7 @@
       <c r="Z265" s="2"/>
       <c r="AA265" s="2"/>
     </row>
-    <row r="266" spans="1:27" ht="13">
+    <row r="266" spans="1:27" ht="13.2">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="14"/>
@@ -9815,7 +9817,7 @@
       <c r="Z266" s="2"/>
       <c r="AA266" s="2"/>
     </row>
-    <row r="267" spans="1:27" ht="13">
+    <row r="267" spans="1:27" ht="13.2">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="14"/>
@@ -9844,7 +9846,7 @@
       <c r="Z267" s="2"/>
       <c r="AA267" s="2"/>
     </row>
-    <row r="268" spans="1:27" ht="13">
+    <row r="268" spans="1:27" ht="13.2">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="14"/>
@@ -9873,7 +9875,7 @@
       <c r="Z268" s="2"/>
       <c r="AA268" s="2"/>
     </row>
-    <row r="269" spans="1:27" ht="13">
+    <row r="269" spans="1:27" ht="13.2">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="14"/>
@@ -9902,7 +9904,7 @@
       <c r="Z269" s="2"/>
       <c r="AA269" s="2"/>
     </row>
-    <row r="270" spans="1:27" ht="13">
+    <row r="270" spans="1:27" ht="13.2">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="14"/>
@@ -9931,7 +9933,7 @@
       <c r="Z270" s="2"/>
       <c r="AA270" s="2"/>
     </row>
-    <row r="271" spans="1:27" ht="13">
+    <row r="271" spans="1:27" ht="13.2">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="14"/>
@@ -9960,7 +9962,7 @@
       <c r="Z271" s="2"/>
       <c r="AA271" s="2"/>
     </row>
-    <row r="272" spans="1:27" ht="13">
+    <row r="272" spans="1:27" ht="13.2">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="14"/>
@@ -9989,7 +9991,7 @@
       <c r="Z272" s="2"/>
       <c r="AA272" s="2"/>
     </row>
-    <row r="273" spans="1:27" ht="13">
+    <row r="273" spans="1:27" ht="13.2">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="14"/>
@@ -10018,7 +10020,7 @@
       <c r="Z273" s="2"/>
       <c r="AA273" s="2"/>
     </row>
-    <row r="274" spans="1:27" ht="13">
+    <row r="274" spans="1:27" ht="13.2">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="14"/>
@@ -10047,7 +10049,7 @@
       <c r="Z274" s="2"/>
       <c r="AA274" s="2"/>
     </row>
-    <row r="275" spans="1:27" ht="13">
+    <row r="275" spans="1:27" ht="13.2">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="14"/>
@@ -10076,7 +10078,7 @@
       <c r="Z275" s="2"/>
       <c r="AA275" s="2"/>
     </row>
-    <row r="276" spans="1:27" ht="13">
+    <row r="276" spans="1:27" ht="13.2">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="14"/>
@@ -10105,7 +10107,7 @@
       <c r="Z276" s="2"/>
       <c r="AA276" s="2"/>
     </row>
-    <row r="277" spans="1:27" ht="13">
+    <row r="277" spans="1:27" ht="13.2">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="14"/>
@@ -10134,7 +10136,7 @@
       <c r="Z277" s="2"/>
       <c r="AA277" s="2"/>
     </row>
-    <row r="278" spans="1:27" ht="13">
+    <row r="278" spans="1:27" ht="13.2">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="14"/>
@@ -10163,7 +10165,7 @@
       <c r="Z278" s="2"/>
       <c r="AA278" s="2"/>
     </row>
-    <row r="279" spans="1:27" ht="13">
+    <row r="279" spans="1:27" ht="13.2">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="14"/>
@@ -10192,7 +10194,7 @@
       <c r="Z279" s="2"/>
       <c r="AA279" s="2"/>
     </row>
-    <row r="280" spans="1:27" ht="13">
+    <row r="280" spans="1:27" ht="13.2">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="14"/>
@@ -10221,7 +10223,7 @@
       <c r="Z280" s="2"/>
       <c r="AA280" s="2"/>
     </row>
-    <row r="281" spans="1:27" ht="13">
+    <row r="281" spans="1:27" ht="13.2">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="14"/>
@@ -10250,7 +10252,7 @@
       <c r="Z281" s="2"/>
       <c r="AA281" s="2"/>
     </row>
-    <row r="282" spans="1:27" ht="13">
+    <row r="282" spans="1:27" ht="13.2">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="14"/>
@@ -10279,7 +10281,7 @@
       <c r="Z282" s="2"/>
       <c r="AA282" s="2"/>
     </row>
-    <row r="283" spans="1:27" ht="13">
+    <row r="283" spans="1:27" ht="13.2">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="14"/>
@@ -10308,7 +10310,7 @@
       <c r="Z283" s="2"/>
       <c r="AA283" s="2"/>
     </row>
-    <row r="284" spans="1:27" ht="13">
+    <row r="284" spans="1:27" ht="13.2">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="14"/>
@@ -10337,7 +10339,7 @@
       <c r="Z284" s="2"/>
       <c r="AA284" s="2"/>
     </row>
-    <row r="285" spans="1:27" ht="13">
+    <row r="285" spans="1:27" ht="13.2">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="14"/>
@@ -10366,7 +10368,7 @@
       <c r="Z285" s="2"/>
       <c r="AA285" s="2"/>
     </row>
-    <row r="286" spans="1:27" ht="13">
+    <row r="286" spans="1:27" ht="13.2">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="14"/>
@@ -10395,7 +10397,7 @@
       <c r="Z286" s="2"/>
       <c r="AA286" s="2"/>
     </row>
-    <row r="287" spans="1:27" ht="13">
+    <row r="287" spans="1:27" ht="13.2">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="14"/>
@@ -10424,7 +10426,7 @@
       <c r="Z287" s="2"/>
       <c r="AA287" s="2"/>
     </row>
-    <row r="288" spans="1:27" ht="13">
+    <row r="288" spans="1:27" ht="13.2">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="14"/>
@@ -10453,7 +10455,7 @@
       <c r="Z288" s="2"/>
       <c r="AA288" s="2"/>
     </row>
-    <row r="289" spans="1:27" ht="13">
+    <row r="289" spans="1:27" ht="13.2">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="14"/>
@@ -10482,7 +10484,7 @@
       <c r="Z289" s="2"/>
       <c r="AA289" s="2"/>
     </row>
-    <row r="290" spans="1:27" ht="13">
+    <row r="290" spans="1:27" ht="13.2">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="14"/>
@@ -10511,7 +10513,7 @@
       <c r="Z290" s="2"/>
       <c r="AA290" s="2"/>
     </row>
-    <row r="291" spans="1:27" ht="13">
+    <row r="291" spans="1:27" ht="13.2">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="14"/>
@@ -10540,7 +10542,7 @@
       <c r="Z291" s="2"/>
       <c r="AA291" s="2"/>
     </row>
-    <row r="292" spans="1:27" ht="13">
+    <row r="292" spans="1:27" ht="13.2">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="14"/>
@@ -10569,7 +10571,7 @@
       <c r="Z292" s="2"/>
       <c r="AA292" s="2"/>
     </row>
-    <row r="293" spans="1:27" ht="13">
+    <row r="293" spans="1:27" ht="13.2">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="14"/>
@@ -10598,7 +10600,7 @@
       <c r="Z293" s="2"/>
       <c r="AA293" s="2"/>
     </row>
-    <row r="294" spans="1:27" ht="13">
+    <row r="294" spans="1:27" ht="13.2">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="14"/>
@@ -10627,7 +10629,7 @@
       <c r="Z294" s="2"/>
       <c r="AA294" s="2"/>
     </row>
-    <row r="295" spans="1:27" ht="13">
+    <row r="295" spans="1:27" ht="13.2">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="14"/>
@@ -10656,7 +10658,7 @@
       <c r="Z295" s="2"/>
       <c r="AA295" s="2"/>
     </row>
-    <row r="296" spans="1:27" ht="13">
+    <row r="296" spans="1:27" ht="13.2">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="14"/>
@@ -10685,7 +10687,7 @@
       <c r="Z296" s="2"/>
       <c r="AA296" s="2"/>
     </row>
-    <row r="297" spans="1:27" ht="13">
+    <row r="297" spans="1:27" ht="13.2">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="14"/>
@@ -10714,7 +10716,7 @@
       <c r="Z297" s="2"/>
       <c r="AA297" s="2"/>
     </row>
-    <row r="298" spans="1:27" ht="13">
+    <row r="298" spans="1:27" ht="13.2">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="14"/>
@@ -10743,7 +10745,7 @@
       <c r="Z298" s="2"/>
       <c r="AA298" s="2"/>
     </row>
-    <row r="299" spans="1:27" ht="13">
+    <row r="299" spans="1:27" ht="13.2">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="14"/>
@@ -10772,7 +10774,7 @@
       <c r="Z299" s="2"/>
       <c r="AA299" s="2"/>
     </row>
-    <row r="300" spans="1:27" ht="13">
+    <row r="300" spans="1:27" ht="13.2">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="14"/>
@@ -10801,7 +10803,7 @@
       <c r="Z300" s="2"/>
       <c r="AA300" s="2"/>
     </row>
-    <row r="301" spans="1:27" ht="13">
+    <row r="301" spans="1:27" ht="13.2">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="14"/>
@@ -10830,7 +10832,7 @@
       <c r="Z301" s="2"/>
       <c r="AA301" s="2"/>
     </row>
-    <row r="302" spans="1:27" ht="13">
+    <row r="302" spans="1:27" ht="13.2">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="14"/>
@@ -10859,7 +10861,7 @@
       <c r="Z302" s="2"/>
       <c r="AA302" s="2"/>
     </row>
-    <row r="303" spans="1:27" ht="13">
+    <row r="303" spans="1:27" ht="13.2">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="14"/>
@@ -10888,7 +10890,7 @@
       <c r="Z303" s="2"/>
       <c r="AA303" s="2"/>
     </row>
-    <row r="304" spans="1:27" ht="13">
+    <row r="304" spans="1:27" ht="13.2">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="14"/>
@@ -10917,7 +10919,7 @@
       <c r="Z304" s="2"/>
       <c r="AA304" s="2"/>
     </row>
-    <row r="305" spans="1:27" ht="13">
+    <row r="305" spans="1:27" ht="13.2">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="14"/>
@@ -10946,7 +10948,7 @@
       <c r="Z305" s="2"/>
       <c r="AA305" s="2"/>
     </row>
-    <row r="306" spans="1:27" ht="13">
+    <row r="306" spans="1:27" ht="13.2">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="14"/>
@@ -10975,7 +10977,7 @@
       <c r="Z306" s="2"/>
       <c r="AA306" s="2"/>
     </row>
-    <row r="307" spans="1:27" ht="13">
+    <row r="307" spans="1:27" ht="13.2">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="14"/>
@@ -11004,7 +11006,7 @@
       <c r="Z307" s="2"/>
       <c r="AA307" s="2"/>
     </row>
-    <row r="308" spans="1:27" ht="13">
+    <row r="308" spans="1:27" ht="13.2">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="14"/>
@@ -11033,7 +11035,7 @@
       <c r="Z308" s="2"/>
       <c r="AA308" s="2"/>
     </row>
-    <row r="309" spans="1:27" ht="13">
+    <row r="309" spans="1:27" ht="13.2">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="14"/>
@@ -11062,7 +11064,7 @@
       <c r="Z309" s="2"/>
       <c r="AA309" s="2"/>
     </row>
-    <row r="310" spans="1:27" ht="13">
+    <row r="310" spans="1:27" ht="13.2">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="14"/>
@@ -11091,7 +11093,7 @@
       <c r="Z310" s="2"/>
       <c r="AA310" s="2"/>
     </row>
-    <row r="311" spans="1:27" ht="13">
+    <row r="311" spans="1:27" ht="13.2">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="14"/>
@@ -11120,7 +11122,7 @@
       <c r="Z311" s="2"/>
       <c r="AA311" s="2"/>
     </row>
-    <row r="312" spans="1:27" ht="13">
+    <row r="312" spans="1:27" ht="13.2">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="14"/>
@@ -11149,7 +11151,7 @@
       <c r="Z312" s="2"/>
       <c r="AA312" s="2"/>
     </row>
-    <row r="313" spans="1:27" ht="13">
+    <row r="313" spans="1:27" ht="13.2">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="14"/>
@@ -11178,7 +11180,7 @@
       <c r="Z313" s="2"/>
       <c r="AA313" s="2"/>
     </row>
-    <row r="314" spans="1:27" ht="13">
+    <row r="314" spans="1:27" ht="13.2">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="14"/>
@@ -11207,7 +11209,7 @@
       <c r="Z314" s="2"/>
       <c r="AA314" s="2"/>
     </row>
-    <row r="315" spans="1:27" ht="13">
+    <row r="315" spans="1:27" ht="13.2">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="14"/>
@@ -11236,7 +11238,7 @@
       <c r="Z315" s="2"/>
       <c r="AA315" s="2"/>
     </row>
-    <row r="316" spans="1:27" ht="13">
+    <row r="316" spans="1:27" ht="13.2">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="14"/>
@@ -11265,7 +11267,7 @@
       <c r="Z316" s="2"/>
       <c r="AA316" s="2"/>
     </row>
-    <row r="317" spans="1:27" ht="13">
+    <row r="317" spans="1:27" ht="13.2">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="14"/>
@@ -11294,7 +11296,7 @@
       <c r="Z317" s="2"/>
       <c r="AA317" s="2"/>
     </row>
-    <row r="318" spans="1:27" ht="13">
+    <row r="318" spans="1:27" ht="13.2">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="14"/>
@@ -11323,7 +11325,7 @@
       <c r="Z318" s="2"/>
       <c r="AA318" s="2"/>
     </row>
-    <row r="319" spans="1:27" ht="13">
+    <row r="319" spans="1:27" ht="13.2">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="14"/>
@@ -11352,7 +11354,7 @@
       <c r="Z319" s="2"/>
       <c r="AA319" s="2"/>
     </row>
-    <row r="320" spans="1:27" ht="13">
+    <row r="320" spans="1:27" ht="13.2">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="14"/>
@@ -11381,7 +11383,7 @@
       <c r="Z320" s="2"/>
       <c r="AA320" s="2"/>
     </row>
-    <row r="321" spans="1:27" ht="13">
+    <row r="321" spans="1:27" ht="13.2">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="14"/>
@@ -11410,7 +11412,7 @@
       <c r="Z321" s="2"/>
       <c r="AA321" s="2"/>
     </row>
-    <row r="322" spans="1:27" ht="13">
+    <row r="322" spans="1:27" ht="13.2">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="14"/>
@@ -11439,7 +11441,7 @@
       <c r="Z322" s="2"/>
       <c r="AA322" s="2"/>
     </row>
-    <row r="323" spans="1:27" ht="13">
+    <row r="323" spans="1:27" ht="13.2">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="14"/>
@@ -11468,7 +11470,7 @@
       <c r="Z323" s="2"/>
       <c r="AA323" s="2"/>
     </row>
-    <row r="324" spans="1:27" ht="13">
+    <row r="324" spans="1:27" ht="13.2">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="14"/>
@@ -11497,7 +11499,7 @@
       <c r="Z324" s="2"/>
       <c r="AA324" s="2"/>
     </row>
-    <row r="325" spans="1:27" ht="13">
+    <row r="325" spans="1:27" ht="13.2">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="14"/>
@@ -11526,7 +11528,7 @@
       <c r="Z325" s="2"/>
       <c r="AA325" s="2"/>
     </row>
-    <row r="326" spans="1:27" ht="13">
+    <row r="326" spans="1:27" ht="13.2">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="14"/>
@@ -11555,7 +11557,7 @@
       <c r="Z326" s="2"/>
       <c r="AA326" s="2"/>
     </row>
-    <row r="327" spans="1:27" ht="13">
+    <row r="327" spans="1:27" ht="13.2">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="14"/>
@@ -11584,7 +11586,7 @@
       <c r="Z327" s="2"/>
       <c r="AA327" s="2"/>
     </row>
-    <row r="328" spans="1:27" ht="13">
+    <row r="328" spans="1:27" ht="13.2">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="14"/>
@@ -11613,7 +11615,7 @@
       <c r="Z328" s="2"/>
       <c r="AA328" s="2"/>
     </row>
-    <row r="329" spans="1:27" ht="13">
+    <row r="329" spans="1:27" ht="13.2">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="14"/>
@@ -11642,7 +11644,7 @@
       <c r="Z329" s="2"/>
       <c r="AA329" s="2"/>
     </row>
-    <row r="330" spans="1:27" ht="13">
+    <row r="330" spans="1:27" ht="13.2">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="14"/>
@@ -11671,7 +11673,7 @@
       <c r="Z330" s="2"/>
       <c r="AA330" s="2"/>
     </row>
-    <row r="331" spans="1:27" ht="13">
+    <row r="331" spans="1:27" ht="13.2">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="14"/>
@@ -11700,7 +11702,7 @@
       <c r="Z331" s="2"/>
       <c r="AA331" s="2"/>
     </row>
-    <row r="332" spans="1:27" ht="13">
+    <row r="332" spans="1:27" ht="13.2">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="14"/>
@@ -11729,7 +11731,7 @@
       <c r="Z332" s="2"/>
       <c r="AA332" s="2"/>
     </row>
-    <row r="333" spans="1:27" ht="13">
+    <row r="333" spans="1:27" ht="13.2">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="14"/>
@@ -11758,7 +11760,7 @@
       <c r="Z333" s="2"/>
       <c r="AA333" s="2"/>
     </row>
-    <row r="334" spans="1:27" ht="13">
+    <row r="334" spans="1:27" ht="13.2">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="14"/>
@@ -11787,7 +11789,7 @@
       <c r="Z334" s="2"/>
       <c r="AA334" s="2"/>
     </row>
-    <row r="335" spans="1:27" ht="13">
+    <row r="335" spans="1:27" ht="13.2">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="14"/>
@@ -11816,7 +11818,7 @@
       <c r="Z335" s="2"/>
       <c r="AA335" s="2"/>
     </row>
-    <row r="336" spans="1:27" ht="13">
+    <row r="336" spans="1:27" ht="13.2">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="14"/>
@@ -11845,7 +11847,7 @@
       <c r="Z336" s="2"/>
       <c r="AA336" s="2"/>
     </row>
-    <row r="337" spans="1:27" ht="13">
+    <row r="337" spans="1:27" ht="13.2">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="14"/>
@@ -11874,7 +11876,7 @@
       <c r="Z337" s="2"/>
       <c r="AA337" s="2"/>
     </row>
-    <row r="338" spans="1:27" ht="13">
+    <row r="338" spans="1:27" ht="13.2">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="14"/>
@@ -11903,7 +11905,7 @@
       <c r="Z338" s="2"/>
       <c r="AA338" s="2"/>
     </row>
-    <row r="339" spans="1:27" ht="13">
+    <row r="339" spans="1:27" ht="13.2">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="14"/>
@@ -11932,7 +11934,7 @@
       <c r="Z339" s="2"/>
       <c r="AA339" s="2"/>
     </row>
-    <row r="340" spans="1:27" ht="13">
+    <row r="340" spans="1:27" ht="13.2">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="14"/>
@@ -11961,7 +11963,7 @@
       <c r="Z340" s="2"/>
       <c r="AA340" s="2"/>
     </row>
-    <row r="341" spans="1:27" ht="13">
+    <row r="341" spans="1:27" ht="13.2">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="14"/>
@@ -11990,7 +11992,7 @@
       <c r="Z341" s="2"/>
       <c r="AA341" s="2"/>
     </row>
-    <row r="342" spans="1:27" ht="13">
+    <row r="342" spans="1:27" ht="13.2">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="14"/>
@@ -12019,7 +12021,7 @@
       <c r="Z342" s="2"/>
       <c r="AA342" s="2"/>
     </row>
-    <row r="343" spans="1:27" ht="13">
+    <row r="343" spans="1:27" ht="13.2">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="14"/>
@@ -12048,7 +12050,7 @@
       <c r="Z343" s="2"/>
       <c r="AA343" s="2"/>
     </row>
-    <row r="344" spans="1:27" ht="13">
+    <row r="344" spans="1:27" ht="13.2">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="14"/>
@@ -12077,7 +12079,7 @@
       <c r="Z344" s="2"/>
       <c r="AA344" s="2"/>
     </row>
-    <row r="345" spans="1:27" ht="13">
+    <row r="345" spans="1:27" ht="13.2">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="14"/>
@@ -12106,7 +12108,7 @@
       <c r="Z345" s="2"/>
       <c r="AA345" s="2"/>
     </row>
-    <row r="346" spans="1:27" ht="13">
+    <row r="346" spans="1:27" ht="13.2">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="14"/>
@@ -12135,7 +12137,7 @@
       <c r="Z346" s="2"/>
       <c r="AA346" s="2"/>
     </row>
-    <row r="347" spans="1:27" ht="13">
+    <row r="347" spans="1:27" ht="13.2">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="14"/>
@@ -12164,7 +12166,7 @@
       <c r="Z347" s="2"/>
       <c r="AA347" s="2"/>
     </row>
-    <row r="348" spans="1:27" ht="13">
+    <row r="348" spans="1:27" ht="13.2">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="14"/>
@@ -12193,7 +12195,7 @@
       <c r="Z348" s="2"/>
       <c r="AA348" s="2"/>
     </row>
-    <row r="349" spans="1:27" ht="13">
+    <row r="349" spans="1:27" ht="13.2">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="14"/>
@@ -12222,7 +12224,7 @@
       <c r="Z349" s="2"/>
       <c r="AA349" s="2"/>
     </row>
-    <row r="350" spans="1:27" ht="13">
+    <row r="350" spans="1:27" ht="13.2">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="14"/>
@@ -12251,7 +12253,7 @@
       <c r="Z350" s="2"/>
       <c r="AA350" s="2"/>
     </row>
-    <row r="351" spans="1:27" ht="13">
+    <row r="351" spans="1:27" ht="13.2">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="14"/>
@@ -12280,7 +12282,7 @@
       <c r="Z351" s="2"/>
       <c r="AA351" s="2"/>
     </row>
-    <row r="352" spans="1:27" ht="13">
+    <row r="352" spans="1:27" ht="13.2">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="14"/>
@@ -12309,7 +12311,7 @@
       <c r="Z352" s="2"/>
       <c r="AA352" s="2"/>
     </row>
-    <row r="353" spans="1:27" ht="13">
+    <row r="353" spans="1:27" ht="13.2">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="14"/>
@@ -12338,7 +12340,7 @@
       <c r="Z353" s="2"/>
       <c r="AA353" s="2"/>
     </row>
-    <row r="354" spans="1:27" ht="13">
+    <row r="354" spans="1:27" ht="13.2">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="14"/>
@@ -12367,7 +12369,7 @@
       <c r="Z354" s="2"/>
       <c r="AA354" s="2"/>
     </row>
-    <row r="355" spans="1:27" ht="13">
+    <row r="355" spans="1:27" ht="13.2">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="14"/>
@@ -12396,7 +12398,7 @@
       <c r="Z355" s="2"/>
       <c r="AA355" s="2"/>
     </row>
-    <row r="356" spans="1:27" ht="13">
+    <row r="356" spans="1:27" ht="13.2">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="14"/>
@@ -12425,7 +12427,7 @@
       <c r="Z356" s="2"/>
       <c r="AA356" s="2"/>
     </row>
-    <row r="357" spans="1:27" ht="13">
+    <row r="357" spans="1:27" ht="13.2">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="14"/>
@@ -12454,7 +12456,7 @@
       <c r="Z357" s="2"/>
       <c r="AA357" s="2"/>
     </row>
-    <row r="358" spans="1:27" ht="13">
+    <row r="358" spans="1:27" ht="13.2">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="14"/>
@@ -12483,7 +12485,7 @@
       <c r="Z358" s="2"/>
       <c r="AA358" s="2"/>
     </row>
-    <row r="359" spans="1:27" ht="13">
+    <row r="359" spans="1:27" ht="13.2">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="14"/>
@@ -12512,7 +12514,7 @@
       <c r="Z359" s="2"/>
       <c r="AA359" s="2"/>
     </row>
-    <row r="360" spans="1:27" ht="13">
+    <row r="360" spans="1:27" ht="13.2">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="14"/>
@@ -12541,7 +12543,7 @@
       <c r="Z360" s="2"/>
       <c r="AA360" s="2"/>
     </row>
-    <row r="361" spans="1:27" ht="13">
+    <row r="361" spans="1:27" ht="13.2">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="14"/>
@@ -12570,7 +12572,7 @@
       <c r="Z361" s="2"/>
       <c r="AA361" s="2"/>
     </row>
-    <row r="362" spans="1:27" ht="13">
+    <row r="362" spans="1:27" ht="13.2">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="14"/>
@@ -12599,7 +12601,7 @@
       <c r="Z362" s="2"/>
       <c r="AA362" s="2"/>
     </row>
-    <row r="363" spans="1:27" ht="13">
+    <row r="363" spans="1:27" ht="13.2">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="14"/>
@@ -12628,7 +12630,7 @@
       <c r="Z363" s="2"/>
       <c r="AA363" s="2"/>
     </row>
-    <row r="364" spans="1:27" ht="13">
+    <row r="364" spans="1:27" ht="13.2">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="14"/>
@@ -12657,7 +12659,7 @@
       <c r="Z364" s="2"/>
       <c r="AA364" s="2"/>
     </row>
-    <row r="365" spans="1:27" ht="13">
+    <row r="365" spans="1:27" ht="13.2">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="14"/>
@@ -12686,7 +12688,7 @@
       <c r="Z365" s="2"/>
       <c r="AA365" s="2"/>
     </row>
-    <row r="366" spans="1:27" ht="13">
+    <row r="366" spans="1:27" ht="13.2">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="14"/>
@@ -12715,7 +12717,7 @@
       <c r="Z366" s="2"/>
       <c r="AA366" s="2"/>
     </row>
-    <row r="367" spans="1:27" ht="13">
+    <row r="367" spans="1:27" ht="13.2">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="14"/>
@@ -12744,7 +12746,7 @@
       <c r="Z367" s="2"/>
       <c r="AA367" s="2"/>
     </row>
-    <row r="368" spans="1:27" ht="13">
+    <row r="368" spans="1:27" ht="13.2">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="14"/>
@@ -12773,7 +12775,7 @@
       <c r="Z368" s="2"/>
       <c r="AA368" s="2"/>
     </row>
-    <row r="369" spans="1:27" ht="13">
+    <row r="369" spans="1:27" ht="13.2">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="14"/>
@@ -12802,7 +12804,7 @@
       <c r="Z369" s="2"/>
       <c r="AA369" s="2"/>
     </row>
-    <row r="370" spans="1:27" ht="13">
+    <row r="370" spans="1:27" ht="13.2">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="14"/>
@@ -12831,7 +12833,7 @@
       <c r="Z370" s="2"/>
       <c r="AA370" s="2"/>
     </row>
-    <row r="371" spans="1:27" ht="13">
+    <row r="371" spans="1:27" ht="13.2">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="14"/>
@@ -12860,7 +12862,7 @@
       <c r="Z371" s="2"/>
       <c r="AA371" s="2"/>
     </row>
-    <row r="372" spans="1:27" ht="13">
+    <row r="372" spans="1:27" ht="13.2">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="14"/>
@@ -12889,7 +12891,7 @@
       <c r="Z372" s="2"/>
       <c r="AA372" s="2"/>
     </row>
-    <row r="373" spans="1:27" ht="13">
+    <row r="373" spans="1:27" ht="13.2">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="14"/>
@@ -12918,7 +12920,7 @@
       <c r="Z373" s="2"/>
       <c r="AA373" s="2"/>
     </row>
-    <row r="374" spans="1:27" ht="13">
+    <row r="374" spans="1:27" ht="13.2">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="14"/>
@@ -12947,7 +12949,7 @@
       <c r="Z374" s="2"/>
       <c r="AA374" s="2"/>
     </row>
-    <row r="375" spans="1:27" ht="13">
+    <row r="375" spans="1:27" ht="13.2">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="14"/>
@@ -12976,7 +12978,7 @@
       <c r="Z375" s="2"/>
       <c r="AA375" s="2"/>
     </row>
-    <row r="376" spans="1:27" ht="13">
+    <row r="376" spans="1:27" ht="13.2">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="14"/>
@@ -13005,7 +13007,7 @@
       <c r="Z376" s="2"/>
       <c r="AA376" s="2"/>
     </row>
-    <row r="377" spans="1:27" ht="13">
+    <row r="377" spans="1:27" ht="13.2">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="14"/>
@@ -13034,7 +13036,7 @@
       <c r="Z377" s="2"/>
       <c r="AA377" s="2"/>
     </row>
-    <row r="378" spans="1:27" ht="13">
+    <row r="378" spans="1:27" ht="13.2">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="14"/>
@@ -13063,7 +13065,7 @@
       <c r="Z378" s="2"/>
       <c r="AA378" s="2"/>
     </row>
-    <row r="379" spans="1:27" ht="13">
+    <row r="379" spans="1:27" ht="13.2">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="14"/>
@@ -13092,7 +13094,7 @@
       <c r="Z379" s="2"/>
       <c r="AA379" s="2"/>
     </row>
-    <row r="380" spans="1:27" ht="13">
+    <row r="380" spans="1:27" ht="13.2">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="14"/>
@@ -13121,7 +13123,7 @@
       <c r="Z380" s="2"/>
       <c r="AA380" s="2"/>
     </row>
-    <row r="381" spans="1:27" ht="13">
+    <row r="381" spans="1:27" ht="13.2">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="14"/>
@@ -13150,7 +13152,7 @@
       <c r="Z381" s="2"/>
       <c r="AA381" s="2"/>
     </row>
-    <row r="382" spans="1:27" ht="13">
+    <row r="382" spans="1:27" ht="13.2">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="14"/>
@@ -13179,7 +13181,7 @@
       <c r="Z382" s="2"/>
       <c r="AA382" s="2"/>
     </row>
-    <row r="383" spans="1:27" ht="13">
+    <row r="383" spans="1:27" ht="13.2">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="14"/>
@@ -13208,7 +13210,7 @@
       <c r="Z383" s="2"/>
       <c r="AA383" s="2"/>
     </row>
-    <row r="384" spans="1:27" ht="13">
+    <row r="384" spans="1:27" ht="13.2">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="14"/>
@@ -13237,7 +13239,7 @@
       <c r="Z384" s="2"/>
       <c r="AA384" s="2"/>
     </row>
-    <row r="385" spans="1:27" ht="13">
+    <row r="385" spans="1:27" ht="13.2">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="14"/>
@@ -13266,7 +13268,7 @@
       <c r="Z385" s="2"/>
       <c r="AA385" s="2"/>
     </row>
-    <row r="386" spans="1:27" ht="13">
+    <row r="386" spans="1:27" ht="13.2">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="14"/>
@@ -13295,7 +13297,7 @@
       <c r="Z386" s="2"/>
       <c r="AA386" s="2"/>
     </row>
-    <row r="387" spans="1:27" ht="13">
+    <row r="387" spans="1:27" ht="13.2">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="14"/>
@@ -13324,7 +13326,7 @@
       <c r="Z387" s="2"/>
       <c r="AA387" s="2"/>
     </row>
-    <row r="388" spans="1:27" ht="13">
+    <row r="388" spans="1:27" ht="13.2">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="14"/>
@@ -13353,7 +13355,7 @@
       <c r="Z388" s="2"/>
       <c r="AA388" s="2"/>
     </row>
-    <row r="389" spans="1:27" ht="13">
+    <row r="389" spans="1:27" ht="13.2">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="14"/>
@@ -13382,7 +13384,7 @@
       <c r="Z389" s="2"/>
       <c r="AA389" s="2"/>
     </row>
-    <row r="390" spans="1:27" ht="13">
+    <row r="390" spans="1:27" ht="13.2">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="14"/>
@@ -13411,7 +13413,7 @@
       <c r="Z390" s="2"/>
       <c r="AA390" s="2"/>
     </row>
-    <row r="391" spans="1:27" ht="13">
+    <row r="391" spans="1:27" ht="13.2">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="14"/>
@@ -13440,7 +13442,7 @@
       <c r="Z391" s="2"/>
       <c r="AA391" s="2"/>
     </row>
-    <row r="392" spans="1:27" ht="13">
+    <row r="392" spans="1:27" ht="13.2">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="14"/>
@@ -13469,7 +13471,7 @@
       <c r="Z392" s="2"/>
       <c r="AA392" s="2"/>
     </row>
-    <row r="393" spans="1:27" ht="13">
+    <row r="393" spans="1:27" ht="13.2">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="14"/>
@@ -13498,7 +13500,7 @@
       <c r="Z393" s="2"/>
       <c r="AA393" s="2"/>
     </row>
-    <row r="394" spans="1:27" ht="13">
+    <row r="394" spans="1:27" ht="13.2">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="14"/>
@@ -13527,7 +13529,7 @@
       <c r="Z394" s="2"/>
       <c r="AA394" s="2"/>
     </row>
-    <row r="395" spans="1:27" ht="13">
+    <row r="395" spans="1:27" ht="13.2">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="14"/>
@@ -13556,7 +13558,7 @@
       <c r="Z395" s="2"/>
       <c r="AA395" s="2"/>
     </row>
-    <row r="396" spans="1:27" ht="13">
+    <row r="396" spans="1:27" ht="13.2">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="14"/>
@@ -13585,7 +13587,7 @@
       <c r="Z396" s="2"/>
       <c r="AA396" s="2"/>
     </row>
-    <row r="397" spans="1:27" ht="13">
+    <row r="397" spans="1:27" ht="13.2">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="14"/>
@@ -13614,7 +13616,7 @@
       <c r="Z397" s="2"/>
       <c r="AA397" s="2"/>
     </row>
-    <row r="398" spans="1:27" ht="13">
+    <row r="398" spans="1:27" ht="13.2">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="14"/>
@@ -13643,7 +13645,7 @@
       <c r="Z398" s="2"/>
       <c r="AA398" s="2"/>
     </row>
-    <row r="399" spans="1:27" ht="13">
+    <row r="399" spans="1:27" ht="13.2">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="14"/>
@@ -13672,7 +13674,7 @@
       <c r="Z399" s="2"/>
       <c r="AA399" s="2"/>
     </row>
-    <row r="400" spans="1:27" ht="13">
+    <row r="400" spans="1:27" ht="13.2">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="14"/>
@@ -13701,7 +13703,7 @@
       <c r="Z400" s="2"/>
       <c r="AA400" s="2"/>
     </row>
-    <row r="401" spans="1:27" ht="13">
+    <row r="401" spans="1:27" ht="13.2">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="14"/>
@@ -13730,7 +13732,7 @@
       <c r="Z401" s="2"/>
       <c r="AA401" s="2"/>
     </row>
-    <row r="402" spans="1:27" ht="13">
+    <row r="402" spans="1:27" ht="13.2">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="14"/>
@@ -13759,7 +13761,7 @@
       <c r="Z402" s="2"/>
       <c r="AA402" s="2"/>
     </row>
-    <row r="403" spans="1:27" ht="13">
+    <row r="403" spans="1:27" ht="13.2">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="14"/>
@@ -13788,7 +13790,7 @@
       <c r="Z403" s="2"/>
       <c r="AA403" s="2"/>
     </row>
-    <row r="404" spans="1:27" ht="13">
+    <row r="404" spans="1:27" ht="13.2">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="14"/>
@@ -13817,7 +13819,7 @@
       <c r="Z404" s="2"/>
       <c r="AA404" s="2"/>
     </row>
-    <row r="405" spans="1:27" ht="13">
+    <row r="405" spans="1:27" ht="13.2">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="14"/>
@@ -13846,7 +13848,7 @@
       <c r="Z405" s="2"/>
       <c r="AA405" s="2"/>
     </row>
-    <row r="406" spans="1:27" ht="13">
+    <row r="406" spans="1:27" ht="13.2">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="14"/>
@@ -13875,7 +13877,7 @@
       <c r="Z406" s="2"/>
       <c r="AA406" s="2"/>
     </row>
-    <row r="407" spans="1:27" ht="13">
+    <row r="407" spans="1:27" ht="13.2">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="14"/>
@@ -13904,7 +13906,7 @@
       <c r="Z407" s="2"/>
       <c r="AA407" s="2"/>
     </row>
-    <row r="408" spans="1:27" ht="13">
+    <row r="408" spans="1:27" ht="13.2">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="14"/>
@@ -13933,7 +13935,7 @@
       <c r="Z408" s="2"/>
       <c r="AA408" s="2"/>
     </row>
-    <row r="409" spans="1:27" ht="13">
+    <row r="409" spans="1:27" ht="13.2">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="14"/>
@@ -13962,7 +13964,7 @@
       <c r="Z409" s="2"/>
       <c r="AA409" s="2"/>
     </row>
-    <row r="410" spans="1:27" ht="13">
+    <row r="410" spans="1:27" ht="13.2">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="14"/>
@@ -13991,7 +13993,7 @@
       <c r="Z410" s="2"/>
       <c r="AA410" s="2"/>
     </row>
-    <row r="411" spans="1:27" ht="13">
+    <row r="411" spans="1:27" ht="13.2">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="14"/>
@@ -14020,7 +14022,7 @@
       <c r="Z411" s="2"/>
       <c r="AA411" s="2"/>
     </row>
-    <row r="412" spans="1:27" ht="13">
+    <row r="412" spans="1:27" ht="13.2">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="14"/>
@@ -14049,7 +14051,7 @@
       <c r="Z412" s="2"/>
       <c r="AA412" s="2"/>
     </row>
-    <row r="413" spans="1:27" ht="13">
+    <row r="413" spans="1:27" ht="13.2">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="14"/>
@@ -14078,7 +14080,7 @@
       <c r="Z413" s="2"/>
       <c r="AA413" s="2"/>
     </row>
-    <row r="414" spans="1:27" ht="13">
+    <row r="414" spans="1:27" ht="13.2">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="14"/>
@@ -14107,7 +14109,7 @@
       <c r="Z414" s="2"/>
       <c r="AA414" s="2"/>
     </row>
-    <row r="415" spans="1:27" ht="13">
+    <row r="415" spans="1:27" ht="13.2">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="14"/>
@@ -14136,7 +14138,7 @@
       <c r="Z415" s="2"/>
       <c r="AA415" s="2"/>
     </row>
-    <row r="416" spans="1:27" ht="13">
+    <row r="416" spans="1:27" ht="13.2">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="14"/>
@@ -14165,7 +14167,7 @@
       <c r="Z416" s="2"/>
       <c r="AA416" s="2"/>
     </row>
-    <row r="417" spans="1:27" ht="13">
+    <row r="417" spans="1:27" ht="13.2">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="14"/>
@@ -14194,7 +14196,7 @@
       <c r="Z417" s="2"/>
       <c r="AA417" s="2"/>
     </row>
-    <row r="418" spans="1:27" ht="13">
+    <row r="418" spans="1:27" ht="13.2">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="14"/>
@@ -14223,7 +14225,7 @@
       <c r="Z418" s="2"/>
       <c r="AA418" s="2"/>
     </row>
-    <row r="419" spans="1:27" ht="13">
+    <row r="419" spans="1:27" ht="13.2">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="14"/>
@@ -14252,7 +14254,7 @@
       <c r="Z419" s="2"/>
       <c r="AA419" s="2"/>
     </row>
-    <row r="420" spans="1:27" ht="13">
+    <row r="420" spans="1:27" ht="13.2">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="14"/>
@@ -14281,7 +14283,7 @@
       <c r="Z420" s="2"/>
       <c r="AA420" s="2"/>
     </row>
-    <row r="421" spans="1:27" ht="13">
+    <row r="421" spans="1:27" ht="13.2">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="14"/>
@@ -14310,7 +14312,7 @@
       <c r="Z421" s="2"/>
       <c r="AA421" s="2"/>
     </row>
-    <row r="422" spans="1:27" ht="13">
+    <row r="422" spans="1:27" ht="13.2">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="14"/>
@@ -14339,7 +14341,7 @@
       <c r="Z422" s="2"/>
       <c r="AA422" s="2"/>
     </row>
-    <row r="423" spans="1:27" ht="13">
+    <row r="423" spans="1:27" ht="13.2">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="14"/>
@@ -14368,7 +14370,7 @@
       <c r="Z423" s="2"/>
       <c r="AA423" s="2"/>
     </row>
-    <row r="424" spans="1:27" ht="13">
+    <row r="424" spans="1:27" ht="13.2">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="14"/>
@@ -14397,7 +14399,7 @@
       <c r="Z424" s="2"/>
       <c r="AA424" s="2"/>
     </row>
-    <row r="425" spans="1:27" ht="13">
+    <row r="425" spans="1:27" ht="13.2">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="14"/>
@@ -14426,7 +14428,7 @@
       <c r="Z425" s="2"/>
       <c r="AA425" s="2"/>
     </row>
-    <row r="426" spans="1:27" ht="13">
+    <row r="426" spans="1:27" ht="13.2">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="14"/>
@@ -14455,7 +14457,7 @@
       <c r="Z426" s="2"/>
       <c r="AA426" s="2"/>
     </row>
-    <row r="427" spans="1:27" ht="13">
+    <row r="427" spans="1:27" ht="13.2">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="14"/>
@@ -14484,7 +14486,7 @@
       <c r="Z427" s="2"/>
       <c r="AA427" s="2"/>
     </row>
-    <row r="428" spans="1:27" ht="13">
+    <row r="428" spans="1:27" ht="13.2">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="14"/>
@@ -14513,7 +14515,7 @@
       <c r="Z428" s="2"/>
       <c r="AA428" s="2"/>
     </row>
-    <row r="429" spans="1:27" ht="13">
+    <row r="429" spans="1:27" ht="13.2">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="14"/>
@@ -14542,7 +14544,7 @@
       <c r="Z429" s="2"/>
       <c r="AA429" s="2"/>
     </row>
-    <row r="430" spans="1:27" ht="13">
+    <row r="430" spans="1:27" ht="13.2">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="14"/>
@@ -14571,7 +14573,7 @@
       <c r="Z430" s="2"/>
       <c r="AA430" s="2"/>
     </row>
-    <row r="431" spans="1:27" ht="13">
+    <row r="431" spans="1:27" ht="13.2">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="14"/>
@@ -14600,7 +14602,7 @@
       <c r="Z431" s="2"/>
       <c r="AA431" s="2"/>
     </row>
-    <row r="432" spans="1:27" ht="13">
+    <row r="432" spans="1:27" ht="13.2">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="14"/>
@@ -14629,7 +14631,7 @@
       <c r="Z432" s="2"/>
       <c r="AA432" s="2"/>
     </row>
-    <row r="433" spans="1:27" ht="13">
+    <row r="433" spans="1:27" ht="13.2">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="14"/>
@@ -14658,7 +14660,7 @@
       <c r="Z433" s="2"/>
       <c r="AA433" s="2"/>
     </row>
-    <row r="434" spans="1:27" ht="13">
+    <row r="434" spans="1:27" ht="13.2">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="14"/>
@@ -14687,7 +14689,7 @@
       <c r="Z434" s="2"/>
       <c r="AA434" s="2"/>
     </row>
-    <row r="435" spans="1:27" ht="13">
+    <row r="435" spans="1:27" ht="13.2">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="14"/>
@@ -14716,7 +14718,7 @@
       <c r="Z435" s="2"/>
       <c r="AA435" s="2"/>
     </row>
-    <row r="436" spans="1:27" ht="13">
+    <row r="436" spans="1:27" ht="13.2">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="14"/>
@@ -14745,7 +14747,7 @@
       <c r="Z436" s="2"/>
       <c r="AA436" s="2"/>
     </row>
-    <row r="437" spans="1:27" ht="13">
+    <row r="437" spans="1:27" ht="13.2">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="14"/>
@@ -14774,7 +14776,7 @@
       <c r="Z437" s="2"/>
       <c r="AA437" s="2"/>
     </row>
-    <row r="438" spans="1:27" ht="13">
+    <row r="438" spans="1:27" ht="13.2">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="14"/>
@@ -14803,7 +14805,7 @@
       <c r="Z438" s="2"/>
       <c r="AA438" s="2"/>
     </row>
-    <row r="439" spans="1:27" ht="13">
+    <row r="439" spans="1:27" ht="13.2">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="14"/>
@@ -14832,7 +14834,7 @@
       <c r="Z439" s="2"/>
       <c r="AA439" s="2"/>
     </row>
-    <row r="440" spans="1:27" ht="13">
+    <row r="440" spans="1:27" ht="13.2">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="14"/>
@@ -14861,7 +14863,7 @@
       <c r="Z440" s="2"/>
       <c r="AA440" s="2"/>
     </row>
-    <row r="441" spans="1:27" ht="13">
+    <row r="441" spans="1:27" ht="13.2">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="14"/>
@@ -14890,7 +14892,7 @@
       <c r="Z441" s="2"/>
       <c r="AA441" s="2"/>
     </row>
-    <row r="442" spans="1:27" ht="13">
+    <row r="442" spans="1:27" ht="13.2">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="14"/>
@@ -14919,7 +14921,7 @@
       <c r="Z442" s="2"/>
       <c r="AA442" s="2"/>
     </row>
-    <row r="443" spans="1:27" ht="13">
+    <row r="443" spans="1:27" ht="13.2">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="14"/>
@@ -14948,7 +14950,7 @@
       <c r="Z443" s="2"/>
       <c r="AA443" s="2"/>
     </row>
-    <row r="444" spans="1:27" ht="13">
+    <row r="444" spans="1:27" ht="13.2">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="14"/>
@@ -14977,7 +14979,7 @@
       <c r="Z444" s="2"/>
       <c r="AA444" s="2"/>
     </row>
-    <row r="445" spans="1:27" ht="13">
+    <row r="445" spans="1:27" ht="13.2">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="14"/>
@@ -15006,7 +15008,7 @@
       <c r="Z445" s="2"/>
       <c r="AA445" s="2"/>
     </row>
-    <row r="446" spans="1:27" ht="13">
+    <row r="446" spans="1:27" ht="13.2">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="14"/>
@@ -15035,7 +15037,7 @@
       <c r="Z446" s="2"/>
       <c r="AA446" s="2"/>
     </row>
-    <row r="447" spans="1:27" ht="13">
+    <row r="447" spans="1:27" ht="13.2">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="14"/>
@@ -15064,7 +15066,7 @@
       <c r="Z447" s="2"/>
       <c r="AA447" s="2"/>
     </row>
-    <row r="448" spans="1:27" ht="13">
+    <row r="448" spans="1:27" ht="13.2">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="14"/>
@@ -15093,7 +15095,7 @@
       <c r="Z448" s="2"/>
       <c r="AA448" s="2"/>
     </row>
-    <row r="449" spans="1:27" ht="13">
+    <row r="449" spans="1:27" ht="13.2">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="14"/>
@@ -15122,7 +15124,7 @@
       <c r="Z449" s="2"/>
       <c r="AA449" s="2"/>
     </row>
-    <row r="450" spans="1:27" ht="13">
+    <row r="450" spans="1:27" ht="13.2">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="14"/>
@@ -15151,7 +15153,7 @@
       <c r="Z450" s="2"/>
       <c r="AA450" s="2"/>
     </row>
-    <row r="451" spans="1:27" ht="13">
+    <row r="451" spans="1:27" ht="13.2">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="14"/>
@@ -15180,7 +15182,7 @@
       <c r="Z451" s="2"/>
       <c r="AA451" s="2"/>
     </row>
-    <row r="452" spans="1:27" ht="13">
+    <row r="452" spans="1:27" ht="13.2">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="14"/>
@@ -15209,7 +15211,7 @@
       <c r="Z452" s="2"/>
       <c r="AA452" s="2"/>
     </row>
-    <row r="453" spans="1:27" ht="13">
+    <row r="453" spans="1:27" ht="13.2">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="14"/>
@@ -15238,7 +15240,7 @@
       <c r="Z453" s="2"/>
       <c r="AA453" s="2"/>
     </row>
-    <row r="454" spans="1:27" ht="13">
+    <row r="454" spans="1:27" ht="13.2">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="14"/>
@@ -15267,7 +15269,7 @@
       <c r="Z454" s="2"/>
       <c r="AA454" s="2"/>
     </row>
-    <row r="455" spans="1:27" ht="13">
+    <row r="455" spans="1:27" ht="13.2">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="14"/>
@@ -15296,7 +15298,7 @@
       <c r="Z455" s="2"/>
       <c r="AA455" s="2"/>
     </row>
-    <row r="456" spans="1:27" ht="13">
+    <row r="456" spans="1:27" ht="13.2">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="14"/>
@@ -15325,7 +15327,7 @@
       <c r="Z456" s="2"/>
       <c r="AA456" s="2"/>
     </row>
-    <row r="457" spans="1:27" ht="13">
+    <row r="457" spans="1:27" ht="13.2">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="14"/>
@@ -15354,7 +15356,7 @@
       <c r="Z457" s="2"/>
       <c r="AA457" s="2"/>
     </row>
-    <row r="458" spans="1:27" ht="13">
+    <row r="458" spans="1:27" ht="13.2">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="14"/>
@@ -15383,7 +15385,7 @@
       <c r="Z458" s="2"/>
       <c r="AA458" s="2"/>
     </row>
-    <row r="459" spans="1:27" ht="13">
+    <row r="459" spans="1:27" ht="13.2">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="14"/>
@@ -15412,7 +15414,7 @@
       <c r="Z459" s="2"/>
       <c r="AA459" s="2"/>
     </row>
-    <row r="460" spans="1:27" ht="13">
+    <row r="460" spans="1:27" ht="13.2">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="14"/>
@@ -15441,7 +15443,7 @@
       <c r="Z460" s="2"/>
       <c r="AA460" s="2"/>
     </row>
-    <row r="461" spans="1:27" ht="13">
+    <row r="461" spans="1:27" ht="13.2">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="14"/>
@@ -15470,7 +15472,7 @@
       <c r="Z461" s="2"/>
       <c r="AA461" s="2"/>
     </row>
-    <row r="462" spans="1:27" ht="13">
+    <row r="462" spans="1:27" ht="13.2">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="14"/>
@@ -15499,7 +15501,7 @@
       <c r="Z462" s="2"/>
       <c r="AA462" s="2"/>
     </row>
-    <row r="463" spans="1:27" ht="13">
+    <row r="463" spans="1:27" ht="13.2">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="14"/>
@@ -15528,7 +15530,7 @@
       <c r="Z463" s="2"/>
       <c r="AA463" s="2"/>
     </row>
-    <row r="464" spans="1:27" ht="13">
+    <row r="464" spans="1:27" ht="13.2">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="14"/>
@@ -15557,7 +15559,7 @@
       <c r="Z464" s="2"/>
       <c r="AA464" s="2"/>
     </row>
-    <row r="465" spans="1:27" ht="13">
+    <row r="465" spans="1:27" ht="13.2">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="14"/>
@@ -15586,7 +15588,7 @@
       <c r="Z465" s="2"/>
       <c r="AA465" s="2"/>
     </row>
-    <row r="466" spans="1:27" ht="13">
+    <row r="466" spans="1:27" ht="13.2">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="14"/>
@@ -15615,7 +15617,7 @@
       <c r="Z466" s="2"/>
       <c r="AA466" s="2"/>
     </row>
-    <row r="467" spans="1:27" ht="13">
+    <row r="467" spans="1:27" ht="13.2">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="14"/>
@@ -15644,7 +15646,7 @@
       <c r="Z467" s="2"/>
       <c r="AA467" s="2"/>
     </row>
-    <row r="468" spans="1:27" ht="13">
+    <row r="468" spans="1:27" ht="13.2">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="14"/>
@@ -15673,7 +15675,7 @@
       <c r="Z468" s="2"/>
       <c r="AA468" s="2"/>
     </row>
-    <row r="469" spans="1:27" ht="13">
+    <row r="469" spans="1:27" ht="13.2">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="14"/>
@@ -15702,7 +15704,7 @@
       <c r="Z469" s="2"/>
       <c r="AA469" s="2"/>
     </row>
-    <row r="470" spans="1:27" ht="13">
+    <row r="470" spans="1:27" ht="13.2">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="14"/>
@@ -15731,7 +15733,7 @@
       <c r="Z470" s="2"/>
       <c r="AA470" s="2"/>
     </row>
-    <row r="471" spans="1:27" ht="13">
+    <row r="471" spans="1:27" ht="13.2">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="14"/>
@@ -15760,7 +15762,7 @@
       <c r="Z471" s="2"/>
       <c r="AA471" s="2"/>
     </row>
-    <row r="472" spans="1:27" ht="13">
+    <row r="472" spans="1:27" ht="13.2">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="14"/>
@@ -15789,7 +15791,7 @@
       <c r="Z472" s="2"/>
       <c r="AA472" s="2"/>
     </row>
-    <row r="473" spans="1:27" ht="13">
+    <row r="473" spans="1:27" ht="13.2">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="14"/>
@@ -15818,7 +15820,7 @@
       <c r="Z473" s="2"/>
       <c r="AA473" s="2"/>
     </row>
-    <row r="474" spans="1:27" ht="13">
+    <row r="474" spans="1:27" ht="13.2">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="14"/>
@@ -15847,7 +15849,7 @@
       <c r="Z474" s="2"/>
       <c r="AA474" s="2"/>
     </row>
-    <row r="475" spans="1:27" ht="13">
+    <row r="475" spans="1:27" ht="13.2">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="14"/>
@@ -15876,7 +15878,7 @@
       <c r="Z475" s="2"/>
       <c r="AA475" s="2"/>
     </row>
-    <row r="476" spans="1:27" ht="13">
+    <row r="476" spans="1:27" ht="13.2">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="14"/>
@@ -15905,7 +15907,7 @@
       <c r="Z476" s="2"/>
       <c r="AA476" s="2"/>
     </row>
-    <row r="477" spans="1:27" ht="13">
+    <row r="477" spans="1:27" ht="13.2">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="14"/>
@@ -15934,7 +15936,7 @@
       <c r="Z477" s="2"/>
       <c r="AA477" s="2"/>
     </row>
-    <row r="478" spans="1:27" ht="13">
+    <row r="478" spans="1:27" ht="13.2">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="14"/>
@@ -15963,7 +15965,7 @@
       <c r="Z478" s="2"/>
       <c r="AA478" s="2"/>
     </row>
-    <row r="479" spans="1:27" ht="13">
+    <row r="479" spans="1:27" ht="13.2">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="14"/>
@@ -15992,7 +15994,7 @@
       <c r="Z479" s="2"/>
       <c r="AA479" s="2"/>
     </row>
-    <row r="480" spans="1:27" ht="13">
+    <row r="480" spans="1:27" ht="13.2">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="14"/>
@@ -16021,7 +16023,7 @@
       <c r="Z480" s="2"/>
       <c r="AA480" s="2"/>
     </row>
-    <row r="481" spans="1:27" ht="13">
+    <row r="481" spans="1:27" ht="13.2">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="14"/>
@@ -16050,7 +16052,7 @@
       <c r="Z481" s="2"/>
       <c r="AA481" s="2"/>
     </row>
-    <row r="482" spans="1:27" ht="13">
+    <row r="482" spans="1:27" ht="13.2">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="14"/>
@@ -16079,7 +16081,7 @@
       <c r="Z482" s="2"/>
       <c r="AA482" s="2"/>
     </row>
-    <row r="483" spans="1:27" ht="13">
+    <row r="483" spans="1:27" ht="13.2">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="14"/>
@@ -16108,7 +16110,7 @@
       <c r="Z483" s="2"/>
       <c r="AA483" s="2"/>
     </row>
-    <row r="484" spans="1:27" ht="13">
+    <row r="484" spans="1:27" ht="13.2">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="14"/>
@@ -16137,7 +16139,7 @@
       <c r="Z484" s="2"/>
       <c r="AA484" s="2"/>
     </row>
-    <row r="485" spans="1:27" ht="13">
+    <row r="485" spans="1:27" ht="13.2">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="14"/>
@@ -16166,7 +16168,7 @@
       <c r="Z485" s="2"/>
       <c r="AA485" s="2"/>
     </row>
-    <row r="486" spans="1:27" ht="13">
+    <row r="486" spans="1:27" ht="13.2">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="14"/>
@@ -16195,7 +16197,7 @@
       <c r="Z486" s="2"/>
       <c r="AA486" s="2"/>
     </row>
-    <row r="487" spans="1:27" ht="13">
+    <row r="487" spans="1:27" ht="13.2">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="14"/>
@@ -16224,7 +16226,7 @@
       <c r="Z487" s="2"/>
       <c r="AA487" s="2"/>
     </row>
-    <row r="488" spans="1:27" ht="13">
+    <row r="488" spans="1:27" ht="13.2">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="14"/>
@@ -16253,7 +16255,7 @@
       <c r="Z488" s="2"/>
       <c r="AA488" s="2"/>
     </row>
-    <row r="489" spans="1:27" ht="13">
+    <row r="489" spans="1:27" ht="13.2">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="14"/>
@@ -16282,7 +16284,7 @@
       <c r="Z489" s="2"/>
       <c r="AA489" s="2"/>
     </row>
-    <row r="490" spans="1:27" ht="13">
+    <row r="490" spans="1:27" ht="13.2">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="14"/>
@@ -16311,7 +16313,7 @@
       <c r="Z490" s="2"/>
       <c r="AA490" s="2"/>
     </row>
-    <row r="491" spans="1:27" ht="13">
+    <row r="491" spans="1:27" ht="13.2">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="14"/>
@@ -16340,7 +16342,7 @@
       <c r="Z491" s="2"/>
       <c r="AA491" s="2"/>
     </row>
-    <row r="492" spans="1:27" ht="13">
+    <row r="492" spans="1:27" ht="13.2">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="14"/>
@@ -16369,7 +16371,7 @@
       <c r="Z492" s="2"/>
       <c r="AA492" s="2"/>
     </row>
-    <row r="493" spans="1:27" ht="13">
+    <row r="493" spans="1:27" ht="13.2">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="14"/>
@@ -16398,7 +16400,7 @@
       <c r="Z493" s="2"/>
       <c r="AA493" s="2"/>
     </row>
-    <row r="494" spans="1:27" ht="13">
+    <row r="494" spans="1:27" ht="13.2">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="14"/>
@@ -16427,7 +16429,7 @@
       <c r="Z494" s="2"/>
       <c r="AA494" s="2"/>
     </row>
-    <row r="495" spans="1:27" ht="13">
+    <row r="495" spans="1:27" ht="13.2">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="14"/>
@@ -16456,7 +16458,7 @@
       <c r="Z495" s="2"/>
       <c r="AA495" s="2"/>
     </row>
-    <row r="496" spans="1:27" ht="13">
+    <row r="496" spans="1:27" ht="13.2">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="14"/>
@@ -16485,7 +16487,7 @@
       <c r="Z496" s="2"/>
       <c r="AA496" s="2"/>
     </row>
-    <row r="497" spans="1:27" ht="13">
+    <row r="497" spans="1:27" ht="13.2">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="14"/>
@@ -16514,7 +16516,7 @@
       <c r="Z497" s="2"/>
       <c r="AA497" s="2"/>
     </row>
-    <row r="498" spans="1:27" ht="13">
+    <row r="498" spans="1:27" ht="13.2">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="14"/>
@@ -16543,7 +16545,7 @@
       <c r="Z498" s="2"/>
       <c r="AA498" s="2"/>
     </row>
-    <row r="499" spans="1:27" ht="13">
+    <row r="499" spans="1:27" ht="13.2">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="14"/>
@@ -16572,7 +16574,7 @@
       <c r="Z499" s="2"/>
       <c r="AA499" s="2"/>
     </row>
-    <row r="500" spans="1:27" ht="13">
+    <row r="500" spans="1:27" ht="13.2">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="14"/>
@@ -16601,7 +16603,7 @@
       <c r="Z500" s="2"/>
       <c r="AA500" s="2"/>
     </row>
-    <row r="501" spans="1:27" ht="13">
+    <row r="501" spans="1:27" ht="13.2">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="14"/>
@@ -16630,7 +16632,7 @@
       <c r="Z501" s="2"/>
       <c r="AA501" s="2"/>
     </row>
-    <row r="502" spans="1:27" ht="13">
+    <row r="502" spans="1:27" ht="13.2">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="14"/>
@@ -16659,7 +16661,7 @@
       <c r="Z502" s="2"/>
       <c r="AA502" s="2"/>
     </row>
-    <row r="503" spans="1:27" ht="13">
+    <row r="503" spans="1:27" ht="13.2">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="14"/>
@@ -16688,7 +16690,7 @@
       <c r="Z503" s="2"/>
       <c r="AA503" s="2"/>
     </row>
-    <row r="504" spans="1:27" ht="13">
+    <row r="504" spans="1:27" ht="13.2">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="14"/>
@@ -16717,7 +16719,7 @@
       <c r="Z504" s="2"/>
       <c r="AA504" s="2"/>
     </row>
-    <row r="505" spans="1:27" ht="13">
+    <row r="505" spans="1:27" ht="13.2">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="14"/>
@@ -16746,7 +16748,7 @@
       <c r="Z505" s="2"/>
       <c r="AA505" s="2"/>
     </row>
-    <row r="506" spans="1:27" ht="13">
+    <row r="506" spans="1:27" ht="13.2">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="14"/>
@@ -16775,7 +16777,7 @@
       <c r="Z506" s="2"/>
       <c r="AA506" s="2"/>
     </row>
-    <row r="507" spans="1:27" ht="13">
+    <row r="507" spans="1:27" ht="13.2">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="14"/>
@@ -16804,7 +16806,7 @@
       <c r="Z507" s="2"/>
       <c r="AA507" s="2"/>
     </row>
-    <row r="508" spans="1:27" ht="13">
+    <row r="508" spans="1:27" ht="13.2">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="14"/>
@@ -16833,7 +16835,7 @@
       <c r="Z508" s="2"/>
       <c r="AA508" s="2"/>
     </row>
-    <row r="509" spans="1:27" ht="13">
+    <row r="509" spans="1:27" ht="13.2">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="14"/>
@@ -16862,7 +16864,7 @@
       <c r="Z509" s="2"/>
       <c r="AA509" s="2"/>
     </row>
-    <row r="510" spans="1:27" ht="13">
+    <row r="510" spans="1:27" ht="13.2">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="14"/>
@@ -16891,7 +16893,7 @@
       <c r="Z510" s="2"/>
       <c r="AA510" s="2"/>
     </row>
-    <row r="511" spans="1:27" ht="13">
+    <row r="511" spans="1:27" ht="13.2">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="14"/>
@@ -16920,7 +16922,7 @@
       <c r="Z511" s="2"/>
       <c r="AA511" s="2"/>
     </row>
-    <row r="512" spans="1:27" ht="13">
+    <row r="512" spans="1:27" ht="13.2">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="14"/>
@@ -16949,7 +16951,7 @@
       <c r="Z512" s="2"/>
       <c r="AA512" s="2"/>
     </row>
-    <row r="513" spans="1:27" ht="13">
+    <row r="513" spans="1:27" ht="13.2">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="14"/>
@@ -16978,7 +16980,7 @@
       <c r="Z513" s="2"/>
       <c r="AA513" s="2"/>
     </row>
-    <row r="514" spans="1:27" ht="13">
+    <row r="514" spans="1:27" ht="13.2">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="14"/>
@@ -17007,7 +17009,7 @@
       <c r="Z514" s="2"/>
       <c r="AA514" s="2"/>
     </row>
-    <row r="515" spans="1:27" ht="13">
+    <row r="515" spans="1:27" ht="13.2">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="14"/>
@@ -17036,7 +17038,7 @@
       <c r="Z515" s="2"/>
       <c r="AA515" s="2"/>
     </row>
-    <row r="516" spans="1:27" ht="13">
+    <row r="516" spans="1:27" ht="13.2">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="14"/>
@@ -17065,7 +17067,7 @@
       <c r="Z516" s="2"/>
       <c r="AA516" s="2"/>
     </row>
-    <row r="517" spans="1:27" ht="13">
+    <row r="517" spans="1:27" ht="13.2">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="14"/>
@@ -17094,7 +17096,7 @@
       <c r="Z517" s="2"/>
       <c r="AA517" s="2"/>
     </row>
-    <row r="518" spans="1:27" ht="13">
+    <row r="518" spans="1:27" ht="13.2">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="14"/>
@@ -17123,7 +17125,7 @@
       <c r="Z518" s="2"/>
       <c r="AA518" s="2"/>
     </row>
-    <row r="519" spans="1:27" ht="13">
+    <row r="519" spans="1:27" ht="13.2">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="14"/>
@@ -17152,7 +17154,7 @@
       <c r="Z519" s="2"/>
       <c r="AA519" s="2"/>
     </row>
-    <row r="520" spans="1:27" ht="13">
+    <row r="520" spans="1:27" ht="13.2">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="14"/>
@@ -17181,7 +17183,7 @@
       <c r="Z520" s="2"/>
       <c r="AA520" s="2"/>
     </row>
-    <row r="521" spans="1:27" ht="13">
+    <row r="521" spans="1:27" ht="13.2">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="14"/>
@@ -17210,7 +17212,7 @@
       <c r="Z521" s="2"/>
       <c r="AA521" s="2"/>
     </row>
-    <row r="522" spans="1:27" ht="13">
+    <row r="522" spans="1:27" ht="13.2">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="14"/>
@@ -17239,7 +17241,7 @@
       <c r="Z522" s="2"/>
       <c r="AA522" s="2"/>
     </row>
-    <row r="523" spans="1:27" ht="13">
+    <row r="523" spans="1:27" ht="13.2">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="14"/>
@@ -17268,7 +17270,7 @@
       <c r="Z523" s="2"/>
       <c r="AA523" s="2"/>
     </row>
-    <row r="524" spans="1:27" ht="13">
+    <row r="524" spans="1:27" ht="13.2">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="14"/>
@@ -17297,7 +17299,7 @@
       <c r="Z524" s="2"/>
       <c r="AA524" s="2"/>
     </row>
-    <row r="525" spans="1:27" ht="13">
+    <row r="525" spans="1:27" ht="13.2">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="14"/>
@@ -17326,7 +17328,7 @@
       <c r="Z525" s="2"/>
       <c r="AA525" s="2"/>
     </row>
-    <row r="526" spans="1:27" ht="13">
+    <row r="526" spans="1:27" ht="13.2">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="14"/>
@@ -17355,7 +17357,7 @@
       <c r="Z526" s="2"/>
       <c r="AA526" s="2"/>
     </row>
-    <row r="527" spans="1:27" ht="13">
+    <row r="527" spans="1:27" ht="13.2">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="14"/>
@@ -17384,7 +17386,7 @@
       <c r="Z527" s="2"/>
       <c r="AA527" s="2"/>
     </row>
-    <row r="528" spans="1:27" ht="13">
+    <row r="528" spans="1:27" ht="13.2">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="14"/>
@@ -17413,7 +17415,7 @@
       <c r="Z528" s="2"/>
       <c r="AA528" s="2"/>
     </row>
-    <row r="529" spans="1:27" ht="13">
+    <row r="529" spans="1:27" ht="13.2">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="14"/>
@@ -17442,7 +17444,7 @@
       <c r="Z529" s="2"/>
       <c r="AA529" s="2"/>
     </row>
-    <row r="530" spans="1:27" ht="13">
+    <row r="530" spans="1:27" ht="13.2">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="14"/>
@@ -17471,7 +17473,7 @@
       <c r="Z530" s="2"/>
       <c r="AA530" s="2"/>
     </row>
-    <row r="531" spans="1:27" ht="13">
+    <row r="531" spans="1:27" ht="13.2">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="14"/>
@@ -17500,7 +17502,7 @@
       <c r="Z531" s="2"/>
       <c r="AA531" s="2"/>
     </row>
-    <row r="532" spans="1:27" ht="13">
+    <row r="532" spans="1:27" ht="13.2">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="14"/>
@@ -17529,7 +17531,7 @@
       <c r="Z532" s="2"/>
       <c r="AA532" s="2"/>
     </row>
-    <row r="533" spans="1:27" ht="13">
+    <row r="533" spans="1:27" ht="13.2">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="14"/>
@@ -17558,7 +17560,7 @@
       <c r="Z533" s="2"/>
       <c r="AA533" s="2"/>
     </row>
-    <row r="534" spans="1:27" ht="13">
+    <row r="534" spans="1:27" ht="13.2">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="14"/>
@@ -17587,7 +17589,7 @@
       <c r="Z534" s="2"/>
       <c r="AA534" s="2"/>
     </row>
-    <row r="535" spans="1:27" ht="13">
+    <row r="535" spans="1:27" ht="13.2">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="14"/>
@@ -17616,7 +17618,7 @@
       <c r="Z535" s="2"/>
       <c r="AA535" s="2"/>
     </row>
-    <row r="536" spans="1:27" ht="13">
+    <row r="536" spans="1:27" ht="13.2">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="14"/>
@@ -17645,7 +17647,7 @@
       <c r="Z536" s="2"/>
       <c r="AA536" s="2"/>
     </row>
-    <row r="537" spans="1:27" ht="13">
+    <row r="537" spans="1:27" ht="13.2">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="14"/>
@@ -17674,7 +17676,7 @@
       <c r="Z537" s="2"/>
       <c r="AA537" s="2"/>
     </row>
-    <row r="538" spans="1:27" ht="13">
+    <row r="538" spans="1:27" ht="13.2">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="14"/>
@@ -17703,7 +17705,7 @@
       <c r="Z538" s="2"/>
       <c r="AA538" s="2"/>
     </row>
-    <row r="539" spans="1:27" ht="13">
+    <row r="539" spans="1:27" ht="13.2">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="14"/>
@@ -17732,7 +17734,7 @@
       <c r="Z539" s="2"/>
       <c r="AA539" s="2"/>
     </row>
-    <row r="540" spans="1:27" ht="13">
+    <row r="540" spans="1:27" ht="13.2">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="14"/>
@@ -17761,7 +17763,7 @@
       <c r="Z540" s="2"/>
       <c r="AA540" s="2"/>
     </row>
-    <row r="541" spans="1:27" ht="13">
+    <row r="541" spans="1:27" ht="13.2">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="14"/>
@@ -17790,7 +17792,7 @@
       <c r="Z541" s="2"/>
       <c r="AA541" s="2"/>
     </row>
-    <row r="542" spans="1:27" ht="13">
+    <row r="542" spans="1:27" ht="13.2">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="14"/>
@@ -17819,7 +17821,7 @@
       <c r="Z542" s="2"/>
       <c r="AA542" s="2"/>
     </row>
-    <row r="543" spans="1:27" ht="13">
+    <row r="543" spans="1:27" ht="13.2">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="14"/>
@@ -17848,7 +17850,7 @@
       <c r="Z543" s="2"/>
       <c r="AA543" s="2"/>
     </row>
-    <row r="544" spans="1:27" ht="13">
+    <row r="544" spans="1:27" ht="13.2">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="14"/>
@@ -17877,7 +17879,7 @@
       <c r="Z544" s="2"/>
       <c r="AA544" s="2"/>
     </row>
-    <row r="545" spans="1:27" ht="13">
+    <row r="545" spans="1:27" ht="13.2">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="14"/>
@@ -17906,7 +17908,7 @@
       <c r="Z545" s="2"/>
       <c r="AA545" s="2"/>
     </row>
-    <row r="546" spans="1:27" ht="13">
+    <row r="546" spans="1:27" ht="13.2">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="14"/>
@@ -17935,7 +17937,7 @@
       <c r="Z546" s="2"/>
       <c r="AA546" s="2"/>
     </row>
-    <row r="547" spans="1:27" ht="13">
+    <row r="547" spans="1:27" ht="13.2">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="14"/>
@@ -17964,7 +17966,7 @@
       <c r="Z547" s="2"/>
       <c r="AA547" s="2"/>
     </row>
-    <row r="548" spans="1:27" ht="13">
+    <row r="548" spans="1:27" ht="13.2">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="14"/>
@@ -17993,7 +17995,7 @@
       <c r="Z548" s="2"/>
       <c r="AA548" s="2"/>
     </row>
-    <row r="549" spans="1:27" ht="13">
+    <row r="549" spans="1:27" ht="13.2">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="14"/>
@@ -18022,7 +18024,7 @@
       <c r="Z549" s="2"/>
       <c r="AA549" s="2"/>
     </row>
-    <row r="550" spans="1:27" ht="13">
+    <row r="550" spans="1:27" ht="13.2">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="14"/>
@@ -18051,7 +18053,7 @@
       <c r="Z550" s="2"/>
       <c r="AA550" s="2"/>
     </row>
-    <row r="551" spans="1:27" ht="13">
+    <row r="551" spans="1:27" ht="13.2">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="14"/>
@@ -18080,7 +18082,7 @@
       <c r="Z551" s="2"/>
       <c r="AA551" s="2"/>
     </row>
-    <row r="552" spans="1:27" ht="13">
+    <row r="552" spans="1:27" ht="13.2">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="14"/>
@@ -18109,7 +18111,7 @@
       <c r="Z552" s="2"/>
       <c r="AA552" s="2"/>
     </row>
-    <row r="553" spans="1:27" ht="13">
+    <row r="553" spans="1:27" ht="13.2">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="14"/>
@@ -18138,7 +18140,7 @@
       <c r="Z553" s="2"/>
       <c r="AA553" s="2"/>
     </row>
-    <row r="554" spans="1:27" ht="13">
+    <row r="554" spans="1:27" ht="13.2">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="14"/>
@@ -18167,7 +18169,7 @@
       <c r="Z554" s="2"/>
       <c r="AA554" s="2"/>
     </row>
-    <row r="555" spans="1:27" ht="13">
+    <row r="555" spans="1:27" ht="13.2">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="14"/>
@@ -18196,7 +18198,7 @@
       <c r="Z555" s="2"/>
       <c r="AA555" s="2"/>
     </row>
-    <row r="556" spans="1:27" ht="13">
+    <row r="556" spans="1:27" ht="13.2">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="14"/>
@@ -18225,7 +18227,7 @@
       <c r="Z556" s="2"/>
       <c r="AA556" s="2"/>
     </row>
-    <row r="557" spans="1:27" ht="13">
+    <row r="557" spans="1:27" ht="13.2">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="14"/>
@@ -18254,7 +18256,7 @@
       <c r="Z557" s="2"/>
       <c r="AA557" s="2"/>
     </row>
-    <row r="558" spans="1:27" ht="13">
+    <row r="558" spans="1:27" ht="13.2">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="14"/>
@@ -18283,7 +18285,7 @@
       <c r="Z558" s="2"/>
       <c r="AA558" s="2"/>
     </row>
-    <row r="559" spans="1:27" ht="13">
+    <row r="559" spans="1:27" ht="13.2">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="14"/>
@@ -18312,7 +18314,7 @@
       <c r="Z559" s="2"/>
       <c r="AA559" s="2"/>
     </row>
-    <row r="560" spans="1:27" ht="13">
+    <row r="560" spans="1:27" ht="13.2">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="14"/>
@@ -18341,7 +18343,7 @@
       <c r="Z560" s="2"/>
       <c r="AA560" s="2"/>
     </row>
-    <row r="561" spans="1:27" ht="13">
+    <row r="561" spans="1:27" ht="13.2">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="14"/>
@@ -18370,7 +18372,7 @@
       <c r="Z561" s="2"/>
       <c r="AA561" s="2"/>
     </row>
-    <row r="562" spans="1:27" ht="13">
+    <row r="562" spans="1:27" ht="13.2">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="14"/>
@@ -18399,7 +18401,7 @@
       <c r="Z562" s="2"/>
       <c r="AA562" s="2"/>
     </row>
-    <row r="563" spans="1:27" ht="13">
+    <row r="563" spans="1:27" ht="13.2">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="14"/>
@@ -18428,7 +18430,7 @@
       <c r="Z563" s="2"/>
       <c r="AA563" s="2"/>
     </row>
-    <row r="564" spans="1:27" ht="13">
+    <row r="564" spans="1:27" ht="13.2">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="14"/>
@@ -18457,7 +18459,7 @@
       <c r="Z564" s="2"/>
       <c r="AA564" s="2"/>
     </row>
-    <row r="565" spans="1:27" ht="13">
+    <row r="565" spans="1:27" ht="13.2">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="14"/>
@@ -18486,7 +18488,7 @@
       <c r="Z565" s="2"/>
       <c r="AA565" s="2"/>
     </row>
-    <row r="566" spans="1:27" ht="13">
+    <row r="566" spans="1:27" ht="13.2">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="14"/>
@@ -18515,7 +18517,7 @@
       <c r="Z566" s="2"/>
       <c r="AA566" s="2"/>
     </row>
-    <row r="567" spans="1:27" ht="13">
+    <row r="567" spans="1:27" ht="13.2">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="14"/>
@@ -18544,7 +18546,7 @@
       <c r="Z567" s="2"/>
       <c r="AA567" s="2"/>
     </row>
-    <row r="568" spans="1:27" ht="13">
+    <row r="568" spans="1:27" ht="13.2">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="14"/>
@@ -18573,7 +18575,7 @@
       <c r="Z568" s="2"/>
       <c r="AA568" s="2"/>
     </row>
-    <row r="569" spans="1:27" ht="13">
+    <row r="569" spans="1:27" ht="13.2">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="14"/>
@@ -18602,7 +18604,7 @@
       <c r="Z569" s="2"/>
       <c r="AA569" s="2"/>
     </row>
-    <row r="570" spans="1:27" ht="13">
+    <row r="570" spans="1:27" ht="13.2">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="14"/>
@@ -18631,7 +18633,7 @@
       <c r="Z570" s="2"/>
       <c r="AA570" s="2"/>
     </row>
-    <row r="571" spans="1:27" ht="13">
+    <row r="571" spans="1:27" ht="13.2">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="14"/>
@@ -18660,7 +18662,7 @@
       <c r="Z571" s="2"/>
       <c r="AA571" s="2"/>
     </row>
-    <row r="572" spans="1:27" ht="13">
+    <row r="572" spans="1:27" ht="13.2">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="14"/>
@@ -18689,7 +18691,7 @@
       <c r="Z572" s="2"/>
       <c r="AA572" s="2"/>
     </row>
-    <row r="573" spans="1:27" ht="13">
+    <row r="573" spans="1:27" ht="13.2">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="14"/>
@@ -18718,7 +18720,7 @@
       <c r="Z573" s="2"/>
       <c r="AA573" s="2"/>
     </row>
-    <row r="574" spans="1:27" ht="13">
+    <row r="574" spans="1:27" ht="13.2">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="14"/>
@@ -18747,7 +18749,7 @@
       <c r="Z574" s="2"/>
       <c r="AA574" s="2"/>
     </row>
-    <row r="575" spans="1:27" ht="13">
+    <row r="575" spans="1:27" ht="13.2">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="14"/>
@@ -18776,7 +18778,7 @@
       <c r="Z575" s="2"/>
       <c r="AA575" s="2"/>
     </row>
-    <row r="576" spans="1:27" ht="13">
+    <row r="576" spans="1:27" ht="13.2">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="14"/>
@@ -18805,7 +18807,7 @@
       <c r="Z576" s="2"/>
       <c r="AA576" s="2"/>
     </row>
-    <row r="577" spans="1:27" ht="13">
+    <row r="577" spans="1:27" ht="13.2">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="14"/>
@@ -18834,7 +18836,7 @@
       <c r="Z577" s="2"/>
       <c r="AA577" s="2"/>
     </row>
-    <row r="578" spans="1:27" ht="13">
+    <row r="578" spans="1:27" ht="13.2">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="14"/>
@@ -18863,7 +18865,7 @@
       <c r="Z578" s="2"/>
       <c r="AA578" s="2"/>
     </row>
-    <row r="579" spans="1:27" ht="13">
+    <row r="579" spans="1:27" ht="13.2">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="14"/>
@@ -18892,7 +18894,7 @@
       <c r="Z579" s="2"/>
       <c r="AA579" s="2"/>
     </row>
-    <row r="580" spans="1:27" ht="13">
+    <row r="580" spans="1:27" ht="13.2">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="14"/>
@@ -18921,7 +18923,7 @@
       <c r="Z580" s="2"/>
       <c r="AA580" s="2"/>
     </row>
-    <row r="581" spans="1:27" ht="13">
+    <row r="581" spans="1:27" ht="13.2">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="14"/>
@@ -18950,7 +18952,7 @@
       <c r="Z581" s="2"/>
       <c r="AA581" s="2"/>
     </row>
-    <row r="582" spans="1:27" ht="13">
+    <row r="582" spans="1:27" ht="13.2">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="14"/>
@@ -18979,7 +18981,7 @@
       <c r="Z582" s="2"/>
       <c r="AA582" s="2"/>
     </row>
-    <row r="583" spans="1:27" ht="13">
+    <row r="583" spans="1:27" ht="13.2">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="14"/>
@@ -19008,7 +19010,7 @@
       <c r="Z583" s="2"/>
       <c r="AA583" s="2"/>
     </row>
-    <row r="584" spans="1:27" ht="13">
+    <row r="584" spans="1:27" ht="13.2">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="14"/>
@@ -19037,7 +19039,7 @@
       <c r="Z584" s="2"/>
       <c r="AA584" s="2"/>
     </row>
-    <row r="585" spans="1:27" ht="13">
+    <row r="585" spans="1:27" ht="13.2">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="14"/>
@@ -19066,7 +19068,7 @@
       <c r="Z585" s="2"/>
       <c r="AA585" s="2"/>
     </row>
-    <row r="586" spans="1:27" ht="13">
+    <row r="586" spans="1:27" ht="13.2">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="14"/>
@@ -19095,7 +19097,7 @@
       <c r="Z586" s="2"/>
       <c r="AA586" s="2"/>
     </row>
-    <row r="587" spans="1:27" ht="13">
+    <row r="587" spans="1:27" ht="13.2">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="14"/>
@@ -19124,7 +19126,7 @@
       <c r="Z587" s="2"/>
       <c r="AA587" s="2"/>
     </row>
-    <row r="588" spans="1:27" ht="13">
+    <row r="588" spans="1:27" ht="13.2">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="14"/>
@@ -19153,7 +19155,7 @@
       <c r="Z588" s="2"/>
       <c r="AA588" s="2"/>
     </row>
-    <row r="589" spans="1:27" ht="13">
+    <row r="589" spans="1:27" ht="13.2">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="14"/>
@@ -19182,7 +19184,7 @@
       <c r="Z589" s="2"/>
       <c r="AA589" s="2"/>
     </row>
-    <row r="590" spans="1:27" ht="13">
+    <row r="590" spans="1:27" ht="13.2">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="14"/>
@@ -19211,7 +19213,7 @@
       <c r="Z590" s="2"/>
       <c r="AA590" s="2"/>
     </row>
-    <row r="591" spans="1:27" ht="13">
+    <row r="591" spans="1:27" ht="13.2">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="14"/>
@@ -19240,7 +19242,7 @@
       <c r="Z591" s="2"/>
       <c r="AA591" s="2"/>
     </row>
-    <row r="592" spans="1:27" ht="13">
+    <row r="592" spans="1:27" ht="13.2">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="14"/>
@@ -19269,7 +19271,7 @@
       <c r="Z592" s="2"/>
       <c r="AA592" s="2"/>
     </row>
-    <row r="593" spans="1:27" ht="13">
+    <row r="593" spans="1:27" ht="13.2">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="14"/>
@@ -19298,7 +19300,7 @@
       <c r="Z593" s="2"/>
       <c r="AA593" s="2"/>
     </row>
-    <row r="594" spans="1:27" ht="13">
+    <row r="594" spans="1:27" ht="13.2">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="14"/>
@@ -19327,7 +19329,7 @@
       <c r="Z594" s="2"/>
       <c r="AA594" s="2"/>
     </row>
-    <row r="595" spans="1:27" ht="13">
+    <row r="595" spans="1:27" ht="13.2">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="14"/>
@@ -19356,7 +19358,7 @@
       <c r="Z595" s="2"/>
       <c r="AA595" s="2"/>
     </row>
-    <row r="596" spans="1:27" ht="13">
+    <row r="596" spans="1:27" ht="13.2">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="14"/>
@@ -19385,7 +19387,7 @@
       <c r="Z596" s="2"/>
       <c r="AA596" s="2"/>
     </row>
-    <row r="597" spans="1:27" ht="13">
+    <row r="597" spans="1:27" ht="13.2">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="14"/>
@@ -19414,7 +19416,7 @@
       <c r="Z597" s="2"/>
       <c r="AA597" s="2"/>
     </row>
-    <row r="598" spans="1:27" ht="13">
+    <row r="598" spans="1:27" ht="13.2">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="14"/>
@@ -19443,7 +19445,7 @@
       <c r="Z598" s="2"/>
       <c r="AA598" s="2"/>
     </row>
-    <row r="599" spans="1:27" ht="13">
+    <row r="599" spans="1:27" ht="13.2">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="14"/>
@@ -19472,7 +19474,7 @@
       <c r="Z599" s="2"/>
       <c r="AA599" s="2"/>
     </row>
-    <row r="600" spans="1:27" ht="13">
+    <row r="600" spans="1:27" ht="13.2">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="14"/>
@@ -19501,7 +19503,7 @@
       <c r="Z600" s="2"/>
       <c r="AA600" s="2"/>
     </row>
-    <row r="601" spans="1:27" ht="13">
+    <row r="601" spans="1:27" ht="13.2">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="14"/>
@@ -19530,7 +19532,7 @@
       <c r="Z601" s="2"/>
       <c r="AA601" s="2"/>
     </row>
-    <row r="602" spans="1:27" ht="13">
+    <row r="602" spans="1:27" ht="13.2">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="14"/>
@@ -19559,7 +19561,7 @@
       <c r="Z602" s="2"/>
       <c r="AA602" s="2"/>
     </row>
-    <row r="603" spans="1:27" ht="13">
+    <row r="603" spans="1:27" ht="13.2">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="14"/>
@@ -19588,7 +19590,7 @@
       <c r="Z603" s="2"/>
       <c r="AA603" s="2"/>
     </row>
-    <row r="604" spans="1:27" ht="13">
+    <row r="604" spans="1:27" ht="13.2">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="14"/>
@@ -19617,7 +19619,7 @@
       <c r="Z604" s="2"/>
       <c r="AA604" s="2"/>
     </row>
-    <row r="605" spans="1:27" ht="13">
+    <row r="605" spans="1:27" ht="13.2">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="14"/>
@@ -19646,7 +19648,7 @@
       <c r="Z605" s="2"/>
       <c r="AA605" s="2"/>
     </row>
-    <row r="606" spans="1:27" ht="13">
+    <row r="606" spans="1:27" ht="13.2">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="14"/>
@@ -19675,7 +19677,7 @@
       <c r="Z606" s="2"/>
       <c r="AA606" s="2"/>
     </row>
-    <row r="607" spans="1:27" ht="13">
+    <row r="607" spans="1:27" ht="13.2">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="14"/>
@@ -19704,7 +19706,7 @@
       <c r="Z607" s="2"/>
       <c r="AA607" s="2"/>
     </row>
-    <row r="608" spans="1:27" ht="13">
+    <row r="608" spans="1:27" ht="13.2">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="14"/>
@@ -19733,7 +19735,7 @@
       <c r="Z608" s="2"/>
       <c r="AA608" s="2"/>
     </row>
-    <row r="609" spans="1:27" ht="13">
+    <row r="609" spans="1:27" ht="13.2">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="14"/>
@@ -19762,7 +19764,7 @@
       <c r="Z609" s="2"/>
       <c r="AA609" s="2"/>
     </row>
-    <row r="610" spans="1:27" ht="13">
+    <row r="610" spans="1:27" ht="13.2">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="14"/>
@@ -19791,7 +19793,7 @@
       <c r="Z610" s="2"/>
       <c r="AA610" s="2"/>
     </row>
-    <row r="611" spans="1:27" ht="13">
+    <row r="611" spans="1:27" ht="13.2">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="14"/>
@@ -19820,7 +19822,7 @@
       <c r="Z611" s="2"/>
       <c r="AA611" s="2"/>
     </row>
-    <row r="612" spans="1:27" ht="13">
+    <row r="612" spans="1:27" ht="13.2">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="14"/>
@@ -19849,7 +19851,7 @@
       <c r="Z612" s="2"/>
       <c r="AA612" s="2"/>
     </row>
-    <row r="613" spans="1:27" ht="13">
+    <row r="613" spans="1:27" ht="13.2">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="14"/>
@@ -19878,7 +19880,7 @@
       <c r="Z613" s="2"/>
       <c r="AA613" s="2"/>
     </row>
-    <row r="614" spans="1:27" ht="13">
+    <row r="614" spans="1:27" ht="13.2">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="14"/>
@@ -19907,7 +19909,7 @@
       <c r="Z614" s="2"/>
       <c r="AA614" s="2"/>
     </row>
-    <row r="615" spans="1:27" ht="13">
+    <row r="615" spans="1:27" ht="13.2">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="14"/>
@@ -19936,7 +19938,7 @@
       <c r="Z615" s="2"/>
       <c r="AA615" s="2"/>
     </row>
-    <row r="616" spans="1:27" ht="13">
+    <row r="616" spans="1:27" ht="13.2">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="14"/>
@@ -19965,7 +19967,7 @@
       <c r="Z616" s="2"/>
       <c r="AA616" s="2"/>
     </row>
-    <row r="617" spans="1:27" ht="13">
+    <row r="617" spans="1:27" ht="13.2">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="14"/>
@@ -19994,7 +19996,7 @@
       <c r="Z617" s="2"/>
       <c r="AA617" s="2"/>
     </row>
-    <row r="618" spans="1:27" ht="13">
+    <row r="618" spans="1:27" ht="13.2">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="14"/>
@@ -20023,7 +20025,7 @@
       <c r="Z618" s="2"/>
       <c r="AA618" s="2"/>
     </row>
-    <row r="619" spans="1:27" ht="13">
+    <row r="619" spans="1:27" ht="13.2">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="14"/>
@@ -20052,7 +20054,7 @@
       <c r="Z619" s="2"/>
       <c r="AA619" s="2"/>
     </row>
-    <row r="620" spans="1:27" ht="13">
+    <row r="620" spans="1:27" ht="13.2">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="14"/>
@@ -20081,7 +20083,7 @@
       <c r="Z620" s="2"/>
       <c r="AA620" s="2"/>
     </row>
-    <row r="621" spans="1:27" ht="13">
+    <row r="621" spans="1:27" ht="13.2">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="14"/>
@@ -20110,7 +20112,7 @@
       <c r="Z621" s="2"/>
       <c r="AA621" s="2"/>
     </row>
-    <row r="622" spans="1:27" ht="13">
+    <row r="622" spans="1:27" ht="13.2">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="14"/>
@@ -20139,7 +20141,7 @@
       <c r="Z622" s="2"/>
       <c r="AA622" s="2"/>
     </row>
-    <row r="623" spans="1:27" ht="13">
+    <row r="623" spans="1:27" ht="13.2">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="14"/>
@@ -20168,7 +20170,7 @@
       <c r="Z623" s="2"/>
       <c r="AA623" s="2"/>
     </row>
-    <row r="624" spans="1:27" ht="13">
+    <row r="624" spans="1:27" ht="13.2">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="14"/>
@@ -20197,7 +20199,7 @@
       <c r="Z624" s="2"/>
       <c r="AA624" s="2"/>
     </row>
-    <row r="625" spans="1:27" ht="13">
+    <row r="625" spans="1:27" ht="13.2">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="14"/>
@@ -20226,7 +20228,7 @@
       <c r="Z625" s="2"/>
       <c r="AA625" s="2"/>
     </row>
-    <row r="626" spans="1:27" ht="13">
+    <row r="626" spans="1:27" ht="13.2">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="14"/>
@@ -20255,7 +20257,7 @@
       <c r="Z626" s="2"/>
       <c r="AA626" s="2"/>
     </row>
-    <row r="627" spans="1:27" ht="13">
+    <row r="627" spans="1:27" ht="13.2">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="14"/>
@@ -20284,7 +20286,7 @@
       <c r="Z627" s="2"/>
       <c r="AA627" s="2"/>
     </row>
-    <row r="628" spans="1:27" ht="13">
+    <row r="628" spans="1:27" ht="13.2">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="14"/>
@@ -20313,7 +20315,7 @@
       <c r="Z628" s="2"/>
       <c r="AA628" s="2"/>
     </row>
-    <row r="629" spans="1:27" ht="13">
+    <row r="629" spans="1:27" ht="13.2">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="14"/>
@@ -20342,7 +20344,7 @@
       <c r="Z629" s="2"/>
       <c r="AA629" s="2"/>
     </row>
-    <row r="630" spans="1:27" ht="13">
+    <row r="630" spans="1:27" ht="13.2">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="14"/>
@@ -20371,7 +20373,7 @@
       <c r="Z630" s="2"/>
       <c r="AA630" s="2"/>
     </row>
-    <row r="631" spans="1:27" ht="13">
+    <row r="631" spans="1:27" ht="13.2">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="14"/>
@@ -20400,7 +20402,7 @@
       <c r="Z631" s="2"/>
       <c r="AA631" s="2"/>
     </row>
-    <row r="632" spans="1:27" ht="13">
+    <row r="632" spans="1:27" ht="13.2">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="14"/>
@@ -20429,7 +20431,7 @@
       <c r="Z632" s="2"/>
       <c r="AA632" s="2"/>
     </row>
-    <row r="633" spans="1:27" ht="13">
+    <row r="633" spans="1:27" ht="13.2">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="14"/>
@@ -20458,7 +20460,7 @@
       <c r="Z633" s="2"/>
       <c r="AA633" s="2"/>
     </row>
-    <row r="634" spans="1:27" ht="13">
+    <row r="634" spans="1:27" ht="13.2">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="14"/>
@@ -20487,7 +20489,7 @@
       <c r="Z634" s="2"/>
       <c r="AA634" s="2"/>
     </row>
-    <row r="635" spans="1:27" ht="13">
+    <row r="635" spans="1:27" ht="13.2">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="14"/>
@@ -20516,7 +20518,7 @@
       <c r="Z635" s="2"/>
       <c r="AA635" s="2"/>
     </row>
-    <row r="636" spans="1:27" ht="13">
+    <row r="636" spans="1:27" ht="13.2">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="14"/>
@@ -20545,7 +20547,7 @@
       <c r="Z636" s="2"/>
       <c r="AA636" s="2"/>
     </row>
-    <row r="637" spans="1:27" ht="13">
+    <row r="637" spans="1:27" ht="13.2">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="14"/>
@@ -20574,7 +20576,7 @@
       <c r="Z637" s="2"/>
       <c r="AA637" s="2"/>
     </row>
-    <row r="638" spans="1:27" ht="13">
+    <row r="638" spans="1:27" ht="13.2">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="14"/>
@@ -20603,7 +20605,7 @@
       <c r="Z638" s="2"/>
       <c r="AA638" s="2"/>
     </row>
-    <row r="639" spans="1:27" ht="13">
+    <row r="639" spans="1:27" ht="13.2">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="14"/>
@@ -20632,7 +20634,7 @@
       <c r="Z639" s="2"/>
       <c r="AA639" s="2"/>
     </row>
-    <row r="640" spans="1:27" ht="13">
+    <row r="640" spans="1:27" ht="13.2">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="14"/>
@@ -20661,7 +20663,7 @@
       <c r="Z640" s="2"/>
       <c r="AA640" s="2"/>
     </row>
-    <row r="641" spans="1:27" ht="13">
+    <row r="641" spans="1:27" ht="13.2">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="14"/>
@@ -20690,7 +20692,7 @@
       <c r="Z641" s="2"/>
       <c r="AA641" s="2"/>
     </row>
-    <row r="642" spans="1:27" ht="13">
+    <row r="642" spans="1:27" ht="13.2">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="14"/>
@@ -20719,7 +20721,7 @@
       <c r="Z642" s="2"/>
       <c r="AA642" s="2"/>
     </row>
-    <row r="643" spans="1:27" ht="13">
+    <row r="643" spans="1:27" ht="13.2">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="14"/>
@@ -20748,7 +20750,7 @@
       <c r="Z643" s="2"/>
       <c r="AA643" s="2"/>
     </row>
-    <row r="644" spans="1:27" ht="13">
+    <row r="644" spans="1:27" ht="13.2">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="14"/>
@@ -20777,7 +20779,7 @@
       <c r="Z644" s="2"/>
       <c r="AA644" s="2"/>
     </row>
-    <row r="645" spans="1:27" ht="13">
+    <row r="645" spans="1:27" ht="13.2">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="14"/>
@@ -20806,7 +20808,7 @@
       <c r="Z645" s="2"/>
       <c r="AA645" s="2"/>
     </row>
-    <row r="646" spans="1:27" ht="13">
+    <row r="646" spans="1:27" ht="13.2">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="14"/>
@@ -20835,7 +20837,7 @@
       <c r="Z646" s="2"/>
       <c r="AA646" s="2"/>
     </row>
-    <row r="647" spans="1:27" ht="13">
+    <row r="647" spans="1:27" ht="13.2">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="14"/>
@@ -20864,7 +20866,7 @@
       <c r="Z647" s="2"/>
       <c r="AA647" s="2"/>
     </row>
-    <row r="648" spans="1:27" ht="13">
+    <row r="648" spans="1:27" ht="13.2">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="14"/>
@@ -20893,7 +20895,7 @@
       <c r="Z648" s="2"/>
       <c r="AA648" s="2"/>
     </row>
-    <row r="649" spans="1:27" ht="13">
+    <row r="649" spans="1:27" ht="13.2">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="14"/>
@@ -20922,7 +20924,7 @@
       <c r="Z649" s="2"/>
       <c r="AA649" s="2"/>
     </row>
-    <row r="650" spans="1:27" ht="13">
+    <row r="650" spans="1:27" ht="13.2">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="14"/>
@@ -20951,7 +20953,7 @@
       <c r="Z650" s="2"/>
       <c r="AA650" s="2"/>
     </row>
-    <row r="651" spans="1:27" ht="13">
+    <row r="651" spans="1:27" ht="13.2">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="14"/>
@@ -20980,7 +20982,7 @@
       <c r="Z651" s="2"/>
       <c r="AA651" s="2"/>
     </row>
-    <row r="652" spans="1:27" ht="13">
+    <row r="652" spans="1:27" ht="13.2">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="14"/>
@@ -21009,7 +21011,7 @@
       <c r="Z652" s="2"/>
       <c r="AA652" s="2"/>
     </row>
-    <row r="653" spans="1:27" ht="13">
+    <row r="653" spans="1:27" ht="13.2">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="14"/>
@@ -21038,7 +21040,7 @@
       <c r="Z653" s="2"/>
       <c r="AA653" s="2"/>
     </row>
-    <row r="654" spans="1:27" ht="13">
+    <row r="654" spans="1:27" ht="13.2">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="14"/>
@@ -21067,7 +21069,7 @@
       <c r="Z654" s="2"/>
       <c r="AA654" s="2"/>
     </row>
-    <row r="655" spans="1:27" ht="13">
+    <row r="655" spans="1:27" ht="13.2">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="14"/>
@@ -21096,7 +21098,7 @@
       <c r="Z655" s="2"/>
       <c r="AA655" s="2"/>
     </row>
-    <row r="656" spans="1:27" ht="13">
+    <row r="656" spans="1:27" ht="13.2">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="14"/>
@@ -21125,7 +21127,7 @@
       <c r="Z656" s="2"/>
       <c r="AA656" s="2"/>
     </row>
-    <row r="657" spans="1:27" ht="13">
+    <row r="657" spans="1:27" ht="13.2">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="14"/>
@@ -21154,7 +21156,7 @@
       <c r="Z657" s="2"/>
       <c r="AA657" s="2"/>
     </row>
-    <row r="658" spans="1:27" ht="13">
+    <row r="658" spans="1:27" ht="13.2">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="14"/>
@@ -21183,7 +21185,7 @@
       <c r="Z658" s="2"/>
       <c r="AA658" s="2"/>
     </row>
-    <row r="659" spans="1:27" ht="13">
+    <row r="659" spans="1:27" ht="13.2">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="14"/>
@@ -21212,7 +21214,7 @@
       <c r="Z659" s="2"/>
       <c r="AA659" s="2"/>
     </row>
-    <row r="660" spans="1:27" ht="13">
+    <row r="660" spans="1:27" ht="13.2">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="14"/>
@@ -21241,7 +21243,7 @@
       <c r="Z660" s="2"/>
       <c r="AA660" s="2"/>
     </row>
-    <row r="661" spans="1:27" ht="13">
+    <row r="661" spans="1:27" ht="13.2">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="14"/>
@@ -21270,7 +21272,7 @@
       <c r="Z661" s="2"/>
       <c r="AA661" s="2"/>
     </row>
-    <row r="662" spans="1:27" ht="13">
+    <row r="662" spans="1:27" ht="13.2">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="14"/>
@@ -21299,7 +21301,7 @@
       <c r="Z662" s="2"/>
       <c r="AA662" s="2"/>
     </row>
-    <row r="663" spans="1:27" ht="13">
+    <row r="663" spans="1:27" ht="13.2">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="14"/>
@@ -21328,7 +21330,7 @@
       <c r="Z663" s="2"/>
       <c r="AA663" s="2"/>
     </row>
-    <row r="664" spans="1:27" ht="13">
+    <row r="664" spans="1:27" ht="13.2">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="14"/>
@@ -21357,7 +21359,7 @@
       <c r="Z664" s="2"/>
       <c r="AA664" s="2"/>
     </row>
-    <row r="665" spans="1:27" ht="13">
+    <row r="665" spans="1:27" ht="13.2">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="14"/>
@@ -21386,7 +21388,7 @@
       <c r="Z665" s="2"/>
       <c r="AA665" s="2"/>
     </row>
-    <row r="666" spans="1:27" ht="13">
+    <row r="666" spans="1:27" ht="13.2">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="14"/>
@@ -21415,7 +21417,7 @@
       <c r="Z666" s="2"/>
       <c r="AA666" s="2"/>
     </row>
-    <row r="667" spans="1:27" ht="13">
+    <row r="667" spans="1:27" ht="13.2">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="14"/>
@@ -21444,7 +21446,7 @@
       <c r="Z667" s="2"/>
       <c r="AA667" s="2"/>
     </row>
-    <row r="668" spans="1:27" ht="13">
+    <row r="668" spans="1:27" ht="13.2">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="14"/>
@@ -21473,7 +21475,7 @@
       <c r="Z668" s="2"/>
       <c r="AA668" s="2"/>
     </row>
-    <row r="669" spans="1:27" ht="13">
+    <row r="669" spans="1:27" ht="13.2">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="14"/>
@@ -21502,7 +21504,7 @@
       <c r="Z669" s="2"/>
       <c r="AA669" s="2"/>
     </row>
-    <row r="670" spans="1:27" ht="13">
+    <row r="670" spans="1:27" ht="13.2">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="14"/>
@@ -21531,7 +21533,7 @@
       <c r="Z670" s="2"/>
       <c r="AA670" s="2"/>
     </row>
-    <row r="671" spans="1:27" ht="13">
+    <row r="671" spans="1:27" ht="13.2">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="14"/>
@@ -21560,7 +21562,7 @@
       <c r="Z671" s="2"/>
       <c r="AA671" s="2"/>
     </row>
-    <row r="672" spans="1:27" ht="13">
+    <row r="672" spans="1:27" ht="13.2">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="14"/>
@@ -21589,7 +21591,7 @@
       <c r="Z672" s="2"/>
       <c r="AA672" s="2"/>
     </row>
-    <row r="673" spans="1:27" ht="13">
+    <row r="673" spans="1:27" ht="13.2">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="14"/>
@@ -21618,7 +21620,7 @@
       <c r="Z673" s="2"/>
       <c r="AA673" s="2"/>
     </row>
-    <row r="674" spans="1:27" ht="13">
+    <row r="674" spans="1:27" ht="13.2">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="14"/>
@@ -21647,7 +21649,7 @@
       <c r="Z674" s="2"/>
       <c r="AA674" s="2"/>
     </row>
-    <row r="675" spans="1:27" ht="13">
+    <row r="675" spans="1:27" ht="13.2">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="14"/>
@@ -21676,7 +21678,7 @@
       <c r="Z675" s="2"/>
       <c r="AA675" s="2"/>
     </row>
-    <row r="676" spans="1:27" ht="13">
+    <row r="676" spans="1:27" ht="13.2">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="14"/>
@@ -21705,7 +21707,7 @@
       <c r="Z676" s="2"/>
       <c r="AA676" s="2"/>
     </row>
-    <row r="677" spans="1:27" ht="13">
+    <row r="677" spans="1:27" ht="13.2">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="14"/>
@@ -21734,7 +21736,7 @@
       <c r="Z677" s="2"/>
       <c r="AA677" s="2"/>
     </row>
-    <row r="678" spans="1:27" ht="13">
+    <row r="678" spans="1:27" ht="13.2">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="14"/>
@@ -21763,7 +21765,7 @@
       <c r="Z678" s="2"/>
       <c r="AA678" s="2"/>
     </row>
-    <row r="679" spans="1:27" ht="13">
+    <row r="679" spans="1:27" ht="13.2">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="14"/>
@@ -21792,7 +21794,7 @@
       <c r="Z679" s="2"/>
       <c r="AA679" s="2"/>
     </row>
-    <row r="680" spans="1:27" ht="13">
+    <row r="680" spans="1:27" ht="13.2">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="14"/>
@@ -21821,7 +21823,7 @@
       <c r="Z680" s="2"/>
       <c r="AA680" s="2"/>
     </row>
-    <row r="681" spans="1:27" ht="13">
+    <row r="681" spans="1:27" ht="13.2">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="14"/>
@@ -21850,7 +21852,7 @@
       <c r="Z681" s="2"/>
       <c r="AA681" s="2"/>
     </row>
-    <row r="682" spans="1:27" ht="13">
+    <row r="682" spans="1:27" ht="13.2">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="14"/>
@@ -21879,7 +21881,7 @@
       <c r="Z682" s="2"/>
       <c r="AA682" s="2"/>
     </row>
-    <row r="683" spans="1:27" ht="13">
+    <row r="683" spans="1:27" ht="13.2">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="14"/>
@@ -21908,7 +21910,7 @@
       <c r="Z683" s="2"/>
       <c r="AA683" s="2"/>
     </row>
-    <row r="684" spans="1:27" ht="13">
+    <row r="684" spans="1:27" ht="13.2">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="14"/>
@@ -21937,7 +21939,7 @@
       <c r="Z684" s="2"/>
       <c r="AA684" s="2"/>
     </row>
-    <row r="685" spans="1:27" ht="13">
+    <row r="685" spans="1:27" ht="13.2">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="14"/>
@@ -21966,7 +21968,7 @@
       <c r="Z685" s="2"/>
       <c r="AA685" s="2"/>
     </row>
-    <row r="686" spans="1:27" ht="13">
+    <row r="686" spans="1:27" ht="13.2">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="14"/>
@@ -21995,7 +21997,7 @@
       <c r="Z686" s="2"/>
       <c r="AA686" s="2"/>
     </row>
-    <row r="687" spans="1:27" ht="13">
+    <row r="687" spans="1:27" ht="13.2">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="14"/>
@@ -22024,7 +22026,7 @@
       <c r="Z687" s="2"/>
       <c r="AA687" s="2"/>
     </row>
-    <row r="688" spans="1:27" ht="13">
+    <row r="688" spans="1:27" ht="13.2">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="14"/>
@@ -22053,7 +22055,7 @@
       <c r="Z688" s="2"/>
       <c r="AA688" s="2"/>
     </row>
-    <row r="689" spans="1:27" ht="13">
+    <row r="689" spans="1:27" ht="13.2">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="14"/>
@@ -22082,7 +22084,7 @@
       <c r="Z689" s="2"/>
       <c r="AA689" s="2"/>
     </row>
-    <row r="690" spans="1:27" ht="13">
+    <row r="690" spans="1:27" ht="13.2">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="14"/>
@@ -22111,7 +22113,7 @@
       <c r="Z690" s="2"/>
       <c r="AA690" s="2"/>
     </row>
-    <row r="691" spans="1:27" ht="13">
+    <row r="691" spans="1:27" ht="13.2">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="14"/>
@@ -22140,7 +22142,7 @@
       <c r="Z691" s="2"/>
       <c r="AA691" s="2"/>
     </row>
-    <row r="692" spans="1:27" ht="13">
+    <row r="692" spans="1:27" ht="13.2">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="14"/>
@@ -22169,7 +22171,7 @@
       <c r="Z692" s="2"/>
       <c r="AA692" s="2"/>
     </row>
-    <row r="693" spans="1:27" ht="13">
+    <row r="693" spans="1:27" ht="13.2">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="14"/>
@@ -22198,7 +22200,7 @@
       <c r="Z693" s="2"/>
       <c r="AA693" s="2"/>
     </row>
-    <row r="694" spans="1:27" ht="13">
+    <row r="694" spans="1:27" ht="13.2">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="14"/>
@@ -22227,7 +22229,7 @@
       <c r="Z694" s="2"/>
       <c r="AA694" s="2"/>
     </row>
-    <row r="695" spans="1:27" ht="13">
+    <row r="695" spans="1:27" ht="13.2">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="14"/>
@@ -22256,7 +22258,7 @@
       <c r="Z695" s="2"/>
       <c r="AA695" s="2"/>
     </row>
-    <row r="696" spans="1:27" ht="13">
+    <row r="696" spans="1:27" ht="13.2">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="14"/>
@@ -22285,7 +22287,7 @@
       <c r="Z696" s="2"/>
       <c r="AA696" s="2"/>
     </row>
-    <row r="697" spans="1:27" ht="13">
+    <row r="697" spans="1:27" ht="13.2">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="14"/>
@@ -22314,7 +22316,7 @@
       <c r="Z697" s="2"/>
       <c r="AA697" s="2"/>
     </row>
-    <row r="698" spans="1:27" ht="13">
+    <row r="698" spans="1:27" ht="13.2">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="14"/>
@@ -22343,7 +22345,7 @@
       <c r="Z698" s="2"/>
       <c r="AA698" s="2"/>
     </row>
-    <row r="699" spans="1:27" ht="13">
+    <row r="699" spans="1:27" ht="13.2">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="14"/>
@@ -22372,7 +22374,7 @@
       <c r="Z699" s="2"/>
       <c r="AA699" s="2"/>
     </row>
-    <row r="700" spans="1:27" ht="13">
+    <row r="700" spans="1:27" ht="13.2">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="14"/>
@@ -22401,7 +22403,7 @@
       <c r="Z700" s="2"/>
       <c r="AA700" s="2"/>
     </row>
-    <row r="701" spans="1:27" ht="13">
+    <row r="701" spans="1:27" ht="13.2">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="14"/>
@@ -22430,7 +22432,7 @@
       <c r="Z701" s="2"/>
       <c r="AA701" s="2"/>
     </row>
-    <row r="702" spans="1:27" ht="13">
+    <row r="702" spans="1:27" ht="13.2">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="14"/>
@@ -22459,7 +22461,7 @@
       <c r="Z702" s="2"/>
       <c r="AA702" s="2"/>
     </row>
-    <row r="703" spans="1:27" ht="13">
+    <row r="703" spans="1:27" ht="13.2">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="14"/>
@@ -22488,7 +22490,7 @@
       <c r="Z703" s="2"/>
       <c r="AA703" s="2"/>
     </row>
-    <row r="704" spans="1:27" ht="13">
+    <row r="704" spans="1:27" ht="13.2">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="14"/>
@@ -22517,7 +22519,7 @@
       <c r="Z704" s="2"/>
       <c r="AA704" s="2"/>
     </row>
-    <row r="705" spans="1:27" ht="13">
+    <row r="705" spans="1:27" ht="13.2">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="14"/>
@@ -22546,7 +22548,7 @@
       <c r="Z705" s="2"/>
       <c r="AA705" s="2"/>
     </row>
-    <row r="706" spans="1:27" ht="13">
+    <row r="706" spans="1:27" ht="13.2">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="14"/>
@@ -22575,7 +22577,7 @@
       <c r="Z706" s="2"/>
       <c r="AA706" s="2"/>
     </row>
-    <row r="707" spans="1:27" ht="13">
+    <row r="707" spans="1:27" ht="13.2">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="14"/>
@@ -22604,7 +22606,7 @@
       <c r="Z707" s="2"/>
       <c r="AA707" s="2"/>
     </row>
-    <row r="708" spans="1:27" ht="13">
+    <row r="708" spans="1:27" ht="13.2">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="14"/>
@@ -22633,7 +22635,7 @@
       <c r="Z708" s="2"/>
       <c r="AA708" s="2"/>
     </row>
-    <row r="709" spans="1:27" ht="13">
+    <row r="709" spans="1:27" ht="13.2">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="14"/>
@@ -22662,7 +22664,7 @@
       <c r="Z709" s="2"/>
       <c r="AA709" s="2"/>
     </row>
-    <row r="710" spans="1:27" ht="13">
+    <row r="710" spans="1:27" ht="13.2">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="14"/>
@@ -22691,7 +22693,7 @@
       <c r="Z710" s="2"/>
       <c r="AA710" s="2"/>
     </row>
-    <row r="711" spans="1:27" ht="13">
+    <row r="711" spans="1:27" ht="13.2">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="14"/>
@@ -22720,7 +22722,7 @@
       <c r="Z711" s="2"/>
       <c r="AA711" s="2"/>
     </row>
-    <row r="712" spans="1:27" ht="13">
+    <row r="712" spans="1:27" ht="13.2">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="14"/>
@@ -22749,7 +22751,7 @@
       <c r="Z712" s="2"/>
       <c r="AA712" s="2"/>
     </row>
-    <row r="713" spans="1:27" ht="13">
+    <row r="713" spans="1:27" ht="13.2">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="14"/>
@@ -22778,7 +22780,7 @@
       <c r="Z713" s="2"/>
       <c r="AA713" s="2"/>
     </row>
-    <row r="714" spans="1:27" ht="13">
+    <row r="714" spans="1:27" ht="13.2">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="14"/>
@@ -22807,7 +22809,7 @@
       <c r="Z714" s="2"/>
       <c r="AA714" s="2"/>
     </row>
-    <row r="715" spans="1:27" ht="13">
+    <row r="715" spans="1:27" ht="13.2">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="14"/>
@@ -22836,7 +22838,7 @@
       <c r="Z715" s="2"/>
       <c r="AA715" s="2"/>
     </row>
-    <row r="716" spans="1:27" ht="13">
+    <row r="716" spans="1:27" ht="13.2">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="14"/>
@@ -22865,7 +22867,7 @@
       <c r="Z716" s="2"/>
       <c r="AA716" s="2"/>
     </row>
-    <row r="717" spans="1:27" ht="13">
+    <row r="717" spans="1:27" ht="13.2">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="14"/>
@@ -22894,7 +22896,7 @@
       <c r="Z717" s="2"/>
       <c r="AA717" s="2"/>
     </row>
-    <row r="718" spans="1:27" ht="13">
+    <row r="718" spans="1:27" ht="13.2">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="14"/>
@@ -22923,7 +22925,7 @@
       <c r="Z718" s="2"/>
       <c r="AA718" s="2"/>
     </row>
-    <row r="719" spans="1:27" ht="13">
+    <row r="719" spans="1:27" ht="13.2">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="14"/>
@@ -22952,7 +22954,7 @@
       <c r="Z719" s="2"/>
       <c r="AA719" s="2"/>
     </row>
-    <row r="720" spans="1:27" ht="13">
+    <row r="720" spans="1:27" ht="13.2">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="14"/>
@@ -22981,7 +22983,7 @@
       <c r="Z720" s="2"/>
       <c r="AA720" s="2"/>
     </row>
-    <row r="721" spans="1:27" ht="13">
+    <row r="721" spans="1:27" ht="13.2">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="14"/>
@@ -23010,7 +23012,7 @@
       <c r="Z721" s="2"/>
       <c r="AA721" s="2"/>
     </row>
-    <row r="722" spans="1:27" ht="13">
+    <row r="722" spans="1:27" ht="13.2">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="14"/>
@@ -23039,7 +23041,7 @@
       <c r="Z722" s="2"/>
       <c r="AA722" s="2"/>
     </row>
-    <row r="723" spans="1:27" ht="13">
+    <row r="723" spans="1:27" ht="13.2">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="14"/>
@@ -23068,7 +23070,7 @@
       <c r="Z723" s="2"/>
       <c r="AA723" s="2"/>
     </row>
-    <row r="724" spans="1:27" ht="13">
+    <row r="724" spans="1:27" ht="13.2">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="14"/>
@@ -23097,7 +23099,7 @@
       <c r="Z724" s="2"/>
       <c r="AA724" s="2"/>
     </row>
-    <row r="725" spans="1:27" ht="13">
+    <row r="725" spans="1:27" ht="13.2">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="14"/>
@@ -23126,7 +23128,7 @@
       <c r="Z725" s="2"/>
       <c r="AA725" s="2"/>
     </row>
-    <row r="726" spans="1:27" ht="13">
+    <row r="726" spans="1:27" ht="13.2">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="14"/>
@@ -23155,7 +23157,7 @@
       <c r="Z726" s="2"/>
       <c r="AA726" s="2"/>
     </row>
-    <row r="727" spans="1:27" ht="13">
+    <row r="727" spans="1:27" ht="13.2">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="14"/>
@@ -23184,7 +23186,7 @@
       <c r="Z727" s="2"/>
       <c r="AA727" s="2"/>
     </row>
-    <row r="728" spans="1:27" ht="13">
+    <row r="728" spans="1:27" ht="13.2">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="14"/>
@@ -23213,7 +23215,7 @@
       <c r="Z728" s="2"/>
       <c r="AA728" s="2"/>
     </row>
-    <row r="729" spans="1:27" ht="13">
+    <row r="729" spans="1:27" ht="13.2">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="14"/>
@@ -23242,7 +23244,7 @@
       <c r="Z729" s="2"/>
       <c r="AA729" s="2"/>
     </row>
-    <row r="730" spans="1:27" ht="13">
+    <row r="730" spans="1:27" ht="13.2">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="14"/>
@@ -23271,7 +23273,7 @@
       <c r="Z730" s="2"/>
       <c r="AA730" s="2"/>
     </row>
-    <row r="731" spans="1:27" ht="13">
+    <row r="731" spans="1:27" ht="13.2">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="14"/>
@@ -23300,7 +23302,7 @@
       <c r="Z731" s="2"/>
       <c r="AA731" s="2"/>
     </row>
-    <row r="732" spans="1:27" ht="13">
+    <row r="732" spans="1:27" ht="13.2">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="14"/>
@@ -23329,7 +23331,7 @@
       <c r="Z732" s="2"/>
       <c r="AA732" s="2"/>
     </row>
-    <row r="733" spans="1:27" ht="13">
+    <row r="733" spans="1:27" ht="13.2">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="14"/>
@@ -23358,7 +23360,7 @@
       <c r="Z733" s="2"/>
       <c r="AA733" s="2"/>
     </row>
-    <row r="734" spans="1:27" ht="13">
+    <row r="734" spans="1:27" ht="13.2">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="14"/>
@@ -23387,7 +23389,7 @@
       <c r="Z734" s="2"/>
       <c r="AA734" s="2"/>
     </row>
-    <row r="735" spans="1:27" ht="13">
+    <row r="735" spans="1:27" ht="13.2">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="14"/>
@@ -23416,7 +23418,7 @@
       <c r="Z735" s="2"/>
       <c r="AA735" s="2"/>
     </row>
-    <row r="736" spans="1:27" ht="13">
+    <row r="736" spans="1:27" ht="13.2">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="14"/>
@@ -23445,7 +23447,7 @@
       <c r="Z736" s="2"/>
       <c r="AA736" s="2"/>
     </row>
-    <row r="737" spans="1:27" ht="13">
+    <row r="737" spans="1:27" ht="13.2">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="14"/>
@@ -23474,7 +23476,7 @@
       <c r="Z737" s="2"/>
       <c r="AA737" s="2"/>
     </row>
-    <row r="738" spans="1:27" ht="13">
+    <row r="738" spans="1:27" ht="13.2">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="14"/>
@@ -23503,7 +23505,7 @@
       <c r="Z738" s="2"/>
       <c r="AA738" s="2"/>
     </row>
-    <row r="739" spans="1:27" ht="13">
+    <row r="739" spans="1:27" ht="13.2">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="14"/>
@@ -23532,7 +23534,7 @@
       <c r="Z739" s="2"/>
       <c r="AA739" s="2"/>
     </row>
-    <row r="740" spans="1:27" ht="13">
+    <row r="740" spans="1:27" ht="13.2">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="14"/>
@@ -23561,7 +23563,7 @@
       <c r="Z740" s="2"/>
       <c r="AA740" s="2"/>
     </row>
-    <row r="741" spans="1:27" ht="13">
+    <row r="741" spans="1:27" ht="13.2">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="14"/>
@@ -23590,7 +23592,7 @@
       <c r="Z741" s="2"/>
       <c r="AA741" s="2"/>
     </row>
-    <row r="742" spans="1:27" ht="13">
+    <row r="742" spans="1:27" ht="13.2">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="14"/>
@@ -23619,7 +23621,7 @@
       <c r="Z742" s="2"/>
       <c r="AA742" s="2"/>
     </row>
-    <row r="743" spans="1:27" ht="13">
+    <row r="743" spans="1:27" ht="13.2">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="14"/>
@@ -23648,7 +23650,7 @@
       <c r="Z743" s="2"/>
       <c r="AA743" s="2"/>
     </row>
-    <row r="744" spans="1:27" ht="13">
+    <row r="744" spans="1:27" ht="13.2">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="14"/>
@@ -23677,7 +23679,7 @@
       <c r="Z744" s="2"/>
       <c r="AA744" s="2"/>
     </row>
-    <row r="745" spans="1:27" ht="13">
+    <row r="745" spans="1:27" ht="13.2">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="14"/>
@@ -23706,7 +23708,7 @@
       <c r="Z745" s="2"/>
       <c r="AA745" s="2"/>
     </row>
-    <row r="746" spans="1:27" ht="13">
+    <row r="746" spans="1:27" ht="13.2">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="14"/>
@@ -23735,7 +23737,7 @@
       <c r="Z746" s="2"/>
       <c r="AA746" s="2"/>
     </row>
-    <row r="747" spans="1:27" ht="13">
+    <row r="747" spans="1:27" ht="13.2">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="14"/>
@@ -23764,7 +23766,7 @@
       <c r="Z747" s="2"/>
       <c r="AA747" s="2"/>
     </row>
-    <row r="748" spans="1:27" ht="13">
+    <row r="748" spans="1:27" ht="13.2">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="14"/>
@@ -23793,7 +23795,7 @@
       <c r="Z748" s="2"/>
       <c r="AA748" s="2"/>
     </row>
-    <row r="749" spans="1:27" ht="13">
+    <row r="749" spans="1:27" ht="13.2">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="14"/>
@@ -23822,7 +23824,7 @@
       <c r="Z749" s="2"/>
       <c r="AA749" s="2"/>
     </row>
-    <row r="750" spans="1:27" ht="13">
+    <row r="750" spans="1:27" ht="13.2">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="14"/>
@@ -23851,7 +23853,7 @@
       <c r="Z750" s="2"/>
       <c r="AA750" s="2"/>
     </row>
-    <row r="751" spans="1:27" ht="13">
+    <row r="751" spans="1:27" ht="13.2">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="14"/>
@@ -23880,7 +23882,7 @@
       <c r="Z751" s="2"/>
       <c r="AA751" s="2"/>
     </row>
-    <row r="752" spans="1:27" ht="13">
+    <row r="752" spans="1:27" ht="13.2">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="14"/>
@@ -23909,7 +23911,7 @@
       <c r="Z752" s="2"/>
       <c r="AA752" s="2"/>
     </row>
-    <row r="753" spans="1:27" ht="13">
+    <row r="753" spans="1:27" ht="13.2">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="14"/>
@@ -23938,7 +23940,7 @@
       <c r="Z753" s="2"/>
       <c r="AA753" s="2"/>
     </row>
-    <row r="754" spans="1:27" ht="13">
+    <row r="754" spans="1:27" ht="13.2">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="14"/>
@@ -23967,7 +23969,7 @@
       <c r="Z754" s="2"/>
       <c r="AA754" s="2"/>
     </row>
-    <row r="755" spans="1:27" ht="13">
+    <row r="755" spans="1:27" ht="13.2">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="14"/>
@@ -23996,7 +23998,7 @@
       <c r="Z755" s="2"/>
       <c r="AA755" s="2"/>
     </row>
-    <row r="756" spans="1:27" ht="13">
+    <row r="756" spans="1:27" ht="13.2">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="14"/>
@@ -24025,7 +24027,7 @@
       <c r="Z756" s="2"/>
       <c r="AA756" s="2"/>
     </row>
-    <row r="757" spans="1:27" ht="13">
+    <row r="757" spans="1:27" ht="13.2">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="14"/>
@@ -24054,7 +24056,7 @@
       <c r="Z757" s="2"/>
       <c r="AA757" s="2"/>
     </row>
-    <row r="758" spans="1:27" ht="13">
+    <row r="758" spans="1:27" ht="13.2">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="14"/>
@@ -24083,7 +24085,7 @@
       <c r="Z758" s="2"/>
       <c r="AA758" s="2"/>
     </row>
-    <row r="759" spans="1:27" ht="13">
+    <row r="759" spans="1:27" ht="13.2">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="14"/>
@@ -24112,7 +24114,7 @@
       <c r="Z759" s="2"/>
       <c r="AA759" s="2"/>
     </row>
-    <row r="760" spans="1:27" ht="13">
+    <row r="760" spans="1:27" ht="13.2">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="14"/>
@@ -24141,7 +24143,7 @@
       <c r="Z760" s="2"/>
       <c r="AA760" s="2"/>
     </row>
-    <row r="761" spans="1:27" ht="13">
+    <row r="761" spans="1:27" ht="13.2">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="14"/>
@@ -24170,7 +24172,7 @@
       <c r="Z761" s="2"/>
       <c r="AA761" s="2"/>
     </row>
-    <row r="762" spans="1:27" ht="13">
+    <row r="762" spans="1:27" ht="13.2">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="14"/>
@@ -24199,7 +24201,7 @@
       <c r="Z762" s="2"/>
       <c r="AA762" s="2"/>
     </row>
-    <row r="763" spans="1:27" ht="13">
+    <row r="763" spans="1:27" ht="13.2">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="14"/>
@@ -24228,7 +24230,7 @@
       <c r="Z763" s="2"/>
       <c r="AA763" s="2"/>
     </row>
-    <row r="764" spans="1:27" ht="13">
+    <row r="764" spans="1:27" ht="13.2">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="14"/>
@@ -24257,7 +24259,7 @@
       <c r="Z764" s="2"/>
       <c r="AA764" s="2"/>
     </row>
-    <row r="765" spans="1:27" ht="13">
+    <row r="765" spans="1:27" ht="13.2">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="14"/>
@@ -24286,7 +24288,7 @@
       <c r="Z765" s="2"/>
       <c r="AA765" s="2"/>
     </row>
-    <row r="766" spans="1:27" ht="13">
+    <row r="766" spans="1:27" ht="13.2">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="14"/>
@@ -24315,7 +24317,7 @@
       <c r="Z766" s="2"/>
       <c r="AA766" s="2"/>
     </row>
-    <row r="767" spans="1:27" ht="13">
+    <row r="767" spans="1:27" ht="13.2">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="14"/>
@@ -24344,7 +24346,7 @@
       <c r="Z767" s="2"/>
       <c r="AA767" s="2"/>
     </row>
-    <row r="768" spans="1:27" ht="13">
+    <row r="768" spans="1:27" ht="13.2">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="14"/>
@@ -24373,7 +24375,7 @@
       <c r="Z768" s="2"/>
       <c r="AA768" s="2"/>
     </row>
-    <row r="769" spans="1:27" ht="13">
+    <row r="769" spans="1:27" ht="13.2">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="14"/>
@@ -24402,7 +24404,7 @@
       <c r="Z769" s="2"/>
       <c r="AA769" s="2"/>
     </row>
-    <row r="770" spans="1:27" ht="13">
+    <row r="770" spans="1:27" ht="13.2">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="14"/>
@@ -24431,7 +24433,7 @@
       <c r="Z770" s="2"/>
       <c r="AA770" s="2"/>
     </row>
-    <row r="771" spans="1:27" ht="13">
+    <row r="771" spans="1:27" ht="13.2">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="14"/>
@@ -24460,7 +24462,7 @@
       <c r="Z771" s="2"/>
       <c r="AA771" s="2"/>
     </row>
-    <row r="772" spans="1:27" ht="13">
+    <row r="772" spans="1:27" ht="13.2">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="14"/>
@@ -24489,7 +24491,7 @@
       <c r="Z772" s="2"/>
       <c r="AA772" s="2"/>
     </row>
-    <row r="773" spans="1:27" ht="13">
+    <row r="773" spans="1:27" ht="13.2">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="14"/>
@@ -24518,7 +24520,7 @@
       <c r="Z773" s="2"/>
       <c r="AA773" s="2"/>
     </row>
-    <row r="774" spans="1:27" ht="13">
+    <row r="774" spans="1:27" ht="13.2">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="14"/>
@@ -24547,7 +24549,7 @@
       <c r="Z774" s="2"/>
       <c r="AA774" s="2"/>
     </row>
-    <row r="775" spans="1:27" ht="13">
+    <row r="775" spans="1:27" ht="13.2">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="14"/>
@@ -24576,7 +24578,7 @@
       <c r="Z775" s="2"/>
       <c r="AA775" s="2"/>
     </row>
-    <row r="776" spans="1:27" ht="13">
+    <row r="776" spans="1:27" ht="13.2">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="14"/>
@@ -24605,7 +24607,7 @@
       <c r="Z776" s="2"/>
       <c r="AA776" s="2"/>
     </row>
-    <row r="777" spans="1:27" ht="13">
+    <row r="777" spans="1:27" ht="13.2">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="14"/>
@@ -24634,7 +24636,7 @@
       <c r="Z777" s="2"/>
       <c r="AA777" s="2"/>
     </row>
-    <row r="778" spans="1:27" ht="13">
+    <row r="778" spans="1:27" ht="13.2">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="14"/>
@@ -24663,7 +24665,7 @@
       <c r="Z778" s="2"/>
       <c r="AA778" s="2"/>
     </row>
-    <row r="779" spans="1:27" ht="13">
+    <row r="779" spans="1:27" ht="13.2">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="14"/>
@@ -24692,7 +24694,7 @@
       <c r="Z779" s="2"/>
       <c r="AA779" s="2"/>
     </row>
-    <row r="780" spans="1:27" ht="13">
+    <row r="780" spans="1:27" ht="13.2">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="14"/>
@@ -24721,7 +24723,7 @@
       <c r="Z780" s="2"/>
       <c r="AA780" s="2"/>
     </row>
-    <row r="781" spans="1:27" ht="13">
+    <row r="781" spans="1:27" ht="13.2">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="14"/>
@@ -24750,7 +24752,7 @@
       <c r="Z781" s="2"/>
       <c r="AA781" s="2"/>
     </row>
-    <row r="782" spans="1:27" ht="13">
+    <row r="782" spans="1:27" ht="13.2">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="14"/>
@@ -24779,7 +24781,7 @@
       <c r="Z782" s="2"/>
       <c r="AA782" s="2"/>
     </row>
-    <row r="783" spans="1:27" ht="13">
+    <row r="783" spans="1:27" ht="13.2">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="14"/>
@@ -24808,7 +24810,7 @@
       <c r="Z783" s="2"/>
       <c r="AA783" s="2"/>
     </row>
-    <row r="784" spans="1:27" ht="13">
+    <row r="784" spans="1:27" ht="13.2">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="14"/>
@@ -24837,7 +24839,7 @@
       <c r="Z784" s="2"/>
       <c r="AA784" s="2"/>
     </row>
-    <row r="785" spans="1:27" ht="13">
+    <row r="785" spans="1:27" ht="13.2">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="14"/>
@@ -24866,7 +24868,7 @@
       <c r="Z785" s="2"/>
       <c r="AA785" s="2"/>
     </row>
-    <row r="786" spans="1:27" ht="13">
+    <row r="786" spans="1:27" ht="13.2">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="14"/>
@@ -24895,7 +24897,7 @@
       <c r="Z786" s="2"/>
       <c r="AA786" s="2"/>
     </row>
-    <row r="787" spans="1:27" ht="13">
+    <row r="787" spans="1:27" ht="13.2">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="14"/>
@@ -24924,7 +24926,7 @@
       <c r="Z787" s="2"/>
       <c r="AA787" s="2"/>
     </row>
-    <row r="788" spans="1:27" ht="13">
+    <row r="788" spans="1:27" ht="13.2">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="14"/>
@@ -24953,7 +24955,7 @@
       <c r="Z788" s="2"/>
       <c r="AA788" s="2"/>
     </row>
-    <row r="789" spans="1:27" ht="13">
+    <row r="789" spans="1:27" ht="13.2">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="14"/>
@@ -24982,7 +24984,7 @@
       <c r="Z789" s="2"/>
       <c r="AA789" s="2"/>
     </row>
-    <row r="790" spans="1:27" ht="13">
+    <row r="790" spans="1:27" ht="13.2">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="14"/>
@@ -25011,7 +25013,7 @@
       <c r="Z790" s="2"/>
       <c r="AA790" s="2"/>
     </row>
-    <row r="791" spans="1:27" ht="13">
+    <row r="791" spans="1:27" ht="13.2">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="14"/>
@@ -25040,7 +25042,7 @@
       <c r="Z791" s="2"/>
       <c r="AA791" s="2"/>
     </row>
-    <row r="792" spans="1:27" ht="13">
+    <row r="792" spans="1:27" ht="13.2">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="14"/>
@@ -25069,7 +25071,7 @@
       <c r="Z792" s="2"/>
       <c r="AA792" s="2"/>
     </row>
-    <row r="793" spans="1:27" ht="13">
+    <row r="793" spans="1:27" ht="13.2">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="14"/>
@@ -25098,7 +25100,7 @@
       <c r="Z793" s="2"/>
       <c r="AA793" s="2"/>
     </row>
-    <row r="794" spans="1:27" ht="13">
+    <row r="794" spans="1:27" ht="13.2">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="14"/>
@@ -25127,7 +25129,7 @@
       <c r="Z794" s="2"/>
       <c r="AA794" s="2"/>
     </row>
-    <row r="795" spans="1:27" ht="13">
+    <row r="795" spans="1:27" ht="13.2">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="14"/>
@@ -25156,7 +25158,7 @@
       <c r="Z795" s="2"/>
       <c r="AA795" s="2"/>
     </row>
-    <row r="796" spans="1:27" ht="13">
+    <row r="796" spans="1:27" ht="13.2">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="14"/>
@@ -25185,7 +25187,7 @@
       <c r="Z796" s="2"/>
       <c r="AA796" s="2"/>
     </row>
-    <row r="797" spans="1:27" ht="13">
+    <row r="797" spans="1:27" ht="13.2">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="14"/>
@@ -25214,7 +25216,7 @@
       <c r="Z797" s="2"/>
       <c r="AA797" s="2"/>
     </row>
-    <row r="798" spans="1:27" ht="13">
+    <row r="798" spans="1:27" ht="13.2">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="14"/>
@@ -25243,7 +25245,7 @@
       <c r="Z798" s="2"/>
       <c r="AA798" s="2"/>
     </row>
-    <row r="799" spans="1:27" ht="13">
+    <row r="799" spans="1:27" ht="13.2">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="14"/>
@@ -25272,7 +25274,7 @@
       <c r="Z799" s="2"/>
       <c r="AA799" s="2"/>
     </row>
-    <row r="800" spans="1:27" ht="13">
+    <row r="800" spans="1:27" ht="13.2">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="14"/>
@@ -25301,7 +25303,7 @@
       <c r="Z800" s="2"/>
       <c r="AA800" s="2"/>
     </row>
-    <row r="801" spans="1:27" ht="13">
+    <row r="801" spans="1:27" ht="13.2">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="14"/>
@@ -25330,7 +25332,7 @@
       <c r="Z801" s="2"/>
       <c r="AA801" s="2"/>
     </row>
-    <row r="802" spans="1:27" ht="13">
+    <row r="802" spans="1:27" ht="13.2">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="14"/>
@@ -25359,7 +25361,7 @@
       <c r="Z802" s="2"/>
       <c r="AA802" s="2"/>
     </row>
-    <row r="803" spans="1:27" ht="13">
+    <row r="803" spans="1:27" ht="13.2">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="14"/>
@@ -25388,7 +25390,7 @@
       <c r="Z803" s="2"/>
       <c r="AA803" s="2"/>
     </row>
-    <row r="804" spans="1:27" ht="13">
+    <row r="804" spans="1:27" ht="13.2">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="14"/>
@@ -25417,7 +25419,7 @@
       <c r="Z804" s="2"/>
       <c r="AA804" s="2"/>
     </row>
-    <row r="805" spans="1:27" ht="13">
+    <row r="805" spans="1:27" ht="13.2">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="14"/>
@@ -25446,7 +25448,7 @@
       <c r="Z805" s="2"/>
       <c r="AA805" s="2"/>
     </row>
-    <row r="806" spans="1:27" ht="13">
+    <row r="806" spans="1:27" ht="13.2">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="14"/>
@@ -25475,7 +25477,7 @@
       <c r="Z806" s="2"/>
       <c r="AA806" s="2"/>
     </row>
-    <row r="807" spans="1:27" ht="13">
+    <row r="807" spans="1:27" ht="13.2">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="14"/>
@@ -25504,7 +25506,7 @@
       <c r="Z807" s="2"/>
       <c r="AA807" s="2"/>
     </row>
-    <row r="808" spans="1:27" ht="13">
+    <row r="808" spans="1:27" ht="13.2">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="14"/>
@@ -25533,7 +25535,7 @@
       <c r="Z808" s="2"/>
       <c r="AA808" s="2"/>
     </row>
-    <row r="809" spans="1:27" ht="13">
+    <row r="809" spans="1:27" ht="13.2">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="14"/>
@@ -25562,7 +25564,7 @@
       <c r="Z809" s="2"/>
       <c r="AA809" s="2"/>
     </row>
-    <row r="810" spans="1:27" ht="13">
+    <row r="810" spans="1:27" ht="13.2">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="14"/>
@@ -25591,7 +25593,7 @@
       <c r="Z810" s="2"/>
       <c r="AA810" s="2"/>
     </row>
-    <row r="811" spans="1:27" ht="13">
+    <row r="811" spans="1:27" ht="13.2">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="14"/>
@@ -25620,7 +25622,7 @@
       <c r="Z811" s="2"/>
       <c r="AA811" s="2"/>
     </row>
-    <row r="812" spans="1:27" ht="13">
+    <row r="812" spans="1:27" ht="13.2">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="14"/>
@@ -25649,7 +25651,7 @@
       <c r="Z812" s="2"/>
       <c r="AA812" s="2"/>
     </row>
-    <row r="813" spans="1:27" ht="13">
+    <row r="813" spans="1:27" ht="13.2">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="14"/>
@@ -25678,7 +25680,7 @@
       <c r="Z813" s="2"/>
       <c r="AA813" s="2"/>
     </row>
-    <row r="814" spans="1:27" ht="13">
+    <row r="814" spans="1:27" ht="13.2">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="14"/>
@@ -25707,7 +25709,7 @@
       <c r="Z814" s="2"/>
       <c r="AA814" s="2"/>
     </row>
-    <row r="815" spans="1:27" ht="13">
+    <row r="815" spans="1:27" ht="13.2">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="14"/>
@@ -25736,7 +25738,7 @@
       <c r="Z815" s="2"/>
       <c r="AA815" s="2"/>
     </row>
-    <row r="816" spans="1:27" ht="13">
+    <row r="816" spans="1:27" ht="13.2">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="14"/>
@@ -25765,7 +25767,7 @@
       <c r="Z816" s="2"/>
       <c r="AA816" s="2"/>
     </row>
-    <row r="817" spans="1:27" ht="13">
+    <row r="817" spans="1:27" ht="13.2">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="14"/>
@@ -25794,7 +25796,7 @@
       <c r="Z817" s="2"/>
       <c r="AA817" s="2"/>
     </row>
-    <row r="818" spans="1:27" ht="13">
+    <row r="818" spans="1:27" ht="13.2">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="14"/>
@@ -25823,7 +25825,7 @@
       <c r="Z818" s="2"/>
       <c r="AA818" s="2"/>
     </row>
-    <row r="819" spans="1:27" ht="13">
+    <row r="819" spans="1:27" ht="13.2">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="14"/>
@@ -25852,7 +25854,7 @@
       <c r="Z819" s="2"/>
       <c r="AA819" s="2"/>
     </row>
-    <row r="820" spans="1:27" ht="13">
+    <row r="820" spans="1:27" ht="13.2">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="14"/>
@@ -25881,7 +25883,7 @@
       <c r="Z820" s="2"/>
       <c r="AA820" s="2"/>
     </row>
-    <row r="821" spans="1:27" ht="13">
+    <row r="821" spans="1:27" ht="13.2">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="14"/>
@@ -25910,7 +25912,7 @@
       <c r="Z821" s="2"/>
       <c r="AA821" s="2"/>
     </row>
-    <row r="822" spans="1:27" ht="13">
+    <row r="822" spans="1:27" ht="13.2">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="14"/>
@@ -25939,7 +25941,7 @@
       <c r="Z822" s="2"/>
       <c r="AA822" s="2"/>
     </row>
-    <row r="823" spans="1:27" ht="13">
+    <row r="823" spans="1:27" ht="13.2">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="14"/>
@@ -25968,7 +25970,7 @@
       <c r="Z823" s="2"/>
       <c r="AA823" s="2"/>
     </row>
-    <row r="824" spans="1:27" ht="13">
+    <row r="824" spans="1:27" ht="13.2">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="14"/>
@@ -25997,7 +25999,7 @@
       <c r="Z824" s="2"/>
       <c r="AA824" s="2"/>
     </row>
-    <row r="825" spans="1:27" ht="13">
+    <row r="825" spans="1:27" ht="13.2">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="14"/>
@@ -26026,7 +26028,7 @@
       <c r="Z825" s="2"/>
       <c r="AA825" s="2"/>
     </row>
-    <row r="826" spans="1:27" ht="13">
+    <row r="826" spans="1:27" ht="13.2">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="14"/>
@@ -26055,7 +26057,7 @@
       <c r="Z826" s="2"/>
       <c r="AA826" s="2"/>
     </row>
-    <row r="827" spans="1:27" ht="13">
+    <row r="827" spans="1:27" ht="13.2">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="14"/>
@@ -26084,7 +26086,7 @@
       <c r="Z827" s="2"/>
       <c r="AA827" s="2"/>
     </row>
-    <row r="828" spans="1:27" ht="13">
+    <row r="828" spans="1:27" ht="13.2">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="14"/>
@@ -26113,7 +26115,7 @@
       <c r="Z828" s="2"/>
       <c r="AA828" s="2"/>
     </row>
-    <row r="829" spans="1:27" ht="13">
+    <row r="829" spans="1:27" ht="13.2">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="14"/>
@@ -26142,7 +26144,7 @@
       <c r="Z829" s="2"/>
       <c r="AA829" s="2"/>
     </row>
-    <row r="830" spans="1:27" ht="13">
+    <row r="830" spans="1:27" ht="13.2">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="14"/>
@@ -26171,7 +26173,7 @@
       <c r="Z830" s="2"/>
       <c r="AA830" s="2"/>
     </row>
-    <row r="831" spans="1:27" ht="13">
+    <row r="831" spans="1:27" ht="13.2">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="14"/>
@@ -26200,7 +26202,7 @@
       <c r="Z831" s="2"/>
       <c r="AA831" s="2"/>
     </row>
-    <row r="832" spans="1:27" ht="13">
+    <row r="832" spans="1:27" ht="13.2">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="14"/>
@@ -26229,7 +26231,7 @@
       <c r="Z832" s="2"/>
       <c r="AA832" s="2"/>
     </row>
-    <row r="833" spans="1:27" ht="13">
+    <row r="833" spans="1:27" ht="13.2">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="14"/>
@@ -26258,7 +26260,7 @@
       <c r="Z833" s="2"/>
       <c r="AA833" s="2"/>
     </row>
-    <row r="834" spans="1:27" ht="13">
+    <row r="834" spans="1:27" ht="13.2">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="14"/>
@@ -26287,7 +26289,7 @@
       <c r="Z834" s="2"/>
       <c r="AA834" s="2"/>
     </row>
-    <row r="835" spans="1:27" ht="13">
+    <row r="835" spans="1:27" ht="13.2">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="14"/>
@@ -26316,7 +26318,7 @@
       <c r="Z835" s="2"/>
       <c r="AA835" s="2"/>
     </row>
-    <row r="836" spans="1:27" ht="13">
+    <row r="836" spans="1:27" ht="13.2">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="14"/>
@@ -26345,7 +26347,7 @@
       <c r="Z836" s="2"/>
       <c r="AA836" s="2"/>
     </row>
-    <row r="837" spans="1:27" ht="13">
+    <row r="837" spans="1:27" ht="13.2">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="14"/>
@@ -26374,7 +26376,7 @@
       <c r="Z837" s="2"/>
       <c r="AA837" s="2"/>
     </row>
-    <row r="838" spans="1:27" ht="13">
+    <row r="838" spans="1:27" ht="13.2">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="14"/>
@@ -26403,7 +26405,7 @@
       <c r="Z838" s="2"/>
       <c r="AA838" s="2"/>
     </row>
-    <row r="839" spans="1:27" ht="13">
+    <row r="839" spans="1:27" ht="13.2">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="14"/>
@@ -26432,7 +26434,7 @@
       <c r="Z839" s="2"/>
       <c r="AA839" s="2"/>
     </row>
-    <row r="840" spans="1:27" ht="13">
+    <row r="840" spans="1:27" ht="13.2">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="14"/>
@@ -26461,7 +26463,7 @@
       <c r="Z840" s="2"/>
       <c r="AA840" s="2"/>
     </row>
-    <row r="841" spans="1:27" ht="13">
+    <row r="841" spans="1:27" ht="13.2">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="14"/>
@@ -26490,7 +26492,7 @@
       <c r="Z841" s="2"/>
       <c r="AA841" s="2"/>
     </row>
-    <row r="842" spans="1:27" ht="13">
+    <row r="842" spans="1:27" ht="13.2">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="14"/>
@@ -26519,7 +26521,7 @@
       <c r="Z842" s="2"/>
       <c r="AA842" s="2"/>
     </row>
-    <row r="843" spans="1:27" ht="13">
+    <row r="843" spans="1:27" ht="13.2">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="14"/>
@@ -26548,7 +26550,7 @@
       <c r="Z843" s="2"/>
       <c r="AA843" s="2"/>
     </row>
-    <row r="844" spans="1:27" ht="13">
+    <row r="844" spans="1:27" ht="13.2">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="14"/>
@@ -26577,7 +26579,7 @@
       <c r="Z844" s="2"/>
       <c r="AA844" s="2"/>
     </row>
-    <row r="845" spans="1:27" ht="13">
+    <row r="845" spans="1:27" ht="13.2">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="14"/>
@@ -26606,7 +26608,7 @@
       <c r="Z845" s="2"/>
       <c r="AA845" s="2"/>
     </row>
-    <row r="846" spans="1:27" ht="13">
+    <row r="846" spans="1:27" ht="13.2">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="14"/>
@@ -26635,7 +26637,7 @@
       <c r="Z846" s="2"/>
       <c r="AA846" s="2"/>
     </row>
-    <row r="847" spans="1:27" ht="13">
+    <row r="847" spans="1:27" ht="13.2">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="14"/>
@@ -26664,7 +26666,7 @@
       <c r="Z847" s="2"/>
       <c r="AA847" s="2"/>
     </row>
-    <row r="848" spans="1:27" ht="13">
+    <row r="848" spans="1:27" ht="13.2">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="14"/>
@@ -26693,7 +26695,7 @@
       <c r="Z848" s="2"/>
       <c r="AA848" s="2"/>
     </row>
-    <row r="849" spans="1:27" ht="13">
+    <row r="849" spans="1:27" ht="13.2">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="14"/>
@@ -26722,7 +26724,7 @@
       <c r="Z849" s="2"/>
       <c r="AA849" s="2"/>
     </row>
-    <row r="850" spans="1:27" ht="13">
+    <row r="850" spans="1:27" ht="13.2">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="14"/>
@@ -26751,7 +26753,7 @@
       <c r="Z850" s="2"/>
       <c r="AA850" s="2"/>
     </row>
-    <row r="851" spans="1:27" ht="13">
+    <row r="851" spans="1:27" ht="13.2">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="14"/>
@@ -26780,7 +26782,7 @@
       <c r="Z851" s="2"/>
       <c r="AA851" s="2"/>
     </row>
-    <row r="852" spans="1:27" ht="13">
+    <row r="852" spans="1:27" ht="13.2">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="14"/>
@@ -26809,7 +26811,7 @@
       <c r="Z852" s="2"/>
       <c r="AA852" s="2"/>
     </row>
-    <row r="853" spans="1:27" ht="13">
+    <row r="853" spans="1:27" ht="13.2">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="14"/>
@@ -26838,7 +26840,7 @@
       <c r="Z853" s="2"/>
       <c r="AA853" s="2"/>
     </row>
-    <row r="854" spans="1:27" ht="13">
+    <row r="854" spans="1:27" ht="13.2">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="14"/>
@@ -26867,7 +26869,7 @@
       <c r="Z854" s="2"/>
       <c r="AA854" s="2"/>
     </row>
-    <row r="855" spans="1:27" ht="13">
+    <row r="855" spans="1:27" ht="13.2">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="14"/>
@@ -26896,7 +26898,7 @@
       <c r="Z855" s="2"/>
       <c r="AA855" s="2"/>
     </row>
-    <row r="856" spans="1:27" ht="13">
+    <row r="856" spans="1:27" ht="13.2">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="14"/>
@@ -26925,7 +26927,7 @@
       <c r="Z856" s="2"/>
       <c r="AA856" s="2"/>
     </row>
-    <row r="857" spans="1:27" ht="13">
+    <row r="857" spans="1:27" ht="13.2">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="14"/>
@@ -26954,7 +26956,7 @@
       <c r="Z857" s="2"/>
       <c r="AA857" s="2"/>
     </row>
-    <row r="858" spans="1:27" ht="13">
+    <row r="858" spans="1:27" ht="13.2">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="14"/>
@@ -26983,7 +26985,7 @@
       <c r="Z858" s="2"/>
       <c r="AA858" s="2"/>
     </row>
-    <row r="859" spans="1:27" ht="13">
+    <row r="859" spans="1:27" ht="13.2">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="14"/>
@@ -27012,7 +27014,7 @@
       <c r="Z859" s="2"/>
       <c r="AA859" s="2"/>
     </row>
-    <row r="860" spans="1:27" ht="13">
+    <row r="860" spans="1:27" ht="13.2">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="14"/>
@@ -27041,7 +27043,7 @@
       <c r="Z860" s="2"/>
       <c r="AA860" s="2"/>
     </row>
-    <row r="861" spans="1:27" ht="13">
+    <row r="861" spans="1:27" ht="13.2">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="14"/>
@@ -27070,7 +27072,7 @@
       <c r="Z861" s="2"/>
       <c r="AA861" s="2"/>
     </row>
-    <row r="862" spans="1:27" ht="13">
+    <row r="862" spans="1:27" ht="13.2">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="14"/>
@@ -27099,7 +27101,7 @@
       <c r="Z862" s="2"/>
       <c r="AA862" s="2"/>
     </row>
-    <row r="863" spans="1:27" ht="13">
+    <row r="863" spans="1:27" ht="13.2">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="14"/>
@@ -27128,7 +27130,7 @@
       <c r="Z863" s="2"/>
       <c r="AA863" s="2"/>
     </row>
-    <row r="864" spans="1:27" ht="13">
+    <row r="864" spans="1:27" ht="13.2">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="14"/>
@@ -27157,7 +27159,7 @@
       <c r="Z864" s="2"/>
       <c r="AA864" s="2"/>
     </row>
-    <row r="865" spans="1:27" ht="13">
+    <row r="865" spans="1:27" ht="13.2">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="14"/>
@@ -27186,7 +27188,7 @@
       <c r="Z865" s="2"/>
       <c r="AA865" s="2"/>
     </row>
-    <row r="866" spans="1:27" ht="13">
+    <row r="866" spans="1:27" ht="13.2">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="14"/>
@@ -27215,7 +27217,7 @@
       <c r="Z866" s="2"/>
       <c r="AA866" s="2"/>
     </row>
-    <row r="867" spans="1:27" ht="13">
+    <row r="867" spans="1:27" ht="13.2">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="14"/>
@@ -27244,7 +27246,7 @@
       <c r="Z867" s="2"/>
       <c r="AA867" s="2"/>
     </row>
-    <row r="868" spans="1:27" ht="13">
+    <row r="868" spans="1:27" ht="13.2">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="14"/>
@@ -27273,7 +27275,7 @@
       <c r="Z868" s="2"/>
       <c r="AA868" s="2"/>
     </row>
-    <row r="869" spans="1:27" ht="13">
+    <row r="869" spans="1:27" ht="13.2">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="14"/>
@@ -27302,7 +27304,7 @@
       <c r="Z869" s="2"/>
       <c r="AA869" s="2"/>
     </row>
-    <row r="870" spans="1:27" ht="13">
+    <row r="870" spans="1:27" ht="13.2">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="14"/>
@@ -27331,7 +27333,7 @@
       <c r="Z870" s="2"/>
       <c r="AA870" s="2"/>
     </row>
-    <row r="871" spans="1:27" ht="13">
+    <row r="871" spans="1:27" ht="13.2">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="14"/>
@@ -27360,7 +27362,7 @@
       <c r="Z871" s="2"/>
       <c r="AA871" s="2"/>
     </row>
-    <row r="872" spans="1:27" ht="13">
+    <row r="872" spans="1:27" ht="13.2">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="14"/>
@@ -27389,7 +27391,7 @@
       <c r="Z872" s="2"/>
       <c r="AA872" s="2"/>
     </row>
-    <row r="873" spans="1:27" ht="13">
+    <row r="873" spans="1:27" ht="13.2">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="14"/>
@@ -27418,7 +27420,7 @@
       <c r="Z873" s="2"/>
       <c r="AA873" s="2"/>
     </row>
-    <row r="874" spans="1:27" ht="13">
+    <row r="874" spans="1:27" ht="13.2">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="14"/>
@@ -27447,7 +27449,7 @@
       <c r="Z874" s="2"/>
       <c r="AA874" s="2"/>
     </row>
-    <row r="875" spans="1:27" ht="13">
+    <row r="875" spans="1:27" ht="13.2">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="14"/>
@@ -27476,7 +27478,7 @@
       <c r="Z875" s="2"/>
       <c r="AA875" s="2"/>
     </row>
-    <row r="876" spans="1:27" ht="13">
+    <row r="876" spans="1:27" ht="13.2">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="14"/>
@@ -27505,7 +27507,7 @@
       <c r="Z876" s="2"/>
       <c r="AA876" s="2"/>
     </row>
-    <row r="877" spans="1:27" ht="13">
+    <row r="877" spans="1:27" ht="13.2">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="14"/>
@@ -27534,7 +27536,7 @@
       <c r="Z877" s="2"/>
       <c r="AA877" s="2"/>
     </row>
-    <row r="878" spans="1:27" ht="13">
+    <row r="878" spans="1:27" ht="13.2">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="14"/>
@@ -27563,7 +27565,7 @@
       <c r="Z878" s="2"/>
       <c r="AA878" s="2"/>
     </row>
-    <row r="879" spans="1:27" ht="13">
+    <row r="879" spans="1:27" ht="13.2">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="14"/>
@@ -27592,7 +27594,7 @@
       <c r="Z879" s="2"/>
       <c r="AA879" s="2"/>
     </row>
-    <row r="880" spans="1:27" ht="13">
+    <row r="880" spans="1:27" ht="13.2">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="14"/>
@@ -27621,7 +27623,7 @@
       <c r="Z880" s="2"/>
       <c r="AA880" s="2"/>
     </row>
-    <row r="881" spans="1:27" ht="13">
+    <row r="881" spans="1:27" ht="13.2">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="14"/>
@@ -27650,7 +27652,7 @@
       <c r="Z881" s="2"/>
       <c r="AA881" s="2"/>
     </row>
-    <row r="882" spans="1:27" ht="13">
+    <row r="882" spans="1:27" ht="13.2">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="14"/>
@@ -27679,7 +27681,7 @@
       <c r="Z882" s="2"/>
       <c r="AA882" s="2"/>
     </row>
-    <row r="883" spans="1:27" ht="13">
+    <row r="883" spans="1:27" ht="13.2">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="14"/>
@@ -27708,7 +27710,7 @@
       <c r="Z883" s="2"/>
       <c r="AA883" s="2"/>
     </row>
-    <row r="884" spans="1:27" ht="13">
+    <row r="884" spans="1:27" ht="13.2">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="14"/>
@@ -27737,7 +27739,7 @@
       <c r="Z884" s="2"/>
       <c r="AA884" s="2"/>
     </row>
-    <row r="885" spans="1:27" ht="13">
+    <row r="885" spans="1:27" ht="13.2">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="14"/>
@@ -27766,7 +27768,7 @@
       <c r="Z885" s="2"/>
       <c r="AA885" s="2"/>
     </row>
-    <row r="886" spans="1:27" ht="13">
+    <row r="886" spans="1:27" ht="13.2">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="14"/>
@@ -27795,7 +27797,7 @@
       <c r="Z886" s="2"/>
       <c r="AA886" s="2"/>
     </row>
-    <row r="887" spans="1:27" ht="13">
+    <row r="887" spans="1:27" ht="13.2">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="14"/>
@@ -27824,7 +27826,7 @@
       <c r="Z887" s="2"/>
       <c r="AA887" s="2"/>
     </row>
-    <row r="888" spans="1:27" ht="13">
+    <row r="888" spans="1:27" ht="13.2">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="14"/>
@@ -27853,7 +27855,7 @@
       <c r="Z888" s="2"/>
       <c r="AA888" s="2"/>
     </row>
-    <row r="889" spans="1:27" ht="13">
+    <row r="889" spans="1:27" ht="13.2">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="14"/>
@@ -27882,7 +27884,7 @@
       <c r="Z889" s="2"/>
       <c r="AA889" s="2"/>
     </row>
-    <row r="890" spans="1:27" ht="13">
+    <row r="890" spans="1:27" ht="13.2">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="14"/>
@@ -27911,7 +27913,7 @@
       <c r="Z890" s="2"/>
       <c r="AA890" s="2"/>
     </row>
-    <row r="891" spans="1:27" ht="13">
+    <row r="891" spans="1:27" ht="13.2">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="14"/>
@@ -27940,7 +27942,7 @@
       <c r="Z891" s="2"/>
       <c r="AA891" s="2"/>
     </row>
-    <row r="892" spans="1:27" ht="13">
+    <row r="892" spans="1:27" ht="13.2">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="14"/>
@@ -27969,7 +27971,7 @@
       <c r="Z892" s="2"/>
       <c r="AA892" s="2"/>
     </row>
-    <row r="893" spans="1:27" ht="13">
+    <row r="893" spans="1:27" ht="13.2">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="14"/>
@@ -27998,7 +28000,7 @@
       <c r="Z893" s="2"/>
       <c r="AA893" s="2"/>
     </row>
-    <row r="894" spans="1:27" ht="13">
+    <row r="894" spans="1:27" ht="13.2">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="14"/>
@@ -28027,7 +28029,7 @@
       <c r="Z894" s="2"/>
       <c r="AA894" s="2"/>
     </row>
-    <row r="895" spans="1:27" ht="13">
+    <row r="895" spans="1:27" ht="13.2">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="14"/>
@@ -28056,7 +28058,7 @@
       <c r="Z895" s="2"/>
       <c r="AA895" s="2"/>
     </row>
-    <row r="896" spans="1:27" ht="13">
+    <row r="896" spans="1:27" ht="13.2">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="14"/>
@@ -28085,7 +28087,7 @@
       <c r="Z896" s="2"/>
       <c r="AA896" s="2"/>
     </row>
-    <row r="897" spans="1:27" ht="13">
+    <row r="897" spans="1:27" ht="13.2">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="14"/>
@@ -28114,7 +28116,7 @@
       <c r="Z897" s="2"/>
       <c r="AA897" s="2"/>
     </row>
-    <row r="898" spans="1:27" ht="13">
+    <row r="898" spans="1:27" ht="13.2">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="14"/>
@@ -28143,7 +28145,7 @@
       <c r="Z898" s="2"/>
       <c r="AA898" s="2"/>
     </row>
-    <row r="899" spans="1:27" ht="13">
+    <row r="899" spans="1:27" ht="13.2">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="14"/>
@@ -28172,7 +28174,7 @@
       <c r="Z899" s="2"/>
       <c r="AA899" s="2"/>
     </row>
-    <row r="900" spans="1:27" ht="13">
+    <row r="900" spans="1:27" ht="13.2">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="14"/>
@@ -28201,7 +28203,7 @@
       <c r="Z900" s="2"/>
       <c r="AA900" s="2"/>
     </row>
-    <row r="901" spans="1:27" ht="13">
+    <row r="901" spans="1:27" ht="13.2">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="14"/>
@@ -28230,7 +28232,7 @@
       <c r="Z901" s="2"/>
       <c r="AA901" s="2"/>
     </row>
-    <row r="902" spans="1:27" ht="13">
+    <row r="902" spans="1:27" ht="13.2">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="14"/>
@@ -28259,7 +28261,7 @@
       <c r="Z902" s="2"/>
       <c r="AA902" s="2"/>
     </row>
-    <row r="903" spans="1:27" ht="13">
+    <row r="903" spans="1:27" ht="13.2">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="14"/>
@@ -28288,7 +28290,7 @@
       <c r="Z903" s="2"/>
       <c r="AA903" s="2"/>
     </row>
-    <row r="904" spans="1:27" ht="13">
+    <row r="904" spans="1:27" ht="13.2">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="14"/>
@@ -28317,7 +28319,7 @@
       <c r="Z904" s="2"/>
       <c r="AA904" s="2"/>
     </row>
-    <row r="905" spans="1:27" ht="13">
+    <row r="905" spans="1:27" ht="13.2">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="14"/>
@@ -28346,7 +28348,7 @@
       <c r="Z905" s="2"/>
       <c r="AA905" s="2"/>
     </row>
-    <row r="906" spans="1:27" ht="13">
+    <row r="906" spans="1:27" ht="13.2">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="14"/>
@@ -28375,7 +28377,7 @@
       <c r="Z906" s="2"/>
       <c r="AA906" s="2"/>
     </row>
-    <row r="907" spans="1:27" ht="13">
+    <row r="907" spans="1:27" ht="13.2">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="14"/>
@@ -28404,7 +28406,7 @@
       <c r="Z907" s="2"/>
       <c r="AA907" s="2"/>
     </row>
-    <row r="908" spans="1:27" ht="13">
+    <row r="908" spans="1:27" ht="13.2">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="14"/>
@@ -28433,7 +28435,7 @@
       <c r="Z908" s="2"/>
       <c r="AA908" s="2"/>
     </row>
-    <row r="909" spans="1:27" ht="13">
+    <row r="909" spans="1:27" ht="13.2">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="14"/>
@@ -28462,7 +28464,7 @@
       <c r="Z909" s="2"/>
       <c r="AA909" s="2"/>
     </row>
-    <row r="910" spans="1:27" ht="13">
+    <row r="910" spans="1:27" ht="13.2">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="14"/>
@@ -28491,7 +28493,7 @@
       <c r="Z910" s="2"/>
       <c r="AA910" s="2"/>
     </row>
-    <row r="911" spans="1:27" ht="13">
+    <row r="911" spans="1:27" ht="13.2">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="14"/>
@@ -28520,7 +28522,7 @@
       <c r="Z911" s="2"/>
       <c r="AA911" s="2"/>
     </row>
-    <row r="912" spans="1:27" ht="13">
+    <row r="912" spans="1:27" ht="13.2">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="14"/>
@@ -28549,7 +28551,7 @@
       <c r="Z912" s="2"/>
       <c r="AA912" s="2"/>
     </row>
-    <row r="913" spans="1:27" ht="13">
+    <row r="913" spans="1:27" ht="13.2">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="14"/>
@@ -28578,7 +28580,7 @@
       <c r="Z913" s="2"/>
       <c r="AA913" s="2"/>
     </row>
-    <row r="914" spans="1:27" ht="13">
+    <row r="914" spans="1:27" ht="13.2">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="14"/>
@@ -28607,7 +28609,7 @@
       <c r="Z914" s="2"/>
       <c r="AA914" s="2"/>
     </row>
-    <row r="915" spans="1:27" ht="13">
+    <row r="915" spans="1:27" ht="13.2">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="14"/>
@@ -28636,7 +28638,7 @@
       <c r="Z915" s="2"/>
       <c r="AA915" s="2"/>
     </row>
-    <row r="916" spans="1:27" ht="13">
+    <row r="916" spans="1:27" ht="13.2">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="14"/>
@@ -28665,7 +28667,7 @@
       <c r="Z916" s="2"/>
       <c r="AA916" s="2"/>
     </row>
-    <row r="917" spans="1:27" ht="13">
+    <row r="917" spans="1:27" ht="13.2">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="14"/>
@@ -28694,7 +28696,7 @@
       <c r="Z917" s="2"/>
       <c r="AA917" s="2"/>
     </row>
-    <row r="918" spans="1:27" ht="13">
+    <row r="918" spans="1:27" ht="13.2">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="14"/>
@@ -28723,7 +28725,7 @@
       <c r="Z918" s="2"/>
       <c r="AA918" s="2"/>
     </row>
-    <row r="919" spans="1:27" ht="13">
+    <row r="919" spans="1:27" ht="13.2">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="14"/>
@@ -28752,7 +28754,7 @@
       <c r="Z919" s="2"/>
       <c r="AA919" s="2"/>
     </row>
-    <row r="920" spans="1:27" ht="13">
+    <row r="920" spans="1:27" ht="13.2">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="14"/>
@@ -28781,7 +28783,7 @@
       <c r="Z920" s="2"/>
       <c r="AA920" s="2"/>
     </row>
-    <row r="921" spans="1:27" ht="13">
+    <row r="921" spans="1:27" ht="13.2">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="14"/>
@@ -28810,7 +28812,7 @@
       <c r="Z921" s="2"/>
       <c r="AA921" s="2"/>
     </row>
-    <row r="922" spans="1:27" ht="13">
+    <row r="922" spans="1:27" ht="13.2">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="14"/>
@@ -28839,7 +28841,7 @@
       <c r="Z922" s="2"/>
       <c r="AA922" s="2"/>
     </row>
-    <row r="923" spans="1:27" ht="13">
+    <row r="923" spans="1:27" ht="13.2">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="14"/>
@@ -28868,7 +28870,7 @@
       <c r="Z923" s="2"/>
       <c r="AA923" s="2"/>
     </row>
-    <row r="924" spans="1:27" ht="13">
+    <row r="924" spans="1:27" ht="13.2">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="14"/>
@@ -28897,7 +28899,7 @@
       <c r="Z924" s="2"/>
       <c r="AA924" s="2"/>
     </row>
-    <row r="925" spans="1:27" ht="13">
+    <row r="925" spans="1:27" ht="13.2">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="14"/>
@@ -28926,7 +28928,7 @@
       <c r="Z925" s="2"/>
       <c r="AA925" s="2"/>
     </row>
-    <row r="926" spans="1:27" ht="13">
+    <row r="926" spans="1:27" ht="13.2">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="14"/>
@@ -28955,7 +28957,7 @@
       <c r="Z926" s="2"/>
       <c r="AA926" s="2"/>
     </row>
-    <row r="927" spans="1:27" ht="13">
+    <row r="927" spans="1:27" ht="13.2">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="14"/>
@@ -28984,7 +28986,7 @@
       <c r="Z927" s="2"/>
       <c r="AA927" s="2"/>
     </row>
-    <row r="928" spans="1:27" ht="13">
+    <row r="928" spans="1:27" ht="13.2">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="14"/>
@@ -29013,7 +29015,7 @@
       <c r="Z928" s="2"/>
       <c r="AA928" s="2"/>
     </row>
-    <row r="929" spans="1:27" ht="13">
+    <row r="929" spans="1:27" ht="13.2">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="14"/>
@@ -29042,7 +29044,7 @@
       <c r="Z929" s="2"/>
       <c r="AA929" s="2"/>
     </row>
-    <row r="930" spans="1:27" ht="13">
+    <row r="930" spans="1:27" ht="13.2">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="14"/>
@@ -29071,7 +29073,7 @@
       <c r="Z930" s="2"/>
       <c r="AA930" s="2"/>
     </row>
-    <row r="931" spans="1:27" ht="13">
+    <row r="931" spans="1:27" ht="13.2">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="14"/>
@@ -29100,7 +29102,7 @@
       <c r="Z931" s="2"/>
       <c r="AA931" s="2"/>
     </row>
-    <row r="932" spans="1:27" ht="13">
+    <row r="932" spans="1:27" ht="13.2">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="14"/>
@@ -29129,7 +29131,7 @@
       <c r="Z932" s="2"/>
       <c r="AA932" s="2"/>
     </row>
-    <row r="933" spans="1:27" ht="13">
+    <row r="933" spans="1:27" ht="13.2">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="14"/>
@@ -29158,7 +29160,7 @@
       <c r="Z933" s="2"/>
       <c r="AA933" s="2"/>
     </row>
-    <row r="934" spans="1:27" ht="13">
+    <row r="934" spans="1:27" ht="13.2">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="14"/>
@@ -29187,7 +29189,7 @@
       <c r="Z934" s="2"/>
       <c r="AA934" s="2"/>
     </row>
-    <row r="935" spans="1:27" ht="13">
+    <row r="935" spans="1:27" ht="13.2">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="14"/>
@@ -29216,7 +29218,7 @@
       <c r="Z935" s="2"/>
       <c r="AA935" s="2"/>
     </row>
-    <row r="936" spans="1:27" ht="13">
+    <row r="936" spans="1:27" ht="13.2">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="14"/>
@@ -29245,7 +29247,7 @@
       <c r="Z936" s="2"/>
       <c r="AA936" s="2"/>
     </row>
-    <row r="937" spans="1:27" ht="13">
+    <row r="937" spans="1:27" ht="13.2">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="14"/>
@@ -29274,7 +29276,7 @@
       <c r="Z937" s="2"/>
       <c r="AA937" s="2"/>
     </row>
-    <row r="938" spans="1:27" ht="13">
+    <row r="938" spans="1:27" ht="13.2">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="14"/>
@@ -29303,7 +29305,7 @@
       <c r="Z938" s="2"/>
       <c r="AA938" s="2"/>
     </row>
-    <row r="939" spans="1:27" ht="13">
+    <row r="939" spans="1:27" ht="13.2">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="14"/>
@@ -29332,7 +29334,7 @@
       <c r="Z939" s="2"/>
       <c r="AA939" s="2"/>
     </row>
-    <row r="940" spans="1:27" ht="13">
+    <row r="940" spans="1:27" ht="13.2">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="14"/>
@@ -29361,7 +29363,7 @@
       <c r="Z940" s="2"/>
       <c r="AA940" s="2"/>
     </row>
-    <row r="941" spans="1:27" ht="13">
+    <row r="941" spans="1:27" ht="13.2">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="14"/>
@@ -29390,7 +29392,7 @@
       <c r="Z941" s="2"/>
       <c r="AA941" s="2"/>
     </row>
-    <row r="942" spans="1:27" ht="13">
+    <row r="942" spans="1:27" ht="13.2">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="14"/>
@@ -29419,7 +29421,7 @@
       <c r="Z942" s="2"/>
       <c r="AA942" s="2"/>
     </row>
-    <row r="943" spans="1:27" ht="13">
+    <row r="943" spans="1:27" ht="13.2">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="14"/>
@@ -29448,7 +29450,7 @@
       <c r="Z943" s="2"/>
       <c r="AA943" s="2"/>
     </row>
-    <row r="944" spans="1:27" ht="13">
+    <row r="944" spans="1:27" ht="13.2">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="14"/>
@@ -29477,7 +29479,7 @@
       <c r="Z944" s="2"/>
       <c r="AA944" s="2"/>
     </row>
-    <row r="945" spans="1:27" ht="13">
+    <row r="945" spans="1:27" ht="13.2">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="14"/>
@@ -29506,7 +29508,7 @@
       <c r="Z945" s="2"/>
       <c r="AA945" s="2"/>
     </row>
-    <row r="946" spans="1:27" ht="13">
+    <row r="946" spans="1:27" ht="13.2">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="14"/>
@@ -29535,7 +29537,7 @@
       <c r="Z946" s="2"/>
       <c r="AA946" s="2"/>
     </row>
-    <row r="947" spans="1:27" ht="13">
+    <row r="947" spans="1:27" ht="13.2">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="14"/>
@@ -29564,7 +29566,7 @@
       <c r="Z947" s="2"/>
       <c r="AA947" s="2"/>
     </row>
-    <row r="948" spans="1:27" ht="13">
+    <row r="948" spans="1:27" ht="13.2">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="14"/>
@@ -29593,7 +29595,7 @@
       <c r="Z948" s="2"/>
       <c r="AA948" s="2"/>
     </row>
-    <row r="949" spans="1:27" ht="13">
+    <row r="949" spans="1:27" ht="13.2">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="14"/>
@@ -29622,7 +29624,7 @@
       <c r="Z949" s="2"/>
       <c r="AA949" s="2"/>
     </row>
-    <row r="950" spans="1:27" ht="13">
+    <row r="950" spans="1:27" ht="13.2">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="14"/>
@@ -29651,7 +29653,7 @@
       <c r="Z950" s="2"/>
       <c r="AA950" s="2"/>
     </row>
-    <row r="951" spans="1:27" ht="13">
+    <row r="951" spans="1:27" ht="13.2">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="14"/>
@@ -29680,7 +29682,7 @@
       <c r="Z951" s="2"/>
       <c r="AA951" s="2"/>
     </row>
-    <row r="952" spans="1:27" ht="13">
+    <row r="952" spans="1:27" ht="13.2">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="14"/>
@@ -29709,7 +29711,7 @@
       <c r="Z952" s="2"/>
       <c r="AA952" s="2"/>
     </row>
-    <row r="953" spans="1:27" ht="13">
+    <row r="953" spans="1:27" ht="13.2">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="14"/>
@@ -29738,7 +29740,7 @@
       <c r="Z953" s="2"/>
       <c r="AA953" s="2"/>
     </row>
-    <row r="954" spans="1:27" ht="13">
+    <row r="954" spans="1:27" ht="13.2">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="14"/>
@@ -29767,7 +29769,7 @@
       <c r="Z954" s="2"/>
       <c r="AA954" s="2"/>
     </row>
-    <row r="955" spans="1:27" ht="13">
+    <row r="955" spans="1:27" ht="13.2">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="14"/>
@@ -29796,7 +29798,7 @@
       <c r="Z955" s="2"/>
       <c r="AA955" s="2"/>
     </row>
-    <row r="956" spans="1:27" ht="13">
+    <row r="956" spans="1:27" ht="13.2">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="14"/>
@@ -29825,7 +29827,7 @@
       <c r="Z956" s="2"/>
       <c r="AA956" s="2"/>
     </row>
-    <row r="957" spans="1:27" ht="13">
+    <row r="957" spans="1:27" ht="13.2">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="14"/>
@@ -29854,7 +29856,7 @@
       <c r="Z957" s="2"/>
       <c r="AA957" s="2"/>
     </row>
-    <row r="958" spans="1:27" ht="13">
+    <row r="958" spans="1:27" ht="13.2">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="14"/>
@@ -29883,7 +29885,7 @@
       <c r="Z958" s="2"/>
       <c r="AA958" s="2"/>
     </row>
-    <row r="959" spans="1:27" ht="13">
+    <row r="959" spans="1:27" ht="13.2">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="14"/>
@@ -29912,7 +29914,7 @@
       <c r="Z959" s="2"/>
       <c r="AA959" s="2"/>
     </row>
-    <row r="960" spans="1:27" ht="13">
+    <row r="960" spans="1:27" ht="13.2">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="14"/>
@@ -29941,7 +29943,7 @@
       <c r="Z960" s="2"/>
       <c r="AA960" s="2"/>
     </row>
-    <row r="961" spans="1:27" ht="13">
+    <row r="961" spans="1:27" ht="13.2">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="14"/>
@@ -29970,7 +29972,7 @@
       <c r="Z961" s="2"/>
       <c r="AA961" s="2"/>
     </row>
-    <row r="962" spans="1:27" ht="13">
+    <row r="962" spans="1:27" ht="13.2">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="14"/>
@@ -29999,7 +30001,7 @@
       <c r="Z962" s="2"/>
       <c r="AA962" s="2"/>
     </row>
-    <row r="963" spans="1:27" ht="13">
+    <row r="963" spans="1:27" ht="13.2">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="14"/>
@@ -30028,7 +30030,7 @@
       <c r="Z963" s="2"/>
       <c r="AA963" s="2"/>
     </row>
-    <row r="964" spans="1:27" ht="13">
+    <row r="964" spans="1:27" ht="13.2">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="14"/>
@@ -30057,7 +30059,7 @@
       <c r="Z964" s="2"/>
       <c r="AA964" s="2"/>
     </row>
-    <row r="965" spans="1:27" ht="13">
+    <row r="965" spans="1:27" ht="13.2">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="14"/>
@@ -30086,7 +30088,7 @@
       <c r="Z965" s="2"/>
       <c r="AA965" s="2"/>
     </row>
-    <row r="966" spans="1:27" ht="13">
+    <row r="966" spans="1:27" ht="13.2">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="14"/>
@@ -30115,7 +30117,7 @@
       <c r="Z966" s="2"/>
       <c r="AA966" s="2"/>
     </row>
-    <row r="967" spans="1:27" ht="13">
+    <row r="967" spans="1:27" ht="13.2">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="14"/>
@@ -30144,7 +30146,7 @@
       <c r="Z967" s="2"/>
       <c r="AA967" s="2"/>
     </row>
-    <row r="968" spans="1:27" ht="13">
+    <row r="968" spans="1:27" ht="13.2">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="14"/>
@@ -30173,7 +30175,7 @@
       <c r="Z968" s="2"/>
       <c r="AA968" s="2"/>
     </row>
-    <row r="969" spans="1:27" ht="13">
+    <row r="969" spans="1:27" ht="13.2">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="14"/>
@@ -30202,7 +30204,7 @@
       <c r="Z969" s="2"/>
       <c r="AA969" s="2"/>
     </row>
-    <row r="970" spans="1:27" ht="13">
+    <row r="970" spans="1:27" ht="13.2">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="14"/>
@@ -30231,7 +30233,7 @@
       <c r="Z970" s="2"/>
       <c r="AA970" s="2"/>
     </row>
-    <row r="971" spans="1:27" ht="13">
+    <row r="971" spans="1:27" ht="13.2">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="14"/>
@@ -30260,7 +30262,7 @@
       <c r="Z971" s="2"/>
       <c r="AA971" s="2"/>
     </row>
-    <row r="972" spans="1:27" ht="13">
+    <row r="972" spans="1:27" ht="13.2">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="14"/>
@@ -30289,7 +30291,7 @@
       <c r="Z972" s="2"/>
       <c r="AA972" s="2"/>
     </row>
-    <row r="973" spans="1:27" ht="13">
+    <row r="973" spans="1:27" ht="13.2">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="14"/>
@@ -30318,7 +30320,7 @@
       <c r="Z973" s="2"/>
       <c r="AA973" s="2"/>
     </row>
-    <row r="974" spans="1:27" ht="13">
+    <row r="974" spans="1:27" ht="13.2">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="14"/>
@@ -30347,7 +30349,7 @@
       <c r="Z974" s="2"/>
       <c r="AA974" s="2"/>
     </row>
-    <row r="975" spans="1:27" ht="13">
+    <row r="975" spans="1:27" ht="13.2">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="14"/>
@@ -30376,7 +30378,7 @@
       <c r="Z975" s="2"/>
       <c r="AA975" s="2"/>
     </row>
-    <row r="976" spans="1:27" ht="13">
+    <row r="976" spans="1:27" ht="13.2">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="14"/>
@@ -30405,7 +30407,7 @@
       <c r="Z976" s="2"/>
       <c r="AA976" s="2"/>
     </row>
-    <row r="977" spans="1:27" ht="13">
+    <row r="977" spans="1:27" ht="13.2">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="14"/>
@@ -30434,7 +30436,7 @@
       <c r="Z977" s="2"/>
       <c r="AA977" s="2"/>
     </row>
-    <row r="978" spans="1:27" ht="13">
+    <row r="978" spans="1:27" ht="13.2">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="14"/>
@@ -30463,7 +30465,7 @@
       <c r="Z978" s="2"/>
       <c r="AA978" s="2"/>
     </row>
-    <row r="979" spans="1:27" ht="13">
+    <row r="979" spans="1:27" ht="13.2">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="14"/>
@@ -30492,7 +30494,7 @@
       <c r="Z979" s="2"/>
       <c r="AA979" s="2"/>
     </row>
-    <row r="980" spans="1:27" ht="13">
+    <row r="980" spans="1:27" ht="13.2">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="14"/>
@@ -30521,7 +30523,7 @@
       <c r="Z980" s="2"/>
       <c r="AA980" s="2"/>
     </row>
-    <row r="981" spans="1:27" ht="13">
+    <row r="981" spans="1:27" ht="13.2">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="14"/>
@@ -30550,7 +30552,7 @@
       <c r="Z981" s="2"/>
       <c r="AA981" s="2"/>
     </row>
-    <row r="982" spans="1:27" ht="13">
+    <row r="982" spans="1:27" ht="13.2">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="14"/>
@@ -30579,7 +30581,7 @@
       <c r="Z982" s="2"/>
       <c r="AA982" s="2"/>
     </row>
-    <row r="983" spans="1:27" ht="13">
+    <row r="983" spans="1:27" ht="13.2">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="14"/>
@@ -30608,7 +30610,7 @@
       <c r="Z983" s="2"/>
       <c r="AA983" s="2"/>
     </row>
-    <row r="984" spans="1:27" ht="13">
+    <row r="984" spans="1:27" ht="13.2">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="14"/>
@@ -30637,7 +30639,7 @@
       <c r="Z984" s="2"/>
       <c r="AA984" s="2"/>
     </row>
-    <row r="985" spans="1:27" ht="13">
+    <row r="985" spans="1:27" ht="13.2">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="14"/>
@@ -30666,7 +30668,7 @@
       <c r="Z985" s="2"/>
       <c r="AA985" s="2"/>
     </row>
-    <row r="986" spans="1:27" ht="13">
+    <row r="986" spans="1:27" ht="13.2">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="14"/>
@@ -30695,7 +30697,7 @@
       <c r="Z986" s="2"/>
       <c r="AA986" s="2"/>
     </row>
-    <row r="987" spans="1:27" ht="13">
+    <row r="987" spans="1:27" ht="13.2">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="14"/>
@@ -30724,7 +30726,7 @@
       <c r="Z987" s="2"/>
       <c r="AA987" s="2"/>
     </row>
-    <row r="988" spans="1:27" ht="13">
+    <row r="988" spans="1:27" ht="13.2">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="14"/>
@@ -30753,7 +30755,7 @@
       <c r="Z988" s="2"/>
       <c r="AA988" s="2"/>
     </row>
-    <row r="989" spans="1:27" ht="13">
+    <row r="989" spans="1:27" ht="13.2">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="14"/>
@@ -30782,7 +30784,7 @@
       <c r="Z989" s="2"/>
       <c r="AA989" s="2"/>
     </row>
-    <row r="990" spans="1:27" ht="13">
+    <row r="990" spans="1:27" ht="13.2">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="14"/>
@@ -30811,7 +30813,7 @@
       <c r="Z990" s="2"/>
       <c r="AA990" s="2"/>
     </row>
-    <row r="991" spans="1:27" ht="13">
+    <row r="991" spans="1:27" ht="13.2">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="14"/>
@@ -30840,7 +30842,7 @@
       <c r="Z991" s="2"/>
       <c r="AA991" s="2"/>
     </row>
-    <row r="992" spans="1:27" ht="13">
+    <row r="992" spans="1:27" ht="13.2">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="14"/>
@@ -30869,7 +30871,7 @@
       <c r="Z992" s="2"/>
       <c r="AA992" s="2"/>
     </row>
-    <row r="993" spans="1:27" ht="13">
+    <row r="993" spans="1:27" ht="13.2">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="14"/>
@@ -30898,7 +30900,7 @@
       <c r="Z993" s="2"/>
       <c r="AA993" s="2"/>
     </row>
-    <row r="994" spans="1:27" ht="13">
+    <row r="994" spans="1:27" ht="13.2">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="14"/>
@@ -30927,7 +30929,7 @@
       <c r="Z994" s="2"/>
       <c r="AA994" s="2"/>
     </row>
-    <row r="995" spans="1:27" ht="13">
+    <row r="995" spans="1:27" ht="13.2">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="14"/>
@@ -30956,7 +30958,7 @@
       <c r="Z995" s="2"/>
       <c r="AA995" s="2"/>
     </row>
-    <row r="996" spans="1:27" ht="13">
+    <row r="996" spans="1:27" ht="13.2">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="14"/>
@@ -30985,7 +30987,7 @@
       <c r="Z996" s="2"/>
       <c r="AA996" s="2"/>
     </row>
-    <row r="997" spans="1:27" ht="13">
+    <row r="997" spans="1:27" ht="13.2">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="14"/>
@@ -31014,7 +31016,7 @@
       <c r="Z997" s="2"/>
       <c r="AA997" s="2"/>
     </row>
-    <row r="998" spans="1:27" ht="13">
+    <row r="998" spans="1:27" ht="13.2">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="14"/>
@@ -31043,7 +31045,7 @@
       <c r="Z998" s="2"/>
       <c r="AA998" s="2"/>
     </row>
-    <row r="999" spans="1:27" ht="13">
+    <row r="999" spans="1:27" ht="13.2">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="C999" s="14"/>
@@ -31072,7 +31074,7 @@
       <c r="Z999" s="2"/>
       <c r="AA999" s="2"/>
     </row>
-    <row r="1000" spans="1:27" ht="13">
+    <row r="1000" spans="1:27" ht="13.2">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="14"/>
@@ -31101,7 +31103,7 @@
       <c r="Z1000" s="2"/>
       <c r="AA1000" s="2"/>
     </row>
-    <row r="1001" spans="1:27" ht="13">
+    <row r="1001" spans="1:27" ht="13.2">
       <c r="A1001" s="2"/>
       <c r="B1001" s="2"/>
       <c r="C1001" s="14"/>
@@ -31146,9 +31148,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="22.40625" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -31272,7 +31274,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
@@ -31371,7 +31373,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
@@ -31430,23 +31432,23 @@
   </sheetPr>
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.40625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="127.1328125" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1328125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="184.54296875" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.26953125" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.40625" style="34" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.54296875" style="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="127.109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="34" customWidth="1"/>
+    <col min="4" max="4" width="184.5546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.21875" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.5546875" style="34" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" style="34" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.54296875" style="34"/>
+    <col min="10" max="10" width="15.21875" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.5546875" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20.25" customHeight="1">
@@ -31769,10 +31771,10 @@
         <v>104</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H8" s="32" t="s">
         <v>119</v>
@@ -31814,7 +31816,7 @@
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H9" s="30" t="s">
         <v>122</v>
@@ -31968,15 +31970,15 @@
         <v>2024</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
       <c r="H13" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I13" s="30" t="s">
         <v>179</v>
@@ -32010,7 +32012,7 @@
         <v>2024</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>104</v>
@@ -32019,7 +32021,7 @@
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
       <c r="I14" s="30" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="J14" s="34" t="s">
         <v>103</v>
@@ -32030,7 +32032,7 @@
         <v>97</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C15" s="30">
         <v>2024</v>
@@ -32042,10 +32044,10 @@
         <v>104</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J15" s="34" t="s">
         <v>103</v>
@@ -32073,7 +32075,7 @@
     </row>
     <row r="17" spans="1:24" ht="20.25" customHeight="1">
       <c r="A17" s="30" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>158</v>
@@ -32082,7 +32084,7 @@
         <v>2024</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I17" s="30" t="s">
         <v>157</v>
@@ -32093,7 +32095,7 @@
     </row>
     <row r="18" spans="1:24" ht="20.25" customHeight="1">
       <c r="A18" s="30" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B18" s="34" t="s">
         <v>187</v>
@@ -32105,7 +32107,7 @@
         <v>186</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="I18" s="30" t="s">
         <v>163</v>
@@ -32116,30 +32118,30 @@
     </row>
     <row r="19" spans="1:24" ht="20.25" customHeight="1">
       <c r="A19" s="34" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C19" s="34">
         <v>2024</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>104</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J19" s="34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="20.25" customHeight="1">
       <c r="A20" s="30" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B20" s="30" t="s">
         <v>124</v>
@@ -32160,7 +32162,7 @@
     </row>
     <row r="21" spans="1:24" ht="20.25" customHeight="1">
       <c r="A21" s="30" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B21" s="30" t="s">
         <v>52</v>
@@ -32184,16 +32186,16 @@
     </row>
     <row r="22" spans="1:24" ht="20.25" customHeight="1">
       <c r="A22" s="34" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C22" s="34">
         <v>2024</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I22" s="30" t="s">
         <v>157</v>
@@ -32201,16 +32203,16 @@
     </row>
     <row r="23" spans="1:24" ht="20.25" customHeight="1">
       <c r="A23" s="34" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C23" s="30">
         <v>2024</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -32237,16 +32239,16 @@
     </row>
     <row r="24" spans="1:24" ht="20.25" customHeight="1">
       <c r="A24" s="34" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C24" s="30">
         <v>2024</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
@@ -32273,25 +32275,25 @@
     </row>
     <row r="25" spans="1:24" ht="20.25" customHeight="1">
       <c r="A25" s="30" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C25" s="30">
         <v>2024</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J25" s="30"/>
       <c r="K25" s="30"/>
@@ -32311,23 +32313,23 @@
     </row>
     <row r="26" spans="1:24" ht="20.25" customHeight="1">
       <c r="A26" s="30" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C26" s="30">
         <v>2024</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
       <c r="I26" s="30" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J26" s="30"/>
       <c r="K26" s="30"/>
@@ -32347,23 +32349,23 @@
     </row>
     <row r="27" spans="1:24" ht="20.25" customHeight="1">
       <c r="A27" s="30" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C27" s="30">
         <v>2024</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
       <c r="I27" s="30" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
@@ -32383,23 +32385,23 @@
     </row>
     <row r="28" spans="1:24" ht="20.25" customHeight="1">
       <c r="A28" s="30" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C28" s="30">
         <v>2024</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
       <c r="I28" s="30" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J28" s="30"/>
       <c r="K28" s="30"/>
@@ -32418,15 +32420,27 @@
       <c r="X28" s="30"/>
     </row>
     <row r="29" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
+      <c r="A29" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C29" s="30">
+        <v>2024</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>178</v>
+      </c>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
+      <c r="I29" s="30" t="s">
+        <v>179</v>
+      </c>
       <c r="J29" s="30"/>
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
@@ -57694,7 +57708,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
@@ -57742,14 +57756,14 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7265625" customWidth="1"/>
-    <col min="5" max="5" width="46.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.77734375" customWidth="1"/>
+    <col min="5" max="5" width="46.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13">
+    <row r="1" spans="1:21" ht="13.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -57786,7 +57800,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" ht="13">
+    <row r="2" spans="1:21" ht="13.2">
       <c r="A2" s="2" t="s">
         <v>127</v>
       </c>
@@ -57823,7 +57837,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" ht="13">
+    <row r="3" spans="1:21" ht="13.2">
       <c r="A3" s="2" t="s">
         <v>127</v>
       </c>
@@ -57860,7 +57874,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="13">
+    <row r="4" spans="1:21" ht="13.2">
       <c r="A4" s="2" t="s">
         <v>127</v>
       </c>
@@ -57880,7 +57894,7 @@
         <v>131</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
@@ -57896,7 +57910,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="13">
+    <row r="5" spans="1:21" ht="13.2">
       <c r="A5" s="2" t="s">
         <v>127</v>
       </c>
@@ -57933,7 +57947,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="14.25">
+    <row r="6" spans="1:21" ht="13.8">
       <c r="A6" s="2" t="s">
         <v>127</v>
       </c>
@@ -57970,7 +57984,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="13.75" thickBot="1">
+    <row r="7" spans="1:21" ht="13.8" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>127</v>
       </c>
@@ -58007,7 +58021,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="13.75" thickBot="1">
+    <row r="8" spans="1:21" ht="13.8" thickBot="1">
       <c r="A8" s="2" t="s">
         <v>127</v>
       </c>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slee2462\Documents\github\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75C35CD-88AE-42DB-ACA6-0C26834FC347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D710198-15B1-4036-8F21-2D4DAE30FA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47895" yWindow="0" windowWidth="19410" windowHeight="16305" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29760" yWindow="0" windowWidth="28800" windowHeight="16305" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="257">
   <si>
     <t>Degree</t>
   </si>
@@ -609,9 +609,6 @@
     <t>1-12</t>
   </si>
   <si>
-    <t>Bayesian Moderated Non-linear Factor Analysis for DIF Detection under Violation of Equal Variance Assumption</t>
-  </si>
-  <si>
     <t>https://sooyonglee.shinyapps.io/ESS_shiny/</t>
   </si>
   <si>
@@ -818,6 +815,21 @@
   <si>
     <t>Gianopulos, G., Lee, J., Lim, S., Niu, L., Sooyong Lee., &amp; Choi, S. W.</t>
   </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>p. 1-13</t>
+  </si>
+  <si>
+    <t>A Bayesian Moderated Nonlinear Factor Analysis Approach for DIF Detection under Violation of the Equal Variance Assumption</t>
+  </si>
+  <si>
+    <t>62(2)</t>
+  </si>
+  <si>
+    <t>303-324</t>
+  </si>
 </sst>
 </file>
 
@@ -826,7 +838,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\-yy;@"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1012,6 +1024,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1061,7 +1080,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1139,6 +1158,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1420,7 +1440,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
@@ -1494,7 +1514,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>71</v>
@@ -1520,7 +1540,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>74</v>
@@ -1548,10 +1568,10 @@
         <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>77</v>
@@ -1574,16 +1594,16 @@
         <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1602,16 +1622,16 @@
         <v>184</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1683,19 +1703,19 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1711,16 +1731,16 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="D10" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1964,7 +1984,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -2009,7 +2029,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -2054,7 +2074,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
@@ -2099,7 +2119,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>35</v>
@@ -2142,7 +2162,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
@@ -2185,7 +2205,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>42</v>
@@ -2232,7 +2252,7 @@
         <v>46</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>47</v>
@@ -2277,7 +2297,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>51</v>
@@ -2322,7 +2342,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>53</v>
@@ -2365,7 +2385,7 @@
         <v>155</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>154</v>
@@ -2403,19 +2423,19 @@
         <v>19</v>
       </c>
       <c r="B12" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="E12" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="F12" s="27" t="s">
         <v>197</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>198</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2447,16 +2467,16 @@
         <v>52</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -31432,8 +31452,8 @@
   </sheetPr>
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="20.25" customHeight="1"/>
@@ -31970,15 +31990,19 @@
         <v>2024</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
+      <c r="F13" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>256</v>
+      </c>
       <c r="H13" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I13" s="30" t="s">
         <v>179</v>
@@ -32012,7 +32036,7 @@
         <v>2024</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>104</v>
@@ -32032,7 +32056,7 @@
         <v>97</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C15" s="30">
         <v>2024</v>
@@ -32043,11 +32067,14 @@
       <c r="E15" s="30" t="s">
         <v>104</v>
       </c>
+      <c r="G15" s="45" t="s">
+        <v>253</v>
+      </c>
       <c r="H15" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J15" s="34" t="s">
         <v>103</v>
@@ -32075,7 +32102,7 @@
     </row>
     <row r="17" spans="1:24" ht="20.25" customHeight="1">
       <c r="A17" s="30" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>158</v>
@@ -32084,7 +32111,7 @@
         <v>2024</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I17" s="30" t="s">
         <v>157</v>
@@ -32095,7 +32122,7 @@
     </row>
     <row r="18" spans="1:24" ht="20.25" customHeight="1">
       <c r="A18" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B18" s="34" t="s">
         <v>187</v>
@@ -32107,7 +32134,7 @@
         <v>186</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I18" s="30" t="s">
         <v>163</v>
@@ -32118,30 +32145,30 @@
     </row>
     <row r="19" spans="1:24" ht="20.25" customHeight="1">
       <c r="A19" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C19" s="34">
         <v>2024</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>104</v>
       </c>
       <c r="I19" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="J19" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="J19" s="34" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="20" spans="1:24" ht="20.25" customHeight="1">
       <c r="A20" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B20" s="30" t="s">
         <v>124</v>
@@ -32162,7 +32189,7 @@
     </row>
     <row r="21" spans="1:24" ht="20.25" customHeight="1">
       <c r="A21" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B21" s="30" t="s">
         <v>52</v>
@@ -32186,16 +32213,16 @@
     </row>
     <row r="22" spans="1:24" ht="20.25" customHeight="1">
       <c r="A22" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C22" s="34">
         <v>2024</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I22" s="30" t="s">
         <v>157</v>
@@ -32203,16 +32230,16 @@
     </row>
     <row r="23" spans="1:24" ht="20.25" customHeight="1">
       <c r="A23" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C23" s="30">
         <v>2024</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
@@ -32239,16 +32266,16 @@
     </row>
     <row r="24" spans="1:24" ht="20.25" customHeight="1">
       <c r="A24" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C24" s="30">
         <v>2024</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E24" s="30"/>
       <c r="F24" s="30"/>
@@ -32275,25 +32302,25 @@
     </row>
     <row r="25" spans="1:24" ht="20.25" customHeight="1">
       <c r="A25" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C25" s="30">
         <v>2024</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J25" s="30"/>
       <c r="K25" s="30"/>
@@ -32313,23 +32340,23 @@
     </row>
     <row r="26" spans="1:24" ht="20.25" customHeight="1">
       <c r="A26" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C26" s="30">
         <v>2024</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
       <c r="I26" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J26" s="30"/>
       <c r="K26" s="30"/>
@@ -32349,23 +32376,23 @@
     </row>
     <row r="27" spans="1:24" ht="20.25" customHeight="1">
       <c r="A27" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C27" s="30">
         <v>2024</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
       <c r="I27" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
@@ -32385,23 +32412,23 @@
     </row>
     <row r="28" spans="1:24" ht="20.25" customHeight="1">
       <c r="A28" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C28" s="30">
         <v>2024</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
       <c r="I28" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J28" s="30"/>
       <c r="K28" s="30"/>
@@ -32421,16 +32448,16 @@
     </row>
     <row r="29" spans="1:24" ht="20.25" customHeight="1">
       <c r="A29" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C29" s="30">
         <v>2024</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E29" s="30" t="s">
         <v>178</v>
@@ -57894,7 +57921,7 @@
         <v>131</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slee2462\Documents\github\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D710198-15B1-4036-8F21-2D4DAE30FA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8688069D-6E10-4C61-982F-073316591ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="0" windowWidth="28800" windowHeight="16305" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46860" yWindow="4380" windowWidth="17910" windowHeight="11775" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="268">
   <si>
     <t>Degree</t>
   </si>
@@ -830,6 +830,39 @@
   <si>
     <t>303-324</t>
   </si>
+  <si>
+    <t>Psychological Methods</t>
+  </si>
+  <si>
+    <t>Submitted</t>
+  </si>
+  <si>
+    <t>Invited Reviewer</t>
+  </si>
+  <si>
+    <t>Automated Essay Scoring: Syntactic and Semantic Feature Engineering for Interpretable and Content Aware System</t>
+  </si>
+  <si>
+    <t>International Association for Computerized Adaptive Testing (IACAT)</t>
+  </si>
+  <si>
+    <t>2024-09</t>
+  </si>
+  <si>
+    <t>Comparing Vertical Scaling Methods in Multistage Adaptive Testing using Simulation and Operational Data on WIDA’s Language Assessments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kei Bishop, Hacer Karamese, Sooyong Lee, &amp; Syed Abdul Hadi </t>
+  </si>
+  <si>
+    <t>Syed Abdul Hadi, Kei Bishop, Hacer Karamese, &amp; Sooyong Lee</t>
+  </si>
+  <si>
+    <t>Seoul, South Korea</t>
+  </si>
+  <si>
+    <t>Qeios</t>
+  </si>
 </sst>
 </file>
 
@@ -838,7 +871,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\-yy;@"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1031,6 +1064,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFAAAAAA"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1080,7 +1119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1159,6 +1198,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1913,9 +1955,7 @@
   </sheetPr>
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -2501,15 +2541,29 @@
       <c r="AA13" s="2"/>
     </row>
     <row r="14" spans="1:27" ht="13.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="A14" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D14" t="s">
+        <v>260</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>261</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -2530,15 +2584,29 @@
       <c r="AA14" s="2"/>
     </row>
     <row r="15" spans="1:27" ht="13.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="A15" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>261</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -31452,8 +31520,8 @@
   </sheetPr>
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="20.25" customHeight="1"/>
@@ -32241,12 +32309,14 @@
       <c r="D23" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="E23" s="30"/>
+      <c r="E23" s="30" t="s">
+        <v>257</v>
+      </c>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
       <c r="I23" s="30" t="s">
-        <v>157</v>
+        <v>258</v>
       </c>
       <c r="J23" s="30"/>
       <c r="K23" s="30"/>
@@ -57729,10 +57799,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4445EC-8FC5-4E63-800B-686D768A8FCC}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -57764,6 +57834,31 @@
       <c r="C2" t="s">
         <v>100</v>
       </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2024</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2024</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.8">
+      <c r="A6" s="46"/>
     </row>
   </sheetData>
   <phoneticPr fontId="29" type="noConversion"/>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slee2462\Documents\github\sylcv\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitfolder\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8688069D-6E10-4C61-982F-073316591ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D9AB25-ED14-4AD6-A7A1-6A974152FEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46860" yWindow="4380" windowWidth="17910" windowHeight="11775" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="269">
   <si>
     <t>Degree</t>
   </si>
@@ -771,10 +771,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Mediation Analysis with an Event-history Mediator: A Simulation Comparing between ML and Bayesian Estimation</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Sooyong Lee &amp; Soyoung Kim</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -863,13 +859,20 @@
   <si>
     <t>Qeios</t>
   </si>
+  <si>
+    <t> https://doi.org/10.1080/10705511.2024.2402331</t>
+  </si>
+  <si>
+    <t>Mediation Analysis with an Event-history Mediator: A Simulation Study and Empirical Data Illustration</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]mmmm\-yy;@"/>
+    <numFmt numFmtId="176" formatCode="[$-409]mmmm\-yy;@"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -1140,11 +1143,11 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1164,7 +1167,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1426,15 +1429,15 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" customWidth="1"/>
-    <col min="3" max="3" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="136.77734375" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" customWidth="1"/>
+    <col min="3" max="3" width="28.76953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="136.76953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.2">
+    <row r="1" spans="1:5" ht="13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1451,7 +1454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="39.6">
+    <row r="2" spans="1:5" ht="26">
       <c r="A2" s="26" t="s">
         <v>170</v>
       </c>
@@ -1468,7 +1471,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8" thickBot="1">
+    <row r="3" spans="1:5" ht="13.75" thickBot="1">
       <c r="A3" s="24" t="s">
         <v>139</v>
       </c>
@@ -1518,9 +1521,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="39.109375" customWidth="1"/>
+    <col min="3" max="3" width="39.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1">
@@ -1957,19 +1960,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="9.76953125" customWidth="1"/>
+    <col min="2" max="2" width="27.86328125" customWidth="1"/>
+    <col min="3" max="3" width="23.86328125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="13.76953125" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" customWidth="1"/>
+    <col min="8" max="8" width="14.76953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="13.2">
+    <row r="1" spans="1:27" ht="13">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2016,7 +2019,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="13.2">
+    <row r="2" spans="1:27" ht="13">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -2061,7 +2064,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="13.2">
+    <row r="3" spans="1:27" ht="13">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -2106,7 +2109,7 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:27" ht="13.2">
+    <row r="4" spans="1:27" ht="13.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -2194,7 +2197,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:27" ht="13.2">
+    <row r="6" spans="1:27" ht="13">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2237,7 +2240,7 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:27" ht="16.8">
+    <row r="7" spans="1:27" ht="17.5">
       <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
@@ -2284,7 +2287,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:27" ht="16.8">
+    <row r="8" spans="1:27" ht="17.5">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
@@ -2329,7 +2332,7 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:27" ht="16.8">
+    <row r="9" spans="1:27" ht="17.5">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -2374,7 +2377,7 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:27" ht="13.2">
+    <row r="10" spans="1:27" ht="13.25">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -2417,7 +2420,7 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:27" ht="13.2">
+    <row r="11" spans="1:27" ht="13">
       <c r="A11" s="21" t="s">
         <v>40</v>
       </c>
@@ -2458,7 +2461,7 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:27" ht="15.6">
+    <row r="12" spans="1:27">
       <c r="A12" s="21" t="s">
         <v>19</v>
       </c>
@@ -2499,7 +2502,7 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" spans="1:27" ht="15.6">
+    <row r="13" spans="1:27">
       <c r="A13" s="21" t="s">
         <v>40</v>
       </c>
@@ -2540,24 +2543,24 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="1:27" ht="13.2">
+    <row r="14" spans="1:27" ht="13">
       <c r="A14" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" t="s">
+        <v>259</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="F14" s="21" t="s">
         <v>260</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>261</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -2583,24 +2586,24 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="1:27" ht="13.2">
+    <row r="15" spans="1:27" ht="13">
       <c r="A15" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C15" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>263</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -2626,7 +2629,7 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="1:27" ht="13.2">
+    <row r="16" spans="1:27" ht="13">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="14"/>
@@ -2655,7 +2658,7 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
     </row>
-    <row r="17" spans="1:27" ht="13.2">
+    <row r="17" spans="1:27" ht="13">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="14"/>
@@ -2684,7 +2687,7 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
     </row>
-    <row r="18" spans="1:27" ht="13.2">
+    <row r="18" spans="1:27" ht="13">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="14"/>
@@ -2713,7 +2716,7 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="1:27" ht="13.2">
+    <row r="19" spans="1:27" ht="13">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="14"/>
@@ -2742,7 +2745,7 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
-    <row r="20" spans="1:27" ht="13.2">
+    <row r="20" spans="1:27" ht="13">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="14"/>
@@ -2771,7 +2774,7 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21" spans="1:27" ht="13.2">
+    <row r="21" spans="1:27" ht="13">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="14"/>
@@ -2800,7 +2803,7 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
     </row>
-    <row r="22" spans="1:27" ht="13.2">
+    <row r="22" spans="1:27" ht="13">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="14"/>
@@ -2829,7 +2832,7 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" spans="1:27" ht="13.2">
+    <row r="23" spans="1:27" ht="13">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="14"/>
@@ -2858,7 +2861,7 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" spans="1:27" ht="13.2">
+    <row r="24" spans="1:27" ht="13">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="14"/>
@@ -2887,7 +2890,7 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" spans="1:27" ht="13.2">
+    <row r="25" spans="1:27" ht="13">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="14"/>
@@ -2916,7 +2919,7 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
     </row>
-    <row r="26" spans="1:27" ht="13.2">
+    <row r="26" spans="1:27" ht="13">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="14"/>
@@ -2945,7 +2948,7 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" spans="1:27" ht="13.2">
+    <row r="27" spans="1:27" ht="13">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="14"/>
@@ -2974,7 +2977,7 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
     </row>
-    <row r="28" spans="1:27" ht="13.2">
+    <row r="28" spans="1:27" ht="13">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="14"/>
@@ -3003,7 +3006,7 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
     </row>
-    <row r="29" spans="1:27" ht="13.2">
+    <row r="29" spans="1:27" ht="13">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="14"/>
@@ -3032,7 +3035,7 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" spans="1:27" ht="13.2">
+    <row r="30" spans="1:27" ht="13">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="14"/>
@@ -3061,7 +3064,7 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" spans="1:27" ht="13.2">
+    <row r="31" spans="1:27" ht="13">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="14"/>
@@ -3090,7 +3093,7 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
     </row>
-    <row r="32" spans="1:27" ht="13.2">
+    <row r="32" spans="1:27" ht="13">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="14"/>
@@ -3119,7 +3122,7 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="1:27" ht="13.2">
+    <row r="33" spans="1:27" ht="13">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="14"/>
@@ -3148,7 +3151,7 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="1:27" ht="13.2">
+    <row r="34" spans="1:27" ht="13">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="14"/>
@@ -3177,7 +3180,7 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="1:27" ht="13.2">
+    <row r="35" spans="1:27" ht="13">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="14"/>
@@ -3206,7 +3209,7 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
     </row>
-    <row r="36" spans="1:27" ht="13.2">
+    <row r="36" spans="1:27" ht="13">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="14"/>
@@ -3235,7 +3238,7 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
     </row>
-    <row r="37" spans="1:27" ht="13.2">
+    <row r="37" spans="1:27" ht="13">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="14"/>
@@ -3264,7 +3267,7 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
     </row>
-    <row r="38" spans="1:27" ht="13.2">
+    <row r="38" spans="1:27" ht="13">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="14"/>
@@ -3293,7 +3296,7 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
     </row>
-    <row r="39" spans="1:27" ht="13.2">
+    <row r="39" spans="1:27" ht="13">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="14"/>
@@ -3322,7 +3325,7 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
     </row>
-    <row r="40" spans="1:27" ht="13.2">
+    <row r="40" spans="1:27" ht="13">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="14"/>
@@ -3351,7 +3354,7 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="1:27" ht="13.2">
+    <row r="41" spans="1:27" ht="13">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="14"/>
@@ -3380,7 +3383,7 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
     </row>
-    <row r="42" spans="1:27" ht="13.2">
+    <row r="42" spans="1:27" ht="13">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="14"/>
@@ -3409,7 +3412,7 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
     </row>
-    <row r="43" spans="1:27" ht="13.2">
+    <row r="43" spans="1:27" ht="13">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="14"/>
@@ -3438,7 +3441,7 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
     </row>
-    <row r="44" spans="1:27" ht="13.2">
+    <row r="44" spans="1:27" ht="13">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="14"/>
@@ -3467,7 +3470,7 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
     </row>
-    <row r="45" spans="1:27" ht="13.2">
+    <row r="45" spans="1:27" ht="13">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="14"/>
@@ -3496,7 +3499,7 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" spans="1:27" ht="13.2">
+    <row r="46" spans="1:27" ht="13">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="14"/>
@@ -3525,7 +3528,7 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
     </row>
-    <row r="47" spans="1:27" ht="13.2">
+    <row r="47" spans="1:27" ht="13">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="14"/>
@@ -3554,7 +3557,7 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
     </row>
-    <row r="48" spans="1:27" ht="13.2">
+    <row r="48" spans="1:27" ht="13">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="14"/>
@@ -3583,7 +3586,7 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
     </row>
-    <row r="49" spans="1:27" ht="13.2">
+    <row r="49" spans="1:27" ht="13">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="14"/>
@@ -3612,7 +3615,7 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
     </row>
-    <row r="50" spans="1:27" ht="13.2">
+    <row r="50" spans="1:27" ht="13">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="14"/>
@@ -3641,7 +3644,7 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
     </row>
-    <row r="51" spans="1:27" ht="13.2">
+    <row r="51" spans="1:27" ht="13">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="14"/>
@@ -3670,7 +3673,7 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
     </row>
-    <row r="52" spans="1:27" ht="13.2">
+    <row r="52" spans="1:27" ht="13">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="14"/>
@@ -3699,7 +3702,7 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
     </row>
-    <row r="53" spans="1:27" ht="13.2">
+    <row r="53" spans="1:27" ht="13">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="14"/>
@@ -3728,7 +3731,7 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
     </row>
-    <row r="54" spans="1:27" ht="13.2">
+    <row r="54" spans="1:27" ht="13">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="14"/>
@@ -3757,7 +3760,7 @@
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
     </row>
-    <row r="55" spans="1:27" ht="13.2">
+    <row r="55" spans="1:27" ht="13">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="14"/>
@@ -3786,7 +3789,7 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
     </row>
-    <row r="56" spans="1:27" ht="13.2">
+    <row r="56" spans="1:27" ht="13">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="14"/>
@@ -3815,7 +3818,7 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
     </row>
-    <row r="57" spans="1:27" ht="13.2">
+    <row r="57" spans="1:27" ht="13">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="14"/>
@@ -3844,7 +3847,7 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
     </row>
-    <row r="58" spans="1:27" ht="13.2">
+    <row r="58" spans="1:27" ht="13">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="14"/>
@@ -3873,7 +3876,7 @@
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
     </row>
-    <row r="59" spans="1:27" ht="13.2">
+    <row r="59" spans="1:27" ht="13">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="14"/>
@@ -3902,7 +3905,7 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
     </row>
-    <row r="60" spans="1:27" ht="13.2">
+    <row r="60" spans="1:27" ht="13">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="14"/>
@@ -3931,7 +3934,7 @@
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
     </row>
-    <row r="61" spans="1:27" ht="13.2">
+    <row r="61" spans="1:27" ht="13">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="14"/>
@@ -3960,7 +3963,7 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
     </row>
-    <row r="62" spans="1:27" ht="13.2">
+    <row r="62" spans="1:27" ht="13">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="14"/>
@@ -3989,7 +3992,7 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
     </row>
-    <row r="63" spans="1:27" ht="13.2">
+    <row r="63" spans="1:27" ht="13">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="14"/>
@@ -4018,7 +4021,7 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
     </row>
-    <row r="64" spans="1:27" ht="13.2">
+    <row r="64" spans="1:27" ht="13">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="14"/>
@@ -4047,7 +4050,7 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
     </row>
-    <row r="65" spans="1:27" ht="13.2">
+    <row r="65" spans="1:27" ht="13">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="14"/>
@@ -4076,7 +4079,7 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66" spans="1:27" ht="13.2">
+    <row r="66" spans="1:27" ht="13">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="14"/>
@@ -4105,7 +4108,7 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
     </row>
-    <row r="67" spans="1:27" ht="13.2">
+    <row r="67" spans="1:27" ht="13">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="14"/>
@@ -4134,7 +4137,7 @@
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
     </row>
-    <row r="68" spans="1:27" ht="13.2">
+    <row r="68" spans="1:27" ht="13">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="14"/>
@@ -4163,7 +4166,7 @@
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
     </row>
-    <row r="69" spans="1:27" ht="13.2">
+    <row r="69" spans="1:27" ht="13">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="14"/>
@@ -4192,7 +4195,7 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
     </row>
-    <row r="70" spans="1:27" ht="13.2">
+    <row r="70" spans="1:27" ht="13">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="14"/>
@@ -4221,7 +4224,7 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
     </row>
-    <row r="71" spans="1:27" ht="13.2">
+    <row r="71" spans="1:27" ht="13">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="14"/>
@@ -4250,7 +4253,7 @@
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
     </row>
-    <row r="72" spans="1:27" ht="13.2">
+    <row r="72" spans="1:27" ht="13">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="14"/>
@@ -4279,7 +4282,7 @@
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
     </row>
-    <row r="73" spans="1:27" ht="13.2">
+    <row r="73" spans="1:27" ht="13">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="14"/>
@@ -4308,7 +4311,7 @@
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
     </row>
-    <row r="74" spans="1:27" ht="13.2">
+    <row r="74" spans="1:27" ht="13">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="14"/>
@@ -4337,7 +4340,7 @@
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
     </row>
-    <row r="75" spans="1:27" ht="13.2">
+    <row r="75" spans="1:27" ht="13">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="14"/>
@@ -4366,7 +4369,7 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
     </row>
-    <row r="76" spans="1:27" ht="13.2">
+    <row r="76" spans="1:27" ht="13">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="14"/>
@@ -4395,7 +4398,7 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
     </row>
-    <row r="77" spans="1:27" ht="13.2">
+    <row r="77" spans="1:27" ht="13">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="14"/>
@@ -4424,7 +4427,7 @@
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
     </row>
-    <row r="78" spans="1:27" ht="13.2">
+    <row r="78" spans="1:27" ht="13">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="14"/>
@@ -4453,7 +4456,7 @@
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
     </row>
-    <row r="79" spans="1:27" ht="13.2">
+    <row r="79" spans="1:27" ht="13">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="14"/>
@@ -4482,7 +4485,7 @@
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
     </row>
-    <row r="80" spans="1:27" ht="13.2">
+    <row r="80" spans="1:27" ht="13">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="14"/>
@@ -4511,7 +4514,7 @@
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
     </row>
-    <row r="81" spans="1:27" ht="13.2">
+    <row r="81" spans="1:27" ht="13">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="14"/>
@@ -4540,7 +4543,7 @@
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
     </row>
-    <row r="82" spans="1:27" ht="13.2">
+    <row r="82" spans="1:27" ht="13">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="14"/>
@@ -4569,7 +4572,7 @@
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
     </row>
-    <row r="83" spans="1:27" ht="13.2">
+    <row r="83" spans="1:27" ht="13">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="14"/>
@@ -4598,7 +4601,7 @@
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
     </row>
-    <row r="84" spans="1:27" ht="13.2">
+    <row r="84" spans="1:27" ht="13">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="14"/>
@@ -4627,7 +4630,7 @@
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
     </row>
-    <row r="85" spans="1:27" ht="13.2">
+    <row r="85" spans="1:27" ht="13">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="14"/>
@@ -4656,7 +4659,7 @@
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
     </row>
-    <row r="86" spans="1:27" ht="13.2">
+    <row r="86" spans="1:27" ht="13">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="14"/>
@@ -4685,7 +4688,7 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
     </row>
-    <row r="87" spans="1:27" ht="13.2">
+    <row r="87" spans="1:27" ht="13">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="14"/>
@@ -4714,7 +4717,7 @@
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
     </row>
-    <row r="88" spans="1:27" ht="13.2">
+    <row r="88" spans="1:27" ht="13">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="14"/>
@@ -4743,7 +4746,7 @@
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
     </row>
-    <row r="89" spans="1:27" ht="13.2">
+    <row r="89" spans="1:27" ht="13">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="14"/>
@@ -4772,7 +4775,7 @@
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
     </row>
-    <row r="90" spans="1:27" ht="13.2">
+    <row r="90" spans="1:27" ht="13">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="14"/>
@@ -4801,7 +4804,7 @@
       <c r="Z90" s="2"/>
       <c r="AA90" s="2"/>
     </row>
-    <row r="91" spans="1:27" ht="13.2">
+    <row r="91" spans="1:27" ht="13">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="14"/>
@@ -4830,7 +4833,7 @@
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
     </row>
-    <row r="92" spans="1:27" ht="13.2">
+    <row r="92" spans="1:27" ht="13">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="14"/>
@@ -4859,7 +4862,7 @@
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
     </row>
-    <row r="93" spans="1:27" ht="13.2">
+    <row r="93" spans="1:27" ht="13">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="14"/>
@@ -4888,7 +4891,7 @@
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
     </row>
-    <row r="94" spans="1:27" ht="13.2">
+    <row r="94" spans="1:27" ht="13">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="14"/>
@@ -4917,7 +4920,7 @@
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
     </row>
-    <row r="95" spans="1:27" ht="13.2">
+    <row r="95" spans="1:27" ht="13">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="14"/>
@@ -4946,7 +4949,7 @@
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
     </row>
-    <row r="96" spans="1:27" ht="13.2">
+    <row r="96" spans="1:27" ht="13">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="14"/>
@@ -4975,7 +4978,7 @@
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
     </row>
-    <row r="97" spans="1:27" ht="13.2">
+    <row r="97" spans="1:27" ht="13">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="14"/>
@@ -5004,7 +5007,7 @@
       <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
     </row>
-    <row r="98" spans="1:27" ht="13.2">
+    <row r="98" spans="1:27" ht="13">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="14"/>
@@ -5033,7 +5036,7 @@
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
     </row>
-    <row r="99" spans="1:27" ht="13.2">
+    <row r="99" spans="1:27" ht="13">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="14"/>
@@ -5062,7 +5065,7 @@
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
     </row>
-    <row r="100" spans="1:27" ht="13.2">
+    <row r="100" spans="1:27" ht="13">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="14"/>
@@ -5091,7 +5094,7 @@
       <c r="Z100" s="2"/>
       <c r="AA100" s="2"/>
     </row>
-    <row r="101" spans="1:27" ht="13.2">
+    <row r="101" spans="1:27" ht="13">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="14"/>
@@ -5120,7 +5123,7 @@
       <c r="Z101" s="2"/>
       <c r="AA101" s="2"/>
     </row>
-    <row r="102" spans="1:27" ht="13.2">
+    <row r="102" spans="1:27" ht="13">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="14"/>
@@ -5149,7 +5152,7 @@
       <c r="Z102" s="2"/>
       <c r="AA102" s="2"/>
     </row>
-    <row r="103" spans="1:27" ht="13.2">
+    <row r="103" spans="1:27" ht="13">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="14"/>
@@ -5178,7 +5181,7 @@
       <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
     </row>
-    <row r="104" spans="1:27" ht="13.2">
+    <row r="104" spans="1:27" ht="13">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="14"/>
@@ -5207,7 +5210,7 @@
       <c r="Z104" s="2"/>
       <c r="AA104" s="2"/>
     </row>
-    <row r="105" spans="1:27" ht="13.2">
+    <row r="105" spans="1:27" ht="13">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="14"/>
@@ -5236,7 +5239,7 @@
       <c r="Z105" s="2"/>
       <c r="AA105" s="2"/>
     </row>
-    <row r="106" spans="1:27" ht="13.2">
+    <row r="106" spans="1:27" ht="13">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="14"/>
@@ -5265,7 +5268,7 @@
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
     </row>
-    <row r="107" spans="1:27" ht="13.2">
+    <row r="107" spans="1:27" ht="13">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="14"/>
@@ -5294,7 +5297,7 @@
       <c r="Z107" s="2"/>
       <c r="AA107" s="2"/>
     </row>
-    <row r="108" spans="1:27" ht="13.2">
+    <row r="108" spans="1:27" ht="13">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="14"/>
@@ -5323,7 +5326,7 @@
       <c r="Z108" s="2"/>
       <c r="AA108" s="2"/>
     </row>
-    <row r="109" spans="1:27" ht="13.2">
+    <row r="109" spans="1:27" ht="13">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="14"/>
@@ -5352,7 +5355,7 @@
       <c r="Z109" s="2"/>
       <c r="AA109" s="2"/>
     </row>
-    <row r="110" spans="1:27" ht="13.2">
+    <row r="110" spans="1:27" ht="13">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="14"/>
@@ -5381,7 +5384,7 @@
       <c r="Z110" s="2"/>
       <c r="AA110" s="2"/>
     </row>
-    <row r="111" spans="1:27" ht="13.2">
+    <row r="111" spans="1:27" ht="13">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="14"/>
@@ -5410,7 +5413,7 @@
       <c r="Z111" s="2"/>
       <c r="AA111" s="2"/>
     </row>
-    <row r="112" spans="1:27" ht="13.2">
+    <row r="112" spans="1:27" ht="13">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="14"/>
@@ -5439,7 +5442,7 @@
       <c r="Z112" s="2"/>
       <c r="AA112" s="2"/>
     </row>
-    <row r="113" spans="1:27" ht="13.2">
+    <row r="113" spans="1:27" ht="13">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="14"/>
@@ -5468,7 +5471,7 @@
       <c r="Z113" s="2"/>
       <c r="AA113" s="2"/>
     </row>
-    <row r="114" spans="1:27" ht="13.2">
+    <row r="114" spans="1:27" ht="13">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="14"/>
@@ -5497,7 +5500,7 @@
       <c r="Z114" s="2"/>
       <c r="AA114" s="2"/>
     </row>
-    <row r="115" spans="1:27" ht="13.2">
+    <row r="115" spans="1:27" ht="13">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="14"/>
@@ -5526,7 +5529,7 @@
       <c r="Z115" s="2"/>
       <c r="AA115" s="2"/>
     </row>
-    <row r="116" spans="1:27" ht="13.2">
+    <row r="116" spans="1:27" ht="13">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="14"/>
@@ -5555,7 +5558,7 @@
       <c r="Z116" s="2"/>
       <c r="AA116" s="2"/>
     </row>
-    <row r="117" spans="1:27" ht="13.2">
+    <row r="117" spans="1:27" ht="13">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="14"/>
@@ -5584,7 +5587,7 @@
       <c r="Z117" s="2"/>
       <c r="AA117" s="2"/>
     </row>
-    <row r="118" spans="1:27" ht="13.2">
+    <row r="118" spans="1:27" ht="13">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="14"/>
@@ -5613,7 +5616,7 @@
       <c r="Z118" s="2"/>
       <c r="AA118" s="2"/>
     </row>
-    <row r="119" spans="1:27" ht="13.2">
+    <row r="119" spans="1:27" ht="13">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="14"/>
@@ -5642,7 +5645,7 @@
       <c r="Z119" s="2"/>
       <c r="AA119" s="2"/>
     </row>
-    <row r="120" spans="1:27" ht="13.2">
+    <row r="120" spans="1:27" ht="13">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="14"/>
@@ -5671,7 +5674,7 @@
       <c r="Z120" s="2"/>
       <c r="AA120" s="2"/>
     </row>
-    <row r="121" spans="1:27" ht="13.2">
+    <row r="121" spans="1:27" ht="13">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="14"/>
@@ -5700,7 +5703,7 @@
       <c r="Z121" s="2"/>
       <c r="AA121" s="2"/>
     </row>
-    <row r="122" spans="1:27" ht="13.2">
+    <row r="122" spans="1:27" ht="13">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="14"/>
@@ -5729,7 +5732,7 @@
       <c r="Z122" s="2"/>
       <c r="AA122" s="2"/>
     </row>
-    <row r="123" spans="1:27" ht="13.2">
+    <row r="123" spans="1:27" ht="13">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="14"/>
@@ -5758,7 +5761,7 @@
       <c r="Z123" s="2"/>
       <c r="AA123" s="2"/>
     </row>
-    <row r="124" spans="1:27" ht="13.2">
+    <row r="124" spans="1:27" ht="13">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="14"/>
@@ -5787,7 +5790,7 @@
       <c r="Z124" s="2"/>
       <c r="AA124" s="2"/>
     </row>
-    <row r="125" spans="1:27" ht="13.2">
+    <row r="125" spans="1:27" ht="13">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="14"/>
@@ -5816,7 +5819,7 @@
       <c r="Z125" s="2"/>
       <c r="AA125" s="2"/>
     </row>
-    <row r="126" spans="1:27" ht="13.2">
+    <row r="126" spans="1:27" ht="13">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="14"/>
@@ -5845,7 +5848,7 @@
       <c r="Z126" s="2"/>
       <c r="AA126" s="2"/>
     </row>
-    <row r="127" spans="1:27" ht="13.2">
+    <row r="127" spans="1:27" ht="13">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="14"/>
@@ -5874,7 +5877,7 @@
       <c r="Z127" s="2"/>
       <c r="AA127" s="2"/>
     </row>
-    <row r="128" spans="1:27" ht="13.2">
+    <row r="128" spans="1:27" ht="13">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="14"/>
@@ -5903,7 +5906,7 @@
       <c r="Z128" s="2"/>
       <c r="AA128" s="2"/>
     </row>
-    <row r="129" spans="1:27" ht="13.2">
+    <row r="129" spans="1:27" ht="13">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="14"/>
@@ -5932,7 +5935,7 @@
       <c r="Z129" s="2"/>
       <c r="AA129" s="2"/>
     </row>
-    <row r="130" spans="1:27" ht="13.2">
+    <row r="130" spans="1:27" ht="13">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="14"/>
@@ -5961,7 +5964,7 @@
       <c r="Z130" s="2"/>
       <c r="AA130" s="2"/>
     </row>
-    <row r="131" spans="1:27" ht="13.2">
+    <row r="131" spans="1:27" ht="13">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="14"/>
@@ -5990,7 +5993,7 @@
       <c r="Z131" s="2"/>
       <c r="AA131" s="2"/>
     </row>
-    <row r="132" spans="1:27" ht="13.2">
+    <row r="132" spans="1:27" ht="13">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="14"/>
@@ -6019,7 +6022,7 @@
       <c r="Z132" s="2"/>
       <c r="AA132" s="2"/>
     </row>
-    <row r="133" spans="1:27" ht="13.2">
+    <row r="133" spans="1:27" ht="13">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="14"/>
@@ -6048,7 +6051,7 @@
       <c r="Z133" s="2"/>
       <c r="AA133" s="2"/>
     </row>
-    <row r="134" spans="1:27" ht="13.2">
+    <row r="134" spans="1:27" ht="13">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="14"/>
@@ -6077,7 +6080,7 @@
       <c r="Z134" s="2"/>
       <c r="AA134" s="2"/>
     </row>
-    <row r="135" spans="1:27" ht="13.2">
+    <row r="135" spans="1:27" ht="13">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="14"/>
@@ -6106,7 +6109,7 @@
       <c r="Z135" s="2"/>
       <c r="AA135" s="2"/>
     </row>
-    <row r="136" spans="1:27" ht="13.2">
+    <row r="136" spans="1:27" ht="13">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="14"/>
@@ -6135,7 +6138,7 @@
       <c r="Z136" s="2"/>
       <c r="AA136" s="2"/>
     </row>
-    <row r="137" spans="1:27" ht="13.2">
+    <row r="137" spans="1:27" ht="13">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="14"/>
@@ -6164,7 +6167,7 @@
       <c r="Z137" s="2"/>
       <c r="AA137" s="2"/>
     </row>
-    <row r="138" spans="1:27" ht="13.2">
+    <row r="138" spans="1:27" ht="13">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="14"/>
@@ -6193,7 +6196,7 @@
       <c r="Z138" s="2"/>
       <c r="AA138" s="2"/>
     </row>
-    <row r="139" spans="1:27" ht="13.2">
+    <row r="139" spans="1:27" ht="13">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="14"/>
@@ -6222,7 +6225,7 @@
       <c r="Z139" s="2"/>
       <c r="AA139" s="2"/>
     </row>
-    <row r="140" spans="1:27" ht="13.2">
+    <row r="140" spans="1:27" ht="13">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="14"/>
@@ -6251,7 +6254,7 @@
       <c r="Z140" s="2"/>
       <c r="AA140" s="2"/>
     </row>
-    <row r="141" spans="1:27" ht="13.2">
+    <row r="141" spans="1:27" ht="13">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="14"/>
@@ -6280,7 +6283,7 @@
       <c r="Z141" s="2"/>
       <c r="AA141" s="2"/>
     </row>
-    <row r="142" spans="1:27" ht="13.2">
+    <row r="142" spans="1:27" ht="13">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="14"/>
@@ -6309,7 +6312,7 @@
       <c r="Z142" s="2"/>
       <c r="AA142" s="2"/>
     </row>
-    <row r="143" spans="1:27" ht="13.2">
+    <row r="143" spans="1:27" ht="13">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="14"/>
@@ -6338,7 +6341,7 @@
       <c r="Z143" s="2"/>
       <c r="AA143" s="2"/>
     </row>
-    <row r="144" spans="1:27" ht="13.2">
+    <row r="144" spans="1:27" ht="13">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="14"/>
@@ -6367,7 +6370,7 @@
       <c r="Z144" s="2"/>
       <c r="AA144" s="2"/>
     </row>
-    <row r="145" spans="1:27" ht="13.2">
+    <row r="145" spans="1:27" ht="13">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="14"/>
@@ -6396,7 +6399,7 @@
       <c r="Z145" s="2"/>
       <c r="AA145" s="2"/>
     </row>
-    <row r="146" spans="1:27" ht="13.2">
+    <row r="146" spans="1:27" ht="13">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="14"/>
@@ -6425,7 +6428,7 @@
       <c r="Z146" s="2"/>
       <c r="AA146" s="2"/>
     </row>
-    <row r="147" spans="1:27" ht="13.2">
+    <row r="147" spans="1:27" ht="13">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="14"/>
@@ -6454,7 +6457,7 @@
       <c r="Z147" s="2"/>
       <c r="AA147" s="2"/>
     </row>
-    <row r="148" spans="1:27" ht="13.2">
+    <row r="148" spans="1:27" ht="13">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="14"/>
@@ -6483,7 +6486,7 @@
       <c r="Z148" s="2"/>
       <c r="AA148" s="2"/>
     </row>
-    <row r="149" spans="1:27" ht="13.2">
+    <row r="149" spans="1:27" ht="13">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="14"/>
@@ -6512,7 +6515,7 @@
       <c r="Z149" s="2"/>
       <c r="AA149" s="2"/>
     </row>
-    <row r="150" spans="1:27" ht="13.2">
+    <row r="150" spans="1:27" ht="13">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="14"/>
@@ -6541,7 +6544,7 @@
       <c r="Z150" s="2"/>
       <c r="AA150" s="2"/>
     </row>
-    <row r="151" spans="1:27" ht="13.2">
+    <row r="151" spans="1:27" ht="13">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="14"/>
@@ -6570,7 +6573,7 @@
       <c r="Z151" s="2"/>
       <c r="AA151" s="2"/>
     </row>
-    <row r="152" spans="1:27" ht="13.2">
+    <row r="152" spans="1:27" ht="13">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="14"/>
@@ -6599,7 +6602,7 @@
       <c r="Z152" s="2"/>
       <c r="AA152" s="2"/>
     </row>
-    <row r="153" spans="1:27" ht="13.2">
+    <row r="153" spans="1:27" ht="13">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="14"/>
@@ -6628,7 +6631,7 @@
       <c r="Z153" s="2"/>
       <c r="AA153" s="2"/>
     </row>
-    <row r="154" spans="1:27" ht="13.2">
+    <row r="154" spans="1:27" ht="13">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="14"/>
@@ -6657,7 +6660,7 @@
       <c r="Z154" s="2"/>
       <c r="AA154" s="2"/>
     </row>
-    <row r="155" spans="1:27" ht="13.2">
+    <row r="155" spans="1:27" ht="13">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="14"/>
@@ -6686,7 +6689,7 @@
       <c r="Z155" s="2"/>
       <c r="AA155" s="2"/>
     </row>
-    <row r="156" spans="1:27" ht="13.2">
+    <row r="156" spans="1:27" ht="13">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="14"/>
@@ -6715,7 +6718,7 @@
       <c r="Z156" s="2"/>
       <c r="AA156" s="2"/>
     </row>
-    <row r="157" spans="1:27" ht="13.2">
+    <row r="157" spans="1:27" ht="13">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="14"/>
@@ -6744,7 +6747,7 @@
       <c r="Z157" s="2"/>
       <c r="AA157" s="2"/>
     </row>
-    <row r="158" spans="1:27" ht="13.2">
+    <row r="158" spans="1:27" ht="13">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="14"/>
@@ -6773,7 +6776,7 @@
       <c r="Z158" s="2"/>
       <c r="AA158" s="2"/>
     </row>
-    <row r="159" spans="1:27" ht="13.2">
+    <row r="159" spans="1:27" ht="13">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="14"/>
@@ -6802,7 +6805,7 @@
       <c r="Z159" s="2"/>
       <c r="AA159" s="2"/>
     </row>
-    <row r="160" spans="1:27" ht="13.2">
+    <row r="160" spans="1:27" ht="13">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="14"/>
@@ -6831,7 +6834,7 @@
       <c r="Z160" s="2"/>
       <c r="AA160" s="2"/>
     </row>
-    <row r="161" spans="1:27" ht="13.2">
+    <row r="161" spans="1:27" ht="13">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="14"/>
@@ -6860,7 +6863,7 @@
       <c r="Z161" s="2"/>
       <c r="AA161" s="2"/>
     </row>
-    <row r="162" spans="1:27" ht="13.2">
+    <row r="162" spans="1:27" ht="13">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="14"/>
@@ -6889,7 +6892,7 @@
       <c r="Z162" s="2"/>
       <c r="AA162" s="2"/>
     </row>
-    <row r="163" spans="1:27" ht="13.2">
+    <row r="163" spans="1:27" ht="13">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="14"/>
@@ -6918,7 +6921,7 @@
       <c r="Z163" s="2"/>
       <c r="AA163" s="2"/>
     </row>
-    <row r="164" spans="1:27" ht="13.2">
+    <row r="164" spans="1:27" ht="13">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="14"/>
@@ -6947,7 +6950,7 @@
       <c r="Z164" s="2"/>
       <c r="AA164" s="2"/>
     </row>
-    <row r="165" spans="1:27" ht="13.2">
+    <row r="165" spans="1:27" ht="13">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="14"/>
@@ -6976,7 +6979,7 @@
       <c r="Z165" s="2"/>
       <c r="AA165" s="2"/>
     </row>
-    <row r="166" spans="1:27" ht="13.2">
+    <row r="166" spans="1:27" ht="13">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="14"/>
@@ -7005,7 +7008,7 @@
       <c r="Z166" s="2"/>
       <c r="AA166" s="2"/>
     </row>
-    <row r="167" spans="1:27" ht="13.2">
+    <row r="167" spans="1:27" ht="13">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="14"/>
@@ -7034,7 +7037,7 @@
       <c r="Z167" s="2"/>
       <c r="AA167" s="2"/>
     </row>
-    <row r="168" spans="1:27" ht="13.2">
+    <row r="168" spans="1:27" ht="13">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="14"/>
@@ -7063,7 +7066,7 @@
       <c r="Z168" s="2"/>
       <c r="AA168" s="2"/>
     </row>
-    <row r="169" spans="1:27" ht="13.2">
+    <row r="169" spans="1:27" ht="13">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="14"/>
@@ -7092,7 +7095,7 @@
       <c r="Z169" s="2"/>
       <c r="AA169" s="2"/>
     </row>
-    <row r="170" spans="1:27" ht="13.2">
+    <row r="170" spans="1:27" ht="13">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="14"/>
@@ -7121,7 +7124,7 @@
       <c r="Z170" s="2"/>
       <c r="AA170" s="2"/>
     </row>
-    <row r="171" spans="1:27" ht="13.2">
+    <row r="171" spans="1:27" ht="13">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="14"/>
@@ -7150,7 +7153,7 @@
       <c r="Z171" s="2"/>
       <c r="AA171" s="2"/>
     </row>
-    <row r="172" spans="1:27" ht="13.2">
+    <row r="172" spans="1:27" ht="13">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="14"/>
@@ -7179,7 +7182,7 @@
       <c r="Z172" s="2"/>
       <c r="AA172" s="2"/>
     </row>
-    <row r="173" spans="1:27" ht="13.2">
+    <row r="173" spans="1:27" ht="13">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="14"/>
@@ -7208,7 +7211,7 @@
       <c r="Z173" s="2"/>
       <c r="AA173" s="2"/>
     </row>
-    <row r="174" spans="1:27" ht="13.2">
+    <row r="174" spans="1:27" ht="13">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="14"/>
@@ -7237,7 +7240,7 @@
       <c r="Z174" s="2"/>
       <c r="AA174" s="2"/>
     </row>
-    <row r="175" spans="1:27" ht="13.2">
+    <row r="175" spans="1:27" ht="13">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="14"/>
@@ -7266,7 +7269,7 @@
       <c r="Z175" s="2"/>
       <c r="AA175" s="2"/>
     </row>
-    <row r="176" spans="1:27" ht="13.2">
+    <row r="176" spans="1:27" ht="13">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="14"/>
@@ -7295,7 +7298,7 @@
       <c r="Z176" s="2"/>
       <c r="AA176" s="2"/>
     </row>
-    <row r="177" spans="1:27" ht="13.2">
+    <row r="177" spans="1:27" ht="13">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="14"/>
@@ -7324,7 +7327,7 @@
       <c r="Z177" s="2"/>
       <c r="AA177" s="2"/>
     </row>
-    <row r="178" spans="1:27" ht="13.2">
+    <row r="178" spans="1:27" ht="13">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="14"/>
@@ -7353,7 +7356,7 @@
       <c r="Z178" s="2"/>
       <c r="AA178" s="2"/>
     </row>
-    <row r="179" spans="1:27" ht="13.2">
+    <row r="179" spans="1:27" ht="13">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="14"/>
@@ -7382,7 +7385,7 @@
       <c r="Z179" s="2"/>
       <c r="AA179" s="2"/>
     </row>
-    <row r="180" spans="1:27" ht="13.2">
+    <row r="180" spans="1:27" ht="13">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="14"/>
@@ -7411,7 +7414,7 @@
       <c r="Z180" s="2"/>
       <c r="AA180" s="2"/>
     </row>
-    <row r="181" spans="1:27" ht="13.2">
+    <row r="181" spans="1:27" ht="13">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="14"/>
@@ -7440,7 +7443,7 @@
       <c r="Z181" s="2"/>
       <c r="AA181" s="2"/>
     </row>
-    <row r="182" spans="1:27" ht="13.2">
+    <row r="182" spans="1:27" ht="13">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="14"/>
@@ -7469,7 +7472,7 @@
       <c r="Z182" s="2"/>
       <c r="AA182" s="2"/>
     </row>
-    <row r="183" spans="1:27" ht="13.2">
+    <row r="183" spans="1:27" ht="13">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="14"/>
@@ -7498,7 +7501,7 @@
       <c r="Z183" s="2"/>
       <c r="AA183" s="2"/>
     </row>
-    <row r="184" spans="1:27" ht="13.2">
+    <row r="184" spans="1:27" ht="13">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="14"/>
@@ -7527,7 +7530,7 @@
       <c r="Z184" s="2"/>
       <c r="AA184" s="2"/>
     </row>
-    <row r="185" spans="1:27" ht="13.2">
+    <row r="185" spans="1:27" ht="13">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="14"/>
@@ -7556,7 +7559,7 @@
       <c r="Z185" s="2"/>
       <c r="AA185" s="2"/>
     </row>
-    <row r="186" spans="1:27" ht="13.2">
+    <row r="186" spans="1:27" ht="13">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="14"/>
@@ -7585,7 +7588,7 @@
       <c r="Z186" s="2"/>
       <c r="AA186" s="2"/>
     </row>
-    <row r="187" spans="1:27" ht="13.2">
+    <row r="187" spans="1:27" ht="13">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="14"/>
@@ -7614,7 +7617,7 @@
       <c r="Z187" s="2"/>
       <c r="AA187" s="2"/>
     </row>
-    <row r="188" spans="1:27" ht="13.2">
+    <row r="188" spans="1:27" ht="13">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="14"/>
@@ -7643,7 +7646,7 @@
       <c r="Z188" s="2"/>
       <c r="AA188" s="2"/>
     </row>
-    <row r="189" spans="1:27" ht="13.2">
+    <row r="189" spans="1:27" ht="13">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="14"/>
@@ -7672,7 +7675,7 @@
       <c r="Z189" s="2"/>
       <c r="AA189" s="2"/>
     </row>
-    <row r="190" spans="1:27" ht="13.2">
+    <row r="190" spans="1:27" ht="13">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="14"/>
@@ -7701,7 +7704,7 @@
       <c r="Z190" s="2"/>
       <c r="AA190" s="2"/>
     </row>
-    <row r="191" spans="1:27" ht="13.2">
+    <row r="191" spans="1:27" ht="13">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="14"/>
@@ -7730,7 +7733,7 @@
       <c r="Z191" s="2"/>
       <c r="AA191" s="2"/>
     </row>
-    <row r="192" spans="1:27" ht="13.2">
+    <row r="192" spans="1:27" ht="13">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="14"/>
@@ -7759,7 +7762,7 @@
       <c r="Z192" s="2"/>
       <c r="AA192" s="2"/>
     </row>
-    <row r="193" spans="1:27" ht="13.2">
+    <row r="193" spans="1:27" ht="13">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="14"/>
@@ -7788,7 +7791,7 @@
       <c r="Z193" s="2"/>
       <c r="AA193" s="2"/>
     </row>
-    <row r="194" spans="1:27" ht="13.2">
+    <row r="194" spans="1:27" ht="13">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="14"/>
@@ -7817,7 +7820,7 @@
       <c r="Z194" s="2"/>
       <c r="AA194" s="2"/>
     </row>
-    <row r="195" spans="1:27" ht="13.2">
+    <row r="195" spans="1:27" ht="13">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="14"/>
@@ -7846,7 +7849,7 @@
       <c r="Z195" s="2"/>
       <c r="AA195" s="2"/>
     </row>
-    <row r="196" spans="1:27" ht="13.2">
+    <row r="196" spans="1:27" ht="13">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="14"/>
@@ -7875,7 +7878,7 @@
       <c r="Z196" s="2"/>
       <c r="AA196" s="2"/>
     </row>
-    <row r="197" spans="1:27" ht="13.2">
+    <row r="197" spans="1:27" ht="13">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="14"/>
@@ -7904,7 +7907,7 @@
       <c r="Z197" s="2"/>
       <c r="AA197" s="2"/>
     </row>
-    <row r="198" spans="1:27" ht="13.2">
+    <row r="198" spans="1:27" ht="13">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="14"/>
@@ -7933,7 +7936,7 @@
       <c r="Z198" s="2"/>
       <c r="AA198" s="2"/>
     </row>
-    <row r="199" spans="1:27" ht="13.2">
+    <row r="199" spans="1:27" ht="13">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="14"/>
@@ -7962,7 +7965,7 @@
       <c r="Z199" s="2"/>
       <c r="AA199" s="2"/>
     </row>
-    <row r="200" spans="1:27" ht="13.2">
+    <row r="200" spans="1:27" ht="13">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="14"/>
@@ -7991,7 +7994,7 @@
       <c r="Z200" s="2"/>
       <c r="AA200" s="2"/>
     </row>
-    <row r="201" spans="1:27" ht="13.2">
+    <row r="201" spans="1:27" ht="13">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="14"/>
@@ -8020,7 +8023,7 @@
       <c r="Z201" s="2"/>
       <c r="AA201" s="2"/>
     </row>
-    <row r="202" spans="1:27" ht="13.2">
+    <row r="202" spans="1:27" ht="13">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="14"/>
@@ -8049,7 +8052,7 @@
       <c r="Z202" s="2"/>
       <c r="AA202" s="2"/>
     </row>
-    <row r="203" spans="1:27" ht="13.2">
+    <row r="203" spans="1:27" ht="13">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="14"/>
@@ -8078,7 +8081,7 @@
       <c r="Z203" s="2"/>
       <c r="AA203" s="2"/>
     </row>
-    <row r="204" spans="1:27" ht="13.2">
+    <row r="204" spans="1:27" ht="13">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="14"/>
@@ -8107,7 +8110,7 @@
       <c r="Z204" s="2"/>
       <c r="AA204" s="2"/>
     </row>
-    <row r="205" spans="1:27" ht="13.2">
+    <row r="205" spans="1:27" ht="13">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="14"/>
@@ -8136,7 +8139,7 @@
       <c r="Z205" s="2"/>
       <c r="AA205" s="2"/>
     </row>
-    <row r="206" spans="1:27" ht="13.2">
+    <row r="206" spans="1:27" ht="13">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="14"/>
@@ -8165,7 +8168,7 @@
       <c r="Z206" s="2"/>
       <c r="AA206" s="2"/>
     </row>
-    <row r="207" spans="1:27" ht="13.2">
+    <row r="207" spans="1:27" ht="13">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="14"/>
@@ -8194,7 +8197,7 @@
       <c r="Z207" s="2"/>
       <c r="AA207" s="2"/>
     </row>
-    <row r="208" spans="1:27" ht="13.2">
+    <row r="208" spans="1:27" ht="13">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="14"/>
@@ -8223,7 +8226,7 @@
       <c r="Z208" s="2"/>
       <c r="AA208" s="2"/>
     </row>
-    <row r="209" spans="1:27" ht="13.2">
+    <row r="209" spans="1:27" ht="13">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="14"/>
@@ -8252,7 +8255,7 @@
       <c r="Z209" s="2"/>
       <c r="AA209" s="2"/>
     </row>
-    <row r="210" spans="1:27" ht="13.2">
+    <row r="210" spans="1:27" ht="13">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="14"/>
@@ -8281,7 +8284,7 @@
       <c r="Z210" s="2"/>
       <c r="AA210" s="2"/>
     </row>
-    <row r="211" spans="1:27" ht="13.2">
+    <row r="211" spans="1:27" ht="13">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="14"/>
@@ -8310,7 +8313,7 @@
       <c r="Z211" s="2"/>
       <c r="AA211" s="2"/>
     </row>
-    <row r="212" spans="1:27" ht="13.2">
+    <row r="212" spans="1:27" ht="13">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="14"/>
@@ -8339,7 +8342,7 @@
       <c r="Z212" s="2"/>
       <c r="AA212" s="2"/>
     </row>
-    <row r="213" spans="1:27" ht="13.2">
+    <row r="213" spans="1:27" ht="13">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="14"/>
@@ -8368,7 +8371,7 @@
       <c r="Z213" s="2"/>
       <c r="AA213" s="2"/>
     </row>
-    <row r="214" spans="1:27" ht="13.2">
+    <row r="214" spans="1:27" ht="13">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="14"/>
@@ -8397,7 +8400,7 @@
       <c r="Z214" s="2"/>
       <c r="AA214" s="2"/>
     </row>
-    <row r="215" spans="1:27" ht="13.2">
+    <row r="215" spans="1:27" ht="13">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="14"/>
@@ -8426,7 +8429,7 @@
       <c r="Z215" s="2"/>
       <c r="AA215" s="2"/>
     </row>
-    <row r="216" spans="1:27" ht="13.2">
+    <row r="216" spans="1:27" ht="13">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="14"/>
@@ -8455,7 +8458,7 @@
       <c r="Z216" s="2"/>
       <c r="AA216" s="2"/>
     </row>
-    <row r="217" spans="1:27" ht="13.2">
+    <row r="217" spans="1:27" ht="13">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="14"/>
@@ -8484,7 +8487,7 @@
       <c r="Z217" s="2"/>
       <c r="AA217" s="2"/>
     </row>
-    <row r="218" spans="1:27" ht="13.2">
+    <row r="218" spans="1:27" ht="13">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="14"/>
@@ -8513,7 +8516,7 @@
       <c r="Z218" s="2"/>
       <c r="AA218" s="2"/>
     </row>
-    <row r="219" spans="1:27" ht="13.2">
+    <row r="219" spans="1:27" ht="13">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="14"/>
@@ -8542,7 +8545,7 @@
       <c r="Z219" s="2"/>
       <c r="AA219" s="2"/>
     </row>
-    <row r="220" spans="1:27" ht="13.2">
+    <row r="220" spans="1:27" ht="13">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="14"/>
@@ -8571,7 +8574,7 @@
       <c r="Z220" s="2"/>
       <c r="AA220" s="2"/>
     </row>
-    <row r="221" spans="1:27" ht="13.2">
+    <row r="221" spans="1:27" ht="13">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="14"/>
@@ -8600,7 +8603,7 @@
       <c r="Z221" s="2"/>
       <c r="AA221" s="2"/>
     </row>
-    <row r="222" spans="1:27" ht="13.2">
+    <row r="222" spans="1:27" ht="13">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="14"/>
@@ -8629,7 +8632,7 @@
       <c r="Z222" s="2"/>
       <c r="AA222" s="2"/>
     </row>
-    <row r="223" spans="1:27" ht="13.2">
+    <row r="223" spans="1:27" ht="13">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="14"/>
@@ -8658,7 +8661,7 @@
       <c r="Z223" s="2"/>
       <c r="AA223" s="2"/>
     </row>
-    <row r="224" spans="1:27" ht="13.2">
+    <row r="224" spans="1:27" ht="13">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="14"/>
@@ -8687,7 +8690,7 @@
       <c r="Z224" s="2"/>
       <c r="AA224" s="2"/>
     </row>
-    <row r="225" spans="1:27" ht="13.2">
+    <row r="225" spans="1:27" ht="13">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="14"/>
@@ -8716,7 +8719,7 @@
       <c r="Z225" s="2"/>
       <c r="AA225" s="2"/>
     </row>
-    <row r="226" spans="1:27" ht="13.2">
+    <row r="226" spans="1:27" ht="13">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="14"/>
@@ -8745,7 +8748,7 @@
       <c r="Z226" s="2"/>
       <c r="AA226" s="2"/>
     </row>
-    <row r="227" spans="1:27" ht="13.2">
+    <row r="227" spans="1:27" ht="13">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="14"/>
@@ -8774,7 +8777,7 @@
       <c r="Z227" s="2"/>
       <c r="AA227" s="2"/>
     </row>
-    <row r="228" spans="1:27" ht="13.2">
+    <row r="228" spans="1:27" ht="13">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="14"/>
@@ -8803,7 +8806,7 @@
       <c r="Z228" s="2"/>
       <c r="AA228" s="2"/>
     </row>
-    <row r="229" spans="1:27" ht="13.2">
+    <row r="229" spans="1:27" ht="13">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="14"/>
@@ -8832,7 +8835,7 @@
       <c r="Z229" s="2"/>
       <c r="AA229" s="2"/>
     </row>
-    <row r="230" spans="1:27" ht="13.2">
+    <row r="230" spans="1:27" ht="13">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="14"/>
@@ -8861,7 +8864,7 @@
       <c r="Z230" s="2"/>
       <c r="AA230" s="2"/>
     </row>
-    <row r="231" spans="1:27" ht="13.2">
+    <row r="231" spans="1:27" ht="13">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="14"/>
@@ -8890,7 +8893,7 @@
       <c r="Z231" s="2"/>
       <c r="AA231" s="2"/>
     </row>
-    <row r="232" spans="1:27" ht="13.2">
+    <row r="232" spans="1:27" ht="13">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="14"/>
@@ -8919,7 +8922,7 @@
       <c r="Z232" s="2"/>
       <c r="AA232" s="2"/>
     </row>
-    <row r="233" spans="1:27" ht="13.2">
+    <row r="233" spans="1:27" ht="13">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="14"/>
@@ -8948,7 +8951,7 @@
       <c r="Z233" s="2"/>
       <c r="AA233" s="2"/>
     </row>
-    <row r="234" spans="1:27" ht="13.2">
+    <row r="234" spans="1:27" ht="13">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="14"/>
@@ -8977,7 +8980,7 @@
       <c r="Z234" s="2"/>
       <c r="AA234" s="2"/>
     </row>
-    <row r="235" spans="1:27" ht="13.2">
+    <row r="235" spans="1:27" ht="13">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="14"/>
@@ -9006,7 +9009,7 @@
       <c r="Z235" s="2"/>
       <c r="AA235" s="2"/>
     </row>
-    <row r="236" spans="1:27" ht="13.2">
+    <row r="236" spans="1:27" ht="13">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="14"/>
@@ -9035,7 +9038,7 @@
       <c r="Z236" s="2"/>
       <c r="AA236" s="2"/>
     </row>
-    <row r="237" spans="1:27" ht="13.2">
+    <row r="237" spans="1:27" ht="13">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="14"/>
@@ -9064,7 +9067,7 @@
       <c r="Z237" s="2"/>
       <c r="AA237" s="2"/>
     </row>
-    <row r="238" spans="1:27" ht="13.2">
+    <row r="238" spans="1:27" ht="13">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="14"/>
@@ -9093,7 +9096,7 @@
       <c r="Z238" s="2"/>
       <c r="AA238" s="2"/>
     </row>
-    <row r="239" spans="1:27" ht="13.2">
+    <row r="239" spans="1:27" ht="13">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="14"/>
@@ -9122,7 +9125,7 @@
       <c r="Z239" s="2"/>
       <c r="AA239" s="2"/>
     </row>
-    <row r="240" spans="1:27" ht="13.2">
+    <row r="240" spans="1:27" ht="13">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="14"/>
@@ -9151,7 +9154,7 @@
       <c r="Z240" s="2"/>
       <c r="AA240" s="2"/>
     </row>
-    <row r="241" spans="1:27" ht="13.2">
+    <row r="241" spans="1:27" ht="13">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="14"/>
@@ -9180,7 +9183,7 @@
       <c r="Z241" s="2"/>
       <c r="AA241" s="2"/>
     </row>
-    <row r="242" spans="1:27" ht="13.2">
+    <row r="242" spans="1:27" ht="13">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="14"/>
@@ -9209,7 +9212,7 @@
       <c r="Z242" s="2"/>
       <c r="AA242" s="2"/>
     </row>
-    <row r="243" spans="1:27" ht="13.2">
+    <row r="243" spans="1:27" ht="13">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="14"/>
@@ -9238,7 +9241,7 @@
       <c r="Z243" s="2"/>
       <c r="AA243" s="2"/>
     </row>
-    <row r="244" spans="1:27" ht="13.2">
+    <row r="244" spans="1:27" ht="13">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="14"/>
@@ -9267,7 +9270,7 @@
       <c r="Z244" s="2"/>
       <c r="AA244" s="2"/>
     </row>
-    <row r="245" spans="1:27" ht="13.2">
+    <row r="245" spans="1:27" ht="13">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="14"/>
@@ -9296,7 +9299,7 @@
       <c r="Z245" s="2"/>
       <c r="AA245" s="2"/>
     </row>
-    <row r="246" spans="1:27" ht="13.2">
+    <row r="246" spans="1:27" ht="13">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="14"/>
@@ -9325,7 +9328,7 @@
       <c r="Z246" s="2"/>
       <c r="AA246" s="2"/>
     </row>
-    <row r="247" spans="1:27" ht="13.2">
+    <row r="247" spans="1:27" ht="13">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="14"/>
@@ -9354,7 +9357,7 @@
       <c r="Z247" s="2"/>
       <c r="AA247" s="2"/>
     </row>
-    <row r="248" spans="1:27" ht="13.2">
+    <row r="248" spans="1:27" ht="13">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="14"/>
@@ -9383,7 +9386,7 @@
       <c r="Z248" s="2"/>
       <c r="AA248" s="2"/>
     </row>
-    <row r="249" spans="1:27" ht="13.2">
+    <row r="249" spans="1:27" ht="13">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="14"/>
@@ -9412,7 +9415,7 @@
       <c r="Z249" s="2"/>
       <c r="AA249" s="2"/>
     </row>
-    <row r="250" spans="1:27" ht="13.2">
+    <row r="250" spans="1:27" ht="13">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="14"/>
@@ -9441,7 +9444,7 @@
       <c r="Z250" s="2"/>
       <c r="AA250" s="2"/>
     </row>
-    <row r="251" spans="1:27" ht="13.2">
+    <row r="251" spans="1:27" ht="13">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="14"/>
@@ -9470,7 +9473,7 @@
       <c r="Z251" s="2"/>
       <c r="AA251" s="2"/>
     </row>
-    <row r="252" spans="1:27" ht="13.2">
+    <row r="252" spans="1:27" ht="13">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="14"/>
@@ -9499,7 +9502,7 @@
       <c r="Z252" s="2"/>
       <c r="AA252" s="2"/>
     </row>
-    <row r="253" spans="1:27" ht="13.2">
+    <row r="253" spans="1:27" ht="13">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="14"/>
@@ -9528,7 +9531,7 @@
       <c r="Z253" s="2"/>
       <c r="AA253" s="2"/>
     </row>
-    <row r="254" spans="1:27" ht="13.2">
+    <row r="254" spans="1:27" ht="13">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="14"/>
@@ -9557,7 +9560,7 @@
       <c r="Z254" s="2"/>
       <c r="AA254" s="2"/>
     </row>
-    <row r="255" spans="1:27" ht="13.2">
+    <row r="255" spans="1:27" ht="13">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="14"/>
@@ -9586,7 +9589,7 @@
       <c r="Z255" s="2"/>
       <c r="AA255" s="2"/>
     </row>
-    <row r="256" spans="1:27" ht="13.2">
+    <row r="256" spans="1:27" ht="13">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="14"/>
@@ -9615,7 +9618,7 @@
       <c r="Z256" s="2"/>
       <c r="AA256" s="2"/>
     </row>
-    <row r="257" spans="1:27" ht="13.2">
+    <row r="257" spans="1:27" ht="13">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="14"/>
@@ -9644,7 +9647,7 @@
       <c r="Z257" s="2"/>
       <c r="AA257" s="2"/>
     </row>
-    <row r="258" spans="1:27" ht="13.2">
+    <row r="258" spans="1:27" ht="13">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="14"/>
@@ -9673,7 +9676,7 @@
       <c r="Z258" s="2"/>
       <c r="AA258" s="2"/>
     </row>
-    <row r="259" spans="1:27" ht="13.2">
+    <row r="259" spans="1:27" ht="13">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="14"/>
@@ -9702,7 +9705,7 @@
       <c r="Z259" s="2"/>
       <c r="AA259" s="2"/>
     </row>
-    <row r="260" spans="1:27" ht="13.2">
+    <row r="260" spans="1:27" ht="13">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="14"/>
@@ -9731,7 +9734,7 @@
       <c r="Z260" s="2"/>
       <c r="AA260" s="2"/>
     </row>
-    <row r="261" spans="1:27" ht="13.2">
+    <row r="261" spans="1:27" ht="13">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="14"/>
@@ -9760,7 +9763,7 @@
       <c r="Z261" s="2"/>
       <c r="AA261" s="2"/>
     </row>
-    <row r="262" spans="1:27" ht="13.2">
+    <row r="262" spans="1:27" ht="13">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="14"/>
@@ -9789,7 +9792,7 @@
       <c r="Z262" s="2"/>
       <c r="AA262" s="2"/>
     </row>
-    <row r="263" spans="1:27" ht="13.2">
+    <row r="263" spans="1:27" ht="13">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="14"/>
@@ -9818,7 +9821,7 @@
       <c r="Z263" s="2"/>
       <c r="AA263" s="2"/>
     </row>
-    <row r="264" spans="1:27" ht="13.2">
+    <row r="264" spans="1:27" ht="13">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="14"/>
@@ -9847,7 +9850,7 @@
       <c r="Z264" s="2"/>
       <c r="AA264" s="2"/>
     </row>
-    <row r="265" spans="1:27" ht="13.2">
+    <row r="265" spans="1:27" ht="13">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="14"/>
@@ -9876,7 +9879,7 @@
       <c r="Z265" s="2"/>
       <c r="AA265" s="2"/>
     </row>
-    <row r="266" spans="1:27" ht="13.2">
+    <row r="266" spans="1:27" ht="13">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="14"/>
@@ -9905,7 +9908,7 @@
       <c r="Z266" s="2"/>
       <c r="AA266" s="2"/>
     </row>
-    <row r="267" spans="1:27" ht="13.2">
+    <row r="267" spans="1:27" ht="13">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="14"/>
@@ -9934,7 +9937,7 @@
       <c r="Z267" s="2"/>
       <c r="AA267" s="2"/>
     </row>
-    <row r="268" spans="1:27" ht="13.2">
+    <row r="268" spans="1:27" ht="13">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="14"/>
@@ -9963,7 +9966,7 @@
       <c r="Z268" s="2"/>
       <c r="AA268" s="2"/>
     </row>
-    <row r="269" spans="1:27" ht="13.2">
+    <row r="269" spans="1:27" ht="13">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="14"/>
@@ -9992,7 +9995,7 @@
       <c r="Z269" s="2"/>
       <c r="AA269" s="2"/>
     </row>
-    <row r="270" spans="1:27" ht="13.2">
+    <row r="270" spans="1:27" ht="13">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="14"/>
@@ -10021,7 +10024,7 @@
       <c r="Z270" s="2"/>
       <c r="AA270" s="2"/>
     </row>
-    <row r="271" spans="1:27" ht="13.2">
+    <row r="271" spans="1:27" ht="13">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="14"/>
@@ -10050,7 +10053,7 @@
       <c r="Z271" s="2"/>
       <c r="AA271" s="2"/>
     </row>
-    <row r="272" spans="1:27" ht="13.2">
+    <row r="272" spans="1:27" ht="13">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="14"/>
@@ -10079,7 +10082,7 @@
       <c r="Z272" s="2"/>
       <c r="AA272" s="2"/>
     </row>
-    <row r="273" spans="1:27" ht="13.2">
+    <row r="273" spans="1:27" ht="13">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="14"/>
@@ -10108,7 +10111,7 @@
       <c r="Z273" s="2"/>
       <c r="AA273" s="2"/>
     </row>
-    <row r="274" spans="1:27" ht="13.2">
+    <row r="274" spans="1:27" ht="13">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="14"/>
@@ -10137,7 +10140,7 @@
       <c r="Z274" s="2"/>
       <c r="AA274" s="2"/>
     </row>
-    <row r="275" spans="1:27" ht="13.2">
+    <row r="275" spans="1:27" ht="13">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="14"/>
@@ -10166,7 +10169,7 @@
       <c r="Z275" s="2"/>
       <c r="AA275" s="2"/>
     </row>
-    <row r="276" spans="1:27" ht="13.2">
+    <row r="276" spans="1:27" ht="13">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="14"/>
@@ -10195,7 +10198,7 @@
       <c r="Z276" s="2"/>
       <c r="AA276" s="2"/>
     </row>
-    <row r="277" spans="1:27" ht="13.2">
+    <row r="277" spans="1:27" ht="13">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="14"/>
@@ -10224,7 +10227,7 @@
       <c r="Z277" s="2"/>
       <c r="AA277" s="2"/>
     </row>
-    <row r="278" spans="1:27" ht="13.2">
+    <row r="278" spans="1:27" ht="13">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="14"/>
@@ -10253,7 +10256,7 @@
       <c r="Z278" s="2"/>
       <c r="AA278" s="2"/>
     </row>
-    <row r="279" spans="1:27" ht="13.2">
+    <row r="279" spans="1:27" ht="13">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="14"/>
@@ -10282,7 +10285,7 @@
       <c r="Z279" s="2"/>
       <c r="AA279" s="2"/>
     </row>
-    <row r="280" spans="1:27" ht="13.2">
+    <row r="280" spans="1:27" ht="13">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="14"/>
@@ -10311,7 +10314,7 @@
       <c r="Z280" s="2"/>
       <c r="AA280" s="2"/>
     </row>
-    <row r="281" spans="1:27" ht="13.2">
+    <row r="281" spans="1:27" ht="13">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="14"/>
@@ -10340,7 +10343,7 @@
       <c r="Z281" s="2"/>
       <c r="AA281" s="2"/>
     </row>
-    <row r="282" spans="1:27" ht="13.2">
+    <row r="282" spans="1:27" ht="13">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="14"/>
@@ -10369,7 +10372,7 @@
       <c r="Z282" s="2"/>
       <c r="AA282" s="2"/>
     </row>
-    <row r="283" spans="1:27" ht="13.2">
+    <row r="283" spans="1:27" ht="13">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="14"/>
@@ -10398,7 +10401,7 @@
       <c r="Z283" s="2"/>
       <c r="AA283" s="2"/>
     </row>
-    <row r="284" spans="1:27" ht="13.2">
+    <row r="284" spans="1:27" ht="13">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="14"/>
@@ -10427,7 +10430,7 @@
       <c r="Z284" s="2"/>
       <c r="AA284" s="2"/>
     </row>
-    <row r="285" spans="1:27" ht="13.2">
+    <row r="285" spans="1:27" ht="13">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="14"/>
@@ -10456,7 +10459,7 @@
       <c r="Z285" s="2"/>
       <c r="AA285" s="2"/>
     </row>
-    <row r="286" spans="1:27" ht="13.2">
+    <row r="286" spans="1:27" ht="13">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="14"/>
@@ -10485,7 +10488,7 @@
       <c r="Z286" s="2"/>
       <c r="AA286" s="2"/>
     </row>
-    <row r="287" spans="1:27" ht="13.2">
+    <row r="287" spans="1:27" ht="13">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="14"/>
@@ -10514,7 +10517,7 @@
       <c r="Z287" s="2"/>
       <c r="AA287" s="2"/>
     </row>
-    <row r="288" spans="1:27" ht="13.2">
+    <row r="288" spans="1:27" ht="13">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="14"/>
@@ -10543,7 +10546,7 @@
       <c r="Z288" s="2"/>
       <c r="AA288" s="2"/>
     </row>
-    <row r="289" spans="1:27" ht="13.2">
+    <row r="289" spans="1:27" ht="13">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="14"/>
@@ -10572,7 +10575,7 @@
       <c r="Z289" s="2"/>
       <c r="AA289" s="2"/>
     </row>
-    <row r="290" spans="1:27" ht="13.2">
+    <row r="290" spans="1:27" ht="13">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="14"/>
@@ -10601,7 +10604,7 @@
       <c r="Z290" s="2"/>
       <c r="AA290" s="2"/>
     </row>
-    <row r="291" spans="1:27" ht="13.2">
+    <row r="291" spans="1:27" ht="13">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="14"/>
@@ -10630,7 +10633,7 @@
       <c r="Z291" s="2"/>
       <c r="AA291" s="2"/>
     </row>
-    <row r="292" spans="1:27" ht="13.2">
+    <row r="292" spans="1:27" ht="13">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="14"/>
@@ -10659,7 +10662,7 @@
       <c r="Z292" s="2"/>
       <c r="AA292" s="2"/>
     </row>
-    <row r="293" spans="1:27" ht="13.2">
+    <row r="293" spans="1:27" ht="13">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="14"/>
@@ -10688,7 +10691,7 @@
       <c r="Z293" s="2"/>
       <c r="AA293" s="2"/>
     </row>
-    <row r="294" spans="1:27" ht="13.2">
+    <row r="294" spans="1:27" ht="13">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="14"/>
@@ -10717,7 +10720,7 @@
       <c r="Z294" s="2"/>
       <c r="AA294" s="2"/>
     </row>
-    <row r="295" spans="1:27" ht="13.2">
+    <row r="295" spans="1:27" ht="13">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="14"/>
@@ -10746,7 +10749,7 @@
       <c r="Z295" s="2"/>
       <c r="AA295" s="2"/>
     </row>
-    <row r="296" spans="1:27" ht="13.2">
+    <row r="296" spans="1:27" ht="13">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="14"/>
@@ -10775,7 +10778,7 @@
       <c r="Z296" s="2"/>
       <c r="AA296" s="2"/>
     </row>
-    <row r="297" spans="1:27" ht="13.2">
+    <row r="297" spans="1:27" ht="13">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="14"/>
@@ -10804,7 +10807,7 @@
       <c r="Z297" s="2"/>
       <c r="AA297" s="2"/>
     </row>
-    <row r="298" spans="1:27" ht="13.2">
+    <row r="298" spans="1:27" ht="13">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="14"/>
@@ -10833,7 +10836,7 @@
       <c r="Z298" s="2"/>
       <c r="AA298" s="2"/>
     </row>
-    <row r="299" spans="1:27" ht="13.2">
+    <row r="299" spans="1:27" ht="13">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="14"/>
@@ -10862,7 +10865,7 @@
       <c r="Z299" s="2"/>
       <c r="AA299" s="2"/>
     </row>
-    <row r="300" spans="1:27" ht="13.2">
+    <row r="300" spans="1:27" ht="13">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="14"/>
@@ -10891,7 +10894,7 @@
       <c r="Z300" s="2"/>
       <c r="AA300" s="2"/>
     </row>
-    <row r="301" spans="1:27" ht="13.2">
+    <row r="301" spans="1:27" ht="13">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="14"/>
@@ -10920,7 +10923,7 @@
       <c r="Z301" s="2"/>
       <c r="AA301" s="2"/>
     </row>
-    <row r="302" spans="1:27" ht="13.2">
+    <row r="302" spans="1:27" ht="13">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="14"/>
@@ -10949,7 +10952,7 @@
       <c r="Z302" s="2"/>
       <c r="AA302" s="2"/>
     </row>
-    <row r="303" spans="1:27" ht="13.2">
+    <row r="303" spans="1:27" ht="13">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="14"/>
@@ -10978,7 +10981,7 @@
       <c r="Z303" s="2"/>
       <c r="AA303" s="2"/>
     </row>
-    <row r="304" spans="1:27" ht="13.2">
+    <row r="304" spans="1:27" ht="13">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="14"/>
@@ -11007,7 +11010,7 @@
       <c r="Z304" s="2"/>
       <c r="AA304" s="2"/>
     </row>
-    <row r="305" spans="1:27" ht="13.2">
+    <row r="305" spans="1:27" ht="13">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="14"/>
@@ -11036,7 +11039,7 @@
       <c r="Z305" s="2"/>
       <c r="AA305" s="2"/>
     </row>
-    <row r="306" spans="1:27" ht="13.2">
+    <row r="306" spans="1:27" ht="13">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="14"/>
@@ -11065,7 +11068,7 @@
       <c r="Z306" s="2"/>
       <c r="AA306" s="2"/>
     </row>
-    <row r="307" spans="1:27" ht="13.2">
+    <row r="307" spans="1:27" ht="13">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="14"/>
@@ -11094,7 +11097,7 @@
       <c r="Z307" s="2"/>
       <c r="AA307" s="2"/>
     </row>
-    <row r="308" spans="1:27" ht="13.2">
+    <row r="308" spans="1:27" ht="13">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="14"/>
@@ -11123,7 +11126,7 @@
       <c r="Z308" s="2"/>
       <c r="AA308" s="2"/>
     </row>
-    <row r="309" spans="1:27" ht="13.2">
+    <row r="309" spans="1:27" ht="13">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="14"/>
@@ -11152,7 +11155,7 @@
       <c r="Z309" s="2"/>
       <c r="AA309" s="2"/>
     </row>
-    <row r="310" spans="1:27" ht="13.2">
+    <row r="310" spans="1:27" ht="13">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="14"/>
@@ -11181,7 +11184,7 @@
       <c r="Z310" s="2"/>
       <c r="AA310" s="2"/>
     </row>
-    <row r="311" spans="1:27" ht="13.2">
+    <row r="311" spans="1:27" ht="13">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="14"/>
@@ -11210,7 +11213,7 @@
       <c r="Z311" s="2"/>
       <c r="AA311" s="2"/>
     </row>
-    <row r="312" spans="1:27" ht="13.2">
+    <row r="312" spans="1:27" ht="13">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="14"/>
@@ -11239,7 +11242,7 @@
       <c r="Z312" s="2"/>
       <c r="AA312" s="2"/>
     </row>
-    <row r="313" spans="1:27" ht="13.2">
+    <row r="313" spans="1:27" ht="13">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="14"/>
@@ -11268,7 +11271,7 @@
       <c r="Z313" s="2"/>
       <c r="AA313" s="2"/>
     </row>
-    <row r="314" spans="1:27" ht="13.2">
+    <row r="314" spans="1:27" ht="13">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="14"/>
@@ -11297,7 +11300,7 @@
       <c r="Z314" s="2"/>
       <c r="AA314" s="2"/>
     </row>
-    <row r="315" spans="1:27" ht="13.2">
+    <row r="315" spans="1:27" ht="13">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="14"/>
@@ -11326,7 +11329,7 @@
       <c r="Z315" s="2"/>
       <c r="AA315" s="2"/>
     </row>
-    <row r="316" spans="1:27" ht="13.2">
+    <row r="316" spans="1:27" ht="13">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="14"/>
@@ -11355,7 +11358,7 @@
       <c r="Z316" s="2"/>
       <c r="AA316" s="2"/>
     </row>
-    <row r="317" spans="1:27" ht="13.2">
+    <row r="317" spans="1:27" ht="13">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="14"/>
@@ -11384,7 +11387,7 @@
       <c r="Z317" s="2"/>
       <c r="AA317" s="2"/>
     </row>
-    <row r="318" spans="1:27" ht="13.2">
+    <row r="318" spans="1:27" ht="13">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="14"/>
@@ -11413,7 +11416,7 @@
       <c r="Z318" s="2"/>
       <c r="AA318" s="2"/>
     </row>
-    <row r="319" spans="1:27" ht="13.2">
+    <row r="319" spans="1:27" ht="13">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="14"/>
@@ -11442,7 +11445,7 @@
       <c r="Z319" s="2"/>
       <c r="AA319" s="2"/>
     </row>
-    <row r="320" spans="1:27" ht="13.2">
+    <row r="320" spans="1:27" ht="13">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="14"/>
@@ -11471,7 +11474,7 @@
       <c r="Z320" s="2"/>
       <c r="AA320" s="2"/>
     </row>
-    <row r="321" spans="1:27" ht="13.2">
+    <row r="321" spans="1:27" ht="13">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="14"/>
@@ -11500,7 +11503,7 @@
       <c r="Z321" s="2"/>
       <c r="AA321" s="2"/>
     </row>
-    <row r="322" spans="1:27" ht="13.2">
+    <row r="322" spans="1:27" ht="13">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="14"/>
@@ -11529,7 +11532,7 @@
       <c r="Z322" s="2"/>
       <c r="AA322" s="2"/>
     </row>
-    <row r="323" spans="1:27" ht="13.2">
+    <row r="323" spans="1:27" ht="13">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="14"/>
@@ -11558,7 +11561,7 @@
       <c r="Z323" s="2"/>
       <c r="AA323" s="2"/>
     </row>
-    <row r="324" spans="1:27" ht="13.2">
+    <row r="324" spans="1:27" ht="13">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="14"/>
@@ -11587,7 +11590,7 @@
       <c r="Z324" s="2"/>
       <c r="AA324" s="2"/>
     </row>
-    <row r="325" spans="1:27" ht="13.2">
+    <row r="325" spans="1:27" ht="13">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="14"/>
@@ -11616,7 +11619,7 @@
       <c r="Z325" s="2"/>
       <c r="AA325" s="2"/>
     </row>
-    <row r="326" spans="1:27" ht="13.2">
+    <row r="326" spans="1:27" ht="13">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="14"/>
@@ -11645,7 +11648,7 @@
       <c r="Z326" s="2"/>
       <c r="AA326" s="2"/>
     </row>
-    <row r="327" spans="1:27" ht="13.2">
+    <row r="327" spans="1:27" ht="13">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="14"/>
@@ -11674,7 +11677,7 @@
       <c r="Z327" s="2"/>
       <c r="AA327" s="2"/>
     </row>
-    <row r="328" spans="1:27" ht="13.2">
+    <row r="328" spans="1:27" ht="13">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="14"/>
@@ -11703,7 +11706,7 @@
       <c r="Z328" s="2"/>
       <c r="AA328" s="2"/>
     </row>
-    <row r="329" spans="1:27" ht="13.2">
+    <row r="329" spans="1:27" ht="13">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="14"/>
@@ -11732,7 +11735,7 @@
       <c r="Z329" s="2"/>
       <c r="AA329" s="2"/>
     </row>
-    <row r="330" spans="1:27" ht="13.2">
+    <row r="330" spans="1:27" ht="13">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="14"/>
@@ -11761,7 +11764,7 @@
       <c r="Z330" s="2"/>
       <c r="AA330" s="2"/>
     </row>
-    <row r="331" spans="1:27" ht="13.2">
+    <row r="331" spans="1:27" ht="13">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="14"/>
@@ -11790,7 +11793,7 @@
       <c r="Z331" s="2"/>
       <c r="AA331" s="2"/>
     </row>
-    <row r="332" spans="1:27" ht="13.2">
+    <row r="332" spans="1:27" ht="13">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="14"/>
@@ -11819,7 +11822,7 @@
       <c r="Z332" s="2"/>
       <c r="AA332" s="2"/>
     </row>
-    <row r="333" spans="1:27" ht="13.2">
+    <row r="333" spans="1:27" ht="13">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="14"/>
@@ -11848,7 +11851,7 @@
       <c r="Z333" s="2"/>
       <c r="AA333" s="2"/>
     </row>
-    <row r="334" spans="1:27" ht="13.2">
+    <row r="334" spans="1:27" ht="13">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="14"/>
@@ -11877,7 +11880,7 @@
       <c r="Z334" s="2"/>
       <c r="AA334" s="2"/>
     </row>
-    <row r="335" spans="1:27" ht="13.2">
+    <row r="335" spans="1:27" ht="13">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="14"/>
@@ -11906,7 +11909,7 @@
       <c r="Z335" s="2"/>
       <c r="AA335" s="2"/>
     </row>
-    <row r="336" spans="1:27" ht="13.2">
+    <row r="336" spans="1:27" ht="13">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="14"/>
@@ -11935,7 +11938,7 @@
       <c r="Z336" s="2"/>
       <c r="AA336" s="2"/>
     </row>
-    <row r="337" spans="1:27" ht="13.2">
+    <row r="337" spans="1:27" ht="13">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="14"/>
@@ -11964,7 +11967,7 @@
       <c r="Z337" s="2"/>
       <c r="AA337" s="2"/>
     </row>
-    <row r="338" spans="1:27" ht="13.2">
+    <row r="338" spans="1:27" ht="13">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="14"/>
@@ -11993,7 +11996,7 @@
       <c r="Z338" s="2"/>
       <c r="AA338" s="2"/>
     </row>
-    <row r="339" spans="1:27" ht="13.2">
+    <row r="339" spans="1:27" ht="13">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="14"/>
@@ -12022,7 +12025,7 @@
       <c r="Z339" s="2"/>
       <c r="AA339" s="2"/>
     </row>
-    <row r="340" spans="1:27" ht="13.2">
+    <row r="340" spans="1:27" ht="13">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="14"/>
@@ -12051,7 +12054,7 @@
       <c r="Z340" s="2"/>
       <c r="AA340" s="2"/>
     </row>
-    <row r="341" spans="1:27" ht="13.2">
+    <row r="341" spans="1:27" ht="13">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="14"/>
@@ -12080,7 +12083,7 @@
       <c r="Z341" s="2"/>
       <c r="AA341" s="2"/>
     </row>
-    <row r="342" spans="1:27" ht="13.2">
+    <row r="342" spans="1:27" ht="13">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="14"/>
@@ -12109,7 +12112,7 @@
       <c r="Z342" s="2"/>
       <c r="AA342" s="2"/>
     </row>
-    <row r="343" spans="1:27" ht="13.2">
+    <row r="343" spans="1:27" ht="13">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="14"/>
@@ -12138,7 +12141,7 @@
       <c r="Z343" s="2"/>
       <c r="AA343" s="2"/>
     </row>
-    <row r="344" spans="1:27" ht="13.2">
+    <row r="344" spans="1:27" ht="13">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="14"/>
@@ -12167,7 +12170,7 @@
       <c r="Z344" s="2"/>
       <c r="AA344" s="2"/>
     </row>
-    <row r="345" spans="1:27" ht="13.2">
+    <row r="345" spans="1:27" ht="13">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="14"/>
@@ -12196,7 +12199,7 @@
       <c r="Z345" s="2"/>
       <c r="AA345" s="2"/>
     </row>
-    <row r="346" spans="1:27" ht="13.2">
+    <row r="346" spans="1:27" ht="13">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="14"/>
@@ -12225,7 +12228,7 @@
       <c r="Z346" s="2"/>
       <c r="AA346" s="2"/>
     </row>
-    <row r="347" spans="1:27" ht="13.2">
+    <row r="347" spans="1:27" ht="13">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="14"/>
@@ -12254,7 +12257,7 @@
       <c r="Z347" s="2"/>
       <c r="AA347" s="2"/>
     </row>
-    <row r="348" spans="1:27" ht="13.2">
+    <row r="348" spans="1:27" ht="13">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="14"/>
@@ -12283,7 +12286,7 @@
       <c r="Z348" s="2"/>
       <c r="AA348" s="2"/>
     </row>
-    <row r="349" spans="1:27" ht="13.2">
+    <row r="349" spans="1:27" ht="13">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="14"/>
@@ -12312,7 +12315,7 @@
       <c r="Z349" s="2"/>
       <c r="AA349" s="2"/>
     </row>
-    <row r="350" spans="1:27" ht="13.2">
+    <row r="350" spans="1:27" ht="13">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="14"/>
@@ -12341,7 +12344,7 @@
       <c r="Z350" s="2"/>
       <c r="AA350" s="2"/>
     </row>
-    <row r="351" spans="1:27" ht="13.2">
+    <row r="351" spans="1:27" ht="13">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="14"/>
@@ -12370,7 +12373,7 @@
       <c r="Z351" s="2"/>
       <c r="AA351" s="2"/>
     </row>
-    <row r="352" spans="1:27" ht="13.2">
+    <row r="352" spans="1:27" ht="13">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="14"/>
@@ -12399,7 +12402,7 @@
       <c r="Z352" s="2"/>
       <c r="AA352" s="2"/>
     </row>
-    <row r="353" spans="1:27" ht="13.2">
+    <row r="353" spans="1:27" ht="13">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="14"/>
@@ -12428,7 +12431,7 @@
       <c r="Z353" s="2"/>
       <c r="AA353" s="2"/>
     </row>
-    <row r="354" spans="1:27" ht="13.2">
+    <row r="354" spans="1:27" ht="13">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="14"/>
@@ -12457,7 +12460,7 @@
       <c r="Z354" s="2"/>
       <c r="AA354" s="2"/>
     </row>
-    <row r="355" spans="1:27" ht="13.2">
+    <row r="355" spans="1:27" ht="13">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="14"/>
@@ -12486,7 +12489,7 @@
       <c r="Z355" s="2"/>
       <c r="AA355" s="2"/>
     </row>
-    <row r="356" spans="1:27" ht="13.2">
+    <row r="356" spans="1:27" ht="13">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="14"/>
@@ -12515,7 +12518,7 @@
       <c r="Z356" s="2"/>
       <c r="AA356" s="2"/>
     </row>
-    <row r="357" spans="1:27" ht="13.2">
+    <row r="357" spans="1:27" ht="13">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="14"/>
@@ -12544,7 +12547,7 @@
       <c r="Z357" s="2"/>
       <c r="AA357" s="2"/>
     </row>
-    <row r="358" spans="1:27" ht="13.2">
+    <row r="358" spans="1:27" ht="13">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="14"/>
@@ -12573,7 +12576,7 @@
       <c r="Z358" s="2"/>
       <c r="AA358" s="2"/>
     </row>
-    <row r="359" spans="1:27" ht="13.2">
+    <row r="359" spans="1:27" ht="13">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="14"/>
@@ -12602,7 +12605,7 @@
       <c r="Z359" s="2"/>
       <c r="AA359" s="2"/>
     </row>
-    <row r="360" spans="1:27" ht="13.2">
+    <row r="360" spans="1:27" ht="13">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="14"/>
@@ -12631,7 +12634,7 @@
       <c r="Z360" s="2"/>
       <c r="AA360" s="2"/>
     </row>
-    <row r="361" spans="1:27" ht="13.2">
+    <row r="361" spans="1:27" ht="13">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="14"/>
@@ -12660,7 +12663,7 @@
       <c r="Z361" s="2"/>
       <c r="AA361" s="2"/>
     </row>
-    <row r="362" spans="1:27" ht="13.2">
+    <row r="362" spans="1:27" ht="13">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="14"/>
@@ -12689,7 +12692,7 @@
       <c r="Z362" s="2"/>
       <c r="AA362" s="2"/>
     </row>
-    <row r="363" spans="1:27" ht="13.2">
+    <row r="363" spans="1:27" ht="13">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="14"/>
@@ -12718,7 +12721,7 @@
       <c r="Z363" s="2"/>
       <c r="AA363" s="2"/>
     </row>
-    <row r="364" spans="1:27" ht="13.2">
+    <row r="364" spans="1:27" ht="13">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="14"/>
@@ -12747,7 +12750,7 @@
       <c r="Z364" s="2"/>
       <c r="AA364" s="2"/>
     </row>
-    <row r="365" spans="1:27" ht="13.2">
+    <row r="365" spans="1:27" ht="13">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="14"/>
@@ -12776,7 +12779,7 @@
       <c r="Z365" s="2"/>
       <c r="AA365" s="2"/>
     </row>
-    <row r="366" spans="1:27" ht="13.2">
+    <row r="366" spans="1:27" ht="13">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="14"/>
@@ -12805,7 +12808,7 @@
       <c r="Z366" s="2"/>
       <c r="AA366" s="2"/>
     </row>
-    <row r="367" spans="1:27" ht="13.2">
+    <row r="367" spans="1:27" ht="13">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="14"/>
@@ -12834,7 +12837,7 @@
       <c r="Z367" s="2"/>
       <c r="AA367" s="2"/>
     </row>
-    <row r="368" spans="1:27" ht="13.2">
+    <row r="368" spans="1:27" ht="13">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="14"/>
@@ -12863,7 +12866,7 @@
       <c r="Z368" s="2"/>
       <c r="AA368" s="2"/>
     </row>
-    <row r="369" spans="1:27" ht="13.2">
+    <row r="369" spans="1:27" ht="13">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="14"/>
@@ -12892,7 +12895,7 @@
       <c r="Z369" s="2"/>
       <c r="AA369" s="2"/>
     </row>
-    <row r="370" spans="1:27" ht="13.2">
+    <row r="370" spans="1:27" ht="13">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="14"/>
@@ -12921,7 +12924,7 @@
       <c r="Z370" s="2"/>
       <c r="AA370" s="2"/>
     </row>
-    <row r="371" spans="1:27" ht="13.2">
+    <row r="371" spans="1:27" ht="13">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="14"/>
@@ -12950,7 +12953,7 @@
       <c r="Z371" s="2"/>
       <c r="AA371" s="2"/>
     </row>
-    <row r="372" spans="1:27" ht="13.2">
+    <row r="372" spans="1:27" ht="13">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="14"/>
@@ -12979,7 +12982,7 @@
       <c r="Z372" s="2"/>
       <c r="AA372" s="2"/>
     </row>
-    <row r="373" spans="1:27" ht="13.2">
+    <row r="373" spans="1:27" ht="13">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="14"/>
@@ -13008,7 +13011,7 @@
       <c r="Z373" s="2"/>
       <c r="AA373" s="2"/>
     </row>
-    <row r="374" spans="1:27" ht="13.2">
+    <row r="374" spans="1:27" ht="13">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="14"/>
@@ -13037,7 +13040,7 @@
       <c r="Z374" s="2"/>
       <c r="AA374" s="2"/>
     </row>
-    <row r="375" spans="1:27" ht="13.2">
+    <row r="375" spans="1:27" ht="13">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="14"/>
@@ -13066,7 +13069,7 @@
       <c r="Z375" s="2"/>
       <c r="AA375" s="2"/>
     </row>
-    <row r="376" spans="1:27" ht="13.2">
+    <row r="376" spans="1:27" ht="13">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="14"/>
@@ -13095,7 +13098,7 @@
       <c r="Z376" s="2"/>
       <c r="AA376" s="2"/>
     </row>
-    <row r="377" spans="1:27" ht="13.2">
+    <row r="377" spans="1:27" ht="13">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="14"/>
@@ -13124,7 +13127,7 @@
       <c r="Z377" s="2"/>
       <c r="AA377" s="2"/>
     </row>
-    <row r="378" spans="1:27" ht="13.2">
+    <row r="378" spans="1:27" ht="13">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="14"/>
@@ -13153,7 +13156,7 @@
       <c r="Z378" s="2"/>
       <c r="AA378" s="2"/>
     </row>
-    <row r="379" spans="1:27" ht="13.2">
+    <row r="379" spans="1:27" ht="13">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="14"/>
@@ -13182,7 +13185,7 @@
       <c r="Z379" s="2"/>
       <c r="AA379" s="2"/>
     </row>
-    <row r="380" spans="1:27" ht="13.2">
+    <row r="380" spans="1:27" ht="13">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="14"/>
@@ -13211,7 +13214,7 @@
       <c r="Z380" s="2"/>
       <c r="AA380" s="2"/>
     </row>
-    <row r="381" spans="1:27" ht="13.2">
+    <row r="381" spans="1:27" ht="13">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="14"/>
@@ -13240,7 +13243,7 @@
       <c r="Z381" s="2"/>
       <c r="AA381" s="2"/>
     </row>
-    <row r="382" spans="1:27" ht="13.2">
+    <row r="382" spans="1:27" ht="13">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="14"/>
@@ -13269,7 +13272,7 @@
       <c r="Z382" s="2"/>
       <c r="AA382" s="2"/>
     </row>
-    <row r="383" spans="1:27" ht="13.2">
+    <row r="383" spans="1:27" ht="13">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="14"/>
@@ -13298,7 +13301,7 @@
       <c r="Z383" s="2"/>
       <c r="AA383" s="2"/>
     </row>
-    <row r="384" spans="1:27" ht="13.2">
+    <row r="384" spans="1:27" ht="13">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="14"/>
@@ -13327,7 +13330,7 @@
       <c r="Z384" s="2"/>
       <c r="AA384" s="2"/>
     </row>
-    <row r="385" spans="1:27" ht="13.2">
+    <row r="385" spans="1:27" ht="13">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="14"/>
@@ -13356,7 +13359,7 @@
       <c r="Z385" s="2"/>
       <c r="AA385" s="2"/>
     </row>
-    <row r="386" spans="1:27" ht="13.2">
+    <row r="386" spans="1:27" ht="13">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="14"/>
@@ -13385,7 +13388,7 @@
       <c r="Z386" s="2"/>
       <c r="AA386" s="2"/>
     </row>
-    <row r="387" spans="1:27" ht="13.2">
+    <row r="387" spans="1:27" ht="13">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="14"/>
@@ -13414,7 +13417,7 @@
       <c r="Z387" s="2"/>
       <c r="AA387" s="2"/>
     </row>
-    <row r="388" spans="1:27" ht="13.2">
+    <row r="388" spans="1:27" ht="13">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="14"/>
@@ -13443,7 +13446,7 @@
       <c r="Z388" s="2"/>
       <c r="AA388" s="2"/>
     </row>
-    <row r="389" spans="1:27" ht="13.2">
+    <row r="389" spans="1:27" ht="13">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="14"/>
@@ -13472,7 +13475,7 @@
       <c r="Z389" s="2"/>
       <c r="AA389" s="2"/>
     </row>
-    <row r="390" spans="1:27" ht="13.2">
+    <row r="390" spans="1:27" ht="13">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="14"/>
@@ -13501,7 +13504,7 @@
       <c r="Z390" s="2"/>
       <c r="AA390" s="2"/>
     </row>
-    <row r="391" spans="1:27" ht="13.2">
+    <row r="391" spans="1:27" ht="13">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="14"/>
@@ -13530,7 +13533,7 @@
       <c r="Z391" s="2"/>
       <c r="AA391" s="2"/>
     </row>
-    <row r="392" spans="1:27" ht="13.2">
+    <row r="392" spans="1:27" ht="13">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="14"/>
@@ -13559,7 +13562,7 @@
       <c r="Z392" s="2"/>
       <c r="AA392" s="2"/>
     </row>
-    <row r="393" spans="1:27" ht="13.2">
+    <row r="393" spans="1:27" ht="13">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="14"/>
@@ -13588,7 +13591,7 @@
       <c r="Z393" s="2"/>
       <c r="AA393" s="2"/>
     </row>
-    <row r="394" spans="1:27" ht="13.2">
+    <row r="394" spans="1:27" ht="13">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="14"/>
@@ -13617,7 +13620,7 @@
       <c r="Z394" s="2"/>
       <c r="AA394" s="2"/>
     </row>
-    <row r="395" spans="1:27" ht="13.2">
+    <row r="395" spans="1:27" ht="13">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="14"/>
@@ -13646,7 +13649,7 @@
       <c r="Z395" s="2"/>
       <c r="AA395" s="2"/>
     </row>
-    <row r="396" spans="1:27" ht="13.2">
+    <row r="396" spans="1:27" ht="13">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="14"/>
@@ -13675,7 +13678,7 @@
       <c r="Z396" s="2"/>
       <c r="AA396" s="2"/>
     </row>
-    <row r="397" spans="1:27" ht="13.2">
+    <row r="397" spans="1:27" ht="13">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="14"/>
@@ -13704,7 +13707,7 @@
       <c r="Z397" s="2"/>
       <c r="AA397" s="2"/>
     </row>
-    <row r="398" spans="1:27" ht="13.2">
+    <row r="398" spans="1:27" ht="13">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="14"/>
@@ -13733,7 +13736,7 @@
       <c r="Z398" s="2"/>
       <c r="AA398" s="2"/>
     </row>
-    <row r="399" spans="1:27" ht="13.2">
+    <row r="399" spans="1:27" ht="13">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="14"/>
@@ -13762,7 +13765,7 @@
       <c r="Z399" s="2"/>
       <c r="AA399" s="2"/>
     </row>
-    <row r="400" spans="1:27" ht="13.2">
+    <row r="400" spans="1:27" ht="13">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="14"/>
@@ -13791,7 +13794,7 @@
       <c r="Z400" s="2"/>
       <c r="AA400" s="2"/>
     </row>
-    <row r="401" spans="1:27" ht="13.2">
+    <row r="401" spans="1:27" ht="13">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="14"/>
@@ -13820,7 +13823,7 @@
       <c r="Z401" s="2"/>
       <c r="AA401" s="2"/>
     </row>
-    <row r="402" spans="1:27" ht="13.2">
+    <row r="402" spans="1:27" ht="13">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="14"/>
@@ -13849,7 +13852,7 @@
       <c r="Z402" s="2"/>
       <c r="AA402" s="2"/>
     </row>
-    <row r="403" spans="1:27" ht="13.2">
+    <row r="403" spans="1:27" ht="13">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="14"/>
@@ -13878,7 +13881,7 @@
       <c r="Z403" s="2"/>
       <c r="AA403" s="2"/>
     </row>
-    <row r="404" spans="1:27" ht="13.2">
+    <row r="404" spans="1:27" ht="13">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="14"/>
@@ -13907,7 +13910,7 @@
       <c r="Z404" s="2"/>
       <c r="AA404" s="2"/>
     </row>
-    <row r="405" spans="1:27" ht="13.2">
+    <row r="405" spans="1:27" ht="13">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="14"/>
@@ -13936,7 +13939,7 @@
       <c r="Z405" s="2"/>
       <c r="AA405" s="2"/>
     </row>
-    <row r="406" spans="1:27" ht="13.2">
+    <row r="406" spans="1:27" ht="13">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="14"/>
@@ -13965,7 +13968,7 @@
       <c r="Z406" s="2"/>
       <c r="AA406" s="2"/>
     </row>
-    <row r="407" spans="1:27" ht="13.2">
+    <row r="407" spans="1:27" ht="13">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="14"/>
@@ -13994,7 +13997,7 @@
       <c r="Z407" s="2"/>
       <c r="AA407" s="2"/>
     </row>
-    <row r="408" spans="1:27" ht="13.2">
+    <row r="408" spans="1:27" ht="13">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="14"/>
@@ -14023,7 +14026,7 @@
       <c r="Z408" s="2"/>
       <c r="AA408" s="2"/>
     </row>
-    <row r="409" spans="1:27" ht="13.2">
+    <row r="409" spans="1:27" ht="13">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="14"/>
@@ -14052,7 +14055,7 @@
       <c r="Z409" s="2"/>
       <c r="AA409" s="2"/>
     </row>
-    <row r="410" spans="1:27" ht="13.2">
+    <row r="410" spans="1:27" ht="13">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="14"/>
@@ -14081,7 +14084,7 @@
       <c r="Z410" s="2"/>
       <c r="AA410" s="2"/>
     </row>
-    <row r="411" spans="1:27" ht="13.2">
+    <row r="411" spans="1:27" ht="13">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="14"/>
@@ -14110,7 +14113,7 @@
       <c r="Z411" s="2"/>
       <c r="AA411" s="2"/>
     </row>
-    <row r="412" spans="1:27" ht="13.2">
+    <row r="412" spans="1:27" ht="13">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="14"/>
@@ -14139,7 +14142,7 @@
       <c r="Z412" s="2"/>
       <c r="AA412" s="2"/>
     </row>
-    <row r="413" spans="1:27" ht="13.2">
+    <row r="413" spans="1:27" ht="13">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="14"/>
@@ -14168,7 +14171,7 @@
       <c r="Z413" s="2"/>
       <c r="AA413" s="2"/>
     </row>
-    <row r="414" spans="1:27" ht="13.2">
+    <row r="414" spans="1:27" ht="13">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="14"/>
@@ -14197,7 +14200,7 @@
       <c r="Z414" s="2"/>
       <c r="AA414" s="2"/>
     </row>
-    <row r="415" spans="1:27" ht="13.2">
+    <row r="415" spans="1:27" ht="13">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="14"/>
@@ -14226,7 +14229,7 @@
       <c r="Z415" s="2"/>
       <c r="AA415" s="2"/>
     </row>
-    <row r="416" spans="1:27" ht="13.2">
+    <row r="416" spans="1:27" ht="13">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="14"/>
@@ -14255,7 +14258,7 @@
       <c r="Z416" s="2"/>
       <c r="AA416" s="2"/>
     </row>
-    <row r="417" spans="1:27" ht="13.2">
+    <row r="417" spans="1:27" ht="13">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="14"/>
@@ -14284,7 +14287,7 @@
       <c r="Z417" s="2"/>
       <c r="AA417" s="2"/>
     </row>
-    <row r="418" spans="1:27" ht="13.2">
+    <row r="418" spans="1:27" ht="13">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="14"/>
@@ -14313,7 +14316,7 @@
       <c r="Z418" s="2"/>
       <c r="AA418" s="2"/>
     </row>
-    <row r="419" spans="1:27" ht="13.2">
+    <row r="419" spans="1:27" ht="13">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="14"/>
@@ -14342,7 +14345,7 @@
       <c r="Z419" s="2"/>
       <c r="AA419" s="2"/>
     </row>
-    <row r="420" spans="1:27" ht="13.2">
+    <row r="420" spans="1:27" ht="13">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="14"/>
@@ -14371,7 +14374,7 @@
       <c r="Z420" s="2"/>
       <c r="AA420" s="2"/>
     </row>
-    <row r="421" spans="1:27" ht="13.2">
+    <row r="421" spans="1:27" ht="13">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="14"/>
@@ -14400,7 +14403,7 @@
       <c r="Z421" s="2"/>
       <c r="AA421" s="2"/>
     </row>
-    <row r="422" spans="1:27" ht="13.2">
+    <row r="422" spans="1:27" ht="13">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="14"/>
@@ -14429,7 +14432,7 @@
       <c r="Z422" s="2"/>
       <c r="AA422" s="2"/>
     </row>
-    <row r="423" spans="1:27" ht="13.2">
+    <row r="423" spans="1:27" ht="13">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="14"/>
@@ -14458,7 +14461,7 @@
       <c r="Z423" s="2"/>
       <c r="AA423" s="2"/>
     </row>
-    <row r="424" spans="1:27" ht="13.2">
+    <row r="424" spans="1:27" ht="13">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="14"/>
@@ -14487,7 +14490,7 @@
       <c r="Z424" s="2"/>
       <c r="AA424" s="2"/>
     </row>
-    <row r="425" spans="1:27" ht="13.2">
+    <row r="425" spans="1:27" ht="13">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="14"/>
@@ -14516,7 +14519,7 @@
       <c r="Z425" s="2"/>
       <c r="AA425" s="2"/>
     </row>
-    <row r="426" spans="1:27" ht="13.2">
+    <row r="426" spans="1:27" ht="13">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="14"/>
@@ -14545,7 +14548,7 @@
       <c r="Z426" s="2"/>
       <c r="AA426" s="2"/>
     </row>
-    <row r="427" spans="1:27" ht="13.2">
+    <row r="427" spans="1:27" ht="13">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="14"/>
@@ -14574,7 +14577,7 @@
       <c r="Z427" s="2"/>
       <c r="AA427" s="2"/>
     </row>
-    <row r="428" spans="1:27" ht="13.2">
+    <row r="428" spans="1:27" ht="13">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="14"/>
@@ -14603,7 +14606,7 @@
       <c r="Z428" s="2"/>
       <c r="AA428" s="2"/>
     </row>
-    <row r="429" spans="1:27" ht="13.2">
+    <row r="429" spans="1:27" ht="13">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="14"/>
@@ -14632,7 +14635,7 @@
       <c r="Z429" s="2"/>
       <c r="AA429" s="2"/>
     </row>
-    <row r="430" spans="1:27" ht="13.2">
+    <row r="430" spans="1:27" ht="13">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="14"/>
@@ -14661,7 +14664,7 @@
       <c r="Z430" s="2"/>
       <c r="AA430" s="2"/>
     </row>
-    <row r="431" spans="1:27" ht="13.2">
+    <row r="431" spans="1:27" ht="13">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="14"/>
@@ -14690,7 +14693,7 @@
       <c r="Z431" s="2"/>
       <c r="AA431" s="2"/>
     </row>
-    <row r="432" spans="1:27" ht="13.2">
+    <row r="432" spans="1:27" ht="13">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="14"/>
@@ -14719,7 +14722,7 @@
       <c r="Z432" s="2"/>
       <c r="AA432" s="2"/>
     </row>
-    <row r="433" spans="1:27" ht="13.2">
+    <row r="433" spans="1:27" ht="13">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="14"/>
@@ -14748,7 +14751,7 @@
       <c r="Z433" s="2"/>
       <c r="AA433" s="2"/>
     </row>
-    <row r="434" spans="1:27" ht="13.2">
+    <row r="434" spans="1:27" ht="13">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="14"/>
@@ -14777,7 +14780,7 @@
       <c r="Z434" s="2"/>
       <c r="AA434" s="2"/>
     </row>
-    <row r="435" spans="1:27" ht="13.2">
+    <row r="435" spans="1:27" ht="13">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="14"/>
@@ -14806,7 +14809,7 @@
       <c r="Z435" s="2"/>
       <c r="AA435" s="2"/>
     </row>
-    <row r="436" spans="1:27" ht="13.2">
+    <row r="436" spans="1:27" ht="13">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="14"/>
@@ -14835,7 +14838,7 @@
       <c r="Z436" s="2"/>
       <c r="AA436" s="2"/>
     </row>
-    <row r="437" spans="1:27" ht="13.2">
+    <row r="437" spans="1:27" ht="13">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="14"/>
@@ -14864,7 +14867,7 @@
       <c r="Z437" s="2"/>
       <c r="AA437" s="2"/>
     </row>
-    <row r="438" spans="1:27" ht="13.2">
+    <row r="438" spans="1:27" ht="13">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="14"/>
@@ -14893,7 +14896,7 @@
       <c r="Z438" s="2"/>
       <c r="AA438" s="2"/>
     </row>
-    <row r="439" spans="1:27" ht="13.2">
+    <row r="439" spans="1:27" ht="13">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="14"/>
@@ -14922,7 +14925,7 @@
       <c r="Z439" s="2"/>
       <c r="AA439" s="2"/>
     </row>
-    <row r="440" spans="1:27" ht="13.2">
+    <row r="440" spans="1:27" ht="13">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="14"/>
@@ -14951,7 +14954,7 @@
       <c r="Z440" s="2"/>
       <c r="AA440" s="2"/>
     </row>
-    <row r="441" spans="1:27" ht="13.2">
+    <row r="441" spans="1:27" ht="13">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="14"/>
@@ -14980,7 +14983,7 @@
       <c r="Z441" s="2"/>
       <c r="AA441" s="2"/>
     </row>
-    <row r="442" spans="1:27" ht="13.2">
+    <row r="442" spans="1:27" ht="13">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="14"/>
@@ -15009,7 +15012,7 @@
       <c r="Z442" s="2"/>
       <c r="AA442" s="2"/>
     </row>
-    <row r="443" spans="1:27" ht="13.2">
+    <row r="443" spans="1:27" ht="13">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="14"/>
@@ -15038,7 +15041,7 @@
       <c r="Z443" s="2"/>
       <c r="AA443" s="2"/>
     </row>
-    <row r="444" spans="1:27" ht="13.2">
+    <row r="444" spans="1:27" ht="13">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="14"/>
@@ -15067,7 +15070,7 @@
       <c r="Z444" s="2"/>
       <c r="AA444" s="2"/>
     </row>
-    <row r="445" spans="1:27" ht="13.2">
+    <row r="445" spans="1:27" ht="13">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="14"/>
@@ -15096,7 +15099,7 @@
       <c r="Z445" s="2"/>
       <c r="AA445" s="2"/>
     </row>
-    <row r="446" spans="1:27" ht="13.2">
+    <row r="446" spans="1:27" ht="13">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="14"/>
@@ -15125,7 +15128,7 @@
       <c r="Z446" s="2"/>
       <c r="AA446" s="2"/>
     </row>
-    <row r="447" spans="1:27" ht="13.2">
+    <row r="447" spans="1:27" ht="13">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="14"/>
@@ -15154,7 +15157,7 @@
       <c r="Z447" s="2"/>
       <c r="AA447" s="2"/>
     </row>
-    <row r="448" spans="1:27" ht="13.2">
+    <row r="448" spans="1:27" ht="13">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="14"/>
@@ -15183,7 +15186,7 @@
       <c r="Z448" s="2"/>
       <c r="AA448" s="2"/>
     </row>
-    <row r="449" spans="1:27" ht="13.2">
+    <row r="449" spans="1:27" ht="13">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="14"/>
@@ -15212,7 +15215,7 @@
       <c r="Z449" s="2"/>
       <c r="AA449" s="2"/>
     </row>
-    <row r="450" spans="1:27" ht="13.2">
+    <row r="450" spans="1:27" ht="13">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="14"/>
@@ -15241,7 +15244,7 @@
       <c r="Z450" s="2"/>
       <c r="AA450" s="2"/>
     </row>
-    <row r="451" spans="1:27" ht="13.2">
+    <row r="451" spans="1:27" ht="13">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="14"/>
@@ -15270,7 +15273,7 @@
       <c r="Z451" s="2"/>
       <c r="AA451" s="2"/>
     </row>
-    <row r="452" spans="1:27" ht="13.2">
+    <row r="452" spans="1:27" ht="13">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="14"/>
@@ -15299,7 +15302,7 @@
       <c r="Z452" s="2"/>
       <c r="AA452" s="2"/>
     </row>
-    <row r="453" spans="1:27" ht="13.2">
+    <row r="453" spans="1:27" ht="13">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="14"/>
@@ -15328,7 +15331,7 @@
       <c r="Z453" s="2"/>
       <c r="AA453" s="2"/>
     </row>
-    <row r="454" spans="1:27" ht="13.2">
+    <row r="454" spans="1:27" ht="13">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="14"/>
@@ -15357,7 +15360,7 @@
       <c r="Z454" s="2"/>
       <c r="AA454" s="2"/>
     </row>
-    <row r="455" spans="1:27" ht="13.2">
+    <row r="455" spans="1:27" ht="13">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="14"/>
@@ -15386,7 +15389,7 @@
       <c r="Z455" s="2"/>
       <c r="AA455" s="2"/>
     </row>
-    <row r="456" spans="1:27" ht="13.2">
+    <row r="456" spans="1:27" ht="13">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="14"/>
@@ -15415,7 +15418,7 @@
       <c r="Z456" s="2"/>
       <c r="AA456" s="2"/>
     </row>
-    <row r="457" spans="1:27" ht="13.2">
+    <row r="457" spans="1:27" ht="13">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="14"/>
@@ -15444,7 +15447,7 @@
       <c r="Z457" s="2"/>
       <c r="AA457" s="2"/>
     </row>
-    <row r="458" spans="1:27" ht="13.2">
+    <row r="458" spans="1:27" ht="13">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="14"/>
@@ -15473,7 +15476,7 @@
       <c r="Z458" s="2"/>
       <c r="AA458" s="2"/>
     </row>
-    <row r="459" spans="1:27" ht="13.2">
+    <row r="459" spans="1:27" ht="13">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="14"/>
@@ -15502,7 +15505,7 @@
       <c r="Z459" s="2"/>
       <c r="AA459" s="2"/>
     </row>
-    <row r="460" spans="1:27" ht="13.2">
+    <row r="460" spans="1:27" ht="13">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="14"/>
@@ -15531,7 +15534,7 @@
       <c r="Z460" s="2"/>
       <c r="AA460" s="2"/>
     </row>
-    <row r="461" spans="1:27" ht="13.2">
+    <row r="461" spans="1:27" ht="13">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="14"/>
@@ -15560,7 +15563,7 @@
       <c r="Z461" s="2"/>
       <c r="AA461" s="2"/>
     </row>
-    <row r="462" spans="1:27" ht="13.2">
+    <row r="462" spans="1:27" ht="13">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="14"/>
@@ -15589,7 +15592,7 @@
       <c r="Z462" s="2"/>
       <c r="AA462" s="2"/>
     </row>
-    <row r="463" spans="1:27" ht="13.2">
+    <row r="463" spans="1:27" ht="13">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="14"/>
@@ -15618,7 +15621,7 @@
       <c r="Z463" s="2"/>
       <c r="AA463" s="2"/>
     </row>
-    <row r="464" spans="1:27" ht="13.2">
+    <row r="464" spans="1:27" ht="13">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="14"/>
@@ -15647,7 +15650,7 @@
       <c r="Z464" s="2"/>
       <c r="AA464" s="2"/>
     </row>
-    <row r="465" spans="1:27" ht="13.2">
+    <row r="465" spans="1:27" ht="13">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="14"/>
@@ -15676,7 +15679,7 @@
       <c r="Z465" s="2"/>
       <c r="AA465" s="2"/>
     </row>
-    <row r="466" spans="1:27" ht="13.2">
+    <row r="466" spans="1:27" ht="13">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="14"/>
@@ -15705,7 +15708,7 @@
       <c r="Z466" s="2"/>
       <c r="AA466" s="2"/>
     </row>
-    <row r="467" spans="1:27" ht="13.2">
+    <row r="467" spans="1:27" ht="13">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="14"/>
@@ -15734,7 +15737,7 @@
       <c r="Z467" s="2"/>
       <c r="AA467" s="2"/>
     </row>
-    <row r="468" spans="1:27" ht="13.2">
+    <row r="468" spans="1:27" ht="13">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="14"/>
@@ -15763,7 +15766,7 @@
       <c r="Z468" s="2"/>
       <c r="AA468" s="2"/>
     </row>
-    <row r="469" spans="1:27" ht="13.2">
+    <row r="469" spans="1:27" ht="13">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="14"/>
@@ -15792,7 +15795,7 @@
       <c r="Z469" s="2"/>
       <c r="AA469" s="2"/>
     </row>
-    <row r="470" spans="1:27" ht="13.2">
+    <row r="470" spans="1:27" ht="13">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="14"/>
@@ -15821,7 +15824,7 @@
       <c r="Z470" s="2"/>
       <c r="AA470" s="2"/>
     </row>
-    <row r="471" spans="1:27" ht="13.2">
+    <row r="471" spans="1:27" ht="13">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="14"/>
@@ -15850,7 +15853,7 @@
       <c r="Z471" s="2"/>
       <c r="AA471" s="2"/>
     </row>
-    <row r="472" spans="1:27" ht="13.2">
+    <row r="472" spans="1:27" ht="13">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="14"/>
@@ -15879,7 +15882,7 @@
       <c r="Z472" s="2"/>
       <c r="AA472" s="2"/>
     </row>
-    <row r="473" spans="1:27" ht="13.2">
+    <row r="473" spans="1:27" ht="13">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="14"/>
@@ -15908,7 +15911,7 @@
       <c r="Z473" s="2"/>
       <c r="AA473" s="2"/>
     </row>
-    <row r="474" spans="1:27" ht="13.2">
+    <row r="474" spans="1:27" ht="13">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="14"/>
@@ -15937,7 +15940,7 @@
       <c r="Z474" s="2"/>
       <c r="AA474" s="2"/>
     </row>
-    <row r="475" spans="1:27" ht="13.2">
+    <row r="475" spans="1:27" ht="13">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="14"/>
@@ -15966,7 +15969,7 @@
       <c r="Z475" s="2"/>
       <c r="AA475" s="2"/>
     </row>
-    <row r="476" spans="1:27" ht="13.2">
+    <row r="476" spans="1:27" ht="13">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="14"/>
@@ -15995,7 +15998,7 @@
       <c r="Z476" s="2"/>
       <c r="AA476" s="2"/>
     </row>
-    <row r="477" spans="1:27" ht="13.2">
+    <row r="477" spans="1:27" ht="13">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="14"/>
@@ -16024,7 +16027,7 @@
       <c r="Z477" s="2"/>
       <c r="AA477" s="2"/>
     </row>
-    <row r="478" spans="1:27" ht="13.2">
+    <row r="478" spans="1:27" ht="13">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="14"/>
@@ -16053,7 +16056,7 @@
       <c r="Z478" s="2"/>
       <c r="AA478" s="2"/>
     </row>
-    <row r="479" spans="1:27" ht="13.2">
+    <row r="479" spans="1:27" ht="13">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="14"/>
@@ -16082,7 +16085,7 @@
       <c r="Z479" s="2"/>
       <c r="AA479" s="2"/>
     </row>
-    <row r="480" spans="1:27" ht="13.2">
+    <row r="480" spans="1:27" ht="13">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="14"/>
@@ -16111,7 +16114,7 @@
       <c r="Z480" s="2"/>
       <c r="AA480" s="2"/>
     </row>
-    <row r="481" spans="1:27" ht="13.2">
+    <row r="481" spans="1:27" ht="13">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="14"/>
@@ -16140,7 +16143,7 @@
       <c r="Z481" s="2"/>
       <c r="AA481" s="2"/>
     </row>
-    <row r="482" spans="1:27" ht="13.2">
+    <row r="482" spans="1:27" ht="13">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="14"/>
@@ -16169,7 +16172,7 @@
       <c r="Z482" s="2"/>
       <c r="AA482" s="2"/>
     </row>
-    <row r="483" spans="1:27" ht="13.2">
+    <row r="483" spans="1:27" ht="13">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="14"/>
@@ -16198,7 +16201,7 @@
       <c r="Z483" s="2"/>
       <c r="AA483" s="2"/>
     </row>
-    <row r="484" spans="1:27" ht="13.2">
+    <row r="484" spans="1:27" ht="13">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="14"/>
@@ -16227,7 +16230,7 @@
       <c r="Z484" s="2"/>
       <c r="AA484" s="2"/>
     </row>
-    <row r="485" spans="1:27" ht="13.2">
+    <row r="485" spans="1:27" ht="13">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="14"/>
@@ -16256,7 +16259,7 @@
       <c r="Z485" s="2"/>
       <c r="AA485" s="2"/>
     </row>
-    <row r="486" spans="1:27" ht="13.2">
+    <row r="486" spans="1:27" ht="13">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="14"/>
@@ -16285,7 +16288,7 @@
       <c r="Z486" s="2"/>
       <c r="AA486" s="2"/>
     </row>
-    <row r="487" spans="1:27" ht="13.2">
+    <row r="487" spans="1:27" ht="13">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="14"/>
@@ -16314,7 +16317,7 @@
       <c r="Z487" s="2"/>
       <c r="AA487" s="2"/>
     </row>
-    <row r="488" spans="1:27" ht="13.2">
+    <row r="488" spans="1:27" ht="13">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="14"/>
@@ -16343,7 +16346,7 @@
       <c r="Z488" s="2"/>
       <c r="AA488" s="2"/>
     </row>
-    <row r="489" spans="1:27" ht="13.2">
+    <row r="489" spans="1:27" ht="13">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="14"/>
@@ -16372,7 +16375,7 @@
       <c r="Z489" s="2"/>
       <c r="AA489" s="2"/>
     </row>
-    <row r="490" spans="1:27" ht="13.2">
+    <row r="490" spans="1:27" ht="13">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="14"/>
@@ -16401,7 +16404,7 @@
       <c r="Z490" s="2"/>
       <c r="AA490" s="2"/>
     </row>
-    <row r="491" spans="1:27" ht="13.2">
+    <row r="491" spans="1:27" ht="13">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="14"/>
@@ -16430,7 +16433,7 @@
       <c r="Z491" s="2"/>
       <c r="AA491" s="2"/>
     </row>
-    <row r="492" spans="1:27" ht="13.2">
+    <row r="492" spans="1:27" ht="13">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="14"/>
@@ -16459,7 +16462,7 @@
       <c r="Z492" s="2"/>
       <c r="AA492" s="2"/>
     </row>
-    <row r="493" spans="1:27" ht="13.2">
+    <row r="493" spans="1:27" ht="13">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="14"/>
@@ -16488,7 +16491,7 @@
       <c r="Z493" s="2"/>
       <c r="AA493" s="2"/>
     </row>
-    <row r="494" spans="1:27" ht="13.2">
+    <row r="494" spans="1:27" ht="13">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="14"/>
@@ -16517,7 +16520,7 @@
       <c r="Z494" s="2"/>
       <c r="AA494" s="2"/>
     </row>
-    <row r="495" spans="1:27" ht="13.2">
+    <row r="495" spans="1:27" ht="13">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="14"/>
@@ -16546,7 +16549,7 @@
       <c r="Z495" s="2"/>
       <c r="AA495" s="2"/>
     </row>
-    <row r="496" spans="1:27" ht="13.2">
+    <row r="496" spans="1:27" ht="13">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="14"/>
@@ -16575,7 +16578,7 @@
       <c r="Z496" s="2"/>
       <c r="AA496" s="2"/>
     </row>
-    <row r="497" spans="1:27" ht="13.2">
+    <row r="497" spans="1:27" ht="13">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="14"/>
@@ -16604,7 +16607,7 @@
       <c r="Z497" s="2"/>
       <c r="AA497" s="2"/>
     </row>
-    <row r="498" spans="1:27" ht="13.2">
+    <row r="498" spans="1:27" ht="13">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="14"/>
@@ -16633,7 +16636,7 @@
       <c r="Z498" s="2"/>
       <c r="AA498" s="2"/>
     </row>
-    <row r="499" spans="1:27" ht="13.2">
+    <row r="499" spans="1:27" ht="13">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="14"/>
@@ -16662,7 +16665,7 @@
       <c r="Z499" s="2"/>
       <c r="AA499" s="2"/>
     </row>
-    <row r="500" spans="1:27" ht="13.2">
+    <row r="500" spans="1:27" ht="13">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="14"/>
@@ -16691,7 +16694,7 @@
       <c r="Z500" s="2"/>
       <c r="AA500" s="2"/>
     </row>
-    <row r="501" spans="1:27" ht="13.2">
+    <row r="501" spans="1:27" ht="13">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="14"/>
@@ -16720,7 +16723,7 @@
       <c r="Z501" s="2"/>
       <c r="AA501" s="2"/>
     </row>
-    <row r="502" spans="1:27" ht="13.2">
+    <row r="502" spans="1:27" ht="13">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="14"/>
@@ -16749,7 +16752,7 @@
       <c r="Z502" s="2"/>
       <c r="AA502" s="2"/>
     </row>
-    <row r="503" spans="1:27" ht="13.2">
+    <row r="503" spans="1:27" ht="13">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="14"/>
@@ -16778,7 +16781,7 @@
       <c r="Z503" s="2"/>
       <c r="AA503" s="2"/>
     </row>
-    <row r="504" spans="1:27" ht="13.2">
+    <row r="504" spans="1:27" ht="13">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="14"/>
@@ -16807,7 +16810,7 @@
       <c r="Z504" s="2"/>
       <c r="AA504" s="2"/>
     </row>
-    <row r="505" spans="1:27" ht="13.2">
+    <row r="505" spans="1:27" ht="13">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="14"/>
@@ -16836,7 +16839,7 @@
       <c r="Z505" s="2"/>
       <c r="AA505" s="2"/>
     </row>
-    <row r="506" spans="1:27" ht="13.2">
+    <row r="506" spans="1:27" ht="13">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="14"/>
@@ -16865,7 +16868,7 @@
       <c r="Z506" s="2"/>
       <c r="AA506" s="2"/>
     </row>
-    <row r="507" spans="1:27" ht="13.2">
+    <row r="507" spans="1:27" ht="13">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="14"/>
@@ -16894,7 +16897,7 @@
       <c r="Z507" s="2"/>
       <c r="AA507" s="2"/>
     </row>
-    <row r="508" spans="1:27" ht="13.2">
+    <row r="508" spans="1:27" ht="13">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="14"/>
@@ -16923,7 +16926,7 @@
       <c r="Z508" s="2"/>
       <c r="AA508" s="2"/>
     </row>
-    <row r="509" spans="1:27" ht="13.2">
+    <row r="509" spans="1:27" ht="13">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="14"/>
@@ -16952,7 +16955,7 @@
       <c r="Z509" s="2"/>
       <c r="AA509" s="2"/>
     </row>
-    <row r="510" spans="1:27" ht="13.2">
+    <row r="510" spans="1:27" ht="13">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="14"/>
@@ -16981,7 +16984,7 @@
       <c r="Z510" s="2"/>
       <c r="AA510" s="2"/>
     </row>
-    <row r="511" spans="1:27" ht="13.2">
+    <row r="511" spans="1:27" ht="13">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="14"/>
@@ -17010,7 +17013,7 @@
       <c r="Z511" s="2"/>
       <c r="AA511" s="2"/>
     </row>
-    <row r="512" spans="1:27" ht="13.2">
+    <row r="512" spans="1:27" ht="13">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="14"/>
@@ -17039,7 +17042,7 @@
       <c r="Z512" s="2"/>
       <c r="AA512" s="2"/>
     </row>
-    <row r="513" spans="1:27" ht="13.2">
+    <row r="513" spans="1:27" ht="13">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="14"/>
@@ -17068,7 +17071,7 @@
       <c r="Z513" s="2"/>
       <c r="AA513" s="2"/>
     </row>
-    <row r="514" spans="1:27" ht="13.2">
+    <row r="514" spans="1:27" ht="13">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="14"/>
@@ -17097,7 +17100,7 @@
       <c r="Z514" s="2"/>
       <c r="AA514" s="2"/>
     </row>
-    <row r="515" spans="1:27" ht="13.2">
+    <row r="515" spans="1:27" ht="13">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="14"/>
@@ -17126,7 +17129,7 @@
       <c r="Z515" s="2"/>
       <c r="AA515" s="2"/>
     </row>
-    <row r="516" spans="1:27" ht="13.2">
+    <row r="516" spans="1:27" ht="13">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="14"/>
@@ -17155,7 +17158,7 @@
       <c r="Z516" s="2"/>
       <c r="AA516" s="2"/>
     </row>
-    <row r="517" spans="1:27" ht="13.2">
+    <row r="517" spans="1:27" ht="13">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="14"/>
@@ -17184,7 +17187,7 @@
       <c r="Z517" s="2"/>
       <c r="AA517" s="2"/>
     </row>
-    <row r="518" spans="1:27" ht="13.2">
+    <row r="518" spans="1:27" ht="13">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="14"/>
@@ -17213,7 +17216,7 @@
       <c r="Z518" s="2"/>
       <c r="AA518" s="2"/>
     </row>
-    <row r="519" spans="1:27" ht="13.2">
+    <row r="519" spans="1:27" ht="13">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="14"/>
@@ -17242,7 +17245,7 @@
       <c r="Z519" s="2"/>
       <c r="AA519" s="2"/>
     </row>
-    <row r="520" spans="1:27" ht="13.2">
+    <row r="520" spans="1:27" ht="13">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="14"/>
@@ -17271,7 +17274,7 @@
       <c r="Z520" s="2"/>
       <c r="AA520" s="2"/>
     </row>
-    <row r="521" spans="1:27" ht="13.2">
+    <row r="521" spans="1:27" ht="13">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="14"/>
@@ -17300,7 +17303,7 @@
       <c r="Z521" s="2"/>
       <c r="AA521" s="2"/>
     </row>
-    <row r="522" spans="1:27" ht="13.2">
+    <row r="522" spans="1:27" ht="13">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="14"/>
@@ -17329,7 +17332,7 @@
       <c r="Z522" s="2"/>
       <c r="AA522" s="2"/>
     </row>
-    <row r="523" spans="1:27" ht="13.2">
+    <row r="523" spans="1:27" ht="13">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="14"/>
@@ -17358,7 +17361,7 @@
       <c r="Z523" s="2"/>
       <c r="AA523" s="2"/>
     </row>
-    <row r="524" spans="1:27" ht="13.2">
+    <row r="524" spans="1:27" ht="13">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="14"/>
@@ -17387,7 +17390,7 @@
       <c r="Z524" s="2"/>
       <c r="AA524" s="2"/>
     </row>
-    <row r="525" spans="1:27" ht="13.2">
+    <row r="525" spans="1:27" ht="13">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="14"/>
@@ -17416,7 +17419,7 @@
       <c r="Z525" s="2"/>
       <c r="AA525" s="2"/>
     </row>
-    <row r="526" spans="1:27" ht="13.2">
+    <row r="526" spans="1:27" ht="13">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="14"/>
@@ -17445,7 +17448,7 @@
       <c r="Z526" s="2"/>
       <c r="AA526" s="2"/>
     </row>
-    <row r="527" spans="1:27" ht="13.2">
+    <row r="527" spans="1:27" ht="13">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="14"/>
@@ -17474,7 +17477,7 @@
       <c r="Z527" s="2"/>
       <c r="AA527" s="2"/>
     </row>
-    <row r="528" spans="1:27" ht="13.2">
+    <row r="528" spans="1:27" ht="13">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="14"/>
@@ -17503,7 +17506,7 @@
       <c r="Z528" s="2"/>
       <c r="AA528" s="2"/>
     </row>
-    <row r="529" spans="1:27" ht="13.2">
+    <row r="529" spans="1:27" ht="13">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="14"/>
@@ -17532,7 +17535,7 @@
       <c r="Z529" s="2"/>
       <c r="AA529" s="2"/>
     </row>
-    <row r="530" spans="1:27" ht="13.2">
+    <row r="530" spans="1:27" ht="13">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="14"/>
@@ -17561,7 +17564,7 @@
       <c r="Z530" s="2"/>
       <c r="AA530" s="2"/>
     </row>
-    <row r="531" spans="1:27" ht="13.2">
+    <row r="531" spans="1:27" ht="13">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="14"/>
@@ -17590,7 +17593,7 @@
       <c r="Z531" s="2"/>
       <c r="AA531" s="2"/>
     </row>
-    <row r="532" spans="1:27" ht="13.2">
+    <row r="532" spans="1:27" ht="13">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="14"/>
@@ -17619,7 +17622,7 @@
       <c r="Z532" s="2"/>
       <c r="AA532" s="2"/>
     </row>
-    <row r="533" spans="1:27" ht="13.2">
+    <row r="533" spans="1:27" ht="13">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="14"/>
@@ -17648,7 +17651,7 @@
       <c r="Z533" s="2"/>
       <c r="AA533" s="2"/>
     </row>
-    <row r="534" spans="1:27" ht="13.2">
+    <row r="534" spans="1:27" ht="13">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="14"/>
@@ -17677,7 +17680,7 @@
       <c r="Z534" s="2"/>
       <c r="AA534" s="2"/>
     </row>
-    <row r="535" spans="1:27" ht="13.2">
+    <row r="535" spans="1:27" ht="13">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="14"/>
@@ -17706,7 +17709,7 @@
       <c r="Z535" s="2"/>
       <c r="AA535" s="2"/>
     </row>
-    <row r="536" spans="1:27" ht="13.2">
+    <row r="536" spans="1:27" ht="13">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="14"/>
@@ -17735,7 +17738,7 @@
       <c r="Z536" s="2"/>
       <c r="AA536" s="2"/>
     </row>
-    <row r="537" spans="1:27" ht="13.2">
+    <row r="537" spans="1:27" ht="13">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="14"/>
@@ -17764,7 +17767,7 @@
       <c r="Z537" s="2"/>
       <c r="AA537" s="2"/>
     </row>
-    <row r="538" spans="1:27" ht="13.2">
+    <row r="538" spans="1:27" ht="13">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="14"/>
@@ -17793,7 +17796,7 @@
       <c r="Z538" s="2"/>
       <c r="AA538" s="2"/>
     </row>
-    <row r="539" spans="1:27" ht="13.2">
+    <row r="539" spans="1:27" ht="13">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="14"/>
@@ -17822,7 +17825,7 @@
       <c r="Z539" s="2"/>
       <c r="AA539" s="2"/>
     </row>
-    <row r="540" spans="1:27" ht="13.2">
+    <row r="540" spans="1:27" ht="13">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="14"/>
@@ -17851,7 +17854,7 @@
       <c r="Z540" s="2"/>
       <c r="AA540" s="2"/>
     </row>
-    <row r="541" spans="1:27" ht="13.2">
+    <row r="541" spans="1:27" ht="13">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="14"/>
@@ -17880,7 +17883,7 @@
       <c r="Z541" s="2"/>
       <c r="AA541" s="2"/>
     </row>
-    <row r="542" spans="1:27" ht="13.2">
+    <row r="542" spans="1:27" ht="13">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="14"/>
@@ -17909,7 +17912,7 @@
       <c r="Z542" s="2"/>
       <c r="AA542" s="2"/>
     </row>
-    <row r="543" spans="1:27" ht="13.2">
+    <row r="543" spans="1:27" ht="13">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="14"/>
@@ -17938,7 +17941,7 @@
       <c r="Z543" s="2"/>
       <c r="AA543" s="2"/>
     </row>
-    <row r="544" spans="1:27" ht="13.2">
+    <row r="544" spans="1:27" ht="13">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="14"/>
@@ -17967,7 +17970,7 @@
       <c r="Z544" s="2"/>
       <c r="AA544" s="2"/>
     </row>
-    <row r="545" spans="1:27" ht="13.2">
+    <row r="545" spans="1:27" ht="13">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="14"/>
@@ -17996,7 +17999,7 @@
       <c r="Z545" s="2"/>
       <c r="AA545" s="2"/>
     </row>
-    <row r="546" spans="1:27" ht="13.2">
+    <row r="546" spans="1:27" ht="13">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="14"/>
@@ -18025,7 +18028,7 @@
       <c r="Z546" s="2"/>
       <c r="AA546" s="2"/>
     </row>
-    <row r="547" spans="1:27" ht="13.2">
+    <row r="547" spans="1:27" ht="13">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="14"/>
@@ -18054,7 +18057,7 @@
       <c r="Z547" s="2"/>
       <c r="AA547" s="2"/>
     </row>
-    <row r="548" spans="1:27" ht="13.2">
+    <row r="548" spans="1:27" ht="13">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="14"/>
@@ -18083,7 +18086,7 @@
       <c r="Z548" s="2"/>
       <c r="AA548" s="2"/>
     </row>
-    <row r="549" spans="1:27" ht="13.2">
+    <row r="549" spans="1:27" ht="13">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="14"/>
@@ -18112,7 +18115,7 @@
       <c r="Z549" s="2"/>
       <c r="AA549" s="2"/>
     </row>
-    <row r="550" spans="1:27" ht="13.2">
+    <row r="550" spans="1:27" ht="13">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="14"/>
@@ -18141,7 +18144,7 @@
       <c r="Z550" s="2"/>
       <c r="AA550" s="2"/>
     </row>
-    <row r="551" spans="1:27" ht="13.2">
+    <row r="551" spans="1:27" ht="13">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="14"/>
@@ -18170,7 +18173,7 @@
       <c r="Z551" s="2"/>
       <c r="AA551" s="2"/>
     </row>
-    <row r="552" spans="1:27" ht="13.2">
+    <row r="552" spans="1:27" ht="13">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="14"/>
@@ -18199,7 +18202,7 @@
       <c r="Z552" s="2"/>
       <c r="AA552" s="2"/>
     </row>
-    <row r="553" spans="1:27" ht="13.2">
+    <row r="553" spans="1:27" ht="13">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="14"/>
@@ -18228,7 +18231,7 @@
       <c r="Z553" s="2"/>
       <c r="AA553" s="2"/>
     </row>
-    <row r="554" spans="1:27" ht="13.2">
+    <row r="554" spans="1:27" ht="13">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="14"/>
@@ -18257,7 +18260,7 @@
       <c r="Z554" s="2"/>
       <c r="AA554" s="2"/>
     </row>
-    <row r="555" spans="1:27" ht="13.2">
+    <row r="555" spans="1:27" ht="13">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="14"/>
@@ -18286,7 +18289,7 @@
       <c r="Z555" s="2"/>
       <c r="AA555" s="2"/>
     </row>
-    <row r="556" spans="1:27" ht="13.2">
+    <row r="556" spans="1:27" ht="13">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="14"/>
@@ -18315,7 +18318,7 @@
       <c r="Z556" s="2"/>
       <c r="AA556" s="2"/>
     </row>
-    <row r="557" spans="1:27" ht="13.2">
+    <row r="557" spans="1:27" ht="13">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="14"/>
@@ -18344,7 +18347,7 @@
       <c r="Z557" s="2"/>
       <c r="AA557" s="2"/>
     </row>
-    <row r="558" spans="1:27" ht="13.2">
+    <row r="558" spans="1:27" ht="13">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="14"/>
@@ -18373,7 +18376,7 @@
       <c r="Z558" s="2"/>
       <c r="AA558" s="2"/>
     </row>
-    <row r="559" spans="1:27" ht="13.2">
+    <row r="559" spans="1:27" ht="13">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="14"/>
@@ -18402,7 +18405,7 @@
       <c r="Z559" s="2"/>
       <c r="AA559" s="2"/>
     </row>
-    <row r="560" spans="1:27" ht="13.2">
+    <row r="560" spans="1:27" ht="13">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="14"/>
@@ -18431,7 +18434,7 @@
       <c r="Z560" s="2"/>
       <c r="AA560" s="2"/>
     </row>
-    <row r="561" spans="1:27" ht="13.2">
+    <row r="561" spans="1:27" ht="13">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="14"/>
@@ -18460,7 +18463,7 @@
       <c r="Z561" s="2"/>
       <c r="AA561" s="2"/>
     </row>
-    <row r="562" spans="1:27" ht="13.2">
+    <row r="562" spans="1:27" ht="13">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="14"/>
@@ -18489,7 +18492,7 @@
       <c r="Z562" s="2"/>
       <c r="AA562" s="2"/>
     </row>
-    <row r="563" spans="1:27" ht="13.2">
+    <row r="563" spans="1:27" ht="13">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="14"/>
@@ -18518,7 +18521,7 @@
       <c r="Z563" s="2"/>
       <c r="AA563" s="2"/>
     </row>
-    <row r="564" spans="1:27" ht="13.2">
+    <row r="564" spans="1:27" ht="13">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="14"/>
@@ -18547,7 +18550,7 @@
       <c r="Z564" s="2"/>
       <c r="AA564" s="2"/>
     </row>
-    <row r="565" spans="1:27" ht="13.2">
+    <row r="565" spans="1:27" ht="13">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="14"/>
@@ -18576,7 +18579,7 @@
       <c r="Z565" s="2"/>
       <c r="AA565" s="2"/>
     </row>
-    <row r="566" spans="1:27" ht="13.2">
+    <row r="566" spans="1:27" ht="13">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="14"/>
@@ -18605,7 +18608,7 @@
       <c r="Z566" s="2"/>
       <c r="AA566" s="2"/>
     </row>
-    <row r="567" spans="1:27" ht="13.2">
+    <row r="567" spans="1:27" ht="13">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="14"/>
@@ -18634,7 +18637,7 @@
       <c r="Z567" s="2"/>
       <c r="AA567" s="2"/>
     </row>
-    <row r="568" spans="1:27" ht="13.2">
+    <row r="568" spans="1:27" ht="13">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="14"/>
@@ -18663,7 +18666,7 @@
       <c r="Z568" s="2"/>
       <c r="AA568" s="2"/>
     </row>
-    <row r="569" spans="1:27" ht="13.2">
+    <row r="569" spans="1:27" ht="13">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="14"/>
@@ -18692,7 +18695,7 @@
       <c r="Z569" s="2"/>
       <c r="AA569" s="2"/>
     </row>
-    <row r="570" spans="1:27" ht="13.2">
+    <row r="570" spans="1:27" ht="13">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="14"/>
@@ -18721,7 +18724,7 @@
       <c r="Z570" s="2"/>
       <c r="AA570" s="2"/>
     </row>
-    <row r="571" spans="1:27" ht="13.2">
+    <row r="571" spans="1:27" ht="13">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="14"/>
@@ -18750,7 +18753,7 @@
       <c r="Z571" s="2"/>
       <c r="AA571" s="2"/>
     </row>
-    <row r="572" spans="1:27" ht="13.2">
+    <row r="572" spans="1:27" ht="13">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="14"/>
@@ -18779,7 +18782,7 @@
       <c r="Z572" s="2"/>
       <c r="AA572" s="2"/>
     </row>
-    <row r="573" spans="1:27" ht="13.2">
+    <row r="573" spans="1:27" ht="13">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="14"/>
@@ -18808,7 +18811,7 @@
       <c r="Z573" s="2"/>
       <c r="AA573" s="2"/>
     </row>
-    <row r="574" spans="1:27" ht="13.2">
+    <row r="574" spans="1:27" ht="13">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="14"/>
@@ -18837,7 +18840,7 @@
       <c r="Z574" s="2"/>
       <c r="AA574" s="2"/>
     </row>
-    <row r="575" spans="1:27" ht="13.2">
+    <row r="575" spans="1:27" ht="13">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="14"/>
@@ -18866,7 +18869,7 @@
       <c r="Z575" s="2"/>
       <c r="AA575" s="2"/>
     </row>
-    <row r="576" spans="1:27" ht="13.2">
+    <row r="576" spans="1:27" ht="13">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="14"/>
@@ -18895,7 +18898,7 @@
       <c r="Z576" s="2"/>
       <c r="AA576" s="2"/>
     </row>
-    <row r="577" spans="1:27" ht="13.2">
+    <row r="577" spans="1:27" ht="13">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="14"/>
@@ -18924,7 +18927,7 @@
       <c r="Z577" s="2"/>
       <c r="AA577" s="2"/>
     </row>
-    <row r="578" spans="1:27" ht="13.2">
+    <row r="578" spans="1:27" ht="13">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="14"/>
@@ -18953,7 +18956,7 @@
       <c r="Z578" s="2"/>
       <c r="AA578" s="2"/>
     </row>
-    <row r="579" spans="1:27" ht="13.2">
+    <row r="579" spans="1:27" ht="13">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="14"/>
@@ -18982,7 +18985,7 @@
       <c r="Z579" s="2"/>
       <c r="AA579" s="2"/>
     </row>
-    <row r="580" spans="1:27" ht="13.2">
+    <row r="580" spans="1:27" ht="13">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="14"/>
@@ -19011,7 +19014,7 @@
       <c r="Z580" s="2"/>
       <c r="AA580" s="2"/>
     </row>
-    <row r="581" spans="1:27" ht="13.2">
+    <row r="581" spans="1:27" ht="13">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="14"/>
@@ -19040,7 +19043,7 @@
       <c r="Z581" s="2"/>
       <c r="AA581" s="2"/>
     </row>
-    <row r="582" spans="1:27" ht="13.2">
+    <row r="582" spans="1:27" ht="13">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="14"/>
@@ -19069,7 +19072,7 @@
       <c r="Z582" s="2"/>
       <c r="AA582" s="2"/>
     </row>
-    <row r="583" spans="1:27" ht="13.2">
+    <row r="583" spans="1:27" ht="13">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="14"/>
@@ -19098,7 +19101,7 @@
       <c r="Z583" s="2"/>
       <c r="AA583" s="2"/>
     </row>
-    <row r="584" spans="1:27" ht="13.2">
+    <row r="584" spans="1:27" ht="13">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="14"/>
@@ -19127,7 +19130,7 @@
       <c r="Z584" s="2"/>
       <c r="AA584" s="2"/>
     </row>
-    <row r="585" spans="1:27" ht="13.2">
+    <row r="585" spans="1:27" ht="13">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="14"/>
@@ -19156,7 +19159,7 @@
       <c r="Z585" s="2"/>
       <c r="AA585" s="2"/>
     </row>
-    <row r="586" spans="1:27" ht="13.2">
+    <row r="586" spans="1:27" ht="13">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="14"/>
@@ -19185,7 +19188,7 @@
       <c r="Z586" s="2"/>
       <c r="AA586" s="2"/>
     </row>
-    <row r="587" spans="1:27" ht="13.2">
+    <row r="587" spans="1:27" ht="13">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="14"/>
@@ -19214,7 +19217,7 @@
       <c r="Z587" s="2"/>
       <c r="AA587" s="2"/>
     </row>
-    <row r="588" spans="1:27" ht="13.2">
+    <row r="588" spans="1:27" ht="13">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="14"/>
@@ -19243,7 +19246,7 @@
       <c r="Z588" s="2"/>
       <c r="AA588" s="2"/>
     </row>
-    <row r="589" spans="1:27" ht="13.2">
+    <row r="589" spans="1:27" ht="13">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="14"/>
@@ -19272,7 +19275,7 @@
       <c r="Z589" s="2"/>
       <c r="AA589" s="2"/>
     </row>
-    <row r="590" spans="1:27" ht="13.2">
+    <row r="590" spans="1:27" ht="13">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="14"/>
@@ -19301,7 +19304,7 @@
       <c r="Z590" s="2"/>
       <c r="AA590" s="2"/>
     </row>
-    <row r="591" spans="1:27" ht="13.2">
+    <row r="591" spans="1:27" ht="13">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="14"/>
@@ -19330,7 +19333,7 @@
       <c r="Z591" s="2"/>
       <c r="AA591" s="2"/>
     </row>
-    <row r="592" spans="1:27" ht="13.2">
+    <row r="592" spans="1:27" ht="13">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="14"/>
@@ -19359,7 +19362,7 @@
       <c r="Z592" s="2"/>
       <c r="AA592" s="2"/>
     </row>
-    <row r="593" spans="1:27" ht="13.2">
+    <row r="593" spans="1:27" ht="13">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="14"/>
@@ -19388,7 +19391,7 @@
       <c r="Z593" s="2"/>
       <c r="AA593" s="2"/>
     </row>
-    <row r="594" spans="1:27" ht="13.2">
+    <row r="594" spans="1:27" ht="13">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="14"/>
@@ -19417,7 +19420,7 @@
       <c r="Z594" s="2"/>
       <c r="AA594" s="2"/>
     </row>
-    <row r="595" spans="1:27" ht="13.2">
+    <row r="595" spans="1:27" ht="13">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="14"/>
@@ -19446,7 +19449,7 @@
       <c r="Z595" s="2"/>
       <c r="AA595" s="2"/>
     </row>
-    <row r="596" spans="1:27" ht="13.2">
+    <row r="596" spans="1:27" ht="13">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="14"/>
@@ -19475,7 +19478,7 @@
       <c r="Z596" s="2"/>
       <c r="AA596" s="2"/>
     </row>
-    <row r="597" spans="1:27" ht="13.2">
+    <row r="597" spans="1:27" ht="13">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="14"/>
@@ -19504,7 +19507,7 @@
       <c r="Z597" s="2"/>
       <c r="AA597" s="2"/>
     </row>
-    <row r="598" spans="1:27" ht="13.2">
+    <row r="598" spans="1:27" ht="13">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="14"/>
@@ -19533,7 +19536,7 @@
       <c r="Z598" s="2"/>
       <c r="AA598" s="2"/>
     </row>
-    <row r="599" spans="1:27" ht="13.2">
+    <row r="599" spans="1:27" ht="13">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="14"/>
@@ -19562,7 +19565,7 @@
       <c r="Z599" s="2"/>
       <c r="AA599" s="2"/>
     </row>
-    <row r="600" spans="1:27" ht="13.2">
+    <row r="600" spans="1:27" ht="13">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="14"/>
@@ -19591,7 +19594,7 @@
       <c r="Z600" s="2"/>
       <c r="AA600" s="2"/>
     </row>
-    <row r="601" spans="1:27" ht="13.2">
+    <row r="601" spans="1:27" ht="13">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="14"/>
@@ -19620,7 +19623,7 @@
       <c r="Z601" s="2"/>
       <c r="AA601" s="2"/>
     </row>
-    <row r="602" spans="1:27" ht="13.2">
+    <row r="602" spans="1:27" ht="13">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="14"/>
@@ -19649,7 +19652,7 @@
       <c r="Z602" s="2"/>
       <c r="AA602" s="2"/>
     </row>
-    <row r="603" spans="1:27" ht="13.2">
+    <row r="603" spans="1:27" ht="13">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="14"/>
@@ -19678,7 +19681,7 @@
       <c r="Z603" s="2"/>
       <c r="AA603" s="2"/>
     </row>
-    <row r="604" spans="1:27" ht="13.2">
+    <row r="604" spans="1:27" ht="13">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="14"/>
@@ -19707,7 +19710,7 @@
       <c r="Z604" s="2"/>
       <c r="AA604" s="2"/>
     </row>
-    <row r="605" spans="1:27" ht="13.2">
+    <row r="605" spans="1:27" ht="13">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="14"/>
@@ -19736,7 +19739,7 @@
       <c r="Z605" s="2"/>
       <c r="AA605" s="2"/>
     </row>
-    <row r="606" spans="1:27" ht="13.2">
+    <row r="606" spans="1:27" ht="13">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="14"/>
@@ -19765,7 +19768,7 @@
       <c r="Z606" s="2"/>
       <c r="AA606" s="2"/>
     </row>
-    <row r="607" spans="1:27" ht="13.2">
+    <row r="607" spans="1:27" ht="13">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="14"/>
@@ -19794,7 +19797,7 @@
       <c r="Z607" s="2"/>
       <c r="AA607" s="2"/>
     </row>
-    <row r="608" spans="1:27" ht="13.2">
+    <row r="608" spans="1:27" ht="13">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="14"/>
@@ -19823,7 +19826,7 @@
       <c r="Z608" s="2"/>
       <c r="AA608" s="2"/>
     </row>
-    <row r="609" spans="1:27" ht="13.2">
+    <row r="609" spans="1:27" ht="13">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="14"/>
@@ -19852,7 +19855,7 @@
       <c r="Z609" s="2"/>
       <c r="AA609" s="2"/>
     </row>
-    <row r="610" spans="1:27" ht="13.2">
+    <row r="610" spans="1:27" ht="13">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="14"/>
@@ -19881,7 +19884,7 @@
       <c r="Z610" s="2"/>
       <c r="AA610" s="2"/>
     </row>
-    <row r="611" spans="1:27" ht="13.2">
+    <row r="611" spans="1:27" ht="13">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="14"/>
@@ -19910,7 +19913,7 @@
       <c r="Z611" s="2"/>
       <c r="AA611" s="2"/>
     </row>
-    <row r="612" spans="1:27" ht="13.2">
+    <row r="612" spans="1:27" ht="13">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="14"/>
@@ -19939,7 +19942,7 @@
       <c r="Z612" s="2"/>
       <c r="AA612" s="2"/>
     </row>
-    <row r="613" spans="1:27" ht="13.2">
+    <row r="613" spans="1:27" ht="13">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="14"/>
@@ -19968,7 +19971,7 @@
       <c r="Z613" s="2"/>
       <c r="AA613" s="2"/>
     </row>
-    <row r="614" spans="1:27" ht="13.2">
+    <row r="614" spans="1:27" ht="13">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="14"/>
@@ -19997,7 +20000,7 @@
       <c r="Z614" s="2"/>
       <c r="AA614" s="2"/>
     </row>
-    <row r="615" spans="1:27" ht="13.2">
+    <row r="615" spans="1:27" ht="13">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="14"/>
@@ -20026,7 +20029,7 @@
       <c r="Z615" s="2"/>
       <c r="AA615" s="2"/>
     </row>
-    <row r="616" spans="1:27" ht="13.2">
+    <row r="616" spans="1:27" ht="13">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="14"/>
@@ -20055,7 +20058,7 @@
       <c r="Z616" s="2"/>
       <c r="AA616" s="2"/>
     </row>
-    <row r="617" spans="1:27" ht="13.2">
+    <row r="617" spans="1:27" ht="13">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="14"/>
@@ -20084,7 +20087,7 @@
       <c r="Z617" s="2"/>
       <c r="AA617" s="2"/>
     </row>
-    <row r="618" spans="1:27" ht="13.2">
+    <row r="618" spans="1:27" ht="13">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="14"/>
@@ -20113,7 +20116,7 @@
       <c r="Z618" s="2"/>
       <c r="AA618" s="2"/>
     </row>
-    <row r="619" spans="1:27" ht="13.2">
+    <row r="619" spans="1:27" ht="13">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="14"/>
@@ -20142,7 +20145,7 @@
       <c r="Z619" s="2"/>
       <c r="AA619" s="2"/>
     </row>
-    <row r="620" spans="1:27" ht="13.2">
+    <row r="620" spans="1:27" ht="13">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="14"/>
@@ -20171,7 +20174,7 @@
       <c r="Z620" s="2"/>
       <c r="AA620" s="2"/>
     </row>
-    <row r="621" spans="1:27" ht="13.2">
+    <row r="621" spans="1:27" ht="13">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="14"/>
@@ -20200,7 +20203,7 @@
       <c r="Z621" s="2"/>
       <c r="AA621" s="2"/>
     </row>
-    <row r="622" spans="1:27" ht="13.2">
+    <row r="622" spans="1:27" ht="13">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="14"/>
@@ -20229,7 +20232,7 @@
       <c r="Z622" s="2"/>
       <c r="AA622" s="2"/>
     </row>
-    <row r="623" spans="1:27" ht="13.2">
+    <row r="623" spans="1:27" ht="13">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="14"/>
@@ -20258,7 +20261,7 @@
       <c r="Z623" s="2"/>
       <c r="AA623" s="2"/>
     </row>
-    <row r="624" spans="1:27" ht="13.2">
+    <row r="624" spans="1:27" ht="13">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="14"/>
@@ -20287,7 +20290,7 @@
       <c r="Z624" s="2"/>
       <c r="AA624" s="2"/>
     </row>
-    <row r="625" spans="1:27" ht="13.2">
+    <row r="625" spans="1:27" ht="13">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="14"/>
@@ -20316,7 +20319,7 @@
       <c r="Z625" s="2"/>
       <c r="AA625" s="2"/>
     </row>
-    <row r="626" spans="1:27" ht="13.2">
+    <row r="626" spans="1:27" ht="13">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="14"/>
@@ -20345,7 +20348,7 @@
       <c r="Z626" s="2"/>
       <c r="AA626" s="2"/>
     </row>
-    <row r="627" spans="1:27" ht="13.2">
+    <row r="627" spans="1:27" ht="13">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="14"/>
@@ -20374,7 +20377,7 @@
       <c r="Z627" s="2"/>
       <c r="AA627" s="2"/>
     </row>
-    <row r="628" spans="1:27" ht="13.2">
+    <row r="628" spans="1:27" ht="13">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="14"/>
@@ -20403,7 +20406,7 @@
       <c r="Z628" s="2"/>
       <c r="AA628" s="2"/>
     </row>
-    <row r="629" spans="1:27" ht="13.2">
+    <row r="629" spans="1:27" ht="13">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="14"/>
@@ -20432,7 +20435,7 @@
       <c r="Z629" s="2"/>
       <c r="AA629" s="2"/>
     </row>
-    <row r="630" spans="1:27" ht="13.2">
+    <row r="630" spans="1:27" ht="13">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="14"/>
@@ -20461,7 +20464,7 @@
       <c r="Z630" s="2"/>
       <c r="AA630" s="2"/>
     </row>
-    <row r="631" spans="1:27" ht="13.2">
+    <row r="631" spans="1:27" ht="13">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="14"/>
@@ -20490,7 +20493,7 @@
       <c r="Z631" s="2"/>
       <c r="AA631" s="2"/>
     </row>
-    <row r="632" spans="1:27" ht="13.2">
+    <row r="632" spans="1:27" ht="13">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="14"/>
@@ -20519,7 +20522,7 @@
       <c r="Z632" s="2"/>
       <c r="AA632" s="2"/>
     </row>
-    <row r="633" spans="1:27" ht="13.2">
+    <row r="633" spans="1:27" ht="13">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="14"/>
@@ -20548,7 +20551,7 @@
       <c r="Z633" s="2"/>
       <c r="AA633" s="2"/>
     </row>
-    <row r="634" spans="1:27" ht="13.2">
+    <row r="634" spans="1:27" ht="13">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="14"/>
@@ -20577,7 +20580,7 @@
       <c r="Z634" s="2"/>
       <c r="AA634" s="2"/>
     </row>
-    <row r="635" spans="1:27" ht="13.2">
+    <row r="635" spans="1:27" ht="13">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="14"/>
@@ -20606,7 +20609,7 @@
       <c r="Z635" s="2"/>
       <c r="AA635" s="2"/>
     </row>
-    <row r="636" spans="1:27" ht="13.2">
+    <row r="636" spans="1:27" ht="13">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="14"/>
@@ -20635,7 +20638,7 @@
       <c r="Z636" s="2"/>
       <c r="AA636" s="2"/>
     </row>
-    <row r="637" spans="1:27" ht="13.2">
+    <row r="637" spans="1:27" ht="13">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="14"/>
@@ -20664,7 +20667,7 @@
       <c r="Z637" s="2"/>
       <c r="AA637" s="2"/>
     </row>
-    <row r="638" spans="1:27" ht="13.2">
+    <row r="638" spans="1:27" ht="13">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="14"/>
@@ -20693,7 +20696,7 @@
       <c r="Z638" s="2"/>
       <c r="AA638" s="2"/>
     </row>
-    <row r="639" spans="1:27" ht="13.2">
+    <row r="639" spans="1:27" ht="13">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="14"/>
@@ -20722,7 +20725,7 @@
       <c r="Z639" s="2"/>
       <c r="AA639" s="2"/>
     </row>
-    <row r="640" spans="1:27" ht="13.2">
+    <row r="640" spans="1:27" ht="13">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="14"/>
@@ -20751,7 +20754,7 @@
       <c r="Z640" s="2"/>
       <c r="AA640" s="2"/>
     </row>
-    <row r="641" spans="1:27" ht="13.2">
+    <row r="641" spans="1:27" ht="13">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="14"/>
@@ -20780,7 +20783,7 @@
       <c r="Z641" s="2"/>
       <c r="AA641" s="2"/>
     </row>
-    <row r="642" spans="1:27" ht="13.2">
+    <row r="642" spans="1:27" ht="13">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="14"/>
@@ -20809,7 +20812,7 @@
       <c r="Z642" s="2"/>
       <c r="AA642" s="2"/>
     </row>
-    <row r="643" spans="1:27" ht="13.2">
+    <row r="643" spans="1:27" ht="13">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="14"/>
@@ -20838,7 +20841,7 @@
       <c r="Z643" s="2"/>
       <c r="AA643" s="2"/>
     </row>
-    <row r="644" spans="1:27" ht="13.2">
+    <row r="644" spans="1:27" ht="13">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="14"/>
@@ -20867,7 +20870,7 @@
       <c r="Z644" s="2"/>
       <c r="AA644" s="2"/>
     </row>
-    <row r="645" spans="1:27" ht="13.2">
+    <row r="645" spans="1:27" ht="13">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="14"/>
@@ -20896,7 +20899,7 @@
       <c r="Z645" s="2"/>
       <c r="AA645" s="2"/>
     </row>
-    <row r="646" spans="1:27" ht="13.2">
+    <row r="646" spans="1:27" ht="13">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="14"/>
@@ -20925,7 +20928,7 @@
       <c r="Z646" s="2"/>
       <c r="AA646" s="2"/>
     </row>
-    <row r="647" spans="1:27" ht="13.2">
+    <row r="647" spans="1:27" ht="13">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="14"/>
@@ -20954,7 +20957,7 @@
       <c r="Z647" s="2"/>
       <c r="AA647" s="2"/>
     </row>
-    <row r="648" spans="1:27" ht="13.2">
+    <row r="648" spans="1:27" ht="13">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="14"/>
@@ -20983,7 +20986,7 @@
       <c r="Z648" s="2"/>
       <c r="AA648" s="2"/>
     </row>
-    <row r="649" spans="1:27" ht="13.2">
+    <row r="649" spans="1:27" ht="13">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="14"/>
@@ -21012,7 +21015,7 @@
       <c r="Z649" s="2"/>
       <c r="AA649" s="2"/>
     </row>
-    <row r="650" spans="1:27" ht="13.2">
+    <row r="650" spans="1:27" ht="13">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="14"/>
@@ -21041,7 +21044,7 @@
       <c r="Z650" s="2"/>
       <c r="AA650" s="2"/>
     </row>
-    <row r="651" spans="1:27" ht="13.2">
+    <row r="651" spans="1:27" ht="13">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="14"/>
@@ -21070,7 +21073,7 @@
       <c r="Z651" s="2"/>
       <c r="AA651" s="2"/>
     </row>
-    <row r="652" spans="1:27" ht="13.2">
+    <row r="652" spans="1:27" ht="13">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="14"/>
@@ -21099,7 +21102,7 @@
       <c r="Z652" s="2"/>
       <c r="AA652" s="2"/>
     </row>
-    <row r="653" spans="1:27" ht="13.2">
+    <row r="653" spans="1:27" ht="13">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="14"/>
@@ -21128,7 +21131,7 @@
       <c r="Z653" s="2"/>
       <c r="AA653" s="2"/>
     </row>
-    <row r="654" spans="1:27" ht="13.2">
+    <row r="654" spans="1:27" ht="13">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="14"/>
@@ -21157,7 +21160,7 @@
       <c r="Z654" s="2"/>
       <c r="AA654" s="2"/>
     </row>
-    <row r="655" spans="1:27" ht="13.2">
+    <row r="655" spans="1:27" ht="13">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="14"/>
@@ -21186,7 +21189,7 @@
       <c r="Z655" s="2"/>
       <c r="AA655" s="2"/>
     </row>
-    <row r="656" spans="1:27" ht="13.2">
+    <row r="656" spans="1:27" ht="13">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="14"/>
@@ -21215,7 +21218,7 @@
       <c r="Z656" s="2"/>
       <c r="AA656" s="2"/>
     </row>
-    <row r="657" spans="1:27" ht="13.2">
+    <row r="657" spans="1:27" ht="13">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="14"/>
@@ -21244,7 +21247,7 @@
       <c r="Z657" s="2"/>
       <c r="AA657" s="2"/>
     </row>
-    <row r="658" spans="1:27" ht="13.2">
+    <row r="658" spans="1:27" ht="13">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="14"/>
@@ -21273,7 +21276,7 @@
       <c r="Z658" s="2"/>
       <c r="AA658" s="2"/>
     </row>
-    <row r="659" spans="1:27" ht="13.2">
+    <row r="659" spans="1:27" ht="13">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="14"/>
@@ -21302,7 +21305,7 @@
       <c r="Z659" s="2"/>
       <c r="AA659" s="2"/>
     </row>
-    <row r="660" spans="1:27" ht="13.2">
+    <row r="660" spans="1:27" ht="13">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="14"/>
@@ -21331,7 +21334,7 @@
       <c r="Z660" s="2"/>
       <c r="AA660" s="2"/>
     </row>
-    <row r="661" spans="1:27" ht="13.2">
+    <row r="661" spans="1:27" ht="13">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="14"/>
@@ -21360,7 +21363,7 @@
       <c r="Z661" s="2"/>
       <c r="AA661" s="2"/>
     </row>
-    <row r="662" spans="1:27" ht="13.2">
+    <row r="662" spans="1:27" ht="13">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="14"/>
@@ -21389,7 +21392,7 @@
       <c r="Z662" s="2"/>
       <c r="AA662" s="2"/>
     </row>
-    <row r="663" spans="1:27" ht="13.2">
+    <row r="663" spans="1:27" ht="13">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="14"/>
@@ -21418,7 +21421,7 @@
       <c r="Z663" s="2"/>
       <c r="AA663" s="2"/>
     </row>
-    <row r="664" spans="1:27" ht="13.2">
+    <row r="664" spans="1:27" ht="13">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="14"/>
@@ -21447,7 +21450,7 @@
       <c r="Z664" s="2"/>
       <c r="AA664" s="2"/>
     </row>
-    <row r="665" spans="1:27" ht="13.2">
+    <row r="665" spans="1:27" ht="13">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="14"/>
@@ -21476,7 +21479,7 @@
       <c r="Z665" s="2"/>
       <c r="AA665" s="2"/>
     </row>
-    <row r="666" spans="1:27" ht="13.2">
+    <row r="666" spans="1:27" ht="13">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="14"/>
@@ -21505,7 +21508,7 @@
       <c r="Z666" s="2"/>
       <c r="AA666" s="2"/>
     </row>
-    <row r="667" spans="1:27" ht="13.2">
+    <row r="667" spans="1:27" ht="13">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="14"/>
@@ -21534,7 +21537,7 @@
       <c r="Z667" s="2"/>
       <c r="AA667" s="2"/>
     </row>
-    <row r="668" spans="1:27" ht="13.2">
+    <row r="668" spans="1:27" ht="13">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="14"/>
@@ -21563,7 +21566,7 @@
       <c r="Z668" s="2"/>
       <c r="AA668" s="2"/>
     </row>
-    <row r="669" spans="1:27" ht="13.2">
+    <row r="669" spans="1:27" ht="13">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="14"/>
@@ -21592,7 +21595,7 @@
       <c r="Z669" s="2"/>
       <c r="AA669" s="2"/>
     </row>
-    <row r="670" spans="1:27" ht="13.2">
+    <row r="670" spans="1:27" ht="13">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="14"/>
@@ -21621,7 +21624,7 @@
       <c r="Z670" s="2"/>
       <c r="AA670" s="2"/>
     </row>
-    <row r="671" spans="1:27" ht="13.2">
+    <row r="671" spans="1:27" ht="13">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="14"/>
@@ -21650,7 +21653,7 @@
       <c r="Z671" s="2"/>
       <c r="AA671" s="2"/>
     </row>
-    <row r="672" spans="1:27" ht="13.2">
+    <row r="672" spans="1:27" ht="13">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="14"/>
@@ -21679,7 +21682,7 @@
       <c r="Z672" s="2"/>
       <c r="AA672" s="2"/>
     </row>
-    <row r="673" spans="1:27" ht="13.2">
+    <row r="673" spans="1:27" ht="13">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="14"/>
@@ -21708,7 +21711,7 @@
       <c r="Z673" s="2"/>
       <c r="AA673" s="2"/>
     </row>
-    <row r="674" spans="1:27" ht="13.2">
+    <row r="674" spans="1:27" ht="13">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="14"/>
@@ -21737,7 +21740,7 @@
       <c r="Z674" s="2"/>
       <c r="AA674" s="2"/>
     </row>
-    <row r="675" spans="1:27" ht="13.2">
+    <row r="675" spans="1:27" ht="13">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="14"/>
@@ -21766,7 +21769,7 @@
       <c r="Z675" s="2"/>
       <c r="AA675" s="2"/>
     </row>
-    <row r="676" spans="1:27" ht="13.2">
+    <row r="676" spans="1:27" ht="13">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="14"/>
@@ -21795,7 +21798,7 @@
       <c r="Z676" s="2"/>
       <c r="AA676" s="2"/>
     </row>
-    <row r="677" spans="1:27" ht="13.2">
+    <row r="677" spans="1:27" ht="13">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="14"/>
@@ -21824,7 +21827,7 @@
       <c r="Z677" s="2"/>
       <c r="AA677" s="2"/>
     </row>
-    <row r="678" spans="1:27" ht="13.2">
+    <row r="678" spans="1:27" ht="13">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="14"/>
@@ -21853,7 +21856,7 @@
       <c r="Z678" s="2"/>
       <c r="AA678" s="2"/>
     </row>
-    <row r="679" spans="1:27" ht="13.2">
+    <row r="679" spans="1:27" ht="13">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="14"/>
@@ -21882,7 +21885,7 @@
       <c r="Z679" s="2"/>
       <c r="AA679" s="2"/>
     </row>
-    <row r="680" spans="1:27" ht="13.2">
+    <row r="680" spans="1:27" ht="13">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="14"/>
@@ -21911,7 +21914,7 @@
       <c r="Z680" s="2"/>
       <c r="AA680" s="2"/>
     </row>
-    <row r="681" spans="1:27" ht="13.2">
+    <row r="681" spans="1:27" ht="13">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="14"/>
@@ -21940,7 +21943,7 @@
       <c r="Z681" s="2"/>
       <c r="AA681" s="2"/>
     </row>
-    <row r="682" spans="1:27" ht="13.2">
+    <row r="682" spans="1:27" ht="13">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="14"/>
@@ -21969,7 +21972,7 @@
       <c r="Z682" s="2"/>
       <c r="AA682" s="2"/>
     </row>
-    <row r="683" spans="1:27" ht="13.2">
+    <row r="683" spans="1:27" ht="13">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="14"/>
@@ -21998,7 +22001,7 @@
       <c r="Z683" s="2"/>
       <c r="AA683" s="2"/>
     </row>
-    <row r="684" spans="1:27" ht="13.2">
+    <row r="684" spans="1:27" ht="13">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="14"/>
@@ -22027,7 +22030,7 @@
       <c r="Z684" s="2"/>
       <c r="AA684" s="2"/>
     </row>
-    <row r="685" spans="1:27" ht="13.2">
+    <row r="685" spans="1:27" ht="13">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="14"/>
@@ -22056,7 +22059,7 @@
       <c r="Z685" s="2"/>
       <c r="AA685" s="2"/>
     </row>
-    <row r="686" spans="1:27" ht="13.2">
+    <row r="686" spans="1:27" ht="13">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="14"/>
@@ -22085,7 +22088,7 @@
       <c r="Z686" s="2"/>
       <c r="AA686" s="2"/>
     </row>
-    <row r="687" spans="1:27" ht="13.2">
+    <row r="687" spans="1:27" ht="13">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="14"/>
@@ -22114,7 +22117,7 @@
       <c r="Z687" s="2"/>
       <c r="AA687" s="2"/>
     </row>
-    <row r="688" spans="1:27" ht="13.2">
+    <row r="688" spans="1:27" ht="13">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="14"/>
@@ -22143,7 +22146,7 @@
       <c r="Z688" s="2"/>
       <c r="AA688" s="2"/>
     </row>
-    <row r="689" spans="1:27" ht="13.2">
+    <row r="689" spans="1:27" ht="13">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="14"/>
@@ -22172,7 +22175,7 @@
       <c r="Z689" s="2"/>
       <c r="AA689" s="2"/>
     </row>
-    <row r="690" spans="1:27" ht="13.2">
+    <row r="690" spans="1:27" ht="13">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="14"/>
@@ -22201,7 +22204,7 @@
       <c r="Z690" s="2"/>
       <c r="AA690" s="2"/>
     </row>
-    <row r="691" spans="1:27" ht="13.2">
+    <row r="691" spans="1:27" ht="13">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="14"/>
@@ -22230,7 +22233,7 @@
       <c r="Z691" s="2"/>
       <c r="AA691" s="2"/>
     </row>
-    <row r="692" spans="1:27" ht="13.2">
+    <row r="692" spans="1:27" ht="13">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="14"/>
@@ -22259,7 +22262,7 @@
       <c r="Z692" s="2"/>
       <c r="AA692" s="2"/>
     </row>
-    <row r="693" spans="1:27" ht="13.2">
+    <row r="693" spans="1:27" ht="13">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="14"/>
@@ -22288,7 +22291,7 @@
       <c r="Z693" s="2"/>
       <c r="AA693" s="2"/>
     </row>
-    <row r="694" spans="1:27" ht="13.2">
+    <row r="694" spans="1:27" ht="13">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="14"/>
@@ -22317,7 +22320,7 @@
       <c r="Z694" s="2"/>
       <c r="AA694" s="2"/>
     </row>
-    <row r="695" spans="1:27" ht="13.2">
+    <row r="695" spans="1:27" ht="13">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="14"/>
@@ -22346,7 +22349,7 @@
       <c r="Z695" s="2"/>
       <c r="AA695" s="2"/>
     </row>
-    <row r="696" spans="1:27" ht="13.2">
+    <row r="696" spans="1:27" ht="13">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="14"/>
@@ -22375,7 +22378,7 @@
       <c r="Z696" s="2"/>
       <c r="AA696" s="2"/>
     </row>
-    <row r="697" spans="1:27" ht="13.2">
+    <row r="697" spans="1:27" ht="13">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="14"/>
@@ -22404,7 +22407,7 @@
       <c r="Z697" s="2"/>
       <c r="AA697" s="2"/>
     </row>
-    <row r="698" spans="1:27" ht="13.2">
+    <row r="698" spans="1:27" ht="13">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="14"/>
@@ -22433,7 +22436,7 @@
       <c r="Z698" s="2"/>
       <c r="AA698" s="2"/>
     </row>
-    <row r="699" spans="1:27" ht="13.2">
+    <row r="699" spans="1:27" ht="13">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="14"/>
@@ -22462,7 +22465,7 @@
       <c r="Z699" s="2"/>
       <c r="AA699" s="2"/>
     </row>
-    <row r="700" spans="1:27" ht="13.2">
+    <row r="700" spans="1:27" ht="13">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="14"/>
@@ -22491,7 +22494,7 @@
       <c r="Z700" s="2"/>
       <c r="AA700" s="2"/>
     </row>
-    <row r="701" spans="1:27" ht="13.2">
+    <row r="701" spans="1:27" ht="13">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="14"/>
@@ -22520,7 +22523,7 @@
       <c r="Z701" s="2"/>
       <c r="AA701" s="2"/>
     </row>
-    <row r="702" spans="1:27" ht="13.2">
+    <row r="702" spans="1:27" ht="13">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="14"/>
@@ -22549,7 +22552,7 @@
       <c r="Z702" s="2"/>
       <c r="AA702" s="2"/>
     </row>
-    <row r="703" spans="1:27" ht="13.2">
+    <row r="703" spans="1:27" ht="13">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="14"/>
@@ -22578,7 +22581,7 @@
       <c r="Z703" s="2"/>
       <c r="AA703" s="2"/>
     </row>
-    <row r="704" spans="1:27" ht="13.2">
+    <row r="704" spans="1:27" ht="13">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="14"/>
@@ -22607,7 +22610,7 @@
       <c r="Z704" s="2"/>
       <c r="AA704" s="2"/>
     </row>
-    <row r="705" spans="1:27" ht="13.2">
+    <row r="705" spans="1:27" ht="13">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="14"/>
@@ -22636,7 +22639,7 @@
       <c r="Z705" s="2"/>
       <c r="AA705" s="2"/>
     </row>
-    <row r="706" spans="1:27" ht="13.2">
+    <row r="706" spans="1:27" ht="13">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="14"/>
@@ -22665,7 +22668,7 @@
       <c r="Z706" s="2"/>
       <c r="AA706" s="2"/>
     </row>
-    <row r="707" spans="1:27" ht="13.2">
+    <row r="707" spans="1:27" ht="13">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="14"/>
@@ -22694,7 +22697,7 @@
       <c r="Z707" s="2"/>
       <c r="AA707" s="2"/>
     </row>
-    <row r="708" spans="1:27" ht="13.2">
+    <row r="708" spans="1:27" ht="13">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="14"/>
@@ -22723,7 +22726,7 @@
       <c r="Z708" s="2"/>
       <c r="AA708" s="2"/>
     </row>
-    <row r="709" spans="1:27" ht="13.2">
+    <row r="709" spans="1:27" ht="13">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="14"/>
@@ -22752,7 +22755,7 @@
       <c r="Z709" s="2"/>
       <c r="AA709" s="2"/>
     </row>
-    <row r="710" spans="1:27" ht="13.2">
+    <row r="710" spans="1:27" ht="13">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="14"/>
@@ -22781,7 +22784,7 @@
       <c r="Z710" s="2"/>
       <c r="AA710" s="2"/>
     </row>
-    <row r="711" spans="1:27" ht="13.2">
+    <row r="711" spans="1:27" ht="13">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="14"/>
@@ -22810,7 +22813,7 @@
       <c r="Z711" s="2"/>
       <c r="AA711" s="2"/>
     </row>
-    <row r="712" spans="1:27" ht="13.2">
+    <row r="712" spans="1:27" ht="13">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="14"/>
@@ -22839,7 +22842,7 @@
       <c r="Z712" s="2"/>
       <c r="AA712" s="2"/>
     </row>
-    <row r="713" spans="1:27" ht="13.2">
+    <row r="713" spans="1:27" ht="13">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="14"/>
@@ -22868,7 +22871,7 @@
       <c r="Z713" s="2"/>
       <c r="AA713" s="2"/>
     </row>
-    <row r="714" spans="1:27" ht="13.2">
+    <row r="714" spans="1:27" ht="13">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="14"/>
@@ -22897,7 +22900,7 @@
       <c r="Z714" s="2"/>
       <c r="AA714" s="2"/>
     </row>
-    <row r="715" spans="1:27" ht="13.2">
+    <row r="715" spans="1:27" ht="13">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="14"/>
@@ -22926,7 +22929,7 @@
       <c r="Z715" s="2"/>
       <c r="AA715" s="2"/>
     </row>
-    <row r="716" spans="1:27" ht="13.2">
+    <row r="716" spans="1:27" ht="13">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="14"/>
@@ -22955,7 +22958,7 @@
       <c r="Z716" s="2"/>
       <c r="AA716" s="2"/>
     </row>
-    <row r="717" spans="1:27" ht="13.2">
+    <row r="717" spans="1:27" ht="13">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="14"/>
@@ -22984,7 +22987,7 @@
       <c r="Z717" s="2"/>
       <c r="AA717" s="2"/>
     </row>
-    <row r="718" spans="1:27" ht="13.2">
+    <row r="718" spans="1:27" ht="13">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="14"/>
@@ -23013,7 +23016,7 @@
       <c r="Z718" s="2"/>
       <c r="AA718" s="2"/>
     </row>
-    <row r="719" spans="1:27" ht="13.2">
+    <row r="719" spans="1:27" ht="13">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="14"/>
@@ -23042,7 +23045,7 @@
       <c r="Z719" s="2"/>
       <c r="AA719" s="2"/>
     </row>
-    <row r="720" spans="1:27" ht="13.2">
+    <row r="720" spans="1:27" ht="13">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="14"/>
@@ -23071,7 +23074,7 @@
       <c r="Z720" s="2"/>
       <c r="AA720" s="2"/>
     </row>
-    <row r="721" spans="1:27" ht="13.2">
+    <row r="721" spans="1:27" ht="13">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="14"/>
@@ -23100,7 +23103,7 @@
       <c r="Z721" s="2"/>
       <c r="AA721" s="2"/>
     </row>
-    <row r="722" spans="1:27" ht="13.2">
+    <row r="722" spans="1:27" ht="13">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="14"/>
@@ -23129,7 +23132,7 @@
       <c r="Z722" s="2"/>
       <c r="AA722" s="2"/>
     </row>
-    <row r="723" spans="1:27" ht="13.2">
+    <row r="723" spans="1:27" ht="13">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="14"/>
@@ -23158,7 +23161,7 @@
       <c r="Z723" s="2"/>
       <c r="AA723" s="2"/>
     </row>
-    <row r="724" spans="1:27" ht="13.2">
+    <row r="724" spans="1:27" ht="13">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="14"/>
@@ -23187,7 +23190,7 @@
       <c r="Z724" s="2"/>
       <c r="AA724" s="2"/>
     </row>
-    <row r="725" spans="1:27" ht="13.2">
+    <row r="725" spans="1:27" ht="13">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="14"/>
@@ -23216,7 +23219,7 @@
       <c r="Z725" s="2"/>
       <c r="AA725" s="2"/>
     </row>
-    <row r="726" spans="1:27" ht="13.2">
+    <row r="726" spans="1:27" ht="13">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="14"/>
@@ -23245,7 +23248,7 @@
       <c r="Z726" s="2"/>
       <c r="AA726" s="2"/>
     </row>
-    <row r="727" spans="1:27" ht="13.2">
+    <row r="727" spans="1:27" ht="13">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="14"/>
@@ -23274,7 +23277,7 @@
       <c r="Z727" s="2"/>
       <c r="AA727" s="2"/>
     </row>
-    <row r="728" spans="1:27" ht="13.2">
+    <row r="728" spans="1:27" ht="13">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="14"/>
@@ -23303,7 +23306,7 @@
       <c r="Z728" s="2"/>
       <c r="AA728" s="2"/>
     </row>
-    <row r="729" spans="1:27" ht="13.2">
+    <row r="729" spans="1:27" ht="13">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="14"/>
@@ -23332,7 +23335,7 @@
       <c r="Z729" s="2"/>
       <c r="AA729" s="2"/>
     </row>
-    <row r="730" spans="1:27" ht="13.2">
+    <row r="730" spans="1:27" ht="13">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="14"/>
@@ -23361,7 +23364,7 @@
       <c r="Z730" s="2"/>
       <c r="AA730" s="2"/>
     </row>
-    <row r="731" spans="1:27" ht="13.2">
+    <row r="731" spans="1:27" ht="13">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="14"/>
@@ -23390,7 +23393,7 @@
       <c r="Z731" s="2"/>
       <c r="AA731" s="2"/>
     </row>
-    <row r="732" spans="1:27" ht="13.2">
+    <row r="732" spans="1:27" ht="13">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="14"/>
@@ -23419,7 +23422,7 @@
       <c r="Z732" s="2"/>
       <c r="AA732" s="2"/>
     </row>
-    <row r="733" spans="1:27" ht="13.2">
+    <row r="733" spans="1:27" ht="13">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="14"/>
@@ -23448,7 +23451,7 @@
       <c r="Z733" s="2"/>
       <c r="AA733" s="2"/>
     </row>
-    <row r="734" spans="1:27" ht="13.2">
+    <row r="734" spans="1:27" ht="13">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="14"/>
@@ -23477,7 +23480,7 @@
       <c r="Z734" s="2"/>
       <c r="AA734" s="2"/>
     </row>
-    <row r="735" spans="1:27" ht="13.2">
+    <row r="735" spans="1:27" ht="13">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="14"/>
@@ -23506,7 +23509,7 @@
       <c r="Z735" s="2"/>
       <c r="AA735" s="2"/>
     </row>
-    <row r="736" spans="1:27" ht="13.2">
+    <row r="736" spans="1:27" ht="13">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="14"/>
@@ -23535,7 +23538,7 @@
       <c r="Z736" s="2"/>
       <c r="AA736" s="2"/>
     </row>
-    <row r="737" spans="1:27" ht="13.2">
+    <row r="737" spans="1:27" ht="13">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="14"/>
@@ -23564,7 +23567,7 @@
       <c r="Z737" s="2"/>
       <c r="AA737" s="2"/>
     </row>
-    <row r="738" spans="1:27" ht="13.2">
+    <row r="738" spans="1:27" ht="13">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="14"/>
@@ -23593,7 +23596,7 @@
       <c r="Z738" s="2"/>
       <c r="AA738" s="2"/>
     </row>
-    <row r="739" spans="1:27" ht="13.2">
+    <row r="739" spans="1:27" ht="13">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="14"/>
@@ -23622,7 +23625,7 @@
       <c r="Z739" s="2"/>
       <c r="AA739" s="2"/>
     </row>
-    <row r="740" spans="1:27" ht="13.2">
+    <row r="740" spans="1:27" ht="13">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="14"/>
@@ -23651,7 +23654,7 @@
       <c r="Z740" s="2"/>
       <c r="AA740" s="2"/>
     </row>
-    <row r="741" spans="1:27" ht="13.2">
+    <row r="741" spans="1:27" ht="13">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="14"/>
@@ -23680,7 +23683,7 @@
       <c r="Z741" s="2"/>
       <c r="AA741" s="2"/>
     </row>
-    <row r="742" spans="1:27" ht="13.2">
+    <row r="742" spans="1:27" ht="13">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="14"/>
@@ -23709,7 +23712,7 @@
       <c r="Z742" s="2"/>
       <c r="AA742" s="2"/>
     </row>
-    <row r="743" spans="1:27" ht="13.2">
+    <row r="743" spans="1:27" ht="13">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="14"/>
@@ -23738,7 +23741,7 @@
       <c r="Z743" s="2"/>
       <c r="AA743" s="2"/>
     </row>
-    <row r="744" spans="1:27" ht="13.2">
+    <row r="744" spans="1:27" ht="13">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="14"/>
@@ -23767,7 +23770,7 @@
       <c r="Z744" s="2"/>
       <c r="AA744" s="2"/>
     </row>
-    <row r="745" spans="1:27" ht="13.2">
+    <row r="745" spans="1:27" ht="13">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="14"/>
@@ -23796,7 +23799,7 @@
       <c r="Z745" s="2"/>
       <c r="AA745" s="2"/>
     </row>
-    <row r="746" spans="1:27" ht="13.2">
+    <row r="746" spans="1:27" ht="13">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="14"/>
@@ -23825,7 +23828,7 @@
       <c r="Z746" s="2"/>
       <c r="AA746" s="2"/>
     </row>
-    <row r="747" spans="1:27" ht="13.2">
+    <row r="747" spans="1:27" ht="13">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="14"/>
@@ -23854,7 +23857,7 @@
       <c r="Z747" s="2"/>
       <c r="AA747" s="2"/>
     </row>
-    <row r="748" spans="1:27" ht="13.2">
+    <row r="748" spans="1:27" ht="13">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="14"/>
@@ -23883,7 +23886,7 @@
       <c r="Z748" s="2"/>
       <c r="AA748" s="2"/>
     </row>
-    <row r="749" spans="1:27" ht="13.2">
+    <row r="749" spans="1:27" ht="13">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="14"/>
@@ -23912,7 +23915,7 @@
       <c r="Z749" s="2"/>
       <c r="AA749" s="2"/>
     </row>
-    <row r="750" spans="1:27" ht="13.2">
+    <row r="750" spans="1:27" ht="13">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="14"/>
@@ -23941,7 +23944,7 @@
       <c r="Z750" s="2"/>
       <c r="AA750" s="2"/>
     </row>
-    <row r="751" spans="1:27" ht="13.2">
+    <row r="751" spans="1:27" ht="13">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="14"/>
@@ -23970,7 +23973,7 @@
       <c r="Z751" s="2"/>
       <c r="AA751" s="2"/>
     </row>
-    <row r="752" spans="1:27" ht="13.2">
+    <row r="752" spans="1:27" ht="13">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="14"/>
@@ -23999,7 +24002,7 @@
       <c r="Z752" s="2"/>
       <c r="AA752" s="2"/>
     </row>
-    <row r="753" spans="1:27" ht="13.2">
+    <row r="753" spans="1:27" ht="13">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="14"/>
@@ -24028,7 +24031,7 @@
       <c r="Z753" s="2"/>
       <c r="AA753" s="2"/>
     </row>
-    <row r="754" spans="1:27" ht="13.2">
+    <row r="754" spans="1:27" ht="13">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="14"/>
@@ -24057,7 +24060,7 @@
       <c r="Z754" s="2"/>
       <c r="AA754" s="2"/>
     </row>
-    <row r="755" spans="1:27" ht="13.2">
+    <row r="755" spans="1:27" ht="13">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="14"/>
@@ -24086,7 +24089,7 @@
       <c r="Z755" s="2"/>
       <c r="AA755" s="2"/>
     </row>
-    <row r="756" spans="1:27" ht="13.2">
+    <row r="756" spans="1:27" ht="13">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="14"/>
@@ -24115,7 +24118,7 @@
       <c r="Z756" s="2"/>
       <c r="AA756" s="2"/>
     </row>
-    <row r="757" spans="1:27" ht="13.2">
+    <row r="757" spans="1:27" ht="13">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="14"/>
@@ -24144,7 +24147,7 @@
       <c r="Z757" s="2"/>
       <c r="AA757" s="2"/>
     </row>
-    <row r="758" spans="1:27" ht="13.2">
+    <row r="758" spans="1:27" ht="13">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="14"/>
@@ -24173,7 +24176,7 @@
       <c r="Z758" s="2"/>
       <c r="AA758" s="2"/>
     </row>
-    <row r="759" spans="1:27" ht="13.2">
+    <row r="759" spans="1:27" ht="13">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="14"/>
@@ -24202,7 +24205,7 @@
       <c r="Z759" s="2"/>
       <c r="AA759" s="2"/>
     </row>
-    <row r="760" spans="1:27" ht="13.2">
+    <row r="760" spans="1:27" ht="13">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="14"/>
@@ -24231,7 +24234,7 @@
       <c r="Z760" s="2"/>
       <c r="AA760" s="2"/>
     </row>
-    <row r="761" spans="1:27" ht="13.2">
+    <row r="761" spans="1:27" ht="13">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="14"/>
@@ -24260,7 +24263,7 @@
       <c r="Z761" s="2"/>
       <c r="AA761" s="2"/>
     </row>
-    <row r="762" spans="1:27" ht="13.2">
+    <row r="762" spans="1:27" ht="13">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="14"/>
@@ -24289,7 +24292,7 @@
       <c r="Z762" s="2"/>
       <c r="AA762" s="2"/>
     </row>
-    <row r="763" spans="1:27" ht="13.2">
+    <row r="763" spans="1:27" ht="13">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="14"/>
@@ -24318,7 +24321,7 @@
       <c r="Z763" s="2"/>
       <c r="AA763" s="2"/>
     </row>
-    <row r="764" spans="1:27" ht="13.2">
+    <row r="764" spans="1:27" ht="13">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="14"/>
@@ -24347,7 +24350,7 @@
       <c r="Z764" s="2"/>
       <c r="AA764" s="2"/>
     </row>
-    <row r="765" spans="1:27" ht="13.2">
+    <row r="765" spans="1:27" ht="13">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="14"/>
@@ -24376,7 +24379,7 @@
       <c r="Z765" s="2"/>
       <c r="AA765" s="2"/>
     </row>
-    <row r="766" spans="1:27" ht="13.2">
+    <row r="766" spans="1:27" ht="13">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="14"/>
@@ -24405,7 +24408,7 @@
       <c r="Z766" s="2"/>
       <c r="AA766" s="2"/>
     </row>
-    <row r="767" spans="1:27" ht="13.2">
+    <row r="767" spans="1:27" ht="13">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="14"/>
@@ -24434,7 +24437,7 @@
       <c r="Z767" s="2"/>
       <c r="AA767" s="2"/>
     </row>
-    <row r="768" spans="1:27" ht="13.2">
+    <row r="768" spans="1:27" ht="13">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="14"/>
@@ -24463,7 +24466,7 @@
       <c r="Z768" s="2"/>
       <c r="AA768" s="2"/>
     </row>
-    <row r="769" spans="1:27" ht="13.2">
+    <row r="769" spans="1:27" ht="13">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="14"/>
@@ -24492,7 +24495,7 @@
       <c r="Z769" s="2"/>
       <c r="AA769" s="2"/>
     </row>
-    <row r="770" spans="1:27" ht="13.2">
+    <row r="770" spans="1:27" ht="13">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="14"/>
@@ -24521,7 +24524,7 @@
       <c r="Z770" s="2"/>
       <c r="AA770" s="2"/>
     </row>
-    <row r="771" spans="1:27" ht="13.2">
+    <row r="771" spans="1:27" ht="13">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="14"/>
@@ -24550,7 +24553,7 @@
       <c r="Z771" s="2"/>
       <c r="AA771" s="2"/>
     </row>
-    <row r="772" spans="1:27" ht="13.2">
+    <row r="772" spans="1:27" ht="13">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="14"/>
@@ -24579,7 +24582,7 @@
       <c r="Z772" s="2"/>
       <c r="AA772" s="2"/>
     </row>
-    <row r="773" spans="1:27" ht="13.2">
+    <row r="773" spans="1:27" ht="13">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="14"/>
@@ -24608,7 +24611,7 @@
       <c r="Z773" s="2"/>
       <c r="AA773" s="2"/>
     </row>
-    <row r="774" spans="1:27" ht="13.2">
+    <row r="774" spans="1:27" ht="13">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="14"/>
@@ -24637,7 +24640,7 @@
       <c r="Z774" s="2"/>
       <c r="AA774" s="2"/>
     </row>
-    <row r="775" spans="1:27" ht="13.2">
+    <row r="775" spans="1:27" ht="13">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="14"/>
@@ -24666,7 +24669,7 @@
       <c r="Z775" s="2"/>
       <c r="AA775" s="2"/>
     </row>
-    <row r="776" spans="1:27" ht="13.2">
+    <row r="776" spans="1:27" ht="13">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="14"/>
@@ -24695,7 +24698,7 @@
       <c r="Z776" s="2"/>
       <c r="AA776" s="2"/>
     </row>
-    <row r="777" spans="1:27" ht="13.2">
+    <row r="777" spans="1:27" ht="13">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="14"/>
@@ -24724,7 +24727,7 @@
       <c r="Z777" s="2"/>
       <c r="AA777" s="2"/>
     </row>
-    <row r="778" spans="1:27" ht="13.2">
+    <row r="778" spans="1:27" ht="13">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="14"/>
@@ -24753,7 +24756,7 @@
       <c r="Z778" s="2"/>
       <c r="AA778" s="2"/>
     </row>
-    <row r="779" spans="1:27" ht="13.2">
+    <row r="779" spans="1:27" ht="13">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="14"/>
@@ -24782,7 +24785,7 @@
       <c r="Z779" s="2"/>
       <c r="AA779" s="2"/>
     </row>
-    <row r="780" spans="1:27" ht="13.2">
+    <row r="780" spans="1:27" ht="13">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="14"/>
@@ -24811,7 +24814,7 @@
       <c r="Z780" s="2"/>
       <c r="AA780" s="2"/>
     </row>
-    <row r="781" spans="1:27" ht="13.2">
+    <row r="781" spans="1:27" ht="13">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="14"/>
@@ -24840,7 +24843,7 @@
       <c r="Z781" s="2"/>
       <c r="AA781" s="2"/>
     </row>
-    <row r="782" spans="1:27" ht="13.2">
+    <row r="782" spans="1:27" ht="13">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="14"/>
@@ -24869,7 +24872,7 @@
       <c r="Z782" s="2"/>
       <c r="AA782" s="2"/>
     </row>
-    <row r="783" spans="1:27" ht="13.2">
+    <row r="783" spans="1:27" ht="13">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="14"/>
@@ -24898,7 +24901,7 @@
       <c r="Z783" s="2"/>
       <c r="AA783" s="2"/>
     </row>
-    <row r="784" spans="1:27" ht="13.2">
+    <row r="784" spans="1:27" ht="13">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="14"/>
@@ -24927,7 +24930,7 @@
       <c r="Z784" s="2"/>
       <c r="AA784" s="2"/>
     </row>
-    <row r="785" spans="1:27" ht="13.2">
+    <row r="785" spans="1:27" ht="13">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="14"/>
@@ -24956,7 +24959,7 @@
       <c r="Z785" s="2"/>
       <c r="AA785" s="2"/>
     </row>
-    <row r="786" spans="1:27" ht="13.2">
+    <row r="786" spans="1:27" ht="13">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="14"/>
@@ -24985,7 +24988,7 @@
       <c r="Z786" s="2"/>
       <c r="AA786" s="2"/>
     </row>
-    <row r="787" spans="1:27" ht="13.2">
+    <row r="787" spans="1:27" ht="13">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="14"/>
@@ -25014,7 +25017,7 @@
       <c r="Z787" s="2"/>
       <c r="AA787" s="2"/>
     </row>
-    <row r="788" spans="1:27" ht="13.2">
+    <row r="788" spans="1:27" ht="13">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="14"/>
@@ -25043,7 +25046,7 @@
       <c r="Z788" s="2"/>
       <c r="AA788" s="2"/>
     </row>
-    <row r="789" spans="1:27" ht="13.2">
+    <row r="789" spans="1:27" ht="13">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="14"/>
@@ -25072,7 +25075,7 @@
       <c r="Z789" s="2"/>
       <c r="AA789" s="2"/>
     </row>
-    <row r="790" spans="1:27" ht="13.2">
+    <row r="790" spans="1:27" ht="13">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="14"/>
@@ -25101,7 +25104,7 @@
       <c r="Z790" s="2"/>
       <c r="AA790" s="2"/>
     </row>
-    <row r="791" spans="1:27" ht="13.2">
+    <row r="791" spans="1:27" ht="13">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="14"/>
@@ -25130,7 +25133,7 @@
       <c r="Z791" s="2"/>
       <c r="AA791" s="2"/>
     </row>
-    <row r="792" spans="1:27" ht="13.2">
+    <row r="792" spans="1:27" ht="13">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="14"/>
@@ -25159,7 +25162,7 @@
       <c r="Z792" s="2"/>
       <c r="AA792" s="2"/>
     </row>
-    <row r="793" spans="1:27" ht="13.2">
+    <row r="793" spans="1:27" ht="13">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="14"/>
@@ -25188,7 +25191,7 @@
       <c r="Z793" s="2"/>
       <c r="AA793" s="2"/>
     </row>
-    <row r="794" spans="1:27" ht="13.2">
+    <row r="794" spans="1:27" ht="13">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="14"/>
@@ -25217,7 +25220,7 @@
       <c r="Z794" s="2"/>
       <c r="AA794" s="2"/>
     </row>
-    <row r="795" spans="1:27" ht="13.2">
+    <row r="795" spans="1:27" ht="13">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="14"/>
@@ -25246,7 +25249,7 @@
       <c r="Z795" s="2"/>
       <c r="AA795" s="2"/>
     </row>
-    <row r="796" spans="1:27" ht="13.2">
+    <row r="796" spans="1:27" ht="13">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="14"/>
@@ -25275,7 +25278,7 @@
       <c r="Z796" s="2"/>
       <c r="AA796" s="2"/>
     </row>
-    <row r="797" spans="1:27" ht="13.2">
+    <row r="797" spans="1:27" ht="13">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="14"/>
@@ -25304,7 +25307,7 @@
       <c r="Z797" s="2"/>
       <c r="AA797" s="2"/>
     </row>
-    <row r="798" spans="1:27" ht="13.2">
+    <row r="798" spans="1:27" ht="13">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="14"/>
@@ -25333,7 +25336,7 @@
       <c r="Z798" s="2"/>
       <c r="AA798" s="2"/>
     </row>
-    <row r="799" spans="1:27" ht="13.2">
+    <row r="799" spans="1:27" ht="13">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="14"/>
@@ -25362,7 +25365,7 @@
       <c r="Z799" s="2"/>
       <c r="AA799" s="2"/>
     </row>
-    <row r="800" spans="1:27" ht="13.2">
+    <row r="800" spans="1:27" ht="13">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="14"/>
@@ -25391,7 +25394,7 @@
       <c r="Z800" s="2"/>
       <c r="AA800" s="2"/>
     </row>
-    <row r="801" spans="1:27" ht="13.2">
+    <row r="801" spans="1:27" ht="13">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="14"/>
@@ -25420,7 +25423,7 @@
       <c r="Z801" s="2"/>
       <c r="AA801" s="2"/>
     </row>
-    <row r="802" spans="1:27" ht="13.2">
+    <row r="802" spans="1:27" ht="13">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="14"/>
@@ -25449,7 +25452,7 @@
       <c r="Z802" s="2"/>
       <c r="AA802" s="2"/>
     </row>
-    <row r="803" spans="1:27" ht="13.2">
+    <row r="803" spans="1:27" ht="13">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="14"/>
@@ -25478,7 +25481,7 @@
       <c r="Z803" s="2"/>
       <c r="AA803" s="2"/>
     </row>
-    <row r="804" spans="1:27" ht="13.2">
+    <row r="804" spans="1:27" ht="13">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="14"/>
@@ -25507,7 +25510,7 @@
       <c r="Z804" s="2"/>
       <c r="AA804" s="2"/>
     </row>
-    <row r="805" spans="1:27" ht="13.2">
+    <row r="805" spans="1:27" ht="13">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="14"/>
@@ -25536,7 +25539,7 @@
       <c r="Z805" s="2"/>
       <c r="AA805" s="2"/>
     </row>
-    <row r="806" spans="1:27" ht="13.2">
+    <row r="806" spans="1:27" ht="13">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="14"/>
@@ -25565,7 +25568,7 @@
       <c r="Z806" s="2"/>
       <c r="AA806" s="2"/>
     </row>
-    <row r="807" spans="1:27" ht="13.2">
+    <row r="807" spans="1:27" ht="13">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="14"/>
@@ -25594,7 +25597,7 @@
       <c r="Z807" s="2"/>
       <c r="AA807" s="2"/>
     </row>
-    <row r="808" spans="1:27" ht="13.2">
+    <row r="808" spans="1:27" ht="13">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="14"/>
@@ -25623,7 +25626,7 @@
       <c r="Z808" s="2"/>
       <c r="AA808" s="2"/>
     </row>
-    <row r="809" spans="1:27" ht="13.2">
+    <row r="809" spans="1:27" ht="13">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="14"/>
@@ -25652,7 +25655,7 @@
       <c r="Z809" s="2"/>
       <c r="AA809" s="2"/>
     </row>
-    <row r="810" spans="1:27" ht="13.2">
+    <row r="810" spans="1:27" ht="13">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="14"/>
@@ -25681,7 +25684,7 @@
       <c r="Z810" s="2"/>
       <c r="AA810" s="2"/>
     </row>
-    <row r="811" spans="1:27" ht="13.2">
+    <row r="811" spans="1:27" ht="13">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="14"/>
@@ -25710,7 +25713,7 @@
       <c r="Z811" s="2"/>
       <c r="AA811" s="2"/>
     </row>
-    <row r="812" spans="1:27" ht="13.2">
+    <row r="812" spans="1:27" ht="13">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="14"/>
@@ -25739,7 +25742,7 @@
       <c r="Z812" s="2"/>
       <c r="AA812" s="2"/>
     </row>
-    <row r="813" spans="1:27" ht="13.2">
+    <row r="813" spans="1:27" ht="13">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="14"/>
@@ -25768,7 +25771,7 @@
       <c r="Z813" s="2"/>
       <c r="AA813" s="2"/>
     </row>
-    <row r="814" spans="1:27" ht="13.2">
+    <row r="814" spans="1:27" ht="13">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="14"/>
@@ -25797,7 +25800,7 @@
       <c r="Z814" s="2"/>
       <c r="AA814" s="2"/>
     </row>
-    <row r="815" spans="1:27" ht="13.2">
+    <row r="815" spans="1:27" ht="13">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="14"/>
@@ -25826,7 +25829,7 @@
       <c r="Z815" s="2"/>
       <c r="AA815" s="2"/>
     </row>
-    <row r="816" spans="1:27" ht="13.2">
+    <row r="816" spans="1:27" ht="13">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="14"/>
@@ -25855,7 +25858,7 @@
       <c r="Z816" s="2"/>
       <c r="AA816" s="2"/>
     </row>
-    <row r="817" spans="1:27" ht="13.2">
+    <row r="817" spans="1:27" ht="13">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="14"/>
@@ -25884,7 +25887,7 @@
       <c r="Z817" s="2"/>
       <c r="AA817" s="2"/>
     </row>
-    <row r="818" spans="1:27" ht="13.2">
+    <row r="818" spans="1:27" ht="13">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="14"/>
@@ -25913,7 +25916,7 @@
       <c r="Z818" s="2"/>
       <c r="AA818" s="2"/>
     </row>
-    <row r="819" spans="1:27" ht="13.2">
+    <row r="819" spans="1:27" ht="13">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="14"/>
@@ -25942,7 +25945,7 @@
       <c r="Z819" s="2"/>
       <c r="AA819" s="2"/>
     </row>
-    <row r="820" spans="1:27" ht="13.2">
+    <row r="820" spans="1:27" ht="13">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="14"/>
@@ -25971,7 +25974,7 @@
       <c r="Z820" s="2"/>
       <c r="AA820" s="2"/>
     </row>
-    <row r="821" spans="1:27" ht="13.2">
+    <row r="821" spans="1:27" ht="13">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="14"/>
@@ -26000,7 +26003,7 @@
       <c r="Z821" s="2"/>
       <c r="AA821" s="2"/>
     </row>
-    <row r="822" spans="1:27" ht="13.2">
+    <row r="822" spans="1:27" ht="13">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="14"/>
@@ -26029,7 +26032,7 @@
       <c r="Z822" s="2"/>
       <c r="AA822" s="2"/>
     </row>
-    <row r="823" spans="1:27" ht="13.2">
+    <row r="823" spans="1:27" ht="13">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="14"/>
@@ -26058,7 +26061,7 @@
       <c r="Z823" s="2"/>
       <c r="AA823" s="2"/>
     </row>
-    <row r="824" spans="1:27" ht="13.2">
+    <row r="824" spans="1:27" ht="13">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="14"/>
@@ -26087,7 +26090,7 @@
       <c r="Z824" s="2"/>
       <c r="AA824" s="2"/>
     </row>
-    <row r="825" spans="1:27" ht="13.2">
+    <row r="825" spans="1:27" ht="13">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="14"/>
@@ -26116,7 +26119,7 @@
       <c r="Z825" s="2"/>
       <c r="AA825" s="2"/>
     </row>
-    <row r="826" spans="1:27" ht="13.2">
+    <row r="826" spans="1:27" ht="13">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="14"/>
@@ -26145,7 +26148,7 @@
       <c r="Z826" s="2"/>
       <c r="AA826" s="2"/>
     </row>
-    <row r="827" spans="1:27" ht="13.2">
+    <row r="827" spans="1:27" ht="13">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="14"/>
@@ -26174,7 +26177,7 @@
       <c r="Z827" s="2"/>
       <c r="AA827" s="2"/>
     </row>
-    <row r="828" spans="1:27" ht="13.2">
+    <row r="828" spans="1:27" ht="13">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="14"/>
@@ -26203,7 +26206,7 @@
       <c r="Z828" s="2"/>
       <c r="AA828" s="2"/>
     </row>
-    <row r="829" spans="1:27" ht="13.2">
+    <row r="829" spans="1:27" ht="13">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="14"/>
@@ -26232,7 +26235,7 @@
       <c r="Z829" s="2"/>
       <c r="AA829" s="2"/>
     </row>
-    <row r="830" spans="1:27" ht="13.2">
+    <row r="830" spans="1:27" ht="13">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="14"/>
@@ -26261,7 +26264,7 @@
       <c r="Z830" s="2"/>
       <c r="AA830" s="2"/>
     </row>
-    <row r="831" spans="1:27" ht="13.2">
+    <row r="831" spans="1:27" ht="13">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="14"/>
@@ -26290,7 +26293,7 @@
       <c r="Z831" s="2"/>
       <c r="AA831" s="2"/>
     </row>
-    <row r="832" spans="1:27" ht="13.2">
+    <row r="832" spans="1:27" ht="13">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="14"/>
@@ -26319,7 +26322,7 @@
       <c r="Z832" s="2"/>
       <c r="AA832" s="2"/>
     </row>
-    <row r="833" spans="1:27" ht="13.2">
+    <row r="833" spans="1:27" ht="13">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="14"/>
@@ -26348,7 +26351,7 @@
       <c r="Z833" s="2"/>
       <c r="AA833" s="2"/>
     </row>
-    <row r="834" spans="1:27" ht="13.2">
+    <row r="834" spans="1:27" ht="13">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="14"/>
@@ -26377,7 +26380,7 @@
       <c r="Z834" s="2"/>
       <c r="AA834" s="2"/>
     </row>
-    <row r="835" spans="1:27" ht="13.2">
+    <row r="835" spans="1:27" ht="13">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="14"/>
@@ -26406,7 +26409,7 @@
       <c r="Z835" s="2"/>
       <c r="AA835" s="2"/>
     </row>
-    <row r="836" spans="1:27" ht="13.2">
+    <row r="836" spans="1:27" ht="13">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="14"/>
@@ -26435,7 +26438,7 @@
       <c r="Z836" s="2"/>
       <c r="AA836" s="2"/>
     </row>
-    <row r="837" spans="1:27" ht="13.2">
+    <row r="837" spans="1:27" ht="13">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="14"/>
@@ -26464,7 +26467,7 @@
       <c r="Z837" s="2"/>
       <c r="AA837" s="2"/>
     </row>
-    <row r="838" spans="1:27" ht="13.2">
+    <row r="838" spans="1:27" ht="13">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="14"/>
@@ -26493,7 +26496,7 @@
       <c r="Z838" s="2"/>
       <c r="AA838" s="2"/>
     </row>
-    <row r="839" spans="1:27" ht="13.2">
+    <row r="839" spans="1:27" ht="13">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="14"/>
@@ -26522,7 +26525,7 @@
       <c r="Z839" s="2"/>
       <c r="AA839" s="2"/>
     </row>
-    <row r="840" spans="1:27" ht="13.2">
+    <row r="840" spans="1:27" ht="13">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="14"/>
@@ -26551,7 +26554,7 @@
       <c r="Z840" s="2"/>
       <c r="AA840" s="2"/>
     </row>
-    <row r="841" spans="1:27" ht="13.2">
+    <row r="841" spans="1:27" ht="13">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="14"/>
@@ -26580,7 +26583,7 @@
       <c r="Z841" s="2"/>
       <c r="AA841" s="2"/>
     </row>
-    <row r="842" spans="1:27" ht="13.2">
+    <row r="842" spans="1:27" ht="13">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="14"/>
@@ -26609,7 +26612,7 @@
       <c r="Z842" s="2"/>
       <c r="AA842" s="2"/>
     </row>
-    <row r="843" spans="1:27" ht="13.2">
+    <row r="843" spans="1:27" ht="13">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="14"/>
@@ -26638,7 +26641,7 @@
       <c r="Z843" s="2"/>
       <c r="AA843" s="2"/>
     </row>
-    <row r="844" spans="1:27" ht="13.2">
+    <row r="844" spans="1:27" ht="13">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="14"/>
@@ -26667,7 +26670,7 @@
       <c r="Z844" s="2"/>
       <c r="AA844" s="2"/>
     </row>
-    <row r="845" spans="1:27" ht="13.2">
+    <row r="845" spans="1:27" ht="13">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="14"/>
@@ -26696,7 +26699,7 @@
       <c r="Z845" s="2"/>
       <c r="AA845" s="2"/>
     </row>
-    <row r="846" spans="1:27" ht="13.2">
+    <row r="846" spans="1:27" ht="13">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="14"/>
@@ -26725,7 +26728,7 @@
       <c r="Z846" s="2"/>
       <c r="AA846" s="2"/>
     </row>
-    <row r="847" spans="1:27" ht="13.2">
+    <row r="847" spans="1:27" ht="13">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="14"/>
@@ -26754,7 +26757,7 @@
       <c r="Z847" s="2"/>
       <c r="AA847" s="2"/>
     </row>
-    <row r="848" spans="1:27" ht="13.2">
+    <row r="848" spans="1:27" ht="13">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="14"/>
@@ -26783,7 +26786,7 @@
       <c r="Z848" s="2"/>
       <c r="AA848" s="2"/>
     </row>
-    <row r="849" spans="1:27" ht="13.2">
+    <row r="849" spans="1:27" ht="13">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="14"/>
@@ -26812,7 +26815,7 @@
       <c r="Z849" s="2"/>
       <c r="AA849" s="2"/>
     </row>
-    <row r="850" spans="1:27" ht="13.2">
+    <row r="850" spans="1:27" ht="13">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="14"/>
@@ -26841,7 +26844,7 @@
       <c r="Z850" s="2"/>
       <c r="AA850" s="2"/>
     </row>
-    <row r="851" spans="1:27" ht="13.2">
+    <row r="851" spans="1:27" ht="13">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="14"/>
@@ -26870,7 +26873,7 @@
       <c r="Z851" s="2"/>
       <c r="AA851" s="2"/>
     </row>
-    <row r="852" spans="1:27" ht="13.2">
+    <row r="852" spans="1:27" ht="13">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="14"/>
@@ -26899,7 +26902,7 @@
       <c r="Z852" s="2"/>
       <c r="AA852" s="2"/>
     </row>
-    <row r="853" spans="1:27" ht="13.2">
+    <row r="853" spans="1:27" ht="13">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="14"/>
@@ -26928,7 +26931,7 @@
       <c r="Z853" s="2"/>
       <c r="AA853" s="2"/>
     </row>
-    <row r="854" spans="1:27" ht="13.2">
+    <row r="854" spans="1:27" ht="13">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="14"/>
@@ -26957,7 +26960,7 @@
       <c r="Z854" s="2"/>
       <c r="AA854" s="2"/>
     </row>
-    <row r="855" spans="1:27" ht="13.2">
+    <row r="855" spans="1:27" ht="13">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="14"/>
@@ -26986,7 +26989,7 @@
       <c r="Z855" s="2"/>
       <c r="AA855" s="2"/>
     </row>
-    <row r="856" spans="1:27" ht="13.2">
+    <row r="856" spans="1:27" ht="13">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="14"/>
@@ -27015,7 +27018,7 @@
       <c r="Z856" s="2"/>
       <c r="AA856" s="2"/>
     </row>
-    <row r="857" spans="1:27" ht="13.2">
+    <row r="857" spans="1:27" ht="13">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="14"/>
@@ -27044,7 +27047,7 @@
       <c r="Z857" s="2"/>
       <c r="AA857" s="2"/>
     </row>
-    <row r="858" spans="1:27" ht="13.2">
+    <row r="858" spans="1:27" ht="13">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="14"/>
@@ -27073,7 +27076,7 @@
       <c r="Z858" s="2"/>
       <c r="AA858" s="2"/>
     </row>
-    <row r="859" spans="1:27" ht="13.2">
+    <row r="859" spans="1:27" ht="13">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="14"/>
@@ -27102,7 +27105,7 @@
       <c r="Z859" s="2"/>
       <c r="AA859" s="2"/>
     </row>
-    <row r="860" spans="1:27" ht="13.2">
+    <row r="860" spans="1:27" ht="13">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="14"/>
@@ -27131,7 +27134,7 @@
       <c r="Z860" s="2"/>
       <c r="AA860" s="2"/>
     </row>
-    <row r="861" spans="1:27" ht="13.2">
+    <row r="861" spans="1:27" ht="13">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="14"/>
@@ -27160,7 +27163,7 @@
       <c r="Z861" s="2"/>
       <c r="AA861" s="2"/>
     </row>
-    <row r="862" spans="1:27" ht="13.2">
+    <row r="862" spans="1:27" ht="13">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="14"/>
@@ -27189,7 +27192,7 @@
       <c r="Z862" s="2"/>
       <c r="AA862" s="2"/>
     </row>
-    <row r="863" spans="1:27" ht="13.2">
+    <row r="863" spans="1:27" ht="13">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="14"/>
@@ -27218,7 +27221,7 @@
       <c r="Z863" s="2"/>
       <c r="AA863" s="2"/>
     </row>
-    <row r="864" spans="1:27" ht="13.2">
+    <row r="864" spans="1:27" ht="13">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="14"/>
@@ -27247,7 +27250,7 @@
       <c r="Z864" s="2"/>
       <c r="AA864" s="2"/>
     </row>
-    <row r="865" spans="1:27" ht="13.2">
+    <row r="865" spans="1:27" ht="13">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="14"/>
@@ -27276,7 +27279,7 @@
       <c r="Z865" s="2"/>
       <c r="AA865" s="2"/>
     </row>
-    <row r="866" spans="1:27" ht="13.2">
+    <row r="866" spans="1:27" ht="13">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="14"/>
@@ -27305,7 +27308,7 @@
       <c r="Z866" s="2"/>
       <c r="AA866" s="2"/>
     </row>
-    <row r="867" spans="1:27" ht="13.2">
+    <row r="867" spans="1:27" ht="13">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="14"/>
@@ -27334,7 +27337,7 @@
       <c r="Z867" s="2"/>
       <c r="AA867" s="2"/>
     </row>
-    <row r="868" spans="1:27" ht="13.2">
+    <row r="868" spans="1:27" ht="13">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="14"/>
@@ -27363,7 +27366,7 @@
       <c r="Z868" s="2"/>
       <c r="AA868" s="2"/>
     </row>
-    <row r="869" spans="1:27" ht="13.2">
+    <row r="869" spans="1:27" ht="13">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="14"/>
@@ -27392,7 +27395,7 @@
       <c r="Z869" s="2"/>
       <c r="AA869" s="2"/>
     </row>
-    <row r="870" spans="1:27" ht="13.2">
+    <row r="870" spans="1:27" ht="13">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="14"/>
@@ -27421,7 +27424,7 @@
       <c r="Z870" s="2"/>
       <c r="AA870" s="2"/>
     </row>
-    <row r="871" spans="1:27" ht="13.2">
+    <row r="871" spans="1:27" ht="13">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="14"/>
@@ -27450,7 +27453,7 @@
       <c r="Z871" s="2"/>
       <c r="AA871" s="2"/>
     </row>
-    <row r="872" spans="1:27" ht="13.2">
+    <row r="872" spans="1:27" ht="13">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="14"/>
@@ -27479,7 +27482,7 @@
       <c r="Z872" s="2"/>
       <c r="AA872" s="2"/>
     </row>
-    <row r="873" spans="1:27" ht="13.2">
+    <row r="873" spans="1:27" ht="13">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="14"/>
@@ -27508,7 +27511,7 @@
       <c r="Z873" s="2"/>
       <c r="AA873" s="2"/>
     </row>
-    <row r="874" spans="1:27" ht="13.2">
+    <row r="874" spans="1:27" ht="13">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="14"/>
@@ -27537,7 +27540,7 @@
       <c r="Z874" s="2"/>
       <c r="AA874" s="2"/>
     </row>
-    <row r="875" spans="1:27" ht="13.2">
+    <row r="875" spans="1:27" ht="13">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="14"/>
@@ -27566,7 +27569,7 @@
       <c r="Z875" s="2"/>
       <c r="AA875" s="2"/>
     </row>
-    <row r="876" spans="1:27" ht="13.2">
+    <row r="876" spans="1:27" ht="13">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="14"/>
@@ -27595,7 +27598,7 @@
       <c r="Z876" s="2"/>
       <c r="AA876" s="2"/>
     </row>
-    <row r="877" spans="1:27" ht="13.2">
+    <row r="877" spans="1:27" ht="13">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="14"/>
@@ -27624,7 +27627,7 @@
       <c r="Z877" s="2"/>
       <c r="AA877" s="2"/>
     </row>
-    <row r="878" spans="1:27" ht="13.2">
+    <row r="878" spans="1:27" ht="13">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="14"/>
@@ -27653,7 +27656,7 @@
       <c r="Z878" s="2"/>
       <c r="AA878" s="2"/>
     </row>
-    <row r="879" spans="1:27" ht="13.2">
+    <row r="879" spans="1:27" ht="13">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="14"/>
@@ -27682,7 +27685,7 @@
       <c r="Z879" s="2"/>
       <c r="AA879" s="2"/>
     </row>
-    <row r="880" spans="1:27" ht="13.2">
+    <row r="880" spans="1:27" ht="13">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="14"/>
@@ -27711,7 +27714,7 @@
       <c r="Z880" s="2"/>
       <c r="AA880" s="2"/>
     </row>
-    <row r="881" spans="1:27" ht="13.2">
+    <row r="881" spans="1:27" ht="13">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="14"/>
@@ -27740,7 +27743,7 @@
       <c r="Z881" s="2"/>
       <c r="AA881" s="2"/>
     </row>
-    <row r="882" spans="1:27" ht="13.2">
+    <row r="882" spans="1:27" ht="13">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="14"/>
@@ -27769,7 +27772,7 @@
       <c r="Z882" s="2"/>
       <c r="AA882" s="2"/>
     </row>
-    <row r="883" spans="1:27" ht="13.2">
+    <row r="883" spans="1:27" ht="13">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="14"/>
@@ -27798,7 +27801,7 @@
       <c r="Z883" s="2"/>
       <c r="AA883" s="2"/>
     </row>
-    <row r="884" spans="1:27" ht="13.2">
+    <row r="884" spans="1:27" ht="13">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="14"/>
@@ -27827,7 +27830,7 @@
       <c r="Z884" s="2"/>
       <c r="AA884" s="2"/>
     </row>
-    <row r="885" spans="1:27" ht="13.2">
+    <row r="885" spans="1:27" ht="13">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="14"/>
@@ -27856,7 +27859,7 @@
       <c r="Z885" s="2"/>
       <c r="AA885" s="2"/>
     </row>
-    <row r="886" spans="1:27" ht="13.2">
+    <row r="886" spans="1:27" ht="13">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="14"/>
@@ -27885,7 +27888,7 @@
       <c r="Z886" s="2"/>
       <c r="AA886" s="2"/>
     </row>
-    <row r="887" spans="1:27" ht="13.2">
+    <row r="887" spans="1:27" ht="13">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="14"/>
@@ -27914,7 +27917,7 @@
       <c r="Z887" s="2"/>
       <c r="AA887" s="2"/>
     </row>
-    <row r="888" spans="1:27" ht="13.2">
+    <row r="888" spans="1:27" ht="13">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="14"/>
@@ -27943,7 +27946,7 @@
       <c r="Z888" s="2"/>
       <c r="AA888" s="2"/>
     </row>
-    <row r="889" spans="1:27" ht="13.2">
+    <row r="889" spans="1:27" ht="13">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="14"/>
@@ -27972,7 +27975,7 @@
       <c r="Z889" s="2"/>
       <c r="AA889" s="2"/>
     </row>
-    <row r="890" spans="1:27" ht="13.2">
+    <row r="890" spans="1:27" ht="13">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="14"/>
@@ -28001,7 +28004,7 @@
       <c r="Z890" s="2"/>
       <c r="AA890" s="2"/>
     </row>
-    <row r="891" spans="1:27" ht="13.2">
+    <row r="891" spans="1:27" ht="13">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="14"/>
@@ -28030,7 +28033,7 @@
       <c r="Z891" s="2"/>
       <c r="AA891" s="2"/>
     </row>
-    <row r="892" spans="1:27" ht="13.2">
+    <row r="892" spans="1:27" ht="13">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="14"/>
@@ -28059,7 +28062,7 @@
       <c r="Z892" s="2"/>
       <c r="AA892" s="2"/>
     </row>
-    <row r="893" spans="1:27" ht="13.2">
+    <row r="893" spans="1:27" ht="13">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="14"/>
@@ -28088,7 +28091,7 @@
       <c r="Z893" s="2"/>
       <c r="AA893" s="2"/>
     </row>
-    <row r="894" spans="1:27" ht="13.2">
+    <row r="894" spans="1:27" ht="13">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="14"/>
@@ -28117,7 +28120,7 @@
       <c r="Z894" s="2"/>
       <c r="AA894" s="2"/>
     </row>
-    <row r="895" spans="1:27" ht="13.2">
+    <row r="895" spans="1:27" ht="13">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="14"/>
@@ -28146,7 +28149,7 @@
       <c r="Z895" s="2"/>
       <c r="AA895" s="2"/>
     </row>
-    <row r="896" spans="1:27" ht="13.2">
+    <row r="896" spans="1:27" ht="13">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="14"/>
@@ -28175,7 +28178,7 @@
       <c r="Z896" s="2"/>
       <c r="AA896" s="2"/>
     </row>
-    <row r="897" spans="1:27" ht="13.2">
+    <row r="897" spans="1:27" ht="13">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="14"/>
@@ -28204,7 +28207,7 @@
       <c r="Z897" s="2"/>
       <c r="AA897" s="2"/>
     </row>
-    <row r="898" spans="1:27" ht="13.2">
+    <row r="898" spans="1:27" ht="13">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="14"/>
@@ -28233,7 +28236,7 @@
       <c r="Z898" s="2"/>
       <c r="AA898" s="2"/>
     </row>
-    <row r="899" spans="1:27" ht="13.2">
+    <row r="899" spans="1:27" ht="13">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="14"/>
@@ -28262,7 +28265,7 @@
       <c r="Z899" s="2"/>
       <c r="AA899" s="2"/>
     </row>
-    <row r="900" spans="1:27" ht="13.2">
+    <row r="900" spans="1:27" ht="13">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="14"/>
@@ -28291,7 +28294,7 @@
       <c r="Z900" s="2"/>
       <c r="AA900" s="2"/>
     </row>
-    <row r="901" spans="1:27" ht="13.2">
+    <row r="901" spans="1:27" ht="13">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="14"/>
@@ -28320,7 +28323,7 @@
       <c r="Z901" s="2"/>
       <c r="AA901" s="2"/>
     </row>
-    <row r="902" spans="1:27" ht="13.2">
+    <row r="902" spans="1:27" ht="13">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="14"/>
@@ -28349,7 +28352,7 @@
       <c r="Z902" s="2"/>
       <c r="AA902" s="2"/>
     </row>
-    <row r="903" spans="1:27" ht="13.2">
+    <row r="903" spans="1:27" ht="13">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="14"/>
@@ -28378,7 +28381,7 @@
       <c r="Z903" s="2"/>
       <c r="AA903" s="2"/>
     </row>
-    <row r="904" spans="1:27" ht="13.2">
+    <row r="904" spans="1:27" ht="13">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="14"/>
@@ -28407,7 +28410,7 @@
       <c r="Z904" s="2"/>
       <c r="AA904" s="2"/>
     </row>
-    <row r="905" spans="1:27" ht="13.2">
+    <row r="905" spans="1:27" ht="13">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="14"/>
@@ -28436,7 +28439,7 @@
       <c r="Z905" s="2"/>
       <c r="AA905" s="2"/>
     </row>
-    <row r="906" spans="1:27" ht="13.2">
+    <row r="906" spans="1:27" ht="13">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="14"/>
@@ -28465,7 +28468,7 @@
       <c r="Z906" s="2"/>
       <c r="AA906" s="2"/>
     </row>
-    <row r="907" spans="1:27" ht="13.2">
+    <row r="907" spans="1:27" ht="13">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="14"/>
@@ -28494,7 +28497,7 @@
       <c r="Z907" s="2"/>
       <c r="AA907" s="2"/>
     </row>
-    <row r="908" spans="1:27" ht="13.2">
+    <row r="908" spans="1:27" ht="13">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="14"/>
@@ -28523,7 +28526,7 @@
       <c r="Z908" s="2"/>
       <c r="AA908" s="2"/>
     </row>
-    <row r="909" spans="1:27" ht="13.2">
+    <row r="909" spans="1:27" ht="13">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="14"/>
@@ -28552,7 +28555,7 @@
       <c r="Z909" s="2"/>
       <c r="AA909" s="2"/>
     </row>
-    <row r="910" spans="1:27" ht="13.2">
+    <row r="910" spans="1:27" ht="13">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="14"/>
@@ -28581,7 +28584,7 @@
       <c r="Z910" s="2"/>
       <c r="AA910" s="2"/>
     </row>
-    <row r="911" spans="1:27" ht="13.2">
+    <row r="911" spans="1:27" ht="13">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="14"/>
@@ -28610,7 +28613,7 @@
       <c r="Z911" s="2"/>
       <c r="AA911" s="2"/>
     </row>
-    <row r="912" spans="1:27" ht="13.2">
+    <row r="912" spans="1:27" ht="13">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="14"/>
@@ -28639,7 +28642,7 @@
       <c r="Z912" s="2"/>
       <c r="AA912" s="2"/>
     </row>
-    <row r="913" spans="1:27" ht="13.2">
+    <row r="913" spans="1:27" ht="13">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="14"/>
@@ -28668,7 +28671,7 @@
       <c r="Z913" s="2"/>
       <c r="AA913" s="2"/>
     </row>
-    <row r="914" spans="1:27" ht="13.2">
+    <row r="914" spans="1:27" ht="13">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="14"/>
@@ -28697,7 +28700,7 @@
       <c r="Z914" s="2"/>
       <c r="AA914" s="2"/>
     </row>
-    <row r="915" spans="1:27" ht="13.2">
+    <row r="915" spans="1:27" ht="13">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="14"/>
@@ -28726,7 +28729,7 @@
       <c r="Z915" s="2"/>
       <c r="AA915" s="2"/>
     </row>
-    <row r="916" spans="1:27" ht="13.2">
+    <row r="916" spans="1:27" ht="13">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="14"/>
@@ -28755,7 +28758,7 @@
       <c r="Z916" s="2"/>
       <c r="AA916" s="2"/>
     </row>
-    <row r="917" spans="1:27" ht="13.2">
+    <row r="917" spans="1:27" ht="13">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="14"/>
@@ -28784,7 +28787,7 @@
       <c r="Z917" s="2"/>
       <c r="AA917" s="2"/>
     </row>
-    <row r="918" spans="1:27" ht="13.2">
+    <row r="918" spans="1:27" ht="13">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="14"/>
@@ -28813,7 +28816,7 @@
       <c r="Z918" s="2"/>
       <c r="AA918" s="2"/>
     </row>
-    <row r="919" spans="1:27" ht="13.2">
+    <row r="919" spans="1:27" ht="13">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="14"/>
@@ -28842,7 +28845,7 @@
       <c r="Z919" s="2"/>
       <c r="AA919" s="2"/>
     </row>
-    <row r="920" spans="1:27" ht="13.2">
+    <row r="920" spans="1:27" ht="13">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="14"/>
@@ -28871,7 +28874,7 @@
       <c r="Z920" s="2"/>
       <c r="AA920" s="2"/>
     </row>
-    <row r="921" spans="1:27" ht="13.2">
+    <row r="921" spans="1:27" ht="13">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="14"/>
@@ -28900,7 +28903,7 @@
       <c r="Z921" s="2"/>
       <c r="AA921" s="2"/>
     </row>
-    <row r="922" spans="1:27" ht="13.2">
+    <row r="922" spans="1:27" ht="13">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="14"/>
@@ -28929,7 +28932,7 @@
       <c r="Z922" s="2"/>
       <c r="AA922" s="2"/>
     </row>
-    <row r="923" spans="1:27" ht="13.2">
+    <row r="923" spans="1:27" ht="13">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="14"/>
@@ -28958,7 +28961,7 @@
       <c r="Z923" s="2"/>
       <c r="AA923" s="2"/>
     </row>
-    <row r="924" spans="1:27" ht="13.2">
+    <row r="924" spans="1:27" ht="13">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="14"/>
@@ -28987,7 +28990,7 @@
       <c r="Z924" s="2"/>
       <c r="AA924" s="2"/>
     </row>
-    <row r="925" spans="1:27" ht="13.2">
+    <row r="925" spans="1:27" ht="13">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="14"/>
@@ -29016,7 +29019,7 @@
       <c r="Z925" s="2"/>
       <c r="AA925" s="2"/>
     </row>
-    <row r="926" spans="1:27" ht="13.2">
+    <row r="926" spans="1:27" ht="13">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="14"/>
@@ -29045,7 +29048,7 @@
       <c r="Z926" s="2"/>
       <c r="AA926" s="2"/>
     </row>
-    <row r="927" spans="1:27" ht="13.2">
+    <row r="927" spans="1:27" ht="13">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="14"/>
@@ -29074,7 +29077,7 @@
       <c r="Z927" s="2"/>
       <c r="AA927" s="2"/>
     </row>
-    <row r="928" spans="1:27" ht="13.2">
+    <row r="928" spans="1:27" ht="13">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="14"/>
@@ -29103,7 +29106,7 @@
       <c r="Z928" s="2"/>
       <c r="AA928" s="2"/>
     </row>
-    <row r="929" spans="1:27" ht="13.2">
+    <row r="929" spans="1:27" ht="13">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="14"/>
@@ -29132,7 +29135,7 @@
       <c r="Z929" s="2"/>
       <c r="AA929" s="2"/>
     </row>
-    <row r="930" spans="1:27" ht="13.2">
+    <row r="930" spans="1:27" ht="13">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="14"/>
@@ -29161,7 +29164,7 @@
       <c r="Z930" s="2"/>
       <c r="AA930" s="2"/>
     </row>
-    <row r="931" spans="1:27" ht="13.2">
+    <row r="931" spans="1:27" ht="13">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="14"/>
@@ -29190,7 +29193,7 @@
       <c r="Z931" s="2"/>
       <c r="AA931" s="2"/>
     </row>
-    <row r="932" spans="1:27" ht="13.2">
+    <row r="932" spans="1:27" ht="13">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="14"/>
@@ -29219,7 +29222,7 @@
       <c r="Z932" s="2"/>
       <c r="AA932" s="2"/>
     </row>
-    <row r="933" spans="1:27" ht="13.2">
+    <row r="933" spans="1:27" ht="13">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="14"/>
@@ -29248,7 +29251,7 @@
       <c r="Z933" s="2"/>
       <c r="AA933" s="2"/>
     </row>
-    <row r="934" spans="1:27" ht="13.2">
+    <row r="934" spans="1:27" ht="13">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="14"/>
@@ -29277,7 +29280,7 @@
       <c r="Z934" s="2"/>
       <c r="AA934" s="2"/>
     </row>
-    <row r="935" spans="1:27" ht="13.2">
+    <row r="935" spans="1:27" ht="13">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="14"/>
@@ -29306,7 +29309,7 @@
       <c r="Z935" s="2"/>
       <c r="AA935" s="2"/>
     </row>
-    <row r="936" spans="1:27" ht="13.2">
+    <row r="936" spans="1:27" ht="13">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="14"/>
@@ -29335,7 +29338,7 @@
       <c r="Z936" s="2"/>
       <c r="AA936" s="2"/>
     </row>
-    <row r="937" spans="1:27" ht="13.2">
+    <row r="937" spans="1:27" ht="13">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="14"/>
@@ -29364,7 +29367,7 @@
       <c r="Z937" s="2"/>
       <c r="AA937" s="2"/>
     </row>
-    <row r="938" spans="1:27" ht="13.2">
+    <row r="938" spans="1:27" ht="13">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="14"/>
@@ -29393,7 +29396,7 @@
       <c r="Z938" s="2"/>
       <c r="AA938" s="2"/>
     </row>
-    <row r="939" spans="1:27" ht="13.2">
+    <row r="939" spans="1:27" ht="13">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="14"/>
@@ -29422,7 +29425,7 @@
       <c r="Z939" s="2"/>
       <c r="AA939" s="2"/>
     </row>
-    <row r="940" spans="1:27" ht="13.2">
+    <row r="940" spans="1:27" ht="13">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="14"/>
@@ -29451,7 +29454,7 @@
       <c r="Z940" s="2"/>
       <c r="AA940" s="2"/>
     </row>
-    <row r="941" spans="1:27" ht="13.2">
+    <row r="941" spans="1:27" ht="13">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="14"/>
@@ -29480,7 +29483,7 @@
       <c r="Z941" s="2"/>
       <c r="AA941" s="2"/>
     </row>
-    <row r="942" spans="1:27" ht="13.2">
+    <row r="942" spans="1:27" ht="13">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="14"/>
@@ -29509,7 +29512,7 @@
       <c r="Z942" s="2"/>
       <c r="AA942" s="2"/>
     </row>
-    <row r="943" spans="1:27" ht="13.2">
+    <row r="943" spans="1:27" ht="13">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="14"/>
@@ -29538,7 +29541,7 @@
       <c r="Z943" s="2"/>
       <c r="AA943" s="2"/>
     </row>
-    <row r="944" spans="1:27" ht="13.2">
+    <row r="944" spans="1:27" ht="13">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="14"/>
@@ -29567,7 +29570,7 @@
       <c r="Z944" s="2"/>
       <c r="AA944" s="2"/>
     </row>
-    <row r="945" spans="1:27" ht="13.2">
+    <row r="945" spans="1:27" ht="13">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="14"/>
@@ -29596,7 +29599,7 @@
       <c r="Z945" s="2"/>
       <c r="AA945" s="2"/>
     </row>
-    <row r="946" spans="1:27" ht="13.2">
+    <row r="946" spans="1:27" ht="13">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="14"/>
@@ -29625,7 +29628,7 @@
       <c r="Z946" s="2"/>
       <c r="AA946" s="2"/>
     </row>
-    <row r="947" spans="1:27" ht="13.2">
+    <row r="947" spans="1:27" ht="13">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="14"/>
@@ -29654,7 +29657,7 @@
       <c r="Z947" s="2"/>
       <c r="AA947" s="2"/>
     </row>
-    <row r="948" spans="1:27" ht="13.2">
+    <row r="948" spans="1:27" ht="13">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="14"/>
@@ -29683,7 +29686,7 @@
       <c r="Z948" s="2"/>
       <c r="AA948" s="2"/>
     </row>
-    <row r="949" spans="1:27" ht="13.2">
+    <row r="949" spans="1:27" ht="13">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="14"/>
@@ -29712,7 +29715,7 @@
       <c r="Z949" s="2"/>
       <c r="AA949" s="2"/>
     </row>
-    <row r="950" spans="1:27" ht="13.2">
+    <row r="950" spans="1:27" ht="13">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="14"/>
@@ -29741,7 +29744,7 @@
       <c r="Z950" s="2"/>
       <c r="AA950" s="2"/>
     </row>
-    <row r="951" spans="1:27" ht="13.2">
+    <row r="951" spans="1:27" ht="13">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="14"/>
@@ -29770,7 +29773,7 @@
       <c r="Z951" s="2"/>
       <c r="AA951" s="2"/>
     </row>
-    <row r="952" spans="1:27" ht="13.2">
+    <row r="952" spans="1:27" ht="13">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="14"/>
@@ -29799,7 +29802,7 @@
       <c r="Z952" s="2"/>
       <c r="AA952" s="2"/>
     </row>
-    <row r="953" spans="1:27" ht="13.2">
+    <row r="953" spans="1:27" ht="13">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="14"/>
@@ -29828,7 +29831,7 @@
       <c r="Z953" s="2"/>
       <c r="AA953" s="2"/>
     </row>
-    <row r="954" spans="1:27" ht="13.2">
+    <row r="954" spans="1:27" ht="13">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="14"/>
@@ -29857,7 +29860,7 @@
       <c r="Z954" s="2"/>
       <c r="AA954" s="2"/>
     </row>
-    <row r="955" spans="1:27" ht="13.2">
+    <row r="955" spans="1:27" ht="13">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="14"/>
@@ -29886,7 +29889,7 @@
       <c r="Z955" s="2"/>
       <c r="AA955" s="2"/>
     </row>
-    <row r="956" spans="1:27" ht="13.2">
+    <row r="956" spans="1:27" ht="13">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="14"/>
@@ -29915,7 +29918,7 @@
       <c r="Z956" s="2"/>
       <c r="AA956" s="2"/>
     </row>
-    <row r="957" spans="1:27" ht="13.2">
+    <row r="957" spans="1:27" ht="13">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="14"/>
@@ -29944,7 +29947,7 @@
       <c r="Z957" s="2"/>
       <c r="AA957" s="2"/>
     </row>
-    <row r="958" spans="1:27" ht="13.2">
+    <row r="958" spans="1:27" ht="13">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="14"/>
@@ -29973,7 +29976,7 @@
       <c r="Z958" s="2"/>
       <c r="AA958" s="2"/>
     </row>
-    <row r="959" spans="1:27" ht="13.2">
+    <row r="959" spans="1:27" ht="13">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="14"/>
@@ -30002,7 +30005,7 @@
       <c r="Z959" s="2"/>
       <c r="AA959" s="2"/>
     </row>
-    <row r="960" spans="1:27" ht="13.2">
+    <row r="960" spans="1:27" ht="13">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="14"/>
@@ -30031,7 +30034,7 @@
       <c r="Z960" s="2"/>
       <c r="AA960" s="2"/>
     </row>
-    <row r="961" spans="1:27" ht="13.2">
+    <row r="961" spans="1:27" ht="13">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="14"/>
@@ -30060,7 +30063,7 @@
       <c r="Z961" s="2"/>
       <c r="AA961" s="2"/>
     </row>
-    <row r="962" spans="1:27" ht="13.2">
+    <row r="962" spans="1:27" ht="13">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="14"/>
@@ -30089,7 +30092,7 @@
       <c r="Z962" s="2"/>
       <c r="AA962" s="2"/>
     </row>
-    <row r="963" spans="1:27" ht="13.2">
+    <row r="963" spans="1:27" ht="13">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="14"/>
@@ -30118,7 +30121,7 @@
       <c r="Z963" s="2"/>
       <c r="AA963" s="2"/>
     </row>
-    <row r="964" spans="1:27" ht="13.2">
+    <row r="964" spans="1:27" ht="13">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="14"/>
@@ -30147,7 +30150,7 @@
       <c r="Z964" s="2"/>
       <c r="AA964" s="2"/>
     </row>
-    <row r="965" spans="1:27" ht="13.2">
+    <row r="965" spans="1:27" ht="13">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="14"/>
@@ -30176,7 +30179,7 @@
       <c r="Z965" s="2"/>
       <c r="AA965" s="2"/>
     </row>
-    <row r="966" spans="1:27" ht="13.2">
+    <row r="966" spans="1:27" ht="13">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="14"/>
@@ -30205,7 +30208,7 @@
       <c r="Z966" s="2"/>
       <c r="AA966" s="2"/>
     </row>
-    <row r="967" spans="1:27" ht="13.2">
+    <row r="967" spans="1:27" ht="13">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="14"/>
@@ -30234,7 +30237,7 @@
       <c r="Z967" s="2"/>
       <c r="AA967" s="2"/>
     </row>
-    <row r="968" spans="1:27" ht="13.2">
+    <row r="968" spans="1:27" ht="13">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="14"/>
@@ -30263,7 +30266,7 @@
       <c r="Z968" s="2"/>
       <c r="AA968" s="2"/>
     </row>
-    <row r="969" spans="1:27" ht="13.2">
+    <row r="969" spans="1:27" ht="13">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="14"/>
@@ -30292,7 +30295,7 @@
       <c r="Z969" s="2"/>
       <c r="AA969" s="2"/>
     </row>
-    <row r="970" spans="1:27" ht="13.2">
+    <row r="970" spans="1:27" ht="13">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="14"/>
@@ -30321,7 +30324,7 @@
       <c r="Z970" s="2"/>
       <c r="AA970" s="2"/>
     </row>
-    <row r="971" spans="1:27" ht="13.2">
+    <row r="971" spans="1:27" ht="13">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="14"/>
@@ -30350,7 +30353,7 @@
       <c r="Z971" s="2"/>
       <c r="AA971" s="2"/>
     </row>
-    <row r="972" spans="1:27" ht="13.2">
+    <row r="972" spans="1:27" ht="13">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="14"/>
@@ -30379,7 +30382,7 @@
       <c r="Z972" s="2"/>
       <c r="AA972" s="2"/>
     </row>
-    <row r="973" spans="1:27" ht="13.2">
+    <row r="973" spans="1:27" ht="13">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="14"/>
@@ -30408,7 +30411,7 @@
       <c r="Z973" s="2"/>
       <c r="AA973" s="2"/>
     </row>
-    <row r="974" spans="1:27" ht="13.2">
+    <row r="974" spans="1:27" ht="13">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="14"/>
@@ -30437,7 +30440,7 @@
       <c r="Z974" s="2"/>
       <c r="AA974" s="2"/>
     </row>
-    <row r="975" spans="1:27" ht="13.2">
+    <row r="975" spans="1:27" ht="13">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="14"/>
@@ -30466,7 +30469,7 @@
       <c r="Z975" s="2"/>
       <c r="AA975" s="2"/>
     </row>
-    <row r="976" spans="1:27" ht="13.2">
+    <row r="976" spans="1:27" ht="13">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="14"/>
@@ -30495,7 +30498,7 @@
       <c r="Z976" s="2"/>
       <c r="AA976" s="2"/>
     </row>
-    <row r="977" spans="1:27" ht="13.2">
+    <row r="977" spans="1:27" ht="13">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="14"/>
@@ -30524,7 +30527,7 @@
       <c r="Z977" s="2"/>
       <c r="AA977" s="2"/>
     </row>
-    <row r="978" spans="1:27" ht="13.2">
+    <row r="978" spans="1:27" ht="13">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="14"/>
@@ -30553,7 +30556,7 @@
       <c r="Z978" s="2"/>
       <c r="AA978" s="2"/>
     </row>
-    <row r="979" spans="1:27" ht="13.2">
+    <row r="979" spans="1:27" ht="13">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="14"/>
@@ -30582,7 +30585,7 @@
       <c r="Z979" s="2"/>
       <c r="AA979" s="2"/>
     </row>
-    <row r="980" spans="1:27" ht="13.2">
+    <row r="980" spans="1:27" ht="13">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="14"/>
@@ -30611,7 +30614,7 @@
       <c r="Z980" s="2"/>
       <c r="AA980" s="2"/>
     </row>
-    <row r="981" spans="1:27" ht="13.2">
+    <row r="981" spans="1:27" ht="13">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="14"/>
@@ -30640,7 +30643,7 @@
       <c r="Z981" s="2"/>
       <c r="AA981" s="2"/>
     </row>
-    <row r="982" spans="1:27" ht="13.2">
+    <row r="982" spans="1:27" ht="13">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="14"/>
@@ -30669,7 +30672,7 @@
       <c r="Z982" s="2"/>
       <c r="AA982" s="2"/>
     </row>
-    <row r="983" spans="1:27" ht="13.2">
+    <row r="983" spans="1:27" ht="13">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="14"/>
@@ -30698,7 +30701,7 @@
       <c r="Z983" s="2"/>
       <c r="AA983" s="2"/>
     </row>
-    <row r="984" spans="1:27" ht="13.2">
+    <row r="984" spans="1:27" ht="13">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="14"/>
@@ -30727,7 +30730,7 @@
       <c r="Z984" s="2"/>
       <c r="AA984" s="2"/>
     </row>
-    <row r="985" spans="1:27" ht="13.2">
+    <row r="985" spans="1:27" ht="13">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="14"/>
@@ -30756,7 +30759,7 @@
       <c r="Z985" s="2"/>
       <c r="AA985" s="2"/>
     </row>
-    <row r="986" spans="1:27" ht="13.2">
+    <row r="986" spans="1:27" ht="13">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="14"/>
@@ -30785,7 +30788,7 @@
       <c r="Z986" s="2"/>
       <c r="AA986" s="2"/>
     </row>
-    <row r="987" spans="1:27" ht="13.2">
+    <row r="987" spans="1:27" ht="13">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="14"/>
@@ -30814,7 +30817,7 @@
       <c r="Z987" s="2"/>
       <c r="AA987" s="2"/>
     </row>
-    <row r="988" spans="1:27" ht="13.2">
+    <row r="988" spans="1:27" ht="13">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="14"/>
@@ -30843,7 +30846,7 @@
       <c r="Z988" s="2"/>
       <c r="AA988" s="2"/>
     </row>
-    <row r="989" spans="1:27" ht="13.2">
+    <row r="989" spans="1:27" ht="13">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="14"/>
@@ -30872,7 +30875,7 @@
       <c r="Z989" s="2"/>
       <c r="AA989" s="2"/>
     </row>
-    <row r="990" spans="1:27" ht="13.2">
+    <row r="990" spans="1:27" ht="13">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="14"/>
@@ -30901,7 +30904,7 @@
       <c r="Z990" s="2"/>
       <c r="AA990" s="2"/>
     </row>
-    <row r="991" spans="1:27" ht="13.2">
+    <row r="991" spans="1:27" ht="13">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="14"/>
@@ -30930,7 +30933,7 @@
       <c r="Z991" s="2"/>
       <c r="AA991" s="2"/>
     </row>
-    <row r="992" spans="1:27" ht="13.2">
+    <row r="992" spans="1:27" ht="13">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="14"/>
@@ -30959,7 +30962,7 @@
       <c r="Z992" s="2"/>
       <c r="AA992" s="2"/>
     </row>
-    <row r="993" spans="1:27" ht="13.2">
+    <row r="993" spans="1:27" ht="13">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="14"/>
@@ -30988,7 +30991,7 @@
       <c r="Z993" s="2"/>
       <c r="AA993" s="2"/>
     </row>
-    <row r="994" spans="1:27" ht="13.2">
+    <row r="994" spans="1:27" ht="13">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="14"/>
@@ -31017,7 +31020,7 @@
       <c r="Z994" s="2"/>
       <c r="AA994" s="2"/>
     </row>
-    <row r="995" spans="1:27" ht="13.2">
+    <row r="995" spans="1:27" ht="13">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="14"/>
@@ -31046,7 +31049,7 @@
       <c r="Z995" s="2"/>
       <c r="AA995" s="2"/>
     </row>
-    <row r="996" spans="1:27" ht="13.2">
+    <row r="996" spans="1:27" ht="13">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="14"/>
@@ -31075,7 +31078,7 @@
       <c r="Z996" s="2"/>
       <c r="AA996" s="2"/>
     </row>
-    <row r="997" spans="1:27" ht="13.2">
+    <row r="997" spans="1:27" ht="13">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="14"/>
@@ -31104,7 +31107,7 @@
       <c r="Z997" s="2"/>
       <c r="AA997" s="2"/>
     </row>
-    <row r="998" spans="1:27" ht="13.2">
+    <row r="998" spans="1:27" ht="13">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="14"/>
@@ -31133,7 +31136,7 @@
       <c r="Z998" s="2"/>
       <c r="AA998" s="2"/>
     </row>
-    <row r="999" spans="1:27" ht="13.2">
+    <row r="999" spans="1:27" ht="13">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="C999" s="14"/>
@@ -31162,7 +31165,7 @@
       <c r="Z999" s="2"/>
       <c r="AA999" s="2"/>
     </row>
-    <row r="1000" spans="1:27" ht="13.2">
+    <row r="1000" spans="1:27" ht="13">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="14"/>
@@ -31191,7 +31194,7 @@
       <c r="Z1000" s="2"/>
       <c r="AA1000" s="2"/>
     </row>
-    <row r="1001" spans="1:27" ht="13.2">
+    <row r="1001" spans="1:27" ht="13">
       <c r="A1001" s="2"/>
       <c r="B1001" s="2"/>
       <c r="C1001" s="14"/>
@@ -31236,9 +31239,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -31362,7 +31365,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
@@ -31461,7 +31464,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
@@ -31520,23 +31523,23 @@
   </sheetPr>
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="127.109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="34" customWidth="1"/>
-    <col min="4" max="4" width="184.5546875" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.21875" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" style="34" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.5546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="127.08984375" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" style="34" customWidth="1"/>
+    <col min="4" max="4" width="184.54296875" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.2265625" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="14.2265625" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.54296875" style="34" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" style="34" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.5546875" style="34"/>
+    <col min="10" max="10" width="15.2265625" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.54296875" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20.25" customHeight="1">
@@ -32058,16 +32061,16 @@
         <v>2024</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>221</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>220</v>
@@ -32111,7 +32114,9 @@
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="H14" s="22" t="s">
+        <v>267</v>
+      </c>
       <c r="I14" s="30" t="s">
         <v>179</v>
       </c>
@@ -32136,7 +32141,7 @@
         <v>104</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H15" s="42" t="s">
         <v>222</v>
@@ -32170,7 +32175,7 @@
     </row>
     <row r="17" spans="1:24" ht="20.25" customHeight="1">
       <c r="A17" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B17" s="30" t="s">
         <v>158</v>
@@ -32202,7 +32207,7 @@
         <v>186</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I18" s="30" t="s">
         <v>163</v>
@@ -32290,7 +32295,7 @@
         <v>2024</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I22" s="30" t="s">
         <v>157</v>
@@ -32307,16 +32312,16 @@
         <v>2024</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
       <c r="I23" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J23" s="30"/>
       <c r="K23" s="30"/>
@@ -32413,20 +32418,20 @@
         <v>226</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C26" s="30">
         <v>2024</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
       <c r="I26" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J26" s="30"/>
       <c r="K26" s="30"/>
@@ -32449,20 +32454,20 @@
         <v>226</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C27" s="30">
         <v>2024</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
       <c r="I27" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
@@ -32485,20 +32490,20 @@
         <v>226</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C28" s="30">
         <v>2024</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E28" s="30"/>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
       <c r="I28" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J28" s="30"/>
       <c r="K28" s="30"/>
@@ -32521,13 +32526,13 @@
         <v>226</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C29" s="30">
         <v>2024</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E29" s="30" t="s">
         <v>178</v>
@@ -57791,9 +57796,10 @@
     <hyperlink ref="E12" r:id="rId7" display="https://journals.sagepub.com/home/jeb" xr:uid="{F248E9F7-08E7-4CAF-9290-0ED6905A9175}"/>
     <hyperlink ref="H13" r:id="rId8" xr:uid="{2CEA1259-3579-4814-B146-A75C21FE5BDD}"/>
     <hyperlink ref="H15" r:id="rId9" xr:uid="{9797778D-90F2-47D4-9323-47BBCF070BF3}"/>
+    <hyperlink ref="H14" r:id="rId10" display="https://doi.org/10.1080/10705511.2024.2402331" xr:uid="{A65D8C01-146C-4C21-B1EC-CECF088D6654}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -57801,11 +57807,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4445EC-8FC5-4E63-800B-686D768A8FCC}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
@@ -57840,7 +57846,7 @@
         <v>2024</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>104</v>
@@ -57851,13 +57857,13 @@
         <v>2024</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8">
+    <row r="6" spans="1:5" ht="13.5">
       <c r="A6" s="46"/>
     </row>
   </sheetData>
@@ -57878,14 +57884,14 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.77734375" customWidth="1"/>
-    <col min="5" max="5" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.76953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.76953125" customWidth="1"/>
+    <col min="5" max="5" width="46.76953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13.2">
+    <row r="1" spans="1:21" ht="13">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -57922,7 +57928,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" ht="13.2">
+    <row r="2" spans="1:21" ht="13">
       <c r="A2" s="2" t="s">
         <v>127</v>
       </c>
@@ -57959,7 +57965,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" ht="13.2">
+    <row r="3" spans="1:21" ht="13">
       <c r="A3" s="2" t="s">
         <v>127</v>
       </c>
@@ -57996,7 +58002,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="13.2">
+    <row r="4" spans="1:21" ht="13">
       <c r="A4" s="2" t="s">
         <v>127</v>
       </c>
@@ -58032,7 +58038,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="13.2">
+    <row r="5" spans="1:21" ht="13">
       <c r="A5" s="2" t="s">
         <v>127</v>
       </c>
@@ -58069,7 +58075,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="13.8">
+    <row r="6" spans="1:21" ht="14.25">
       <c r="A6" s="2" t="s">
         <v>127</v>
       </c>
@@ -58106,7 +58112,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="13.8" thickBot="1">
+    <row r="7" spans="1:21" ht="13.75" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>127</v>
       </c>
@@ -58143,7 +58149,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="13.8" thickBot="1">
+    <row r="8" spans="1:21" ht="13.75" thickBot="1">
       <c r="A8" s="2" t="s">
         <v>127</v>
       </c>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Documents\GitHub\sylcv\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitfolder\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD8E34A-14AB-4C8F-90B0-5C1F70501DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A08052-6E6D-4A65-9960-3C8ABC56BA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6330" yWindow="1095" windowWidth="28545" windowHeight="13245" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="268">
   <si>
     <t>Degree</t>
   </si>
@@ -826,9 +826,6 @@
     <t>Psychological Methods</t>
   </si>
   <si>
-    <t>Submitted</t>
-  </si>
-  <si>
     <t>Invited Reviewer</t>
   </si>
   <si>
@@ -871,7 +868,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]mmmm\-yy;@"/>
+    <numFmt numFmtId="176" formatCode="[$-409]mmmm\-yy;@"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1107,7 +1104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1128,11 +1125,11 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1152,7 +1149,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1182,7 +1179,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1408,15 +1404,15 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="136.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.40625" customWidth="1"/>
+    <col min="3" max="3" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="136.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75">
+    <row r="1" spans="1:5" ht="13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1433,7 +1429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="38.25">
+    <row r="2" spans="1:5" ht="26">
       <c r="A2" s="26" t="s">
         <v>170</v>
       </c>
@@ -1450,7 +1446,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.5" thickBot="1">
+    <row r="3" spans="1:5" ht="13.75" thickBot="1">
       <c r="A3" s="24" t="s">
         <v>139</v>
       </c>
@@ -1500,9 +1496,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="39.140625" customWidth="1"/>
+    <col min="3" max="3" width="39.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1">
@@ -1939,19 +1935,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" customWidth="1"/>
+    <col min="2" max="2" width="27.86328125" customWidth="1"/>
+    <col min="3" max="3" width="23.86328125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.40625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="12.75">
+    <row r="1" spans="1:27" ht="13">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1998,7 +1994,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="12.75">
+    <row r="2" spans="1:27" ht="13">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -2043,7 +2039,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="12.75">
+    <row r="3" spans="1:27" ht="13">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -2088,7 +2084,7 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:27" ht="12.75">
+    <row r="4" spans="1:27" ht="13.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -2176,7 +2172,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:27" ht="12.75">
+    <row r="6" spans="1:27" ht="13">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2219,7 +2215,7 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:27" ht="18">
+    <row r="7" spans="1:27" ht="17.5">
       <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
@@ -2266,7 +2262,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:27" ht="18">
+    <row r="8" spans="1:27" ht="17.5">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
@@ -2311,7 +2307,7 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:27" ht="18">
+    <row r="9" spans="1:27" ht="17.5">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -2356,7 +2352,7 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:27" ht="12.75">
+    <row r="10" spans="1:27" ht="13.25">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -2399,7 +2395,7 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:27" ht="12.75">
+    <row r="11" spans="1:27" ht="13">
       <c r="A11" s="21" t="s">
         <v>40</v>
       </c>
@@ -2522,24 +2518,24 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="1:27" ht="12.75">
+    <row r="14" spans="1:27" ht="13">
       <c r="A14" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="D14" t="s">
+        <v>257</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="F14" s="21" t="s">
         <v>258</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>259</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -2565,24 +2561,24 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="1:27" ht="12.75">
+    <row r="15" spans="1:27" ht="13">
       <c r="A15" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C15" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>261</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -2608,7 +2604,7 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="1:27" ht="12.75">
+    <row r="16" spans="1:27" ht="13">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="14"/>
@@ -2637,7 +2633,7 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
     </row>
-    <row r="17" spans="1:27" ht="12.75">
+    <row r="17" spans="1:27" ht="13">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="14"/>
@@ -2666,7 +2662,7 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
     </row>
-    <row r="18" spans="1:27" ht="12.75">
+    <row r="18" spans="1:27" ht="13">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="14"/>
@@ -2695,7 +2691,7 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="1:27" ht="12.75">
+    <row r="19" spans="1:27" ht="13">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="14"/>
@@ -2724,7 +2720,7 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
-    <row r="20" spans="1:27" ht="12.75">
+    <row r="20" spans="1:27" ht="13">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="14"/>
@@ -2753,7 +2749,7 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21" spans="1:27" ht="12.75">
+    <row r="21" spans="1:27" ht="13">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="14"/>
@@ -2782,7 +2778,7 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
     </row>
-    <row r="22" spans="1:27" ht="12.75">
+    <row r="22" spans="1:27" ht="13">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="14"/>
@@ -2811,7 +2807,7 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" spans="1:27" ht="12.75">
+    <row r="23" spans="1:27" ht="13">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="14"/>
@@ -2840,7 +2836,7 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" spans="1:27" ht="12.75">
+    <row r="24" spans="1:27" ht="13">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="14"/>
@@ -2869,7 +2865,7 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" spans="1:27" ht="12.75">
+    <row r="25" spans="1:27" ht="13">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="14"/>
@@ -2898,7 +2894,7 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
     </row>
-    <row r="26" spans="1:27" ht="12.75">
+    <row r="26" spans="1:27" ht="13">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="14"/>
@@ -2927,7 +2923,7 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" spans="1:27" ht="12.75">
+    <row r="27" spans="1:27" ht="13">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="14"/>
@@ -2956,7 +2952,7 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
     </row>
-    <row r="28" spans="1:27" ht="12.75">
+    <row r="28" spans="1:27" ht="13">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="14"/>
@@ -2985,7 +2981,7 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
     </row>
-    <row r="29" spans="1:27" ht="12.75">
+    <row r="29" spans="1:27" ht="13">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="14"/>
@@ -3014,7 +3010,7 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" spans="1:27" ht="12.75">
+    <row r="30" spans="1:27" ht="13">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="14"/>
@@ -3043,7 +3039,7 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" spans="1:27" ht="12.75">
+    <row r="31" spans="1:27" ht="13">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="14"/>
@@ -3072,7 +3068,7 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
     </row>
-    <row r="32" spans="1:27" ht="12.75">
+    <row r="32" spans="1:27" ht="13">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="14"/>
@@ -3101,7 +3097,7 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="1:27" ht="12.75">
+    <row r="33" spans="1:27" ht="13">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="14"/>
@@ -3130,7 +3126,7 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="1:27" ht="12.75">
+    <row r="34" spans="1:27" ht="13">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="14"/>
@@ -3159,7 +3155,7 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="1:27" ht="12.75">
+    <row r="35" spans="1:27" ht="13">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="14"/>
@@ -3188,7 +3184,7 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
     </row>
-    <row r="36" spans="1:27" ht="12.75">
+    <row r="36" spans="1:27" ht="13">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="14"/>
@@ -3217,7 +3213,7 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
     </row>
-    <row r="37" spans="1:27" ht="12.75">
+    <row r="37" spans="1:27" ht="13">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="14"/>
@@ -3246,7 +3242,7 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
     </row>
-    <row r="38" spans="1:27" ht="12.75">
+    <row r="38" spans="1:27" ht="13">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="14"/>
@@ -3275,7 +3271,7 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
     </row>
-    <row r="39" spans="1:27" ht="12.75">
+    <row r="39" spans="1:27" ht="13">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="14"/>
@@ -3304,7 +3300,7 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
     </row>
-    <row r="40" spans="1:27" ht="12.75">
+    <row r="40" spans="1:27" ht="13">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="14"/>
@@ -3333,7 +3329,7 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="1:27" ht="12.75">
+    <row r="41" spans="1:27" ht="13">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="14"/>
@@ -3362,7 +3358,7 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
     </row>
-    <row r="42" spans="1:27" ht="12.75">
+    <row r="42" spans="1:27" ht="13">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="14"/>
@@ -3391,7 +3387,7 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
     </row>
-    <row r="43" spans="1:27" ht="12.75">
+    <row r="43" spans="1:27" ht="13">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="14"/>
@@ -3420,7 +3416,7 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
     </row>
-    <row r="44" spans="1:27" ht="12.75">
+    <row r="44" spans="1:27" ht="13">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="14"/>
@@ -3449,7 +3445,7 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
     </row>
-    <row r="45" spans="1:27" ht="12.75">
+    <row r="45" spans="1:27" ht="13">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="14"/>
@@ -3478,7 +3474,7 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" spans="1:27" ht="12.75">
+    <row r="46" spans="1:27" ht="13">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="14"/>
@@ -3507,7 +3503,7 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
     </row>
-    <row r="47" spans="1:27" ht="12.75">
+    <row r="47" spans="1:27" ht="13">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="14"/>
@@ -3536,7 +3532,7 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
     </row>
-    <row r="48" spans="1:27" ht="12.75">
+    <row r="48" spans="1:27" ht="13">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="14"/>
@@ -3565,7 +3561,7 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
     </row>
-    <row r="49" spans="1:27" ht="12.75">
+    <row r="49" spans="1:27" ht="13">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="14"/>
@@ -3594,7 +3590,7 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
     </row>
-    <row r="50" spans="1:27" ht="12.75">
+    <row r="50" spans="1:27" ht="13">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="14"/>
@@ -3623,7 +3619,7 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
     </row>
-    <row r="51" spans="1:27" ht="12.75">
+    <row r="51" spans="1:27" ht="13">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="14"/>
@@ -3652,7 +3648,7 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
     </row>
-    <row r="52" spans="1:27" ht="12.75">
+    <row r="52" spans="1:27" ht="13">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="14"/>
@@ -3681,7 +3677,7 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
     </row>
-    <row r="53" spans="1:27" ht="12.75">
+    <row r="53" spans="1:27" ht="13">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="14"/>
@@ -3710,7 +3706,7 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
     </row>
-    <row r="54" spans="1:27" ht="12.75">
+    <row r="54" spans="1:27" ht="13">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="14"/>
@@ -3739,7 +3735,7 @@
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
     </row>
-    <row r="55" spans="1:27" ht="12.75">
+    <row r="55" spans="1:27" ht="13">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="14"/>
@@ -3768,7 +3764,7 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
     </row>
-    <row r="56" spans="1:27" ht="12.75">
+    <row r="56" spans="1:27" ht="13">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="14"/>
@@ -3797,7 +3793,7 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
     </row>
-    <row r="57" spans="1:27" ht="12.75">
+    <row r="57" spans="1:27" ht="13">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="14"/>
@@ -3826,7 +3822,7 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
     </row>
-    <row r="58" spans="1:27" ht="12.75">
+    <row r="58" spans="1:27" ht="13">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="14"/>
@@ -3855,7 +3851,7 @@
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
     </row>
-    <row r="59" spans="1:27" ht="12.75">
+    <row r="59" spans="1:27" ht="13">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="14"/>
@@ -3884,7 +3880,7 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
     </row>
-    <row r="60" spans="1:27" ht="12.75">
+    <row r="60" spans="1:27" ht="13">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="14"/>
@@ -3913,7 +3909,7 @@
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
     </row>
-    <row r="61" spans="1:27" ht="12.75">
+    <row r="61" spans="1:27" ht="13">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="14"/>
@@ -3942,7 +3938,7 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
     </row>
-    <row r="62" spans="1:27" ht="12.75">
+    <row r="62" spans="1:27" ht="13">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="14"/>
@@ -3971,7 +3967,7 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
     </row>
-    <row r="63" spans="1:27" ht="12.75">
+    <row r="63" spans="1:27" ht="13">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="14"/>
@@ -4000,7 +3996,7 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
     </row>
-    <row r="64" spans="1:27" ht="12.75">
+    <row r="64" spans="1:27" ht="13">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="14"/>
@@ -4029,7 +4025,7 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
     </row>
-    <row r="65" spans="1:27" ht="12.75">
+    <row r="65" spans="1:27" ht="13">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="14"/>
@@ -4058,7 +4054,7 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66" spans="1:27" ht="12.75">
+    <row r="66" spans="1:27" ht="13">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="14"/>
@@ -4087,7 +4083,7 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
     </row>
-    <row r="67" spans="1:27" ht="12.75">
+    <row r="67" spans="1:27" ht="13">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="14"/>
@@ -4116,7 +4112,7 @@
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
     </row>
-    <row r="68" spans="1:27" ht="12.75">
+    <row r="68" spans="1:27" ht="13">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="14"/>
@@ -4145,7 +4141,7 @@
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
     </row>
-    <row r="69" spans="1:27" ht="12.75">
+    <row r="69" spans="1:27" ht="13">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="14"/>
@@ -4174,7 +4170,7 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
     </row>
-    <row r="70" spans="1:27" ht="12.75">
+    <row r="70" spans="1:27" ht="13">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="14"/>
@@ -4203,7 +4199,7 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
     </row>
-    <row r="71" spans="1:27" ht="12.75">
+    <row r="71" spans="1:27" ht="13">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="14"/>
@@ -4232,7 +4228,7 @@
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
     </row>
-    <row r="72" spans="1:27" ht="12.75">
+    <row r="72" spans="1:27" ht="13">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="14"/>
@@ -4261,7 +4257,7 @@
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
     </row>
-    <row r="73" spans="1:27" ht="12.75">
+    <row r="73" spans="1:27" ht="13">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="14"/>
@@ -4290,7 +4286,7 @@
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
     </row>
-    <row r="74" spans="1:27" ht="12.75">
+    <row r="74" spans="1:27" ht="13">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="14"/>
@@ -4319,7 +4315,7 @@
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
     </row>
-    <row r="75" spans="1:27" ht="12.75">
+    <row r="75" spans="1:27" ht="13">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="14"/>
@@ -4348,7 +4344,7 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
     </row>
-    <row r="76" spans="1:27" ht="12.75">
+    <row r="76" spans="1:27" ht="13">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="14"/>
@@ -4377,7 +4373,7 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
     </row>
-    <row r="77" spans="1:27" ht="12.75">
+    <row r="77" spans="1:27" ht="13">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="14"/>
@@ -4406,7 +4402,7 @@
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
     </row>
-    <row r="78" spans="1:27" ht="12.75">
+    <row r="78" spans="1:27" ht="13">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="14"/>
@@ -4435,7 +4431,7 @@
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
     </row>
-    <row r="79" spans="1:27" ht="12.75">
+    <row r="79" spans="1:27" ht="13">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="14"/>
@@ -4464,7 +4460,7 @@
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
     </row>
-    <row r="80" spans="1:27" ht="12.75">
+    <row r="80" spans="1:27" ht="13">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="14"/>
@@ -4493,7 +4489,7 @@
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
     </row>
-    <row r="81" spans="1:27" ht="12.75">
+    <row r="81" spans="1:27" ht="13">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="14"/>
@@ -4522,7 +4518,7 @@
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
     </row>
-    <row r="82" spans="1:27" ht="12.75">
+    <row r="82" spans="1:27" ht="13">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="14"/>
@@ -4551,7 +4547,7 @@
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
     </row>
-    <row r="83" spans="1:27" ht="12.75">
+    <row r="83" spans="1:27" ht="13">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="14"/>
@@ -4580,7 +4576,7 @@
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
     </row>
-    <row r="84" spans="1:27" ht="12.75">
+    <row r="84" spans="1:27" ht="13">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="14"/>
@@ -4609,7 +4605,7 @@
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
     </row>
-    <row r="85" spans="1:27" ht="12.75">
+    <row r="85" spans="1:27" ht="13">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="14"/>
@@ -4638,7 +4634,7 @@
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
     </row>
-    <row r="86" spans="1:27" ht="12.75">
+    <row r="86" spans="1:27" ht="13">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="14"/>
@@ -4667,7 +4663,7 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
     </row>
-    <row r="87" spans="1:27" ht="12.75">
+    <row r="87" spans="1:27" ht="13">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="14"/>
@@ -4696,7 +4692,7 @@
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
     </row>
-    <row r="88" spans="1:27" ht="12.75">
+    <row r="88" spans="1:27" ht="13">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="14"/>
@@ -4725,7 +4721,7 @@
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
     </row>
-    <row r="89" spans="1:27" ht="12.75">
+    <row r="89" spans="1:27" ht="13">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="14"/>
@@ -4754,7 +4750,7 @@
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
     </row>
-    <row r="90" spans="1:27" ht="12.75">
+    <row r="90" spans="1:27" ht="13">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="14"/>
@@ -4783,7 +4779,7 @@
       <c r="Z90" s="2"/>
       <c r="AA90" s="2"/>
     </row>
-    <row r="91" spans="1:27" ht="12.75">
+    <row r="91" spans="1:27" ht="13">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="14"/>
@@ -4812,7 +4808,7 @@
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
     </row>
-    <row r="92" spans="1:27" ht="12.75">
+    <row r="92" spans="1:27" ht="13">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="14"/>
@@ -4841,7 +4837,7 @@
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
     </row>
-    <row r="93" spans="1:27" ht="12.75">
+    <row r="93" spans="1:27" ht="13">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="14"/>
@@ -4870,7 +4866,7 @@
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
     </row>
-    <row r="94" spans="1:27" ht="12.75">
+    <row r="94" spans="1:27" ht="13">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="14"/>
@@ -4899,7 +4895,7 @@
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
     </row>
-    <row r="95" spans="1:27" ht="12.75">
+    <row r="95" spans="1:27" ht="13">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="14"/>
@@ -4928,7 +4924,7 @@
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
     </row>
-    <row r="96" spans="1:27" ht="12.75">
+    <row r="96" spans="1:27" ht="13">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="14"/>
@@ -4957,7 +4953,7 @@
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
     </row>
-    <row r="97" spans="1:27" ht="12.75">
+    <row r="97" spans="1:27" ht="13">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="14"/>
@@ -4986,7 +4982,7 @@
       <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
     </row>
-    <row r="98" spans="1:27" ht="12.75">
+    <row r="98" spans="1:27" ht="13">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="14"/>
@@ -5015,7 +5011,7 @@
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
     </row>
-    <row r="99" spans="1:27" ht="12.75">
+    <row r="99" spans="1:27" ht="13">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="14"/>
@@ -5044,7 +5040,7 @@
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
     </row>
-    <row r="100" spans="1:27" ht="12.75">
+    <row r="100" spans="1:27" ht="13">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="14"/>
@@ -5073,7 +5069,7 @@
       <c r="Z100" s="2"/>
       <c r="AA100" s="2"/>
     </row>
-    <row r="101" spans="1:27" ht="12.75">
+    <row r="101" spans="1:27" ht="13">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="14"/>
@@ -5102,7 +5098,7 @@
       <c r="Z101" s="2"/>
       <c r="AA101" s="2"/>
     </row>
-    <row r="102" spans="1:27" ht="12.75">
+    <row r="102" spans="1:27" ht="13">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="14"/>
@@ -5131,7 +5127,7 @@
       <c r="Z102" s="2"/>
       <c r="AA102" s="2"/>
     </row>
-    <row r="103" spans="1:27" ht="12.75">
+    <row r="103" spans="1:27" ht="13">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="14"/>
@@ -5160,7 +5156,7 @@
       <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
     </row>
-    <row r="104" spans="1:27" ht="12.75">
+    <row r="104" spans="1:27" ht="13">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="14"/>
@@ -5189,7 +5185,7 @@
       <c r="Z104" s="2"/>
       <c r="AA104" s="2"/>
     </row>
-    <row r="105" spans="1:27" ht="12.75">
+    <row r="105" spans="1:27" ht="13">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="14"/>
@@ -5218,7 +5214,7 @@
       <c r="Z105" s="2"/>
       <c r="AA105" s="2"/>
     </row>
-    <row r="106" spans="1:27" ht="12.75">
+    <row r="106" spans="1:27" ht="13">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="14"/>
@@ -5247,7 +5243,7 @@
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
     </row>
-    <row r="107" spans="1:27" ht="12.75">
+    <row r="107" spans="1:27" ht="13">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="14"/>
@@ -5276,7 +5272,7 @@
       <c r="Z107" s="2"/>
       <c r="AA107" s="2"/>
     </row>
-    <row r="108" spans="1:27" ht="12.75">
+    <row r="108" spans="1:27" ht="13">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="14"/>
@@ -5305,7 +5301,7 @@
       <c r="Z108" s="2"/>
       <c r="AA108" s="2"/>
     </row>
-    <row r="109" spans="1:27" ht="12.75">
+    <row r="109" spans="1:27" ht="13">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="14"/>
@@ -5334,7 +5330,7 @@
       <c r="Z109" s="2"/>
       <c r="AA109" s="2"/>
     </row>
-    <row r="110" spans="1:27" ht="12.75">
+    <row r="110" spans="1:27" ht="13">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="14"/>
@@ -5363,7 +5359,7 @@
       <c r="Z110" s="2"/>
       <c r="AA110" s="2"/>
     </row>
-    <row r="111" spans="1:27" ht="12.75">
+    <row r="111" spans="1:27" ht="13">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="14"/>
@@ -5392,7 +5388,7 @@
       <c r="Z111" s="2"/>
       <c r="AA111" s="2"/>
     </row>
-    <row r="112" spans="1:27" ht="12.75">
+    <row r="112" spans="1:27" ht="13">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="14"/>
@@ -5421,7 +5417,7 @@
       <c r="Z112" s="2"/>
       <c r="AA112" s="2"/>
     </row>
-    <row r="113" spans="1:27" ht="12.75">
+    <row r="113" spans="1:27" ht="13">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="14"/>
@@ -5450,7 +5446,7 @@
       <c r="Z113" s="2"/>
       <c r="AA113" s="2"/>
     </row>
-    <row r="114" spans="1:27" ht="12.75">
+    <row r="114" spans="1:27" ht="13">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="14"/>
@@ -5479,7 +5475,7 @@
       <c r="Z114" s="2"/>
       <c r="AA114" s="2"/>
     </row>
-    <row r="115" spans="1:27" ht="12.75">
+    <row r="115" spans="1:27" ht="13">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="14"/>
@@ -5508,7 +5504,7 @@
       <c r="Z115" s="2"/>
       <c r="AA115" s="2"/>
     </row>
-    <row r="116" spans="1:27" ht="12.75">
+    <row r="116" spans="1:27" ht="13">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="14"/>
@@ -5537,7 +5533,7 @@
       <c r="Z116" s="2"/>
       <c r="AA116" s="2"/>
     </row>
-    <row r="117" spans="1:27" ht="12.75">
+    <row r="117" spans="1:27" ht="13">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="14"/>
@@ -5566,7 +5562,7 @@
       <c r="Z117" s="2"/>
       <c r="AA117" s="2"/>
     </row>
-    <row r="118" spans="1:27" ht="12.75">
+    <row r="118" spans="1:27" ht="13">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="14"/>
@@ -5595,7 +5591,7 @@
       <c r="Z118" s="2"/>
       <c r="AA118" s="2"/>
     </row>
-    <row r="119" spans="1:27" ht="12.75">
+    <row r="119" spans="1:27" ht="13">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="14"/>
@@ -5624,7 +5620,7 @@
       <c r="Z119" s="2"/>
       <c r="AA119" s="2"/>
     </row>
-    <row r="120" spans="1:27" ht="12.75">
+    <row r="120" spans="1:27" ht="13">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="14"/>
@@ -5653,7 +5649,7 @@
       <c r="Z120" s="2"/>
       <c r="AA120" s="2"/>
     </row>
-    <row r="121" spans="1:27" ht="12.75">
+    <row r="121" spans="1:27" ht="13">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="14"/>
@@ -5682,7 +5678,7 @@
       <c r="Z121" s="2"/>
       <c r="AA121" s="2"/>
     </row>
-    <row r="122" spans="1:27" ht="12.75">
+    <row r="122" spans="1:27" ht="13">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="14"/>
@@ -5711,7 +5707,7 @@
       <c r="Z122" s="2"/>
       <c r="AA122" s="2"/>
     </row>
-    <row r="123" spans="1:27" ht="12.75">
+    <row r="123" spans="1:27" ht="13">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="14"/>
@@ -5740,7 +5736,7 @@
       <c r="Z123" s="2"/>
       <c r="AA123" s="2"/>
     </row>
-    <row r="124" spans="1:27" ht="12.75">
+    <row r="124" spans="1:27" ht="13">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="14"/>
@@ -5769,7 +5765,7 @@
       <c r="Z124" s="2"/>
       <c r="AA124" s="2"/>
     </row>
-    <row r="125" spans="1:27" ht="12.75">
+    <row r="125" spans="1:27" ht="13">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="14"/>
@@ -5798,7 +5794,7 @@
       <c r="Z125" s="2"/>
       <c r="AA125" s="2"/>
     </row>
-    <row r="126" spans="1:27" ht="12.75">
+    <row r="126" spans="1:27" ht="13">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="14"/>
@@ -5827,7 +5823,7 @@
       <c r="Z126" s="2"/>
       <c r="AA126" s="2"/>
     </row>
-    <row r="127" spans="1:27" ht="12.75">
+    <row r="127" spans="1:27" ht="13">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="14"/>
@@ -5856,7 +5852,7 @@
       <c r="Z127" s="2"/>
       <c r="AA127" s="2"/>
     </row>
-    <row r="128" spans="1:27" ht="12.75">
+    <row r="128" spans="1:27" ht="13">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="14"/>
@@ -5885,7 +5881,7 @@
       <c r="Z128" s="2"/>
       <c r="AA128" s="2"/>
     </row>
-    <row r="129" spans="1:27" ht="12.75">
+    <row r="129" spans="1:27" ht="13">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="14"/>
@@ -5914,7 +5910,7 @@
       <c r="Z129" s="2"/>
       <c r="AA129" s="2"/>
     </row>
-    <row r="130" spans="1:27" ht="12.75">
+    <row r="130" spans="1:27" ht="13">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="14"/>
@@ -5943,7 +5939,7 @@
       <c r="Z130" s="2"/>
       <c r="AA130" s="2"/>
     </row>
-    <row r="131" spans="1:27" ht="12.75">
+    <row r="131" spans="1:27" ht="13">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="14"/>
@@ -5972,7 +5968,7 @@
       <c r="Z131" s="2"/>
       <c r="AA131" s="2"/>
     </row>
-    <row r="132" spans="1:27" ht="12.75">
+    <row r="132" spans="1:27" ht="13">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="14"/>
@@ -6001,7 +5997,7 @@
       <c r="Z132" s="2"/>
       <c r="AA132" s="2"/>
     </row>
-    <row r="133" spans="1:27" ht="12.75">
+    <row r="133" spans="1:27" ht="13">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="14"/>
@@ -6030,7 +6026,7 @@
       <c r="Z133" s="2"/>
       <c r="AA133" s="2"/>
     </row>
-    <row r="134" spans="1:27" ht="12.75">
+    <row r="134" spans="1:27" ht="13">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="14"/>
@@ -6059,7 +6055,7 @@
       <c r="Z134" s="2"/>
       <c r="AA134" s="2"/>
     </row>
-    <row r="135" spans="1:27" ht="12.75">
+    <row r="135" spans="1:27" ht="13">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="14"/>
@@ -6088,7 +6084,7 @@
       <c r="Z135" s="2"/>
       <c r="AA135" s="2"/>
     </row>
-    <row r="136" spans="1:27" ht="12.75">
+    <row r="136" spans="1:27" ht="13">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="14"/>
@@ -6117,7 +6113,7 @@
       <c r="Z136" s="2"/>
       <c r="AA136" s="2"/>
     </row>
-    <row r="137" spans="1:27" ht="12.75">
+    <row r="137" spans="1:27" ht="13">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="14"/>
@@ -6146,7 +6142,7 @@
       <c r="Z137" s="2"/>
       <c r="AA137" s="2"/>
     </row>
-    <row r="138" spans="1:27" ht="12.75">
+    <row r="138" spans="1:27" ht="13">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="14"/>
@@ -6175,7 +6171,7 @@
       <c r="Z138" s="2"/>
       <c r="AA138" s="2"/>
     </row>
-    <row r="139" spans="1:27" ht="12.75">
+    <row r="139" spans="1:27" ht="13">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="14"/>
@@ -6204,7 +6200,7 @@
       <c r="Z139" s="2"/>
       <c r="AA139" s="2"/>
     </row>
-    <row r="140" spans="1:27" ht="12.75">
+    <row r="140" spans="1:27" ht="13">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="14"/>
@@ -6233,7 +6229,7 @@
       <c r="Z140" s="2"/>
       <c r="AA140" s="2"/>
     </row>
-    <row r="141" spans="1:27" ht="12.75">
+    <row r="141" spans="1:27" ht="13">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="14"/>
@@ -6262,7 +6258,7 @@
       <c r="Z141" s="2"/>
       <c r="AA141" s="2"/>
     </row>
-    <row r="142" spans="1:27" ht="12.75">
+    <row r="142" spans="1:27" ht="13">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="14"/>
@@ -6291,7 +6287,7 @@
       <c r="Z142" s="2"/>
       <c r="AA142" s="2"/>
     </row>
-    <row r="143" spans="1:27" ht="12.75">
+    <row r="143" spans="1:27" ht="13">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="14"/>
@@ -6320,7 +6316,7 @@
       <c r="Z143" s="2"/>
       <c r="AA143" s="2"/>
     </row>
-    <row r="144" spans="1:27" ht="12.75">
+    <row r="144" spans="1:27" ht="13">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="14"/>
@@ -6349,7 +6345,7 @@
       <c r="Z144" s="2"/>
       <c r="AA144" s="2"/>
     </row>
-    <row r="145" spans="1:27" ht="12.75">
+    <row r="145" spans="1:27" ht="13">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="14"/>
@@ -6378,7 +6374,7 @@
       <c r="Z145" s="2"/>
       <c r="AA145" s="2"/>
     </row>
-    <row r="146" spans="1:27" ht="12.75">
+    <row r="146" spans="1:27" ht="13">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="14"/>
@@ -6407,7 +6403,7 @@
       <c r="Z146" s="2"/>
       <c r="AA146" s="2"/>
     </row>
-    <row r="147" spans="1:27" ht="12.75">
+    <row r="147" spans="1:27" ht="13">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="14"/>
@@ -6436,7 +6432,7 @@
       <c r="Z147" s="2"/>
       <c r="AA147" s="2"/>
     </row>
-    <row r="148" spans="1:27" ht="12.75">
+    <row r="148" spans="1:27" ht="13">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="14"/>
@@ -6465,7 +6461,7 @@
       <c r="Z148" s="2"/>
       <c r="AA148" s="2"/>
     </row>
-    <row r="149" spans="1:27" ht="12.75">
+    <row r="149" spans="1:27" ht="13">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="14"/>
@@ -6494,7 +6490,7 @@
       <c r="Z149" s="2"/>
       <c r="AA149" s="2"/>
     </row>
-    <row r="150" spans="1:27" ht="12.75">
+    <row r="150" spans="1:27" ht="13">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="14"/>
@@ -6523,7 +6519,7 @@
       <c r="Z150" s="2"/>
       <c r="AA150" s="2"/>
     </row>
-    <row r="151" spans="1:27" ht="12.75">
+    <row r="151" spans="1:27" ht="13">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="14"/>
@@ -6552,7 +6548,7 @@
       <c r="Z151" s="2"/>
       <c r="AA151" s="2"/>
     </row>
-    <row r="152" spans="1:27" ht="12.75">
+    <row r="152" spans="1:27" ht="13">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="14"/>
@@ -6581,7 +6577,7 @@
       <c r="Z152" s="2"/>
       <c r="AA152" s="2"/>
     </row>
-    <row r="153" spans="1:27" ht="12.75">
+    <row r="153" spans="1:27" ht="13">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="14"/>
@@ -6610,7 +6606,7 @@
       <c r="Z153" s="2"/>
       <c r="AA153" s="2"/>
     </row>
-    <row r="154" spans="1:27" ht="12.75">
+    <row r="154" spans="1:27" ht="13">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="14"/>
@@ -6639,7 +6635,7 @@
       <c r="Z154" s="2"/>
       <c r="AA154" s="2"/>
     </row>
-    <row r="155" spans="1:27" ht="12.75">
+    <row r="155" spans="1:27" ht="13">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="14"/>
@@ -6668,7 +6664,7 @@
       <c r="Z155" s="2"/>
       <c r="AA155" s="2"/>
     </row>
-    <row r="156" spans="1:27" ht="12.75">
+    <row r="156" spans="1:27" ht="13">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="14"/>
@@ -6697,7 +6693,7 @@
       <c r="Z156" s="2"/>
       <c r="AA156" s="2"/>
     </row>
-    <row r="157" spans="1:27" ht="12.75">
+    <row r="157" spans="1:27" ht="13">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="14"/>
@@ -6726,7 +6722,7 @@
       <c r="Z157" s="2"/>
       <c r="AA157" s="2"/>
     </row>
-    <row r="158" spans="1:27" ht="12.75">
+    <row r="158" spans="1:27" ht="13">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="14"/>
@@ -6755,7 +6751,7 @@
       <c r="Z158" s="2"/>
       <c r="AA158" s="2"/>
     </row>
-    <row r="159" spans="1:27" ht="12.75">
+    <row r="159" spans="1:27" ht="13">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="14"/>
@@ -6784,7 +6780,7 @@
       <c r="Z159" s="2"/>
       <c r="AA159" s="2"/>
     </row>
-    <row r="160" spans="1:27" ht="12.75">
+    <row r="160" spans="1:27" ht="13">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="14"/>
@@ -6813,7 +6809,7 @@
       <c r="Z160" s="2"/>
       <c r="AA160" s="2"/>
     </row>
-    <row r="161" spans="1:27" ht="12.75">
+    <row r="161" spans="1:27" ht="13">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="14"/>
@@ -6842,7 +6838,7 @@
       <c r="Z161" s="2"/>
       <c r="AA161" s="2"/>
     </row>
-    <row r="162" spans="1:27" ht="12.75">
+    <row r="162" spans="1:27" ht="13">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="14"/>
@@ -6871,7 +6867,7 @@
       <c r="Z162" s="2"/>
       <c r="AA162" s="2"/>
     </row>
-    <row r="163" spans="1:27" ht="12.75">
+    <row r="163" spans="1:27" ht="13">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="14"/>
@@ -6900,7 +6896,7 @@
       <c r="Z163" s="2"/>
       <c r="AA163" s="2"/>
     </row>
-    <row r="164" spans="1:27" ht="12.75">
+    <row r="164" spans="1:27" ht="13">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="14"/>
@@ -6929,7 +6925,7 @@
       <c r="Z164" s="2"/>
       <c r="AA164" s="2"/>
     </row>
-    <row r="165" spans="1:27" ht="12.75">
+    <row r="165" spans="1:27" ht="13">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="14"/>
@@ -6958,7 +6954,7 @@
       <c r="Z165" s="2"/>
       <c r="AA165" s="2"/>
     </row>
-    <row r="166" spans="1:27" ht="12.75">
+    <row r="166" spans="1:27" ht="13">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="14"/>
@@ -6987,7 +6983,7 @@
       <c r="Z166" s="2"/>
       <c r="AA166" s="2"/>
     </row>
-    <row r="167" spans="1:27" ht="12.75">
+    <row r="167" spans="1:27" ht="13">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="14"/>
@@ -7016,7 +7012,7 @@
       <c r="Z167" s="2"/>
       <c r="AA167" s="2"/>
     </row>
-    <row r="168" spans="1:27" ht="12.75">
+    <row r="168" spans="1:27" ht="13">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="14"/>
@@ -7045,7 +7041,7 @@
       <c r="Z168" s="2"/>
       <c r="AA168" s="2"/>
     </row>
-    <row r="169" spans="1:27" ht="12.75">
+    <row r="169" spans="1:27" ht="13">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="14"/>
@@ -7074,7 +7070,7 @@
       <c r="Z169" s="2"/>
       <c r="AA169" s="2"/>
     </row>
-    <row r="170" spans="1:27" ht="12.75">
+    <row r="170" spans="1:27" ht="13">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="14"/>
@@ -7103,7 +7099,7 @@
       <c r="Z170" s="2"/>
       <c r="AA170" s="2"/>
     </row>
-    <row r="171" spans="1:27" ht="12.75">
+    <row r="171" spans="1:27" ht="13">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="14"/>
@@ -7132,7 +7128,7 @@
       <c r="Z171" s="2"/>
       <c r="AA171" s="2"/>
     </row>
-    <row r="172" spans="1:27" ht="12.75">
+    <row r="172" spans="1:27" ht="13">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="14"/>
@@ -7161,7 +7157,7 @@
       <c r="Z172" s="2"/>
       <c r="AA172" s="2"/>
     </row>
-    <row r="173" spans="1:27" ht="12.75">
+    <row r="173" spans="1:27" ht="13">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="14"/>
@@ -7190,7 +7186,7 @@
       <c r="Z173" s="2"/>
       <c r="AA173" s="2"/>
     </row>
-    <row r="174" spans="1:27" ht="12.75">
+    <row r="174" spans="1:27" ht="13">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="14"/>
@@ -7219,7 +7215,7 @@
       <c r="Z174" s="2"/>
       <c r="AA174" s="2"/>
     </row>
-    <row r="175" spans="1:27" ht="12.75">
+    <row r="175" spans="1:27" ht="13">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="14"/>
@@ -7248,7 +7244,7 @@
       <c r="Z175" s="2"/>
       <c r="AA175" s="2"/>
     </row>
-    <row r="176" spans="1:27" ht="12.75">
+    <row r="176" spans="1:27" ht="13">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="14"/>
@@ -7277,7 +7273,7 @@
       <c r="Z176" s="2"/>
       <c r="AA176" s="2"/>
     </row>
-    <row r="177" spans="1:27" ht="12.75">
+    <row r="177" spans="1:27" ht="13">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="14"/>
@@ -7306,7 +7302,7 @@
       <c r="Z177" s="2"/>
       <c r="AA177" s="2"/>
     </row>
-    <row r="178" spans="1:27" ht="12.75">
+    <row r="178" spans="1:27" ht="13">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="14"/>
@@ -7335,7 +7331,7 @@
       <c r="Z178" s="2"/>
       <c r="AA178" s="2"/>
     </row>
-    <row r="179" spans="1:27" ht="12.75">
+    <row r="179" spans="1:27" ht="13">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="14"/>
@@ -7364,7 +7360,7 @@
       <c r="Z179" s="2"/>
       <c r="AA179" s="2"/>
     </row>
-    <row r="180" spans="1:27" ht="12.75">
+    <row r="180" spans="1:27" ht="13">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="14"/>
@@ -7393,7 +7389,7 @@
       <c r="Z180" s="2"/>
       <c r="AA180" s="2"/>
     </row>
-    <row r="181" spans="1:27" ht="12.75">
+    <row r="181" spans="1:27" ht="13">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="14"/>
@@ -7422,7 +7418,7 @@
       <c r="Z181" s="2"/>
       <c r="AA181" s="2"/>
     </row>
-    <row r="182" spans="1:27" ht="12.75">
+    <row r="182" spans="1:27" ht="13">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="14"/>
@@ -7451,7 +7447,7 @@
       <c r="Z182" s="2"/>
       <c r="AA182" s="2"/>
     </row>
-    <row r="183" spans="1:27" ht="12.75">
+    <row r="183" spans="1:27" ht="13">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="14"/>
@@ -7480,7 +7476,7 @@
       <c r="Z183" s="2"/>
       <c r="AA183" s="2"/>
     </row>
-    <row r="184" spans="1:27" ht="12.75">
+    <row r="184" spans="1:27" ht="13">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="14"/>
@@ -7509,7 +7505,7 @@
       <c r="Z184" s="2"/>
       <c r="AA184" s="2"/>
     </row>
-    <row r="185" spans="1:27" ht="12.75">
+    <row r="185" spans="1:27" ht="13">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="14"/>
@@ -7538,7 +7534,7 @@
       <c r="Z185" s="2"/>
       <c r="AA185" s="2"/>
     </row>
-    <row r="186" spans="1:27" ht="12.75">
+    <row r="186" spans="1:27" ht="13">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="14"/>
@@ -7567,7 +7563,7 @@
       <c r="Z186" s="2"/>
       <c r="AA186" s="2"/>
     </row>
-    <row r="187" spans="1:27" ht="12.75">
+    <row r="187" spans="1:27" ht="13">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="14"/>
@@ -7596,7 +7592,7 @@
       <c r="Z187" s="2"/>
       <c r="AA187" s="2"/>
     </row>
-    <row r="188" spans="1:27" ht="12.75">
+    <row r="188" spans="1:27" ht="13">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="14"/>
@@ -7625,7 +7621,7 @@
       <c r="Z188" s="2"/>
       <c r="AA188" s="2"/>
     </row>
-    <row r="189" spans="1:27" ht="12.75">
+    <row r="189" spans="1:27" ht="13">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="14"/>
@@ -7654,7 +7650,7 @@
       <c r="Z189" s="2"/>
       <c r="AA189" s="2"/>
     </row>
-    <row r="190" spans="1:27" ht="12.75">
+    <row r="190" spans="1:27" ht="13">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="14"/>
@@ -7683,7 +7679,7 @@
       <c r="Z190" s="2"/>
       <c r="AA190" s="2"/>
     </row>
-    <row r="191" spans="1:27" ht="12.75">
+    <row r="191" spans="1:27" ht="13">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="14"/>
@@ -7712,7 +7708,7 @@
       <c r="Z191" s="2"/>
       <c r="AA191" s="2"/>
     </row>
-    <row r="192" spans="1:27" ht="12.75">
+    <row r="192" spans="1:27" ht="13">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="14"/>
@@ -7741,7 +7737,7 @@
       <c r="Z192" s="2"/>
       <c r="AA192" s="2"/>
     </row>
-    <row r="193" spans="1:27" ht="12.75">
+    <row r="193" spans="1:27" ht="13">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="14"/>
@@ -7770,7 +7766,7 @@
       <c r="Z193" s="2"/>
       <c r="AA193" s="2"/>
     </row>
-    <row r="194" spans="1:27" ht="12.75">
+    <row r="194" spans="1:27" ht="13">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="14"/>
@@ -7799,7 +7795,7 @@
       <c r="Z194" s="2"/>
       <c r="AA194" s="2"/>
     </row>
-    <row r="195" spans="1:27" ht="12.75">
+    <row r="195" spans="1:27" ht="13">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="14"/>
@@ -7828,7 +7824,7 @@
       <c r="Z195" s="2"/>
       <c r="AA195" s="2"/>
     </row>
-    <row r="196" spans="1:27" ht="12.75">
+    <row r="196" spans="1:27" ht="13">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="14"/>
@@ -7857,7 +7853,7 @@
       <c r="Z196" s="2"/>
       <c r="AA196" s="2"/>
     </row>
-    <row r="197" spans="1:27" ht="12.75">
+    <row r="197" spans="1:27" ht="13">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="14"/>
@@ -7886,7 +7882,7 @@
       <c r="Z197" s="2"/>
       <c r="AA197" s="2"/>
     </row>
-    <row r="198" spans="1:27" ht="12.75">
+    <row r="198" spans="1:27" ht="13">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="14"/>
@@ -7915,7 +7911,7 @@
       <c r="Z198" s="2"/>
       <c r="AA198" s="2"/>
     </row>
-    <row r="199" spans="1:27" ht="12.75">
+    <row r="199" spans="1:27" ht="13">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="14"/>
@@ -7944,7 +7940,7 @@
       <c r="Z199" s="2"/>
       <c r="AA199" s="2"/>
     </row>
-    <row r="200" spans="1:27" ht="12.75">
+    <row r="200" spans="1:27" ht="13">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="14"/>
@@ -7973,7 +7969,7 @@
       <c r="Z200" s="2"/>
       <c r="AA200" s="2"/>
     </row>
-    <row r="201" spans="1:27" ht="12.75">
+    <row r="201" spans="1:27" ht="13">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="14"/>
@@ -8002,7 +7998,7 @@
       <c r="Z201" s="2"/>
       <c r="AA201" s="2"/>
     </row>
-    <row r="202" spans="1:27" ht="12.75">
+    <row r="202" spans="1:27" ht="13">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="14"/>
@@ -8031,7 +8027,7 @@
       <c r="Z202" s="2"/>
       <c r="AA202" s="2"/>
     </row>
-    <row r="203" spans="1:27" ht="12.75">
+    <row r="203" spans="1:27" ht="13">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="14"/>
@@ -8060,7 +8056,7 @@
       <c r="Z203" s="2"/>
       <c r="AA203" s="2"/>
     </row>
-    <row r="204" spans="1:27" ht="12.75">
+    <row r="204" spans="1:27" ht="13">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="14"/>
@@ -8089,7 +8085,7 @@
       <c r="Z204" s="2"/>
       <c r="AA204" s="2"/>
     </row>
-    <row r="205" spans="1:27" ht="12.75">
+    <row r="205" spans="1:27" ht="13">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="14"/>
@@ -8118,7 +8114,7 @@
       <c r="Z205" s="2"/>
       <c r="AA205" s="2"/>
     </row>
-    <row r="206" spans="1:27" ht="12.75">
+    <row r="206" spans="1:27" ht="13">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="14"/>
@@ -8147,7 +8143,7 @@
       <c r="Z206" s="2"/>
       <c r="AA206" s="2"/>
     </row>
-    <row r="207" spans="1:27" ht="12.75">
+    <row r="207" spans="1:27" ht="13">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="14"/>
@@ -8176,7 +8172,7 @@
       <c r="Z207" s="2"/>
       <c r="AA207" s="2"/>
     </row>
-    <row r="208" spans="1:27" ht="12.75">
+    <row r="208" spans="1:27" ht="13">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="14"/>
@@ -8205,7 +8201,7 @@
       <c r="Z208" s="2"/>
       <c r="AA208" s="2"/>
     </row>
-    <row r="209" spans="1:27" ht="12.75">
+    <row r="209" spans="1:27" ht="13">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="14"/>
@@ -8234,7 +8230,7 @@
       <c r="Z209" s="2"/>
       <c r="AA209" s="2"/>
     </row>
-    <row r="210" spans="1:27" ht="12.75">
+    <row r="210" spans="1:27" ht="13">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="14"/>
@@ -8263,7 +8259,7 @@
       <c r="Z210" s="2"/>
       <c r="AA210" s="2"/>
     </row>
-    <row r="211" spans="1:27" ht="12.75">
+    <row r="211" spans="1:27" ht="13">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="14"/>
@@ -8292,7 +8288,7 @@
       <c r="Z211" s="2"/>
       <c r="AA211" s="2"/>
     </row>
-    <row r="212" spans="1:27" ht="12.75">
+    <row r="212" spans="1:27" ht="13">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="14"/>
@@ -8321,7 +8317,7 @@
       <c r="Z212" s="2"/>
       <c r="AA212" s="2"/>
     </row>
-    <row r="213" spans="1:27" ht="12.75">
+    <row r="213" spans="1:27" ht="13">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="14"/>
@@ -8350,7 +8346,7 @@
       <c r="Z213" s="2"/>
       <c r="AA213" s="2"/>
     </row>
-    <row r="214" spans="1:27" ht="12.75">
+    <row r="214" spans="1:27" ht="13">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="14"/>
@@ -8379,7 +8375,7 @@
       <c r="Z214" s="2"/>
       <c r="AA214" s="2"/>
     </row>
-    <row r="215" spans="1:27" ht="12.75">
+    <row r="215" spans="1:27" ht="13">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="14"/>
@@ -8408,7 +8404,7 @@
       <c r="Z215" s="2"/>
       <c r="AA215" s="2"/>
     </row>
-    <row r="216" spans="1:27" ht="12.75">
+    <row r="216" spans="1:27" ht="13">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="14"/>
@@ -8437,7 +8433,7 @@
       <c r="Z216" s="2"/>
       <c r="AA216" s="2"/>
     </row>
-    <row r="217" spans="1:27" ht="12.75">
+    <row r="217" spans="1:27" ht="13">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="14"/>
@@ -8466,7 +8462,7 @@
       <c r="Z217" s="2"/>
       <c r="AA217" s="2"/>
     </row>
-    <row r="218" spans="1:27" ht="12.75">
+    <row r="218" spans="1:27" ht="13">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="14"/>
@@ -8495,7 +8491,7 @@
       <c r="Z218" s="2"/>
       <c r="AA218" s="2"/>
     </row>
-    <row r="219" spans="1:27" ht="12.75">
+    <row r="219" spans="1:27" ht="13">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="14"/>
@@ -8524,7 +8520,7 @@
       <c r="Z219" s="2"/>
       <c r="AA219" s="2"/>
     </row>
-    <row r="220" spans="1:27" ht="12.75">
+    <row r="220" spans="1:27" ht="13">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="14"/>
@@ -8553,7 +8549,7 @@
       <c r="Z220" s="2"/>
       <c r="AA220" s="2"/>
     </row>
-    <row r="221" spans="1:27" ht="12.75">
+    <row r="221" spans="1:27" ht="13">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="14"/>
@@ -8582,7 +8578,7 @@
       <c r="Z221" s="2"/>
       <c r="AA221" s="2"/>
     </row>
-    <row r="222" spans="1:27" ht="12.75">
+    <row r="222" spans="1:27" ht="13">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="14"/>
@@ -8611,7 +8607,7 @@
       <c r="Z222" s="2"/>
       <c r="AA222" s="2"/>
     </row>
-    <row r="223" spans="1:27" ht="12.75">
+    <row r="223" spans="1:27" ht="13">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="14"/>
@@ -8640,7 +8636,7 @@
       <c r="Z223" s="2"/>
       <c r="AA223" s="2"/>
     </row>
-    <row r="224" spans="1:27" ht="12.75">
+    <row r="224" spans="1:27" ht="13">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="14"/>
@@ -8669,7 +8665,7 @@
       <c r="Z224" s="2"/>
       <c r="AA224" s="2"/>
     </row>
-    <row r="225" spans="1:27" ht="12.75">
+    <row r="225" spans="1:27" ht="13">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="14"/>
@@ -8698,7 +8694,7 @@
       <c r="Z225" s="2"/>
       <c r="AA225" s="2"/>
     </row>
-    <row r="226" spans="1:27" ht="12.75">
+    <row r="226" spans="1:27" ht="13">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="14"/>
@@ -8727,7 +8723,7 @@
       <c r="Z226" s="2"/>
       <c r="AA226" s="2"/>
     </row>
-    <row r="227" spans="1:27" ht="12.75">
+    <row r="227" spans="1:27" ht="13">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="14"/>
@@ -8756,7 +8752,7 @@
       <c r="Z227" s="2"/>
       <c r="AA227" s="2"/>
     </row>
-    <row r="228" spans="1:27" ht="12.75">
+    <row r="228" spans="1:27" ht="13">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="14"/>
@@ -8785,7 +8781,7 @@
       <c r="Z228" s="2"/>
       <c r="AA228" s="2"/>
     </row>
-    <row r="229" spans="1:27" ht="12.75">
+    <row r="229" spans="1:27" ht="13">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="14"/>
@@ -8814,7 +8810,7 @@
       <c r="Z229" s="2"/>
       <c r="AA229" s="2"/>
     </row>
-    <row r="230" spans="1:27" ht="12.75">
+    <row r="230" spans="1:27" ht="13">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="14"/>
@@ -8843,7 +8839,7 @@
       <c r="Z230" s="2"/>
       <c r="AA230" s="2"/>
     </row>
-    <row r="231" spans="1:27" ht="12.75">
+    <row r="231" spans="1:27" ht="13">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="14"/>
@@ -8872,7 +8868,7 @@
       <c r="Z231" s="2"/>
       <c r="AA231" s="2"/>
     </row>
-    <row r="232" spans="1:27" ht="12.75">
+    <row r="232" spans="1:27" ht="13">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="14"/>
@@ -8901,7 +8897,7 @@
       <c r="Z232" s="2"/>
       <c r="AA232" s="2"/>
     </row>
-    <row r="233" spans="1:27" ht="12.75">
+    <row r="233" spans="1:27" ht="13">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="14"/>
@@ -8930,7 +8926,7 @@
       <c r="Z233" s="2"/>
       <c r="AA233" s="2"/>
     </row>
-    <row r="234" spans="1:27" ht="12.75">
+    <row r="234" spans="1:27" ht="13">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="14"/>
@@ -8959,7 +8955,7 @@
       <c r="Z234" s="2"/>
       <c r="AA234" s="2"/>
     </row>
-    <row r="235" spans="1:27" ht="12.75">
+    <row r="235" spans="1:27" ht="13">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="14"/>
@@ -8988,7 +8984,7 @@
       <c r="Z235" s="2"/>
       <c r="AA235" s="2"/>
     </row>
-    <row r="236" spans="1:27" ht="12.75">
+    <row r="236" spans="1:27" ht="13">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="14"/>
@@ -9017,7 +9013,7 @@
       <c r="Z236" s="2"/>
       <c r="AA236" s="2"/>
     </row>
-    <row r="237" spans="1:27" ht="12.75">
+    <row r="237" spans="1:27" ht="13">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="14"/>
@@ -9046,7 +9042,7 @@
       <c r="Z237" s="2"/>
       <c r="AA237" s="2"/>
     </row>
-    <row r="238" spans="1:27" ht="12.75">
+    <row r="238" spans="1:27" ht="13">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="14"/>
@@ -9075,7 +9071,7 @@
       <c r="Z238" s="2"/>
       <c r="AA238" s="2"/>
     </row>
-    <row r="239" spans="1:27" ht="12.75">
+    <row r="239" spans="1:27" ht="13">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="14"/>
@@ -9104,7 +9100,7 @@
       <c r="Z239" s="2"/>
       <c r="AA239" s="2"/>
     </row>
-    <row r="240" spans="1:27" ht="12.75">
+    <row r="240" spans="1:27" ht="13">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="14"/>
@@ -9133,7 +9129,7 @@
       <c r="Z240" s="2"/>
       <c r="AA240" s="2"/>
     </row>
-    <row r="241" spans="1:27" ht="12.75">
+    <row r="241" spans="1:27" ht="13">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="14"/>
@@ -9162,7 +9158,7 @@
       <c r="Z241" s="2"/>
       <c r="AA241" s="2"/>
     </row>
-    <row r="242" spans="1:27" ht="12.75">
+    <row r="242" spans="1:27" ht="13">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="14"/>
@@ -9191,7 +9187,7 @@
       <c r="Z242" s="2"/>
       <c r="AA242" s="2"/>
     </row>
-    <row r="243" spans="1:27" ht="12.75">
+    <row r="243" spans="1:27" ht="13">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="14"/>
@@ -9220,7 +9216,7 @@
       <c r="Z243" s="2"/>
       <c r="AA243" s="2"/>
     </row>
-    <row r="244" spans="1:27" ht="12.75">
+    <row r="244" spans="1:27" ht="13">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="14"/>
@@ -9249,7 +9245,7 @@
       <c r="Z244" s="2"/>
       <c r="AA244" s="2"/>
     </row>
-    <row r="245" spans="1:27" ht="12.75">
+    <row r="245" spans="1:27" ht="13">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="14"/>
@@ -9278,7 +9274,7 @@
       <c r="Z245" s="2"/>
       <c r="AA245" s="2"/>
     </row>
-    <row r="246" spans="1:27" ht="12.75">
+    <row r="246" spans="1:27" ht="13">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="14"/>
@@ -9307,7 +9303,7 @@
       <c r="Z246" s="2"/>
       <c r="AA246" s="2"/>
     </row>
-    <row r="247" spans="1:27" ht="12.75">
+    <row r="247" spans="1:27" ht="13">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="14"/>
@@ -9336,7 +9332,7 @@
       <c r="Z247" s="2"/>
       <c r="AA247" s="2"/>
     </row>
-    <row r="248" spans="1:27" ht="12.75">
+    <row r="248" spans="1:27" ht="13">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="14"/>
@@ -9365,7 +9361,7 @@
       <c r="Z248" s="2"/>
       <c r="AA248" s="2"/>
     </row>
-    <row r="249" spans="1:27" ht="12.75">
+    <row r="249" spans="1:27" ht="13">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="14"/>
@@ -9394,7 +9390,7 @@
       <c r="Z249" s="2"/>
       <c r="AA249" s="2"/>
     </row>
-    <row r="250" spans="1:27" ht="12.75">
+    <row r="250" spans="1:27" ht="13">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="14"/>
@@ -9423,7 +9419,7 @@
       <c r="Z250" s="2"/>
       <c r="AA250" s="2"/>
     </row>
-    <row r="251" spans="1:27" ht="12.75">
+    <row r="251" spans="1:27" ht="13">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="14"/>
@@ -9452,7 +9448,7 @@
       <c r="Z251" s="2"/>
       <c r="AA251" s="2"/>
     </row>
-    <row r="252" spans="1:27" ht="12.75">
+    <row r="252" spans="1:27" ht="13">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="14"/>
@@ -9481,7 +9477,7 @@
       <c r="Z252" s="2"/>
       <c r="AA252" s="2"/>
     </row>
-    <row r="253" spans="1:27" ht="12.75">
+    <row r="253" spans="1:27" ht="13">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="14"/>
@@ -9510,7 +9506,7 @@
       <c r="Z253" s="2"/>
       <c r="AA253" s="2"/>
     </row>
-    <row r="254" spans="1:27" ht="12.75">
+    <row r="254" spans="1:27" ht="13">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="14"/>
@@ -9539,7 +9535,7 @@
       <c r="Z254" s="2"/>
       <c r="AA254" s="2"/>
     </row>
-    <row r="255" spans="1:27" ht="12.75">
+    <row r="255" spans="1:27" ht="13">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="14"/>
@@ -9568,7 +9564,7 @@
       <c r="Z255" s="2"/>
       <c r="AA255" s="2"/>
     </row>
-    <row r="256" spans="1:27" ht="12.75">
+    <row r="256" spans="1:27" ht="13">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="14"/>
@@ -9597,7 +9593,7 @@
       <c r="Z256" s="2"/>
       <c r="AA256" s="2"/>
     </row>
-    <row r="257" spans="1:27" ht="12.75">
+    <row r="257" spans="1:27" ht="13">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="14"/>
@@ -9626,7 +9622,7 @@
       <c r="Z257" s="2"/>
       <c r="AA257" s="2"/>
     </row>
-    <row r="258" spans="1:27" ht="12.75">
+    <row r="258" spans="1:27" ht="13">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="14"/>
@@ -9655,7 +9651,7 @@
       <c r="Z258" s="2"/>
       <c r="AA258" s="2"/>
     </row>
-    <row r="259" spans="1:27" ht="12.75">
+    <row r="259" spans="1:27" ht="13">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="14"/>
@@ -9684,7 +9680,7 @@
       <c r="Z259" s="2"/>
       <c r="AA259" s="2"/>
     </row>
-    <row r="260" spans="1:27" ht="12.75">
+    <row r="260" spans="1:27" ht="13">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="14"/>
@@ -9713,7 +9709,7 @@
       <c r="Z260" s="2"/>
       <c r="AA260" s="2"/>
     </row>
-    <row r="261" spans="1:27" ht="12.75">
+    <row r="261" spans="1:27" ht="13">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="14"/>
@@ -9742,7 +9738,7 @@
       <c r="Z261" s="2"/>
       <c r="AA261" s="2"/>
     </row>
-    <row r="262" spans="1:27" ht="12.75">
+    <row r="262" spans="1:27" ht="13">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="14"/>
@@ -9771,7 +9767,7 @@
       <c r="Z262" s="2"/>
       <c r="AA262" s="2"/>
     </row>
-    <row r="263" spans="1:27" ht="12.75">
+    <row r="263" spans="1:27" ht="13">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="14"/>
@@ -9800,7 +9796,7 @@
       <c r="Z263" s="2"/>
       <c r="AA263" s="2"/>
     </row>
-    <row r="264" spans="1:27" ht="12.75">
+    <row r="264" spans="1:27" ht="13">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="14"/>
@@ -9829,7 +9825,7 @@
       <c r="Z264" s="2"/>
       <c r="AA264" s="2"/>
     </row>
-    <row r="265" spans="1:27" ht="12.75">
+    <row r="265" spans="1:27" ht="13">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="14"/>
@@ -9858,7 +9854,7 @@
       <c r="Z265" s="2"/>
       <c r="AA265" s="2"/>
     </row>
-    <row r="266" spans="1:27" ht="12.75">
+    <row r="266" spans="1:27" ht="13">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="14"/>
@@ -9887,7 +9883,7 @@
       <c r="Z266" s="2"/>
       <c r="AA266" s="2"/>
     </row>
-    <row r="267" spans="1:27" ht="12.75">
+    <row r="267" spans="1:27" ht="13">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="14"/>
@@ -9916,7 +9912,7 @@
       <c r="Z267" s="2"/>
       <c r="AA267" s="2"/>
     </row>
-    <row r="268" spans="1:27" ht="12.75">
+    <row r="268" spans="1:27" ht="13">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="14"/>
@@ -9945,7 +9941,7 @@
       <c r="Z268" s="2"/>
       <c r="AA268" s="2"/>
     </row>
-    <row r="269" spans="1:27" ht="12.75">
+    <row r="269" spans="1:27" ht="13">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="14"/>
@@ -9974,7 +9970,7 @@
       <c r="Z269" s="2"/>
       <c r="AA269" s="2"/>
     </row>
-    <row r="270" spans="1:27" ht="12.75">
+    <row r="270" spans="1:27" ht="13">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="14"/>
@@ -10003,7 +9999,7 @@
       <c r="Z270" s="2"/>
       <c r="AA270" s="2"/>
     </row>
-    <row r="271" spans="1:27" ht="12.75">
+    <row r="271" spans="1:27" ht="13">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="14"/>
@@ -10032,7 +10028,7 @@
       <c r="Z271" s="2"/>
       <c r="AA271" s="2"/>
     </row>
-    <row r="272" spans="1:27" ht="12.75">
+    <row r="272" spans="1:27" ht="13">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="14"/>
@@ -10061,7 +10057,7 @@
       <c r="Z272" s="2"/>
       <c r="AA272" s="2"/>
     </row>
-    <row r="273" spans="1:27" ht="12.75">
+    <row r="273" spans="1:27" ht="13">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="14"/>
@@ -10090,7 +10086,7 @@
       <c r="Z273" s="2"/>
       <c r="AA273" s="2"/>
     </row>
-    <row r="274" spans="1:27" ht="12.75">
+    <row r="274" spans="1:27" ht="13">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="14"/>
@@ -10119,7 +10115,7 @@
       <c r="Z274" s="2"/>
       <c r="AA274" s="2"/>
     </row>
-    <row r="275" spans="1:27" ht="12.75">
+    <row r="275" spans="1:27" ht="13">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="14"/>
@@ -10148,7 +10144,7 @@
       <c r="Z275" s="2"/>
       <c r="AA275" s="2"/>
     </row>
-    <row r="276" spans="1:27" ht="12.75">
+    <row r="276" spans="1:27" ht="13">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="14"/>
@@ -10177,7 +10173,7 @@
       <c r="Z276" s="2"/>
       <c r="AA276" s="2"/>
     </row>
-    <row r="277" spans="1:27" ht="12.75">
+    <row r="277" spans="1:27" ht="13">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="14"/>
@@ -10206,7 +10202,7 @@
       <c r="Z277" s="2"/>
       <c r="AA277" s="2"/>
     </row>
-    <row r="278" spans="1:27" ht="12.75">
+    <row r="278" spans="1:27" ht="13">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="14"/>
@@ -10235,7 +10231,7 @@
       <c r="Z278" s="2"/>
       <c r="AA278" s="2"/>
     </row>
-    <row r="279" spans="1:27" ht="12.75">
+    <row r="279" spans="1:27" ht="13">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="14"/>
@@ -10264,7 +10260,7 @@
       <c r="Z279" s="2"/>
       <c r="AA279" s="2"/>
     </row>
-    <row r="280" spans="1:27" ht="12.75">
+    <row r="280" spans="1:27" ht="13">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="14"/>
@@ -10293,7 +10289,7 @@
       <c r="Z280" s="2"/>
       <c r="AA280" s="2"/>
     </row>
-    <row r="281" spans="1:27" ht="12.75">
+    <row r="281" spans="1:27" ht="13">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="14"/>
@@ -10322,7 +10318,7 @@
       <c r="Z281" s="2"/>
       <c r="AA281" s="2"/>
     </row>
-    <row r="282" spans="1:27" ht="12.75">
+    <row r="282" spans="1:27" ht="13">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="14"/>
@@ -10351,7 +10347,7 @@
       <c r="Z282" s="2"/>
       <c r="AA282" s="2"/>
     </row>
-    <row r="283" spans="1:27" ht="12.75">
+    <row r="283" spans="1:27" ht="13">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="14"/>
@@ -10380,7 +10376,7 @@
       <c r="Z283" s="2"/>
       <c r="AA283" s="2"/>
     </row>
-    <row r="284" spans="1:27" ht="12.75">
+    <row r="284" spans="1:27" ht="13">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="14"/>
@@ -10409,7 +10405,7 @@
       <c r="Z284" s="2"/>
       <c r="AA284" s="2"/>
     </row>
-    <row r="285" spans="1:27" ht="12.75">
+    <row r="285" spans="1:27" ht="13">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="14"/>
@@ -10438,7 +10434,7 @@
       <c r="Z285" s="2"/>
       <c r="AA285" s="2"/>
     </row>
-    <row r="286" spans="1:27" ht="12.75">
+    <row r="286" spans="1:27" ht="13">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="14"/>
@@ -10467,7 +10463,7 @@
       <c r="Z286" s="2"/>
       <c r="AA286" s="2"/>
     </row>
-    <row r="287" spans="1:27" ht="12.75">
+    <row r="287" spans="1:27" ht="13">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="14"/>
@@ -10496,7 +10492,7 @@
       <c r="Z287" s="2"/>
       <c r="AA287" s="2"/>
     </row>
-    <row r="288" spans="1:27" ht="12.75">
+    <row r="288" spans="1:27" ht="13">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="14"/>
@@ -10525,7 +10521,7 @@
       <c r="Z288" s="2"/>
       <c r="AA288" s="2"/>
     </row>
-    <row r="289" spans="1:27" ht="12.75">
+    <row r="289" spans="1:27" ht="13">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="14"/>
@@ -10554,7 +10550,7 @@
       <c r="Z289" s="2"/>
       <c r="AA289" s="2"/>
     </row>
-    <row r="290" spans="1:27" ht="12.75">
+    <row r="290" spans="1:27" ht="13">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="14"/>
@@ -10583,7 +10579,7 @@
       <c r="Z290" s="2"/>
       <c r="AA290" s="2"/>
     </row>
-    <row r="291" spans="1:27" ht="12.75">
+    <row r="291" spans="1:27" ht="13">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="14"/>
@@ -10612,7 +10608,7 @@
       <c r="Z291" s="2"/>
       <c r="AA291" s="2"/>
     </row>
-    <row r="292" spans="1:27" ht="12.75">
+    <row r="292" spans="1:27" ht="13">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="14"/>
@@ -10641,7 +10637,7 @@
       <c r="Z292" s="2"/>
       <c r="AA292" s="2"/>
     </row>
-    <row r="293" spans="1:27" ht="12.75">
+    <row r="293" spans="1:27" ht="13">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="14"/>
@@ -10670,7 +10666,7 @@
       <c r="Z293" s="2"/>
       <c r="AA293" s="2"/>
     </row>
-    <row r="294" spans="1:27" ht="12.75">
+    <row r="294" spans="1:27" ht="13">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="14"/>
@@ -10699,7 +10695,7 @@
       <c r="Z294" s="2"/>
       <c r="AA294" s="2"/>
     </row>
-    <row r="295" spans="1:27" ht="12.75">
+    <row r="295" spans="1:27" ht="13">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="14"/>
@@ -10728,7 +10724,7 @@
       <c r="Z295" s="2"/>
       <c r="AA295" s="2"/>
     </row>
-    <row r="296" spans="1:27" ht="12.75">
+    <row r="296" spans="1:27" ht="13">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="14"/>
@@ -10757,7 +10753,7 @@
       <c r="Z296" s="2"/>
       <c r="AA296" s="2"/>
     </row>
-    <row r="297" spans="1:27" ht="12.75">
+    <row r="297" spans="1:27" ht="13">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="14"/>
@@ -10786,7 +10782,7 @@
       <c r="Z297" s="2"/>
       <c r="AA297" s="2"/>
     </row>
-    <row r="298" spans="1:27" ht="12.75">
+    <row r="298" spans="1:27" ht="13">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="14"/>
@@ -10815,7 +10811,7 @@
       <c r="Z298" s="2"/>
       <c r="AA298" s="2"/>
     </row>
-    <row r="299" spans="1:27" ht="12.75">
+    <row r="299" spans="1:27" ht="13">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="14"/>
@@ -10844,7 +10840,7 @@
       <c r="Z299" s="2"/>
       <c r="AA299" s="2"/>
     </row>
-    <row r="300" spans="1:27" ht="12.75">
+    <row r="300" spans="1:27" ht="13">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="14"/>
@@ -10873,7 +10869,7 @@
       <c r="Z300" s="2"/>
       <c r="AA300" s="2"/>
     </row>
-    <row r="301" spans="1:27" ht="12.75">
+    <row r="301" spans="1:27" ht="13">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="14"/>
@@ -10902,7 +10898,7 @@
       <c r="Z301" s="2"/>
       <c r="AA301" s="2"/>
     </row>
-    <row r="302" spans="1:27" ht="12.75">
+    <row r="302" spans="1:27" ht="13">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="14"/>
@@ -10931,7 +10927,7 @@
       <c r="Z302" s="2"/>
       <c r="AA302" s="2"/>
     </row>
-    <row r="303" spans="1:27" ht="12.75">
+    <row r="303" spans="1:27" ht="13">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="14"/>
@@ -10960,7 +10956,7 @@
       <c r="Z303" s="2"/>
       <c r="AA303" s="2"/>
     </row>
-    <row r="304" spans="1:27" ht="12.75">
+    <row r="304" spans="1:27" ht="13">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="14"/>
@@ -10989,7 +10985,7 @@
       <c r="Z304" s="2"/>
       <c r="AA304" s="2"/>
     </row>
-    <row r="305" spans="1:27" ht="12.75">
+    <row r="305" spans="1:27" ht="13">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="14"/>
@@ -11018,7 +11014,7 @@
       <c r="Z305" s="2"/>
       <c r="AA305" s="2"/>
     </row>
-    <row r="306" spans="1:27" ht="12.75">
+    <row r="306" spans="1:27" ht="13">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="14"/>
@@ -11047,7 +11043,7 @@
       <c r="Z306" s="2"/>
       <c r="AA306" s="2"/>
     </row>
-    <row r="307" spans="1:27" ht="12.75">
+    <row r="307" spans="1:27" ht="13">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="14"/>
@@ -11076,7 +11072,7 @@
       <c r="Z307" s="2"/>
       <c r="AA307" s="2"/>
     </row>
-    <row r="308" spans="1:27" ht="12.75">
+    <row r="308" spans="1:27" ht="13">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="14"/>
@@ -11105,7 +11101,7 @@
       <c r="Z308" s="2"/>
       <c r="AA308" s="2"/>
     </row>
-    <row r="309" spans="1:27" ht="12.75">
+    <row r="309" spans="1:27" ht="13">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="14"/>
@@ -11134,7 +11130,7 @@
       <c r="Z309" s="2"/>
       <c r="AA309" s="2"/>
     </row>
-    <row r="310" spans="1:27" ht="12.75">
+    <row r="310" spans="1:27" ht="13">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="14"/>
@@ -11163,7 +11159,7 @@
       <c r="Z310" s="2"/>
       <c r="AA310" s="2"/>
     </row>
-    <row r="311" spans="1:27" ht="12.75">
+    <row r="311" spans="1:27" ht="13">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="14"/>
@@ -11192,7 +11188,7 @@
       <c r="Z311" s="2"/>
       <c r="AA311" s="2"/>
     </row>
-    <row r="312" spans="1:27" ht="12.75">
+    <row r="312" spans="1:27" ht="13">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="14"/>
@@ -11221,7 +11217,7 @@
       <c r="Z312" s="2"/>
       <c r="AA312" s="2"/>
     </row>
-    <row r="313" spans="1:27" ht="12.75">
+    <row r="313" spans="1:27" ht="13">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="14"/>
@@ -11250,7 +11246,7 @@
       <c r="Z313" s="2"/>
       <c r="AA313" s="2"/>
     </row>
-    <row r="314" spans="1:27" ht="12.75">
+    <row r="314" spans="1:27" ht="13">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="14"/>
@@ -11279,7 +11275,7 @@
       <c r="Z314" s="2"/>
       <c r="AA314" s="2"/>
     </row>
-    <row r="315" spans="1:27" ht="12.75">
+    <row r="315" spans="1:27" ht="13">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="14"/>
@@ -11308,7 +11304,7 @@
       <c r="Z315" s="2"/>
       <c r="AA315" s="2"/>
     </row>
-    <row r="316" spans="1:27" ht="12.75">
+    <row r="316" spans="1:27" ht="13">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="14"/>
@@ -11337,7 +11333,7 @@
       <c r="Z316" s="2"/>
       <c r="AA316" s="2"/>
     </row>
-    <row r="317" spans="1:27" ht="12.75">
+    <row r="317" spans="1:27" ht="13">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="14"/>
@@ -11366,7 +11362,7 @@
       <c r="Z317" s="2"/>
       <c r="AA317" s="2"/>
     </row>
-    <row r="318" spans="1:27" ht="12.75">
+    <row r="318" spans="1:27" ht="13">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="14"/>
@@ -11395,7 +11391,7 @@
       <c r="Z318" s="2"/>
       <c r="AA318" s="2"/>
     </row>
-    <row r="319" spans="1:27" ht="12.75">
+    <row r="319" spans="1:27" ht="13">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="14"/>
@@ -11424,7 +11420,7 @@
       <c r="Z319" s="2"/>
       <c r="AA319" s="2"/>
     </row>
-    <row r="320" spans="1:27" ht="12.75">
+    <row r="320" spans="1:27" ht="13">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="14"/>
@@ -11453,7 +11449,7 @@
       <c r="Z320" s="2"/>
       <c r="AA320" s="2"/>
     </row>
-    <row r="321" spans="1:27" ht="12.75">
+    <row r="321" spans="1:27" ht="13">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="14"/>
@@ -11482,7 +11478,7 @@
       <c r="Z321" s="2"/>
       <c r="AA321" s="2"/>
     </row>
-    <row r="322" spans="1:27" ht="12.75">
+    <row r="322" spans="1:27" ht="13">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="14"/>
@@ -11511,7 +11507,7 @@
       <c r="Z322" s="2"/>
       <c r="AA322" s="2"/>
     </row>
-    <row r="323" spans="1:27" ht="12.75">
+    <row r="323" spans="1:27" ht="13">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="14"/>
@@ -11540,7 +11536,7 @@
       <c r="Z323" s="2"/>
       <c r="AA323" s="2"/>
     </row>
-    <row r="324" spans="1:27" ht="12.75">
+    <row r="324" spans="1:27" ht="13">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="14"/>
@@ -11569,7 +11565,7 @@
       <c r="Z324" s="2"/>
       <c r="AA324" s="2"/>
     </row>
-    <row r="325" spans="1:27" ht="12.75">
+    <row r="325" spans="1:27" ht="13">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="14"/>
@@ -11598,7 +11594,7 @@
       <c r="Z325" s="2"/>
       <c r="AA325" s="2"/>
     </row>
-    <row r="326" spans="1:27" ht="12.75">
+    <row r="326" spans="1:27" ht="13">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="14"/>
@@ -11627,7 +11623,7 @@
       <c r="Z326" s="2"/>
       <c r="AA326" s="2"/>
     </row>
-    <row r="327" spans="1:27" ht="12.75">
+    <row r="327" spans="1:27" ht="13">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="14"/>
@@ -11656,7 +11652,7 @@
       <c r="Z327" s="2"/>
       <c r="AA327" s="2"/>
     </row>
-    <row r="328" spans="1:27" ht="12.75">
+    <row r="328" spans="1:27" ht="13">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="14"/>
@@ -11685,7 +11681,7 @@
       <c r="Z328" s="2"/>
       <c r="AA328" s="2"/>
     </row>
-    <row r="329" spans="1:27" ht="12.75">
+    <row r="329" spans="1:27" ht="13">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="14"/>
@@ -11714,7 +11710,7 @@
       <c r="Z329" s="2"/>
       <c r="AA329" s="2"/>
     </row>
-    <row r="330" spans="1:27" ht="12.75">
+    <row r="330" spans="1:27" ht="13">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="14"/>
@@ -11743,7 +11739,7 @@
       <c r="Z330" s="2"/>
       <c r="AA330" s="2"/>
     </row>
-    <row r="331" spans="1:27" ht="12.75">
+    <row r="331" spans="1:27" ht="13">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="14"/>
@@ -11772,7 +11768,7 @@
       <c r="Z331" s="2"/>
       <c r="AA331" s="2"/>
     </row>
-    <row r="332" spans="1:27" ht="12.75">
+    <row r="332" spans="1:27" ht="13">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="14"/>
@@ -11801,7 +11797,7 @@
       <c r="Z332" s="2"/>
       <c r="AA332" s="2"/>
     </row>
-    <row r="333" spans="1:27" ht="12.75">
+    <row r="333" spans="1:27" ht="13">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="14"/>
@@ -11830,7 +11826,7 @@
       <c r="Z333" s="2"/>
       <c r="AA333" s="2"/>
     </row>
-    <row r="334" spans="1:27" ht="12.75">
+    <row r="334" spans="1:27" ht="13">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="14"/>
@@ -11859,7 +11855,7 @@
       <c r="Z334" s="2"/>
       <c r="AA334" s="2"/>
     </row>
-    <row r="335" spans="1:27" ht="12.75">
+    <row r="335" spans="1:27" ht="13">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="14"/>
@@ -11888,7 +11884,7 @@
       <c r="Z335" s="2"/>
       <c r="AA335" s="2"/>
     </row>
-    <row r="336" spans="1:27" ht="12.75">
+    <row r="336" spans="1:27" ht="13">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="14"/>
@@ -11917,7 +11913,7 @@
       <c r="Z336" s="2"/>
       <c r="AA336" s="2"/>
     </row>
-    <row r="337" spans="1:27" ht="12.75">
+    <row r="337" spans="1:27" ht="13">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="14"/>
@@ -11946,7 +11942,7 @@
       <c r="Z337" s="2"/>
       <c r="AA337" s="2"/>
     </row>
-    <row r="338" spans="1:27" ht="12.75">
+    <row r="338" spans="1:27" ht="13">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="14"/>
@@ -11975,7 +11971,7 @@
       <c r="Z338" s="2"/>
       <c r="AA338" s="2"/>
     </row>
-    <row r="339" spans="1:27" ht="12.75">
+    <row r="339" spans="1:27" ht="13">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="14"/>
@@ -12004,7 +12000,7 @@
       <c r="Z339" s="2"/>
       <c r="AA339" s="2"/>
     </row>
-    <row r="340" spans="1:27" ht="12.75">
+    <row r="340" spans="1:27" ht="13">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="14"/>
@@ -12033,7 +12029,7 @@
       <c r="Z340" s="2"/>
       <c r="AA340" s="2"/>
     </row>
-    <row r="341" spans="1:27" ht="12.75">
+    <row r="341" spans="1:27" ht="13">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="14"/>
@@ -12062,7 +12058,7 @@
       <c r="Z341" s="2"/>
       <c r="AA341" s="2"/>
     </row>
-    <row r="342" spans="1:27" ht="12.75">
+    <row r="342" spans="1:27" ht="13">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="14"/>
@@ -12091,7 +12087,7 @@
       <c r="Z342" s="2"/>
       <c r="AA342" s="2"/>
     </row>
-    <row r="343" spans="1:27" ht="12.75">
+    <row r="343" spans="1:27" ht="13">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="14"/>
@@ -12120,7 +12116,7 @@
       <c r="Z343" s="2"/>
       <c r="AA343" s="2"/>
     </row>
-    <row r="344" spans="1:27" ht="12.75">
+    <row r="344" spans="1:27" ht="13">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="14"/>
@@ -12149,7 +12145,7 @@
       <c r="Z344" s="2"/>
       <c r="AA344" s="2"/>
     </row>
-    <row r="345" spans="1:27" ht="12.75">
+    <row r="345" spans="1:27" ht="13">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="14"/>
@@ -12178,7 +12174,7 @@
       <c r="Z345" s="2"/>
       <c r="AA345" s="2"/>
     </row>
-    <row r="346" spans="1:27" ht="12.75">
+    <row r="346" spans="1:27" ht="13">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="14"/>
@@ -12207,7 +12203,7 @@
       <c r="Z346" s="2"/>
       <c r="AA346" s="2"/>
     </row>
-    <row r="347" spans="1:27" ht="12.75">
+    <row r="347" spans="1:27" ht="13">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="14"/>
@@ -12236,7 +12232,7 @@
       <c r="Z347" s="2"/>
       <c r="AA347" s="2"/>
     </row>
-    <row r="348" spans="1:27" ht="12.75">
+    <row r="348" spans="1:27" ht="13">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="14"/>
@@ -12265,7 +12261,7 @@
       <c r="Z348" s="2"/>
       <c r="AA348" s="2"/>
     </row>
-    <row r="349" spans="1:27" ht="12.75">
+    <row r="349" spans="1:27" ht="13">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="14"/>
@@ -12294,7 +12290,7 @@
       <c r="Z349" s="2"/>
       <c r="AA349" s="2"/>
     </row>
-    <row r="350" spans="1:27" ht="12.75">
+    <row r="350" spans="1:27" ht="13">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="14"/>
@@ -12323,7 +12319,7 @@
       <c r="Z350" s="2"/>
       <c r="AA350" s="2"/>
     </row>
-    <row r="351" spans="1:27" ht="12.75">
+    <row r="351" spans="1:27" ht="13">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="14"/>
@@ -12352,7 +12348,7 @@
       <c r="Z351" s="2"/>
       <c r="AA351" s="2"/>
     </row>
-    <row r="352" spans="1:27" ht="12.75">
+    <row r="352" spans="1:27" ht="13">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="14"/>
@@ -12381,7 +12377,7 @@
       <c r="Z352" s="2"/>
       <c r="AA352" s="2"/>
     </row>
-    <row r="353" spans="1:27" ht="12.75">
+    <row r="353" spans="1:27" ht="13">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="14"/>
@@ -12410,7 +12406,7 @@
       <c r="Z353" s="2"/>
       <c r="AA353" s="2"/>
     </row>
-    <row r="354" spans="1:27" ht="12.75">
+    <row r="354" spans="1:27" ht="13">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="14"/>
@@ -12439,7 +12435,7 @@
       <c r="Z354" s="2"/>
       <c r="AA354" s="2"/>
     </row>
-    <row r="355" spans="1:27" ht="12.75">
+    <row r="355" spans="1:27" ht="13">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="14"/>
@@ -12468,7 +12464,7 @@
       <c r="Z355" s="2"/>
       <c r="AA355" s="2"/>
     </row>
-    <row r="356" spans="1:27" ht="12.75">
+    <row r="356" spans="1:27" ht="13">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="14"/>
@@ -12497,7 +12493,7 @@
       <c r="Z356" s="2"/>
       <c r="AA356" s="2"/>
     </row>
-    <row r="357" spans="1:27" ht="12.75">
+    <row r="357" spans="1:27" ht="13">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="14"/>
@@ -12526,7 +12522,7 @@
       <c r="Z357" s="2"/>
       <c r="AA357" s="2"/>
     </row>
-    <row r="358" spans="1:27" ht="12.75">
+    <row r="358" spans="1:27" ht="13">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="14"/>
@@ -12555,7 +12551,7 @@
       <c r="Z358" s="2"/>
       <c r="AA358" s="2"/>
     </row>
-    <row r="359" spans="1:27" ht="12.75">
+    <row r="359" spans="1:27" ht="13">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="14"/>
@@ -12584,7 +12580,7 @@
       <c r="Z359" s="2"/>
       <c r="AA359" s="2"/>
     </row>
-    <row r="360" spans="1:27" ht="12.75">
+    <row r="360" spans="1:27" ht="13">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="14"/>
@@ -12613,7 +12609,7 @@
       <c r="Z360" s="2"/>
       <c r="AA360" s="2"/>
     </row>
-    <row r="361" spans="1:27" ht="12.75">
+    <row r="361" spans="1:27" ht="13">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="14"/>
@@ -12642,7 +12638,7 @@
       <c r="Z361" s="2"/>
       <c r="AA361" s="2"/>
     </row>
-    <row r="362" spans="1:27" ht="12.75">
+    <row r="362" spans="1:27" ht="13">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="14"/>
@@ -12671,7 +12667,7 @@
       <c r="Z362" s="2"/>
       <c r="AA362" s="2"/>
     </row>
-    <row r="363" spans="1:27" ht="12.75">
+    <row r="363" spans="1:27" ht="13">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="14"/>
@@ -12700,7 +12696,7 @@
       <c r="Z363" s="2"/>
       <c r="AA363" s="2"/>
     </row>
-    <row r="364" spans="1:27" ht="12.75">
+    <row r="364" spans="1:27" ht="13">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="14"/>
@@ -12729,7 +12725,7 @@
       <c r="Z364" s="2"/>
       <c r="AA364" s="2"/>
     </row>
-    <row r="365" spans="1:27" ht="12.75">
+    <row r="365" spans="1:27" ht="13">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="14"/>
@@ -12758,7 +12754,7 @@
       <c r="Z365" s="2"/>
       <c r="AA365" s="2"/>
     </row>
-    <row r="366" spans="1:27" ht="12.75">
+    <row r="366" spans="1:27" ht="13">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="14"/>
@@ -12787,7 +12783,7 @@
       <c r="Z366" s="2"/>
       <c r="AA366" s="2"/>
     </row>
-    <row r="367" spans="1:27" ht="12.75">
+    <row r="367" spans="1:27" ht="13">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="14"/>
@@ -12816,7 +12812,7 @@
       <c r="Z367" s="2"/>
       <c r="AA367" s="2"/>
     </row>
-    <row r="368" spans="1:27" ht="12.75">
+    <row r="368" spans="1:27" ht="13">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="14"/>
@@ -12845,7 +12841,7 @@
       <c r="Z368" s="2"/>
       <c r="AA368" s="2"/>
     </row>
-    <row r="369" spans="1:27" ht="12.75">
+    <row r="369" spans="1:27" ht="13">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="14"/>
@@ -12874,7 +12870,7 @@
       <c r="Z369" s="2"/>
       <c r="AA369" s="2"/>
     </row>
-    <row r="370" spans="1:27" ht="12.75">
+    <row r="370" spans="1:27" ht="13">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="14"/>
@@ -12903,7 +12899,7 @@
       <c r="Z370" s="2"/>
       <c r="AA370" s="2"/>
     </row>
-    <row r="371" spans="1:27" ht="12.75">
+    <row r="371" spans="1:27" ht="13">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="14"/>
@@ -12932,7 +12928,7 @@
       <c r="Z371" s="2"/>
       <c r="AA371" s="2"/>
     </row>
-    <row r="372" spans="1:27" ht="12.75">
+    <row r="372" spans="1:27" ht="13">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="14"/>
@@ -12961,7 +12957,7 @@
       <c r="Z372" s="2"/>
       <c r="AA372" s="2"/>
     </row>
-    <row r="373" spans="1:27" ht="12.75">
+    <row r="373" spans="1:27" ht="13">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="14"/>
@@ -12990,7 +12986,7 @@
       <c r="Z373" s="2"/>
       <c r="AA373" s="2"/>
     </row>
-    <row r="374" spans="1:27" ht="12.75">
+    <row r="374" spans="1:27" ht="13">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="14"/>
@@ -13019,7 +13015,7 @@
       <c r="Z374" s="2"/>
       <c r="AA374" s="2"/>
     </row>
-    <row r="375" spans="1:27" ht="12.75">
+    <row r="375" spans="1:27" ht="13">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="14"/>
@@ -13048,7 +13044,7 @@
       <c r="Z375" s="2"/>
       <c r="AA375" s="2"/>
     </row>
-    <row r="376" spans="1:27" ht="12.75">
+    <row r="376" spans="1:27" ht="13">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="14"/>
@@ -13077,7 +13073,7 @@
       <c r="Z376" s="2"/>
       <c r="AA376" s="2"/>
     </row>
-    <row r="377" spans="1:27" ht="12.75">
+    <row r="377" spans="1:27" ht="13">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="14"/>
@@ -13106,7 +13102,7 @@
       <c r="Z377" s="2"/>
       <c r="AA377" s="2"/>
     </row>
-    <row r="378" spans="1:27" ht="12.75">
+    <row r="378" spans="1:27" ht="13">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="14"/>
@@ -13135,7 +13131,7 @@
       <c r="Z378" s="2"/>
       <c r="AA378" s="2"/>
     </row>
-    <row r="379" spans="1:27" ht="12.75">
+    <row r="379" spans="1:27" ht="13">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="14"/>
@@ -13164,7 +13160,7 @@
       <c r="Z379" s="2"/>
       <c r="AA379" s="2"/>
     </row>
-    <row r="380" spans="1:27" ht="12.75">
+    <row r="380" spans="1:27" ht="13">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="14"/>
@@ -13193,7 +13189,7 @@
       <c r="Z380" s="2"/>
       <c r="AA380" s="2"/>
     </row>
-    <row r="381" spans="1:27" ht="12.75">
+    <row r="381" spans="1:27" ht="13">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="14"/>
@@ -13222,7 +13218,7 @@
       <c r="Z381" s="2"/>
       <c r="AA381" s="2"/>
     </row>
-    <row r="382" spans="1:27" ht="12.75">
+    <row r="382" spans="1:27" ht="13">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="14"/>
@@ -13251,7 +13247,7 @@
       <c r="Z382" s="2"/>
       <c r="AA382" s="2"/>
     </row>
-    <row r="383" spans="1:27" ht="12.75">
+    <row r="383" spans="1:27" ht="13">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="14"/>
@@ -13280,7 +13276,7 @@
       <c r="Z383" s="2"/>
       <c r="AA383" s="2"/>
     </row>
-    <row r="384" spans="1:27" ht="12.75">
+    <row r="384" spans="1:27" ht="13">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="14"/>
@@ -13309,7 +13305,7 @@
       <c r="Z384" s="2"/>
       <c r="AA384" s="2"/>
     </row>
-    <row r="385" spans="1:27" ht="12.75">
+    <row r="385" spans="1:27" ht="13">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="14"/>
@@ -13338,7 +13334,7 @@
       <c r="Z385" s="2"/>
       <c r="AA385" s="2"/>
     </row>
-    <row r="386" spans="1:27" ht="12.75">
+    <row r="386" spans="1:27" ht="13">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="14"/>
@@ -13367,7 +13363,7 @@
       <c r="Z386" s="2"/>
       <c r="AA386" s="2"/>
     </row>
-    <row r="387" spans="1:27" ht="12.75">
+    <row r="387" spans="1:27" ht="13">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="14"/>
@@ -13396,7 +13392,7 @@
       <c r="Z387" s="2"/>
       <c r="AA387" s="2"/>
     </row>
-    <row r="388" spans="1:27" ht="12.75">
+    <row r="388" spans="1:27" ht="13">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="14"/>
@@ -13425,7 +13421,7 @@
       <c r="Z388" s="2"/>
       <c r="AA388" s="2"/>
     </row>
-    <row r="389" spans="1:27" ht="12.75">
+    <row r="389" spans="1:27" ht="13">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="14"/>
@@ -13454,7 +13450,7 @@
       <c r="Z389" s="2"/>
       <c r="AA389" s="2"/>
     </row>
-    <row r="390" spans="1:27" ht="12.75">
+    <row r="390" spans="1:27" ht="13">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="14"/>
@@ -13483,7 +13479,7 @@
       <c r="Z390" s="2"/>
       <c r="AA390" s="2"/>
     </row>
-    <row r="391" spans="1:27" ht="12.75">
+    <row r="391" spans="1:27" ht="13">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="14"/>
@@ -13512,7 +13508,7 @@
       <c r="Z391" s="2"/>
       <c r="AA391" s="2"/>
     </row>
-    <row r="392" spans="1:27" ht="12.75">
+    <row r="392" spans="1:27" ht="13">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="14"/>
@@ -13541,7 +13537,7 @@
       <c r="Z392" s="2"/>
       <c r="AA392" s="2"/>
     </row>
-    <row r="393" spans="1:27" ht="12.75">
+    <row r="393" spans="1:27" ht="13">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="14"/>
@@ -13570,7 +13566,7 @@
       <c r="Z393" s="2"/>
       <c r="AA393" s="2"/>
     </row>
-    <row r="394" spans="1:27" ht="12.75">
+    <row r="394" spans="1:27" ht="13">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="14"/>
@@ -13599,7 +13595,7 @@
       <c r="Z394" s="2"/>
       <c r="AA394" s="2"/>
     </row>
-    <row r="395" spans="1:27" ht="12.75">
+    <row r="395" spans="1:27" ht="13">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="14"/>
@@ -13628,7 +13624,7 @@
       <c r="Z395" s="2"/>
       <c r="AA395" s="2"/>
     </row>
-    <row r="396" spans="1:27" ht="12.75">
+    <row r="396" spans="1:27" ht="13">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="14"/>
@@ -13657,7 +13653,7 @@
       <c r="Z396" s="2"/>
       <c r="AA396" s="2"/>
     </row>
-    <row r="397" spans="1:27" ht="12.75">
+    <row r="397" spans="1:27" ht="13">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="14"/>
@@ -13686,7 +13682,7 @@
       <c r="Z397" s="2"/>
       <c r="AA397" s="2"/>
     </row>
-    <row r="398" spans="1:27" ht="12.75">
+    <row r="398" spans="1:27" ht="13">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="14"/>
@@ -13715,7 +13711,7 @@
       <c r="Z398" s="2"/>
       <c r="AA398" s="2"/>
     </row>
-    <row r="399" spans="1:27" ht="12.75">
+    <row r="399" spans="1:27" ht="13">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="14"/>
@@ -13744,7 +13740,7 @@
       <c r="Z399" s="2"/>
       <c r="AA399" s="2"/>
     </row>
-    <row r="400" spans="1:27" ht="12.75">
+    <row r="400" spans="1:27" ht="13">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="14"/>
@@ -13773,7 +13769,7 @@
       <c r="Z400" s="2"/>
       <c r="AA400" s="2"/>
     </row>
-    <row r="401" spans="1:27" ht="12.75">
+    <row r="401" spans="1:27" ht="13">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="14"/>
@@ -13802,7 +13798,7 @@
       <c r="Z401" s="2"/>
       <c r="AA401" s="2"/>
     </row>
-    <row r="402" spans="1:27" ht="12.75">
+    <row r="402" spans="1:27" ht="13">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="14"/>
@@ -13831,7 +13827,7 @@
       <c r="Z402" s="2"/>
       <c r="AA402" s="2"/>
     </row>
-    <row r="403" spans="1:27" ht="12.75">
+    <row r="403" spans="1:27" ht="13">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="14"/>
@@ -13860,7 +13856,7 @@
       <c r="Z403" s="2"/>
       <c r="AA403" s="2"/>
     </row>
-    <row r="404" spans="1:27" ht="12.75">
+    <row r="404" spans="1:27" ht="13">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="14"/>
@@ -13889,7 +13885,7 @@
       <c r="Z404" s="2"/>
       <c r="AA404" s="2"/>
     </row>
-    <row r="405" spans="1:27" ht="12.75">
+    <row r="405" spans="1:27" ht="13">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="14"/>
@@ -13918,7 +13914,7 @@
       <c r="Z405" s="2"/>
       <c r="AA405" s="2"/>
     </row>
-    <row r="406" spans="1:27" ht="12.75">
+    <row r="406" spans="1:27" ht="13">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="14"/>
@@ -13947,7 +13943,7 @@
       <c r="Z406" s="2"/>
       <c r="AA406" s="2"/>
     </row>
-    <row r="407" spans="1:27" ht="12.75">
+    <row r="407" spans="1:27" ht="13">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="14"/>
@@ -13976,7 +13972,7 @@
       <c r="Z407" s="2"/>
       <c r="AA407" s="2"/>
     </row>
-    <row r="408" spans="1:27" ht="12.75">
+    <row r="408" spans="1:27" ht="13">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="14"/>
@@ -14005,7 +14001,7 @@
       <c r="Z408" s="2"/>
       <c r="AA408" s="2"/>
     </row>
-    <row r="409" spans="1:27" ht="12.75">
+    <row r="409" spans="1:27" ht="13">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="14"/>
@@ -14034,7 +14030,7 @@
       <c r="Z409" s="2"/>
       <c r="AA409" s="2"/>
     </row>
-    <row r="410" spans="1:27" ht="12.75">
+    <row r="410" spans="1:27" ht="13">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="14"/>
@@ -14063,7 +14059,7 @@
       <c r="Z410" s="2"/>
       <c r="AA410" s="2"/>
     </row>
-    <row r="411" spans="1:27" ht="12.75">
+    <row r="411" spans="1:27" ht="13">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="14"/>
@@ -14092,7 +14088,7 @@
       <c r="Z411" s="2"/>
       <c r="AA411" s="2"/>
     </row>
-    <row r="412" spans="1:27" ht="12.75">
+    <row r="412" spans="1:27" ht="13">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="14"/>
@@ -14121,7 +14117,7 @@
       <c r="Z412" s="2"/>
       <c r="AA412" s="2"/>
     </row>
-    <row r="413" spans="1:27" ht="12.75">
+    <row r="413" spans="1:27" ht="13">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="14"/>
@@ -14150,7 +14146,7 @@
       <c r="Z413" s="2"/>
       <c r="AA413" s="2"/>
     </row>
-    <row r="414" spans="1:27" ht="12.75">
+    <row r="414" spans="1:27" ht="13">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="14"/>
@@ -14179,7 +14175,7 @@
       <c r="Z414" s="2"/>
       <c r="AA414" s="2"/>
     </row>
-    <row r="415" spans="1:27" ht="12.75">
+    <row r="415" spans="1:27" ht="13">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="14"/>
@@ -14208,7 +14204,7 @@
       <c r="Z415" s="2"/>
       <c r="AA415" s="2"/>
     </row>
-    <row r="416" spans="1:27" ht="12.75">
+    <row r="416" spans="1:27" ht="13">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="14"/>
@@ -14237,7 +14233,7 @@
       <c r="Z416" s="2"/>
       <c r="AA416" s="2"/>
     </row>
-    <row r="417" spans="1:27" ht="12.75">
+    <row r="417" spans="1:27" ht="13">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="14"/>
@@ -14266,7 +14262,7 @@
       <c r="Z417" s="2"/>
       <c r="AA417" s="2"/>
     </row>
-    <row r="418" spans="1:27" ht="12.75">
+    <row r="418" spans="1:27" ht="13">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="14"/>
@@ -14295,7 +14291,7 @@
       <c r="Z418" s="2"/>
       <c r="AA418" s="2"/>
     </row>
-    <row r="419" spans="1:27" ht="12.75">
+    <row r="419" spans="1:27" ht="13">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="14"/>
@@ -14324,7 +14320,7 @@
       <c r="Z419" s="2"/>
       <c r="AA419" s="2"/>
     </row>
-    <row r="420" spans="1:27" ht="12.75">
+    <row r="420" spans="1:27" ht="13">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="14"/>
@@ -14353,7 +14349,7 @@
       <c r="Z420" s="2"/>
       <c r="AA420" s="2"/>
     </row>
-    <row r="421" spans="1:27" ht="12.75">
+    <row r="421" spans="1:27" ht="13">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="14"/>
@@ -14382,7 +14378,7 @@
       <c r="Z421" s="2"/>
       <c r="AA421" s="2"/>
     </row>
-    <row r="422" spans="1:27" ht="12.75">
+    <row r="422" spans="1:27" ht="13">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="14"/>
@@ -14411,7 +14407,7 @@
       <c r="Z422" s="2"/>
       <c r="AA422" s="2"/>
     </row>
-    <row r="423" spans="1:27" ht="12.75">
+    <row r="423" spans="1:27" ht="13">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="14"/>
@@ -14440,7 +14436,7 @@
       <c r="Z423" s="2"/>
       <c r="AA423" s="2"/>
     </row>
-    <row r="424" spans="1:27" ht="12.75">
+    <row r="424" spans="1:27" ht="13">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="14"/>
@@ -14469,7 +14465,7 @@
       <c r="Z424" s="2"/>
       <c r="AA424" s="2"/>
     </row>
-    <row r="425" spans="1:27" ht="12.75">
+    <row r="425" spans="1:27" ht="13">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="14"/>
@@ -14498,7 +14494,7 @@
       <c r="Z425" s="2"/>
       <c r="AA425" s="2"/>
     </row>
-    <row r="426" spans="1:27" ht="12.75">
+    <row r="426" spans="1:27" ht="13">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="14"/>
@@ -14527,7 +14523,7 @@
       <c r="Z426" s="2"/>
       <c r="AA426" s="2"/>
     </row>
-    <row r="427" spans="1:27" ht="12.75">
+    <row r="427" spans="1:27" ht="13">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="14"/>
@@ -14556,7 +14552,7 @@
       <c r="Z427" s="2"/>
       <c r="AA427" s="2"/>
     </row>
-    <row r="428" spans="1:27" ht="12.75">
+    <row r="428" spans="1:27" ht="13">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="14"/>
@@ -14585,7 +14581,7 @@
       <c r="Z428" s="2"/>
       <c r="AA428" s="2"/>
     </row>
-    <row r="429" spans="1:27" ht="12.75">
+    <row r="429" spans="1:27" ht="13">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="14"/>
@@ -14614,7 +14610,7 @@
       <c r="Z429" s="2"/>
       <c r="AA429" s="2"/>
     </row>
-    <row r="430" spans="1:27" ht="12.75">
+    <row r="430" spans="1:27" ht="13">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="14"/>
@@ -14643,7 +14639,7 @@
       <c r="Z430" s="2"/>
       <c r="AA430" s="2"/>
     </row>
-    <row r="431" spans="1:27" ht="12.75">
+    <row r="431" spans="1:27" ht="13">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="14"/>
@@ -14672,7 +14668,7 @@
       <c r="Z431" s="2"/>
       <c r="AA431" s="2"/>
     </row>
-    <row r="432" spans="1:27" ht="12.75">
+    <row r="432" spans="1:27" ht="13">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="14"/>
@@ -14701,7 +14697,7 @@
       <c r="Z432" s="2"/>
       <c r="AA432" s="2"/>
     </row>
-    <row r="433" spans="1:27" ht="12.75">
+    <row r="433" spans="1:27" ht="13">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="14"/>
@@ -14730,7 +14726,7 @@
       <c r="Z433" s="2"/>
       <c r="AA433" s="2"/>
     </row>
-    <row r="434" spans="1:27" ht="12.75">
+    <row r="434" spans="1:27" ht="13">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="14"/>
@@ -14759,7 +14755,7 @@
       <c r="Z434" s="2"/>
       <c r="AA434" s="2"/>
     </row>
-    <row r="435" spans="1:27" ht="12.75">
+    <row r="435" spans="1:27" ht="13">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="14"/>
@@ -14788,7 +14784,7 @@
       <c r="Z435" s="2"/>
       <c r="AA435" s="2"/>
     </row>
-    <row r="436" spans="1:27" ht="12.75">
+    <row r="436" spans="1:27" ht="13">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="14"/>
@@ -14817,7 +14813,7 @@
       <c r="Z436" s="2"/>
       <c r="AA436" s="2"/>
     </row>
-    <row r="437" spans="1:27" ht="12.75">
+    <row r="437" spans="1:27" ht="13">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="14"/>
@@ -14846,7 +14842,7 @@
       <c r="Z437" s="2"/>
       <c r="AA437" s="2"/>
     </row>
-    <row r="438" spans="1:27" ht="12.75">
+    <row r="438" spans="1:27" ht="13">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="14"/>
@@ -14875,7 +14871,7 @@
       <c r="Z438" s="2"/>
       <c r="AA438" s="2"/>
     </row>
-    <row r="439" spans="1:27" ht="12.75">
+    <row r="439" spans="1:27" ht="13">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="14"/>
@@ -14904,7 +14900,7 @@
       <c r="Z439" s="2"/>
       <c r="AA439" s="2"/>
     </row>
-    <row r="440" spans="1:27" ht="12.75">
+    <row r="440" spans="1:27" ht="13">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="14"/>
@@ -14933,7 +14929,7 @@
       <c r="Z440" s="2"/>
       <c r="AA440" s="2"/>
     </row>
-    <row r="441" spans="1:27" ht="12.75">
+    <row r="441" spans="1:27" ht="13">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="14"/>
@@ -14962,7 +14958,7 @@
       <c r="Z441" s="2"/>
       <c r="AA441" s="2"/>
     </row>
-    <row r="442" spans="1:27" ht="12.75">
+    <row r="442" spans="1:27" ht="13">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="14"/>
@@ -14991,7 +14987,7 @@
       <c r="Z442" s="2"/>
       <c r="AA442" s="2"/>
     </row>
-    <row r="443" spans="1:27" ht="12.75">
+    <row r="443" spans="1:27" ht="13">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="14"/>
@@ -15020,7 +15016,7 @@
       <c r="Z443" s="2"/>
       <c r="AA443" s="2"/>
     </row>
-    <row r="444" spans="1:27" ht="12.75">
+    <row r="444" spans="1:27" ht="13">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="14"/>
@@ -15049,7 +15045,7 @@
       <c r="Z444" s="2"/>
       <c r="AA444" s="2"/>
     </row>
-    <row r="445" spans="1:27" ht="12.75">
+    <row r="445" spans="1:27" ht="13">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="14"/>
@@ -15078,7 +15074,7 @@
       <c r="Z445" s="2"/>
       <c r="AA445" s="2"/>
     </row>
-    <row r="446" spans="1:27" ht="12.75">
+    <row r="446" spans="1:27" ht="13">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="14"/>
@@ -15107,7 +15103,7 @@
       <c r="Z446" s="2"/>
       <c r="AA446" s="2"/>
     </row>
-    <row r="447" spans="1:27" ht="12.75">
+    <row r="447" spans="1:27" ht="13">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="14"/>
@@ -15136,7 +15132,7 @@
       <c r="Z447" s="2"/>
       <c r="AA447" s="2"/>
     </row>
-    <row r="448" spans="1:27" ht="12.75">
+    <row r="448" spans="1:27" ht="13">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="14"/>
@@ -15165,7 +15161,7 @@
       <c r="Z448" s="2"/>
       <c r="AA448" s="2"/>
     </row>
-    <row r="449" spans="1:27" ht="12.75">
+    <row r="449" spans="1:27" ht="13">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="14"/>
@@ -15194,7 +15190,7 @@
       <c r="Z449" s="2"/>
       <c r="AA449" s="2"/>
     </row>
-    <row r="450" spans="1:27" ht="12.75">
+    <row r="450" spans="1:27" ht="13">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="14"/>
@@ -15223,7 +15219,7 @@
       <c r="Z450" s="2"/>
       <c r="AA450" s="2"/>
     </row>
-    <row r="451" spans="1:27" ht="12.75">
+    <row r="451" spans="1:27" ht="13">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="14"/>
@@ -15252,7 +15248,7 @@
       <c r="Z451" s="2"/>
       <c r="AA451" s="2"/>
     </row>
-    <row r="452" spans="1:27" ht="12.75">
+    <row r="452" spans="1:27" ht="13">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="14"/>
@@ -15281,7 +15277,7 @@
       <c r="Z452" s="2"/>
       <c r="AA452" s="2"/>
     </row>
-    <row r="453" spans="1:27" ht="12.75">
+    <row r="453" spans="1:27" ht="13">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="14"/>
@@ -15310,7 +15306,7 @@
       <c r="Z453" s="2"/>
       <c r="AA453" s="2"/>
     </row>
-    <row r="454" spans="1:27" ht="12.75">
+    <row r="454" spans="1:27" ht="13">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="14"/>
@@ -15339,7 +15335,7 @@
       <c r="Z454" s="2"/>
       <c r="AA454" s="2"/>
     </row>
-    <row r="455" spans="1:27" ht="12.75">
+    <row r="455" spans="1:27" ht="13">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="14"/>
@@ -15368,7 +15364,7 @@
       <c r="Z455" s="2"/>
       <c r="AA455" s="2"/>
     </row>
-    <row r="456" spans="1:27" ht="12.75">
+    <row r="456" spans="1:27" ht="13">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="14"/>
@@ -15397,7 +15393,7 @@
       <c r="Z456" s="2"/>
       <c r="AA456" s="2"/>
     </row>
-    <row r="457" spans="1:27" ht="12.75">
+    <row r="457" spans="1:27" ht="13">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="14"/>
@@ -15426,7 +15422,7 @@
       <c r="Z457" s="2"/>
       <c r="AA457" s="2"/>
     </row>
-    <row r="458" spans="1:27" ht="12.75">
+    <row r="458" spans="1:27" ht="13">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="14"/>
@@ -15455,7 +15451,7 @@
       <c r="Z458" s="2"/>
       <c r="AA458" s="2"/>
     </row>
-    <row r="459" spans="1:27" ht="12.75">
+    <row r="459" spans="1:27" ht="13">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="14"/>
@@ -15484,7 +15480,7 @@
       <c r="Z459" s="2"/>
       <c r="AA459" s="2"/>
     </row>
-    <row r="460" spans="1:27" ht="12.75">
+    <row r="460" spans="1:27" ht="13">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="14"/>
@@ -15513,7 +15509,7 @@
       <c r="Z460" s="2"/>
       <c r="AA460" s="2"/>
     </row>
-    <row r="461" spans="1:27" ht="12.75">
+    <row r="461" spans="1:27" ht="13">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="14"/>
@@ -15542,7 +15538,7 @@
       <c r="Z461" s="2"/>
       <c r="AA461" s="2"/>
     </row>
-    <row r="462" spans="1:27" ht="12.75">
+    <row r="462" spans="1:27" ht="13">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="14"/>
@@ -15571,7 +15567,7 @@
       <c r="Z462" s="2"/>
       <c r="AA462" s="2"/>
     </row>
-    <row r="463" spans="1:27" ht="12.75">
+    <row r="463" spans="1:27" ht="13">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="14"/>
@@ -15600,7 +15596,7 @@
       <c r="Z463" s="2"/>
       <c r="AA463" s="2"/>
     </row>
-    <row r="464" spans="1:27" ht="12.75">
+    <row r="464" spans="1:27" ht="13">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="14"/>
@@ -15629,7 +15625,7 @@
       <c r="Z464" s="2"/>
       <c r="AA464" s="2"/>
     </row>
-    <row r="465" spans="1:27" ht="12.75">
+    <row r="465" spans="1:27" ht="13">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="14"/>
@@ -15658,7 +15654,7 @@
       <c r="Z465" s="2"/>
       <c r="AA465" s="2"/>
     </row>
-    <row r="466" spans="1:27" ht="12.75">
+    <row r="466" spans="1:27" ht="13">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="14"/>
@@ -15687,7 +15683,7 @@
       <c r="Z466" s="2"/>
       <c r="AA466" s="2"/>
     </row>
-    <row r="467" spans="1:27" ht="12.75">
+    <row r="467" spans="1:27" ht="13">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="14"/>
@@ -15716,7 +15712,7 @@
       <c r="Z467" s="2"/>
       <c r="AA467" s="2"/>
     </row>
-    <row r="468" spans="1:27" ht="12.75">
+    <row r="468" spans="1:27" ht="13">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="14"/>
@@ -15745,7 +15741,7 @@
       <c r="Z468" s="2"/>
       <c r="AA468" s="2"/>
     </row>
-    <row r="469" spans="1:27" ht="12.75">
+    <row r="469" spans="1:27" ht="13">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="14"/>
@@ -15774,7 +15770,7 @@
       <c r="Z469" s="2"/>
       <c r="AA469" s="2"/>
     </row>
-    <row r="470" spans="1:27" ht="12.75">
+    <row r="470" spans="1:27" ht="13">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="14"/>
@@ -15803,7 +15799,7 @@
       <c r="Z470" s="2"/>
       <c r="AA470" s="2"/>
     </row>
-    <row r="471" spans="1:27" ht="12.75">
+    <row r="471" spans="1:27" ht="13">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="14"/>
@@ -15832,7 +15828,7 @@
       <c r="Z471" s="2"/>
       <c r="AA471" s="2"/>
     </row>
-    <row r="472" spans="1:27" ht="12.75">
+    <row r="472" spans="1:27" ht="13">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="14"/>
@@ -15861,7 +15857,7 @@
       <c r="Z472" s="2"/>
       <c r="AA472" s="2"/>
     </row>
-    <row r="473" spans="1:27" ht="12.75">
+    <row r="473" spans="1:27" ht="13">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="14"/>
@@ -15890,7 +15886,7 @@
       <c r="Z473" s="2"/>
       <c r="AA473" s="2"/>
     </row>
-    <row r="474" spans="1:27" ht="12.75">
+    <row r="474" spans="1:27" ht="13">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="14"/>
@@ -15919,7 +15915,7 @@
       <c r="Z474" s="2"/>
       <c r="AA474" s="2"/>
     </row>
-    <row r="475" spans="1:27" ht="12.75">
+    <row r="475" spans="1:27" ht="13">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="14"/>
@@ -15948,7 +15944,7 @@
       <c r="Z475" s="2"/>
       <c r="AA475" s="2"/>
     </row>
-    <row r="476" spans="1:27" ht="12.75">
+    <row r="476" spans="1:27" ht="13">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="14"/>
@@ -15977,7 +15973,7 @@
       <c r="Z476" s="2"/>
       <c r="AA476" s="2"/>
     </row>
-    <row r="477" spans="1:27" ht="12.75">
+    <row r="477" spans="1:27" ht="13">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="14"/>
@@ -16006,7 +16002,7 @@
       <c r="Z477" s="2"/>
       <c r="AA477" s="2"/>
     </row>
-    <row r="478" spans="1:27" ht="12.75">
+    <row r="478" spans="1:27" ht="13">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="14"/>
@@ -16035,7 +16031,7 @@
       <c r="Z478" s="2"/>
       <c r="AA478" s="2"/>
     </row>
-    <row r="479" spans="1:27" ht="12.75">
+    <row r="479" spans="1:27" ht="13">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="14"/>
@@ -16064,7 +16060,7 @@
       <c r="Z479" s="2"/>
       <c r="AA479" s="2"/>
     </row>
-    <row r="480" spans="1:27" ht="12.75">
+    <row r="480" spans="1:27" ht="13">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="14"/>
@@ -16093,7 +16089,7 @@
       <c r="Z480" s="2"/>
       <c r="AA480" s="2"/>
     </row>
-    <row r="481" spans="1:27" ht="12.75">
+    <row r="481" spans="1:27" ht="13">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="14"/>
@@ -16122,7 +16118,7 @@
       <c r="Z481" s="2"/>
       <c r="AA481" s="2"/>
     </row>
-    <row r="482" spans="1:27" ht="12.75">
+    <row r="482" spans="1:27" ht="13">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="14"/>
@@ -16151,7 +16147,7 @@
       <c r="Z482" s="2"/>
       <c r="AA482" s="2"/>
     </row>
-    <row r="483" spans="1:27" ht="12.75">
+    <row r="483" spans="1:27" ht="13">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="14"/>
@@ -16180,7 +16176,7 @@
       <c r="Z483" s="2"/>
       <c r="AA483" s="2"/>
     </row>
-    <row r="484" spans="1:27" ht="12.75">
+    <row r="484" spans="1:27" ht="13">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="14"/>
@@ -16209,7 +16205,7 @@
       <c r="Z484" s="2"/>
       <c r="AA484" s="2"/>
     </row>
-    <row r="485" spans="1:27" ht="12.75">
+    <row r="485" spans="1:27" ht="13">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="14"/>
@@ -16238,7 +16234,7 @@
       <c r="Z485" s="2"/>
       <c r="AA485" s="2"/>
     </row>
-    <row r="486" spans="1:27" ht="12.75">
+    <row r="486" spans="1:27" ht="13">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="14"/>
@@ -16267,7 +16263,7 @@
       <c r="Z486" s="2"/>
       <c r="AA486" s="2"/>
     </row>
-    <row r="487" spans="1:27" ht="12.75">
+    <row r="487" spans="1:27" ht="13">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="14"/>
@@ -16296,7 +16292,7 @@
       <c r="Z487" s="2"/>
       <c r="AA487" s="2"/>
     </row>
-    <row r="488" spans="1:27" ht="12.75">
+    <row r="488" spans="1:27" ht="13">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="14"/>
@@ -16325,7 +16321,7 @@
       <c r="Z488" s="2"/>
       <c r="AA488" s="2"/>
     </row>
-    <row r="489" spans="1:27" ht="12.75">
+    <row r="489" spans="1:27" ht="13">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="14"/>
@@ -16354,7 +16350,7 @@
       <c r="Z489" s="2"/>
       <c r="AA489" s="2"/>
     </row>
-    <row r="490" spans="1:27" ht="12.75">
+    <row r="490" spans="1:27" ht="13">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="14"/>
@@ -16383,7 +16379,7 @@
       <c r="Z490" s="2"/>
       <c r="AA490" s="2"/>
     </row>
-    <row r="491" spans="1:27" ht="12.75">
+    <row r="491" spans="1:27" ht="13">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="14"/>
@@ -16412,7 +16408,7 @@
       <c r="Z491" s="2"/>
       <c r="AA491" s="2"/>
     </row>
-    <row r="492" spans="1:27" ht="12.75">
+    <row r="492" spans="1:27" ht="13">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="14"/>
@@ -16441,7 +16437,7 @@
       <c r="Z492" s="2"/>
       <c r="AA492" s="2"/>
     </row>
-    <row r="493" spans="1:27" ht="12.75">
+    <row r="493" spans="1:27" ht="13">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="14"/>
@@ -16470,7 +16466,7 @@
       <c r="Z493" s="2"/>
       <c r="AA493" s="2"/>
     </row>
-    <row r="494" spans="1:27" ht="12.75">
+    <row r="494" spans="1:27" ht="13">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="14"/>
@@ -16499,7 +16495,7 @@
       <c r="Z494" s="2"/>
       <c r="AA494" s="2"/>
     </row>
-    <row r="495" spans="1:27" ht="12.75">
+    <row r="495" spans="1:27" ht="13">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="14"/>
@@ -16528,7 +16524,7 @@
       <c r="Z495" s="2"/>
       <c r="AA495" s="2"/>
     </row>
-    <row r="496" spans="1:27" ht="12.75">
+    <row r="496" spans="1:27" ht="13">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="14"/>
@@ -16557,7 +16553,7 @@
       <c r="Z496" s="2"/>
       <c r="AA496" s="2"/>
     </row>
-    <row r="497" spans="1:27" ht="12.75">
+    <row r="497" spans="1:27" ht="13">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="14"/>
@@ -16586,7 +16582,7 @@
       <c r="Z497" s="2"/>
       <c r="AA497" s="2"/>
     </row>
-    <row r="498" spans="1:27" ht="12.75">
+    <row r="498" spans="1:27" ht="13">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="14"/>
@@ -16615,7 +16611,7 @@
       <c r="Z498" s="2"/>
       <c r="AA498" s="2"/>
     </row>
-    <row r="499" spans="1:27" ht="12.75">
+    <row r="499" spans="1:27" ht="13">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="14"/>
@@ -16644,7 +16640,7 @@
       <c r="Z499" s="2"/>
       <c r="AA499" s="2"/>
     </row>
-    <row r="500" spans="1:27" ht="12.75">
+    <row r="500" spans="1:27" ht="13">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="14"/>
@@ -16673,7 +16669,7 @@
       <c r="Z500" s="2"/>
       <c r="AA500" s="2"/>
     </row>
-    <row r="501" spans="1:27" ht="12.75">
+    <row r="501" spans="1:27" ht="13">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="14"/>
@@ -16702,7 +16698,7 @@
       <c r="Z501" s="2"/>
       <c r="AA501" s="2"/>
     </row>
-    <row r="502" spans="1:27" ht="12.75">
+    <row r="502" spans="1:27" ht="13">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="14"/>
@@ -16731,7 +16727,7 @@
       <c r="Z502" s="2"/>
       <c r="AA502" s="2"/>
     </row>
-    <row r="503" spans="1:27" ht="12.75">
+    <row r="503" spans="1:27" ht="13">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="14"/>
@@ -16760,7 +16756,7 @@
       <c r="Z503" s="2"/>
       <c r="AA503" s="2"/>
     </row>
-    <row r="504" spans="1:27" ht="12.75">
+    <row r="504" spans="1:27" ht="13">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="14"/>
@@ -16789,7 +16785,7 @@
       <c r="Z504" s="2"/>
       <c r="AA504" s="2"/>
     </row>
-    <row r="505" spans="1:27" ht="12.75">
+    <row r="505" spans="1:27" ht="13">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="14"/>
@@ -16818,7 +16814,7 @@
       <c r="Z505" s="2"/>
       <c r="AA505" s="2"/>
     </row>
-    <row r="506" spans="1:27" ht="12.75">
+    <row r="506" spans="1:27" ht="13">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="14"/>
@@ -16847,7 +16843,7 @@
       <c r="Z506" s="2"/>
       <c r="AA506" s="2"/>
     </row>
-    <row r="507" spans="1:27" ht="12.75">
+    <row r="507" spans="1:27" ht="13">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="14"/>
@@ -16876,7 +16872,7 @@
       <c r="Z507" s="2"/>
       <c r="AA507" s="2"/>
     </row>
-    <row r="508" spans="1:27" ht="12.75">
+    <row r="508" spans="1:27" ht="13">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="14"/>
@@ -16905,7 +16901,7 @@
       <c r="Z508" s="2"/>
       <c r="AA508" s="2"/>
     </row>
-    <row r="509" spans="1:27" ht="12.75">
+    <row r="509" spans="1:27" ht="13">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="14"/>
@@ -16934,7 +16930,7 @@
       <c r="Z509" s="2"/>
       <c r="AA509" s="2"/>
     </row>
-    <row r="510" spans="1:27" ht="12.75">
+    <row r="510" spans="1:27" ht="13">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="14"/>
@@ -16963,7 +16959,7 @@
       <c r="Z510" s="2"/>
       <c r="AA510" s="2"/>
     </row>
-    <row r="511" spans="1:27" ht="12.75">
+    <row r="511" spans="1:27" ht="13">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="14"/>
@@ -16992,7 +16988,7 @@
       <c r="Z511" s="2"/>
       <c r="AA511" s="2"/>
     </row>
-    <row r="512" spans="1:27" ht="12.75">
+    <row r="512" spans="1:27" ht="13">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="14"/>
@@ -17021,7 +17017,7 @@
       <c r="Z512" s="2"/>
       <c r="AA512" s="2"/>
     </row>
-    <row r="513" spans="1:27" ht="12.75">
+    <row r="513" spans="1:27" ht="13">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="14"/>
@@ -17050,7 +17046,7 @@
       <c r="Z513" s="2"/>
       <c r="AA513" s="2"/>
     </row>
-    <row r="514" spans="1:27" ht="12.75">
+    <row r="514" spans="1:27" ht="13">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="14"/>
@@ -17079,7 +17075,7 @@
       <c r="Z514" s="2"/>
       <c r="AA514" s="2"/>
     </row>
-    <row r="515" spans="1:27" ht="12.75">
+    <row r="515" spans="1:27" ht="13">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="14"/>
@@ -17108,7 +17104,7 @@
       <c r="Z515" s="2"/>
       <c r="AA515" s="2"/>
     </row>
-    <row r="516" spans="1:27" ht="12.75">
+    <row r="516" spans="1:27" ht="13">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="14"/>
@@ -17137,7 +17133,7 @@
       <c r="Z516" s="2"/>
       <c r="AA516" s="2"/>
     </row>
-    <row r="517" spans="1:27" ht="12.75">
+    <row r="517" spans="1:27" ht="13">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="14"/>
@@ -17166,7 +17162,7 @@
       <c r="Z517" s="2"/>
       <c r="AA517" s="2"/>
     </row>
-    <row r="518" spans="1:27" ht="12.75">
+    <row r="518" spans="1:27" ht="13">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="14"/>
@@ -17195,7 +17191,7 @@
       <c r="Z518" s="2"/>
       <c r="AA518" s="2"/>
     </row>
-    <row r="519" spans="1:27" ht="12.75">
+    <row r="519" spans="1:27" ht="13">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="14"/>
@@ -17224,7 +17220,7 @@
       <c r="Z519" s="2"/>
       <c r="AA519" s="2"/>
     </row>
-    <row r="520" spans="1:27" ht="12.75">
+    <row r="520" spans="1:27" ht="13">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="14"/>
@@ -17253,7 +17249,7 @@
       <c r="Z520" s="2"/>
       <c r="AA520" s="2"/>
     </row>
-    <row r="521" spans="1:27" ht="12.75">
+    <row r="521" spans="1:27" ht="13">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="14"/>
@@ -17282,7 +17278,7 @@
       <c r="Z521" s="2"/>
       <c r="AA521" s="2"/>
     </row>
-    <row r="522" spans="1:27" ht="12.75">
+    <row r="522" spans="1:27" ht="13">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="14"/>
@@ -17311,7 +17307,7 @@
       <c r="Z522" s="2"/>
       <c r="AA522" s="2"/>
     </row>
-    <row r="523" spans="1:27" ht="12.75">
+    <row r="523" spans="1:27" ht="13">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="14"/>
@@ -17340,7 +17336,7 @@
       <c r="Z523" s="2"/>
       <c r="AA523" s="2"/>
     </row>
-    <row r="524" spans="1:27" ht="12.75">
+    <row r="524" spans="1:27" ht="13">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="14"/>
@@ -17369,7 +17365,7 @@
       <c r="Z524" s="2"/>
       <c r="AA524" s="2"/>
     </row>
-    <row r="525" spans="1:27" ht="12.75">
+    <row r="525" spans="1:27" ht="13">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="14"/>
@@ -17398,7 +17394,7 @@
       <c r="Z525" s="2"/>
       <c r="AA525" s="2"/>
     </row>
-    <row r="526" spans="1:27" ht="12.75">
+    <row r="526" spans="1:27" ht="13">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="14"/>
@@ -17427,7 +17423,7 @@
       <c r="Z526" s="2"/>
       <c r="AA526" s="2"/>
     </row>
-    <row r="527" spans="1:27" ht="12.75">
+    <row r="527" spans="1:27" ht="13">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="14"/>
@@ -17456,7 +17452,7 @@
       <c r="Z527" s="2"/>
       <c r="AA527" s="2"/>
     </row>
-    <row r="528" spans="1:27" ht="12.75">
+    <row r="528" spans="1:27" ht="13">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="14"/>
@@ -17485,7 +17481,7 @@
       <c r="Z528" s="2"/>
       <c r="AA528" s="2"/>
     </row>
-    <row r="529" spans="1:27" ht="12.75">
+    <row r="529" spans="1:27" ht="13">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="14"/>
@@ -17514,7 +17510,7 @@
       <c r="Z529" s="2"/>
       <c r="AA529" s="2"/>
     </row>
-    <row r="530" spans="1:27" ht="12.75">
+    <row r="530" spans="1:27" ht="13">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="14"/>
@@ -17543,7 +17539,7 @@
       <c r="Z530" s="2"/>
       <c r="AA530" s="2"/>
     </row>
-    <row r="531" spans="1:27" ht="12.75">
+    <row r="531" spans="1:27" ht="13">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="14"/>
@@ -17572,7 +17568,7 @@
       <c r="Z531" s="2"/>
       <c r="AA531" s="2"/>
     </row>
-    <row r="532" spans="1:27" ht="12.75">
+    <row r="532" spans="1:27" ht="13">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="14"/>
@@ -17601,7 +17597,7 @@
       <c r="Z532" s="2"/>
       <c r="AA532" s="2"/>
     </row>
-    <row r="533" spans="1:27" ht="12.75">
+    <row r="533" spans="1:27" ht="13">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="14"/>
@@ -17630,7 +17626,7 @@
       <c r="Z533" s="2"/>
       <c r="AA533" s="2"/>
     </row>
-    <row r="534" spans="1:27" ht="12.75">
+    <row r="534" spans="1:27" ht="13">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="14"/>
@@ -17659,7 +17655,7 @@
       <c r="Z534" s="2"/>
       <c r="AA534" s="2"/>
     </row>
-    <row r="535" spans="1:27" ht="12.75">
+    <row r="535" spans="1:27" ht="13">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="14"/>
@@ -17688,7 +17684,7 @@
       <c r="Z535" s="2"/>
       <c r="AA535" s="2"/>
     </row>
-    <row r="536" spans="1:27" ht="12.75">
+    <row r="536" spans="1:27" ht="13">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="14"/>
@@ -17717,7 +17713,7 @@
       <c r="Z536" s="2"/>
       <c r="AA536" s="2"/>
     </row>
-    <row r="537" spans="1:27" ht="12.75">
+    <row r="537" spans="1:27" ht="13">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="14"/>
@@ -17746,7 +17742,7 @@
       <c r="Z537" s="2"/>
       <c r="AA537" s="2"/>
     </row>
-    <row r="538" spans="1:27" ht="12.75">
+    <row r="538" spans="1:27" ht="13">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="14"/>
@@ -17775,7 +17771,7 @@
       <c r="Z538" s="2"/>
       <c r="AA538" s="2"/>
     </row>
-    <row r="539" spans="1:27" ht="12.75">
+    <row r="539" spans="1:27" ht="13">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="14"/>
@@ -17804,7 +17800,7 @@
       <c r="Z539" s="2"/>
       <c r="AA539" s="2"/>
     </row>
-    <row r="540" spans="1:27" ht="12.75">
+    <row r="540" spans="1:27" ht="13">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="14"/>
@@ -17833,7 +17829,7 @@
       <c r="Z540" s="2"/>
       <c r="AA540" s="2"/>
     </row>
-    <row r="541" spans="1:27" ht="12.75">
+    <row r="541" spans="1:27" ht="13">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="14"/>
@@ -17862,7 +17858,7 @@
       <c r="Z541" s="2"/>
       <c r="AA541" s="2"/>
     </row>
-    <row r="542" spans="1:27" ht="12.75">
+    <row r="542" spans="1:27" ht="13">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="14"/>
@@ -17891,7 +17887,7 @@
       <c r="Z542" s="2"/>
       <c r="AA542" s="2"/>
     </row>
-    <row r="543" spans="1:27" ht="12.75">
+    <row r="543" spans="1:27" ht="13">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="14"/>
@@ -17920,7 +17916,7 @@
       <c r="Z543" s="2"/>
       <c r="AA543" s="2"/>
     </row>
-    <row r="544" spans="1:27" ht="12.75">
+    <row r="544" spans="1:27" ht="13">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="14"/>
@@ -17949,7 +17945,7 @@
       <c r="Z544" s="2"/>
       <c r="AA544" s="2"/>
     </row>
-    <row r="545" spans="1:27" ht="12.75">
+    <row r="545" spans="1:27" ht="13">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="14"/>
@@ -17978,7 +17974,7 @@
       <c r="Z545" s="2"/>
       <c r="AA545" s="2"/>
     </row>
-    <row r="546" spans="1:27" ht="12.75">
+    <row r="546" spans="1:27" ht="13">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="14"/>
@@ -18007,7 +18003,7 @@
       <c r="Z546" s="2"/>
       <c r="AA546" s="2"/>
     </row>
-    <row r="547" spans="1:27" ht="12.75">
+    <row r="547" spans="1:27" ht="13">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="14"/>
@@ -18036,7 +18032,7 @@
       <c r="Z547" s="2"/>
       <c r="AA547" s="2"/>
     </row>
-    <row r="548" spans="1:27" ht="12.75">
+    <row r="548" spans="1:27" ht="13">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="14"/>
@@ -18065,7 +18061,7 @@
       <c r="Z548" s="2"/>
       <c r="AA548" s="2"/>
     </row>
-    <row r="549" spans="1:27" ht="12.75">
+    <row r="549" spans="1:27" ht="13">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="14"/>
@@ -18094,7 +18090,7 @@
       <c r="Z549" s="2"/>
       <c r="AA549" s="2"/>
     </row>
-    <row r="550" spans="1:27" ht="12.75">
+    <row r="550" spans="1:27" ht="13">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="14"/>
@@ -18123,7 +18119,7 @@
       <c r="Z550" s="2"/>
       <c r="AA550" s="2"/>
     </row>
-    <row r="551" spans="1:27" ht="12.75">
+    <row r="551" spans="1:27" ht="13">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="14"/>
@@ -18152,7 +18148,7 @@
       <c r="Z551" s="2"/>
       <c r="AA551" s="2"/>
     </row>
-    <row r="552" spans="1:27" ht="12.75">
+    <row r="552" spans="1:27" ht="13">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="14"/>
@@ -18181,7 +18177,7 @@
       <c r="Z552" s="2"/>
       <c r="AA552" s="2"/>
     </row>
-    <row r="553" spans="1:27" ht="12.75">
+    <row r="553" spans="1:27" ht="13">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="14"/>
@@ -18210,7 +18206,7 @@
       <c r="Z553" s="2"/>
       <c r="AA553" s="2"/>
     </row>
-    <row r="554" spans="1:27" ht="12.75">
+    <row r="554" spans="1:27" ht="13">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="14"/>
@@ -18239,7 +18235,7 @@
       <c r="Z554" s="2"/>
       <c r="AA554" s="2"/>
     </row>
-    <row r="555" spans="1:27" ht="12.75">
+    <row r="555" spans="1:27" ht="13">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="14"/>
@@ -18268,7 +18264,7 @@
       <c r="Z555" s="2"/>
       <c r="AA555" s="2"/>
     </row>
-    <row r="556" spans="1:27" ht="12.75">
+    <row r="556" spans="1:27" ht="13">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="14"/>
@@ -18297,7 +18293,7 @@
       <c r="Z556" s="2"/>
       <c r="AA556" s="2"/>
     </row>
-    <row r="557" spans="1:27" ht="12.75">
+    <row r="557" spans="1:27" ht="13">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="14"/>
@@ -18326,7 +18322,7 @@
       <c r="Z557" s="2"/>
       <c r="AA557" s="2"/>
     </row>
-    <row r="558" spans="1:27" ht="12.75">
+    <row r="558" spans="1:27" ht="13">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="14"/>
@@ -18355,7 +18351,7 @@
       <c r="Z558" s="2"/>
       <c r="AA558" s="2"/>
     </row>
-    <row r="559" spans="1:27" ht="12.75">
+    <row r="559" spans="1:27" ht="13">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="14"/>
@@ -18384,7 +18380,7 @@
       <c r="Z559" s="2"/>
       <c r="AA559" s="2"/>
     </row>
-    <row r="560" spans="1:27" ht="12.75">
+    <row r="560" spans="1:27" ht="13">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="14"/>
@@ -18413,7 +18409,7 @@
       <c r="Z560" s="2"/>
       <c r="AA560" s="2"/>
     </row>
-    <row r="561" spans="1:27" ht="12.75">
+    <row r="561" spans="1:27" ht="13">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="14"/>
@@ -18442,7 +18438,7 @@
       <c r="Z561" s="2"/>
       <c r="AA561" s="2"/>
     </row>
-    <row r="562" spans="1:27" ht="12.75">
+    <row r="562" spans="1:27" ht="13">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="14"/>
@@ -18471,7 +18467,7 @@
       <c r="Z562" s="2"/>
       <c r="AA562" s="2"/>
     </row>
-    <row r="563" spans="1:27" ht="12.75">
+    <row r="563" spans="1:27" ht="13">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="14"/>
@@ -18500,7 +18496,7 @@
       <c r="Z563" s="2"/>
       <c r="AA563" s="2"/>
     </row>
-    <row r="564" spans="1:27" ht="12.75">
+    <row r="564" spans="1:27" ht="13">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="14"/>
@@ -18529,7 +18525,7 @@
       <c r="Z564" s="2"/>
       <c r="AA564" s="2"/>
     </row>
-    <row r="565" spans="1:27" ht="12.75">
+    <row r="565" spans="1:27" ht="13">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="14"/>
@@ -18558,7 +18554,7 @@
       <c r="Z565" s="2"/>
       <c r="AA565" s="2"/>
     </row>
-    <row r="566" spans="1:27" ht="12.75">
+    <row r="566" spans="1:27" ht="13">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="14"/>
@@ -18587,7 +18583,7 @@
       <c r="Z566" s="2"/>
       <c r="AA566" s="2"/>
     </row>
-    <row r="567" spans="1:27" ht="12.75">
+    <row r="567" spans="1:27" ht="13">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="14"/>
@@ -18616,7 +18612,7 @@
       <c r="Z567" s="2"/>
       <c r="AA567" s="2"/>
     </row>
-    <row r="568" spans="1:27" ht="12.75">
+    <row r="568" spans="1:27" ht="13">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="14"/>
@@ -18645,7 +18641,7 @@
       <c r="Z568" s="2"/>
       <c r="AA568" s="2"/>
     </row>
-    <row r="569" spans="1:27" ht="12.75">
+    <row r="569" spans="1:27" ht="13">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="14"/>
@@ -18674,7 +18670,7 @@
       <c r="Z569" s="2"/>
       <c r="AA569" s="2"/>
     </row>
-    <row r="570" spans="1:27" ht="12.75">
+    <row r="570" spans="1:27" ht="13">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="14"/>
@@ -18703,7 +18699,7 @@
       <c r="Z570" s="2"/>
       <c r="AA570" s="2"/>
     </row>
-    <row r="571" spans="1:27" ht="12.75">
+    <row r="571" spans="1:27" ht="13">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="14"/>
@@ -18732,7 +18728,7 @@
       <c r="Z571" s="2"/>
       <c r="AA571" s="2"/>
     </row>
-    <row r="572" spans="1:27" ht="12.75">
+    <row r="572" spans="1:27" ht="13">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="14"/>
@@ -18761,7 +18757,7 @@
       <c r="Z572" s="2"/>
       <c r="AA572" s="2"/>
     </row>
-    <row r="573" spans="1:27" ht="12.75">
+    <row r="573" spans="1:27" ht="13">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="14"/>
@@ -18790,7 +18786,7 @@
       <c r="Z573" s="2"/>
       <c r="AA573" s="2"/>
     </row>
-    <row r="574" spans="1:27" ht="12.75">
+    <row r="574" spans="1:27" ht="13">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="14"/>
@@ -18819,7 +18815,7 @@
       <c r="Z574" s="2"/>
       <c r="AA574" s="2"/>
     </row>
-    <row r="575" spans="1:27" ht="12.75">
+    <row r="575" spans="1:27" ht="13">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="14"/>
@@ -18848,7 +18844,7 @@
       <c r="Z575" s="2"/>
       <c r="AA575" s="2"/>
     </row>
-    <row r="576" spans="1:27" ht="12.75">
+    <row r="576" spans="1:27" ht="13">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="14"/>
@@ -18877,7 +18873,7 @@
       <c r="Z576" s="2"/>
       <c r="AA576" s="2"/>
     </row>
-    <row r="577" spans="1:27" ht="12.75">
+    <row r="577" spans="1:27" ht="13">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="14"/>
@@ -18906,7 +18902,7 @@
       <c r="Z577" s="2"/>
       <c r="AA577" s="2"/>
     </row>
-    <row r="578" spans="1:27" ht="12.75">
+    <row r="578" spans="1:27" ht="13">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="14"/>
@@ -18935,7 +18931,7 @@
       <c r="Z578" s="2"/>
       <c r="AA578" s="2"/>
     </row>
-    <row r="579" spans="1:27" ht="12.75">
+    <row r="579" spans="1:27" ht="13">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="14"/>
@@ -18964,7 +18960,7 @@
       <c r="Z579" s="2"/>
       <c r="AA579" s="2"/>
     </row>
-    <row r="580" spans="1:27" ht="12.75">
+    <row r="580" spans="1:27" ht="13">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="14"/>
@@ -18993,7 +18989,7 @@
       <c r="Z580" s="2"/>
       <c r="AA580" s="2"/>
     </row>
-    <row r="581" spans="1:27" ht="12.75">
+    <row r="581" spans="1:27" ht="13">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="14"/>
@@ -19022,7 +19018,7 @@
       <c r="Z581" s="2"/>
       <c r="AA581" s="2"/>
     </row>
-    <row r="582" spans="1:27" ht="12.75">
+    <row r="582" spans="1:27" ht="13">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="14"/>
@@ -19051,7 +19047,7 @@
       <c r="Z582" s="2"/>
       <c r="AA582" s="2"/>
     </row>
-    <row r="583" spans="1:27" ht="12.75">
+    <row r="583" spans="1:27" ht="13">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="14"/>
@@ -19080,7 +19076,7 @@
       <c r="Z583" s="2"/>
       <c r="AA583" s="2"/>
     </row>
-    <row r="584" spans="1:27" ht="12.75">
+    <row r="584" spans="1:27" ht="13">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="14"/>
@@ -19109,7 +19105,7 @@
       <c r="Z584" s="2"/>
       <c r="AA584" s="2"/>
     </row>
-    <row r="585" spans="1:27" ht="12.75">
+    <row r="585" spans="1:27" ht="13">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="14"/>
@@ -19138,7 +19134,7 @@
       <c r="Z585" s="2"/>
       <c r="AA585" s="2"/>
     </row>
-    <row r="586" spans="1:27" ht="12.75">
+    <row r="586" spans="1:27" ht="13">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="14"/>
@@ -19167,7 +19163,7 @@
       <c r="Z586" s="2"/>
       <c r="AA586" s="2"/>
     </row>
-    <row r="587" spans="1:27" ht="12.75">
+    <row r="587" spans="1:27" ht="13">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="14"/>
@@ -19196,7 +19192,7 @@
       <c r="Z587" s="2"/>
       <c r="AA587" s="2"/>
     </row>
-    <row r="588" spans="1:27" ht="12.75">
+    <row r="588" spans="1:27" ht="13">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="14"/>
@@ -19225,7 +19221,7 @@
       <c r="Z588" s="2"/>
       <c r="AA588" s="2"/>
     </row>
-    <row r="589" spans="1:27" ht="12.75">
+    <row r="589" spans="1:27" ht="13">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="14"/>
@@ -19254,7 +19250,7 @@
       <c r="Z589" s="2"/>
       <c r="AA589" s="2"/>
     </row>
-    <row r="590" spans="1:27" ht="12.75">
+    <row r="590" spans="1:27" ht="13">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="14"/>
@@ -19283,7 +19279,7 @@
       <c r="Z590" s="2"/>
       <c r="AA590" s="2"/>
     </row>
-    <row r="591" spans="1:27" ht="12.75">
+    <row r="591" spans="1:27" ht="13">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="14"/>
@@ -19312,7 +19308,7 @@
       <c r="Z591" s="2"/>
       <c r="AA591" s="2"/>
     </row>
-    <row r="592" spans="1:27" ht="12.75">
+    <row r="592" spans="1:27" ht="13">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="14"/>
@@ -19341,7 +19337,7 @@
       <c r="Z592" s="2"/>
       <c r="AA592" s="2"/>
     </row>
-    <row r="593" spans="1:27" ht="12.75">
+    <row r="593" spans="1:27" ht="13">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="14"/>
@@ -19370,7 +19366,7 @@
       <c r="Z593" s="2"/>
       <c r="AA593" s="2"/>
     </row>
-    <row r="594" spans="1:27" ht="12.75">
+    <row r="594" spans="1:27" ht="13">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="14"/>
@@ -19399,7 +19395,7 @@
       <c r="Z594" s="2"/>
       <c r="AA594" s="2"/>
     </row>
-    <row r="595" spans="1:27" ht="12.75">
+    <row r="595" spans="1:27" ht="13">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="14"/>
@@ -19428,7 +19424,7 @@
       <c r="Z595" s="2"/>
       <c r="AA595" s="2"/>
     </row>
-    <row r="596" spans="1:27" ht="12.75">
+    <row r="596" spans="1:27" ht="13">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="14"/>
@@ -19457,7 +19453,7 @@
       <c r="Z596" s="2"/>
       <c r="AA596" s="2"/>
     </row>
-    <row r="597" spans="1:27" ht="12.75">
+    <row r="597" spans="1:27" ht="13">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="14"/>
@@ -19486,7 +19482,7 @@
       <c r="Z597" s="2"/>
       <c r="AA597" s="2"/>
     </row>
-    <row r="598" spans="1:27" ht="12.75">
+    <row r="598" spans="1:27" ht="13">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="14"/>
@@ -19515,7 +19511,7 @@
       <c r="Z598" s="2"/>
       <c r="AA598" s="2"/>
     </row>
-    <row r="599" spans="1:27" ht="12.75">
+    <row r="599" spans="1:27" ht="13">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="14"/>
@@ -19544,7 +19540,7 @@
       <c r="Z599" s="2"/>
       <c r="AA599" s="2"/>
     </row>
-    <row r="600" spans="1:27" ht="12.75">
+    <row r="600" spans="1:27" ht="13">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="14"/>
@@ -19573,7 +19569,7 @@
       <c r="Z600" s="2"/>
       <c r="AA600" s="2"/>
     </row>
-    <row r="601" spans="1:27" ht="12.75">
+    <row r="601" spans="1:27" ht="13">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="14"/>
@@ -19602,7 +19598,7 @@
       <c r="Z601" s="2"/>
       <c r="AA601" s="2"/>
     </row>
-    <row r="602" spans="1:27" ht="12.75">
+    <row r="602" spans="1:27" ht="13">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="14"/>
@@ -19631,7 +19627,7 @@
       <c r="Z602" s="2"/>
       <c r="AA602" s="2"/>
     </row>
-    <row r="603" spans="1:27" ht="12.75">
+    <row r="603" spans="1:27" ht="13">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="14"/>
@@ -19660,7 +19656,7 @@
       <c r="Z603" s="2"/>
       <c r="AA603" s="2"/>
     </row>
-    <row r="604" spans="1:27" ht="12.75">
+    <row r="604" spans="1:27" ht="13">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="14"/>
@@ -19689,7 +19685,7 @@
       <c r="Z604" s="2"/>
       <c r="AA604" s="2"/>
     </row>
-    <row r="605" spans="1:27" ht="12.75">
+    <row r="605" spans="1:27" ht="13">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="14"/>
@@ -19718,7 +19714,7 @@
       <c r="Z605" s="2"/>
       <c r="AA605" s="2"/>
     </row>
-    <row r="606" spans="1:27" ht="12.75">
+    <row r="606" spans="1:27" ht="13">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="14"/>
@@ -19747,7 +19743,7 @@
       <c r="Z606" s="2"/>
       <c r="AA606" s="2"/>
     </row>
-    <row r="607" spans="1:27" ht="12.75">
+    <row r="607" spans="1:27" ht="13">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="14"/>
@@ -19776,7 +19772,7 @@
       <c r="Z607" s="2"/>
       <c r="AA607" s="2"/>
     </row>
-    <row r="608" spans="1:27" ht="12.75">
+    <row r="608" spans="1:27" ht="13">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="14"/>
@@ -19805,7 +19801,7 @@
       <c r="Z608" s="2"/>
       <c r="AA608" s="2"/>
     </row>
-    <row r="609" spans="1:27" ht="12.75">
+    <row r="609" spans="1:27" ht="13">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="14"/>
@@ -19834,7 +19830,7 @@
       <c r="Z609" s="2"/>
       <c r="AA609" s="2"/>
     </row>
-    <row r="610" spans="1:27" ht="12.75">
+    <row r="610" spans="1:27" ht="13">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="14"/>
@@ -19863,7 +19859,7 @@
       <c r="Z610" s="2"/>
       <c r="AA610" s="2"/>
     </row>
-    <row r="611" spans="1:27" ht="12.75">
+    <row r="611" spans="1:27" ht="13">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="14"/>
@@ -19892,7 +19888,7 @@
       <c r="Z611" s="2"/>
       <c r="AA611" s="2"/>
     </row>
-    <row r="612" spans="1:27" ht="12.75">
+    <row r="612" spans="1:27" ht="13">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="14"/>
@@ -19921,7 +19917,7 @@
       <c r="Z612" s="2"/>
       <c r="AA612" s="2"/>
     </row>
-    <row r="613" spans="1:27" ht="12.75">
+    <row r="613" spans="1:27" ht="13">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="14"/>
@@ -19950,7 +19946,7 @@
       <c r="Z613" s="2"/>
       <c r="AA613" s="2"/>
     </row>
-    <row r="614" spans="1:27" ht="12.75">
+    <row r="614" spans="1:27" ht="13">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="14"/>
@@ -19979,7 +19975,7 @@
       <c r="Z614" s="2"/>
       <c r="AA614" s="2"/>
     </row>
-    <row r="615" spans="1:27" ht="12.75">
+    <row r="615" spans="1:27" ht="13">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="14"/>
@@ -20008,7 +20004,7 @@
       <c r="Z615" s="2"/>
       <c r="AA615" s="2"/>
     </row>
-    <row r="616" spans="1:27" ht="12.75">
+    <row r="616" spans="1:27" ht="13">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="14"/>
@@ -20037,7 +20033,7 @@
       <c r="Z616" s="2"/>
       <c r="AA616" s="2"/>
     </row>
-    <row r="617" spans="1:27" ht="12.75">
+    <row r="617" spans="1:27" ht="13">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="14"/>
@@ -20066,7 +20062,7 @@
       <c r="Z617" s="2"/>
       <c r="AA617" s="2"/>
     </row>
-    <row r="618" spans="1:27" ht="12.75">
+    <row r="618" spans="1:27" ht="13">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="14"/>
@@ -20095,7 +20091,7 @@
       <c r="Z618" s="2"/>
       <c r="AA618" s="2"/>
     </row>
-    <row r="619" spans="1:27" ht="12.75">
+    <row r="619" spans="1:27" ht="13">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="14"/>
@@ -20124,7 +20120,7 @@
       <c r="Z619" s="2"/>
       <c r="AA619" s="2"/>
     </row>
-    <row r="620" spans="1:27" ht="12.75">
+    <row r="620" spans="1:27" ht="13">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="14"/>
@@ -20153,7 +20149,7 @@
       <c r="Z620" s="2"/>
       <c r="AA620" s="2"/>
     </row>
-    <row r="621" spans="1:27" ht="12.75">
+    <row r="621" spans="1:27" ht="13">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="14"/>
@@ -20182,7 +20178,7 @@
       <c r="Z621" s="2"/>
       <c r="AA621" s="2"/>
     </row>
-    <row r="622" spans="1:27" ht="12.75">
+    <row r="622" spans="1:27" ht="13">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="14"/>
@@ -20211,7 +20207,7 @@
       <c r="Z622" s="2"/>
       <c r="AA622" s="2"/>
     </row>
-    <row r="623" spans="1:27" ht="12.75">
+    <row r="623" spans="1:27" ht="13">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="14"/>
@@ -20240,7 +20236,7 @@
       <c r="Z623" s="2"/>
       <c r="AA623" s="2"/>
     </row>
-    <row r="624" spans="1:27" ht="12.75">
+    <row r="624" spans="1:27" ht="13">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="14"/>
@@ -20269,7 +20265,7 @@
       <c r="Z624" s="2"/>
       <c r="AA624" s="2"/>
     </row>
-    <row r="625" spans="1:27" ht="12.75">
+    <row r="625" spans="1:27" ht="13">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="14"/>
@@ -20298,7 +20294,7 @@
       <c r="Z625" s="2"/>
       <c r="AA625" s="2"/>
     </row>
-    <row r="626" spans="1:27" ht="12.75">
+    <row r="626" spans="1:27" ht="13">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="14"/>
@@ -20327,7 +20323,7 @@
       <c r="Z626" s="2"/>
       <c r="AA626" s="2"/>
     </row>
-    <row r="627" spans="1:27" ht="12.75">
+    <row r="627" spans="1:27" ht="13">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="14"/>
@@ -20356,7 +20352,7 @@
       <c r="Z627" s="2"/>
       <c r="AA627" s="2"/>
     </row>
-    <row r="628" spans="1:27" ht="12.75">
+    <row r="628" spans="1:27" ht="13">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="14"/>
@@ -20385,7 +20381,7 @@
       <c r="Z628" s="2"/>
       <c r="AA628" s="2"/>
     </row>
-    <row r="629" spans="1:27" ht="12.75">
+    <row r="629" spans="1:27" ht="13">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="14"/>
@@ -20414,7 +20410,7 @@
       <c r="Z629" s="2"/>
       <c r="AA629" s="2"/>
     </row>
-    <row r="630" spans="1:27" ht="12.75">
+    <row r="630" spans="1:27" ht="13">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="14"/>
@@ -20443,7 +20439,7 @@
       <c r="Z630" s="2"/>
       <c r="AA630" s="2"/>
     </row>
-    <row r="631" spans="1:27" ht="12.75">
+    <row r="631" spans="1:27" ht="13">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="14"/>
@@ -20472,7 +20468,7 @@
       <c r="Z631" s="2"/>
       <c r="AA631" s="2"/>
     </row>
-    <row r="632" spans="1:27" ht="12.75">
+    <row r="632" spans="1:27" ht="13">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="14"/>
@@ -20501,7 +20497,7 @@
       <c r="Z632" s="2"/>
       <c r="AA632" s="2"/>
     </row>
-    <row r="633" spans="1:27" ht="12.75">
+    <row r="633" spans="1:27" ht="13">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="14"/>
@@ -20530,7 +20526,7 @@
       <c r="Z633" s="2"/>
       <c r="AA633" s="2"/>
     </row>
-    <row r="634" spans="1:27" ht="12.75">
+    <row r="634" spans="1:27" ht="13">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="14"/>
@@ -20559,7 +20555,7 @@
       <c r="Z634" s="2"/>
       <c r="AA634" s="2"/>
     </row>
-    <row r="635" spans="1:27" ht="12.75">
+    <row r="635" spans="1:27" ht="13">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="14"/>
@@ -20588,7 +20584,7 @@
       <c r="Z635" s="2"/>
       <c r="AA635" s="2"/>
     </row>
-    <row r="636" spans="1:27" ht="12.75">
+    <row r="636" spans="1:27" ht="13">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="14"/>
@@ -20617,7 +20613,7 @@
       <c r="Z636" s="2"/>
       <c r="AA636" s="2"/>
     </row>
-    <row r="637" spans="1:27" ht="12.75">
+    <row r="637" spans="1:27" ht="13">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="14"/>
@@ -20646,7 +20642,7 @@
       <c r="Z637" s="2"/>
       <c r="AA637" s="2"/>
     </row>
-    <row r="638" spans="1:27" ht="12.75">
+    <row r="638" spans="1:27" ht="13">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="14"/>
@@ -20675,7 +20671,7 @@
       <c r="Z638" s="2"/>
       <c r="AA638" s="2"/>
     </row>
-    <row r="639" spans="1:27" ht="12.75">
+    <row r="639" spans="1:27" ht="13">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="14"/>
@@ -20704,7 +20700,7 @@
       <c r="Z639" s="2"/>
       <c r="AA639" s="2"/>
     </row>
-    <row r="640" spans="1:27" ht="12.75">
+    <row r="640" spans="1:27" ht="13">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="14"/>
@@ -20733,7 +20729,7 @@
       <c r="Z640" s="2"/>
       <c r="AA640" s="2"/>
     </row>
-    <row r="641" spans="1:27" ht="12.75">
+    <row r="641" spans="1:27" ht="13">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="14"/>
@@ -20762,7 +20758,7 @@
       <c r="Z641" s="2"/>
       <c r="AA641" s="2"/>
     </row>
-    <row r="642" spans="1:27" ht="12.75">
+    <row r="642" spans="1:27" ht="13">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="14"/>
@@ -20791,7 +20787,7 @@
       <c r="Z642" s="2"/>
       <c r="AA642" s="2"/>
     </row>
-    <row r="643" spans="1:27" ht="12.75">
+    <row r="643" spans="1:27" ht="13">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="14"/>
@@ -20820,7 +20816,7 @@
       <c r="Z643" s="2"/>
       <c r="AA643" s="2"/>
     </row>
-    <row r="644" spans="1:27" ht="12.75">
+    <row r="644" spans="1:27" ht="13">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="14"/>
@@ -20849,7 +20845,7 @@
       <c r="Z644" s="2"/>
       <c r="AA644" s="2"/>
     </row>
-    <row r="645" spans="1:27" ht="12.75">
+    <row r="645" spans="1:27" ht="13">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="14"/>
@@ -20878,7 +20874,7 @@
       <c r="Z645" s="2"/>
       <c r="AA645" s="2"/>
     </row>
-    <row r="646" spans="1:27" ht="12.75">
+    <row r="646" spans="1:27" ht="13">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="14"/>
@@ -20907,7 +20903,7 @@
       <c r="Z646" s="2"/>
       <c r="AA646" s="2"/>
     </row>
-    <row r="647" spans="1:27" ht="12.75">
+    <row r="647" spans="1:27" ht="13">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="14"/>
@@ -20936,7 +20932,7 @@
       <c r="Z647" s="2"/>
       <c r="AA647" s="2"/>
     </row>
-    <row r="648" spans="1:27" ht="12.75">
+    <row r="648" spans="1:27" ht="13">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="14"/>
@@ -20965,7 +20961,7 @@
       <c r="Z648" s="2"/>
       <c r="AA648" s="2"/>
     </row>
-    <row r="649" spans="1:27" ht="12.75">
+    <row r="649" spans="1:27" ht="13">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="14"/>
@@ -20994,7 +20990,7 @@
       <c r="Z649" s="2"/>
       <c r="AA649" s="2"/>
     </row>
-    <row r="650" spans="1:27" ht="12.75">
+    <row r="650" spans="1:27" ht="13">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="14"/>
@@ -21023,7 +21019,7 @@
       <c r="Z650" s="2"/>
       <c r="AA650" s="2"/>
     </row>
-    <row r="651" spans="1:27" ht="12.75">
+    <row r="651" spans="1:27" ht="13">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="14"/>
@@ -21052,7 +21048,7 @@
       <c r="Z651" s="2"/>
       <c r="AA651" s="2"/>
     </row>
-    <row r="652" spans="1:27" ht="12.75">
+    <row r="652" spans="1:27" ht="13">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="14"/>
@@ -21081,7 +21077,7 @@
       <c r="Z652" s="2"/>
       <c r="AA652" s="2"/>
     </row>
-    <row r="653" spans="1:27" ht="12.75">
+    <row r="653" spans="1:27" ht="13">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="14"/>
@@ -21110,7 +21106,7 @@
       <c r="Z653" s="2"/>
       <c r="AA653" s="2"/>
     </row>
-    <row r="654" spans="1:27" ht="12.75">
+    <row r="654" spans="1:27" ht="13">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="14"/>
@@ -21139,7 +21135,7 @@
       <c r="Z654" s="2"/>
       <c r="AA654" s="2"/>
     </row>
-    <row r="655" spans="1:27" ht="12.75">
+    <row r="655" spans="1:27" ht="13">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="14"/>
@@ -21168,7 +21164,7 @@
       <c r="Z655" s="2"/>
       <c r="AA655" s="2"/>
     </row>
-    <row r="656" spans="1:27" ht="12.75">
+    <row r="656" spans="1:27" ht="13">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="14"/>
@@ -21197,7 +21193,7 @@
       <c r="Z656" s="2"/>
       <c r="AA656" s="2"/>
     </row>
-    <row r="657" spans="1:27" ht="12.75">
+    <row r="657" spans="1:27" ht="13">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="14"/>
@@ -21226,7 +21222,7 @@
       <c r="Z657" s="2"/>
       <c r="AA657" s="2"/>
     </row>
-    <row r="658" spans="1:27" ht="12.75">
+    <row r="658" spans="1:27" ht="13">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="14"/>
@@ -21255,7 +21251,7 @@
       <c r="Z658" s="2"/>
       <c r="AA658" s="2"/>
     </row>
-    <row r="659" spans="1:27" ht="12.75">
+    <row r="659" spans="1:27" ht="13">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="14"/>
@@ -21284,7 +21280,7 @@
       <c r="Z659" s="2"/>
       <c r="AA659" s="2"/>
     </row>
-    <row r="660" spans="1:27" ht="12.75">
+    <row r="660" spans="1:27" ht="13">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="14"/>
@@ -21313,7 +21309,7 @@
       <c r="Z660" s="2"/>
       <c r="AA660" s="2"/>
     </row>
-    <row r="661" spans="1:27" ht="12.75">
+    <row r="661" spans="1:27" ht="13">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="14"/>
@@ -21342,7 +21338,7 @@
       <c r="Z661" s="2"/>
       <c r="AA661" s="2"/>
     </row>
-    <row r="662" spans="1:27" ht="12.75">
+    <row r="662" spans="1:27" ht="13">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="14"/>
@@ -21371,7 +21367,7 @@
       <c r="Z662" s="2"/>
       <c r="AA662" s="2"/>
     </row>
-    <row r="663" spans="1:27" ht="12.75">
+    <row r="663" spans="1:27" ht="13">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="14"/>
@@ -21400,7 +21396,7 @@
       <c r="Z663" s="2"/>
       <c r="AA663" s="2"/>
     </row>
-    <row r="664" spans="1:27" ht="12.75">
+    <row r="664" spans="1:27" ht="13">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="14"/>
@@ -21429,7 +21425,7 @@
       <c r="Z664" s="2"/>
       <c r="AA664" s="2"/>
     </row>
-    <row r="665" spans="1:27" ht="12.75">
+    <row r="665" spans="1:27" ht="13">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="14"/>
@@ -21458,7 +21454,7 @@
       <c r="Z665" s="2"/>
       <c r="AA665" s="2"/>
     </row>
-    <row r="666" spans="1:27" ht="12.75">
+    <row r="666" spans="1:27" ht="13">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="14"/>
@@ -21487,7 +21483,7 @@
       <c r="Z666" s="2"/>
       <c r="AA666" s="2"/>
     </row>
-    <row r="667" spans="1:27" ht="12.75">
+    <row r="667" spans="1:27" ht="13">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="14"/>
@@ -21516,7 +21512,7 @@
       <c r="Z667" s="2"/>
       <c r="AA667" s="2"/>
     </row>
-    <row r="668" spans="1:27" ht="12.75">
+    <row r="668" spans="1:27" ht="13">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="14"/>
@@ -21545,7 +21541,7 @@
       <c r="Z668" s="2"/>
       <c r="AA668" s="2"/>
     </row>
-    <row r="669" spans="1:27" ht="12.75">
+    <row r="669" spans="1:27" ht="13">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="14"/>
@@ -21574,7 +21570,7 @@
       <c r="Z669" s="2"/>
       <c r="AA669" s="2"/>
     </row>
-    <row r="670" spans="1:27" ht="12.75">
+    <row r="670" spans="1:27" ht="13">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="14"/>
@@ -21603,7 +21599,7 @@
       <c r="Z670" s="2"/>
       <c r="AA670" s="2"/>
     </row>
-    <row r="671" spans="1:27" ht="12.75">
+    <row r="671" spans="1:27" ht="13">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="14"/>
@@ -21632,7 +21628,7 @@
       <c r="Z671" s="2"/>
       <c r="AA671" s="2"/>
     </row>
-    <row r="672" spans="1:27" ht="12.75">
+    <row r="672" spans="1:27" ht="13">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="14"/>
@@ -21661,7 +21657,7 @@
       <c r="Z672" s="2"/>
       <c r="AA672" s="2"/>
     </row>
-    <row r="673" spans="1:27" ht="12.75">
+    <row r="673" spans="1:27" ht="13">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="14"/>
@@ -21690,7 +21686,7 @@
       <c r="Z673" s="2"/>
       <c r="AA673" s="2"/>
     </row>
-    <row r="674" spans="1:27" ht="12.75">
+    <row r="674" spans="1:27" ht="13">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="14"/>
@@ -21719,7 +21715,7 @@
       <c r="Z674" s="2"/>
       <c r="AA674" s="2"/>
     </row>
-    <row r="675" spans="1:27" ht="12.75">
+    <row r="675" spans="1:27" ht="13">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="14"/>
@@ -21748,7 +21744,7 @@
       <c r="Z675" s="2"/>
       <c r="AA675" s="2"/>
     </row>
-    <row r="676" spans="1:27" ht="12.75">
+    <row r="676" spans="1:27" ht="13">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="14"/>
@@ -21777,7 +21773,7 @@
       <c r="Z676" s="2"/>
       <c r="AA676" s="2"/>
     </row>
-    <row r="677" spans="1:27" ht="12.75">
+    <row r="677" spans="1:27" ht="13">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="14"/>
@@ -21806,7 +21802,7 @@
       <c r="Z677" s="2"/>
       <c r="AA677" s="2"/>
     </row>
-    <row r="678" spans="1:27" ht="12.75">
+    <row r="678" spans="1:27" ht="13">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="14"/>
@@ -21835,7 +21831,7 @@
       <c r="Z678" s="2"/>
       <c r="AA678" s="2"/>
     </row>
-    <row r="679" spans="1:27" ht="12.75">
+    <row r="679" spans="1:27" ht="13">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="14"/>
@@ -21864,7 +21860,7 @@
       <c r="Z679" s="2"/>
       <c r="AA679" s="2"/>
     </row>
-    <row r="680" spans="1:27" ht="12.75">
+    <row r="680" spans="1:27" ht="13">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="14"/>
@@ -21893,7 +21889,7 @@
       <c r="Z680" s="2"/>
       <c r="AA680" s="2"/>
     </row>
-    <row r="681" spans="1:27" ht="12.75">
+    <row r="681" spans="1:27" ht="13">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="14"/>
@@ -21922,7 +21918,7 @@
       <c r="Z681" s="2"/>
       <c r="AA681" s="2"/>
     </row>
-    <row r="682" spans="1:27" ht="12.75">
+    <row r="682" spans="1:27" ht="13">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="14"/>
@@ -21951,7 +21947,7 @@
       <c r="Z682" s="2"/>
       <c r="AA682" s="2"/>
     </row>
-    <row r="683" spans="1:27" ht="12.75">
+    <row r="683" spans="1:27" ht="13">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="14"/>
@@ -21980,7 +21976,7 @@
       <c r="Z683" s="2"/>
       <c r="AA683" s="2"/>
     </row>
-    <row r="684" spans="1:27" ht="12.75">
+    <row r="684" spans="1:27" ht="13">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="14"/>
@@ -22009,7 +22005,7 @@
       <c r="Z684" s="2"/>
       <c r="AA684" s="2"/>
     </row>
-    <row r="685" spans="1:27" ht="12.75">
+    <row r="685" spans="1:27" ht="13">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="14"/>
@@ -22038,7 +22034,7 @@
       <c r="Z685" s="2"/>
       <c r="AA685" s="2"/>
     </row>
-    <row r="686" spans="1:27" ht="12.75">
+    <row r="686" spans="1:27" ht="13">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="14"/>
@@ -22067,7 +22063,7 @@
       <c r="Z686" s="2"/>
       <c r="AA686" s="2"/>
     </row>
-    <row r="687" spans="1:27" ht="12.75">
+    <row r="687" spans="1:27" ht="13">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="14"/>
@@ -22096,7 +22092,7 @@
       <c r="Z687" s="2"/>
       <c r="AA687" s="2"/>
     </row>
-    <row r="688" spans="1:27" ht="12.75">
+    <row r="688" spans="1:27" ht="13">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="14"/>
@@ -22125,7 +22121,7 @@
       <c r="Z688" s="2"/>
       <c r="AA688" s="2"/>
     </row>
-    <row r="689" spans="1:27" ht="12.75">
+    <row r="689" spans="1:27" ht="13">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="14"/>
@@ -22154,7 +22150,7 @@
       <c r="Z689" s="2"/>
       <c r="AA689" s="2"/>
     </row>
-    <row r="690" spans="1:27" ht="12.75">
+    <row r="690" spans="1:27" ht="13">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="14"/>
@@ -22183,7 +22179,7 @@
       <c r="Z690" s="2"/>
       <c r="AA690" s="2"/>
     </row>
-    <row r="691" spans="1:27" ht="12.75">
+    <row r="691" spans="1:27" ht="13">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="14"/>
@@ -22212,7 +22208,7 @@
       <c r="Z691" s="2"/>
       <c r="AA691" s="2"/>
     </row>
-    <row r="692" spans="1:27" ht="12.75">
+    <row r="692" spans="1:27" ht="13">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="14"/>
@@ -22241,7 +22237,7 @@
       <c r="Z692" s="2"/>
       <c r="AA692" s="2"/>
     </row>
-    <row r="693" spans="1:27" ht="12.75">
+    <row r="693" spans="1:27" ht="13">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="14"/>
@@ -22270,7 +22266,7 @@
       <c r="Z693" s="2"/>
       <c r="AA693" s="2"/>
     </row>
-    <row r="694" spans="1:27" ht="12.75">
+    <row r="694" spans="1:27" ht="13">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="14"/>
@@ -22299,7 +22295,7 @@
       <c r="Z694" s="2"/>
       <c r="AA694" s="2"/>
     </row>
-    <row r="695" spans="1:27" ht="12.75">
+    <row r="695" spans="1:27" ht="13">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="14"/>
@@ -22328,7 +22324,7 @@
       <c r="Z695" s="2"/>
       <c r="AA695" s="2"/>
     </row>
-    <row r="696" spans="1:27" ht="12.75">
+    <row r="696" spans="1:27" ht="13">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="14"/>
@@ -22357,7 +22353,7 @@
       <c r="Z696" s="2"/>
       <c r="AA696" s="2"/>
     </row>
-    <row r="697" spans="1:27" ht="12.75">
+    <row r="697" spans="1:27" ht="13">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="14"/>
@@ -22386,7 +22382,7 @@
       <c r="Z697" s="2"/>
       <c r="AA697" s="2"/>
     </row>
-    <row r="698" spans="1:27" ht="12.75">
+    <row r="698" spans="1:27" ht="13">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="14"/>
@@ -22415,7 +22411,7 @@
       <c r="Z698" s="2"/>
       <c r="AA698" s="2"/>
     </row>
-    <row r="699" spans="1:27" ht="12.75">
+    <row r="699" spans="1:27" ht="13">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="14"/>
@@ -22444,7 +22440,7 @@
       <c r="Z699" s="2"/>
       <c r="AA699" s="2"/>
     </row>
-    <row r="700" spans="1:27" ht="12.75">
+    <row r="700" spans="1:27" ht="13">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="14"/>
@@ -22473,7 +22469,7 @@
       <c r="Z700" s="2"/>
       <c r="AA700" s="2"/>
     </row>
-    <row r="701" spans="1:27" ht="12.75">
+    <row r="701" spans="1:27" ht="13">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="14"/>
@@ -22502,7 +22498,7 @@
       <c r="Z701" s="2"/>
       <c r="AA701" s="2"/>
     </row>
-    <row r="702" spans="1:27" ht="12.75">
+    <row r="702" spans="1:27" ht="13">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="14"/>
@@ -22531,7 +22527,7 @@
       <c r="Z702" s="2"/>
       <c r="AA702" s="2"/>
     </row>
-    <row r="703" spans="1:27" ht="12.75">
+    <row r="703" spans="1:27" ht="13">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="14"/>
@@ -22560,7 +22556,7 @@
       <c r="Z703" s="2"/>
       <c r="AA703" s="2"/>
     </row>
-    <row r="704" spans="1:27" ht="12.75">
+    <row r="704" spans="1:27" ht="13">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="14"/>
@@ -22589,7 +22585,7 @@
       <c r="Z704" s="2"/>
       <c r="AA704" s="2"/>
     </row>
-    <row r="705" spans="1:27" ht="12.75">
+    <row r="705" spans="1:27" ht="13">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="14"/>
@@ -22618,7 +22614,7 @@
       <c r="Z705" s="2"/>
       <c r="AA705" s="2"/>
     </row>
-    <row r="706" spans="1:27" ht="12.75">
+    <row r="706" spans="1:27" ht="13">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="14"/>
@@ -22647,7 +22643,7 @@
       <c r="Z706" s="2"/>
       <c r="AA706" s="2"/>
     </row>
-    <row r="707" spans="1:27" ht="12.75">
+    <row r="707" spans="1:27" ht="13">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="14"/>
@@ -22676,7 +22672,7 @@
       <c r="Z707" s="2"/>
       <c r="AA707" s="2"/>
     </row>
-    <row r="708" spans="1:27" ht="12.75">
+    <row r="708" spans="1:27" ht="13">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="14"/>
@@ -22705,7 +22701,7 @@
       <c r="Z708" s="2"/>
       <c r="AA708" s="2"/>
     </row>
-    <row r="709" spans="1:27" ht="12.75">
+    <row r="709" spans="1:27" ht="13">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="14"/>
@@ -22734,7 +22730,7 @@
       <c r="Z709" s="2"/>
       <c r="AA709" s="2"/>
     </row>
-    <row r="710" spans="1:27" ht="12.75">
+    <row r="710" spans="1:27" ht="13">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="14"/>
@@ -22763,7 +22759,7 @@
       <c r="Z710" s="2"/>
       <c r="AA710" s="2"/>
     </row>
-    <row r="711" spans="1:27" ht="12.75">
+    <row r="711" spans="1:27" ht="13">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="14"/>
@@ -22792,7 +22788,7 @@
       <c r="Z711" s="2"/>
       <c r="AA711" s="2"/>
     </row>
-    <row r="712" spans="1:27" ht="12.75">
+    <row r="712" spans="1:27" ht="13">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="14"/>
@@ -22821,7 +22817,7 @@
       <c r="Z712" s="2"/>
       <c r="AA712" s="2"/>
     </row>
-    <row r="713" spans="1:27" ht="12.75">
+    <row r="713" spans="1:27" ht="13">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="14"/>
@@ -22850,7 +22846,7 @@
       <c r="Z713" s="2"/>
       <c r="AA713" s="2"/>
     </row>
-    <row r="714" spans="1:27" ht="12.75">
+    <row r="714" spans="1:27" ht="13">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="14"/>
@@ -22879,7 +22875,7 @@
       <c r="Z714" s="2"/>
       <c r="AA714" s="2"/>
     </row>
-    <row r="715" spans="1:27" ht="12.75">
+    <row r="715" spans="1:27" ht="13">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="14"/>
@@ -22908,7 +22904,7 @@
       <c r="Z715" s="2"/>
       <c r="AA715" s="2"/>
     </row>
-    <row r="716" spans="1:27" ht="12.75">
+    <row r="716" spans="1:27" ht="13">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="14"/>
@@ -22937,7 +22933,7 @@
       <c r="Z716" s="2"/>
       <c r="AA716" s="2"/>
     </row>
-    <row r="717" spans="1:27" ht="12.75">
+    <row r="717" spans="1:27" ht="13">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="14"/>
@@ -22966,7 +22962,7 @@
       <c r="Z717" s="2"/>
       <c r="AA717" s="2"/>
     </row>
-    <row r="718" spans="1:27" ht="12.75">
+    <row r="718" spans="1:27" ht="13">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="14"/>
@@ -22995,7 +22991,7 @@
       <c r="Z718" s="2"/>
       <c r="AA718" s="2"/>
     </row>
-    <row r="719" spans="1:27" ht="12.75">
+    <row r="719" spans="1:27" ht="13">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="14"/>
@@ -23024,7 +23020,7 @@
       <c r="Z719" s="2"/>
       <c r="AA719" s="2"/>
     </row>
-    <row r="720" spans="1:27" ht="12.75">
+    <row r="720" spans="1:27" ht="13">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="14"/>
@@ -23053,7 +23049,7 @@
       <c r="Z720" s="2"/>
       <c r="AA720" s="2"/>
     </row>
-    <row r="721" spans="1:27" ht="12.75">
+    <row r="721" spans="1:27" ht="13">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="14"/>
@@ -23082,7 +23078,7 @@
       <c r="Z721" s="2"/>
       <c r="AA721" s="2"/>
     </row>
-    <row r="722" spans="1:27" ht="12.75">
+    <row r="722" spans="1:27" ht="13">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="14"/>
@@ -23111,7 +23107,7 @@
       <c r="Z722" s="2"/>
       <c r="AA722" s="2"/>
     </row>
-    <row r="723" spans="1:27" ht="12.75">
+    <row r="723" spans="1:27" ht="13">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="14"/>
@@ -23140,7 +23136,7 @@
       <c r="Z723" s="2"/>
       <c r="AA723" s="2"/>
     </row>
-    <row r="724" spans="1:27" ht="12.75">
+    <row r="724" spans="1:27" ht="13">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="14"/>
@@ -23169,7 +23165,7 @@
       <c r="Z724" s="2"/>
       <c r="AA724" s="2"/>
     </row>
-    <row r="725" spans="1:27" ht="12.75">
+    <row r="725" spans="1:27" ht="13">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="14"/>
@@ -23198,7 +23194,7 @@
       <c r="Z725" s="2"/>
       <c r="AA725" s="2"/>
     </row>
-    <row r="726" spans="1:27" ht="12.75">
+    <row r="726" spans="1:27" ht="13">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="14"/>
@@ -23227,7 +23223,7 @@
       <c r="Z726" s="2"/>
       <c r="AA726" s="2"/>
     </row>
-    <row r="727" spans="1:27" ht="12.75">
+    <row r="727" spans="1:27" ht="13">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="14"/>
@@ -23256,7 +23252,7 @@
       <c r="Z727" s="2"/>
       <c r="AA727" s="2"/>
     </row>
-    <row r="728" spans="1:27" ht="12.75">
+    <row r="728" spans="1:27" ht="13">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="14"/>
@@ -23285,7 +23281,7 @@
       <c r="Z728" s="2"/>
       <c r="AA728" s="2"/>
     </row>
-    <row r="729" spans="1:27" ht="12.75">
+    <row r="729" spans="1:27" ht="13">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="14"/>
@@ -23314,7 +23310,7 @@
       <c r="Z729" s="2"/>
       <c r="AA729" s="2"/>
     </row>
-    <row r="730" spans="1:27" ht="12.75">
+    <row r="730" spans="1:27" ht="13">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="14"/>
@@ -23343,7 +23339,7 @@
       <c r="Z730" s="2"/>
       <c r="AA730" s="2"/>
     </row>
-    <row r="731" spans="1:27" ht="12.75">
+    <row r="731" spans="1:27" ht="13">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="14"/>
@@ -23372,7 +23368,7 @@
       <c r="Z731" s="2"/>
       <c r="AA731" s="2"/>
     </row>
-    <row r="732" spans="1:27" ht="12.75">
+    <row r="732" spans="1:27" ht="13">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="14"/>
@@ -23401,7 +23397,7 @@
       <c r="Z732" s="2"/>
       <c r="AA732" s="2"/>
     </row>
-    <row r="733" spans="1:27" ht="12.75">
+    <row r="733" spans="1:27" ht="13">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="14"/>
@@ -23430,7 +23426,7 @@
       <c r="Z733" s="2"/>
       <c r="AA733" s="2"/>
     </row>
-    <row r="734" spans="1:27" ht="12.75">
+    <row r="734" spans="1:27" ht="13">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="14"/>
@@ -23459,7 +23455,7 @@
       <c r="Z734" s="2"/>
       <c r="AA734" s="2"/>
     </row>
-    <row r="735" spans="1:27" ht="12.75">
+    <row r="735" spans="1:27" ht="13">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="14"/>
@@ -23488,7 +23484,7 @@
       <c r="Z735" s="2"/>
       <c r="AA735" s="2"/>
     </row>
-    <row r="736" spans="1:27" ht="12.75">
+    <row r="736" spans="1:27" ht="13">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="14"/>
@@ -23517,7 +23513,7 @@
       <c r="Z736" s="2"/>
       <c r="AA736" s="2"/>
     </row>
-    <row r="737" spans="1:27" ht="12.75">
+    <row r="737" spans="1:27" ht="13">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="14"/>
@@ -23546,7 +23542,7 @@
       <c r="Z737" s="2"/>
       <c r="AA737" s="2"/>
     </row>
-    <row r="738" spans="1:27" ht="12.75">
+    <row r="738" spans="1:27" ht="13">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="14"/>
@@ -23575,7 +23571,7 @@
       <c r="Z738" s="2"/>
       <c r="AA738" s="2"/>
     </row>
-    <row r="739" spans="1:27" ht="12.75">
+    <row r="739" spans="1:27" ht="13">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="14"/>
@@ -23604,7 +23600,7 @@
       <c r="Z739" s="2"/>
       <c r="AA739" s="2"/>
     </row>
-    <row r="740" spans="1:27" ht="12.75">
+    <row r="740" spans="1:27" ht="13">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="14"/>
@@ -23633,7 +23629,7 @@
       <c r="Z740" s="2"/>
       <c r="AA740" s="2"/>
     </row>
-    <row r="741" spans="1:27" ht="12.75">
+    <row r="741" spans="1:27" ht="13">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="14"/>
@@ -23662,7 +23658,7 @@
       <c r="Z741" s="2"/>
       <c r="AA741" s="2"/>
     </row>
-    <row r="742" spans="1:27" ht="12.75">
+    <row r="742" spans="1:27" ht="13">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="14"/>
@@ -23691,7 +23687,7 @@
       <c r="Z742" s="2"/>
       <c r="AA742" s="2"/>
     </row>
-    <row r="743" spans="1:27" ht="12.75">
+    <row r="743" spans="1:27" ht="13">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="14"/>
@@ -23720,7 +23716,7 @@
       <c r="Z743" s="2"/>
       <c r="AA743" s="2"/>
     </row>
-    <row r="744" spans="1:27" ht="12.75">
+    <row r="744" spans="1:27" ht="13">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="14"/>
@@ -23749,7 +23745,7 @@
       <c r="Z744" s="2"/>
       <c r="AA744" s="2"/>
     </row>
-    <row r="745" spans="1:27" ht="12.75">
+    <row r="745" spans="1:27" ht="13">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="14"/>
@@ -23778,7 +23774,7 @@
       <c r="Z745" s="2"/>
       <c r="AA745" s="2"/>
     </row>
-    <row r="746" spans="1:27" ht="12.75">
+    <row r="746" spans="1:27" ht="13">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="14"/>
@@ -23807,7 +23803,7 @@
       <c r="Z746" s="2"/>
       <c r="AA746" s="2"/>
     </row>
-    <row r="747" spans="1:27" ht="12.75">
+    <row r="747" spans="1:27" ht="13">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="14"/>
@@ -23836,7 +23832,7 @@
       <c r="Z747" s="2"/>
       <c r="AA747" s="2"/>
     </row>
-    <row r="748" spans="1:27" ht="12.75">
+    <row r="748" spans="1:27" ht="13">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="14"/>
@@ -23865,7 +23861,7 @@
       <c r="Z748" s="2"/>
       <c r="AA748" s="2"/>
     </row>
-    <row r="749" spans="1:27" ht="12.75">
+    <row r="749" spans="1:27" ht="13">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="14"/>
@@ -23894,7 +23890,7 @@
       <c r="Z749" s="2"/>
       <c r="AA749" s="2"/>
     </row>
-    <row r="750" spans="1:27" ht="12.75">
+    <row r="750" spans="1:27" ht="13">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="14"/>
@@ -23923,7 +23919,7 @@
       <c r="Z750" s="2"/>
       <c r="AA750" s="2"/>
     </row>
-    <row r="751" spans="1:27" ht="12.75">
+    <row r="751" spans="1:27" ht="13">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="14"/>
@@ -23952,7 +23948,7 @@
       <c r="Z751" s="2"/>
       <c r="AA751" s="2"/>
     </row>
-    <row r="752" spans="1:27" ht="12.75">
+    <row r="752" spans="1:27" ht="13">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="14"/>
@@ -23981,7 +23977,7 @@
       <c r="Z752" s="2"/>
       <c r="AA752" s="2"/>
     </row>
-    <row r="753" spans="1:27" ht="12.75">
+    <row r="753" spans="1:27" ht="13">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="14"/>
@@ -24010,7 +24006,7 @@
       <c r="Z753" s="2"/>
       <c r="AA753" s="2"/>
     </row>
-    <row r="754" spans="1:27" ht="12.75">
+    <row r="754" spans="1:27" ht="13">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="14"/>
@@ -24039,7 +24035,7 @@
       <c r="Z754" s="2"/>
       <c r="AA754" s="2"/>
     </row>
-    <row r="755" spans="1:27" ht="12.75">
+    <row r="755" spans="1:27" ht="13">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="14"/>
@@ -24068,7 +24064,7 @@
       <c r="Z755" s="2"/>
       <c r="AA755" s="2"/>
     </row>
-    <row r="756" spans="1:27" ht="12.75">
+    <row r="756" spans="1:27" ht="13">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="14"/>
@@ -24097,7 +24093,7 @@
       <c r="Z756" s="2"/>
       <c r="AA756" s="2"/>
     </row>
-    <row r="757" spans="1:27" ht="12.75">
+    <row r="757" spans="1:27" ht="13">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="14"/>
@@ -24126,7 +24122,7 @@
       <c r="Z757" s="2"/>
       <c r="AA757" s="2"/>
     </row>
-    <row r="758" spans="1:27" ht="12.75">
+    <row r="758" spans="1:27" ht="13">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="14"/>
@@ -24155,7 +24151,7 @@
       <c r="Z758" s="2"/>
       <c r="AA758" s="2"/>
     </row>
-    <row r="759" spans="1:27" ht="12.75">
+    <row r="759" spans="1:27" ht="13">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="14"/>
@@ -24184,7 +24180,7 @@
       <c r="Z759" s="2"/>
       <c r="AA759" s="2"/>
     </row>
-    <row r="760" spans="1:27" ht="12.75">
+    <row r="760" spans="1:27" ht="13">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="14"/>
@@ -24213,7 +24209,7 @@
       <c r="Z760" s="2"/>
       <c r="AA760" s="2"/>
     </row>
-    <row r="761" spans="1:27" ht="12.75">
+    <row r="761" spans="1:27" ht="13">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="14"/>
@@ -24242,7 +24238,7 @@
       <c r="Z761" s="2"/>
       <c r="AA761" s="2"/>
     </row>
-    <row r="762" spans="1:27" ht="12.75">
+    <row r="762" spans="1:27" ht="13">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="14"/>
@@ -24271,7 +24267,7 @@
       <c r="Z762" s="2"/>
       <c r="AA762" s="2"/>
     </row>
-    <row r="763" spans="1:27" ht="12.75">
+    <row r="763" spans="1:27" ht="13">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="14"/>
@@ -24300,7 +24296,7 @@
       <c r="Z763" s="2"/>
       <c r="AA763" s="2"/>
     </row>
-    <row r="764" spans="1:27" ht="12.75">
+    <row r="764" spans="1:27" ht="13">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="14"/>
@@ -24329,7 +24325,7 @@
       <c r="Z764" s="2"/>
       <c r="AA764" s="2"/>
     </row>
-    <row r="765" spans="1:27" ht="12.75">
+    <row r="765" spans="1:27" ht="13">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="14"/>
@@ -24358,7 +24354,7 @@
       <c r="Z765" s="2"/>
       <c r="AA765" s="2"/>
     </row>
-    <row r="766" spans="1:27" ht="12.75">
+    <row r="766" spans="1:27" ht="13">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="14"/>
@@ -24387,7 +24383,7 @@
       <c r="Z766" s="2"/>
       <c r="AA766" s="2"/>
     </row>
-    <row r="767" spans="1:27" ht="12.75">
+    <row r="767" spans="1:27" ht="13">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="14"/>
@@ -24416,7 +24412,7 @@
       <c r="Z767" s="2"/>
       <c r="AA767" s="2"/>
     </row>
-    <row r="768" spans="1:27" ht="12.75">
+    <row r="768" spans="1:27" ht="13">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="14"/>
@@ -24445,7 +24441,7 @@
       <c r="Z768" s="2"/>
       <c r="AA768" s="2"/>
     </row>
-    <row r="769" spans="1:27" ht="12.75">
+    <row r="769" spans="1:27" ht="13">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="14"/>
@@ -24474,7 +24470,7 @@
       <c r="Z769" s="2"/>
       <c r="AA769" s="2"/>
     </row>
-    <row r="770" spans="1:27" ht="12.75">
+    <row r="770" spans="1:27" ht="13">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="14"/>
@@ -24503,7 +24499,7 @@
       <c r="Z770" s="2"/>
       <c r="AA770" s="2"/>
     </row>
-    <row r="771" spans="1:27" ht="12.75">
+    <row r="771" spans="1:27" ht="13">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="14"/>
@@ -24532,7 +24528,7 @@
       <c r="Z771" s="2"/>
       <c r="AA771" s="2"/>
     </row>
-    <row r="772" spans="1:27" ht="12.75">
+    <row r="772" spans="1:27" ht="13">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="14"/>
@@ -24561,7 +24557,7 @@
       <c r="Z772" s="2"/>
       <c r="AA772" s="2"/>
     </row>
-    <row r="773" spans="1:27" ht="12.75">
+    <row r="773" spans="1:27" ht="13">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="14"/>
@@ -24590,7 +24586,7 @@
       <c r="Z773" s="2"/>
       <c r="AA773" s="2"/>
     </row>
-    <row r="774" spans="1:27" ht="12.75">
+    <row r="774" spans="1:27" ht="13">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="14"/>
@@ -24619,7 +24615,7 @@
       <c r="Z774" s="2"/>
       <c r="AA774" s="2"/>
     </row>
-    <row r="775" spans="1:27" ht="12.75">
+    <row r="775" spans="1:27" ht="13">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="14"/>
@@ -24648,7 +24644,7 @@
       <c r="Z775" s="2"/>
       <c r="AA775" s="2"/>
     </row>
-    <row r="776" spans="1:27" ht="12.75">
+    <row r="776" spans="1:27" ht="13">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="14"/>
@@ -24677,7 +24673,7 @@
       <c r="Z776" s="2"/>
       <c r="AA776" s="2"/>
     </row>
-    <row r="777" spans="1:27" ht="12.75">
+    <row r="777" spans="1:27" ht="13">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="14"/>
@@ -24706,7 +24702,7 @@
       <c r="Z777" s="2"/>
       <c r="AA777" s="2"/>
     </row>
-    <row r="778" spans="1:27" ht="12.75">
+    <row r="778" spans="1:27" ht="13">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="14"/>
@@ -24735,7 +24731,7 @@
       <c r="Z778" s="2"/>
       <c r="AA778" s="2"/>
     </row>
-    <row r="779" spans="1:27" ht="12.75">
+    <row r="779" spans="1:27" ht="13">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="14"/>
@@ -24764,7 +24760,7 @@
       <c r="Z779" s="2"/>
       <c r="AA779" s="2"/>
     </row>
-    <row r="780" spans="1:27" ht="12.75">
+    <row r="780" spans="1:27" ht="13">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="14"/>
@@ -24793,7 +24789,7 @@
       <c r="Z780" s="2"/>
       <c r="AA780" s="2"/>
     </row>
-    <row r="781" spans="1:27" ht="12.75">
+    <row r="781" spans="1:27" ht="13">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="14"/>
@@ -24822,7 +24818,7 @@
       <c r="Z781" s="2"/>
       <c r="AA781" s="2"/>
     </row>
-    <row r="782" spans="1:27" ht="12.75">
+    <row r="782" spans="1:27" ht="13">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="14"/>
@@ -24851,7 +24847,7 @@
       <c r="Z782" s="2"/>
       <c r="AA782" s="2"/>
     </row>
-    <row r="783" spans="1:27" ht="12.75">
+    <row r="783" spans="1:27" ht="13">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="14"/>
@@ -24880,7 +24876,7 @@
       <c r="Z783" s="2"/>
       <c r="AA783" s="2"/>
     </row>
-    <row r="784" spans="1:27" ht="12.75">
+    <row r="784" spans="1:27" ht="13">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="14"/>
@@ -24909,7 +24905,7 @@
       <c r="Z784" s="2"/>
       <c r="AA784" s="2"/>
     </row>
-    <row r="785" spans="1:27" ht="12.75">
+    <row r="785" spans="1:27" ht="13">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="14"/>
@@ -24938,7 +24934,7 @@
       <c r="Z785" s="2"/>
       <c r="AA785" s="2"/>
     </row>
-    <row r="786" spans="1:27" ht="12.75">
+    <row r="786" spans="1:27" ht="13">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="14"/>
@@ -24967,7 +24963,7 @@
       <c r="Z786" s="2"/>
       <c r="AA786" s="2"/>
     </row>
-    <row r="787" spans="1:27" ht="12.75">
+    <row r="787" spans="1:27" ht="13">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="14"/>
@@ -24996,7 +24992,7 @@
       <c r="Z787" s="2"/>
       <c r="AA787" s="2"/>
     </row>
-    <row r="788" spans="1:27" ht="12.75">
+    <row r="788" spans="1:27" ht="13">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="14"/>
@@ -25025,7 +25021,7 @@
       <c r="Z788" s="2"/>
       <c r="AA788" s="2"/>
     </row>
-    <row r="789" spans="1:27" ht="12.75">
+    <row r="789" spans="1:27" ht="13">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="14"/>
@@ -25054,7 +25050,7 @@
       <c r="Z789" s="2"/>
       <c r="AA789" s="2"/>
     </row>
-    <row r="790" spans="1:27" ht="12.75">
+    <row r="790" spans="1:27" ht="13">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="14"/>
@@ -25083,7 +25079,7 @@
       <c r="Z790" s="2"/>
       <c r="AA790" s="2"/>
     </row>
-    <row r="791" spans="1:27" ht="12.75">
+    <row r="791" spans="1:27" ht="13">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="14"/>
@@ -25112,7 +25108,7 @@
       <c r="Z791" s="2"/>
       <c r="AA791" s="2"/>
     </row>
-    <row r="792" spans="1:27" ht="12.75">
+    <row r="792" spans="1:27" ht="13">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="14"/>
@@ -25141,7 +25137,7 @@
       <c r="Z792" s="2"/>
       <c r="AA792" s="2"/>
     </row>
-    <row r="793" spans="1:27" ht="12.75">
+    <row r="793" spans="1:27" ht="13">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="14"/>
@@ -25170,7 +25166,7 @@
       <c r="Z793" s="2"/>
       <c r="AA793" s="2"/>
     </row>
-    <row r="794" spans="1:27" ht="12.75">
+    <row r="794" spans="1:27" ht="13">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="14"/>
@@ -25199,7 +25195,7 @@
       <c r="Z794" s="2"/>
       <c r="AA794" s="2"/>
     </row>
-    <row r="795" spans="1:27" ht="12.75">
+    <row r="795" spans="1:27" ht="13">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="14"/>
@@ -25228,7 +25224,7 @@
       <c r="Z795" s="2"/>
       <c r="AA795" s="2"/>
     </row>
-    <row r="796" spans="1:27" ht="12.75">
+    <row r="796" spans="1:27" ht="13">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="14"/>
@@ -25257,7 +25253,7 @@
       <c r="Z796" s="2"/>
       <c r="AA796" s="2"/>
     </row>
-    <row r="797" spans="1:27" ht="12.75">
+    <row r="797" spans="1:27" ht="13">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="14"/>
@@ -25286,7 +25282,7 @@
       <c r="Z797" s="2"/>
       <c r="AA797" s="2"/>
     </row>
-    <row r="798" spans="1:27" ht="12.75">
+    <row r="798" spans="1:27" ht="13">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="14"/>
@@ -25315,7 +25311,7 @@
       <c r="Z798" s="2"/>
       <c r="AA798" s="2"/>
     </row>
-    <row r="799" spans="1:27" ht="12.75">
+    <row r="799" spans="1:27" ht="13">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="14"/>
@@ -25344,7 +25340,7 @@
       <c r="Z799" s="2"/>
       <c r="AA799" s="2"/>
     </row>
-    <row r="800" spans="1:27" ht="12.75">
+    <row r="800" spans="1:27" ht="13">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="14"/>
@@ -25373,7 +25369,7 @@
       <c r="Z800" s="2"/>
       <c r="AA800" s="2"/>
     </row>
-    <row r="801" spans="1:27" ht="12.75">
+    <row r="801" spans="1:27" ht="13">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="14"/>
@@ -25402,7 +25398,7 @@
       <c r="Z801" s="2"/>
       <c r="AA801" s="2"/>
     </row>
-    <row r="802" spans="1:27" ht="12.75">
+    <row r="802" spans="1:27" ht="13">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="14"/>
@@ -25431,7 +25427,7 @@
       <c r="Z802" s="2"/>
       <c r="AA802" s="2"/>
     </row>
-    <row r="803" spans="1:27" ht="12.75">
+    <row r="803" spans="1:27" ht="13">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="14"/>
@@ -25460,7 +25456,7 @@
       <c r="Z803" s="2"/>
       <c r="AA803" s="2"/>
     </row>
-    <row r="804" spans="1:27" ht="12.75">
+    <row r="804" spans="1:27" ht="13">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="14"/>
@@ -25489,7 +25485,7 @@
       <c r="Z804" s="2"/>
       <c r="AA804" s="2"/>
     </row>
-    <row r="805" spans="1:27" ht="12.75">
+    <row r="805" spans="1:27" ht="13">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="14"/>
@@ -25518,7 +25514,7 @@
       <c r="Z805" s="2"/>
       <c r="AA805" s="2"/>
     </row>
-    <row r="806" spans="1:27" ht="12.75">
+    <row r="806" spans="1:27" ht="13">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="14"/>
@@ -25547,7 +25543,7 @@
       <c r="Z806" s="2"/>
       <c r="AA806" s="2"/>
     </row>
-    <row r="807" spans="1:27" ht="12.75">
+    <row r="807" spans="1:27" ht="13">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="14"/>
@@ -25576,7 +25572,7 @@
       <c r="Z807" s="2"/>
       <c r="AA807" s="2"/>
     </row>
-    <row r="808" spans="1:27" ht="12.75">
+    <row r="808" spans="1:27" ht="13">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="14"/>
@@ -25605,7 +25601,7 @@
       <c r="Z808" s="2"/>
       <c r="AA808" s="2"/>
     </row>
-    <row r="809" spans="1:27" ht="12.75">
+    <row r="809" spans="1:27" ht="13">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="14"/>
@@ -25634,7 +25630,7 @@
       <c r="Z809" s="2"/>
       <c r="AA809" s="2"/>
     </row>
-    <row r="810" spans="1:27" ht="12.75">
+    <row r="810" spans="1:27" ht="13">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="14"/>
@@ -25663,7 +25659,7 @@
       <c r="Z810" s="2"/>
       <c r="AA810" s="2"/>
     </row>
-    <row r="811" spans="1:27" ht="12.75">
+    <row r="811" spans="1:27" ht="13">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="14"/>
@@ -25692,7 +25688,7 @@
       <c r="Z811" s="2"/>
       <c r="AA811" s="2"/>
     </row>
-    <row r="812" spans="1:27" ht="12.75">
+    <row r="812" spans="1:27" ht="13">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="14"/>
@@ -25721,7 +25717,7 @@
       <c r="Z812" s="2"/>
       <c r="AA812" s="2"/>
     </row>
-    <row r="813" spans="1:27" ht="12.75">
+    <row r="813" spans="1:27" ht="13">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="14"/>
@@ -25750,7 +25746,7 @@
       <c r="Z813" s="2"/>
       <c r="AA813" s="2"/>
     </row>
-    <row r="814" spans="1:27" ht="12.75">
+    <row r="814" spans="1:27" ht="13">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="14"/>
@@ -25779,7 +25775,7 @@
       <c r="Z814" s="2"/>
       <c r="AA814" s="2"/>
     </row>
-    <row r="815" spans="1:27" ht="12.75">
+    <row r="815" spans="1:27" ht="13">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="14"/>
@@ -25808,7 +25804,7 @@
       <c r="Z815" s="2"/>
       <c r="AA815" s="2"/>
     </row>
-    <row r="816" spans="1:27" ht="12.75">
+    <row r="816" spans="1:27" ht="13">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="14"/>
@@ -25837,7 +25833,7 @@
       <c r="Z816" s="2"/>
       <c r="AA816" s="2"/>
     </row>
-    <row r="817" spans="1:27" ht="12.75">
+    <row r="817" spans="1:27" ht="13">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="14"/>
@@ -25866,7 +25862,7 @@
       <c r="Z817" s="2"/>
       <c r="AA817" s="2"/>
     </row>
-    <row r="818" spans="1:27" ht="12.75">
+    <row r="818" spans="1:27" ht="13">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="14"/>
@@ -25895,7 +25891,7 @@
       <c r="Z818" s="2"/>
       <c r="AA818" s="2"/>
     </row>
-    <row r="819" spans="1:27" ht="12.75">
+    <row r="819" spans="1:27" ht="13">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="14"/>
@@ -25924,7 +25920,7 @@
       <c r="Z819" s="2"/>
       <c r="AA819" s="2"/>
     </row>
-    <row r="820" spans="1:27" ht="12.75">
+    <row r="820" spans="1:27" ht="13">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="14"/>
@@ -25953,7 +25949,7 @@
       <c r="Z820" s="2"/>
       <c r="AA820" s="2"/>
     </row>
-    <row r="821" spans="1:27" ht="12.75">
+    <row r="821" spans="1:27" ht="13">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="14"/>
@@ -25982,7 +25978,7 @@
       <c r="Z821" s="2"/>
       <c r="AA821" s="2"/>
     </row>
-    <row r="822" spans="1:27" ht="12.75">
+    <row r="822" spans="1:27" ht="13">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="14"/>
@@ -26011,7 +26007,7 @@
       <c r="Z822" s="2"/>
       <c r="AA822" s="2"/>
     </row>
-    <row r="823" spans="1:27" ht="12.75">
+    <row r="823" spans="1:27" ht="13">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="14"/>
@@ -26040,7 +26036,7 @@
       <c r="Z823" s="2"/>
       <c r="AA823" s="2"/>
     </row>
-    <row r="824" spans="1:27" ht="12.75">
+    <row r="824" spans="1:27" ht="13">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="14"/>
@@ -26069,7 +26065,7 @@
       <c r="Z824" s="2"/>
       <c r="AA824" s="2"/>
     </row>
-    <row r="825" spans="1:27" ht="12.75">
+    <row r="825" spans="1:27" ht="13">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="14"/>
@@ -26098,7 +26094,7 @@
       <c r="Z825" s="2"/>
       <c r="AA825" s="2"/>
     </row>
-    <row r="826" spans="1:27" ht="12.75">
+    <row r="826" spans="1:27" ht="13">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="14"/>
@@ -26127,7 +26123,7 @@
       <c r="Z826" s="2"/>
       <c r="AA826" s="2"/>
     </row>
-    <row r="827" spans="1:27" ht="12.75">
+    <row r="827" spans="1:27" ht="13">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="14"/>
@@ -26156,7 +26152,7 @@
       <c r="Z827" s="2"/>
       <c r="AA827" s="2"/>
     </row>
-    <row r="828" spans="1:27" ht="12.75">
+    <row r="828" spans="1:27" ht="13">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="14"/>
@@ -26185,7 +26181,7 @@
       <c r="Z828" s="2"/>
       <c r="AA828" s="2"/>
     </row>
-    <row r="829" spans="1:27" ht="12.75">
+    <row r="829" spans="1:27" ht="13">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="14"/>
@@ -26214,7 +26210,7 @@
       <c r="Z829" s="2"/>
       <c r="AA829" s="2"/>
     </row>
-    <row r="830" spans="1:27" ht="12.75">
+    <row r="830" spans="1:27" ht="13">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="14"/>
@@ -26243,7 +26239,7 @@
       <c r="Z830" s="2"/>
       <c r="AA830" s="2"/>
     </row>
-    <row r="831" spans="1:27" ht="12.75">
+    <row r="831" spans="1:27" ht="13">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="14"/>
@@ -26272,7 +26268,7 @@
       <c r="Z831" s="2"/>
       <c r="AA831" s="2"/>
     </row>
-    <row r="832" spans="1:27" ht="12.75">
+    <row r="832" spans="1:27" ht="13">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="14"/>
@@ -26301,7 +26297,7 @@
       <c r="Z832" s="2"/>
       <c r="AA832" s="2"/>
     </row>
-    <row r="833" spans="1:27" ht="12.75">
+    <row r="833" spans="1:27" ht="13">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="14"/>
@@ -26330,7 +26326,7 @@
       <c r="Z833" s="2"/>
       <c r="AA833" s="2"/>
     </row>
-    <row r="834" spans="1:27" ht="12.75">
+    <row r="834" spans="1:27" ht="13">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="14"/>
@@ -26359,7 +26355,7 @@
       <c r="Z834" s="2"/>
       <c r="AA834" s="2"/>
     </row>
-    <row r="835" spans="1:27" ht="12.75">
+    <row r="835" spans="1:27" ht="13">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="14"/>
@@ -26388,7 +26384,7 @@
       <c r="Z835" s="2"/>
       <c r="AA835" s="2"/>
     </row>
-    <row r="836" spans="1:27" ht="12.75">
+    <row r="836" spans="1:27" ht="13">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="14"/>
@@ -26417,7 +26413,7 @@
       <c r="Z836" s="2"/>
       <c r="AA836" s="2"/>
     </row>
-    <row r="837" spans="1:27" ht="12.75">
+    <row r="837" spans="1:27" ht="13">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="14"/>
@@ -26446,7 +26442,7 @@
       <c r="Z837" s="2"/>
       <c r="AA837" s="2"/>
     </row>
-    <row r="838" spans="1:27" ht="12.75">
+    <row r="838" spans="1:27" ht="13">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="14"/>
@@ -26475,7 +26471,7 @@
       <c r="Z838" s="2"/>
       <c r="AA838" s="2"/>
     </row>
-    <row r="839" spans="1:27" ht="12.75">
+    <row r="839" spans="1:27" ht="13">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="14"/>
@@ -26504,7 +26500,7 @@
       <c r="Z839" s="2"/>
       <c r="AA839" s="2"/>
     </row>
-    <row r="840" spans="1:27" ht="12.75">
+    <row r="840" spans="1:27" ht="13">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="14"/>
@@ -26533,7 +26529,7 @@
       <c r="Z840" s="2"/>
       <c r="AA840" s="2"/>
     </row>
-    <row r="841" spans="1:27" ht="12.75">
+    <row r="841" spans="1:27" ht="13">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="14"/>
@@ -26562,7 +26558,7 @@
       <c r="Z841" s="2"/>
       <c r="AA841" s="2"/>
     </row>
-    <row r="842" spans="1:27" ht="12.75">
+    <row r="842" spans="1:27" ht="13">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="14"/>
@@ -26591,7 +26587,7 @@
       <c r="Z842" s="2"/>
       <c r="AA842" s="2"/>
     </row>
-    <row r="843" spans="1:27" ht="12.75">
+    <row r="843" spans="1:27" ht="13">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="14"/>
@@ -26620,7 +26616,7 @@
       <c r="Z843" s="2"/>
       <c r="AA843" s="2"/>
     </row>
-    <row r="844" spans="1:27" ht="12.75">
+    <row r="844" spans="1:27" ht="13">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="14"/>
@@ -26649,7 +26645,7 @@
       <c r="Z844" s="2"/>
       <c r="AA844" s="2"/>
     </row>
-    <row r="845" spans="1:27" ht="12.75">
+    <row r="845" spans="1:27" ht="13">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="14"/>
@@ -26678,7 +26674,7 @@
       <c r="Z845" s="2"/>
       <c r="AA845" s="2"/>
     </row>
-    <row r="846" spans="1:27" ht="12.75">
+    <row r="846" spans="1:27" ht="13">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="14"/>
@@ -26707,7 +26703,7 @@
       <c r="Z846" s="2"/>
       <c r="AA846" s="2"/>
     </row>
-    <row r="847" spans="1:27" ht="12.75">
+    <row r="847" spans="1:27" ht="13">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="14"/>
@@ -26736,7 +26732,7 @@
       <c r="Z847" s="2"/>
       <c r="AA847" s="2"/>
     </row>
-    <row r="848" spans="1:27" ht="12.75">
+    <row r="848" spans="1:27" ht="13">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="14"/>
@@ -26765,7 +26761,7 @@
       <c r="Z848" s="2"/>
       <c r="AA848" s="2"/>
     </row>
-    <row r="849" spans="1:27" ht="12.75">
+    <row r="849" spans="1:27" ht="13">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="14"/>
@@ -26794,7 +26790,7 @@
       <c r="Z849" s="2"/>
       <c r="AA849" s="2"/>
     </row>
-    <row r="850" spans="1:27" ht="12.75">
+    <row r="850" spans="1:27" ht="13">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="14"/>
@@ -26823,7 +26819,7 @@
       <c r="Z850" s="2"/>
       <c r="AA850" s="2"/>
     </row>
-    <row r="851" spans="1:27" ht="12.75">
+    <row r="851" spans="1:27" ht="13">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="14"/>
@@ -26852,7 +26848,7 @@
       <c r="Z851" s="2"/>
       <c r="AA851" s="2"/>
     </row>
-    <row r="852" spans="1:27" ht="12.75">
+    <row r="852" spans="1:27" ht="13">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="14"/>
@@ -26881,7 +26877,7 @@
       <c r="Z852" s="2"/>
       <c r="AA852" s="2"/>
     </row>
-    <row r="853" spans="1:27" ht="12.75">
+    <row r="853" spans="1:27" ht="13">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="14"/>
@@ -26910,7 +26906,7 @@
       <c r="Z853" s="2"/>
       <c r="AA853" s="2"/>
     </row>
-    <row r="854" spans="1:27" ht="12.75">
+    <row r="854" spans="1:27" ht="13">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="14"/>
@@ -26939,7 +26935,7 @@
       <c r="Z854" s="2"/>
       <c r="AA854" s="2"/>
     </row>
-    <row r="855" spans="1:27" ht="12.75">
+    <row r="855" spans="1:27" ht="13">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="14"/>
@@ -26968,7 +26964,7 @@
       <c r="Z855" s="2"/>
       <c r="AA855" s="2"/>
     </row>
-    <row r="856" spans="1:27" ht="12.75">
+    <row r="856" spans="1:27" ht="13">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="14"/>
@@ -26997,7 +26993,7 @@
       <c r="Z856" s="2"/>
       <c r="AA856" s="2"/>
     </row>
-    <row r="857" spans="1:27" ht="12.75">
+    <row r="857" spans="1:27" ht="13">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="14"/>
@@ -27026,7 +27022,7 @@
       <c r="Z857" s="2"/>
       <c r="AA857" s="2"/>
     </row>
-    <row r="858" spans="1:27" ht="12.75">
+    <row r="858" spans="1:27" ht="13">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="14"/>
@@ -27055,7 +27051,7 @@
       <c r="Z858" s="2"/>
       <c r="AA858" s="2"/>
     </row>
-    <row r="859" spans="1:27" ht="12.75">
+    <row r="859" spans="1:27" ht="13">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="14"/>
@@ -27084,7 +27080,7 @@
       <c r="Z859" s="2"/>
       <c r="AA859" s="2"/>
     </row>
-    <row r="860" spans="1:27" ht="12.75">
+    <row r="860" spans="1:27" ht="13">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="14"/>
@@ -27113,7 +27109,7 @@
       <c r="Z860" s="2"/>
       <c r="AA860" s="2"/>
     </row>
-    <row r="861" spans="1:27" ht="12.75">
+    <row r="861" spans="1:27" ht="13">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="14"/>
@@ -27142,7 +27138,7 @@
       <c r="Z861" s="2"/>
       <c r="AA861" s="2"/>
     </row>
-    <row r="862" spans="1:27" ht="12.75">
+    <row r="862" spans="1:27" ht="13">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="14"/>
@@ -27171,7 +27167,7 @@
       <c r="Z862" s="2"/>
       <c r="AA862" s="2"/>
     </row>
-    <row r="863" spans="1:27" ht="12.75">
+    <row r="863" spans="1:27" ht="13">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="14"/>
@@ -27200,7 +27196,7 @@
       <c r="Z863" s="2"/>
       <c r="AA863" s="2"/>
     </row>
-    <row r="864" spans="1:27" ht="12.75">
+    <row r="864" spans="1:27" ht="13">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="14"/>
@@ -27229,7 +27225,7 @@
       <c r="Z864" s="2"/>
       <c r="AA864" s="2"/>
     </row>
-    <row r="865" spans="1:27" ht="12.75">
+    <row r="865" spans="1:27" ht="13">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="14"/>
@@ -27258,7 +27254,7 @@
       <c r="Z865" s="2"/>
       <c r="AA865" s="2"/>
     </row>
-    <row r="866" spans="1:27" ht="12.75">
+    <row r="866" spans="1:27" ht="13">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="14"/>
@@ -27287,7 +27283,7 @@
       <c r="Z866" s="2"/>
       <c r="AA866" s="2"/>
     </row>
-    <row r="867" spans="1:27" ht="12.75">
+    <row r="867" spans="1:27" ht="13">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="14"/>
@@ -27316,7 +27312,7 @@
       <c r="Z867" s="2"/>
       <c r="AA867" s="2"/>
     </row>
-    <row r="868" spans="1:27" ht="12.75">
+    <row r="868" spans="1:27" ht="13">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="14"/>
@@ -27345,7 +27341,7 @@
       <c r="Z868" s="2"/>
       <c r="AA868" s="2"/>
     </row>
-    <row r="869" spans="1:27" ht="12.75">
+    <row r="869" spans="1:27" ht="13">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="14"/>
@@ -27374,7 +27370,7 @@
       <c r="Z869" s="2"/>
       <c r="AA869" s="2"/>
     </row>
-    <row r="870" spans="1:27" ht="12.75">
+    <row r="870" spans="1:27" ht="13">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="14"/>
@@ -27403,7 +27399,7 @@
       <c r="Z870" s="2"/>
       <c r="AA870" s="2"/>
     </row>
-    <row r="871" spans="1:27" ht="12.75">
+    <row r="871" spans="1:27" ht="13">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="14"/>
@@ -27432,7 +27428,7 @@
       <c r="Z871" s="2"/>
       <c r="AA871" s="2"/>
     </row>
-    <row r="872" spans="1:27" ht="12.75">
+    <row r="872" spans="1:27" ht="13">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="14"/>
@@ -27461,7 +27457,7 @@
       <c r="Z872" s="2"/>
       <c r="AA872" s="2"/>
     </row>
-    <row r="873" spans="1:27" ht="12.75">
+    <row r="873" spans="1:27" ht="13">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="14"/>
@@ -27490,7 +27486,7 @@
       <c r="Z873" s="2"/>
       <c r="AA873" s="2"/>
     </row>
-    <row r="874" spans="1:27" ht="12.75">
+    <row r="874" spans="1:27" ht="13">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="14"/>
@@ -27519,7 +27515,7 @@
       <c r="Z874" s="2"/>
       <c r="AA874" s="2"/>
     </row>
-    <row r="875" spans="1:27" ht="12.75">
+    <row r="875" spans="1:27" ht="13">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="14"/>
@@ -27548,7 +27544,7 @@
       <c r="Z875" s="2"/>
       <c r="AA875" s="2"/>
     </row>
-    <row r="876" spans="1:27" ht="12.75">
+    <row r="876" spans="1:27" ht="13">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="14"/>
@@ -27577,7 +27573,7 @@
       <c r="Z876" s="2"/>
       <c r="AA876" s="2"/>
     </row>
-    <row r="877" spans="1:27" ht="12.75">
+    <row r="877" spans="1:27" ht="13">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="14"/>
@@ -27606,7 +27602,7 @@
       <c r="Z877" s="2"/>
       <c r="AA877" s="2"/>
     </row>
-    <row r="878" spans="1:27" ht="12.75">
+    <row r="878" spans="1:27" ht="13">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="14"/>
@@ -27635,7 +27631,7 @@
       <c r="Z878" s="2"/>
       <c r="AA878" s="2"/>
     </row>
-    <row r="879" spans="1:27" ht="12.75">
+    <row r="879" spans="1:27" ht="13">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="14"/>
@@ -27664,7 +27660,7 @@
       <c r="Z879" s="2"/>
       <c r="AA879" s="2"/>
     </row>
-    <row r="880" spans="1:27" ht="12.75">
+    <row r="880" spans="1:27" ht="13">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="14"/>
@@ -27693,7 +27689,7 @@
       <c r="Z880" s="2"/>
       <c r="AA880" s="2"/>
     </row>
-    <row r="881" spans="1:27" ht="12.75">
+    <row r="881" spans="1:27" ht="13">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="14"/>
@@ -27722,7 +27718,7 @@
       <c r="Z881" s="2"/>
       <c r="AA881" s="2"/>
     </row>
-    <row r="882" spans="1:27" ht="12.75">
+    <row r="882" spans="1:27" ht="13">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="14"/>
@@ -27751,7 +27747,7 @@
       <c r="Z882" s="2"/>
       <c r="AA882" s="2"/>
     </row>
-    <row r="883" spans="1:27" ht="12.75">
+    <row r="883" spans="1:27" ht="13">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="14"/>
@@ -27780,7 +27776,7 @@
       <c r="Z883" s="2"/>
       <c r="AA883" s="2"/>
     </row>
-    <row r="884" spans="1:27" ht="12.75">
+    <row r="884" spans="1:27" ht="13">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="14"/>
@@ -27809,7 +27805,7 @@
       <c r="Z884" s="2"/>
       <c r="AA884" s="2"/>
     </row>
-    <row r="885" spans="1:27" ht="12.75">
+    <row r="885" spans="1:27" ht="13">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="14"/>
@@ -27838,7 +27834,7 @@
       <c r="Z885" s="2"/>
       <c r="AA885" s="2"/>
     </row>
-    <row r="886" spans="1:27" ht="12.75">
+    <row r="886" spans="1:27" ht="13">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="14"/>
@@ -27867,7 +27863,7 @@
       <c r="Z886" s="2"/>
       <c r="AA886" s="2"/>
     </row>
-    <row r="887" spans="1:27" ht="12.75">
+    <row r="887" spans="1:27" ht="13">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="14"/>
@@ -27896,7 +27892,7 @@
       <c r="Z887" s="2"/>
       <c r="AA887" s="2"/>
     </row>
-    <row r="888" spans="1:27" ht="12.75">
+    <row r="888" spans="1:27" ht="13">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="14"/>
@@ -27925,7 +27921,7 @@
       <c r="Z888" s="2"/>
       <c r="AA888" s="2"/>
     </row>
-    <row r="889" spans="1:27" ht="12.75">
+    <row r="889" spans="1:27" ht="13">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="14"/>
@@ -27954,7 +27950,7 @@
       <c r="Z889" s="2"/>
       <c r="AA889" s="2"/>
     </row>
-    <row r="890" spans="1:27" ht="12.75">
+    <row r="890" spans="1:27" ht="13">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="14"/>
@@ -27983,7 +27979,7 @@
       <c r="Z890" s="2"/>
       <c r="AA890" s="2"/>
     </row>
-    <row r="891" spans="1:27" ht="12.75">
+    <row r="891" spans="1:27" ht="13">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="14"/>
@@ -28012,7 +28008,7 @@
       <c r="Z891" s="2"/>
       <c r="AA891" s="2"/>
     </row>
-    <row r="892" spans="1:27" ht="12.75">
+    <row r="892" spans="1:27" ht="13">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="14"/>
@@ -28041,7 +28037,7 @@
       <c r="Z892" s="2"/>
       <c r="AA892" s="2"/>
     </row>
-    <row r="893" spans="1:27" ht="12.75">
+    <row r="893" spans="1:27" ht="13">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="14"/>
@@ -28070,7 +28066,7 @@
       <c r="Z893" s="2"/>
       <c r="AA893" s="2"/>
     </row>
-    <row r="894" spans="1:27" ht="12.75">
+    <row r="894" spans="1:27" ht="13">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="14"/>
@@ -28099,7 +28095,7 @@
       <c r="Z894" s="2"/>
       <c r="AA894" s="2"/>
     </row>
-    <row r="895" spans="1:27" ht="12.75">
+    <row r="895" spans="1:27" ht="13">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="14"/>
@@ -28128,7 +28124,7 @@
       <c r="Z895" s="2"/>
       <c r="AA895" s="2"/>
     </row>
-    <row r="896" spans="1:27" ht="12.75">
+    <row r="896" spans="1:27" ht="13">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="14"/>
@@ -28157,7 +28153,7 @@
       <c r="Z896" s="2"/>
       <c r="AA896" s="2"/>
     </row>
-    <row r="897" spans="1:27" ht="12.75">
+    <row r="897" spans="1:27" ht="13">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="14"/>
@@ -28186,7 +28182,7 @@
       <c r="Z897" s="2"/>
       <c r="AA897" s="2"/>
     </row>
-    <row r="898" spans="1:27" ht="12.75">
+    <row r="898" spans="1:27" ht="13">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="14"/>
@@ -28215,7 +28211,7 @@
       <c r="Z898" s="2"/>
       <c r="AA898" s="2"/>
     </row>
-    <row r="899" spans="1:27" ht="12.75">
+    <row r="899" spans="1:27" ht="13">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="14"/>
@@ -28244,7 +28240,7 @@
       <c r="Z899" s="2"/>
       <c r="AA899" s="2"/>
     </row>
-    <row r="900" spans="1:27" ht="12.75">
+    <row r="900" spans="1:27" ht="13">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="14"/>
@@ -28273,7 +28269,7 @@
       <c r="Z900" s="2"/>
       <c r="AA900" s="2"/>
     </row>
-    <row r="901" spans="1:27" ht="12.75">
+    <row r="901" spans="1:27" ht="13">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="14"/>
@@ -28302,7 +28298,7 @@
       <c r="Z901" s="2"/>
       <c r="AA901" s="2"/>
     </row>
-    <row r="902" spans="1:27" ht="12.75">
+    <row r="902" spans="1:27" ht="13">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="14"/>
@@ -28331,7 +28327,7 @@
       <c r="Z902" s="2"/>
       <c r="AA902" s="2"/>
     </row>
-    <row r="903" spans="1:27" ht="12.75">
+    <row r="903" spans="1:27" ht="13">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="14"/>
@@ -28360,7 +28356,7 @@
       <c r="Z903" s="2"/>
       <c r="AA903" s="2"/>
     </row>
-    <row r="904" spans="1:27" ht="12.75">
+    <row r="904" spans="1:27" ht="13">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="14"/>
@@ -28389,7 +28385,7 @@
       <c r="Z904" s="2"/>
       <c r="AA904" s="2"/>
     </row>
-    <row r="905" spans="1:27" ht="12.75">
+    <row r="905" spans="1:27" ht="13">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="14"/>
@@ -28418,7 +28414,7 @@
       <c r="Z905" s="2"/>
       <c r="AA905" s="2"/>
     </row>
-    <row r="906" spans="1:27" ht="12.75">
+    <row r="906" spans="1:27" ht="13">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="14"/>
@@ -28447,7 +28443,7 @@
       <c r="Z906" s="2"/>
       <c r="AA906" s="2"/>
     </row>
-    <row r="907" spans="1:27" ht="12.75">
+    <row r="907" spans="1:27" ht="13">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="14"/>
@@ -28476,7 +28472,7 @@
       <c r="Z907" s="2"/>
       <c r="AA907" s="2"/>
     </row>
-    <row r="908" spans="1:27" ht="12.75">
+    <row r="908" spans="1:27" ht="13">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="14"/>
@@ -28505,7 +28501,7 @@
       <c r="Z908" s="2"/>
       <c r="AA908" s="2"/>
     </row>
-    <row r="909" spans="1:27" ht="12.75">
+    <row r="909" spans="1:27" ht="13">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="14"/>
@@ -28534,7 +28530,7 @@
       <c r="Z909" s="2"/>
       <c r="AA909" s="2"/>
     </row>
-    <row r="910" spans="1:27" ht="12.75">
+    <row r="910" spans="1:27" ht="13">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="14"/>
@@ -28563,7 +28559,7 @@
       <c r="Z910" s="2"/>
       <c r="AA910" s="2"/>
     </row>
-    <row r="911" spans="1:27" ht="12.75">
+    <row r="911" spans="1:27" ht="13">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="14"/>
@@ -28592,7 +28588,7 @@
       <c r="Z911" s="2"/>
       <c r="AA911" s="2"/>
     </row>
-    <row r="912" spans="1:27" ht="12.75">
+    <row r="912" spans="1:27" ht="13">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="14"/>
@@ -28621,7 +28617,7 @@
       <c r="Z912" s="2"/>
       <c r="AA912" s="2"/>
     </row>
-    <row r="913" spans="1:27" ht="12.75">
+    <row r="913" spans="1:27" ht="13">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="14"/>
@@ -28650,7 +28646,7 @@
       <c r="Z913" s="2"/>
       <c r="AA913" s="2"/>
     </row>
-    <row r="914" spans="1:27" ht="12.75">
+    <row r="914" spans="1:27" ht="13">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="14"/>
@@ -28679,7 +28675,7 @@
       <c r="Z914" s="2"/>
       <c r="AA914" s="2"/>
     </row>
-    <row r="915" spans="1:27" ht="12.75">
+    <row r="915" spans="1:27" ht="13">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="14"/>
@@ -28708,7 +28704,7 @@
       <c r="Z915" s="2"/>
       <c r="AA915" s="2"/>
     </row>
-    <row r="916" spans="1:27" ht="12.75">
+    <row r="916" spans="1:27" ht="13">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="14"/>
@@ -28737,7 +28733,7 @@
       <c r="Z916" s="2"/>
       <c r="AA916" s="2"/>
     </row>
-    <row r="917" spans="1:27" ht="12.75">
+    <row r="917" spans="1:27" ht="13">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="14"/>
@@ -28766,7 +28762,7 @@
       <c r="Z917" s="2"/>
       <c r="AA917" s="2"/>
     </row>
-    <row r="918" spans="1:27" ht="12.75">
+    <row r="918" spans="1:27" ht="13">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="14"/>
@@ -28795,7 +28791,7 @@
       <c r="Z918" s="2"/>
       <c r="AA918" s="2"/>
     </row>
-    <row r="919" spans="1:27" ht="12.75">
+    <row r="919" spans="1:27" ht="13">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="14"/>
@@ -28824,7 +28820,7 @@
       <c r="Z919" s="2"/>
       <c r="AA919" s="2"/>
     </row>
-    <row r="920" spans="1:27" ht="12.75">
+    <row r="920" spans="1:27" ht="13">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="14"/>
@@ -28853,7 +28849,7 @@
       <c r="Z920" s="2"/>
       <c r="AA920" s="2"/>
     </row>
-    <row r="921" spans="1:27" ht="12.75">
+    <row r="921" spans="1:27" ht="13">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="14"/>
@@ -28882,7 +28878,7 @@
       <c r="Z921" s="2"/>
       <c r="AA921" s="2"/>
     </row>
-    <row r="922" spans="1:27" ht="12.75">
+    <row r="922" spans="1:27" ht="13">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="14"/>
@@ -28911,7 +28907,7 @@
       <c r="Z922" s="2"/>
       <c r="AA922" s="2"/>
     </row>
-    <row r="923" spans="1:27" ht="12.75">
+    <row r="923" spans="1:27" ht="13">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="14"/>
@@ -28940,7 +28936,7 @@
       <c r="Z923" s="2"/>
       <c r="AA923" s="2"/>
     </row>
-    <row r="924" spans="1:27" ht="12.75">
+    <row r="924" spans="1:27" ht="13">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="14"/>
@@ -28969,7 +28965,7 @@
       <c r="Z924" s="2"/>
       <c r="AA924" s="2"/>
     </row>
-    <row r="925" spans="1:27" ht="12.75">
+    <row r="925" spans="1:27" ht="13">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="14"/>
@@ -28998,7 +28994,7 @@
       <c r="Z925" s="2"/>
       <c r="AA925" s="2"/>
     </row>
-    <row r="926" spans="1:27" ht="12.75">
+    <row r="926" spans="1:27" ht="13">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="14"/>
@@ -29027,7 +29023,7 @@
       <c r="Z926" s="2"/>
       <c r="AA926" s="2"/>
     </row>
-    <row r="927" spans="1:27" ht="12.75">
+    <row r="927" spans="1:27" ht="13">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="14"/>
@@ -29056,7 +29052,7 @@
       <c r="Z927" s="2"/>
       <c r="AA927" s="2"/>
     </row>
-    <row r="928" spans="1:27" ht="12.75">
+    <row r="928" spans="1:27" ht="13">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="14"/>
@@ -29085,7 +29081,7 @@
       <c r="Z928" s="2"/>
       <c r="AA928" s="2"/>
     </row>
-    <row r="929" spans="1:27" ht="12.75">
+    <row r="929" spans="1:27" ht="13">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="14"/>
@@ -29114,7 +29110,7 @@
       <c r="Z929" s="2"/>
       <c r="AA929" s="2"/>
     </row>
-    <row r="930" spans="1:27" ht="12.75">
+    <row r="930" spans="1:27" ht="13">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="14"/>
@@ -29143,7 +29139,7 @@
       <c r="Z930" s="2"/>
       <c r="AA930" s="2"/>
     </row>
-    <row r="931" spans="1:27" ht="12.75">
+    <row r="931" spans="1:27" ht="13">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="14"/>
@@ -29172,7 +29168,7 @@
       <c r="Z931" s="2"/>
       <c r="AA931" s="2"/>
     </row>
-    <row r="932" spans="1:27" ht="12.75">
+    <row r="932" spans="1:27" ht="13">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="14"/>
@@ -29201,7 +29197,7 @@
       <c r="Z932" s="2"/>
       <c r="AA932" s="2"/>
     </row>
-    <row r="933" spans="1:27" ht="12.75">
+    <row r="933" spans="1:27" ht="13">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="14"/>
@@ -29230,7 +29226,7 @@
       <c r="Z933" s="2"/>
       <c r="AA933" s="2"/>
     </row>
-    <row r="934" spans="1:27" ht="12.75">
+    <row r="934" spans="1:27" ht="13">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="14"/>
@@ -29259,7 +29255,7 @@
       <c r="Z934" s="2"/>
       <c r="AA934" s="2"/>
     </row>
-    <row r="935" spans="1:27" ht="12.75">
+    <row r="935" spans="1:27" ht="13">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="14"/>
@@ -29288,7 +29284,7 @@
       <c r="Z935" s="2"/>
       <c r="AA935" s="2"/>
     </row>
-    <row r="936" spans="1:27" ht="12.75">
+    <row r="936" spans="1:27" ht="13">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="14"/>
@@ -29317,7 +29313,7 @@
       <c r="Z936" s="2"/>
       <c r="AA936" s="2"/>
     </row>
-    <row r="937" spans="1:27" ht="12.75">
+    <row r="937" spans="1:27" ht="13">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="14"/>
@@ -29346,7 +29342,7 @@
       <c r="Z937" s="2"/>
       <c r="AA937" s="2"/>
     </row>
-    <row r="938" spans="1:27" ht="12.75">
+    <row r="938" spans="1:27" ht="13">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="14"/>
@@ -29375,7 +29371,7 @@
       <c r="Z938" s="2"/>
       <c r="AA938" s="2"/>
     </row>
-    <row r="939" spans="1:27" ht="12.75">
+    <row r="939" spans="1:27" ht="13">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="14"/>
@@ -29404,7 +29400,7 @@
       <c r="Z939" s="2"/>
       <c r="AA939" s="2"/>
     </row>
-    <row r="940" spans="1:27" ht="12.75">
+    <row r="940" spans="1:27" ht="13">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="14"/>
@@ -29433,7 +29429,7 @@
       <c r="Z940" s="2"/>
       <c r="AA940" s="2"/>
     </row>
-    <row r="941" spans="1:27" ht="12.75">
+    <row r="941" spans="1:27" ht="13">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="14"/>
@@ -29462,7 +29458,7 @@
       <c r="Z941" s="2"/>
       <c r="AA941" s="2"/>
     </row>
-    <row r="942" spans="1:27" ht="12.75">
+    <row r="942" spans="1:27" ht="13">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="14"/>
@@ -29491,7 +29487,7 @@
       <c r="Z942" s="2"/>
       <c r="AA942" s="2"/>
     </row>
-    <row r="943" spans="1:27" ht="12.75">
+    <row r="943" spans="1:27" ht="13">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="14"/>
@@ -29520,7 +29516,7 @@
       <c r="Z943" s="2"/>
       <c r="AA943" s="2"/>
     </row>
-    <row r="944" spans="1:27" ht="12.75">
+    <row r="944" spans="1:27" ht="13">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="14"/>
@@ -29549,7 +29545,7 @@
       <c r="Z944" s="2"/>
       <c r="AA944" s="2"/>
     </row>
-    <row r="945" spans="1:27" ht="12.75">
+    <row r="945" spans="1:27" ht="13">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="14"/>
@@ -29578,7 +29574,7 @@
       <c r="Z945" s="2"/>
       <c r="AA945" s="2"/>
     </row>
-    <row r="946" spans="1:27" ht="12.75">
+    <row r="946" spans="1:27" ht="13">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="14"/>
@@ -29607,7 +29603,7 @@
       <c r="Z946" s="2"/>
       <c r="AA946" s="2"/>
     </row>
-    <row r="947" spans="1:27" ht="12.75">
+    <row r="947" spans="1:27" ht="13">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="14"/>
@@ -29636,7 +29632,7 @@
       <c r="Z947" s="2"/>
       <c r="AA947" s="2"/>
     </row>
-    <row r="948" spans="1:27" ht="12.75">
+    <row r="948" spans="1:27" ht="13">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="14"/>
@@ -29665,7 +29661,7 @@
       <c r="Z948" s="2"/>
       <c r="AA948" s="2"/>
     </row>
-    <row r="949" spans="1:27" ht="12.75">
+    <row r="949" spans="1:27" ht="13">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="14"/>
@@ -29694,7 +29690,7 @@
       <c r="Z949" s="2"/>
       <c r="AA949" s="2"/>
     </row>
-    <row r="950" spans="1:27" ht="12.75">
+    <row r="950" spans="1:27" ht="13">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="14"/>
@@ -29723,7 +29719,7 @@
       <c r="Z950" s="2"/>
       <c r="AA950" s="2"/>
     </row>
-    <row r="951" spans="1:27" ht="12.75">
+    <row r="951" spans="1:27" ht="13">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="14"/>
@@ -29752,7 +29748,7 @@
       <c r="Z951" s="2"/>
       <c r="AA951" s="2"/>
     </row>
-    <row r="952" spans="1:27" ht="12.75">
+    <row r="952" spans="1:27" ht="13">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="14"/>
@@ -29781,7 +29777,7 @@
       <c r="Z952" s="2"/>
       <c r="AA952" s="2"/>
     </row>
-    <row r="953" spans="1:27" ht="12.75">
+    <row r="953" spans="1:27" ht="13">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="14"/>
@@ -29810,7 +29806,7 @@
       <c r="Z953" s="2"/>
       <c r="AA953" s="2"/>
     </row>
-    <row r="954" spans="1:27" ht="12.75">
+    <row r="954" spans="1:27" ht="13">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="14"/>
@@ -29839,7 +29835,7 @@
       <c r="Z954" s="2"/>
       <c r="AA954" s="2"/>
     </row>
-    <row r="955" spans="1:27" ht="12.75">
+    <row r="955" spans="1:27" ht="13">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="14"/>
@@ -29868,7 +29864,7 @@
       <c r="Z955" s="2"/>
       <c r="AA955" s="2"/>
     </row>
-    <row r="956" spans="1:27" ht="12.75">
+    <row r="956" spans="1:27" ht="13">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="14"/>
@@ -29897,7 +29893,7 @@
       <c r="Z956" s="2"/>
       <c r="AA956" s="2"/>
     </row>
-    <row r="957" spans="1:27" ht="12.75">
+    <row r="957" spans="1:27" ht="13">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="14"/>
@@ -29926,7 +29922,7 @@
       <c r="Z957" s="2"/>
       <c r="AA957" s="2"/>
     </row>
-    <row r="958" spans="1:27" ht="12.75">
+    <row r="958" spans="1:27" ht="13">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="14"/>
@@ -29955,7 +29951,7 @@
       <c r="Z958" s="2"/>
       <c r="AA958" s="2"/>
     </row>
-    <row r="959" spans="1:27" ht="12.75">
+    <row r="959" spans="1:27" ht="13">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="14"/>
@@ -29984,7 +29980,7 @@
       <c r="Z959" s="2"/>
       <c r="AA959" s="2"/>
     </row>
-    <row r="960" spans="1:27" ht="12.75">
+    <row r="960" spans="1:27" ht="13">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="14"/>
@@ -30013,7 +30009,7 @@
       <c r="Z960" s="2"/>
       <c r="AA960" s="2"/>
     </row>
-    <row r="961" spans="1:27" ht="12.75">
+    <row r="961" spans="1:27" ht="13">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="14"/>
@@ -30042,7 +30038,7 @@
       <c r="Z961" s="2"/>
       <c r="AA961" s="2"/>
     </row>
-    <row r="962" spans="1:27" ht="12.75">
+    <row r="962" spans="1:27" ht="13">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="14"/>
@@ -30071,7 +30067,7 @@
       <c r="Z962" s="2"/>
       <c r="AA962" s="2"/>
     </row>
-    <row r="963" spans="1:27" ht="12.75">
+    <row r="963" spans="1:27" ht="13">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="14"/>
@@ -30100,7 +30096,7 @@
       <c r="Z963" s="2"/>
       <c r="AA963" s="2"/>
     </row>
-    <row r="964" spans="1:27" ht="12.75">
+    <row r="964" spans="1:27" ht="13">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="14"/>
@@ -30129,7 +30125,7 @@
       <c r="Z964" s="2"/>
       <c r="AA964" s="2"/>
     </row>
-    <row r="965" spans="1:27" ht="12.75">
+    <row r="965" spans="1:27" ht="13">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="14"/>
@@ -30158,7 +30154,7 @@
       <c r="Z965" s="2"/>
       <c r="AA965" s="2"/>
     </row>
-    <row r="966" spans="1:27" ht="12.75">
+    <row r="966" spans="1:27" ht="13">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="14"/>
@@ -30187,7 +30183,7 @@
       <c r="Z966" s="2"/>
       <c r="AA966" s="2"/>
     </row>
-    <row r="967" spans="1:27" ht="12.75">
+    <row r="967" spans="1:27" ht="13">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="14"/>
@@ -30216,7 +30212,7 @@
       <c r="Z967" s="2"/>
       <c r="AA967" s="2"/>
     </row>
-    <row r="968" spans="1:27" ht="12.75">
+    <row r="968" spans="1:27" ht="13">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="14"/>
@@ -30245,7 +30241,7 @@
       <c r="Z968" s="2"/>
       <c r="AA968" s="2"/>
     </row>
-    <row r="969" spans="1:27" ht="12.75">
+    <row r="969" spans="1:27" ht="13">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="14"/>
@@ -30274,7 +30270,7 @@
       <c r="Z969" s="2"/>
       <c r="AA969" s="2"/>
     </row>
-    <row r="970" spans="1:27" ht="12.75">
+    <row r="970" spans="1:27" ht="13">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="14"/>
@@ -30303,7 +30299,7 @@
       <c r="Z970" s="2"/>
       <c r="AA970" s="2"/>
     </row>
-    <row r="971" spans="1:27" ht="12.75">
+    <row r="971" spans="1:27" ht="13">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="14"/>
@@ -30332,7 +30328,7 @@
       <c r="Z971" s="2"/>
       <c r="AA971" s="2"/>
     </row>
-    <row r="972" spans="1:27" ht="12.75">
+    <row r="972" spans="1:27" ht="13">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="14"/>
@@ -30361,7 +30357,7 @@
       <c r="Z972" s="2"/>
       <c r="AA972" s="2"/>
     </row>
-    <row r="973" spans="1:27" ht="12.75">
+    <row r="973" spans="1:27" ht="13">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="14"/>
@@ -30390,7 +30386,7 @@
       <c r="Z973" s="2"/>
       <c r="AA973" s="2"/>
     </row>
-    <row r="974" spans="1:27" ht="12.75">
+    <row r="974" spans="1:27" ht="13">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="14"/>
@@ -30419,7 +30415,7 @@
       <c r="Z974" s="2"/>
       <c r="AA974" s="2"/>
     </row>
-    <row r="975" spans="1:27" ht="12.75">
+    <row r="975" spans="1:27" ht="13">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="14"/>
@@ -30448,7 +30444,7 @@
       <c r="Z975" s="2"/>
       <c r="AA975" s="2"/>
     </row>
-    <row r="976" spans="1:27" ht="12.75">
+    <row r="976" spans="1:27" ht="13">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="14"/>
@@ -30477,7 +30473,7 @@
       <c r="Z976" s="2"/>
       <c r="AA976" s="2"/>
     </row>
-    <row r="977" spans="1:27" ht="12.75">
+    <row r="977" spans="1:27" ht="13">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="14"/>
@@ -30506,7 +30502,7 @@
       <c r="Z977" s="2"/>
       <c r="AA977" s="2"/>
     </row>
-    <row r="978" spans="1:27" ht="12.75">
+    <row r="978" spans="1:27" ht="13">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="14"/>
@@ -30535,7 +30531,7 @@
       <c r="Z978" s="2"/>
       <c r="AA978" s="2"/>
     </row>
-    <row r="979" spans="1:27" ht="12.75">
+    <row r="979" spans="1:27" ht="13">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="14"/>
@@ -30564,7 +30560,7 @@
       <c r="Z979" s="2"/>
       <c r="AA979" s="2"/>
     </row>
-    <row r="980" spans="1:27" ht="12.75">
+    <row r="980" spans="1:27" ht="13">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="14"/>
@@ -30593,7 +30589,7 @@
       <c r="Z980" s="2"/>
       <c r="AA980" s="2"/>
     </row>
-    <row r="981" spans="1:27" ht="12.75">
+    <row r="981" spans="1:27" ht="13">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="14"/>
@@ -30622,7 +30618,7 @@
       <c r="Z981" s="2"/>
       <c r="AA981" s="2"/>
     </row>
-    <row r="982" spans="1:27" ht="12.75">
+    <row r="982" spans="1:27" ht="13">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="14"/>
@@ -30651,7 +30647,7 @@
       <c r="Z982" s="2"/>
       <c r="AA982" s="2"/>
     </row>
-    <row r="983" spans="1:27" ht="12.75">
+    <row r="983" spans="1:27" ht="13">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="14"/>
@@ -30680,7 +30676,7 @@
       <c r="Z983" s="2"/>
       <c r="AA983" s="2"/>
     </row>
-    <row r="984" spans="1:27" ht="12.75">
+    <row r="984" spans="1:27" ht="13">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="14"/>
@@ -30709,7 +30705,7 @@
       <c r="Z984" s="2"/>
       <c r="AA984" s="2"/>
     </row>
-    <row r="985" spans="1:27" ht="12.75">
+    <row r="985" spans="1:27" ht="13">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="14"/>
@@ -30738,7 +30734,7 @@
       <c r="Z985" s="2"/>
       <c r="AA985" s="2"/>
     </row>
-    <row r="986" spans="1:27" ht="12.75">
+    <row r="986" spans="1:27" ht="13">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="14"/>
@@ -30767,7 +30763,7 @@
       <c r="Z986" s="2"/>
       <c r="AA986" s="2"/>
     </row>
-    <row r="987" spans="1:27" ht="12.75">
+    <row r="987" spans="1:27" ht="13">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="14"/>
@@ -30796,7 +30792,7 @@
       <c r="Z987" s="2"/>
       <c r="AA987" s="2"/>
     </row>
-    <row r="988" spans="1:27" ht="12.75">
+    <row r="988" spans="1:27" ht="13">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="14"/>
@@ -30825,7 +30821,7 @@
       <c r="Z988" s="2"/>
       <c r="AA988" s="2"/>
     </row>
-    <row r="989" spans="1:27" ht="12.75">
+    <row r="989" spans="1:27" ht="13">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="14"/>
@@ -30854,7 +30850,7 @@
       <c r="Z989" s="2"/>
       <c r="AA989" s="2"/>
     </row>
-    <row r="990" spans="1:27" ht="12.75">
+    <row r="990" spans="1:27" ht="13">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="14"/>
@@ -30883,7 +30879,7 @@
       <c r="Z990" s="2"/>
       <c r="AA990" s="2"/>
     </row>
-    <row r="991" spans="1:27" ht="12.75">
+    <row r="991" spans="1:27" ht="13">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="14"/>
@@ -30912,7 +30908,7 @@
       <c r="Z991" s="2"/>
       <c r="AA991" s="2"/>
     </row>
-    <row r="992" spans="1:27" ht="12.75">
+    <row r="992" spans="1:27" ht="13">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="14"/>
@@ -30941,7 +30937,7 @@
       <c r="Z992" s="2"/>
       <c r="AA992" s="2"/>
     </row>
-    <row r="993" spans="1:27" ht="12.75">
+    <row r="993" spans="1:27" ht="13">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="14"/>
@@ -30970,7 +30966,7 @@
       <c r="Z993" s="2"/>
       <c r="AA993" s="2"/>
     </row>
-    <row r="994" spans="1:27" ht="12.75">
+    <row r="994" spans="1:27" ht="13">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="14"/>
@@ -30999,7 +30995,7 @@
       <c r="Z994" s="2"/>
       <c r="AA994" s="2"/>
     </row>
-    <row r="995" spans="1:27" ht="12.75">
+    <row r="995" spans="1:27" ht="13">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="14"/>
@@ -31028,7 +31024,7 @@
       <c r="Z995" s="2"/>
       <c r="AA995" s="2"/>
     </row>
-    <row r="996" spans="1:27" ht="12.75">
+    <row r="996" spans="1:27" ht="13">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="14"/>
@@ -31057,7 +31053,7 @@
       <c r="Z996" s="2"/>
       <c r="AA996" s="2"/>
     </row>
-    <row r="997" spans="1:27" ht="12.75">
+    <row r="997" spans="1:27" ht="13">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="14"/>
@@ -31086,7 +31082,7 @@
       <c r="Z997" s="2"/>
       <c r="AA997" s="2"/>
     </row>
-    <row r="998" spans="1:27" ht="12.75">
+    <row r="998" spans="1:27" ht="13">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="14"/>
@@ -31115,7 +31111,7 @@
       <c r="Z998" s="2"/>
       <c r="AA998" s="2"/>
     </row>
-    <row r="999" spans="1:27" ht="12.75">
+    <row r="999" spans="1:27" ht="13">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="C999" s="14"/>
@@ -31144,7 +31140,7 @@
       <c r="Z999" s="2"/>
       <c r="AA999" s="2"/>
     </row>
-    <row r="1000" spans="1:27" ht="12.75">
+    <row r="1000" spans="1:27" ht="13">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="14"/>
@@ -31173,7 +31169,7 @@
       <c r="Z1000" s="2"/>
       <c r="AA1000" s="2"/>
     </row>
-    <row r="1001" spans="1:27" ht="12.75">
+    <row r="1001" spans="1:27" ht="13">
       <c r="A1001" s="2"/>
       <c r="B1001" s="2"/>
       <c r="C1001" s="14"/>
@@ -31218,9 +31214,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.40625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -31344,7 +31340,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
@@ -31443,7 +31439,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
@@ -31502,23 +31498,23 @@
   </sheetPr>
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="127.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="184.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.42578125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.40625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="127.1328125" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="184.54296875" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.26953125" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.40625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.54296875" style="33" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.5703125" style="33"/>
+    <col min="10" max="10" width="15.26953125" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.54296875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20.25" customHeight="1">
@@ -31672,7 +31668,7 @@
       <c r="G4" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" t="s">
         <v>102</v>
       </c>
       <c r="I4" s="30"/>
@@ -31716,7 +31712,7 @@
       <c r="G5" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" t="s">
         <v>106</v>
       </c>
       <c r="I5" s="30"/>
@@ -31760,7 +31756,7 @@
       <c r="G6" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" t="s">
         <v>112</v>
       </c>
       <c r="I6" s="30"/>
@@ -31804,7 +31800,7 @@
       <c r="G7" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" t="s">
         <v>117</v>
       </c>
       <c r="I7" s="30"/>
@@ -31848,7 +31844,7 @@
       <c r="G8" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" t="s">
         <v>119</v>
       </c>
       <c r="I8" s="30"/>
@@ -31933,7 +31929,7 @@
         <v>172</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I10" s="30" t="s">
         <v>173</v>
@@ -31969,7 +31965,7 @@
       <c r="D11" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" t="s">
         <v>178</v>
       </c>
       <c r="H11"/>
@@ -32007,7 +32003,7 @@
       <c r="D12" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" t="s">
         <v>181</v>
       </c>
       <c r="F12" s="30"/>
@@ -32056,7 +32052,7 @@
       <c r="G13" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="H13" s="44" t="s">
+      <c r="H13" t="s">
         <v>220</v>
       </c>
       <c r="I13" s="30"/>
@@ -32096,7 +32092,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
       <c r="H14" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I14" s="30" t="s">
         <v>179</v>
@@ -32293,7 +32289,7 @@
         <v>2024</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>255</v>
@@ -32302,7 +32298,7 @@
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
       <c r="I23" s="30" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="J23" s="30"/>
       <c r="K23" s="30"/>
@@ -57783,7 +57779,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
@@ -57818,7 +57814,7 @@
         <v>2024</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>104</v>
@@ -57829,10 +57825,10 @@
         <v>2024</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.5">
@@ -57856,14 +57852,14 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7265625" customWidth="1"/>
+    <col min="5" max="5" width="46.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="12.75">
+    <row r="1" spans="1:21" ht="13">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -57900,7 +57896,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" ht="12.75">
+    <row r="2" spans="1:21" ht="13">
       <c r="A2" s="2" t="s">
         <v>127</v>
       </c>
@@ -57937,7 +57933,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" ht="12.75">
+    <row r="3" spans="1:21" ht="13">
       <c r="A3" s="2" t="s">
         <v>127</v>
       </c>
@@ -57974,7 +57970,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="12.75">
+    <row r="4" spans="1:21" ht="13">
       <c r="A4" s="2" t="s">
         <v>127</v>
       </c>
@@ -58010,7 +58006,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="12.75">
+    <row r="5" spans="1:21" ht="13">
       <c r="A5" s="2" t="s">
         <v>127</v>
       </c>
@@ -58084,7 +58080,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="13.5" thickBot="1">
+    <row r="7" spans="1:21" ht="13.75" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>127</v>
       </c>
@@ -58121,7 +58117,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="13.5" thickBot="1">
+    <row r="8" spans="1:21" ht="13.75" thickBot="1">
       <c r="A8" s="2" t="s">
         <v>127</v>
       </c>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitfolder\sylcv\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slee2462\Documents\github\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A08052-6E6D-4A65-9960-3C8ABC56BA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EC09D9-9BE8-4A18-9AA6-CB2837AD0666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="268">
   <si>
     <t>Degree</t>
   </si>
@@ -823,9 +823,6 @@
     <t>303-324</t>
   </si>
   <si>
-    <t>Psychological Methods</t>
-  </si>
-  <si>
     <t>Invited Reviewer</t>
   </si>
   <si>
@@ -862,13 +859,16 @@
   <si>
     <t>https://doi.org/10.1007/978-3-031-27781-8</t>
   </si>
+  <si>
+    <t>Frontier in Psychology</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="[$-409]mmmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\-yy;@"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1125,11 +1125,11 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1149,7 +1149,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1404,15 +1404,15 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.40625" customWidth="1"/>
-    <col min="3" max="3" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="136.7265625" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="136.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13">
+    <row r="1" spans="1:5" ht="13.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="26">
+    <row r="2" spans="1:5" ht="39.6">
       <c r="A2" s="26" t="s">
         <v>170</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.75" thickBot="1">
+    <row r="3" spans="1:5" ht="13.8" thickBot="1">
       <c r="A3" s="24" t="s">
         <v>139</v>
       </c>
@@ -1496,9 +1496,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="39.1328125" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1">
@@ -1935,19 +1935,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" customWidth="1"/>
-    <col min="2" max="2" width="27.86328125" customWidth="1"/>
-    <col min="3" max="3" width="23.86328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="14.40625" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="13">
+    <row r="1" spans="1:27" ht="13.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1994,7 +1994,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="13">
+    <row r="2" spans="1:27" ht="13.2">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -2039,7 +2039,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="13">
+    <row r="3" spans="1:27" ht="13.2">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -2084,7 +2084,7 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:27" ht="13.25">
+    <row r="4" spans="1:27" ht="13.2">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -2172,7 +2172,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:27" ht="13">
+    <row r="6" spans="1:27" ht="13.2">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2215,7 +2215,7 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:27" ht="17.5">
+    <row r="7" spans="1:27" ht="16.8">
       <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
@@ -2262,7 +2262,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:27" ht="17.5">
+    <row r="8" spans="1:27" ht="16.8">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
@@ -2307,7 +2307,7 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:27" ht="17.5">
+    <row r="9" spans="1:27" ht="16.8">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -2352,7 +2352,7 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:27" ht="13.25">
+    <row r="10" spans="1:27" ht="13.2">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -2395,7 +2395,7 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:27" ht="13">
+    <row r="11" spans="1:27" ht="13.2">
       <c r="A11" s="21" t="s">
         <v>40</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" ht="15.6">
       <c r="A12" s="21" t="s">
         <v>19</v>
       </c>
@@ -2477,7 +2477,7 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" ht="15.6">
       <c r="A13" s="21" t="s">
         <v>40</v>
       </c>
@@ -2518,24 +2518,24 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="1:27" ht="13">
+    <row r="14" spans="1:27" ht="13.2">
       <c r="A14" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D14" t="s">
+        <v>256</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="F14" s="21" t="s">
         <v>257</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>258</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -2561,24 +2561,24 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="1:27" ht="13">
+    <row r="15" spans="1:27" ht="13.2">
       <c r="A15" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C15" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>260</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -2604,7 +2604,7 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="1:27" ht="13">
+    <row r="16" spans="1:27" ht="13.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="14"/>
@@ -2633,7 +2633,7 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
     </row>
-    <row r="17" spans="1:27" ht="13">
+    <row r="17" spans="1:27" ht="13.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="14"/>
@@ -2662,7 +2662,7 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
     </row>
-    <row r="18" spans="1:27" ht="13">
+    <row r="18" spans="1:27" ht="13.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="14"/>
@@ -2691,7 +2691,7 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="1:27" ht="13">
+    <row r="19" spans="1:27" ht="13.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="14"/>
@@ -2720,7 +2720,7 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
-    <row r="20" spans="1:27" ht="13">
+    <row r="20" spans="1:27" ht="13.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="14"/>
@@ -2749,7 +2749,7 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21" spans="1:27" ht="13">
+    <row r="21" spans="1:27" ht="13.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="14"/>
@@ -2778,7 +2778,7 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
     </row>
-    <row r="22" spans="1:27" ht="13">
+    <row r="22" spans="1:27" ht="13.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="14"/>
@@ -2807,7 +2807,7 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" spans="1:27" ht="13">
+    <row r="23" spans="1:27" ht="13.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="14"/>
@@ -2836,7 +2836,7 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" spans="1:27" ht="13">
+    <row r="24" spans="1:27" ht="13.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="14"/>
@@ -2865,7 +2865,7 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" spans="1:27" ht="13">
+    <row r="25" spans="1:27" ht="13.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="14"/>
@@ -2894,7 +2894,7 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
     </row>
-    <row r="26" spans="1:27" ht="13">
+    <row r="26" spans="1:27" ht="13.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="14"/>
@@ -2923,7 +2923,7 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" spans="1:27" ht="13">
+    <row r="27" spans="1:27" ht="13.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="14"/>
@@ -2952,7 +2952,7 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
     </row>
-    <row r="28" spans="1:27" ht="13">
+    <row r="28" spans="1:27" ht="13.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="14"/>
@@ -2981,7 +2981,7 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
     </row>
-    <row r="29" spans="1:27" ht="13">
+    <row r="29" spans="1:27" ht="13.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="14"/>
@@ -3010,7 +3010,7 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" spans="1:27" ht="13">
+    <row r="30" spans="1:27" ht="13.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="14"/>
@@ -3039,7 +3039,7 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" spans="1:27" ht="13">
+    <row r="31" spans="1:27" ht="13.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="14"/>
@@ -3068,7 +3068,7 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
     </row>
-    <row r="32" spans="1:27" ht="13">
+    <row r="32" spans="1:27" ht="13.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="14"/>
@@ -3097,7 +3097,7 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="1:27" ht="13">
+    <row r="33" spans="1:27" ht="13.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="14"/>
@@ -3126,7 +3126,7 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="1:27" ht="13">
+    <row r="34" spans="1:27" ht="13.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="14"/>
@@ -3155,7 +3155,7 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="1:27" ht="13">
+    <row r="35" spans="1:27" ht="13.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="14"/>
@@ -3184,7 +3184,7 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
     </row>
-    <row r="36" spans="1:27" ht="13">
+    <row r="36" spans="1:27" ht="13.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="14"/>
@@ -3213,7 +3213,7 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
     </row>
-    <row r="37" spans="1:27" ht="13">
+    <row r="37" spans="1:27" ht="13.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="14"/>
@@ -3242,7 +3242,7 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
     </row>
-    <row r="38" spans="1:27" ht="13">
+    <row r="38" spans="1:27" ht="13.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="14"/>
@@ -3271,7 +3271,7 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
     </row>
-    <row r="39" spans="1:27" ht="13">
+    <row r="39" spans="1:27" ht="13.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="14"/>
@@ -3300,7 +3300,7 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
     </row>
-    <row r="40" spans="1:27" ht="13">
+    <row r="40" spans="1:27" ht="13.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="14"/>
@@ -3329,7 +3329,7 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="1:27" ht="13">
+    <row r="41" spans="1:27" ht="13.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="14"/>
@@ -3358,7 +3358,7 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
     </row>
-    <row r="42" spans="1:27" ht="13">
+    <row r="42" spans="1:27" ht="13.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="14"/>
@@ -3387,7 +3387,7 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
     </row>
-    <row r="43" spans="1:27" ht="13">
+    <row r="43" spans="1:27" ht="13.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="14"/>
@@ -3416,7 +3416,7 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
     </row>
-    <row r="44" spans="1:27" ht="13">
+    <row r="44" spans="1:27" ht="13.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="14"/>
@@ -3445,7 +3445,7 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
     </row>
-    <row r="45" spans="1:27" ht="13">
+    <row r="45" spans="1:27" ht="13.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="14"/>
@@ -3474,7 +3474,7 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" spans="1:27" ht="13">
+    <row r="46" spans="1:27" ht="13.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="14"/>
@@ -3503,7 +3503,7 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
     </row>
-    <row r="47" spans="1:27" ht="13">
+    <row r="47" spans="1:27" ht="13.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="14"/>
@@ -3532,7 +3532,7 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
     </row>
-    <row r="48" spans="1:27" ht="13">
+    <row r="48" spans="1:27" ht="13.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="14"/>
@@ -3561,7 +3561,7 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
     </row>
-    <row r="49" spans="1:27" ht="13">
+    <row r="49" spans="1:27" ht="13.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="14"/>
@@ -3590,7 +3590,7 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
     </row>
-    <row r="50" spans="1:27" ht="13">
+    <row r="50" spans="1:27" ht="13.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="14"/>
@@ -3619,7 +3619,7 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
     </row>
-    <row r="51" spans="1:27" ht="13">
+    <row r="51" spans="1:27" ht="13.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="14"/>
@@ -3648,7 +3648,7 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
     </row>
-    <row r="52" spans="1:27" ht="13">
+    <row r="52" spans="1:27" ht="13.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="14"/>
@@ -3677,7 +3677,7 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
     </row>
-    <row r="53" spans="1:27" ht="13">
+    <row r="53" spans="1:27" ht="13.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="14"/>
@@ -3706,7 +3706,7 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
     </row>
-    <row r="54" spans="1:27" ht="13">
+    <row r="54" spans="1:27" ht="13.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="14"/>
@@ -3735,7 +3735,7 @@
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
     </row>
-    <row r="55" spans="1:27" ht="13">
+    <row r="55" spans="1:27" ht="13.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="14"/>
@@ -3764,7 +3764,7 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
     </row>
-    <row r="56" spans="1:27" ht="13">
+    <row r="56" spans="1:27" ht="13.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="14"/>
@@ -3793,7 +3793,7 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
     </row>
-    <row r="57" spans="1:27" ht="13">
+    <row r="57" spans="1:27" ht="13.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="14"/>
@@ -3822,7 +3822,7 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
     </row>
-    <row r="58" spans="1:27" ht="13">
+    <row r="58" spans="1:27" ht="13.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="14"/>
@@ -3851,7 +3851,7 @@
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
     </row>
-    <row r="59" spans="1:27" ht="13">
+    <row r="59" spans="1:27" ht="13.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="14"/>
@@ -3880,7 +3880,7 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
     </row>
-    <row r="60" spans="1:27" ht="13">
+    <row r="60" spans="1:27" ht="13.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="14"/>
@@ -3909,7 +3909,7 @@
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
     </row>
-    <row r="61" spans="1:27" ht="13">
+    <row r="61" spans="1:27" ht="13.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="14"/>
@@ -3938,7 +3938,7 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
     </row>
-    <row r="62" spans="1:27" ht="13">
+    <row r="62" spans="1:27" ht="13.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="14"/>
@@ -3967,7 +3967,7 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
     </row>
-    <row r="63" spans="1:27" ht="13">
+    <row r="63" spans="1:27" ht="13.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="14"/>
@@ -3996,7 +3996,7 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
     </row>
-    <row r="64" spans="1:27" ht="13">
+    <row r="64" spans="1:27" ht="13.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="14"/>
@@ -4025,7 +4025,7 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
     </row>
-    <row r="65" spans="1:27" ht="13">
+    <row r="65" spans="1:27" ht="13.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="14"/>
@@ -4054,7 +4054,7 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66" spans="1:27" ht="13">
+    <row r="66" spans="1:27" ht="13.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="14"/>
@@ -4083,7 +4083,7 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
     </row>
-    <row r="67" spans="1:27" ht="13">
+    <row r="67" spans="1:27" ht="13.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="14"/>
@@ -4112,7 +4112,7 @@
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
     </row>
-    <row r="68" spans="1:27" ht="13">
+    <row r="68" spans="1:27" ht="13.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="14"/>
@@ -4141,7 +4141,7 @@
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
     </row>
-    <row r="69" spans="1:27" ht="13">
+    <row r="69" spans="1:27" ht="13.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="14"/>
@@ -4170,7 +4170,7 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
     </row>
-    <row r="70" spans="1:27" ht="13">
+    <row r="70" spans="1:27" ht="13.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="14"/>
@@ -4199,7 +4199,7 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
     </row>
-    <row r="71" spans="1:27" ht="13">
+    <row r="71" spans="1:27" ht="13.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="14"/>
@@ -4228,7 +4228,7 @@
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
     </row>
-    <row r="72" spans="1:27" ht="13">
+    <row r="72" spans="1:27" ht="13.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="14"/>
@@ -4257,7 +4257,7 @@
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
     </row>
-    <row r="73" spans="1:27" ht="13">
+    <row r="73" spans="1:27" ht="13.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="14"/>
@@ -4286,7 +4286,7 @@
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
     </row>
-    <row r="74" spans="1:27" ht="13">
+    <row r="74" spans="1:27" ht="13.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="14"/>
@@ -4315,7 +4315,7 @@
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
     </row>
-    <row r="75" spans="1:27" ht="13">
+    <row r="75" spans="1:27" ht="13.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="14"/>
@@ -4344,7 +4344,7 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
     </row>
-    <row r="76" spans="1:27" ht="13">
+    <row r="76" spans="1:27" ht="13.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="14"/>
@@ -4373,7 +4373,7 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
     </row>
-    <row r="77" spans="1:27" ht="13">
+    <row r="77" spans="1:27" ht="13.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="14"/>
@@ -4402,7 +4402,7 @@
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
     </row>
-    <row r="78" spans="1:27" ht="13">
+    <row r="78" spans="1:27" ht="13.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="14"/>
@@ -4431,7 +4431,7 @@
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
     </row>
-    <row r="79" spans="1:27" ht="13">
+    <row r="79" spans="1:27" ht="13.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="14"/>
@@ -4460,7 +4460,7 @@
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
     </row>
-    <row r="80" spans="1:27" ht="13">
+    <row r="80" spans="1:27" ht="13.2">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="14"/>
@@ -4489,7 +4489,7 @@
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
     </row>
-    <row r="81" spans="1:27" ht="13">
+    <row r="81" spans="1:27" ht="13.2">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="14"/>
@@ -4518,7 +4518,7 @@
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
     </row>
-    <row r="82" spans="1:27" ht="13">
+    <row r="82" spans="1:27" ht="13.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="14"/>
@@ -4547,7 +4547,7 @@
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
     </row>
-    <row r="83" spans="1:27" ht="13">
+    <row r="83" spans="1:27" ht="13.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="14"/>
@@ -4576,7 +4576,7 @@
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
     </row>
-    <row r="84" spans="1:27" ht="13">
+    <row r="84" spans="1:27" ht="13.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="14"/>
@@ -4605,7 +4605,7 @@
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
     </row>
-    <row r="85" spans="1:27" ht="13">
+    <row r="85" spans="1:27" ht="13.2">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="14"/>
@@ -4634,7 +4634,7 @@
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
     </row>
-    <row r="86" spans="1:27" ht="13">
+    <row r="86" spans="1:27" ht="13.2">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="14"/>
@@ -4663,7 +4663,7 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
     </row>
-    <row r="87" spans="1:27" ht="13">
+    <row r="87" spans="1:27" ht="13.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="14"/>
@@ -4692,7 +4692,7 @@
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
     </row>
-    <row r="88" spans="1:27" ht="13">
+    <row r="88" spans="1:27" ht="13.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="14"/>
@@ -4721,7 +4721,7 @@
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
     </row>
-    <row r="89" spans="1:27" ht="13">
+    <row r="89" spans="1:27" ht="13.2">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="14"/>
@@ -4750,7 +4750,7 @@
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
     </row>
-    <row r="90" spans="1:27" ht="13">
+    <row r="90" spans="1:27" ht="13.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="14"/>
@@ -4779,7 +4779,7 @@
       <c r="Z90" s="2"/>
       <c r="AA90" s="2"/>
     </row>
-    <row r="91" spans="1:27" ht="13">
+    <row r="91" spans="1:27" ht="13.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="14"/>
@@ -4808,7 +4808,7 @@
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
     </row>
-    <row r="92" spans="1:27" ht="13">
+    <row r="92" spans="1:27" ht="13.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="14"/>
@@ -4837,7 +4837,7 @@
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
     </row>
-    <row r="93" spans="1:27" ht="13">
+    <row r="93" spans="1:27" ht="13.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="14"/>
@@ -4866,7 +4866,7 @@
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
     </row>
-    <row r="94" spans="1:27" ht="13">
+    <row r="94" spans="1:27" ht="13.2">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="14"/>
@@ -4895,7 +4895,7 @@
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
     </row>
-    <row r="95" spans="1:27" ht="13">
+    <row r="95" spans="1:27" ht="13.2">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="14"/>
@@ -4924,7 +4924,7 @@
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
     </row>
-    <row r="96" spans="1:27" ht="13">
+    <row r="96" spans="1:27" ht="13.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="14"/>
@@ -4953,7 +4953,7 @@
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
     </row>
-    <row r="97" spans="1:27" ht="13">
+    <row r="97" spans="1:27" ht="13.2">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="14"/>
@@ -4982,7 +4982,7 @@
       <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
     </row>
-    <row r="98" spans="1:27" ht="13">
+    <row r="98" spans="1:27" ht="13.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="14"/>
@@ -5011,7 +5011,7 @@
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
     </row>
-    <row r="99" spans="1:27" ht="13">
+    <row r="99" spans="1:27" ht="13.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="14"/>
@@ -5040,7 +5040,7 @@
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
     </row>
-    <row r="100" spans="1:27" ht="13">
+    <row r="100" spans="1:27" ht="13.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="14"/>
@@ -5069,7 +5069,7 @@
       <c r="Z100" s="2"/>
       <c r="AA100" s="2"/>
     </row>
-    <row r="101" spans="1:27" ht="13">
+    <row r="101" spans="1:27" ht="13.2">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="14"/>
@@ -5098,7 +5098,7 @@
       <c r="Z101" s="2"/>
       <c r="AA101" s="2"/>
     </row>
-    <row r="102" spans="1:27" ht="13">
+    <row r="102" spans="1:27" ht="13.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="14"/>
@@ -5127,7 +5127,7 @@
       <c r="Z102" s="2"/>
       <c r="AA102" s="2"/>
     </row>
-    <row r="103" spans="1:27" ht="13">
+    <row r="103" spans="1:27" ht="13.2">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="14"/>
@@ -5156,7 +5156,7 @@
       <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
     </row>
-    <row r="104" spans="1:27" ht="13">
+    <row r="104" spans="1:27" ht="13.2">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="14"/>
@@ -5185,7 +5185,7 @@
       <c r="Z104" s="2"/>
       <c r="AA104" s="2"/>
     </row>
-    <row r="105" spans="1:27" ht="13">
+    <row r="105" spans="1:27" ht="13.2">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="14"/>
@@ -5214,7 +5214,7 @@
       <c r="Z105" s="2"/>
       <c r="AA105" s="2"/>
     </row>
-    <row r="106" spans="1:27" ht="13">
+    <row r="106" spans="1:27" ht="13.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="14"/>
@@ -5243,7 +5243,7 @@
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
     </row>
-    <row r="107" spans="1:27" ht="13">
+    <row r="107" spans="1:27" ht="13.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="14"/>
@@ -5272,7 +5272,7 @@
       <c r="Z107" s="2"/>
       <c r="AA107" s="2"/>
     </row>
-    <row r="108" spans="1:27" ht="13">
+    <row r="108" spans="1:27" ht="13.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="14"/>
@@ -5301,7 +5301,7 @@
       <c r="Z108" s="2"/>
       <c r="AA108" s="2"/>
     </row>
-    <row r="109" spans="1:27" ht="13">
+    <row r="109" spans="1:27" ht="13.2">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="14"/>
@@ -5330,7 +5330,7 @@
       <c r="Z109" s="2"/>
       <c r="AA109" s="2"/>
     </row>
-    <row r="110" spans="1:27" ht="13">
+    <row r="110" spans="1:27" ht="13.2">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="14"/>
@@ -5359,7 +5359,7 @@
       <c r="Z110" s="2"/>
       <c r="AA110" s="2"/>
     </row>
-    <row r="111" spans="1:27" ht="13">
+    <row r="111" spans="1:27" ht="13.2">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="14"/>
@@ -5388,7 +5388,7 @@
       <c r="Z111" s="2"/>
       <c r="AA111" s="2"/>
     </row>
-    <row r="112" spans="1:27" ht="13">
+    <row r="112" spans="1:27" ht="13.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="14"/>
@@ -5417,7 +5417,7 @@
       <c r="Z112" s="2"/>
       <c r="AA112" s="2"/>
     </row>
-    <row r="113" spans="1:27" ht="13">
+    <row r="113" spans="1:27" ht="13.2">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="14"/>
@@ -5446,7 +5446,7 @@
       <c r="Z113" s="2"/>
       <c r="AA113" s="2"/>
     </row>
-    <row r="114" spans="1:27" ht="13">
+    <row r="114" spans="1:27" ht="13.2">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="14"/>
@@ -5475,7 +5475,7 @@
       <c r="Z114" s="2"/>
       <c r="AA114" s="2"/>
     </row>
-    <row r="115" spans="1:27" ht="13">
+    <row r="115" spans="1:27" ht="13.2">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="14"/>
@@ -5504,7 +5504,7 @@
       <c r="Z115" s="2"/>
       <c r="AA115" s="2"/>
     </row>
-    <row r="116" spans="1:27" ht="13">
+    <row r="116" spans="1:27" ht="13.2">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="14"/>
@@ -5533,7 +5533,7 @@
       <c r="Z116" s="2"/>
       <c r="AA116" s="2"/>
     </row>
-    <row r="117" spans="1:27" ht="13">
+    <row r="117" spans="1:27" ht="13.2">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="14"/>
@@ -5562,7 +5562,7 @@
       <c r="Z117" s="2"/>
       <c r="AA117" s="2"/>
     </row>
-    <row r="118" spans="1:27" ht="13">
+    <row r="118" spans="1:27" ht="13.2">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="14"/>
@@ -5591,7 +5591,7 @@
       <c r="Z118" s="2"/>
       <c r="AA118" s="2"/>
     </row>
-    <row r="119" spans="1:27" ht="13">
+    <row r="119" spans="1:27" ht="13.2">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="14"/>
@@ -5620,7 +5620,7 @@
       <c r="Z119" s="2"/>
       <c r="AA119" s="2"/>
     </row>
-    <row r="120" spans="1:27" ht="13">
+    <row r="120" spans="1:27" ht="13.2">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="14"/>
@@ -5649,7 +5649,7 @@
       <c r="Z120" s="2"/>
       <c r="AA120" s="2"/>
     </row>
-    <row r="121" spans="1:27" ht="13">
+    <row r="121" spans="1:27" ht="13.2">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="14"/>
@@ -5678,7 +5678,7 @@
       <c r="Z121" s="2"/>
       <c r="AA121" s="2"/>
     </row>
-    <row r="122" spans="1:27" ht="13">
+    <row r="122" spans="1:27" ht="13.2">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="14"/>
@@ -5707,7 +5707,7 @@
       <c r="Z122" s="2"/>
       <c r="AA122" s="2"/>
     </row>
-    <row r="123" spans="1:27" ht="13">
+    <row r="123" spans="1:27" ht="13.2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="14"/>
@@ -5736,7 +5736,7 @@
       <c r="Z123" s="2"/>
       <c r="AA123" s="2"/>
     </row>
-    <row r="124" spans="1:27" ht="13">
+    <row r="124" spans="1:27" ht="13.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="14"/>
@@ -5765,7 +5765,7 @@
       <c r="Z124" s="2"/>
       <c r="AA124" s="2"/>
     </row>
-    <row r="125" spans="1:27" ht="13">
+    <row r="125" spans="1:27" ht="13.2">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="14"/>
@@ -5794,7 +5794,7 @@
       <c r="Z125" s="2"/>
       <c r="AA125" s="2"/>
     </row>
-    <row r="126" spans="1:27" ht="13">
+    <row r="126" spans="1:27" ht="13.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="14"/>
@@ -5823,7 +5823,7 @@
       <c r="Z126" s="2"/>
       <c r="AA126" s="2"/>
     </row>
-    <row r="127" spans="1:27" ht="13">
+    <row r="127" spans="1:27" ht="13.2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="14"/>
@@ -5852,7 +5852,7 @@
       <c r="Z127" s="2"/>
       <c r="AA127" s="2"/>
     </row>
-    <row r="128" spans="1:27" ht="13">
+    <row r="128" spans="1:27" ht="13.2">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="14"/>
@@ -5881,7 +5881,7 @@
       <c r="Z128" s="2"/>
       <c r="AA128" s="2"/>
     </row>
-    <row r="129" spans="1:27" ht="13">
+    <row r="129" spans="1:27" ht="13.2">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="14"/>
@@ -5910,7 +5910,7 @@
       <c r="Z129" s="2"/>
       <c r="AA129" s="2"/>
     </row>
-    <row r="130" spans="1:27" ht="13">
+    <row r="130" spans="1:27" ht="13.2">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="14"/>
@@ -5939,7 +5939,7 @@
       <c r="Z130" s="2"/>
       <c r="AA130" s="2"/>
     </row>
-    <row r="131" spans="1:27" ht="13">
+    <row r="131" spans="1:27" ht="13.2">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="14"/>
@@ -5968,7 +5968,7 @@
       <c r="Z131" s="2"/>
       <c r="AA131" s="2"/>
     </row>
-    <row r="132" spans="1:27" ht="13">
+    <row r="132" spans="1:27" ht="13.2">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="14"/>
@@ -5997,7 +5997,7 @@
       <c r="Z132" s="2"/>
       <c r="AA132" s="2"/>
     </row>
-    <row r="133" spans="1:27" ht="13">
+    <row r="133" spans="1:27" ht="13.2">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="14"/>
@@ -6026,7 +6026,7 @@
       <c r="Z133" s="2"/>
       <c r="AA133" s="2"/>
     </row>
-    <row r="134" spans="1:27" ht="13">
+    <row r="134" spans="1:27" ht="13.2">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="14"/>
@@ -6055,7 +6055,7 @@
       <c r="Z134" s="2"/>
       <c r="AA134" s="2"/>
     </row>
-    <row r="135" spans="1:27" ht="13">
+    <row r="135" spans="1:27" ht="13.2">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="14"/>
@@ -6084,7 +6084,7 @@
       <c r="Z135" s="2"/>
       <c r="AA135" s="2"/>
     </row>
-    <row r="136" spans="1:27" ht="13">
+    <row r="136" spans="1:27" ht="13.2">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="14"/>
@@ -6113,7 +6113,7 @@
       <c r="Z136" s="2"/>
       <c r="AA136" s="2"/>
     </row>
-    <row r="137" spans="1:27" ht="13">
+    <row r="137" spans="1:27" ht="13.2">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="14"/>
@@ -6142,7 +6142,7 @@
       <c r="Z137" s="2"/>
       <c r="AA137" s="2"/>
     </row>
-    <row r="138" spans="1:27" ht="13">
+    <row r="138" spans="1:27" ht="13.2">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="14"/>
@@ -6171,7 +6171,7 @@
       <c r="Z138" s="2"/>
       <c r="AA138" s="2"/>
     </row>
-    <row r="139" spans="1:27" ht="13">
+    <row r="139" spans="1:27" ht="13.2">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="14"/>
@@ -6200,7 +6200,7 @@
       <c r="Z139" s="2"/>
       <c r="AA139" s="2"/>
     </row>
-    <row r="140" spans="1:27" ht="13">
+    <row r="140" spans="1:27" ht="13.2">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="14"/>
@@ -6229,7 +6229,7 @@
       <c r="Z140" s="2"/>
       <c r="AA140" s="2"/>
     </row>
-    <row r="141" spans="1:27" ht="13">
+    <row r="141" spans="1:27" ht="13.2">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="14"/>
@@ -6258,7 +6258,7 @@
       <c r="Z141" s="2"/>
       <c r="AA141" s="2"/>
     </row>
-    <row r="142" spans="1:27" ht="13">
+    <row r="142" spans="1:27" ht="13.2">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="14"/>
@@ -6287,7 +6287,7 @@
       <c r="Z142" s="2"/>
       <c r="AA142" s="2"/>
     </row>
-    <row r="143" spans="1:27" ht="13">
+    <row r="143" spans="1:27" ht="13.2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="14"/>
@@ -6316,7 +6316,7 @@
       <c r="Z143" s="2"/>
       <c r="AA143" s="2"/>
     </row>
-    <row r="144" spans="1:27" ht="13">
+    <row r="144" spans="1:27" ht="13.2">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="14"/>
@@ -6345,7 +6345,7 @@
       <c r="Z144" s="2"/>
       <c r="AA144" s="2"/>
     </row>
-    <row r="145" spans="1:27" ht="13">
+    <row r="145" spans="1:27" ht="13.2">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="14"/>
@@ -6374,7 +6374,7 @@
       <c r="Z145" s="2"/>
       <c r="AA145" s="2"/>
     </row>
-    <row r="146" spans="1:27" ht="13">
+    <row r="146" spans="1:27" ht="13.2">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="14"/>
@@ -6403,7 +6403,7 @@
       <c r="Z146" s="2"/>
       <c r="AA146" s="2"/>
     </row>
-    <row r="147" spans="1:27" ht="13">
+    <row r="147" spans="1:27" ht="13.2">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="14"/>
@@ -6432,7 +6432,7 @@
       <c r="Z147" s="2"/>
       <c r="AA147" s="2"/>
     </row>
-    <row r="148" spans="1:27" ht="13">
+    <row r="148" spans="1:27" ht="13.2">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="14"/>
@@ -6461,7 +6461,7 @@
       <c r="Z148" s="2"/>
       <c r="AA148" s="2"/>
     </row>
-    <row r="149" spans="1:27" ht="13">
+    <row r="149" spans="1:27" ht="13.2">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="14"/>
@@ -6490,7 +6490,7 @@
       <c r="Z149" s="2"/>
       <c r="AA149" s="2"/>
     </row>
-    <row r="150" spans="1:27" ht="13">
+    <row r="150" spans="1:27" ht="13.2">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="14"/>
@@ -6519,7 +6519,7 @@
       <c r="Z150" s="2"/>
       <c r="AA150" s="2"/>
     </row>
-    <row r="151" spans="1:27" ht="13">
+    <row r="151" spans="1:27" ht="13.2">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="14"/>
@@ -6548,7 +6548,7 @@
       <c r="Z151" s="2"/>
       <c r="AA151" s="2"/>
     </row>
-    <row r="152" spans="1:27" ht="13">
+    <row r="152" spans="1:27" ht="13.2">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="14"/>
@@ -6577,7 +6577,7 @@
       <c r="Z152" s="2"/>
       <c r="AA152" s="2"/>
     </row>
-    <row r="153" spans="1:27" ht="13">
+    <row r="153" spans="1:27" ht="13.2">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="14"/>
@@ -6606,7 +6606,7 @@
       <c r="Z153" s="2"/>
       <c r="AA153" s="2"/>
     </row>
-    <row r="154" spans="1:27" ht="13">
+    <row r="154" spans="1:27" ht="13.2">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="14"/>
@@ -6635,7 +6635,7 @@
       <c r="Z154" s="2"/>
       <c r="AA154" s="2"/>
     </row>
-    <row r="155" spans="1:27" ht="13">
+    <row r="155" spans="1:27" ht="13.2">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="14"/>
@@ -6664,7 +6664,7 @@
       <c r="Z155" s="2"/>
       <c r="AA155" s="2"/>
     </row>
-    <row r="156" spans="1:27" ht="13">
+    <row r="156" spans="1:27" ht="13.2">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="14"/>
@@ -6693,7 +6693,7 @@
       <c r="Z156" s="2"/>
       <c r="AA156" s="2"/>
     </row>
-    <row r="157" spans="1:27" ht="13">
+    <row r="157" spans="1:27" ht="13.2">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="14"/>
@@ -6722,7 +6722,7 @@
       <c r="Z157" s="2"/>
       <c r="AA157" s="2"/>
     </row>
-    <row r="158" spans="1:27" ht="13">
+    <row r="158" spans="1:27" ht="13.2">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="14"/>
@@ -6751,7 +6751,7 @@
       <c r="Z158" s="2"/>
       <c r="AA158" s="2"/>
     </row>
-    <row r="159" spans="1:27" ht="13">
+    <row r="159" spans="1:27" ht="13.2">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="14"/>
@@ -6780,7 +6780,7 @@
       <c r="Z159" s="2"/>
       <c r="AA159" s="2"/>
     </row>
-    <row r="160" spans="1:27" ht="13">
+    <row r="160" spans="1:27" ht="13.2">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="14"/>
@@ -6809,7 +6809,7 @@
       <c r="Z160" s="2"/>
       <c r="AA160" s="2"/>
     </row>
-    <row r="161" spans="1:27" ht="13">
+    <row r="161" spans="1:27" ht="13.2">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="14"/>
@@ -6838,7 +6838,7 @@
       <c r="Z161" s="2"/>
       <c r="AA161" s="2"/>
     </row>
-    <row r="162" spans="1:27" ht="13">
+    <row r="162" spans="1:27" ht="13.2">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="14"/>
@@ -6867,7 +6867,7 @@
       <c r="Z162" s="2"/>
       <c r="AA162" s="2"/>
     </row>
-    <row r="163" spans="1:27" ht="13">
+    <row r="163" spans="1:27" ht="13.2">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="14"/>
@@ -6896,7 +6896,7 @@
       <c r="Z163" s="2"/>
       <c r="AA163" s="2"/>
     </row>
-    <row r="164" spans="1:27" ht="13">
+    <row r="164" spans="1:27" ht="13.2">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="14"/>
@@ -6925,7 +6925,7 @@
       <c r="Z164" s="2"/>
       <c r="AA164" s="2"/>
     </row>
-    <row r="165" spans="1:27" ht="13">
+    <row r="165" spans="1:27" ht="13.2">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="14"/>
@@ -6954,7 +6954,7 @@
       <c r="Z165" s="2"/>
       <c r="AA165" s="2"/>
     </row>
-    <row r="166" spans="1:27" ht="13">
+    <row r="166" spans="1:27" ht="13.2">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="14"/>
@@ -6983,7 +6983,7 @@
       <c r="Z166" s="2"/>
       <c r="AA166" s="2"/>
     </row>
-    <row r="167" spans="1:27" ht="13">
+    <row r="167" spans="1:27" ht="13.2">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="14"/>
@@ -7012,7 +7012,7 @@
       <c r="Z167" s="2"/>
       <c r="AA167" s="2"/>
     </row>
-    <row r="168" spans="1:27" ht="13">
+    <row r="168" spans="1:27" ht="13.2">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="14"/>
@@ -7041,7 +7041,7 @@
       <c r="Z168" s="2"/>
       <c r="AA168" s="2"/>
     </row>
-    <row r="169" spans="1:27" ht="13">
+    <row r="169" spans="1:27" ht="13.2">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="14"/>
@@ -7070,7 +7070,7 @@
       <c r="Z169" s="2"/>
       <c r="AA169" s="2"/>
     </row>
-    <row r="170" spans="1:27" ht="13">
+    <row r="170" spans="1:27" ht="13.2">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="14"/>
@@ -7099,7 +7099,7 @@
       <c r="Z170" s="2"/>
       <c r="AA170" s="2"/>
     </row>
-    <row r="171" spans="1:27" ht="13">
+    <row r="171" spans="1:27" ht="13.2">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="14"/>
@@ -7128,7 +7128,7 @@
       <c r="Z171" s="2"/>
       <c r="AA171" s="2"/>
     </row>
-    <row r="172" spans="1:27" ht="13">
+    <row r="172" spans="1:27" ht="13.2">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="14"/>
@@ -7157,7 +7157,7 @@
       <c r="Z172" s="2"/>
       <c r="AA172" s="2"/>
     </row>
-    <row r="173" spans="1:27" ht="13">
+    <row r="173" spans="1:27" ht="13.2">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="14"/>
@@ -7186,7 +7186,7 @@
       <c r="Z173" s="2"/>
       <c r="AA173" s="2"/>
     </row>
-    <row r="174" spans="1:27" ht="13">
+    <row r="174" spans="1:27" ht="13.2">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="14"/>
@@ -7215,7 +7215,7 @@
       <c r="Z174" s="2"/>
       <c r="AA174" s="2"/>
     </row>
-    <row r="175" spans="1:27" ht="13">
+    <row r="175" spans="1:27" ht="13.2">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="14"/>
@@ -7244,7 +7244,7 @@
       <c r="Z175" s="2"/>
       <c r="AA175" s="2"/>
     </row>
-    <row r="176" spans="1:27" ht="13">
+    <row r="176" spans="1:27" ht="13.2">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="14"/>
@@ -7273,7 +7273,7 @@
       <c r="Z176" s="2"/>
       <c r="AA176" s="2"/>
     </row>
-    <row r="177" spans="1:27" ht="13">
+    <row r="177" spans="1:27" ht="13.2">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="14"/>
@@ -7302,7 +7302,7 @@
       <c r="Z177" s="2"/>
       <c r="AA177" s="2"/>
     </row>
-    <row r="178" spans="1:27" ht="13">
+    <row r="178" spans="1:27" ht="13.2">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="14"/>
@@ -7331,7 +7331,7 @@
       <c r="Z178" s="2"/>
       <c r="AA178" s="2"/>
     </row>
-    <row r="179" spans="1:27" ht="13">
+    <row r="179" spans="1:27" ht="13.2">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="14"/>
@@ -7360,7 +7360,7 @@
       <c r="Z179" s="2"/>
       <c r="AA179" s="2"/>
     </row>
-    <row r="180" spans="1:27" ht="13">
+    <row r="180" spans="1:27" ht="13.2">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="14"/>
@@ -7389,7 +7389,7 @@
       <c r="Z180" s="2"/>
       <c r="AA180" s="2"/>
     </row>
-    <row r="181" spans="1:27" ht="13">
+    <row r="181" spans="1:27" ht="13.2">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="14"/>
@@ -7418,7 +7418,7 @@
       <c r="Z181" s="2"/>
       <c r="AA181" s="2"/>
     </row>
-    <row r="182" spans="1:27" ht="13">
+    <row r="182" spans="1:27" ht="13.2">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="14"/>
@@ -7447,7 +7447,7 @@
       <c r="Z182" s="2"/>
       <c r="AA182" s="2"/>
     </row>
-    <row r="183" spans="1:27" ht="13">
+    <row r="183" spans="1:27" ht="13.2">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="14"/>
@@ -7476,7 +7476,7 @@
       <c r="Z183" s="2"/>
       <c r="AA183" s="2"/>
     </row>
-    <row r="184" spans="1:27" ht="13">
+    <row r="184" spans="1:27" ht="13.2">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="14"/>
@@ -7505,7 +7505,7 @@
       <c r="Z184" s="2"/>
       <c r="AA184" s="2"/>
     </row>
-    <row r="185" spans="1:27" ht="13">
+    <row r="185" spans="1:27" ht="13.2">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="14"/>
@@ -7534,7 +7534,7 @@
       <c r="Z185" s="2"/>
       <c r="AA185" s="2"/>
     </row>
-    <row r="186" spans="1:27" ht="13">
+    <row r="186" spans="1:27" ht="13.2">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="14"/>
@@ -7563,7 +7563,7 @@
       <c r="Z186" s="2"/>
       <c r="AA186" s="2"/>
     </row>
-    <row r="187" spans="1:27" ht="13">
+    <row r="187" spans="1:27" ht="13.2">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="14"/>
@@ -7592,7 +7592,7 @@
       <c r="Z187" s="2"/>
       <c r="AA187" s="2"/>
     </row>
-    <row r="188" spans="1:27" ht="13">
+    <row r="188" spans="1:27" ht="13.2">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="14"/>
@@ -7621,7 +7621,7 @@
       <c r="Z188" s="2"/>
       <c r="AA188" s="2"/>
     </row>
-    <row r="189" spans="1:27" ht="13">
+    <row r="189" spans="1:27" ht="13.2">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="14"/>
@@ -7650,7 +7650,7 @@
       <c r="Z189" s="2"/>
       <c r="AA189" s="2"/>
     </row>
-    <row r="190" spans="1:27" ht="13">
+    <row r="190" spans="1:27" ht="13.2">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="14"/>
@@ -7679,7 +7679,7 @@
       <c r="Z190" s="2"/>
       <c r="AA190" s="2"/>
     </row>
-    <row r="191" spans="1:27" ht="13">
+    <row r="191" spans="1:27" ht="13.2">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="14"/>
@@ -7708,7 +7708,7 @@
       <c r="Z191" s="2"/>
       <c r="AA191" s="2"/>
     </row>
-    <row r="192" spans="1:27" ht="13">
+    <row r="192" spans="1:27" ht="13.2">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="14"/>
@@ -7737,7 +7737,7 @@
       <c r="Z192" s="2"/>
       <c r="AA192" s="2"/>
     </row>
-    <row r="193" spans="1:27" ht="13">
+    <row r="193" spans="1:27" ht="13.2">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="14"/>
@@ -7766,7 +7766,7 @@
       <c r="Z193" s="2"/>
       <c r="AA193" s="2"/>
     </row>
-    <row r="194" spans="1:27" ht="13">
+    <row r="194" spans="1:27" ht="13.2">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="14"/>
@@ -7795,7 +7795,7 @@
       <c r="Z194" s="2"/>
       <c r="AA194" s="2"/>
     </row>
-    <row r="195" spans="1:27" ht="13">
+    <row r="195" spans="1:27" ht="13.2">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="14"/>
@@ -7824,7 +7824,7 @@
       <c r="Z195" s="2"/>
       <c r="AA195" s="2"/>
     </row>
-    <row r="196" spans="1:27" ht="13">
+    <row r="196" spans="1:27" ht="13.2">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="14"/>
@@ -7853,7 +7853,7 @@
       <c r="Z196" s="2"/>
       <c r="AA196" s="2"/>
     </row>
-    <row r="197" spans="1:27" ht="13">
+    <row r="197" spans="1:27" ht="13.2">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="14"/>
@@ -7882,7 +7882,7 @@
       <c r="Z197" s="2"/>
       <c r="AA197" s="2"/>
     </row>
-    <row r="198" spans="1:27" ht="13">
+    <row r="198" spans="1:27" ht="13.2">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="14"/>
@@ -7911,7 +7911,7 @@
       <c r="Z198" s="2"/>
       <c r="AA198" s="2"/>
     </row>
-    <row r="199" spans="1:27" ht="13">
+    <row r="199" spans="1:27" ht="13.2">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="14"/>
@@ -7940,7 +7940,7 @@
       <c r="Z199" s="2"/>
       <c r="AA199" s="2"/>
     </row>
-    <row r="200" spans="1:27" ht="13">
+    <row r="200" spans="1:27" ht="13.2">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="14"/>
@@ -7969,7 +7969,7 @@
       <c r="Z200" s="2"/>
       <c r="AA200" s="2"/>
     </row>
-    <row r="201" spans="1:27" ht="13">
+    <row r="201" spans="1:27" ht="13.2">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="14"/>
@@ -7998,7 +7998,7 @@
       <c r="Z201" s="2"/>
       <c r="AA201" s="2"/>
     </row>
-    <row r="202" spans="1:27" ht="13">
+    <row r="202" spans="1:27" ht="13.2">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="14"/>
@@ -8027,7 +8027,7 @@
       <c r="Z202" s="2"/>
       <c r="AA202" s="2"/>
     </row>
-    <row r="203" spans="1:27" ht="13">
+    <row r="203" spans="1:27" ht="13.2">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="14"/>
@@ -8056,7 +8056,7 @@
       <c r="Z203" s="2"/>
       <c r="AA203" s="2"/>
     </row>
-    <row r="204" spans="1:27" ht="13">
+    <row r="204" spans="1:27" ht="13.2">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="14"/>
@@ -8085,7 +8085,7 @@
       <c r="Z204" s="2"/>
       <c r="AA204" s="2"/>
     </row>
-    <row r="205" spans="1:27" ht="13">
+    <row r="205" spans="1:27" ht="13.2">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="14"/>
@@ -8114,7 +8114,7 @@
       <c r="Z205" s="2"/>
       <c r="AA205" s="2"/>
     </row>
-    <row r="206" spans="1:27" ht="13">
+    <row r="206" spans="1:27" ht="13.2">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="14"/>
@@ -8143,7 +8143,7 @@
       <c r="Z206" s="2"/>
       <c r="AA206" s="2"/>
     </row>
-    <row r="207" spans="1:27" ht="13">
+    <row r="207" spans="1:27" ht="13.2">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="14"/>
@@ -8172,7 +8172,7 @@
       <c r="Z207" s="2"/>
       <c r="AA207" s="2"/>
     </row>
-    <row r="208" spans="1:27" ht="13">
+    <row r="208" spans="1:27" ht="13.2">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="14"/>
@@ -8201,7 +8201,7 @@
       <c r="Z208" s="2"/>
       <c r="AA208" s="2"/>
     </row>
-    <row r="209" spans="1:27" ht="13">
+    <row r="209" spans="1:27" ht="13.2">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="14"/>
@@ -8230,7 +8230,7 @@
       <c r="Z209" s="2"/>
       <c r="AA209" s="2"/>
     </row>
-    <row r="210" spans="1:27" ht="13">
+    <row r="210" spans="1:27" ht="13.2">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="14"/>
@@ -8259,7 +8259,7 @@
       <c r="Z210" s="2"/>
       <c r="AA210" s="2"/>
     </row>
-    <row r="211" spans="1:27" ht="13">
+    <row r="211" spans="1:27" ht="13.2">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="14"/>
@@ -8288,7 +8288,7 @@
       <c r="Z211" s="2"/>
       <c r="AA211" s="2"/>
     </row>
-    <row r="212" spans="1:27" ht="13">
+    <row r="212" spans="1:27" ht="13.2">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="14"/>
@@ -8317,7 +8317,7 @@
       <c r="Z212" s="2"/>
       <c r="AA212" s="2"/>
     </row>
-    <row r="213" spans="1:27" ht="13">
+    <row r="213" spans="1:27" ht="13.2">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="14"/>
@@ -8346,7 +8346,7 @@
       <c r="Z213" s="2"/>
       <c r="AA213" s="2"/>
     </row>
-    <row r="214" spans="1:27" ht="13">
+    <row r="214" spans="1:27" ht="13.2">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="14"/>
@@ -8375,7 +8375,7 @@
       <c r="Z214" s="2"/>
       <c r="AA214" s="2"/>
     </row>
-    <row r="215" spans="1:27" ht="13">
+    <row r="215" spans="1:27" ht="13.2">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="14"/>
@@ -8404,7 +8404,7 @@
       <c r="Z215" s="2"/>
       <c r="AA215" s="2"/>
     </row>
-    <row r="216" spans="1:27" ht="13">
+    <row r="216" spans="1:27" ht="13.2">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="14"/>
@@ -8433,7 +8433,7 @@
       <c r="Z216" s="2"/>
       <c r="AA216" s="2"/>
     </row>
-    <row r="217" spans="1:27" ht="13">
+    <row r="217" spans="1:27" ht="13.2">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="14"/>
@@ -8462,7 +8462,7 @@
       <c r="Z217" s="2"/>
       <c r="AA217" s="2"/>
     </row>
-    <row r="218" spans="1:27" ht="13">
+    <row r="218" spans="1:27" ht="13.2">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="14"/>
@@ -8491,7 +8491,7 @@
       <c r="Z218" s="2"/>
       <c r="AA218" s="2"/>
     </row>
-    <row r="219" spans="1:27" ht="13">
+    <row r="219" spans="1:27" ht="13.2">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="14"/>
@@ -8520,7 +8520,7 @@
       <c r="Z219" s="2"/>
       <c r="AA219" s="2"/>
     </row>
-    <row r="220" spans="1:27" ht="13">
+    <row r="220" spans="1:27" ht="13.2">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="14"/>
@@ -8549,7 +8549,7 @@
       <c r="Z220" s="2"/>
       <c r="AA220" s="2"/>
     </row>
-    <row r="221" spans="1:27" ht="13">
+    <row r="221" spans="1:27" ht="13.2">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="14"/>
@@ -8578,7 +8578,7 @@
       <c r="Z221" s="2"/>
       <c r="AA221" s="2"/>
     </row>
-    <row r="222" spans="1:27" ht="13">
+    <row r="222" spans="1:27" ht="13.2">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="14"/>
@@ -8607,7 +8607,7 @@
       <c r="Z222" s="2"/>
       <c r="AA222" s="2"/>
     </row>
-    <row r="223" spans="1:27" ht="13">
+    <row r="223" spans="1:27" ht="13.2">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="14"/>
@@ -8636,7 +8636,7 @@
       <c r="Z223" s="2"/>
       <c r="AA223" s="2"/>
     </row>
-    <row r="224" spans="1:27" ht="13">
+    <row r="224" spans="1:27" ht="13.2">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="14"/>
@@ -8665,7 +8665,7 @@
       <c r="Z224" s="2"/>
       <c r="AA224" s="2"/>
     </row>
-    <row r="225" spans="1:27" ht="13">
+    <row r="225" spans="1:27" ht="13.2">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="14"/>
@@ -8694,7 +8694,7 @@
       <c r="Z225" s="2"/>
       <c r="AA225" s="2"/>
     </row>
-    <row r="226" spans="1:27" ht="13">
+    <row r="226" spans="1:27" ht="13.2">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="14"/>
@@ -8723,7 +8723,7 @@
       <c r="Z226" s="2"/>
       <c r="AA226" s="2"/>
     </row>
-    <row r="227" spans="1:27" ht="13">
+    <row r="227" spans="1:27" ht="13.2">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="14"/>
@@ -8752,7 +8752,7 @@
       <c r="Z227" s="2"/>
       <c r="AA227" s="2"/>
     </row>
-    <row r="228" spans="1:27" ht="13">
+    <row r="228" spans="1:27" ht="13.2">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="14"/>
@@ -8781,7 +8781,7 @@
       <c r="Z228" s="2"/>
       <c r="AA228" s="2"/>
     </row>
-    <row r="229" spans="1:27" ht="13">
+    <row r="229" spans="1:27" ht="13.2">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="14"/>
@@ -8810,7 +8810,7 @@
       <c r="Z229" s="2"/>
       <c r="AA229" s="2"/>
     </row>
-    <row r="230" spans="1:27" ht="13">
+    <row r="230" spans="1:27" ht="13.2">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="14"/>
@@ -8839,7 +8839,7 @@
       <c r="Z230" s="2"/>
       <c r="AA230" s="2"/>
     </row>
-    <row r="231" spans="1:27" ht="13">
+    <row r="231" spans="1:27" ht="13.2">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="14"/>
@@ -8868,7 +8868,7 @@
       <c r="Z231" s="2"/>
       <c r="AA231" s="2"/>
     </row>
-    <row r="232" spans="1:27" ht="13">
+    <row r="232" spans="1:27" ht="13.2">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="14"/>
@@ -8897,7 +8897,7 @@
       <c r="Z232" s="2"/>
       <c r="AA232" s="2"/>
     </row>
-    <row r="233" spans="1:27" ht="13">
+    <row r="233" spans="1:27" ht="13.2">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="14"/>
@@ -8926,7 +8926,7 @@
       <c r="Z233" s="2"/>
       <c r="AA233" s="2"/>
     </row>
-    <row r="234" spans="1:27" ht="13">
+    <row r="234" spans="1:27" ht="13.2">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="14"/>
@@ -8955,7 +8955,7 @@
       <c r="Z234" s="2"/>
       <c r="AA234" s="2"/>
     </row>
-    <row r="235" spans="1:27" ht="13">
+    <row r="235" spans="1:27" ht="13.2">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="14"/>
@@ -8984,7 +8984,7 @@
       <c r="Z235" s="2"/>
       <c r="AA235" s="2"/>
     </row>
-    <row r="236" spans="1:27" ht="13">
+    <row r="236" spans="1:27" ht="13.2">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="14"/>
@@ -9013,7 +9013,7 @@
       <c r="Z236" s="2"/>
       <c r="AA236" s="2"/>
     </row>
-    <row r="237" spans="1:27" ht="13">
+    <row r="237" spans="1:27" ht="13.2">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="14"/>
@@ -9042,7 +9042,7 @@
       <c r="Z237" s="2"/>
       <c r="AA237" s="2"/>
     </row>
-    <row r="238" spans="1:27" ht="13">
+    <row r="238" spans="1:27" ht="13.2">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="14"/>
@@ -9071,7 +9071,7 @@
       <c r="Z238" s="2"/>
       <c r="AA238" s="2"/>
     </row>
-    <row r="239" spans="1:27" ht="13">
+    <row r="239" spans="1:27" ht="13.2">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="14"/>
@@ -9100,7 +9100,7 @@
       <c r="Z239" s="2"/>
       <c r="AA239" s="2"/>
     </row>
-    <row r="240" spans="1:27" ht="13">
+    <row r="240" spans="1:27" ht="13.2">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="14"/>
@@ -9129,7 +9129,7 @@
       <c r="Z240" s="2"/>
       <c r="AA240" s="2"/>
     </row>
-    <row r="241" spans="1:27" ht="13">
+    <row r="241" spans="1:27" ht="13.2">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="14"/>
@@ -9158,7 +9158,7 @@
       <c r="Z241" s="2"/>
       <c r="AA241" s="2"/>
     </row>
-    <row r="242" spans="1:27" ht="13">
+    <row r="242" spans="1:27" ht="13.2">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="14"/>
@@ -9187,7 +9187,7 @@
       <c r="Z242" s="2"/>
       <c r="AA242" s="2"/>
     </row>
-    <row r="243" spans="1:27" ht="13">
+    <row r="243" spans="1:27" ht="13.2">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="14"/>
@@ -9216,7 +9216,7 @@
       <c r="Z243" s="2"/>
       <c r="AA243" s="2"/>
     </row>
-    <row r="244" spans="1:27" ht="13">
+    <row r="244" spans="1:27" ht="13.2">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="14"/>
@@ -9245,7 +9245,7 @@
       <c r="Z244" s="2"/>
       <c r="AA244" s="2"/>
     </row>
-    <row r="245" spans="1:27" ht="13">
+    <row r="245" spans="1:27" ht="13.2">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="14"/>
@@ -9274,7 +9274,7 @@
       <c r="Z245" s="2"/>
       <c r="AA245" s="2"/>
     </row>
-    <row r="246" spans="1:27" ht="13">
+    <row r="246" spans="1:27" ht="13.2">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="14"/>
@@ -9303,7 +9303,7 @@
       <c r="Z246" s="2"/>
       <c r="AA246" s="2"/>
     </row>
-    <row r="247" spans="1:27" ht="13">
+    <row r="247" spans="1:27" ht="13.2">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="14"/>
@@ -9332,7 +9332,7 @@
       <c r="Z247" s="2"/>
       <c r="AA247" s="2"/>
     </row>
-    <row r="248" spans="1:27" ht="13">
+    <row r="248" spans="1:27" ht="13.2">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="14"/>
@@ -9361,7 +9361,7 @@
       <c r="Z248" s="2"/>
       <c r="AA248" s="2"/>
     </row>
-    <row r="249" spans="1:27" ht="13">
+    <row r="249" spans="1:27" ht="13.2">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="14"/>
@@ -9390,7 +9390,7 @@
       <c r="Z249" s="2"/>
       <c r="AA249" s="2"/>
     </row>
-    <row r="250" spans="1:27" ht="13">
+    <row r="250" spans="1:27" ht="13.2">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="14"/>
@@ -9419,7 +9419,7 @@
       <c r="Z250" s="2"/>
       <c r="AA250" s="2"/>
     </row>
-    <row r="251" spans="1:27" ht="13">
+    <row r="251" spans="1:27" ht="13.2">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="14"/>
@@ -9448,7 +9448,7 @@
       <c r="Z251" s="2"/>
       <c r="AA251" s="2"/>
     </row>
-    <row r="252" spans="1:27" ht="13">
+    <row r="252" spans="1:27" ht="13.2">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="14"/>
@@ -9477,7 +9477,7 @@
       <c r="Z252" s="2"/>
       <c r="AA252" s="2"/>
     </row>
-    <row r="253" spans="1:27" ht="13">
+    <row r="253" spans="1:27" ht="13.2">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="14"/>
@@ -9506,7 +9506,7 @@
       <c r="Z253" s="2"/>
       <c r="AA253" s="2"/>
     </row>
-    <row r="254" spans="1:27" ht="13">
+    <row r="254" spans="1:27" ht="13.2">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="14"/>
@@ -9535,7 +9535,7 @@
       <c r="Z254" s="2"/>
       <c r="AA254" s="2"/>
     </row>
-    <row r="255" spans="1:27" ht="13">
+    <row r="255" spans="1:27" ht="13.2">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="14"/>
@@ -9564,7 +9564,7 @@
       <c r="Z255" s="2"/>
       <c r="AA255" s="2"/>
     </row>
-    <row r="256" spans="1:27" ht="13">
+    <row r="256" spans="1:27" ht="13.2">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="14"/>
@@ -9593,7 +9593,7 @@
       <c r="Z256" s="2"/>
       <c r="AA256" s="2"/>
     </row>
-    <row r="257" spans="1:27" ht="13">
+    <row r="257" spans="1:27" ht="13.2">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="14"/>
@@ -9622,7 +9622,7 @@
       <c r="Z257" s="2"/>
       <c r="AA257" s="2"/>
     </row>
-    <row r="258" spans="1:27" ht="13">
+    <row r="258" spans="1:27" ht="13.2">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="14"/>
@@ -9651,7 +9651,7 @@
       <c r="Z258" s="2"/>
       <c r="AA258" s="2"/>
     </row>
-    <row r="259" spans="1:27" ht="13">
+    <row r="259" spans="1:27" ht="13.2">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="14"/>
@@ -9680,7 +9680,7 @@
       <c r="Z259" s="2"/>
       <c r="AA259" s="2"/>
     </row>
-    <row r="260" spans="1:27" ht="13">
+    <row r="260" spans="1:27" ht="13.2">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="14"/>
@@ -9709,7 +9709,7 @@
       <c r="Z260" s="2"/>
       <c r="AA260" s="2"/>
     </row>
-    <row r="261" spans="1:27" ht="13">
+    <row r="261" spans="1:27" ht="13.2">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="14"/>
@@ -9738,7 +9738,7 @@
       <c r="Z261" s="2"/>
       <c r="AA261" s="2"/>
     </row>
-    <row r="262" spans="1:27" ht="13">
+    <row r="262" spans="1:27" ht="13.2">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="14"/>
@@ -9767,7 +9767,7 @@
       <c r="Z262" s="2"/>
       <c r="AA262" s="2"/>
     </row>
-    <row r="263" spans="1:27" ht="13">
+    <row r="263" spans="1:27" ht="13.2">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="14"/>
@@ -9796,7 +9796,7 @@
       <c r="Z263" s="2"/>
       <c r="AA263" s="2"/>
     </row>
-    <row r="264" spans="1:27" ht="13">
+    <row r="264" spans="1:27" ht="13.2">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="14"/>
@@ -9825,7 +9825,7 @@
       <c r="Z264" s="2"/>
       <c r="AA264" s="2"/>
     </row>
-    <row r="265" spans="1:27" ht="13">
+    <row r="265" spans="1:27" ht="13.2">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="14"/>
@@ -9854,7 +9854,7 @@
       <c r="Z265" s="2"/>
       <c r="AA265" s="2"/>
     </row>
-    <row r="266" spans="1:27" ht="13">
+    <row r="266" spans="1:27" ht="13.2">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="14"/>
@@ -9883,7 +9883,7 @@
       <c r="Z266" s="2"/>
       <c r="AA266" s="2"/>
     </row>
-    <row r="267" spans="1:27" ht="13">
+    <row r="267" spans="1:27" ht="13.2">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="14"/>
@@ -9912,7 +9912,7 @@
       <c r="Z267" s="2"/>
       <c r="AA267" s="2"/>
     </row>
-    <row r="268" spans="1:27" ht="13">
+    <row r="268" spans="1:27" ht="13.2">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="14"/>
@@ -9941,7 +9941,7 @@
       <c r="Z268" s="2"/>
       <c r="AA268" s="2"/>
     </row>
-    <row r="269" spans="1:27" ht="13">
+    <row r="269" spans="1:27" ht="13.2">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="14"/>
@@ -9970,7 +9970,7 @@
       <c r="Z269" s="2"/>
       <c r="AA269" s="2"/>
     </row>
-    <row r="270" spans="1:27" ht="13">
+    <row r="270" spans="1:27" ht="13.2">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="14"/>
@@ -9999,7 +9999,7 @@
       <c r="Z270" s="2"/>
       <c r="AA270" s="2"/>
     </row>
-    <row r="271" spans="1:27" ht="13">
+    <row r="271" spans="1:27" ht="13.2">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="14"/>
@@ -10028,7 +10028,7 @@
       <c r="Z271" s="2"/>
       <c r="AA271" s="2"/>
     </row>
-    <row r="272" spans="1:27" ht="13">
+    <row r="272" spans="1:27" ht="13.2">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="14"/>
@@ -10057,7 +10057,7 @@
       <c r="Z272" s="2"/>
       <c r="AA272" s="2"/>
     </row>
-    <row r="273" spans="1:27" ht="13">
+    <row r="273" spans="1:27" ht="13.2">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="14"/>
@@ -10086,7 +10086,7 @@
       <c r="Z273" s="2"/>
       <c r="AA273" s="2"/>
     </row>
-    <row r="274" spans="1:27" ht="13">
+    <row r="274" spans="1:27" ht="13.2">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="14"/>
@@ -10115,7 +10115,7 @@
       <c r="Z274" s="2"/>
       <c r="AA274" s="2"/>
     </row>
-    <row r="275" spans="1:27" ht="13">
+    <row r="275" spans="1:27" ht="13.2">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="14"/>
@@ -10144,7 +10144,7 @@
       <c r="Z275" s="2"/>
       <c r="AA275" s="2"/>
     </row>
-    <row r="276" spans="1:27" ht="13">
+    <row r="276" spans="1:27" ht="13.2">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="14"/>
@@ -10173,7 +10173,7 @@
       <c r="Z276" s="2"/>
       <c r="AA276" s="2"/>
     </row>
-    <row r="277" spans="1:27" ht="13">
+    <row r="277" spans="1:27" ht="13.2">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="14"/>
@@ -10202,7 +10202,7 @@
       <c r="Z277" s="2"/>
       <c r="AA277" s="2"/>
     </row>
-    <row r="278" spans="1:27" ht="13">
+    <row r="278" spans="1:27" ht="13.2">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="14"/>
@@ -10231,7 +10231,7 @@
       <c r="Z278" s="2"/>
       <c r="AA278" s="2"/>
     </row>
-    <row r="279" spans="1:27" ht="13">
+    <row r="279" spans="1:27" ht="13.2">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="14"/>
@@ -10260,7 +10260,7 @@
       <c r="Z279" s="2"/>
       <c r="AA279" s="2"/>
     </row>
-    <row r="280" spans="1:27" ht="13">
+    <row r="280" spans="1:27" ht="13.2">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="14"/>
@@ -10289,7 +10289,7 @@
       <c r="Z280" s="2"/>
       <c r="AA280" s="2"/>
     </row>
-    <row r="281" spans="1:27" ht="13">
+    <row r="281" spans="1:27" ht="13.2">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="14"/>
@@ -10318,7 +10318,7 @@
       <c r="Z281" s="2"/>
       <c r="AA281" s="2"/>
     </row>
-    <row r="282" spans="1:27" ht="13">
+    <row r="282" spans="1:27" ht="13.2">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="14"/>
@@ -10347,7 +10347,7 @@
       <c r="Z282" s="2"/>
       <c r="AA282" s="2"/>
     </row>
-    <row r="283" spans="1:27" ht="13">
+    <row r="283" spans="1:27" ht="13.2">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="14"/>
@@ -10376,7 +10376,7 @@
       <c r="Z283" s="2"/>
       <c r="AA283" s="2"/>
     </row>
-    <row r="284" spans="1:27" ht="13">
+    <row r="284" spans="1:27" ht="13.2">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="14"/>
@@ -10405,7 +10405,7 @@
       <c r="Z284" s="2"/>
       <c r="AA284" s="2"/>
     </row>
-    <row r="285" spans="1:27" ht="13">
+    <row r="285" spans="1:27" ht="13.2">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="14"/>
@@ -10434,7 +10434,7 @@
       <c r="Z285" s="2"/>
       <c r="AA285" s="2"/>
     </row>
-    <row r="286" spans="1:27" ht="13">
+    <row r="286" spans="1:27" ht="13.2">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="14"/>
@@ -10463,7 +10463,7 @@
       <c r="Z286" s="2"/>
       <c r="AA286" s="2"/>
     </row>
-    <row r="287" spans="1:27" ht="13">
+    <row r="287" spans="1:27" ht="13.2">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="14"/>
@@ -10492,7 +10492,7 @@
       <c r="Z287" s="2"/>
       <c r="AA287" s="2"/>
     </row>
-    <row r="288" spans="1:27" ht="13">
+    <row r="288" spans="1:27" ht="13.2">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="14"/>
@@ -10521,7 +10521,7 @@
       <c r="Z288" s="2"/>
       <c r="AA288" s="2"/>
     </row>
-    <row r="289" spans="1:27" ht="13">
+    <row r="289" spans="1:27" ht="13.2">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="14"/>
@@ -10550,7 +10550,7 @@
       <c r="Z289" s="2"/>
       <c r="AA289" s="2"/>
     </row>
-    <row r="290" spans="1:27" ht="13">
+    <row r="290" spans="1:27" ht="13.2">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="14"/>
@@ -10579,7 +10579,7 @@
       <c r="Z290" s="2"/>
       <c r="AA290" s="2"/>
     </row>
-    <row r="291" spans="1:27" ht="13">
+    <row r="291" spans="1:27" ht="13.2">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="14"/>
@@ -10608,7 +10608,7 @@
       <c r="Z291" s="2"/>
       <c r="AA291" s="2"/>
     </row>
-    <row r="292" spans="1:27" ht="13">
+    <row r="292" spans="1:27" ht="13.2">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="14"/>
@@ -10637,7 +10637,7 @@
       <c r="Z292" s="2"/>
       <c r="AA292" s="2"/>
     </row>
-    <row r="293" spans="1:27" ht="13">
+    <row r="293" spans="1:27" ht="13.2">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="14"/>
@@ -10666,7 +10666,7 @@
       <c r="Z293" s="2"/>
       <c r="AA293" s="2"/>
     </row>
-    <row r="294" spans="1:27" ht="13">
+    <row r="294" spans="1:27" ht="13.2">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="14"/>
@@ -10695,7 +10695,7 @@
       <c r="Z294" s="2"/>
       <c r="AA294" s="2"/>
     </row>
-    <row r="295" spans="1:27" ht="13">
+    <row r="295" spans="1:27" ht="13.2">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="14"/>
@@ -10724,7 +10724,7 @@
       <c r="Z295" s="2"/>
       <c r="AA295" s="2"/>
     </row>
-    <row r="296" spans="1:27" ht="13">
+    <row r="296" spans="1:27" ht="13.2">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="14"/>
@@ -10753,7 +10753,7 @@
       <c r="Z296" s="2"/>
       <c r="AA296" s="2"/>
     </row>
-    <row r="297" spans="1:27" ht="13">
+    <row r="297" spans="1:27" ht="13.2">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="14"/>
@@ -10782,7 +10782,7 @@
       <c r="Z297" s="2"/>
       <c r="AA297" s="2"/>
     </row>
-    <row r="298" spans="1:27" ht="13">
+    <row r="298" spans="1:27" ht="13.2">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="14"/>
@@ -10811,7 +10811,7 @@
       <c r="Z298" s="2"/>
       <c r="AA298" s="2"/>
     </row>
-    <row r="299" spans="1:27" ht="13">
+    <row r="299" spans="1:27" ht="13.2">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="14"/>
@@ -10840,7 +10840,7 @@
       <c r="Z299" s="2"/>
       <c r="AA299" s="2"/>
     </row>
-    <row r="300" spans="1:27" ht="13">
+    <row r="300" spans="1:27" ht="13.2">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="14"/>
@@ -10869,7 +10869,7 @@
       <c r="Z300" s="2"/>
       <c r="AA300" s="2"/>
     </row>
-    <row r="301" spans="1:27" ht="13">
+    <row r="301" spans="1:27" ht="13.2">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="14"/>
@@ -10898,7 +10898,7 @@
       <c r="Z301" s="2"/>
       <c r="AA301" s="2"/>
     </row>
-    <row r="302" spans="1:27" ht="13">
+    <row r="302" spans="1:27" ht="13.2">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="14"/>
@@ -10927,7 +10927,7 @@
       <c r="Z302" s="2"/>
       <c r="AA302" s="2"/>
     </row>
-    <row r="303" spans="1:27" ht="13">
+    <row r="303" spans="1:27" ht="13.2">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="14"/>
@@ -10956,7 +10956,7 @@
       <c r="Z303" s="2"/>
       <c r="AA303" s="2"/>
     </row>
-    <row r="304" spans="1:27" ht="13">
+    <row r="304" spans="1:27" ht="13.2">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="14"/>
@@ -10985,7 +10985,7 @@
       <c r="Z304" s="2"/>
       <c r="AA304" s="2"/>
     </row>
-    <row r="305" spans="1:27" ht="13">
+    <row r="305" spans="1:27" ht="13.2">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="14"/>
@@ -11014,7 +11014,7 @@
       <c r="Z305" s="2"/>
       <c r="AA305" s="2"/>
     </row>
-    <row r="306" spans="1:27" ht="13">
+    <row r="306" spans="1:27" ht="13.2">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="14"/>
@@ -11043,7 +11043,7 @@
       <c r="Z306" s="2"/>
       <c r="AA306" s="2"/>
     </row>
-    <row r="307" spans="1:27" ht="13">
+    <row r="307" spans="1:27" ht="13.2">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="14"/>
@@ -11072,7 +11072,7 @@
       <c r="Z307" s="2"/>
       <c r="AA307" s="2"/>
     </row>
-    <row r="308" spans="1:27" ht="13">
+    <row r="308" spans="1:27" ht="13.2">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="14"/>
@@ -11101,7 +11101,7 @@
       <c r="Z308" s="2"/>
       <c r="AA308" s="2"/>
     </row>
-    <row r="309" spans="1:27" ht="13">
+    <row r="309" spans="1:27" ht="13.2">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="14"/>
@@ -11130,7 +11130,7 @@
       <c r="Z309" s="2"/>
       <c r="AA309" s="2"/>
     </row>
-    <row r="310" spans="1:27" ht="13">
+    <row r="310" spans="1:27" ht="13.2">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="14"/>
@@ -11159,7 +11159,7 @@
       <c r="Z310" s="2"/>
       <c r="AA310" s="2"/>
     </row>
-    <row r="311" spans="1:27" ht="13">
+    <row r="311" spans="1:27" ht="13.2">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="14"/>
@@ -11188,7 +11188,7 @@
       <c r="Z311" s="2"/>
       <c r="AA311" s="2"/>
     </row>
-    <row r="312" spans="1:27" ht="13">
+    <row r="312" spans="1:27" ht="13.2">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="14"/>
@@ -11217,7 +11217,7 @@
       <c r="Z312" s="2"/>
       <c r="AA312" s="2"/>
     </row>
-    <row r="313" spans="1:27" ht="13">
+    <row r="313" spans="1:27" ht="13.2">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="14"/>
@@ -11246,7 +11246,7 @@
       <c r="Z313" s="2"/>
       <c r="AA313" s="2"/>
     </row>
-    <row r="314" spans="1:27" ht="13">
+    <row r="314" spans="1:27" ht="13.2">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="14"/>
@@ -11275,7 +11275,7 @@
       <c r="Z314" s="2"/>
       <c r="AA314" s="2"/>
     </row>
-    <row r="315" spans="1:27" ht="13">
+    <row r="315" spans="1:27" ht="13.2">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="14"/>
@@ -11304,7 +11304,7 @@
       <c r="Z315" s="2"/>
       <c r="AA315" s="2"/>
     </row>
-    <row r="316" spans="1:27" ht="13">
+    <row r="316" spans="1:27" ht="13.2">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="14"/>
@@ -11333,7 +11333,7 @@
       <c r="Z316" s="2"/>
       <c r="AA316" s="2"/>
     </row>
-    <row r="317" spans="1:27" ht="13">
+    <row r="317" spans="1:27" ht="13.2">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="14"/>
@@ -11362,7 +11362,7 @@
       <c r="Z317" s="2"/>
       <c r="AA317" s="2"/>
     </row>
-    <row r="318" spans="1:27" ht="13">
+    <row r="318" spans="1:27" ht="13.2">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="14"/>
@@ -11391,7 +11391,7 @@
       <c r="Z318" s="2"/>
       <c r="AA318" s="2"/>
     </row>
-    <row r="319" spans="1:27" ht="13">
+    <row r="319" spans="1:27" ht="13.2">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="14"/>
@@ -11420,7 +11420,7 @@
       <c r="Z319" s="2"/>
       <c r="AA319" s="2"/>
     </row>
-    <row r="320" spans="1:27" ht="13">
+    <row r="320" spans="1:27" ht="13.2">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="14"/>
@@ -11449,7 +11449,7 @@
       <c r="Z320" s="2"/>
       <c r="AA320" s="2"/>
     </row>
-    <row r="321" spans="1:27" ht="13">
+    <row r="321" spans="1:27" ht="13.2">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="14"/>
@@ -11478,7 +11478,7 @@
       <c r="Z321" s="2"/>
       <c r="AA321" s="2"/>
     </row>
-    <row r="322" spans="1:27" ht="13">
+    <row r="322" spans="1:27" ht="13.2">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="14"/>
@@ -11507,7 +11507,7 @@
       <c r="Z322" s="2"/>
       <c r="AA322" s="2"/>
     </row>
-    <row r="323" spans="1:27" ht="13">
+    <row r="323" spans="1:27" ht="13.2">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="14"/>
@@ -11536,7 +11536,7 @@
       <c r="Z323" s="2"/>
       <c r="AA323" s="2"/>
     </row>
-    <row r="324" spans="1:27" ht="13">
+    <row r="324" spans="1:27" ht="13.2">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="14"/>
@@ -11565,7 +11565,7 @@
       <c r="Z324" s="2"/>
       <c r="AA324" s="2"/>
     </row>
-    <row r="325" spans="1:27" ht="13">
+    <row r="325" spans="1:27" ht="13.2">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="14"/>
@@ -11594,7 +11594,7 @@
       <c r="Z325" s="2"/>
       <c r="AA325" s="2"/>
     </row>
-    <row r="326" spans="1:27" ht="13">
+    <row r="326" spans="1:27" ht="13.2">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="14"/>
@@ -11623,7 +11623,7 @@
       <c r="Z326" s="2"/>
       <c r="AA326" s="2"/>
     </row>
-    <row r="327" spans="1:27" ht="13">
+    <row r="327" spans="1:27" ht="13.2">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="14"/>
@@ -11652,7 +11652,7 @@
       <c r="Z327" s="2"/>
       <c r="AA327" s="2"/>
     </row>
-    <row r="328" spans="1:27" ht="13">
+    <row r="328" spans="1:27" ht="13.2">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="14"/>
@@ -11681,7 +11681,7 @@
       <c r="Z328" s="2"/>
       <c r="AA328" s="2"/>
     </row>
-    <row r="329" spans="1:27" ht="13">
+    <row r="329" spans="1:27" ht="13.2">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="14"/>
@@ -11710,7 +11710,7 @@
       <c r="Z329" s="2"/>
       <c r="AA329" s="2"/>
     </row>
-    <row r="330" spans="1:27" ht="13">
+    <row r="330" spans="1:27" ht="13.2">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="14"/>
@@ -11739,7 +11739,7 @@
       <c r="Z330" s="2"/>
       <c r="AA330" s="2"/>
     </row>
-    <row r="331" spans="1:27" ht="13">
+    <row r="331" spans="1:27" ht="13.2">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="14"/>
@@ -11768,7 +11768,7 @@
       <c r="Z331" s="2"/>
       <c r="AA331" s="2"/>
     </row>
-    <row r="332" spans="1:27" ht="13">
+    <row r="332" spans="1:27" ht="13.2">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="14"/>
@@ -11797,7 +11797,7 @@
       <c r="Z332" s="2"/>
       <c r="AA332" s="2"/>
     </row>
-    <row r="333" spans="1:27" ht="13">
+    <row r="333" spans="1:27" ht="13.2">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="14"/>
@@ -11826,7 +11826,7 @@
       <c r="Z333" s="2"/>
       <c r="AA333" s="2"/>
     </row>
-    <row r="334" spans="1:27" ht="13">
+    <row r="334" spans="1:27" ht="13.2">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="14"/>
@@ -11855,7 +11855,7 @@
       <c r="Z334" s="2"/>
       <c r="AA334" s="2"/>
     </row>
-    <row r="335" spans="1:27" ht="13">
+    <row r="335" spans="1:27" ht="13.2">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="14"/>
@@ -11884,7 +11884,7 @@
       <c r="Z335" s="2"/>
       <c r="AA335" s="2"/>
     </row>
-    <row r="336" spans="1:27" ht="13">
+    <row r="336" spans="1:27" ht="13.2">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="14"/>
@@ -11913,7 +11913,7 @@
       <c r="Z336" s="2"/>
       <c r="AA336" s="2"/>
     </row>
-    <row r="337" spans="1:27" ht="13">
+    <row r="337" spans="1:27" ht="13.2">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="14"/>
@@ -11942,7 +11942,7 @@
       <c r="Z337" s="2"/>
       <c r="AA337" s="2"/>
     </row>
-    <row r="338" spans="1:27" ht="13">
+    <row r="338" spans="1:27" ht="13.2">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="14"/>
@@ -11971,7 +11971,7 @@
       <c r="Z338" s="2"/>
       <c r="AA338" s="2"/>
     </row>
-    <row r="339" spans="1:27" ht="13">
+    <row r="339" spans="1:27" ht="13.2">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="14"/>
@@ -12000,7 +12000,7 @@
       <c r="Z339" s="2"/>
       <c r="AA339" s="2"/>
     </row>
-    <row r="340" spans="1:27" ht="13">
+    <row r="340" spans="1:27" ht="13.2">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="14"/>
@@ -12029,7 +12029,7 @@
       <c r="Z340" s="2"/>
       <c r="AA340" s="2"/>
     </row>
-    <row r="341" spans="1:27" ht="13">
+    <row r="341" spans="1:27" ht="13.2">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="14"/>
@@ -12058,7 +12058,7 @@
       <c r="Z341" s="2"/>
       <c r="AA341" s="2"/>
     </row>
-    <row r="342" spans="1:27" ht="13">
+    <row r="342" spans="1:27" ht="13.2">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="14"/>
@@ -12087,7 +12087,7 @@
       <c r="Z342" s="2"/>
       <c r="AA342" s="2"/>
     </row>
-    <row r="343" spans="1:27" ht="13">
+    <row r="343" spans="1:27" ht="13.2">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="14"/>
@@ -12116,7 +12116,7 @@
       <c r="Z343" s="2"/>
       <c r="AA343" s="2"/>
     </row>
-    <row r="344" spans="1:27" ht="13">
+    <row r="344" spans="1:27" ht="13.2">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="14"/>
@@ -12145,7 +12145,7 @@
       <c r="Z344" s="2"/>
       <c r="AA344" s="2"/>
     </row>
-    <row r="345" spans="1:27" ht="13">
+    <row r="345" spans="1:27" ht="13.2">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="14"/>
@@ -12174,7 +12174,7 @@
       <c r="Z345" s="2"/>
       <c r="AA345" s="2"/>
     </row>
-    <row r="346" spans="1:27" ht="13">
+    <row r="346" spans="1:27" ht="13.2">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="14"/>
@@ -12203,7 +12203,7 @@
       <c r="Z346" s="2"/>
       <c r="AA346" s="2"/>
     </row>
-    <row r="347" spans="1:27" ht="13">
+    <row r="347" spans="1:27" ht="13.2">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="14"/>
@@ -12232,7 +12232,7 @@
       <c r="Z347" s="2"/>
       <c r="AA347" s="2"/>
     </row>
-    <row r="348" spans="1:27" ht="13">
+    <row r="348" spans="1:27" ht="13.2">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="14"/>
@@ -12261,7 +12261,7 @@
       <c r="Z348" s="2"/>
       <c r="AA348" s="2"/>
     </row>
-    <row r="349" spans="1:27" ht="13">
+    <row r="349" spans="1:27" ht="13.2">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="14"/>
@@ -12290,7 +12290,7 @@
       <c r="Z349" s="2"/>
       <c r="AA349" s="2"/>
     </row>
-    <row r="350" spans="1:27" ht="13">
+    <row r="350" spans="1:27" ht="13.2">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="14"/>
@@ -12319,7 +12319,7 @@
       <c r="Z350" s="2"/>
       <c r="AA350" s="2"/>
     </row>
-    <row r="351" spans="1:27" ht="13">
+    <row r="351" spans="1:27" ht="13.2">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="14"/>
@@ -12348,7 +12348,7 @@
       <c r="Z351" s="2"/>
       <c r="AA351" s="2"/>
     </row>
-    <row r="352" spans="1:27" ht="13">
+    <row r="352" spans="1:27" ht="13.2">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="14"/>
@@ -12377,7 +12377,7 @@
       <c r="Z352" s="2"/>
       <c r="AA352" s="2"/>
     </row>
-    <row r="353" spans="1:27" ht="13">
+    <row r="353" spans="1:27" ht="13.2">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="14"/>
@@ -12406,7 +12406,7 @@
       <c r="Z353" s="2"/>
       <c r="AA353" s="2"/>
     </row>
-    <row r="354" spans="1:27" ht="13">
+    <row r="354" spans="1:27" ht="13.2">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="14"/>
@@ -12435,7 +12435,7 @@
       <c r="Z354" s="2"/>
       <c r="AA354" s="2"/>
     </row>
-    <row r="355" spans="1:27" ht="13">
+    <row r="355" spans="1:27" ht="13.2">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="14"/>
@@ -12464,7 +12464,7 @@
       <c r="Z355" s="2"/>
       <c r="AA355" s="2"/>
     </row>
-    <row r="356" spans="1:27" ht="13">
+    <row r="356" spans="1:27" ht="13.2">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="14"/>
@@ -12493,7 +12493,7 @@
       <c r="Z356" s="2"/>
       <c r="AA356" s="2"/>
     </row>
-    <row r="357" spans="1:27" ht="13">
+    <row r="357" spans="1:27" ht="13.2">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="14"/>
@@ -12522,7 +12522,7 @@
       <c r="Z357" s="2"/>
       <c r="AA357" s="2"/>
     </row>
-    <row r="358" spans="1:27" ht="13">
+    <row r="358" spans="1:27" ht="13.2">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="14"/>
@@ -12551,7 +12551,7 @@
       <c r="Z358" s="2"/>
       <c r="AA358" s="2"/>
     </row>
-    <row r="359" spans="1:27" ht="13">
+    <row r="359" spans="1:27" ht="13.2">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="14"/>
@@ -12580,7 +12580,7 @@
       <c r="Z359" s="2"/>
       <c r="AA359" s="2"/>
     </row>
-    <row r="360" spans="1:27" ht="13">
+    <row r="360" spans="1:27" ht="13.2">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="14"/>
@@ -12609,7 +12609,7 @@
       <c r="Z360" s="2"/>
       <c r="AA360" s="2"/>
     </row>
-    <row r="361" spans="1:27" ht="13">
+    <row r="361" spans="1:27" ht="13.2">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="14"/>
@@ -12638,7 +12638,7 @@
       <c r="Z361" s="2"/>
       <c r="AA361" s="2"/>
     </row>
-    <row r="362" spans="1:27" ht="13">
+    <row r="362" spans="1:27" ht="13.2">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="14"/>
@@ -12667,7 +12667,7 @@
       <c r="Z362" s="2"/>
       <c r="AA362" s="2"/>
     </row>
-    <row r="363" spans="1:27" ht="13">
+    <row r="363" spans="1:27" ht="13.2">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="14"/>
@@ -12696,7 +12696,7 @@
       <c r="Z363" s="2"/>
       <c r="AA363" s="2"/>
     </row>
-    <row r="364" spans="1:27" ht="13">
+    <row r="364" spans="1:27" ht="13.2">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="14"/>
@@ -12725,7 +12725,7 @@
       <c r="Z364" s="2"/>
       <c r="AA364" s="2"/>
     </row>
-    <row r="365" spans="1:27" ht="13">
+    <row r="365" spans="1:27" ht="13.2">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="14"/>
@@ -12754,7 +12754,7 @@
       <c r="Z365" s="2"/>
       <c r="AA365" s="2"/>
     </row>
-    <row r="366" spans="1:27" ht="13">
+    <row r="366" spans="1:27" ht="13.2">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="14"/>
@@ -12783,7 +12783,7 @@
       <c r="Z366" s="2"/>
       <c r="AA366" s="2"/>
     </row>
-    <row r="367" spans="1:27" ht="13">
+    <row r="367" spans="1:27" ht="13.2">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="14"/>
@@ -12812,7 +12812,7 @@
       <c r="Z367" s="2"/>
       <c r="AA367" s="2"/>
     </row>
-    <row r="368" spans="1:27" ht="13">
+    <row r="368" spans="1:27" ht="13.2">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="14"/>
@@ -12841,7 +12841,7 @@
       <c r="Z368" s="2"/>
       <c r="AA368" s="2"/>
     </row>
-    <row r="369" spans="1:27" ht="13">
+    <row r="369" spans="1:27" ht="13.2">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="14"/>
@@ -12870,7 +12870,7 @@
       <c r="Z369" s="2"/>
       <c r="AA369" s="2"/>
     </row>
-    <row r="370" spans="1:27" ht="13">
+    <row r="370" spans="1:27" ht="13.2">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="14"/>
@@ -12899,7 +12899,7 @@
       <c r="Z370" s="2"/>
       <c r="AA370" s="2"/>
     </row>
-    <row r="371" spans="1:27" ht="13">
+    <row r="371" spans="1:27" ht="13.2">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="14"/>
@@ -12928,7 +12928,7 @@
       <c r="Z371" s="2"/>
       <c r="AA371" s="2"/>
     </row>
-    <row r="372" spans="1:27" ht="13">
+    <row r="372" spans="1:27" ht="13.2">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="14"/>
@@ -12957,7 +12957,7 @@
       <c r="Z372" s="2"/>
       <c r="AA372" s="2"/>
     </row>
-    <row r="373" spans="1:27" ht="13">
+    <row r="373" spans="1:27" ht="13.2">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="14"/>
@@ -12986,7 +12986,7 @@
       <c r="Z373" s="2"/>
       <c r="AA373" s="2"/>
     </row>
-    <row r="374" spans="1:27" ht="13">
+    <row r="374" spans="1:27" ht="13.2">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="14"/>
@@ -13015,7 +13015,7 @@
       <c r="Z374" s="2"/>
       <c r="AA374" s="2"/>
     </row>
-    <row r="375" spans="1:27" ht="13">
+    <row r="375" spans="1:27" ht="13.2">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="14"/>
@@ -13044,7 +13044,7 @@
       <c r="Z375" s="2"/>
       <c r="AA375" s="2"/>
     </row>
-    <row r="376" spans="1:27" ht="13">
+    <row r="376" spans="1:27" ht="13.2">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="14"/>
@@ -13073,7 +13073,7 @@
       <c r="Z376" s="2"/>
       <c r="AA376" s="2"/>
     </row>
-    <row r="377" spans="1:27" ht="13">
+    <row r="377" spans="1:27" ht="13.2">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="14"/>
@@ -13102,7 +13102,7 @@
       <c r="Z377" s="2"/>
       <c r="AA377" s="2"/>
     </row>
-    <row r="378" spans="1:27" ht="13">
+    <row r="378" spans="1:27" ht="13.2">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="14"/>
@@ -13131,7 +13131,7 @@
       <c r="Z378" s="2"/>
       <c r="AA378" s="2"/>
     </row>
-    <row r="379" spans="1:27" ht="13">
+    <row r="379" spans="1:27" ht="13.2">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="14"/>
@@ -13160,7 +13160,7 @@
       <c r="Z379" s="2"/>
       <c r="AA379" s="2"/>
     </row>
-    <row r="380" spans="1:27" ht="13">
+    <row r="380" spans="1:27" ht="13.2">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="14"/>
@@ -13189,7 +13189,7 @@
       <c r="Z380" s="2"/>
       <c r="AA380" s="2"/>
     </row>
-    <row r="381" spans="1:27" ht="13">
+    <row r="381" spans="1:27" ht="13.2">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="14"/>
@@ -13218,7 +13218,7 @@
       <c r="Z381" s="2"/>
       <c r="AA381" s="2"/>
     </row>
-    <row r="382" spans="1:27" ht="13">
+    <row r="382" spans="1:27" ht="13.2">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="14"/>
@@ -13247,7 +13247,7 @@
       <c r="Z382" s="2"/>
       <c r="AA382" s="2"/>
     </row>
-    <row r="383" spans="1:27" ht="13">
+    <row r="383" spans="1:27" ht="13.2">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="14"/>
@@ -13276,7 +13276,7 @@
       <c r="Z383" s="2"/>
       <c r="AA383" s="2"/>
     </row>
-    <row r="384" spans="1:27" ht="13">
+    <row r="384" spans="1:27" ht="13.2">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="14"/>
@@ -13305,7 +13305,7 @@
       <c r="Z384" s="2"/>
       <c r="AA384" s="2"/>
     </row>
-    <row r="385" spans="1:27" ht="13">
+    <row r="385" spans="1:27" ht="13.2">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="14"/>
@@ -13334,7 +13334,7 @@
       <c r="Z385" s="2"/>
       <c r="AA385" s="2"/>
     </row>
-    <row r="386" spans="1:27" ht="13">
+    <row r="386" spans="1:27" ht="13.2">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="14"/>
@@ -13363,7 +13363,7 @@
       <c r="Z386" s="2"/>
       <c r="AA386" s="2"/>
     </row>
-    <row r="387" spans="1:27" ht="13">
+    <row r="387" spans="1:27" ht="13.2">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="14"/>
@@ -13392,7 +13392,7 @@
       <c r="Z387" s="2"/>
       <c r="AA387" s="2"/>
     </row>
-    <row r="388" spans="1:27" ht="13">
+    <row r="388" spans="1:27" ht="13.2">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="14"/>
@@ -13421,7 +13421,7 @@
       <c r="Z388" s="2"/>
       <c r="AA388" s="2"/>
     </row>
-    <row r="389" spans="1:27" ht="13">
+    <row r="389" spans="1:27" ht="13.2">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="14"/>
@@ -13450,7 +13450,7 @@
       <c r="Z389" s="2"/>
       <c r="AA389" s="2"/>
     </row>
-    <row r="390" spans="1:27" ht="13">
+    <row r="390" spans="1:27" ht="13.2">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="14"/>
@@ -13479,7 +13479,7 @@
       <c r="Z390" s="2"/>
       <c r="AA390" s="2"/>
     </row>
-    <row r="391" spans="1:27" ht="13">
+    <row r="391" spans="1:27" ht="13.2">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="14"/>
@@ -13508,7 +13508,7 @@
       <c r="Z391" s="2"/>
       <c r="AA391" s="2"/>
     </row>
-    <row r="392" spans="1:27" ht="13">
+    <row r="392" spans="1:27" ht="13.2">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="14"/>
@@ -13537,7 +13537,7 @@
       <c r="Z392" s="2"/>
       <c r="AA392" s="2"/>
     </row>
-    <row r="393" spans="1:27" ht="13">
+    <row r="393" spans="1:27" ht="13.2">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="14"/>
@@ -13566,7 +13566,7 @@
       <c r="Z393" s="2"/>
       <c r="AA393" s="2"/>
     </row>
-    <row r="394" spans="1:27" ht="13">
+    <row r="394" spans="1:27" ht="13.2">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="14"/>
@@ -13595,7 +13595,7 @@
       <c r="Z394" s="2"/>
       <c r="AA394" s="2"/>
     </row>
-    <row r="395" spans="1:27" ht="13">
+    <row r="395" spans="1:27" ht="13.2">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="14"/>
@@ -13624,7 +13624,7 @@
       <c r="Z395" s="2"/>
       <c r="AA395" s="2"/>
     </row>
-    <row r="396" spans="1:27" ht="13">
+    <row r="396" spans="1:27" ht="13.2">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="14"/>
@@ -13653,7 +13653,7 @@
       <c r="Z396" s="2"/>
       <c r="AA396" s="2"/>
     </row>
-    <row r="397" spans="1:27" ht="13">
+    <row r="397" spans="1:27" ht="13.2">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="14"/>
@@ -13682,7 +13682,7 @@
       <c r="Z397" s="2"/>
       <c r="AA397" s="2"/>
     </row>
-    <row r="398" spans="1:27" ht="13">
+    <row r="398" spans="1:27" ht="13.2">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="14"/>
@@ -13711,7 +13711,7 @@
       <c r="Z398" s="2"/>
       <c r="AA398" s="2"/>
     </row>
-    <row r="399" spans="1:27" ht="13">
+    <row r="399" spans="1:27" ht="13.2">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="14"/>
@@ -13740,7 +13740,7 @@
       <c r="Z399" s="2"/>
       <c r="AA399" s="2"/>
     </row>
-    <row r="400" spans="1:27" ht="13">
+    <row r="400" spans="1:27" ht="13.2">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="14"/>
@@ -13769,7 +13769,7 @@
       <c r="Z400" s="2"/>
       <c r="AA400" s="2"/>
     </row>
-    <row r="401" spans="1:27" ht="13">
+    <row r="401" spans="1:27" ht="13.2">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="14"/>
@@ -13798,7 +13798,7 @@
       <c r="Z401" s="2"/>
       <c r="AA401" s="2"/>
     </row>
-    <row r="402" spans="1:27" ht="13">
+    <row r="402" spans="1:27" ht="13.2">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="14"/>
@@ -13827,7 +13827,7 @@
       <c r="Z402" s="2"/>
       <c r="AA402" s="2"/>
     </row>
-    <row r="403" spans="1:27" ht="13">
+    <row r="403" spans="1:27" ht="13.2">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="14"/>
@@ -13856,7 +13856,7 @@
       <c r="Z403" s="2"/>
       <c r="AA403" s="2"/>
     </row>
-    <row r="404" spans="1:27" ht="13">
+    <row r="404" spans="1:27" ht="13.2">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="14"/>
@@ -13885,7 +13885,7 @@
       <c r="Z404" s="2"/>
       <c r="AA404" s="2"/>
     </row>
-    <row r="405" spans="1:27" ht="13">
+    <row r="405" spans="1:27" ht="13.2">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="14"/>
@@ -13914,7 +13914,7 @@
       <c r="Z405" s="2"/>
       <c r="AA405" s="2"/>
     </row>
-    <row r="406" spans="1:27" ht="13">
+    <row r="406" spans="1:27" ht="13.2">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="14"/>
@@ -13943,7 +13943,7 @@
       <c r="Z406" s="2"/>
       <c r="AA406" s="2"/>
     </row>
-    <row r="407" spans="1:27" ht="13">
+    <row r="407" spans="1:27" ht="13.2">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="14"/>
@@ -13972,7 +13972,7 @@
       <c r="Z407" s="2"/>
       <c r="AA407" s="2"/>
     </row>
-    <row r="408" spans="1:27" ht="13">
+    <row r="408" spans="1:27" ht="13.2">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="14"/>
@@ -14001,7 +14001,7 @@
       <c r="Z408" s="2"/>
       <c r="AA408" s="2"/>
     </row>
-    <row r="409" spans="1:27" ht="13">
+    <row r="409" spans="1:27" ht="13.2">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="14"/>
@@ -14030,7 +14030,7 @@
       <c r="Z409" s="2"/>
       <c r="AA409" s="2"/>
     </row>
-    <row r="410" spans="1:27" ht="13">
+    <row r="410" spans="1:27" ht="13.2">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="14"/>
@@ -14059,7 +14059,7 @@
       <c r="Z410" s="2"/>
       <c r="AA410" s="2"/>
     </row>
-    <row r="411" spans="1:27" ht="13">
+    <row r="411" spans="1:27" ht="13.2">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="14"/>
@@ -14088,7 +14088,7 @@
       <c r="Z411" s="2"/>
       <c r="AA411" s="2"/>
     </row>
-    <row r="412" spans="1:27" ht="13">
+    <row r="412" spans="1:27" ht="13.2">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="14"/>
@@ -14117,7 +14117,7 @@
       <c r="Z412" s="2"/>
       <c r="AA412" s="2"/>
     </row>
-    <row r="413" spans="1:27" ht="13">
+    <row r="413" spans="1:27" ht="13.2">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="14"/>
@@ -14146,7 +14146,7 @@
       <c r="Z413" s="2"/>
       <c r="AA413" s="2"/>
     </row>
-    <row r="414" spans="1:27" ht="13">
+    <row r="414" spans="1:27" ht="13.2">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="14"/>
@@ -14175,7 +14175,7 @@
       <c r="Z414" s="2"/>
       <c r="AA414" s="2"/>
     </row>
-    <row r="415" spans="1:27" ht="13">
+    <row r="415" spans="1:27" ht="13.2">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="14"/>
@@ -14204,7 +14204,7 @@
       <c r="Z415" s="2"/>
       <c r="AA415" s="2"/>
     </row>
-    <row r="416" spans="1:27" ht="13">
+    <row r="416" spans="1:27" ht="13.2">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="14"/>
@@ -14233,7 +14233,7 @@
       <c r="Z416" s="2"/>
       <c r="AA416" s="2"/>
     </row>
-    <row r="417" spans="1:27" ht="13">
+    <row r="417" spans="1:27" ht="13.2">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="14"/>
@@ -14262,7 +14262,7 @@
       <c r="Z417" s="2"/>
       <c r="AA417" s="2"/>
     </row>
-    <row r="418" spans="1:27" ht="13">
+    <row r="418" spans="1:27" ht="13.2">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="14"/>
@@ -14291,7 +14291,7 @@
       <c r="Z418" s="2"/>
       <c r="AA418" s="2"/>
     </row>
-    <row r="419" spans="1:27" ht="13">
+    <row r="419" spans="1:27" ht="13.2">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="14"/>
@@ -14320,7 +14320,7 @@
       <c r="Z419" s="2"/>
       <c r="AA419" s="2"/>
     </row>
-    <row r="420" spans="1:27" ht="13">
+    <row r="420" spans="1:27" ht="13.2">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="14"/>
@@ -14349,7 +14349,7 @@
       <c r="Z420" s="2"/>
       <c r="AA420" s="2"/>
     </row>
-    <row r="421" spans="1:27" ht="13">
+    <row r="421" spans="1:27" ht="13.2">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="14"/>
@@ -14378,7 +14378,7 @@
       <c r="Z421" s="2"/>
       <c r="AA421" s="2"/>
     </row>
-    <row r="422" spans="1:27" ht="13">
+    <row r="422" spans="1:27" ht="13.2">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="14"/>
@@ -14407,7 +14407,7 @@
       <c r="Z422" s="2"/>
       <c r="AA422" s="2"/>
     </row>
-    <row r="423" spans="1:27" ht="13">
+    <row r="423" spans="1:27" ht="13.2">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="14"/>
@@ -14436,7 +14436,7 @@
       <c r="Z423" s="2"/>
       <c r="AA423" s="2"/>
     </row>
-    <row r="424" spans="1:27" ht="13">
+    <row r="424" spans="1:27" ht="13.2">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="14"/>
@@ -14465,7 +14465,7 @@
       <c r="Z424" s="2"/>
       <c r="AA424" s="2"/>
     </row>
-    <row r="425" spans="1:27" ht="13">
+    <row r="425" spans="1:27" ht="13.2">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="14"/>
@@ -14494,7 +14494,7 @@
       <c r="Z425" s="2"/>
       <c r="AA425" s="2"/>
     </row>
-    <row r="426" spans="1:27" ht="13">
+    <row r="426" spans="1:27" ht="13.2">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="14"/>
@@ -14523,7 +14523,7 @@
       <c r="Z426" s="2"/>
       <c r="AA426" s="2"/>
     </row>
-    <row r="427" spans="1:27" ht="13">
+    <row r="427" spans="1:27" ht="13.2">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="14"/>
@@ -14552,7 +14552,7 @@
       <c r="Z427" s="2"/>
       <c r="AA427" s="2"/>
     </row>
-    <row r="428" spans="1:27" ht="13">
+    <row r="428" spans="1:27" ht="13.2">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="14"/>
@@ -14581,7 +14581,7 @@
       <c r="Z428" s="2"/>
       <c r="AA428" s="2"/>
     </row>
-    <row r="429" spans="1:27" ht="13">
+    <row r="429" spans="1:27" ht="13.2">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="14"/>
@@ -14610,7 +14610,7 @@
       <c r="Z429" s="2"/>
       <c r="AA429" s="2"/>
     </row>
-    <row r="430" spans="1:27" ht="13">
+    <row r="430" spans="1:27" ht="13.2">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="14"/>
@@ -14639,7 +14639,7 @@
       <c r="Z430" s="2"/>
       <c r="AA430" s="2"/>
     </row>
-    <row r="431" spans="1:27" ht="13">
+    <row r="431" spans="1:27" ht="13.2">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="14"/>
@@ -14668,7 +14668,7 @@
       <c r="Z431" s="2"/>
       <c r="AA431" s="2"/>
     </row>
-    <row r="432" spans="1:27" ht="13">
+    <row r="432" spans="1:27" ht="13.2">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="14"/>
@@ -14697,7 +14697,7 @@
       <c r="Z432" s="2"/>
       <c r="AA432" s="2"/>
     </row>
-    <row r="433" spans="1:27" ht="13">
+    <row r="433" spans="1:27" ht="13.2">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="14"/>
@@ -14726,7 +14726,7 @@
       <c r="Z433" s="2"/>
       <c r="AA433" s="2"/>
     </row>
-    <row r="434" spans="1:27" ht="13">
+    <row r="434" spans="1:27" ht="13.2">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="14"/>
@@ -14755,7 +14755,7 @@
       <c r="Z434" s="2"/>
       <c r="AA434" s="2"/>
     </row>
-    <row r="435" spans="1:27" ht="13">
+    <row r="435" spans="1:27" ht="13.2">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="14"/>
@@ -14784,7 +14784,7 @@
       <c r="Z435" s="2"/>
       <c r="AA435" s="2"/>
     </row>
-    <row r="436" spans="1:27" ht="13">
+    <row r="436" spans="1:27" ht="13.2">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="14"/>
@@ -14813,7 +14813,7 @@
       <c r="Z436" s="2"/>
       <c r="AA436" s="2"/>
     </row>
-    <row r="437" spans="1:27" ht="13">
+    <row r="437" spans="1:27" ht="13.2">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="14"/>
@@ -14842,7 +14842,7 @@
       <c r="Z437" s="2"/>
       <c r="AA437" s="2"/>
     </row>
-    <row r="438" spans="1:27" ht="13">
+    <row r="438" spans="1:27" ht="13.2">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="14"/>
@@ -14871,7 +14871,7 @@
       <c r="Z438" s="2"/>
       <c r="AA438" s="2"/>
     </row>
-    <row r="439" spans="1:27" ht="13">
+    <row r="439" spans="1:27" ht="13.2">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="14"/>
@@ -14900,7 +14900,7 @@
       <c r="Z439" s="2"/>
       <c r="AA439" s="2"/>
     </row>
-    <row r="440" spans="1:27" ht="13">
+    <row r="440" spans="1:27" ht="13.2">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="14"/>
@@ -14929,7 +14929,7 @@
       <c r="Z440" s="2"/>
       <c r="AA440" s="2"/>
     </row>
-    <row r="441" spans="1:27" ht="13">
+    <row r="441" spans="1:27" ht="13.2">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="14"/>
@@ -14958,7 +14958,7 @@
       <c r="Z441" s="2"/>
       <c r="AA441" s="2"/>
     </row>
-    <row r="442" spans="1:27" ht="13">
+    <row r="442" spans="1:27" ht="13.2">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="14"/>
@@ -14987,7 +14987,7 @@
       <c r="Z442" s="2"/>
       <c r="AA442" s="2"/>
     </row>
-    <row r="443" spans="1:27" ht="13">
+    <row r="443" spans="1:27" ht="13.2">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="14"/>
@@ -15016,7 +15016,7 @@
       <c r="Z443" s="2"/>
       <c r="AA443" s="2"/>
     </row>
-    <row r="444" spans="1:27" ht="13">
+    <row r="444" spans="1:27" ht="13.2">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="14"/>
@@ -15045,7 +15045,7 @@
       <c r="Z444" s="2"/>
       <c r="AA444" s="2"/>
     </row>
-    <row r="445" spans="1:27" ht="13">
+    <row r="445" spans="1:27" ht="13.2">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="14"/>
@@ -15074,7 +15074,7 @@
       <c r="Z445" s="2"/>
       <c r="AA445" s="2"/>
     </row>
-    <row r="446" spans="1:27" ht="13">
+    <row r="446" spans="1:27" ht="13.2">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="14"/>
@@ -15103,7 +15103,7 @@
       <c r="Z446" s="2"/>
       <c r="AA446" s="2"/>
     </row>
-    <row r="447" spans="1:27" ht="13">
+    <row r="447" spans="1:27" ht="13.2">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="14"/>
@@ -15132,7 +15132,7 @@
       <c r="Z447" s="2"/>
       <c r="AA447" s="2"/>
     </row>
-    <row r="448" spans="1:27" ht="13">
+    <row r="448" spans="1:27" ht="13.2">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="14"/>
@@ -15161,7 +15161,7 @@
       <c r="Z448" s="2"/>
       <c r="AA448" s="2"/>
     </row>
-    <row r="449" spans="1:27" ht="13">
+    <row r="449" spans="1:27" ht="13.2">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="14"/>
@@ -15190,7 +15190,7 @@
       <c r="Z449" s="2"/>
       <c r="AA449" s="2"/>
     </row>
-    <row r="450" spans="1:27" ht="13">
+    <row r="450" spans="1:27" ht="13.2">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="14"/>
@@ -15219,7 +15219,7 @@
       <c r="Z450" s="2"/>
       <c r="AA450" s="2"/>
     </row>
-    <row r="451" spans="1:27" ht="13">
+    <row r="451" spans="1:27" ht="13.2">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="14"/>
@@ -15248,7 +15248,7 @@
       <c r="Z451" s="2"/>
       <c r="AA451" s="2"/>
     </row>
-    <row r="452" spans="1:27" ht="13">
+    <row r="452" spans="1:27" ht="13.2">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="14"/>
@@ -15277,7 +15277,7 @@
       <c r="Z452" s="2"/>
       <c r="AA452" s="2"/>
     </row>
-    <row r="453" spans="1:27" ht="13">
+    <row r="453" spans="1:27" ht="13.2">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="14"/>
@@ -15306,7 +15306,7 @@
       <c r="Z453" s="2"/>
       <c r="AA453" s="2"/>
     </row>
-    <row r="454" spans="1:27" ht="13">
+    <row r="454" spans="1:27" ht="13.2">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="14"/>
@@ -15335,7 +15335,7 @@
       <c r="Z454" s="2"/>
       <c r="AA454" s="2"/>
     </row>
-    <row r="455" spans="1:27" ht="13">
+    <row r="455" spans="1:27" ht="13.2">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="14"/>
@@ -15364,7 +15364,7 @@
       <c r="Z455" s="2"/>
       <c r="AA455" s="2"/>
     </row>
-    <row r="456" spans="1:27" ht="13">
+    <row r="456" spans="1:27" ht="13.2">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="14"/>
@@ -15393,7 +15393,7 @@
       <c r="Z456" s="2"/>
       <c r="AA456" s="2"/>
     </row>
-    <row r="457" spans="1:27" ht="13">
+    <row r="457" spans="1:27" ht="13.2">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="14"/>
@@ -15422,7 +15422,7 @@
       <c r="Z457" s="2"/>
       <c r="AA457" s="2"/>
     </row>
-    <row r="458" spans="1:27" ht="13">
+    <row r="458" spans="1:27" ht="13.2">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="14"/>
@@ -15451,7 +15451,7 @@
       <c r="Z458" s="2"/>
       <c r="AA458" s="2"/>
     </row>
-    <row r="459" spans="1:27" ht="13">
+    <row r="459" spans="1:27" ht="13.2">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="14"/>
@@ -15480,7 +15480,7 @@
       <c r="Z459" s="2"/>
       <c r="AA459" s="2"/>
     </row>
-    <row r="460" spans="1:27" ht="13">
+    <row r="460" spans="1:27" ht="13.2">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="14"/>
@@ -15509,7 +15509,7 @@
       <c r="Z460" s="2"/>
       <c r="AA460" s="2"/>
     </row>
-    <row r="461" spans="1:27" ht="13">
+    <row r="461" spans="1:27" ht="13.2">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="14"/>
@@ -15538,7 +15538,7 @@
       <c r="Z461" s="2"/>
       <c r="AA461" s="2"/>
     </row>
-    <row r="462" spans="1:27" ht="13">
+    <row r="462" spans="1:27" ht="13.2">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="14"/>
@@ -15567,7 +15567,7 @@
       <c r="Z462" s="2"/>
       <c r="AA462" s="2"/>
     </row>
-    <row r="463" spans="1:27" ht="13">
+    <row r="463" spans="1:27" ht="13.2">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="14"/>
@@ -15596,7 +15596,7 @@
       <c r="Z463" s="2"/>
       <c r="AA463" s="2"/>
     </row>
-    <row r="464" spans="1:27" ht="13">
+    <row r="464" spans="1:27" ht="13.2">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="14"/>
@@ -15625,7 +15625,7 @@
       <c r="Z464" s="2"/>
       <c r="AA464" s="2"/>
     </row>
-    <row r="465" spans="1:27" ht="13">
+    <row r="465" spans="1:27" ht="13.2">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="14"/>
@@ -15654,7 +15654,7 @@
       <c r="Z465" s="2"/>
       <c r="AA465" s="2"/>
     </row>
-    <row r="466" spans="1:27" ht="13">
+    <row r="466" spans="1:27" ht="13.2">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="14"/>
@@ -15683,7 +15683,7 @@
       <c r="Z466" s="2"/>
       <c r="AA466" s="2"/>
     </row>
-    <row r="467" spans="1:27" ht="13">
+    <row r="467" spans="1:27" ht="13.2">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="14"/>
@@ -15712,7 +15712,7 @@
       <c r="Z467" s="2"/>
       <c r="AA467" s="2"/>
     </row>
-    <row r="468" spans="1:27" ht="13">
+    <row r="468" spans="1:27" ht="13.2">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="14"/>
@@ -15741,7 +15741,7 @@
       <c r="Z468" s="2"/>
       <c r="AA468" s="2"/>
     </row>
-    <row r="469" spans="1:27" ht="13">
+    <row r="469" spans="1:27" ht="13.2">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="14"/>
@@ -15770,7 +15770,7 @@
       <c r="Z469" s="2"/>
       <c r="AA469" s="2"/>
     </row>
-    <row r="470" spans="1:27" ht="13">
+    <row r="470" spans="1:27" ht="13.2">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="14"/>
@@ -15799,7 +15799,7 @@
       <c r="Z470" s="2"/>
       <c r="AA470" s="2"/>
     </row>
-    <row r="471" spans="1:27" ht="13">
+    <row r="471" spans="1:27" ht="13.2">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="14"/>
@@ -15828,7 +15828,7 @@
       <c r="Z471" s="2"/>
       <c r="AA471" s="2"/>
     </row>
-    <row r="472" spans="1:27" ht="13">
+    <row r="472" spans="1:27" ht="13.2">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="14"/>
@@ -15857,7 +15857,7 @@
       <c r="Z472" s="2"/>
       <c r="AA472" s="2"/>
     </row>
-    <row r="473" spans="1:27" ht="13">
+    <row r="473" spans="1:27" ht="13.2">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="14"/>
@@ -15886,7 +15886,7 @@
       <c r="Z473" s="2"/>
       <c r="AA473" s="2"/>
     </row>
-    <row r="474" spans="1:27" ht="13">
+    <row r="474" spans="1:27" ht="13.2">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="14"/>
@@ -15915,7 +15915,7 @@
       <c r="Z474" s="2"/>
       <c r="AA474" s="2"/>
     </row>
-    <row r="475" spans="1:27" ht="13">
+    <row r="475" spans="1:27" ht="13.2">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="14"/>
@@ -15944,7 +15944,7 @@
       <c r="Z475" s="2"/>
       <c r="AA475" s="2"/>
     </row>
-    <row r="476" spans="1:27" ht="13">
+    <row r="476" spans="1:27" ht="13.2">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="14"/>
@@ -15973,7 +15973,7 @@
       <c r="Z476" s="2"/>
       <c r="AA476" s="2"/>
     </row>
-    <row r="477" spans="1:27" ht="13">
+    <row r="477" spans="1:27" ht="13.2">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="14"/>
@@ -16002,7 +16002,7 @@
       <c r="Z477" s="2"/>
       <c r="AA477" s="2"/>
     </row>
-    <row r="478" spans="1:27" ht="13">
+    <row r="478" spans="1:27" ht="13.2">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="14"/>
@@ -16031,7 +16031,7 @@
       <c r="Z478" s="2"/>
       <c r="AA478" s="2"/>
     </row>
-    <row r="479" spans="1:27" ht="13">
+    <row r="479" spans="1:27" ht="13.2">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="14"/>
@@ -16060,7 +16060,7 @@
       <c r="Z479" s="2"/>
       <c r="AA479" s="2"/>
     </row>
-    <row r="480" spans="1:27" ht="13">
+    <row r="480" spans="1:27" ht="13.2">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="14"/>
@@ -16089,7 +16089,7 @@
       <c r="Z480" s="2"/>
       <c r="AA480" s="2"/>
     </row>
-    <row r="481" spans="1:27" ht="13">
+    <row r="481" spans="1:27" ht="13.2">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="14"/>
@@ -16118,7 +16118,7 @@
       <c r="Z481" s="2"/>
       <c r="AA481" s="2"/>
     </row>
-    <row r="482" spans="1:27" ht="13">
+    <row r="482" spans="1:27" ht="13.2">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="14"/>
@@ -16147,7 +16147,7 @@
       <c r="Z482" s="2"/>
       <c r="AA482" s="2"/>
     </row>
-    <row r="483" spans="1:27" ht="13">
+    <row r="483" spans="1:27" ht="13.2">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="14"/>
@@ -16176,7 +16176,7 @@
       <c r="Z483" s="2"/>
       <c r="AA483" s="2"/>
     </row>
-    <row r="484" spans="1:27" ht="13">
+    <row r="484" spans="1:27" ht="13.2">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="14"/>
@@ -16205,7 +16205,7 @@
       <c r="Z484" s="2"/>
       <c r="AA484" s="2"/>
     </row>
-    <row r="485" spans="1:27" ht="13">
+    <row r="485" spans="1:27" ht="13.2">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="14"/>
@@ -16234,7 +16234,7 @@
       <c r="Z485" s="2"/>
       <c r="AA485" s="2"/>
     </row>
-    <row r="486" spans="1:27" ht="13">
+    <row r="486" spans="1:27" ht="13.2">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="14"/>
@@ -16263,7 +16263,7 @@
       <c r="Z486" s="2"/>
       <c r="AA486" s="2"/>
     </row>
-    <row r="487" spans="1:27" ht="13">
+    <row r="487" spans="1:27" ht="13.2">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="14"/>
@@ -16292,7 +16292,7 @@
       <c r="Z487" s="2"/>
       <c r="AA487" s="2"/>
     </row>
-    <row r="488" spans="1:27" ht="13">
+    <row r="488" spans="1:27" ht="13.2">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="14"/>
@@ -16321,7 +16321,7 @@
       <c r="Z488" s="2"/>
       <c r="AA488" s="2"/>
     </row>
-    <row r="489" spans="1:27" ht="13">
+    <row r="489" spans="1:27" ht="13.2">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="14"/>
@@ -16350,7 +16350,7 @@
       <c r="Z489" s="2"/>
       <c r="AA489" s="2"/>
     </row>
-    <row r="490" spans="1:27" ht="13">
+    <row r="490" spans="1:27" ht="13.2">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="14"/>
@@ -16379,7 +16379,7 @@
       <c r="Z490" s="2"/>
       <c r="AA490" s="2"/>
     </row>
-    <row r="491" spans="1:27" ht="13">
+    <row r="491" spans="1:27" ht="13.2">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="14"/>
@@ -16408,7 +16408,7 @@
       <c r="Z491" s="2"/>
       <c r="AA491" s="2"/>
     </row>
-    <row r="492" spans="1:27" ht="13">
+    <row r="492" spans="1:27" ht="13.2">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="14"/>
@@ -16437,7 +16437,7 @@
       <c r="Z492" s="2"/>
       <c r="AA492" s="2"/>
     </row>
-    <row r="493" spans="1:27" ht="13">
+    <row r="493" spans="1:27" ht="13.2">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="14"/>
@@ -16466,7 +16466,7 @@
       <c r="Z493" s="2"/>
       <c r="AA493" s="2"/>
     </row>
-    <row r="494" spans="1:27" ht="13">
+    <row r="494" spans="1:27" ht="13.2">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="14"/>
@@ -16495,7 +16495,7 @@
       <c r="Z494" s="2"/>
       <c r="AA494" s="2"/>
     </row>
-    <row r="495" spans="1:27" ht="13">
+    <row r="495" spans="1:27" ht="13.2">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="14"/>
@@ -16524,7 +16524,7 @@
       <c r="Z495" s="2"/>
       <c r="AA495" s="2"/>
     </row>
-    <row r="496" spans="1:27" ht="13">
+    <row r="496" spans="1:27" ht="13.2">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="14"/>
@@ -16553,7 +16553,7 @@
       <c r="Z496" s="2"/>
       <c r="AA496" s="2"/>
     </row>
-    <row r="497" spans="1:27" ht="13">
+    <row r="497" spans="1:27" ht="13.2">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="14"/>
@@ -16582,7 +16582,7 @@
       <c r="Z497" s="2"/>
       <c r="AA497" s="2"/>
     </row>
-    <row r="498" spans="1:27" ht="13">
+    <row r="498" spans="1:27" ht="13.2">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="14"/>
@@ -16611,7 +16611,7 @@
       <c r="Z498" s="2"/>
       <c r="AA498" s="2"/>
     </row>
-    <row r="499" spans="1:27" ht="13">
+    <row r="499" spans="1:27" ht="13.2">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="14"/>
@@ -16640,7 +16640,7 @@
       <c r="Z499" s="2"/>
       <c r="AA499" s="2"/>
     </row>
-    <row r="500" spans="1:27" ht="13">
+    <row r="500" spans="1:27" ht="13.2">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="14"/>
@@ -16669,7 +16669,7 @@
       <c r="Z500" s="2"/>
       <c r="AA500" s="2"/>
     </row>
-    <row r="501" spans="1:27" ht="13">
+    <row r="501" spans="1:27" ht="13.2">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="14"/>
@@ -16698,7 +16698,7 @@
       <c r="Z501" s="2"/>
       <c r="AA501" s="2"/>
     </row>
-    <row r="502" spans="1:27" ht="13">
+    <row r="502" spans="1:27" ht="13.2">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="14"/>
@@ -16727,7 +16727,7 @@
       <c r="Z502" s="2"/>
       <c r="AA502" s="2"/>
     </row>
-    <row r="503" spans="1:27" ht="13">
+    <row r="503" spans="1:27" ht="13.2">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="14"/>
@@ -16756,7 +16756,7 @@
       <c r="Z503" s="2"/>
       <c r="AA503" s="2"/>
     </row>
-    <row r="504" spans="1:27" ht="13">
+    <row r="504" spans="1:27" ht="13.2">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="14"/>
@@ -16785,7 +16785,7 @@
       <c r="Z504" s="2"/>
       <c r="AA504" s="2"/>
     </row>
-    <row r="505" spans="1:27" ht="13">
+    <row r="505" spans="1:27" ht="13.2">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="14"/>
@@ -16814,7 +16814,7 @@
       <c r="Z505" s="2"/>
       <c r="AA505" s="2"/>
     </row>
-    <row r="506" spans="1:27" ht="13">
+    <row r="506" spans="1:27" ht="13.2">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="14"/>
@@ -16843,7 +16843,7 @@
       <c r="Z506" s="2"/>
       <c r="AA506" s="2"/>
     </row>
-    <row r="507" spans="1:27" ht="13">
+    <row r="507" spans="1:27" ht="13.2">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="14"/>
@@ -16872,7 +16872,7 @@
       <c r="Z507" s="2"/>
       <c r="AA507" s="2"/>
     </row>
-    <row r="508" spans="1:27" ht="13">
+    <row r="508" spans="1:27" ht="13.2">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="14"/>
@@ -16901,7 +16901,7 @@
       <c r="Z508" s="2"/>
       <c r="AA508" s="2"/>
     </row>
-    <row r="509" spans="1:27" ht="13">
+    <row r="509" spans="1:27" ht="13.2">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="14"/>
@@ -16930,7 +16930,7 @@
       <c r="Z509" s="2"/>
       <c r="AA509" s="2"/>
     </row>
-    <row r="510" spans="1:27" ht="13">
+    <row r="510" spans="1:27" ht="13.2">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="14"/>
@@ -16959,7 +16959,7 @@
       <c r="Z510" s="2"/>
       <c r="AA510" s="2"/>
     </row>
-    <row r="511" spans="1:27" ht="13">
+    <row r="511" spans="1:27" ht="13.2">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="14"/>
@@ -16988,7 +16988,7 @@
       <c r="Z511" s="2"/>
       <c r="AA511" s="2"/>
     </row>
-    <row r="512" spans="1:27" ht="13">
+    <row r="512" spans="1:27" ht="13.2">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="14"/>
@@ -17017,7 +17017,7 @@
       <c r="Z512" s="2"/>
       <c r="AA512" s="2"/>
     </row>
-    <row r="513" spans="1:27" ht="13">
+    <row r="513" spans="1:27" ht="13.2">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="14"/>
@@ -17046,7 +17046,7 @@
       <c r="Z513" s="2"/>
       <c r="AA513" s="2"/>
     </row>
-    <row r="514" spans="1:27" ht="13">
+    <row r="514" spans="1:27" ht="13.2">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="14"/>
@@ -17075,7 +17075,7 @@
       <c r="Z514" s="2"/>
       <c r="AA514" s="2"/>
     </row>
-    <row r="515" spans="1:27" ht="13">
+    <row r="515" spans="1:27" ht="13.2">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="14"/>
@@ -17104,7 +17104,7 @@
       <c r="Z515" s="2"/>
       <c r="AA515" s="2"/>
     </row>
-    <row r="516" spans="1:27" ht="13">
+    <row r="516" spans="1:27" ht="13.2">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="14"/>
@@ -17133,7 +17133,7 @@
       <c r="Z516" s="2"/>
       <c r="AA516" s="2"/>
     </row>
-    <row r="517" spans="1:27" ht="13">
+    <row r="517" spans="1:27" ht="13.2">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="14"/>
@@ -17162,7 +17162,7 @@
       <c r="Z517" s="2"/>
       <c r="AA517" s="2"/>
     </row>
-    <row r="518" spans="1:27" ht="13">
+    <row r="518" spans="1:27" ht="13.2">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="14"/>
@@ -17191,7 +17191,7 @@
       <c r="Z518" s="2"/>
       <c r="AA518" s="2"/>
     </row>
-    <row r="519" spans="1:27" ht="13">
+    <row r="519" spans="1:27" ht="13.2">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="14"/>
@@ -17220,7 +17220,7 @@
       <c r="Z519" s="2"/>
       <c r="AA519" s="2"/>
     </row>
-    <row r="520" spans="1:27" ht="13">
+    <row r="520" spans="1:27" ht="13.2">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="14"/>
@@ -17249,7 +17249,7 @@
       <c r="Z520" s="2"/>
       <c r="AA520" s="2"/>
     </row>
-    <row r="521" spans="1:27" ht="13">
+    <row r="521" spans="1:27" ht="13.2">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="14"/>
@@ -17278,7 +17278,7 @@
       <c r="Z521" s="2"/>
       <c r="AA521" s="2"/>
     </row>
-    <row r="522" spans="1:27" ht="13">
+    <row r="522" spans="1:27" ht="13.2">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="14"/>
@@ -17307,7 +17307,7 @@
       <c r="Z522" s="2"/>
       <c r="AA522" s="2"/>
     </row>
-    <row r="523" spans="1:27" ht="13">
+    <row r="523" spans="1:27" ht="13.2">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="14"/>
@@ -17336,7 +17336,7 @@
       <c r="Z523" s="2"/>
       <c r="AA523" s="2"/>
     </row>
-    <row r="524" spans="1:27" ht="13">
+    <row r="524" spans="1:27" ht="13.2">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="14"/>
@@ -17365,7 +17365,7 @@
       <c r="Z524" s="2"/>
       <c r="AA524" s="2"/>
     </row>
-    <row r="525" spans="1:27" ht="13">
+    <row r="525" spans="1:27" ht="13.2">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="14"/>
@@ -17394,7 +17394,7 @@
       <c r="Z525" s="2"/>
       <c r="AA525" s="2"/>
     </row>
-    <row r="526" spans="1:27" ht="13">
+    <row r="526" spans="1:27" ht="13.2">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="14"/>
@@ -17423,7 +17423,7 @@
       <c r="Z526" s="2"/>
       <c r="AA526" s="2"/>
     </row>
-    <row r="527" spans="1:27" ht="13">
+    <row r="527" spans="1:27" ht="13.2">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="14"/>
@@ -17452,7 +17452,7 @@
       <c r="Z527" s="2"/>
       <c r="AA527" s="2"/>
     </row>
-    <row r="528" spans="1:27" ht="13">
+    <row r="528" spans="1:27" ht="13.2">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="14"/>
@@ -17481,7 +17481,7 @@
       <c r="Z528" s="2"/>
       <c r="AA528" s="2"/>
     </row>
-    <row r="529" spans="1:27" ht="13">
+    <row r="529" spans="1:27" ht="13.2">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="14"/>
@@ -17510,7 +17510,7 @@
       <c r="Z529" s="2"/>
       <c r="AA529" s="2"/>
     </row>
-    <row r="530" spans="1:27" ht="13">
+    <row r="530" spans="1:27" ht="13.2">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="14"/>
@@ -17539,7 +17539,7 @@
       <c r="Z530" s="2"/>
       <c r="AA530" s="2"/>
     </row>
-    <row r="531" spans="1:27" ht="13">
+    <row r="531" spans="1:27" ht="13.2">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="14"/>
@@ -17568,7 +17568,7 @@
       <c r="Z531" s="2"/>
       <c r="AA531" s="2"/>
     </row>
-    <row r="532" spans="1:27" ht="13">
+    <row r="532" spans="1:27" ht="13.2">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="14"/>
@@ -17597,7 +17597,7 @@
       <c r="Z532" s="2"/>
       <c r="AA532" s="2"/>
     </row>
-    <row r="533" spans="1:27" ht="13">
+    <row r="533" spans="1:27" ht="13.2">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="14"/>
@@ -17626,7 +17626,7 @@
       <c r="Z533" s="2"/>
       <c r="AA533" s="2"/>
     </row>
-    <row r="534" spans="1:27" ht="13">
+    <row r="534" spans="1:27" ht="13.2">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="14"/>
@@ -17655,7 +17655,7 @@
       <c r="Z534" s="2"/>
       <c r="AA534" s="2"/>
     </row>
-    <row r="535" spans="1:27" ht="13">
+    <row r="535" spans="1:27" ht="13.2">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="14"/>
@@ -17684,7 +17684,7 @@
       <c r="Z535" s="2"/>
       <c r="AA535" s="2"/>
     </row>
-    <row r="536" spans="1:27" ht="13">
+    <row r="536" spans="1:27" ht="13.2">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="14"/>
@@ -17713,7 +17713,7 @@
       <c r="Z536" s="2"/>
       <c r="AA536" s="2"/>
     </row>
-    <row r="537" spans="1:27" ht="13">
+    <row r="537" spans="1:27" ht="13.2">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="14"/>
@@ -17742,7 +17742,7 @@
       <c r="Z537" s="2"/>
       <c r="AA537" s="2"/>
     </row>
-    <row r="538" spans="1:27" ht="13">
+    <row r="538" spans="1:27" ht="13.2">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="14"/>
@@ -17771,7 +17771,7 @@
       <c r="Z538" s="2"/>
       <c r="AA538" s="2"/>
     </row>
-    <row r="539" spans="1:27" ht="13">
+    <row r="539" spans="1:27" ht="13.2">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="14"/>
@@ -17800,7 +17800,7 @@
       <c r="Z539" s="2"/>
       <c r="AA539" s="2"/>
     </row>
-    <row r="540" spans="1:27" ht="13">
+    <row r="540" spans="1:27" ht="13.2">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="14"/>
@@ -17829,7 +17829,7 @@
       <c r="Z540" s="2"/>
       <c r="AA540" s="2"/>
     </row>
-    <row r="541" spans="1:27" ht="13">
+    <row r="541" spans="1:27" ht="13.2">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="14"/>
@@ -17858,7 +17858,7 @@
       <c r="Z541" s="2"/>
       <c r="AA541" s="2"/>
     </row>
-    <row r="542" spans="1:27" ht="13">
+    <row r="542" spans="1:27" ht="13.2">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="14"/>
@@ -17887,7 +17887,7 @@
       <c r="Z542" s="2"/>
       <c r="AA542" s="2"/>
     </row>
-    <row r="543" spans="1:27" ht="13">
+    <row r="543" spans="1:27" ht="13.2">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="14"/>
@@ -17916,7 +17916,7 @@
       <c r="Z543" s="2"/>
       <c r="AA543" s="2"/>
     </row>
-    <row r="544" spans="1:27" ht="13">
+    <row r="544" spans="1:27" ht="13.2">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="14"/>
@@ -17945,7 +17945,7 @@
       <c r="Z544" s="2"/>
       <c r="AA544" s="2"/>
     </row>
-    <row r="545" spans="1:27" ht="13">
+    <row r="545" spans="1:27" ht="13.2">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="14"/>
@@ -17974,7 +17974,7 @@
       <c r="Z545" s="2"/>
       <c r="AA545" s="2"/>
     </row>
-    <row r="546" spans="1:27" ht="13">
+    <row r="546" spans="1:27" ht="13.2">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="14"/>
@@ -18003,7 +18003,7 @@
       <c r="Z546" s="2"/>
       <c r="AA546" s="2"/>
     </row>
-    <row r="547" spans="1:27" ht="13">
+    <row r="547" spans="1:27" ht="13.2">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="14"/>
@@ -18032,7 +18032,7 @@
       <c r="Z547" s="2"/>
       <c r="AA547" s="2"/>
     </row>
-    <row r="548" spans="1:27" ht="13">
+    <row r="548" spans="1:27" ht="13.2">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="14"/>
@@ -18061,7 +18061,7 @@
       <c r="Z548" s="2"/>
       <c r="AA548" s="2"/>
     </row>
-    <row r="549" spans="1:27" ht="13">
+    <row r="549" spans="1:27" ht="13.2">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="14"/>
@@ -18090,7 +18090,7 @@
       <c r="Z549" s="2"/>
       <c r="AA549" s="2"/>
     </row>
-    <row r="550" spans="1:27" ht="13">
+    <row r="550" spans="1:27" ht="13.2">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="14"/>
@@ -18119,7 +18119,7 @@
       <c r="Z550" s="2"/>
       <c r="AA550" s="2"/>
     </row>
-    <row r="551" spans="1:27" ht="13">
+    <row r="551" spans="1:27" ht="13.2">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="14"/>
@@ -18148,7 +18148,7 @@
       <c r="Z551" s="2"/>
       <c r="AA551" s="2"/>
     </row>
-    <row r="552" spans="1:27" ht="13">
+    <row r="552" spans="1:27" ht="13.2">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="14"/>
@@ -18177,7 +18177,7 @@
       <c r="Z552" s="2"/>
       <c r="AA552" s="2"/>
     </row>
-    <row r="553" spans="1:27" ht="13">
+    <row r="553" spans="1:27" ht="13.2">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="14"/>
@@ -18206,7 +18206,7 @@
       <c r="Z553" s="2"/>
       <c r="AA553" s="2"/>
     </row>
-    <row r="554" spans="1:27" ht="13">
+    <row r="554" spans="1:27" ht="13.2">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="14"/>
@@ -18235,7 +18235,7 @@
       <c r="Z554" s="2"/>
       <c r="AA554" s="2"/>
     </row>
-    <row r="555" spans="1:27" ht="13">
+    <row r="555" spans="1:27" ht="13.2">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="14"/>
@@ -18264,7 +18264,7 @@
       <c r="Z555" s="2"/>
       <c r="AA555" s="2"/>
     </row>
-    <row r="556" spans="1:27" ht="13">
+    <row r="556" spans="1:27" ht="13.2">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="14"/>
@@ -18293,7 +18293,7 @@
       <c r="Z556" s="2"/>
       <c r="AA556" s="2"/>
     </row>
-    <row r="557" spans="1:27" ht="13">
+    <row r="557" spans="1:27" ht="13.2">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="14"/>
@@ -18322,7 +18322,7 @@
       <c r="Z557" s="2"/>
       <c r="AA557" s="2"/>
     </row>
-    <row r="558" spans="1:27" ht="13">
+    <row r="558" spans="1:27" ht="13.2">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="14"/>
@@ -18351,7 +18351,7 @@
       <c r="Z558" s="2"/>
       <c r="AA558" s="2"/>
     </row>
-    <row r="559" spans="1:27" ht="13">
+    <row r="559" spans="1:27" ht="13.2">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="14"/>
@@ -18380,7 +18380,7 @@
       <c r="Z559" s="2"/>
       <c r="AA559" s="2"/>
     </row>
-    <row r="560" spans="1:27" ht="13">
+    <row r="560" spans="1:27" ht="13.2">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="14"/>
@@ -18409,7 +18409,7 @@
       <c r="Z560" s="2"/>
       <c r="AA560" s="2"/>
     </row>
-    <row r="561" spans="1:27" ht="13">
+    <row r="561" spans="1:27" ht="13.2">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="14"/>
@@ -18438,7 +18438,7 @@
       <c r="Z561" s="2"/>
       <c r="AA561" s="2"/>
     </row>
-    <row r="562" spans="1:27" ht="13">
+    <row r="562" spans="1:27" ht="13.2">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="14"/>
@@ -18467,7 +18467,7 @@
       <c r="Z562" s="2"/>
       <c r="AA562" s="2"/>
     </row>
-    <row r="563" spans="1:27" ht="13">
+    <row r="563" spans="1:27" ht="13.2">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="14"/>
@@ -18496,7 +18496,7 @@
       <c r="Z563" s="2"/>
       <c r="AA563" s="2"/>
     </row>
-    <row r="564" spans="1:27" ht="13">
+    <row r="564" spans="1:27" ht="13.2">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="14"/>
@@ -18525,7 +18525,7 @@
       <c r="Z564" s="2"/>
       <c r="AA564" s="2"/>
     </row>
-    <row r="565" spans="1:27" ht="13">
+    <row r="565" spans="1:27" ht="13.2">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="14"/>
@@ -18554,7 +18554,7 @@
       <c r="Z565" s="2"/>
       <c r="AA565" s="2"/>
     </row>
-    <row r="566" spans="1:27" ht="13">
+    <row r="566" spans="1:27" ht="13.2">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="14"/>
@@ -18583,7 +18583,7 @@
       <c r="Z566" s="2"/>
       <c r="AA566" s="2"/>
     </row>
-    <row r="567" spans="1:27" ht="13">
+    <row r="567" spans="1:27" ht="13.2">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="14"/>
@@ -18612,7 +18612,7 @@
       <c r="Z567" s="2"/>
       <c r="AA567" s="2"/>
     </row>
-    <row r="568" spans="1:27" ht="13">
+    <row r="568" spans="1:27" ht="13.2">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="14"/>
@@ -18641,7 +18641,7 @@
       <c r="Z568" s="2"/>
       <c r="AA568" s="2"/>
     </row>
-    <row r="569" spans="1:27" ht="13">
+    <row r="569" spans="1:27" ht="13.2">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="14"/>
@@ -18670,7 +18670,7 @@
       <c r="Z569" s="2"/>
       <c r="AA569" s="2"/>
     </row>
-    <row r="570" spans="1:27" ht="13">
+    <row r="570" spans="1:27" ht="13.2">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="14"/>
@@ -18699,7 +18699,7 @@
       <c r="Z570" s="2"/>
       <c r="AA570" s="2"/>
     </row>
-    <row r="571" spans="1:27" ht="13">
+    <row r="571" spans="1:27" ht="13.2">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="14"/>
@@ -18728,7 +18728,7 @@
       <c r="Z571" s="2"/>
       <c r="AA571" s="2"/>
     </row>
-    <row r="572" spans="1:27" ht="13">
+    <row r="572" spans="1:27" ht="13.2">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="14"/>
@@ -18757,7 +18757,7 @@
       <c r="Z572" s="2"/>
       <c r="AA572" s="2"/>
     </row>
-    <row r="573" spans="1:27" ht="13">
+    <row r="573" spans="1:27" ht="13.2">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="14"/>
@@ -18786,7 +18786,7 @@
       <c r="Z573" s="2"/>
       <c r="AA573" s="2"/>
     </row>
-    <row r="574" spans="1:27" ht="13">
+    <row r="574" spans="1:27" ht="13.2">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="14"/>
@@ -18815,7 +18815,7 @@
       <c r="Z574" s="2"/>
       <c r="AA574" s="2"/>
     </row>
-    <row r="575" spans="1:27" ht="13">
+    <row r="575" spans="1:27" ht="13.2">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="14"/>
@@ -18844,7 +18844,7 @@
       <c r="Z575" s="2"/>
       <c r="AA575" s="2"/>
     </row>
-    <row r="576" spans="1:27" ht="13">
+    <row r="576" spans="1:27" ht="13.2">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="14"/>
@@ -18873,7 +18873,7 @@
       <c r="Z576" s="2"/>
       <c r="AA576" s="2"/>
     </row>
-    <row r="577" spans="1:27" ht="13">
+    <row r="577" spans="1:27" ht="13.2">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="14"/>
@@ -18902,7 +18902,7 @@
       <c r="Z577" s="2"/>
       <c r="AA577" s="2"/>
     </row>
-    <row r="578" spans="1:27" ht="13">
+    <row r="578" spans="1:27" ht="13.2">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="14"/>
@@ -18931,7 +18931,7 @@
       <c r="Z578" s="2"/>
       <c r="AA578" s="2"/>
     </row>
-    <row r="579" spans="1:27" ht="13">
+    <row r="579" spans="1:27" ht="13.2">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="14"/>
@@ -18960,7 +18960,7 @@
       <c r="Z579" s="2"/>
       <c r="AA579" s="2"/>
     </row>
-    <row r="580" spans="1:27" ht="13">
+    <row r="580" spans="1:27" ht="13.2">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="14"/>
@@ -18989,7 +18989,7 @@
       <c r="Z580" s="2"/>
       <c r="AA580" s="2"/>
     </row>
-    <row r="581" spans="1:27" ht="13">
+    <row r="581" spans="1:27" ht="13.2">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="14"/>
@@ -19018,7 +19018,7 @@
       <c r="Z581" s="2"/>
       <c r="AA581" s="2"/>
     </row>
-    <row r="582" spans="1:27" ht="13">
+    <row r="582" spans="1:27" ht="13.2">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="14"/>
@@ -19047,7 +19047,7 @@
       <c r="Z582" s="2"/>
       <c r="AA582" s="2"/>
     </row>
-    <row r="583" spans="1:27" ht="13">
+    <row r="583" spans="1:27" ht="13.2">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="14"/>
@@ -19076,7 +19076,7 @@
       <c r="Z583" s="2"/>
       <c r="AA583" s="2"/>
     </row>
-    <row r="584" spans="1:27" ht="13">
+    <row r="584" spans="1:27" ht="13.2">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="14"/>
@@ -19105,7 +19105,7 @@
       <c r="Z584" s="2"/>
       <c r="AA584" s="2"/>
     </row>
-    <row r="585" spans="1:27" ht="13">
+    <row r="585" spans="1:27" ht="13.2">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="14"/>
@@ -19134,7 +19134,7 @@
       <c r="Z585" s="2"/>
       <c r="AA585" s="2"/>
     </row>
-    <row r="586" spans="1:27" ht="13">
+    <row r="586" spans="1:27" ht="13.2">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="14"/>
@@ -19163,7 +19163,7 @@
       <c r="Z586" s="2"/>
       <c r="AA586" s="2"/>
     </row>
-    <row r="587" spans="1:27" ht="13">
+    <row r="587" spans="1:27" ht="13.2">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="14"/>
@@ -19192,7 +19192,7 @@
       <c r="Z587" s="2"/>
       <c r="AA587" s="2"/>
     </row>
-    <row r="588" spans="1:27" ht="13">
+    <row r="588" spans="1:27" ht="13.2">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="14"/>
@@ -19221,7 +19221,7 @@
       <c r="Z588" s="2"/>
       <c r="AA588" s="2"/>
     </row>
-    <row r="589" spans="1:27" ht="13">
+    <row r="589" spans="1:27" ht="13.2">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="14"/>
@@ -19250,7 +19250,7 @@
       <c r="Z589" s="2"/>
       <c r="AA589" s="2"/>
     </row>
-    <row r="590" spans="1:27" ht="13">
+    <row r="590" spans="1:27" ht="13.2">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="14"/>
@@ -19279,7 +19279,7 @@
       <c r="Z590" s="2"/>
       <c r="AA590" s="2"/>
     </row>
-    <row r="591" spans="1:27" ht="13">
+    <row r="591" spans="1:27" ht="13.2">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="14"/>
@@ -19308,7 +19308,7 @@
       <c r="Z591" s="2"/>
       <c r="AA591" s="2"/>
     </row>
-    <row r="592" spans="1:27" ht="13">
+    <row r="592" spans="1:27" ht="13.2">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="14"/>
@@ -19337,7 +19337,7 @@
       <c r="Z592" s="2"/>
       <c r="AA592" s="2"/>
     </row>
-    <row r="593" spans="1:27" ht="13">
+    <row r="593" spans="1:27" ht="13.2">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="14"/>
@@ -19366,7 +19366,7 @@
       <c r="Z593" s="2"/>
       <c r="AA593" s="2"/>
     </row>
-    <row r="594" spans="1:27" ht="13">
+    <row r="594" spans="1:27" ht="13.2">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="14"/>
@@ -19395,7 +19395,7 @@
       <c r="Z594" s="2"/>
       <c r="AA594" s="2"/>
     </row>
-    <row r="595" spans="1:27" ht="13">
+    <row r="595" spans="1:27" ht="13.2">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="14"/>
@@ -19424,7 +19424,7 @@
       <c r="Z595" s="2"/>
       <c r="AA595" s="2"/>
     </row>
-    <row r="596" spans="1:27" ht="13">
+    <row r="596" spans="1:27" ht="13.2">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="14"/>
@@ -19453,7 +19453,7 @@
       <c r="Z596" s="2"/>
       <c r="AA596" s="2"/>
     </row>
-    <row r="597" spans="1:27" ht="13">
+    <row r="597" spans="1:27" ht="13.2">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="14"/>
@@ -19482,7 +19482,7 @@
       <c r="Z597" s="2"/>
       <c r="AA597" s="2"/>
     </row>
-    <row r="598" spans="1:27" ht="13">
+    <row r="598" spans="1:27" ht="13.2">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="14"/>
@@ -19511,7 +19511,7 @@
       <c r="Z598" s="2"/>
       <c r="AA598" s="2"/>
     </row>
-    <row r="599" spans="1:27" ht="13">
+    <row r="599" spans="1:27" ht="13.2">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="14"/>
@@ -19540,7 +19540,7 @@
       <c r="Z599" s="2"/>
       <c r="AA599" s="2"/>
     </row>
-    <row r="600" spans="1:27" ht="13">
+    <row r="600" spans="1:27" ht="13.2">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="14"/>
@@ -19569,7 +19569,7 @@
       <c r="Z600" s="2"/>
       <c r="AA600" s="2"/>
     </row>
-    <row r="601" spans="1:27" ht="13">
+    <row r="601" spans="1:27" ht="13.2">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="14"/>
@@ -19598,7 +19598,7 @@
       <c r="Z601" s="2"/>
       <c r="AA601" s="2"/>
     </row>
-    <row r="602" spans="1:27" ht="13">
+    <row r="602" spans="1:27" ht="13.2">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="14"/>
@@ -19627,7 +19627,7 @@
       <c r="Z602" s="2"/>
       <c r="AA602" s="2"/>
     </row>
-    <row r="603" spans="1:27" ht="13">
+    <row r="603" spans="1:27" ht="13.2">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="14"/>
@@ -19656,7 +19656,7 @@
       <c r="Z603" s="2"/>
       <c r="AA603" s="2"/>
     </row>
-    <row r="604" spans="1:27" ht="13">
+    <row r="604" spans="1:27" ht="13.2">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="14"/>
@@ -19685,7 +19685,7 @@
       <c r="Z604" s="2"/>
       <c r="AA604" s="2"/>
     </row>
-    <row r="605" spans="1:27" ht="13">
+    <row r="605" spans="1:27" ht="13.2">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="14"/>
@@ -19714,7 +19714,7 @@
       <c r="Z605" s="2"/>
       <c r="AA605" s="2"/>
     </row>
-    <row r="606" spans="1:27" ht="13">
+    <row r="606" spans="1:27" ht="13.2">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="14"/>
@@ -19743,7 +19743,7 @@
       <c r="Z606" s="2"/>
       <c r="AA606" s="2"/>
     </row>
-    <row r="607" spans="1:27" ht="13">
+    <row r="607" spans="1:27" ht="13.2">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="14"/>
@@ -19772,7 +19772,7 @@
       <c r="Z607" s="2"/>
       <c r="AA607" s="2"/>
     </row>
-    <row r="608" spans="1:27" ht="13">
+    <row r="608" spans="1:27" ht="13.2">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="14"/>
@@ -19801,7 +19801,7 @@
       <c r="Z608" s="2"/>
       <c r="AA608" s="2"/>
     </row>
-    <row r="609" spans="1:27" ht="13">
+    <row r="609" spans="1:27" ht="13.2">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="14"/>
@@ -19830,7 +19830,7 @@
       <c r="Z609" s="2"/>
       <c r="AA609" s="2"/>
     </row>
-    <row r="610" spans="1:27" ht="13">
+    <row r="610" spans="1:27" ht="13.2">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="14"/>
@@ -19859,7 +19859,7 @@
       <c r="Z610" s="2"/>
       <c r="AA610" s="2"/>
     </row>
-    <row r="611" spans="1:27" ht="13">
+    <row r="611" spans="1:27" ht="13.2">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="14"/>
@@ -19888,7 +19888,7 @@
       <c r="Z611" s="2"/>
       <c r="AA611" s="2"/>
     </row>
-    <row r="612" spans="1:27" ht="13">
+    <row r="612" spans="1:27" ht="13.2">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="14"/>
@@ -19917,7 +19917,7 @@
       <c r="Z612" s="2"/>
       <c r="AA612" s="2"/>
     </row>
-    <row r="613" spans="1:27" ht="13">
+    <row r="613" spans="1:27" ht="13.2">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="14"/>
@@ -19946,7 +19946,7 @@
       <c r="Z613" s="2"/>
       <c r="AA613" s="2"/>
     </row>
-    <row r="614" spans="1:27" ht="13">
+    <row r="614" spans="1:27" ht="13.2">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="14"/>
@@ -19975,7 +19975,7 @@
       <c r="Z614" s="2"/>
       <c r="AA614" s="2"/>
     </row>
-    <row r="615" spans="1:27" ht="13">
+    <row r="615" spans="1:27" ht="13.2">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="14"/>
@@ -20004,7 +20004,7 @@
       <c r="Z615" s="2"/>
       <c r="AA615" s="2"/>
     </row>
-    <row r="616" spans="1:27" ht="13">
+    <row r="616" spans="1:27" ht="13.2">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="14"/>
@@ -20033,7 +20033,7 @@
       <c r="Z616" s="2"/>
       <c r="AA616" s="2"/>
     </row>
-    <row r="617" spans="1:27" ht="13">
+    <row r="617" spans="1:27" ht="13.2">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="14"/>
@@ -20062,7 +20062,7 @@
       <c r="Z617" s="2"/>
       <c r="AA617" s="2"/>
     </row>
-    <row r="618" spans="1:27" ht="13">
+    <row r="618" spans="1:27" ht="13.2">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="14"/>
@@ -20091,7 +20091,7 @@
       <c r="Z618" s="2"/>
       <c r="AA618" s="2"/>
     </row>
-    <row r="619" spans="1:27" ht="13">
+    <row r="619" spans="1:27" ht="13.2">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="14"/>
@@ -20120,7 +20120,7 @@
       <c r="Z619" s="2"/>
       <c r="AA619" s="2"/>
     </row>
-    <row r="620" spans="1:27" ht="13">
+    <row r="620" spans="1:27" ht="13.2">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="14"/>
@@ -20149,7 +20149,7 @@
       <c r="Z620" s="2"/>
       <c r="AA620" s="2"/>
     </row>
-    <row r="621" spans="1:27" ht="13">
+    <row r="621" spans="1:27" ht="13.2">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="14"/>
@@ -20178,7 +20178,7 @@
       <c r="Z621" s="2"/>
       <c r="AA621" s="2"/>
     </row>
-    <row r="622" spans="1:27" ht="13">
+    <row r="622" spans="1:27" ht="13.2">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="14"/>
@@ -20207,7 +20207,7 @@
       <c r="Z622" s="2"/>
       <c r="AA622" s="2"/>
     </row>
-    <row r="623" spans="1:27" ht="13">
+    <row r="623" spans="1:27" ht="13.2">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="14"/>
@@ -20236,7 +20236,7 @@
       <c r="Z623" s="2"/>
       <c r="AA623" s="2"/>
     </row>
-    <row r="624" spans="1:27" ht="13">
+    <row r="624" spans="1:27" ht="13.2">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="14"/>
@@ -20265,7 +20265,7 @@
       <c r="Z624" s="2"/>
       <c r="AA624" s="2"/>
     </row>
-    <row r="625" spans="1:27" ht="13">
+    <row r="625" spans="1:27" ht="13.2">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="14"/>
@@ -20294,7 +20294,7 @@
       <c r="Z625" s="2"/>
       <c r="AA625" s="2"/>
     </row>
-    <row r="626" spans="1:27" ht="13">
+    <row r="626" spans="1:27" ht="13.2">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="14"/>
@@ -20323,7 +20323,7 @@
       <c r="Z626" s="2"/>
       <c r="AA626" s="2"/>
     </row>
-    <row r="627" spans="1:27" ht="13">
+    <row r="627" spans="1:27" ht="13.2">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="14"/>
@@ -20352,7 +20352,7 @@
       <c r="Z627" s="2"/>
       <c r="AA627" s="2"/>
     </row>
-    <row r="628" spans="1:27" ht="13">
+    <row r="628" spans="1:27" ht="13.2">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="14"/>
@@ -20381,7 +20381,7 @@
       <c r="Z628" s="2"/>
       <c r="AA628" s="2"/>
     </row>
-    <row r="629" spans="1:27" ht="13">
+    <row r="629" spans="1:27" ht="13.2">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="14"/>
@@ -20410,7 +20410,7 @@
       <c r="Z629" s="2"/>
       <c r="AA629" s="2"/>
     </row>
-    <row r="630" spans="1:27" ht="13">
+    <row r="630" spans="1:27" ht="13.2">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="14"/>
@@ -20439,7 +20439,7 @@
       <c r="Z630" s="2"/>
       <c r="AA630" s="2"/>
     </row>
-    <row r="631" spans="1:27" ht="13">
+    <row r="631" spans="1:27" ht="13.2">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="14"/>
@@ -20468,7 +20468,7 @@
       <c r="Z631" s="2"/>
       <c r="AA631" s="2"/>
     </row>
-    <row r="632" spans="1:27" ht="13">
+    <row r="632" spans="1:27" ht="13.2">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="14"/>
@@ -20497,7 +20497,7 @@
       <c r="Z632" s="2"/>
       <c r="AA632" s="2"/>
     </row>
-    <row r="633" spans="1:27" ht="13">
+    <row r="633" spans="1:27" ht="13.2">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="14"/>
@@ -20526,7 +20526,7 @@
       <c r="Z633" s="2"/>
       <c r="AA633" s="2"/>
     </row>
-    <row r="634" spans="1:27" ht="13">
+    <row r="634" spans="1:27" ht="13.2">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="14"/>
@@ -20555,7 +20555,7 @@
       <c r="Z634" s="2"/>
       <c r="AA634" s="2"/>
     </row>
-    <row r="635" spans="1:27" ht="13">
+    <row r="635" spans="1:27" ht="13.2">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="14"/>
@@ -20584,7 +20584,7 @@
       <c r="Z635" s="2"/>
       <c r="AA635" s="2"/>
     </row>
-    <row r="636" spans="1:27" ht="13">
+    <row r="636" spans="1:27" ht="13.2">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="14"/>
@@ -20613,7 +20613,7 @@
       <c r="Z636" s="2"/>
       <c r="AA636" s="2"/>
     </row>
-    <row r="637" spans="1:27" ht="13">
+    <row r="637" spans="1:27" ht="13.2">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="14"/>
@@ -20642,7 +20642,7 @@
       <c r="Z637" s="2"/>
       <c r="AA637" s="2"/>
     </row>
-    <row r="638" spans="1:27" ht="13">
+    <row r="638" spans="1:27" ht="13.2">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="14"/>
@@ -20671,7 +20671,7 @@
       <c r="Z638" s="2"/>
       <c r="AA638" s="2"/>
     </row>
-    <row r="639" spans="1:27" ht="13">
+    <row r="639" spans="1:27" ht="13.2">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="14"/>
@@ -20700,7 +20700,7 @@
       <c r="Z639" s="2"/>
       <c r="AA639" s="2"/>
     </row>
-    <row r="640" spans="1:27" ht="13">
+    <row r="640" spans="1:27" ht="13.2">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="14"/>
@@ -20729,7 +20729,7 @@
       <c r="Z640" s="2"/>
       <c r="AA640" s="2"/>
     </row>
-    <row r="641" spans="1:27" ht="13">
+    <row r="641" spans="1:27" ht="13.2">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="14"/>
@@ -20758,7 +20758,7 @@
       <c r="Z641" s="2"/>
       <c r="AA641" s="2"/>
     </row>
-    <row r="642" spans="1:27" ht="13">
+    <row r="642" spans="1:27" ht="13.2">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="14"/>
@@ -20787,7 +20787,7 @@
       <c r="Z642" s="2"/>
       <c r="AA642" s="2"/>
     </row>
-    <row r="643" spans="1:27" ht="13">
+    <row r="643" spans="1:27" ht="13.2">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="14"/>
@@ -20816,7 +20816,7 @@
       <c r="Z643" s="2"/>
       <c r="AA643" s="2"/>
     </row>
-    <row r="644" spans="1:27" ht="13">
+    <row r="644" spans="1:27" ht="13.2">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="14"/>
@@ -20845,7 +20845,7 @@
       <c r="Z644" s="2"/>
       <c r="AA644" s="2"/>
     </row>
-    <row r="645" spans="1:27" ht="13">
+    <row r="645" spans="1:27" ht="13.2">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="14"/>
@@ -20874,7 +20874,7 @@
       <c r="Z645" s="2"/>
       <c r="AA645" s="2"/>
     </row>
-    <row r="646" spans="1:27" ht="13">
+    <row r="646" spans="1:27" ht="13.2">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="14"/>
@@ -20903,7 +20903,7 @@
       <c r="Z646" s="2"/>
       <c r="AA646" s="2"/>
     </row>
-    <row r="647" spans="1:27" ht="13">
+    <row r="647" spans="1:27" ht="13.2">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="14"/>
@@ -20932,7 +20932,7 @@
       <c r="Z647" s="2"/>
       <c r="AA647" s="2"/>
     </row>
-    <row r="648" spans="1:27" ht="13">
+    <row r="648" spans="1:27" ht="13.2">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="14"/>
@@ -20961,7 +20961,7 @@
       <c r="Z648" s="2"/>
       <c r="AA648" s="2"/>
     </row>
-    <row r="649" spans="1:27" ht="13">
+    <row r="649" spans="1:27" ht="13.2">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="14"/>
@@ -20990,7 +20990,7 @@
       <c r="Z649" s="2"/>
       <c r="AA649" s="2"/>
     </row>
-    <row r="650" spans="1:27" ht="13">
+    <row r="650" spans="1:27" ht="13.2">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="14"/>
@@ -21019,7 +21019,7 @@
       <c r="Z650" s="2"/>
       <c r="AA650" s="2"/>
     </row>
-    <row r="651" spans="1:27" ht="13">
+    <row r="651" spans="1:27" ht="13.2">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="14"/>
@@ -21048,7 +21048,7 @@
       <c r="Z651" s="2"/>
       <c r="AA651" s="2"/>
     </row>
-    <row r="652" spans="1:27" ht="13">
+    <row r="652" spans="1:27" ht="13.2">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="14"/>
@@ -21077,7 +21077,7 @@
       <c r="Z652" s="2"/>
       <c r="AA652" s="2"/>
     </row>
-    <row r="653" spans="1:27" ht="13">
+    <row r="653" spans="1:27" ht="13.2">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="14"/>
@@ -21106,7 +21106,7 @@
       <c r="Z653" s="2"/>
       <c r="AA653" s="2"/>
     </row>
-    <row r="654" spans="1:27" ht="13">
+    <row r="654" spans="1:27" ht="13.2">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="14"/>
@@ -21135,7 +21135,7 @@
       <c r="Z654" s="2"/>
       <c r="AA654" s="2"/>
     </row>
-    <row r="655" spans="1:27" ht="13">
+    <row r="655" spans="1:27" ht="13.2">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="14"/>
@@ -21164,7 +21164,7 @@
       <c r="Z655" s="2"/>
       <c r="AA655" s="2"/>
     </row>
-    <row r="656" spans="1:27" ht="13">
+    <row r="656" spans="1:27" ht="13.2">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="14"/>
@@ -21193,7 +21193,7 @@
       <c r="Z656" s="2"/>
       <c r="AA656" s="2"/>
     </row>
-    <row r="657" spans="1:27" ht="13">
+    <row r="657" spans="1:27" ht="13.2">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="14"/>
@@ -21222,7 +21222,7 @@
       <c r="Z657" s="2"/>
       <c r="AA657" s="2"/>
     </row>
-    <row r="658" spans="1:27" ht="13">
+    <row r="658" spans="1:27" ht="13.2">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="14"/>
@@ -21251,7 +21251,7 @@
       <c r="Z658" s="2"/>
       <c r="AA658" s="2"/>
     </row>
-    <row r="659" spans="1:27" ht="13">
+    <row r="659" spans="1:27" ht="13.2">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="14"/>
@@ -21280,7 +21280,7 @@
       <c r="Z659" s="2"/>
       <c r="AA659" s="2"/>
     </row>
-    <row r="660" spans="1:27" ht="13">
+    <row r="660" spans="1:27" ht="13.2">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="14"/>
@@ -21309,7 +21309,7 @@
       <c r="Z660" s="2"/>
       <c r="AA660" s="2"/>
     </row>
-    <row r="661" spans="1:27" ht="13">
+    <row r="661" spans="1:27" ht="13.2">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="14"/>
@@ -21338,7 +21338,7 @@
       <c r="Z661" s="2"/>
       <c r="AA661" s="2"/>
     </row>
-    <row r="662" spans="1:27" ht="13">
+    <row r="662" spans="1:27" ht="13.2">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="14"/>
@@ -21367,7 +21367,7 @@
       <c r="Z662" s="2"/>
       <c r="AA662" s="2"/>
     </row>
-    <row r="663" spans="1:27" ht="13">
+    <row r="663" spans="1:27" ht="13.2">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="14"/>
@@ -21396,7 +21396,7 @@
       <c r="Z663" s="2"/>
       <c r="AA663" s="2"/>
     </row>
-    <row r="664" spans="1:27" ht="13">
+    <row r="664" spans="1:27" ht="13.2">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="14"/>
@@ -21425,7 +21425,7 @@
       <c r="Z664" s="2"/>
       <c r="AA664" s="2"/>
     </row>
-    <row r="665" spans="1:27" ht="13">
+    <row r="665" spans="1:27" ht="13.2">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="14"/>
@@ -21454,7 +21454,7 @@
       <c r="Z665" s="2"/>
       <c r="AA665" s="2"/>
     </row>
-    <row r="666" spans="1:27" ht="13">
+    <row r="666" spans="1:27" ht="13.2">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="14"/>
@@ -21483,7 +21483,7 @@
       <c r="Z666" s="2"/>
       <c r="AA666" s="2"/>
     </row>
-    <row r="667" spans="1:27" ht="13">
+    <row r="667" spans="1:27" ht="13.2">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="14"/>
@@ -21512,7 +21512,7 @@
       <c r="Z667" s="2"/>
       <c r="AA667" s="2"/>
     </row>
-    <row r="668" spans="1:27" ht="13">
+    <row r="668" spans="1:27" ht="13.2">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="14"/>
@@ -21541,7 +21541,7 @@
       <c r="Z668" s="2"/>
       <c r="AA668" s="2"/>
     </row>
-    <row r="669" spans="1:27" ht="13">
+    <row r="669" spans="1:27" ht="13.2">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="14"/>
@@ -21570,7 +21570,7 @@
       <c r="Z669" s="2"/>
       <c r="AA669" s="2"/>
     </row>
-    <row r="670" spans="1:27" ht="13">
+    <row r="670" spans="1:27" ht="13.2">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="14"/>
@@ -21599,7 +21599,7 @@
       <c r="Z670" s="2"/>
       <c r="AA670" s="2"/>
     </row>
-    <row r="671" spans="1:27" ht="13">
+    <row r="671" spans="1:27" ht="13.2">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="14"/>
@@ -21628,7 +21628,7 @@
       <c r="Z671" s="2"/>
       <c r="AA671" s="2"/>
     </row>
-    <row r="672" spans="1:27" ht="13">
+    <row r="672" spans="1:27" ht="13.2">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="14"/>
@@ -21657,7 +21657,7 @@
       <c r="Z672" s="2"/>
       <c r="AA672" s="2"/>
     </row>
-    <row r="673" spans="1:27" ht="13">
+    <row r="673" spans="1:27" ht="13.2">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="14"/>
@@ -21686,7 +21686,7 @@
       <c r="Z673" s="2"/>
       <c r="AA673" s="2"/>
     </row>
-    <row r="674" spans="1:27" ht="13">
+    <row r="674" spans="1:27" ht="13.2">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="14"/>
@@ -21715,7 +21715,7 @@
       <c r="Z674" s="2"/>
       <c r="AA674" s="2"/>
     </row>
-    <row r="675" spans="1:27" ht="13">
+    <row r="675" spans="1:27" ht="13.2">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="14"/>
@@ -21744,7 +21744,7 @@
       <c r="Z675" s="2"/>
       <c r="AA675" s="2"/>
     </row>
-    <row r="676" spans="1:27" ht="13">
+    <row r="676" spans="1:27" ht="13.2">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="14"/>
@@ -21773,7 +21773,7 @@
       <c r="Z676" s="2"/>
       <c r="AA676" s="2"/>
     </row>
-    <row r="677" spans="1:27" ht="13">
+    <row r="677" spans="1:27" ht="13.2">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="14"/>
@@ -21802,7 +21802,7 @@
       <c r="Z677" s="2"/>
       <c r="AA677" s="2"/>
     </row>
-    <row r="678" spans="1:27" ht="13">
+    <row r="678" spans="1:27" ht="13.2">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="14"/>
@@ -21831,7 +21831,7 @@
       <c r="Z678" s="2"/>
       <c r="AA678" s="2"/>
     </row>
-    <row r="679" spans="1:27" ht="13">
+    <row r="679" spans="1:27" ht="13.2">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="14"/>
@@ -21860,7 +21860,7 @@
       <c r="Z679" s="2"/>
       <c r="AA679" s="2"/>
     </row>
-    <row r="680" spans="1:27" ht="13">
+    <row r="680" spans="1:27" ht="13.2">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="14"/>
@@ -21889,7 +21889,7 @@
       <c r="Z680" s="2"/>
       <c r="AA680" s="2"/>
     </row>
-    <row r="681" spans="1:27" ht="13">
+    <row r="681" spans="1:27" ht="13.2">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="14"/>
@@ -21918,7 +21918,7 @@
       <c r="Z681" s="2"/>
       <c r="AA681" s="2"/>
     </row>
-    <row r="682" spans="1:27" ht="13">
+    <row r="682" spans="1:27" ht="13.2">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="14"/>
@@ -21947,7 +21947,7 @@
       <c r="Z682" s="2"/>
       <c r="AA682" s="2"/>
     </row>
-    <row r="683" spans="1:27" ht="13">
+    <row r="683" spans="1:27" ht="13.2">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="14"/>
@@ -21976,7 +21976,7 @@
       <c r="Z683" s="2"/>
       <c r="AA683" s="2"/>
     </row>
-    <row r="684" spans="1:27" ht="13">
+    <row r="684" spans="1:27" ht="13.2">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="14"/>
@@ -22005,7 +22005,7 @@
       <c r="Z684" s="2"/>
       <c r="AA684" s="2"/>
     </row>
-    <row r="685" spans="1:27" ht="13">
+    <row r="685" spans="1:27" ht="13.2">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="14"/>
@@ -22034,7 +22034,7 @@
       <c r="Z685" s="2"/>
       <c r="AA685" s="2"/>
     </row>
-    <row r="686" spans="1:27" ht="13">
+    <row r="686" spans="1:27" ht="13.2">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="14"/>
@@ -22063,7 +22063,7 @@
       <c r="Z686" s="2"/>
       <c r="AA686" s="2"/>
     </row>
-    <row r="687" spans="1:27" ht="13">
+    <row r="687" spans="1:27" ht="13.2">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="14"/>
@@ -22092,7 +22092,7 @@
       <c r="Z687" s="2"/>
       <c r="AA687" s="2"/>
     </row>
-    <row r="688" spans="1:27" ht="13">
+    <row r="688" spans="1:27" ht="13.2">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="14"/>
@@ -22121,7 +22121,7 @@
       <c r="Z688" s="2"/>
       <c r="AA688" s="2"/>
     </row>
-    <row r="689" spans="1:27" ht="13">
+    <row r="689" spans="1:27" ht="13.2">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="14"/>
@@ -22150,7 +22150,7 @@
       <c r="Z689" s="2"/>
       <c r="AA689" s="2"/>
     </row>
-    <row r="690" spans="1:27" ht="13">
+    <row r="690" spans="1:27" ht="13.2">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="14"/>
@@ -22179,7 +22179,7 @@
       <c r="Z690" s="2"/>
       <c r="AA690" s="2"/>
     </row>
-    <row r="691" spans="1:27" ht="13">
+    <row r="691" spans="1:27" ht="13.2">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="14"/>
@@ -22208,7 +22208,7 @@
       <c r="Z691" s="2"/>
       <c r="AA691" s="2"/>
     </row>
-    <row r="692" spans="1:27" ht="13">
+    <row r="692" spans="1:27" ht="13.2">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="14"/>
@@ -22237,7 +22237,7 @@
       <c r="Z692" s="2"/>
       <c r="AA692" s="2"/>
     </row>
-    <row r="693" spans="1:27" ht="13">
+    <row r="693" spans="1:27" ht="13.2">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="14"/>
@@ -22266,7 +22266,7 @@
       <c r="Z693" s="2"/>
       <c r="AA693" s="2"/>
     </row>
-    <row r="694" spans="1:27" ht="13">
+    <row r="694" spans="1:27" ht="13.2">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="14"/>
@@ -22295,7 +22295,7 @@
       <c r="Z694" s="2"/>
       <c r="AA694" s="2"/>
     </row>
-    <row r="695" spans="1:27" ht="13">
+    <row r="695" spans="1:27" ht="13.2">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="14"/>
@@ -22324,7 +22324,7 @@
       <c r="Z695" s="2"/>
       <c r="AA695" s="2"/>
     </row>
-    <row r="696" spans="1:27" ht="13">
+    <row r="696" spans="1:27" ht="13.2">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="14"/>
@@ -22353,7 +22353,7 @@
       <c r="Z696" s="2"/>
       <c r="AA696" s="2"/>
     </row>
-    <row r="697" spans="1:27" ht="13">
+    <row r="697" spans="1:27" ht="13.2">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="14"/>
@@ -22382,7 +22382,7 @@
       <c r="Z697" s="2"/>
       <c r="AA697" s="2"/>
     </row>
-    <row r="698" spans="1:27" ht="13">
+    <row r="698" spans="1:27" ht="13.2">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="14"/>
@@ -22411,7 +22411,7 @@
       <c r="Z698" s="2"/>
       <c r="AA698" s="2"/>
     </row>
-    <row r="699" spans="1:27" ht="13">
+    <row r="699" spans="1:27" ht="13.2">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="14"/>
@@ -22440,7 +22440,7 @@
       <c r="Z699" s="2"/>
       <c r="AA699" s="2"/>
     </row>
-    <row r="700" spans="1:27" ht="13">
+    <row r="700" spans="1:27" ht="13.2">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="14"/>
@@ -22469,7 +22469,7 @@
       <c r="Z700" s="2"/>
       <c r="AA700" s="2"/>
     </row>
-    <row r="701" spans="1:27" ht="13">
+    <row r="701" spans="1:27" ht="13.2">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="14"/>
@@ -22498,7 +22498,7 @@
       <c r="Z701" s="2"/>
       <c r="AA701" s="2"/>
     </row>
-    <row r="702" spans="1:27" ht="13">
+    <row r="702" spans="1:27" ht="13.2">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="14"/>
@@ -22527,7 +22527,7 @@
       <c r="Z702" s="2"/>
       <c r="AA702" s="2"/>
     </row>
-    <row r="703" spans="1:27" ht="13">
+    <row r="703" spans="1:27" ht="13.2">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="14"/>
@@ -22556,7 +22556,7 @@
       <c r="Z703" s="2"/>
       <c r="AA703" s="2"/>
     </row>
-    <row r="704" spans="1:27" ht="13">
+    <row r="704" spans="1:27" ht="13.2">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="14"/>
@@ -22585,7 +22585,7 @@
       <c r="Z704" s="2"/>
       <c r="AA704" s="2"/>
     </row>
-    <row r="705" spans="1:27" ht="13">
+    <row r="705" spans="1:27" ht="13.2">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="14"/>
@@ -22614,7 +22614,7 @@
       <c r="Z705" s="2"/>
       <c r="AA705" s="2"/>
     </row>
-    <row r="706" spans="1:27" ht="13">
+    <row r="706" spans="1:27" ht="13.2">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="14"/>
@@ -22643,7 +22643,7 @@
       <c r="Z706" s="2"/>
       <c r="AA706" s="2"/>
     </row>
-    <row r="707" spans="1:27" ht="13">
+    <row r="707" spans="1:27" ht="13.2">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="14"/>
@@ -22672,7 +22672,7 @@
       <c r="Z707" s="2"/>
       <c r="AA707" s="2"/>
     </row>
-    <row r="708" spans="1:27" ht="13">
+    <row r="708" spans="1:27" ht="13.2">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="14"/>
@@ -22701,7 +22701,7 @@
       <c r="Z708" s="2"/>
       <c r="AA708" s="2"/>
     </row>
-    <row r="709" spans="1:27" ht="13">
+    <row r="709" spans="1:27" ht="13.2">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="14"/>
@@ -22730,7 +22730,7 @@
       <c r="Z709" s="2"/>
       <c r="AA709" s="2"/>
     </row>
-    <row r="710" spans="1:27" ht="13">
+    <row r="710" spans="1:27" ht="13.2">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="14"/>
@@ -22759,7 +22759,7 @@
       <c r="Z710" s="2"/>
       <c r="AA710" s="2"/>
     </row>
-    <row r="711" spans="1:27" ht="13">
+    <row r="711" spans="1:27" ht="13.2">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="14"/>
@@ -22788,7 +22788,7 @@
       <c r="Z711" s="2"/>
       <c r="AA711" s="2"/>
     </row>
-    <row r="712" spans="1:27" ht="13">
+    <row r="712" spans="1:27" ht="13.2">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="14"/>
@@ -22817,7 +22817,7 @@
       <c r="Z712" s="2"/>
       <c r="AA712" s="2"/>
     </row>
-    <row r="713" spans="1:27" ht="13">
+    <row r="713" spans="1:27" ht="13.2">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="14"/>
@@ -22846,7 +22846,7 @@
       <c r="Z713" s="2"/>
       <c r="AA713" s="2"/>
     </row>
-    <row r="714" spans="1:27" ht="13">
+    <row r="714" spans="1:27" ht="13.2">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="14"/>
@@ -22875,7 +22875,7 @@
       <c r="Z714" s="2"/>
       <c r="AA714" s="2"/>
     </row>
-    <row r="715" spans="1:27" ht="13">
+    <row r="715" spans="1:27" ht="13.2">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="14"/>
@@ -22904,7 +22904,7 @@
       <c r="Z715" s="2"/>
       <c r="AA715" s="2"/>
     </row>
-    <row r="716" spans="1:27" ht="13">
+    <row r="716" spans="1:27" ht="13.2">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="14"/>
@@ -22933,7 +22933,7 @@
       <c r="Z716" s="2"/>
       <c r="AA716" s="2"/>
     </row>
-    <row r="717" spans="1:27" ht="13">
+    <row r="717" spans="1:27" ht="13.2">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="14"/>
@@ -22962,7 +22962,7 @@
       <c r="Z717" s="2"/>
       <c r="AA717" s="2"/>
     </row>
-    <row r="718" spans="1:27" ht="13">
+    <row r="718" spans="1:27" ht="13.2">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="14"/>
@@ -22991,7 +22991,7 @@
       <c r="Z718" s="2"/>
       <c r="AA718" s="2"/>
     </row>
-    <row r="719" spans="1:27" ht="13">
+    <row r="719" spans="1:27" ht="13.2">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="14"/>
@@ -23020,7 +23020,7 @@
       <c r="Z719" s="2"/>
       <c r="AA719" s="2"/>
     </row>
-    <row r="720" spans="1:27" ht="13">
+    <row r="720" spans="1:27" ht="13.2">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="14"/>
@@ -23049,7 +23049,7 @@
       <c r="Z720" s="2"/>
       <c r="AA720" s="2"/>
     </row>
-    <row r="721" spans="1:27" ht="13">
+    <row r="721" spans="1:27" ht="13.2">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="14"/>
@@ -23078,7 +23078,7 @@
       <c r="Z721" s="2"/>
       <c r="AA721" s="2"/>
     </row>
-    <row r="722" spans="1:27" ht="13">
+    <row r="722" spans="1:27" ht="13.2">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="14"/>
@@ -23107,7 +23107,7 @@
       <c r="Z722" s="2"/>
       <c r="AA722" s="2"/>
     </row>
-    <row r="723" spans="1:27" ht="13">
+    <row r="723" spans="1:27" ht="13.2">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="14"/>
@@ -23136,7 +23136,7 @@
       <c r="Z723" s="2"/>
       <c r="AA723" s="2"/>
     </row>
-    <row r="724" spans="1:27" ht="13">
+    <row r="724" spans="1:27" ht="13.2">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="14"/>
@@ -23165,7 +23165,7 @@
       <c r="Z724" s="2"/>
       <c r="AA724" s="2"/>
     </row>
-    <row r="725" spans="1:27" ht="13">
+    <row r="725" spans="1:27" ht="13.2">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="14"/>
@@ -23194,7 +23194,7 @@
       <c r="Z725" s="2"/>
       <c r="AA725" s="2"/>
     </row>
-    <row r="726" spans="1:27" ht="13">
+    <row r="726" spans="1:27" ht="13.2">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="14"/>
@@ -23223,7 +23223,7 @@
       <c r="Z726" s="2"/>
       <c r="AA726" s="2"/>
     </row>
-    <row r="727" spans="1:27" ht="13">
+    <row r="727" spans="1:27" ht="13.2">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="14"/>
@@ -23252,7 +23252,7 @@
       <c r="Z727" s="2"/>
       <c r="AA727" s="2"/>
     </row>
-    <row r="728" spans="1:27" ht="13">
+    <row r="728" spans="1:27" ht="13.2">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="14"/>
@@ -23281,7 +23281,7 @@
       <c r="Z728" s="2"/>
       <c r="AA728" s="2"/>
     </row>
-    <row r="729" spans="1:27" ht="13">
+    <row r="729" spans="1:27" ht="13.2">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="14"/>
@@ -23310,7 +23310,7 @@
       <c r="Z729" s="2"/>
       <c r="AA729" s="2"/>
     </row>
-    <row r="730" spans="1:27" ht="13">
+    <row r="730" spans="1:27" ht="13.2">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="14"/>
@@ -23339,7 +23339,7 @@
       <c r="Z730" s="2"/>
       <c r="AA730" s="2"/>
     </row>
-    <row r="731" spans="1:27" ht="13">
+    <row r="731" spans="1:27" ht="13.2">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="14"/>
@@ -23368,7 +23368,7 @@
       <c r="Z731" s="2"/>
       <c r="AA731" s="2"/>
     </row>
-    <row r="732" spans="1:27" ht="13">
+    <row r="732" spans="1:27" ht="13.2">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="14"/>
@@ -23397,7 +23397,7 @@
       <c r="Z732" s="2"/>
       <c r="AA732" s="2"/>
     </row>
-    <row r="733" spans="1:27" ht="13">
+    <row r="733" spans="1:27" ht="13.2">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="14"/>
@@ -23426,7 +23426,7 @@
       <c r="Z733" s="2"/>
       <c r="AA733" s="2"/>
     </row>
-    <row r="734" spans="1:27" ht="13">
+    <row r="734" spans="1:27" ht="13.2">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="14"/>
@@ -23455,7 +23455,7 @@
       <c r="Z734" s="2"/>
       <c r="AA734" s="2"/>
     </row>
-    <row r="735" spans="1:27" ht="13">
+    <row r="735" spans="1:27" ht="13.2">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="14"/>
@@ -23484,7 +23484,7 @@
       <c r="Z735" s="2"/>
       <c r="AA735" s="2"/>
     </row>
-    <row r="736" spans="1:27" ht="13">
+    <row r="736" spans="1:27" ht="13.2">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="14"/>
@@ -23513,7 +23513,7 @@
       <c r="Z736" s="2"/>
       <c r="AA736" s="2"/>
     </row>
-    <row r="737" spans="1:27" ht="13">
+    <row r="737" spans="1:27" ht="13.2">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="14"/>
@@ -23542,7 +23542,7 @@
       <c r="Z737" s="2"/>
       <c r="AA737" s="2"/>
     </row>
-    <row r="738" spans="1:27" ht="13">
+    <row r="738" spans="1:27" ht="13.2">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="14"/>
@@ -23571,7 +23571,7 @@
       <c r="Z738" s="2"/>
       <c r="AA738" s="2"/>
     </row>
-    <row r="739" spans="1:27" ht="13">
+    <row r="739" spans="1:27" ht="13.2">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="14"/>
@@ -23600,7 +23600,7 @@
       <c r="Z739" s="2"/>
       <c r="AA739" s="2"/>
     </row>
-    <row r="740" spans="1:27" ht="13">
+    <row r="740" spans="1:27" ht="13.2">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="14"/>
@@ -23629,7 +23629,7 @@
       <c r="Z740" s="2"/>
       <c r="AA740" s="2"/>
     </row>
-    <row r="741" spans="1:27" ht="13">
+    <row r="741" spans="1:27" ht="13.2">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="14"/>
@@ -23658,7 +23658,7 @@
       <c r="Z741" s="2"/>
       <c r="AA741" s="2"/>
     </row>
-    <row r="742" spans="1:27" ht="13">
+    <row r="742" spans="1:27" ht="13.2">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="14"/>
@@ -23687,7 +23687,7 @@
       <c r="Z742" s="2"/>
       <c r="AA742" s="2"/>
     </row>
-    <row r="743" spans="1:27" ht="13">
+    <row r="743" spans="1:27" ht="13.2">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="14"/>
@@ -23716,7 +23716,7 @@
       <c r="Z743" s="2"/>
       <c r="AA743" s="2"/>
     </row>
-    <row r="744" spans="1:27" ht="13">
+    <row r="744" spans="1:27" ht="13.2">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="14"/>
@@ -23745,7 +23745,7 @@
       <c r="Z744" s="2"/>
       <c r="AA744" s="2"/>
     </row>
-    <row r="745" spans="1:27" ht="13">
+    <row r="745" spans="1:27" ht="13.2">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="14"/>
@@ -23774,7 +23774,7 @@
       <c r="Z745" s="2"/>
       <c r="AA745" s="2"/>
     </row>
-    <row r="746" spans="1:27" ht="13">
+    <row r="746" spans="1:27" ht="13.2">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="14"/>
@@ -23803,7 +23803,7 @@
       <c r="Z746" s="2"/>
       <c r="AA746" s="2"/>
     </row>
-    <row r="747" spans="1:27" ht="13">
+    <row r="747" spans="1:27" ht="13.2">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="14"/>
@@ -23832,7 +23832,7 @@
       <c r="Z747" s="2"/>
       <c r="AA747" s="2"/>
     </row>
-    <row r="748" spans="1:27" ht="13">
+    <row r="748" spans="1:27" ht="13.2">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="14"/>
@@ -23861,7 +23861,7 @@
       <c r="Z748" s="2"/>
       <c r="AA748" s="2"/>
     </row>
-    <row r="749" spans="1:27" ht="13">
+    <row r="749" spans="1:27" ht="13.2">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="14"/>
@@ -23890,7 +23890,7 @@
       <c r="Z749" s="2"/>
       <c r="AA749" s="2"/>
     </row>
-    <row r="750" spans="1:27" ht="13">
+    <row r="750" spans="1:27" ht="13.2">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="14"/>
@@ -23919,7 +23919,7 @@
       <c r="Z750" s="2"/>
       <c r="AA750" s="2"/>
     </row>
-    <row r="751" spans="1:27" ht="13">
+    <row r="751" spans="1:27" ht="13.2">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="14"/>
@@ -23948,7 +23948,7 @@
       <c r="Z751" s="2"/>
       <c r="AA751" s="2"/>
     </row>
-    <row r="752" spans="1:27" ht="13">
+    <row r="752" spans="1:27" ht="13.2">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="14"/>
@@ -23977,7 +23977,7 @@
       <c r="Z752" s="2"/>
       <c r="AA752" s="2"/>
     </row>
-    <row r="753" spans="1:27" ht="13">
+    <row r="753" spans="1:27" ht="13.2">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="14"/>
@@ -24006,7 +24006,7 @@
       <c r="Z753" s="2"/>
       <c r="AA753" s="2"/>
     </row>
-    <row r="754" spans="1:27" ht="13">
+    <row r="754" spans="1:27" ht="13.2">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="14"/>
@@ -24035,7 +24035,7 @@
       <c r="Z754" s="2"/>
       <c r="AA754" s="2"/>
     </row>
-    <row r="755" spans="1:27" ht="13">
+    <row r="755" spans="1:27" ht="13.2">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="14"/>
@@ -24064,7 +24064,7 @@
       <c r="Z755" s="2"/>
       <c r="AA755" s="2"/>
     </row>
-    <row r="756" spans="1:27" ht="13">
+    <row r="756" spans="1:27" ht="13.2">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="14"/>
@@ -24093,7 +24093,7 @@
       <c r="Z756" s="2"/>
       <c r="AA756" s="2"/>
     </row>
-    <row r="757" spans="1:27" ht="13">
+    <row r="757" spans="1:27" ht="13.2">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="14"/>
@@ -24122,7 +24122,7 @@
       <c r="Z757" s="2"/>
       <c r="AA757" s="2"/>
     </row>
-    <row r="758" spans="1:27" ht="13">
+    <row r="758" spans="1:27" ht="13.2">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="14"/>
@@ -24151,7 +24151,7 @@
       <c r="Z758" s="2"/>
       <c r="AA758" s="2"/>
     </row>
-    <row r="759" spans="1:27" ht="13">
+    <row r="759" spans="1:27" ht="13.2">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="14"/>
@@ -24180,7 +24180,7 @@
       <c r="Z759" s="2"/>
       <c r="AA759" s="2"/>
     </row>
-    <row r="760" spans="1:27" ht="13">
+    <row r="760" spans="1:27" ht="13.2">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="14"/>
@@ -24209,7 +24209,7 @@
       <c r="Z760" s="2"/>
       <c r="AA760" s="2"/>
     </row>
-    <row r="761" spans="1:27" ht="13">
+    <row r="761" spans="1:27" ht="13.2">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="14"/>
@@ -24238,7 +24238,7 @@
       <c r="Z761" s="2"/>
       <c r="AA761" s="2"/>
     </row>
-    <row r="762" spans="1:27" ht="13">
+    <row r="762" spans="1:27" ht="13.2">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="14"/>
@@ -24267,7 +24267,7 @@
       <c r="Z762" s="2"/>
       <c r="AA762" s="2"/>
     </row>
-    <row r="763" spans="1:27" ht="13">
+    <row r="763" spans="1:27" ht="13.2">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="14"/>
@@ -24296,7 +24296,7 @@
       <c r="Z763" s="2"/>
       <c r="AA763" s="2"/>
     </row>
-    <row r="764" spans="1:27" ht="13">
+    <row r="764" spans="1:27" ht="13.2">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="14"/>
@@ -24325,7 +24325,7 @@
       <c r="Z764" s="2"/>
       <c r="AA764" s="2"/>
     </row>
-    <row r="765" spans="1:27" ht="13">
+    <row r="765" spans="1:27" ht="13.2">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="14"/>
@@ -24354,7 +24354,7 @@
       <c r="Z765" s="2"/>
       <c r="AA765" s="2"/>
     </row>
-    <row r="766" spans="1:27" ht="13">
+    <row r="766" spans="1:27" ht="13.2">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="14"/>
@@ -24383,7 +24383,7 @@
       <c r="Z766" s="2"/>
       <c r="AA766" s="2"/>
     </row>
-    <row r="767" spans="1:27" ht="13">
+    <row r="767" spans="1:27" ht="13.2">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="14"/>
@@ -24412,7 +24412,7 @@
       <c r="Z767" s="2"/>
       <c r="AA767" s="2"/>
     </row>
-    <row r="768" spans="1:27" ht="13">
+    <row r="768" spans="1:27" ht="13.2">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="14"/>
@@ -24441,7 +24441,7 @@
       <c r="Z768" s="2"/>
       <c r="AA768" s="2"/>
     </row>
-    <row r="769" spans="1:27" ht="13">
+    <row r="769" spans="1:27" ht="13.2">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="14"/>
@@ -24470,7 +24470,7 @@
       <c r="Z769" s="2"/>
       <c r="AA769" s="2"/>
     </row>
-    <row r="770" spans="1:27" ht="13">
+    <row r="770" spans="1:27" ht="13.2">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="14"/>
@@ -24499,7 +24499,7 @@
       <c r="Z770" s="2"/>
       <c r="AA770" s="2"/>
     </row>
-    <row r="771" spans="1:27" ht="13">
+    <row r="771" spans="1:27" ht="13.2">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="14"/>
@@ -24528,7 +24528,7 @@
       <c r="Z771" s="2"/>
       <c r="AA771" s="2"/>
     </row>
-    <row r="772" spans="1:27" ht="13">
+    <row r="772" spans="1:27" ht="13.2">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="14"/>
@@ -24557,7 +24557,7 @@
       <c r="Z772" s="2"/>
       <c r="AA772" s="2"/>
     </row>
-    <row r="773" spans="1:27" ht="13">
+    <row r="773" spans="1:27" ht="13.2">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="14"/>
@@ -24586,7 +24586,7 @@
       <c r="Z773" s="2"/>
       <c r="AA773" s="2"/>
     </row>
-    <row r="774" spans="1:27" ht="13">
+    <row r="774" spans="1:27" ht="13.2">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="14"/>
@@ -24615,7 +24615,7 @@
       <c r="Z774" s="2"/>
       <c r="AA774" s="2"/>
     </row>
-    <row r="775" spans="1:27" ht="13">
+    <row r="775" spans="1:27" ht="13.2">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="14"/>
@@ -24644,7 +24644,7 @@
       <c r="Z775" s="2"/>
       <c r="AA775" s="2"/>
     </row>
-    <row r="776" spans="1:27" ht="13">
+    <row r="776" spans="1:27" ht="13.2">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="14"/>
@@ -24673,7 +24673,7 @@
       <c r="Z776" s="2"/>
       <c r="AA776" s="2"/>
     </row>
-    <row r="777" spans="1:27" ht="13">
+    <row r="777" spans="1:27" ht="13.2">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="14"/>
@@ -24702,7 +24702,7 @@
       <c r="Z777" s="2"/>
       <c r="AA777" s="2"/>
     </row>
-    <row r="778" spans="1:27" ht="13">
+    <row r="778" spans="1:27" ht="13.2">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="14"/>
@@ -24731,7 +24731,7 @@
       <c r="Z778" s="2"/>
       <c r="AA778" s="2"/>
     </row>
-    <row r="779" spans="1:27" ht="13">
+    <row r="779" spans="1:27" ht="13.2">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="14"/>
@@ -24760,7 +24760,7 @@
       <c r="Z779" s="2"/>
       <c r="AA779" s="2"/>
     </row>
-    <row r="780" spans="1:27" ht="13">
+    <row r="780" spans="1:27" ht="13.2">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="14"/>
@@ -24789,7 +24789,7 @@
       <c r="Z780" s="2"/>
       <c r="AA780" s="2"/>
     </row>
-    <row r="781" spans="1:27" ht="13">
+    <row r="781" spans="1:27" ht="13.2">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="14"/>
@@ -24818,7 +24818,7 @@
       <c r="Z781" s="2"/>
       <c r="AA781" s="2"/>
     </row>
-    <row r="782" spans="1:27" ht="13">
+    <row r="782" spans="1:27" ht="13.2">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="14"/>
@@ -24847,7 +24847,7 @@
       <c r="Z782" s="2"/>
       <c r="AA782" s="2"/>
     </row>
-    <row r="783" spans="1:27" ht="13">
+    <row r="783" spans="1:27" ht="13.2">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="14"/>
@@ -24876,7 +24876,7 @@
       <c r="Z783" s="2"/>
       <c r="AA783" s="2"/>
     </row>
-    <row r="784" spans="1:27" ht="13">
+    <row r="784" spans="1:27" ht="13.2">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="14"/>
@@ -24905,7 +24905,7 @@
       <c r="Z784" s="2"/>
       <c r="AA784" s="2"/>
     </row>
-    <row r="785" spans="1:27" ht="13">
+    <row r="785" spans="1:27" ht="13.2">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="14"/>
@@ -24934,7 +24934,7 @@
       <c r="Z785" s="2"/>
       <c r="AA785" s="2"/>
     </row>
-    <row r="786" spans="1:27" ht="13">
+    <row r="786" spans="1:27" ht="13.2">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="14"/>
@@ -24963,7 +24963,7 @@
       <c r="Z786" s="2"/>
       <c r="AA786" s="2"/>
     </row>
-    <row r="787" spans="1:27" ht="13">
+    <row r="787" spans="1:27" ht="13.2">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="14"/>
@@ -24992,7 +24992,7 @@
       <c r="Z787" s="2"/>
       <c r="AA787" s="2"/>
     </row>
-    <row r="788" spans="1:27" ht="13">
+    <row r="788" spans="1:27" ht="13.2">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="14"/>
@@ -25021,7 +25021,7 @@
       <c r="Z788" s="2"/>
       <c r="AA788" s="2"/>
     </row>
-    <row r="789" spans="1:27" ht="13">
+    <row r="789" spans="1:27" ht="13.2">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="14"/>
@@ -25050,7 +25050,7 @@
       <c r="Z789" s="2"/>
       <c r="AA789" s="2"/>
     </row>
-    <row r="790" spans="1:27" ht="13">
+    <row r="790" spans="1:27" ht="13.2">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="14"/>
@@ -25079,7 +25079,7 @@
       <c r="Z790" s="2"/>
       <c r="AA790" s="2"/>
     </row>
-    <row r="791" spans="1:27" ht="13">
+    <row r="791" spans="1:27" ht="13.2">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="14"/>
@@ -25108,7 +25108,7 @@
       <c r="Z791" s="2"/>
       <c r="AA791" s="2"/>
     </row>
-    <row r="792" spans="1:27" ht="13">
+    <row r="792" spans="1:27" ht="13.2">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="14"/>
@@ -25137,7 +25137,7 @@
       <c r="Z792" s="2"/>
       <c r="AA792" s="2"/>
     </row>
-    <row r="793" spans="1:27" ht="13">
+    <row r="793" spans="1:27" ht="13.2">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="14"/>
@@ -25166,7 +25166,7 @@
       <c r="Z793" s="2"/>
       <c r="AA793" s="2"/>
     </row>
-    <row r="794" spans="1:27" ht="13">
+    <row r="794" spans="1:27" ht="13.2">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="14"/>
@@ -25195,7 +25195,7 @@
       <c r="Z794" s="2"/>
       <c r="AA794" s="2"/>
     </row>
-    <row r="795" spans="1:27" ht="13">
+    <row r="795" spans="1:27" ht="13.2">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="14"/>
@@ -25224,7 +25224,7 @@
       <c r="Z795" s="2"/>
       <c r="AA795" s="2"/>
     </row>
-    <row r="796" spans="1:27" ht="13">
+    <row r="796" spans="1:27" ht="13.2">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="14"/>
@@ -25253,7 +25253,7 @@
       <c r="Z796" s="2"/>
       <c r="AA796" s="2"/>
     </row>
-    <row r="797" spans="1:27" ht="13">
+    <row r="797" spans="1:27" ht="13.2">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="14"/>
@@ -25282,7 +25282,7 @@
       <c r="Z797" s="2"/>
       <c r="AA797" s="2"/>
     </row>
-    <row r="798" spans="1:27" ht="13">
+    <row r="798" spans="1:27" ht="13.2">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="14"/>
@@ -25311,7 +25311,7 @@
       <c r="Z798" s="2"/>
       <c r="AA798" s="2"/>
     </row>
-    <row r="799" spans="1:27" ht="13">
+    <row r="799" spans="1:27" ht="13.2">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="14"/>
@@ -25340,7 +25340,7 @@
       <c r="Z799" s="2"/>
       <c r="AA799" s="2"/>
     </row>
-    <row r="800" spans="1:27" ht="13">
+    <row r="800" spans="1:27" ht="13.2">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="14"/>
@@ -25369,7 +25369,7 @@
       <c r="Z800" s="2"/>
       <c r="AA800" s="2"/>
     </row>
-    <row r="801" spans="1:27" ht="13">
+    <row r="801" spans="1:27" ht="13.2">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="14"/>
@@ -25398,7 +25398,7 @@
       <c r="Z801" s="2"/>
       <c r="AA801" s="2"/>
     </row>
-    <row r="802" spans="1:27" ht="13">
+    <row r="802" spans="1:27" ht="13.2">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="14"/>
@@ -25427,7 +25427,7 @@
       <c r="Z802" s="2"/>
       <c r="AA802" s="2"/>
     </row>
-    <row r="803" spans="1:27" ht="13">
+    <row r="803" spans="1:27" ht="13.2">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="14"/>
@@ -25456,7 +25456,7 @@
       <c r="Z803" s="2"/>
       <c r="AA803" s="2"/>
     </row>
-    <row r="804" spans="1:27" ht="13">
+    <row r="804" spans="1:27" ht="13.2">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="14"/>
@@ -25485,7 +25485,7 @@
       <c r="Z804" s="2"/>
       <c r="AA804" s="2"/>
     </row>
-    <row r="805" spans="1:27" ht="13">
+    <row r="805" spans="1:27" ht="13.2">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="14"/>
@@ -25514,7 +25514,7 @@
       <c r="Z805" s="2"/>
       <c r="AA805" s="2"/>
     </row>
-    <row r="806" spans="1:27" ht="13">
+    <row r="806" spans="1:27" ht="13.2">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="14"/>
@@ -25543,7 +25543,7 @@
       <c r="Z806" s="2"/>
       <c r="AA806" s="2"/>
     </row>
-    <row r="807" spans="1:27" ht="13">
+    <row r="807" spans="1:27" ht="13.2">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="14"/>
@@ -25572,7 +25572,7 @@
       <c r="Z807" s="2"/>
       <c r="AA807" s="2"/>
     </row>
-    <row r="808" spans="1:27" ht="13">
+    <row r="808" spans="1:27" ht="13.2">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="14"/>
@@ -25601,7 +25601,7 @@
       <c r="Z808" s="2"/>
       <c r="AA808" s="2"/>
     </row>
-    <row r="809" spans="1:27" ht="13">
+    <row r="809" spans="1:27" ht="13.2">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="14"/>
@@ -25630,7 +25630,7 @@
       <c r="Z809" s="2"/>
       <c r="AA809" s="2"/>
     </row>
-    <row r="810" spans="1:27" ht="13">
+    <row r="810" spans="1:27" ht="13.2">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="14"/>
@@ -25659,7 +25659,7 @@
       <c r="Z810" s="2"/>
       <c r="AA810" s="2"/>
     </row>
-    <row r="811" spans="1:27" ht="13">
+    <row r="811" spans="1:27" ht="13.2">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="14"/>
@@ -25688,7 +25688,7 @@
       <c r="Z811" s="2"/>
       <c r="AA811" s="2"/>
     </row>
-    <row r="812" spans="1:27" ht="13">
+    <row r="812" spans="1:27" ht="13.2">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="14"/>
@@ -25717,7 +25717,7 @@
       <c r="Z812" s="2"/>
       <c r="AA812" s="2"/>
     </row>
-    <row r="813" spans="1:27" ht="13">
+    <row r="813" spans="1:27" ht="13.2">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="14"/>
@@ -25746,7 +25746,7 @@
       <c r="Z813" s="2"/>
       <c r="AA813" s="2"/>
     </row>
-    <row r="814" spans="1:27" ht="13">
+    <row r="814" spans="1:27" ht="13.2">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="14"/>
@@ -25775,7 +25775,7 @@
       <c r="Z814" s="2"/>
       <c r="AA814" s="2"/>
     </row>
-    <row r="815" spans="1:27" ht="13">
+    <row r="815" spans="1:27" ht="13.2">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="14"/>
@@ -25804,7 +25804,7 @@
       <c r="Z815" s="2"/>
       <c r="AA815" s="2"/>
     </row>
-    <row r="816" spans="1:27" ht="13">
+    <row r="816" spans="1:27" ht="13.2">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="14"/>
@@ -25833,7 +25833,7 @@
       <c r="Z816" s="2"/>
       <c r="AA816" s="2"/>
     </row>
-    <row r="817" spans="1:27" ht="13">
+    <row r="817" spans="1:27" ht="13.2">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="14"/>
@@ -25862,7 +25862,7 @@
       <c r="Z817" s="2"/>
       <c r="AA817" s="2"/>
     </row>
-    <row r="818" spans="1:27" ht="13">
+    <row r="818" spans="1:27" ht="13.2">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="14"/>
@@ -25891,7 +25891,7 @@
       <c r="Z818" s="2"/>
       <c r="AA818" s="2"/>
     </row>
-    <row r="819" spans="1:27" ht="13">
+    <row r="819" spans="1:27" ht="13.2">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="14"/>
@@ -25920,7 +25920,7 @@
       <c r="Z819" s="2"/>
       <c r="AA819" s="2"/>
     </row>
-    <row r="820" spans="1:27" ht="13">
+    <row r="820" spans="1:27" ht="13.2">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="14"/>
@@ -25949,7 +25949,7 @@
       <c r="Z820" s="2"/>
       <c r="AA820" s="2"/>
     </row>
-    <row r="821" spans="1:27" ht="13">
+    <row r="821" spans="1:27" ht="13.2">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="14"/>
@@ -25978,7 +25978,7 @@
       <c r="Z821" s="2"/>
       <c r="AA821" s="2"/>
     </row>
-    <row r="822" spans="1:27" ht="13">
+    <row r="822" spans="1:27" ht="13.2">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="14"/>
@@ -26007,7 +26007,7 @@
       <c r="Z822" s="2"/>
       <c r="AA822" s="2"/>
     </row>
-    <row r="823" spans="1:27" ht="13">
+    <row r="823" spans="1:27" ht="13.2">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="14"/>
@@ -26036,7 +26036,7 @@
       <c r="Z823" s="2"/>
       <c r="AA823" s="2"/>
     </row>
-    <row r="824" spans="1:27" ht="13">
+    <row r="824" spans="1:27" ht="13.2">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="14"/>
@@ -26065,7 +26065,7 @@
       <c r="Z824" s="2"/>
       <c r="AA824" s="2"/>
     </row>
-    <row r="825" spans="1:27" ht="13">
+    <row r="825" spans="1:27" ht="13.2">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="14"/>
@@ -26094,7 +26094,7 @@
       <c r="Z825" s="2"/>
       <c r="AA825" s="2"/>
     </row>
-    <row r="826" spans="1:27" ht="13">
+    <row r="826" spans="1:27" ht="13.2">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="14"/>
@@ -26123,7 +26123,7 @@
       <c r="Z826" s="2"/>
       <c r="AA826" s="2"/>
     </row>
-    <row r="827" spans="1:27" ht="13">
+    <row r="827" spans="1:27" ht="13.2">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="14"/>
@@ -26152,7 +26152,7 @@
       <c r="Z827" s="2"/>
       <c r="AA827" s="2"/>
     </row>
-    <row r="828" spans="1:27" ht="13">
+    <row r="828" spans="1:27" ht="13.2">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="14"/>
@@ -26181,7 +26181,7 @@
       <c r="Z828" s="2"/>
       <c r="AA828" s="2"/>
     </row>
-    <row r="829" spans="1:27" ht="13">
+    <row r="829" spans="1:27" ht="13.2">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="14"/>
@@ -26210,7 +26210,7 @@
       <c r="Z829" s="2"/>
       <c r="AA829" s="2"/>
     </row>
-    <row r="830" spans="1:27" ht="13">
+    <row r="830" spans="1:27" ht="13.2">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="14"/>
@@ -26239,7 +26239,7 @@
       <c r="Z830" s="2"/>
       <c r="AA830" s="2"/>
     </row>
-    <row r="831" spans="1:27" ht="13">
+    <row r="831" spans="1:27" ht="13.2">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="14"/>
@@ -26268,7 +26268,7 @@
       <c r="Z831" s="2"/>
       <c r="AA831" s="2"/>
     </row>
-    <row r="832" spans="1:27" ht="13">
+    <row r="832" spans="1:27" ht="13.2">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="14"/>
@@ -26297,7 +26297,7 @@
       <c r="Z832" s="2"/>
       <c r="AA832" s="2"/>
     </row>
-    <row r="833" spans="1:27" ht="13">
+    <row r="833" spans="1:27" ht="13.2">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="14"/>
@@ -26326,7 +26326,7 @@
       <c r="Z833" s="2"/>
       <c r="AA833" s="2"/>
     </row>
-    <row r="834" spans="1:27" ht="13">
+    <row r="834" spans="1:27" ht="13.2">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="14"/>
@@ -26355,7 +26355,7 @@
       <c r="Z834" s="2"/>
       <c r="AA834" s="2"/>
     </row>
-    <row r="835" spans="1:27" ht="13">
+    <row r="835" spans="1:27" ht="13.2">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="14"/>
@@ -26384,7 +26384,7 @@
       <c r="Z835" s="2"/>
       <c r="AA835" s="2"/>
     </row>
-    <row r="836" spans="1:27" ht="13">
+    <row r="836" spans="1:27" ht="13.2">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="14"/>
@@ -26413,7 +26413,7 @@
       <c r="Z836" s="2"/>
       <c r="AA836" s="2"/>
     </row>
-    <row r="837" spans="1:27" ht="13">
+    <row r="837" spans="1:27" ht="13.2">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="14"/>
@@ -26442,7 +26442,7 @@
       <c r="Z837" s="2"/>
       <c r="AA837" s="2"/>
     </row>
-    <row r="838" spans="1:27" ht="13">
+    <row r="838" spans="1:27" ht="13.2">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="14"/>
@@ -26471,7 +26471,7 @@
       <c r="Z838" s="2"/>
       <c r="AA838" s="2"/>
     </row>
-    <row r="839" spans="1:27" ht="13">
+    <row r="839" spans="1:27" ht="13.2">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="14"/>
@@ -26500,7 +26500,7 @@
       <c r="Z839" s="2"/>
       <c r="AA839" s="2"/>
     </row>
-    <row r="840" spans="1:27" ht="13">
+    <row r="840" spans="1:27" ht="13.2">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="14"/>
@@ -26529,7 +26529,7 @@
       <c r="Z840" s="2"/>
       <c r="AA840" s="2"/>
     </row>
-    <row r="841" spans="1:27" ht="13">
+    <row r="841" spans="1:27" ht="13.2">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="14"/>
@@ -26558,7 +26558,7 @@
       <c r="Z841" s="2"/>
       <c r="AA841" s="2"/>
     </row>
-    <row r="842" spans="1:27" ht="13">
+    <row r="842" spans="1:27" ht="13.2">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="14"/>
@@ -26587,7 +26587,7 @@
       <c r="Z842" s="2"/>
       <c r="AA842" s="2"/>
     </row>
-    <row r="843" spans="1:27" ht="13">
+    <row r="843" spans="1:27" ht="13.2">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="14"/>
@@ -26616,7 +26616,7 @@
       <c r="Z843" s="2"/>
       <c r="AA843" s="2"/>
     </row>
-    <row r="844" spans="1:27" ht="13">
+    <row r="844" spans="1:27" ht="13.2">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="14"/>
@@ -26645,7 +26645,7 @@
       <c r="Z844" s="2"/>
       <c r="AA844" s="2"/>
     </row>
-    <row r="845" spans="1:27" ht="13">
+    <row r="845" spans="1:27" ht="13.2">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="14"/>
@@ -26674,7 +26674,7 @@
       <c r="Z845" s="2"/>
       <c r="AA845" s="2"/>
     </row>
-    <row r="846" spans="1:27" ht="13">
+    <row r="846" spans="1:27" ht="13.2">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="14"/>
@@ -26703,7 +26703,7 @@
       <c r="Z846" s="2"/>
       <c r="AA846" s="2"/>
     </row>
-    <row r="847" spans="1:27" ht="13">
+    <row r="847" spans="1:27" ht="13.2">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="14"/>
@@ -26732,7 +26732,7 @@
       <c r="Z847" s="2"/>
       <c r="AA847" s="2"/>
     </row>
-    <row r="848" spans="1:27" ht="13">
+    <row r="848" spans="1:27" ht="13.2">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="14"/>
@@ -26761,7 +26761,7 @@
       <c r="Z848" s="2"/>
       <c r="AA848" s="2"/>
     </row>
-    <row r="849" spans="1:27" ht="13">
+    <row r="849" spans="1:27" ht="13.2">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="14"/>
@@ -26790,7 +26790,7 @@
       <c r="Z849" s="2"/>
       <c r="AA849" s="2"/>
     </row>
-    <row r="850" spans="1:27" ht="13">
+    <row r="850" spans="1:27" ht="13.2">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="14"/>
@@ -26819,7 +26819,7 @@
       <c r="Z850" s="2"/>
       <c r="AA850" s="2"/>
     </row>
-    <row r="851" spans="1:27" ht="13">
+    <row r="851" spans="1:27" ht="13.2">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="14"/>
@@ -26848,7 +26848,7 @@
       <c r="Z851" s="2"/>
       <c r="AA851" s="2"/>
     </row>
-    <row r="852" spans="1:27" ht="13">
+    <row r="852" spans="1:27" ht="13.2">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="14"/>
@@ -26877,7 +26877,7 @@
       <c r="Z852" s="2"/>
       <c r="AA852" s="2"/>
     </row>
-    <row r="853" spans="1:27" ht="13">
+    <row r="853" spans="1:27" ht="13.2">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="14"/>
@@ -26906,7 +26906,7 @@
       <c r="Z853" s="2"/>
       <c r="AA853" s="2"/>
     </row>
-    <row r="854" spans="1:27" ht="13">
+    <row r="854" spans="1:27" ht="13.2">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="14"/>
@@ -26935,7 +26935,7 @@
       <c r="Z854" s="2"/>
       <c r="AA854" s="2"/>
     </row>
-    <row r="855" spans="1:27" ht="13">
+    <row r="855" spans="1:27" ht="13.2">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="14"/>
@@ -26964,7 +26964,7 @@
       <c r="Z855" s="2"/>
       <c r="AA855" s="2"/>
     </row>
-    <row r="856" spans="1:27" ht="13">
+    <row r="856" spans="1:27" ht="13.2">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="14"/>
@@ -26993,7 +26993,7 @@
       <c r="Z856" s="2"/>
       <c r="AA856" s="2"/>
     </row>
-    <row r="857" spans="1:27" ht="13">
+    <row r="857" spans="1:27" ht="13.2">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="14"/>
@@ -27022,7 +27022,7 @@
       <c r="Z857" s="2"/>
       <c r="AA857" s="2"/>
     </row>
-    <row r="858" spans="1:27" ht="13">
+    <row r="858" spans="1:27" ht="13.2">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="14"/>
@@ -27051,7 +27051,7 @@
       <c r="Z858" s="2"/>
       <c r="AA858" s="2"/>
     </row>
-    <row r="859" spans="1:27" ht="13">
+    <row r="859" spans="1:27" ht="13.2">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="14"/>
@@ -27080,7 +27080,7 @@
       <c r="Z859" s="2"/>
       <c r="AA859" s="2"/>
     </row>
-    <row r="860" spans="1:27" ht="13">
+    <row r="860" spans="1:27" ht="13.2">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="14"/>
@@ -27109,7 +27109,7 @@
       <c r="Z860" s="2"/>
       <c r="AA860" s="2"/>
     </row>
-    <row r="861" spans="1:27" ht="13">
+    <row r="861" spans="1:27" ht="13.2">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="14"/>
@@ -27138,7 +27138,7 @@
       <c r="Z861" s="2"/>
       <c r="AA861" s="2"/>
     </row>
-    <row r="862" spans="1:27" ht="13">
+    <row r="862" spans="1:27" ht="13.2">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="14"/>
@@ -27167,7 +27167,7 @@
       <c r="Z862" s="2"/>
       <c r="AA862" s="2"/>
     </row>
-    <row r="863" spans="1:27" ht="13">
+    <row r="863" spans="1:27" ht="13.2">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="14"/>
@@ -27196,7 +27196,7 @@
       <c r="Z863" s="2"/>
       <c r="AA863" s="2"/>
     </row>
-    <row r="864" spans="1:27" ht="13">
+    <row r="864" spans="1:27" ht="13.2">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="14"/>
@@ -27225,7 +27225,7 @@
       <c r="Z864" s="2"/>
       <c r="AA864" s="2"/>
     </row>
-    <row r="865" spans="1:27" ht="13">
+    <row r="865" spans="1:27" ht="13.2">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="14"/>
@@ -27254,7 +27254,7 @@
       <c r="Z865" s="2"/>
       <c r="AA865" s="2"/>
     </row>
-    <row r="866" spans="1:27" ht="13">
+    <row r="866" spans="1:27" ht="13.2">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="14"/>
@@ -27283,7 +27283,7 @@
       <c r="Z866" s="2"/>
       <c r="AA866" s="2"/>
     </row>
-    <row r="867" spans="1:27" ht="13">
+    <row r="867" spans="1:27" ht="13.2">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="14"/>
@@ -27312,7 +27312,7 @@
       <c r="Z867" s="2"/>
       <c r="AA867" s="2"/>
     </row>
-    <row r="868" spans="1:27" ht="13">
+    <row r="868" spans="1:27" ht="13.2">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="14"/>
@@ -27341,7 +27341,7 @@
       <c r="Z868" s="2"/>
       <c r="AA868" s="2"/>
     </row>
-    <row r="869" spans="1:27" ht="13">
+    <row r="869" spans="1:27" ht="13.2">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="14"/>
@@ -27370,7 +27370,7 @@
       <c r="Z869" s="2"/>
       <c r="AA869" s="2"/>
     </row>
-    <row r="870" spans="1:27" ht="13">
+    <row r="870" spans="1:27" ht="13.2">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="14"/>
@@ -27399,7 +27399,7 @@
       <c r="Z870" s="2"/>
       <c r="AA870" s="2"/>
     </row>
-    <row r="871" spans="1:27" ht="13">
+    <row r="871" spans="1:27" ht="13.2">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="14"/>
@@ -27428,7 +27428,7 @@
       <c r="Z871" s="2"/>
       <c r="AA871" s="2"/>
     </row>
-    <row r="872" spans="1:27" ht="13">
+    <row r="872" spans="1:27" ht="13.2">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="14"/>
@@ -27457,7 +27457,7 @@
       <c r="Z872" s="2"/>
       <c r="AA872" s="2"/>
     </row>
-    <row r="873" spans="1:27" ht="13">
+    <row r="873" spans="1:27" ht="13.2">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="14"/>
@@ -27486,7 +27486,7 @@
       <c r="Z873" s="2"/>
       <c r="AA873" s="2"/>
     </row>
-    <row r="874" spans="1:27" ht="13">
+    <row r="874" spans="1:27" ht="13.2">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="14"/>
@@ -27515,7 +27515,7 @@
       <c r="Z874" s="2"/>
       <c r="AA874" s="2"/>
     </row>
-    <row r="875" spans="1:27" ht="13">
+    <row r="875" spans="1:27" ht="13.2">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="14"/>
@@ -27544,7 +27544,7 @@
       <c r="Z875" s="2"/>
       <c r="AA875" s="2"/>
     </row>
-    <row r="876" spans="1:27" ht="13">
+    <row r="876" spans="1:27" ht="13.2">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="14"/>
@@ -27573,7 +27573,7 @@
       <c r="Z876" s="2"/>
       <c r="AA876" s="2"/>
     </row>
-    <row r="877" spans="1:27" ht="13">
+    <row r="877" spans="1:27" ht="13.2">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="14"/>
@@ -27602,7 +27602,7 @@
       <c r="Z877" s="2"/>
       <c r="AA877" s="2"/>
     </row>
-    <row r="878" spans="1:27" ht="13">
+    <row r="878" spans="1:27" ht="13.2">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="14"/>
@@ -27631,7 +27631,7 @@
       <c r="Z878" s="2"/>
       <c r="AA878" s="2"/>
     </row>
-    <row r="879" spans="1:27" ht="13">
+    <row r="879" spans="1:27" ht="13.2">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="14"/>
@@ -27660,7 +27660,7 @@
       <c r="Z879" s="2"/>
       <c r="AA879" s="2"/>
     </row>
-    <row r="880" spans="1:27" ht="13">
+    <row r="880" spans="1:27" ht="13.2">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="14"/>
@@ -27689,7 +27689,7 @@
       <c r="Z880" s="2"/>
       <c r="AA880" s="2"/>
     </row>
-    <row r="881" spans="1:27" ht="13">
+    <row r="881" spans="1:27" ht="13.2">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="14"/>
@@ -27718,7 +27718,7 @@
       <c r="Z881" s="2"/>
       <c r="AA881" s="2"/>
     </row>
-    <row r="882" spans="1:27" ht="13">
+    <row r="882" spans="1:27" ht="13.2">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="14"/>
@@ -27747,7 +27747,7 @@
       <c r="Z882" s="2"/>
       <c r="AA882" s="2"/>
     </row>
-    <row r="883" spans="1:27" ht="13">
+    <row r="883" spans="1:27" ht="13.2">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="14"/>
@@ -27776,7 +27776,7 @@
       <c r="Z883" s="2"/>
       <c r="AA883" s="2"/>
     </row>
-    <row r="884" spans="1:27" ht="13">
+    <row r="884" spans="1:27" ht="13.2">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="14"/>
@@ -27805,7 +27805,7 @@
       <c r="Z884" s="2"/>
       <c r="AA884" s="2"/>
     </row>
-    <row r="885" spans="1:27" ht="13">
+    <row r="885" spans="1:27" ht="13.2">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="14"/>
@@ -27834,7 +27834,7 @@
       <c r="Z885" s="2"/>
       <c r="AA885" s="2"/>
     </row>
-    <row r="886" spans="1:27" ht="13">
+    <row r="886" spans="1:27" ht="13.2">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="14"/>
@@ -27863,7 +27863,7 @@
       <c r="Z886" s="2"/>
       <c r="AA886" s="2"/>
     </row>
-    <row r="887" spans="1:27" ht="13">
+    <row r="887" spans="1:27" ht="13.2">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="14"/>
@@ -27892,7 +27892,7 @@
       <c r="Z887" s="2"/>
       <c r="AA887" s="2"/>
     </row>
-    <row r="888" spans="1:27" ht="13">
+    <row r="888" spans="1:27" ht="13.2">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="14"/>
@@ -27921,7 +27921,7 @@
       <c r="Z888" s="2"/>
       <c r="AA888" s="2"/>
     </row>
-    <row r="889" spans="1:27" ht="13">
+    <row r="889" spans="1:27" ht="13.2">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="14"/>
@@ -27950,7 +27950,7 @@
       <c r="Z889" s="2"/>
       <c r="AA889" s="2"/>
     </row>
-    <row r="890" spans="1:27" ht="13">
+    <row r="890" spans="1:27" ht="13.2">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="14"/>
@@ -27979,7 +27979,7 @@
       <c r="Z890" s="2"/>
       <c r="AA890" s="2"/>
     </row>
-    <row r="891" spans="1:27" ht="13">
+    <row r="891" spans="1:27" ht="13.2">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="14"/>
@@ -28008,7 +28008,7 @@
       <c r="Z891" s="2"/>
       <c r="AA891" s="2"/>
     </row>
-    <row r="892" spans="1:27" ht="13">
+    <row r="892" spans="1:27" ht="13.2">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="14"/>
@@ -28037,7 +28037,7 @@
       <c r="Z892" s="2"/>
       <c r="AA892" s="2"/>
     </row>
-    <row r="893" spans="1:27" ht="13">
+    <row r="893" spans="1:27" ht="13.2">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="14"/>
@@ -28066,7 +28066,7 @@
       <c r="Z893" s="2"/>
       <c r="AA893" s="2"/>
     </row>
-    <row r="894" spans="1:27" ht="13">
+    <row r="894" spans="1:27" ht="13.2">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="14"/>
@@ -28095,7 +28095,7 @@
       <c r="Z894" s="2"/>
       <c r="AA894" s="2"/>
     </row>
-    <row r="895" spans="1:27" ht="13">
+    <row r="895" spans="1:27" ht="13.2">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="14"/>
@@ -28124,7 +28124,7 @@
       <c r="Z895" s="2"/>
       <c r="AA895" s="2"/>
     </row>
-    <row r="896" spans="1:27" ht="13">
+    <row r="896" spans="1:27" ht="13.2">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="14"/>
@@ -28153,7 +28153,7 @@
       <c r="Z896" s="2"/>
       <c r="AA896" s="2"/>
     </row>
-    <row r="897" spans="1:27" ht="13">
+    <row r="897" spans="1:27" ht="13.2">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="14"/>
@@ -28182,7 +28182,7 @@
       <c r="Z897" s="2"/>
       <c r="AA897" s="2"/>
     </row>
-    <row r="898" spans="1:27" ht="13">
+    <row r="898" spans="1:27" ht="13.2">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="14"/>
@@ -28211,7 +28211,7 @@
       <c r="Z898" s="2"/>
       <c r="AA898" s="2"/>
     </row>
-    <row r="899" spans="1:27" ht="13">
+    <row r="899" spans="1:27" ht="13.2">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="14"/>
@@ -28240,7 +28240,7 @@
       <c r="Z899" s="2"/>
       <c r="AA899" s="2"/>
     </row>
-    <row r="900" spans="1:27" ht="13">
+    <row r="900" spans="1:27" ht="13.2">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="14"/>
@@ -28269,7 +28269,7 @@
       <c r="Z900" s="2"/>
       <c r="AA900" s="2"/>
     </row>
-    <row r="901" spans="1:27" ht="13">
+    <row r="901" spans="1:27" ht="13.2">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="14"/>
@@ -28298,7 +28298,7 @@
       <c r="Z901" s="2"/>
       <c r="AA901" s="2"/>
     </row>
-    <row r="902" spans="1:27" ht="13">
+    <row r="902" spans="1:27" ht="13.2">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="14"/>
@@ -28327,7 +28327,7 @@
       <c r="Z902" s="2"/>
       <c r="AA902" s="2"/>
     </row>
-    <row r="903" spans="1:27" ht="13">
+    <row r="903" spans="1:27" ht="13.2">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="14"/>
@@ -28356,7 +28356,7 @@
       <c r="Z903" s="2"/>
       <c r="AA903" s="2"/>
     </row>
-    <row r="904" spans="1:27" ht="13">
+    <row r="904" spans="1:27" ht="13.2">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="14"/>
@@ -28385,7 +28385,7 @@
       <c r="Z904" s="2"/>
       <c r="AA904" s="2"/>
     </row>
-    <row r="905" spans="1:27" ht="13">
+    <row r="905" spans="1:27" ht="13.2">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="14"/>
@@ -28414,7 +28414,7 @@
       <c r="Z905" s="2"/>
       <c r="AA905" s="2"/>
     </row>
-    <row r="906" spans="1:27" ht="13">
+    <row r="906" spans="1:27" ht="13.2">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="14"/>
@@ -28443,7 +28443,7 @@
       <c r="Z906" s="2"/>
       <c r="AA906" s="2"/>
     </row>
-    <row r="907" spans="1:27" ht="13">
+    <row r="907" spans="1:27" ht="13.2">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="14"/>
@@ -28472,7 +28472,7 @@
       <c r="Z907" s="2"/>
       <c r="AA907" s="2"/>
     </row>
-    <row r="908" spans="1:27" ht="13">
+    <row r="908" spans="1:27" ht="13.2">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="14"/>
@@ -28501,7 +28501,7 @@
       <c r="Z908" s="2"/>
       <c r="AA908" s="2"/>
     </row>
-    <row r="909" spans="1:27" ht="13">
+    <row r="909" spans="1:27" ht="13.2">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="14"/>
@@ -28530,7 +28530,7 @@
       <c r="Z909" s="2"/>
       <c r="AA909" s="2"/>
     </row>
-    <row r="910" spans="1:27" ht="13">
+    <row r="910" spans="1:27" ht="13.2">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="14"/>
@@ -28559,7 +28559,7 @@
       <c r="Z910" s="2"/>
       <c r="AA910" s="2"/>
     </row>
-    <row r="911" spans="1:27" ht="13">
+    <row r="911" spans="1:27" ht="13.2">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="14"/>
@@ -28588,7 +28588,7 @@
       <c r="Z911" s="2"/>
       <c r="AA911" s="2"/>
     </row>
-    <row r="912" spans="1:27" ht="13">
+    <row r="912" spans="1:27" ht="13.2">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="14"/>
@@ -28617,7 +28617,7 @@
       <c r="Z912" s="2"/>
       <c r="AA912" s="2"/>
     </row>
-    <row r="913" spans="1:27" ht="13">
+    <row r="913" spans="1:27" ht="13.2">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="14"/>
@@ -28646,7 +28646,7 @@
       <c r="Z913" s="2"/>
       <c r="AA913" s="2"/>
     </row>
-    <row r="914" spans="1:27" ht="13">
+    <row r="914" spans="1:27" ht="13.2">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="14"/>
@@ -28675,7 +28675,7 @@
       <c r="Z914" s="2"/>
       <c r="AA914" s="2"/>
     </row>
-    <row r="915" spans="1:27" ht="13">
+    <row r="915" spans="1:27" ht="13.2">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="14"/>
@@ -28704,7 +28704,7 @@
       <c r="Z915" s="2"/>
       <c r="AA915" s="2"/>
     </row>
-    <row r="916" spans="1:27" ht="13">
+    <row r="916" spans="1:27" ht="13.2">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="14"/>
@@ -28733,7 +28733,7 @@
       <c r="Z916" s="2"/>
       <c r="AA916" s="2"/>
     </row>
-    <row r="917" spans="1:27" ht="13">
+    <row r="917" spans="1:27" ht="13.2">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="14"/>
@@ -28762,7 +28762,7 @@
       <c r="Z917" s="2"/>
       <c r="AA917" s="2"/>
     </row>
-    <row r="918" spans="1:27" ht="13">
+    <row r="918" spans="1:27" ht="13.2">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="14"/>
@@ -28791,7 +28791,7 @@
       <c r="Z918" s="2"/>
       <c r="AA918" s="2"/>
     </row>
-    <row r="919" spans="1:27" ht="13">
+    <row r="919" spans="1:27" ht="13.2">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="14"/>
@@ -28820,7 +28820,7 @@
       <c r="Z919" s="2"/>
       <c r="AA919" s="2"/>
     </row>
-    <row r="920" spans="1:27" ht="13">
+    <row r="920" spans="1:27" ht="13.2">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="14"/>
@@ -28849,7 +28849,7 @@
       <c r="Z920" s="2"/>
       <c r="AA920" s="2"/>
     </row>
-    <row r="921" spans="1:27" ht="13">
+    <row r="921" spans="1:27" ht="13.2">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="14"/>
@@ -28878,7 +28878,7 @@
       <c r="Z921" s="2"/>
       <c r="AA921" s="2"/>
     </row>
-    <row r="922" spans="1:27" ht="13">
+    <row r="922" spans="1:27" ht="13.2">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="14"/>
@@ -28907,7 +28907,7 @@
       <c r="Z922" s="2"/>
       <c r="AA922" s="2"/>
     </row>
-    <row r="923" spans="1:27" ht="13">
+    <row r="923" spans="1:27" ht="13.2">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="14"/>
@@ -28936,7 +28936,7 @@
       <c r="Z923" s="2"/>
       <c r="AA923" s="2"/>
     </row>
-    <row r="924" spans="1:27" ht="13">
+    <row r="924" spans="1:27" ht="13.2">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="14"/>
@@ -28965,7 +28965,7 @@
       <c r="Z924" s="2"/>
       <c r="AA924" s="2"/>
     </row>
-    <row r="925" spans="1:27" ht="13">
+    <row r="925" spans="1:27" ht="13.2">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="14"/>
@@ -28994,7 +28994,7 @@
       <c r="Z925" s="2"/>
       <c r="AA925" s="2"/>
     </row>
-    <row r="926" spans="1:27" ht="13">
+    <row r="926" spans="1:27" ht="13.2">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="14"/>
@@ -29023,7 +29023,7 @@
       <c r="Z926" s="2"/>
       <c r="AA926" s="2"/>
     </row>
-    <row r="927" spans="1:27" ht="13">
+    <row r="927" spans="1:27" ht="13.2">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="14"/>
@@ -29052,7 +29052,7 @@
       <c r="Z927" s="2"/>
       <c r="AA927" s="2"/>
     </row>
-    <row r="928" spans="1:27" ht="13">
+    <row r="928" spans="1:27" ht="13.2">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="14"/>
@@ -29081,7 +29081,7 @@
       <c r="Z928" s="2"/>
       <c r="AA928" s="2"/>
     </row>
-    <row r="929" spans="1:27" ht="13">
+    <row r="929" spans="1:27" ht="13.2">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="14"/>
@@ -29110,7 +29110,7 @@
       <c r="Z929" s="2"/>
       <c r="AA929" s="2"/>
     </row>
-    <row r="930" spans="1:27" ht="13">
+    <row r="930" spans="1:27" ht="13.2">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="14"/>
@@ -29139,7 +29139,7 @@
       <c r="Z930" s="2"/>
       <c r="AA930" s="2"/>
     </row>
-    <row r="931" spans="1:27" ht="13">
+    <row r="931" spans="1:27" ht="13.2">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="14"/>
@@ -29168,7 +29168,7 @@
       <c r="Z931" s="2"/>
       <c r="AA931" s="2"/>
     </row>
-    <row r="932" spans="1:27" ht="13">
+    <row r="932" spans="1:27" ht="13.2">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="14"/>
@@ -29197,7 +29197,7 @@
       <c r="Z932" s="2"/>
       <c r="AA932" s="2"/>
     </row>
-    <row r="933" spans="1:27" ht="13">
+    <row r="933" spans="1:27" ht="13.2">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="14"/>
@@ -29226,7 +29226,7 @@
       <c r="Z933" s="2"/>
       <c r="AA933" s="2"/>
     </row>
-    <row r="934" spans="1:27" ht="13">
+    <row r="934" spans="1:27" ht="13.2">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="14"/>
@@ -29255,7 +29255,7 @@
       <c r="Z934" s="2"/>
       <c r="AA934" s="2"/>
     </row>
-    <row r="935" spans="1:27" ht="13">
+    <row r="935" spans="1:27" ht="13.2">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="14"/>
@@ -29284,7 +29284,7 @@
       <c r="Z935" s="2"/>
       <c r="AA935" s="2"/>
     </row>
-    <row r="936" spans="1:27" ht="13">
+    <row r="936" spans="1:27" ht="13.2">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="14"/>
@@ -29313,7 +29313,7 @@
       <c r="Z936" s="2"/>
       <c r="AA936" s="2"/>
     </row>
-    <row r="937" spans="1:27" ht="13">
+    <row r="937" spans="1:27" ht="13.2">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="14"/>
@@ -29342,7 +29342,7 @@
       <c r="Z937" s="2"/>
       <c r="AA937" s="2"/>
     </row>
-    <row r="938" spans="1:27" ht="13">
+    <row r="938" spans="1:27" ht="13.2">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="14"/>
@@ -29371,7 +29371,7 @@
       <c r="Z938" s="2"/>
       <c r="AA938" s="2"/>
     </row>
-    <row r="939" spans="1:27" ht="13">
+    <row r="939" spans="1:27" ht="13.2">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="14"/>
@@ -29400,7 +29400,7 @@
       <c r="Z939" s="2"/>
       <c r="AA939" s="2"/>
     </row>
-    <row r="940" spans="1:27" ht="13">
+    <row r="940" spans="1:27" ht="13.2">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="14"/>
@@ -29429,7 +29429,7 @@
       <c r="Z940" s="2"/>
       <c r="AA940" s="2"/>
     </row>
-    <row r="941" spans="1:27" ht="13">
+    <row r="941" spans="1:27" ht="13.2">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="14"/>
@@ -29458,7 +29458,7 @@
       <c r="Z941" s="2"/>
       <c r="AA941" s="2"/>
     </row>
-    <row r="942" spans="1:27" ht="13">
+    <row r="942" spans="1:27" ht="13.2">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="14"/>
@@ -29487,7 +29487,7 @@
       <c r="Z942" s="2"/>
       <c r="AA942" s="2"/>
     </row>
-    <row r="943" spans="1:27" ht="13">
+    <row r="943" spans="1:27" ht="13.2">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="14"/>
@@ -29516,7 +29516,7 @@
       <c r="Z943" s="2"/>
       <c r="AA943" s="2"/>
     </row>
-    <row r="944" spans="1:27" ht="13">
+    <row r="944" spans="1:27" ht="13.2">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="14"/>
@@ -29545,7 +29545,7 @@
       <c r="Z944" s="2"/>
       <c r="AA944" s="2"/>
     </row>
-    <row r="945" spans="1:27" ht="13">
+    <row r="945" spans="1:27" ht="13.2">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="14"/>
@@ -29574,7 +29574,7 @@
       <c r="Z945" s="2"/>
       <c r="AA945" s="2"/>
     </row>
-    <row r="946" spans="1:27" ht="13">
+    <row r="946" spans="1:27" ht="13.2">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="14"/>
@@ -29603,7 +29603,7 @@
       <c r="Z946" s="2"/>
       <c r="AA946" s="2"/>
     </row>
-    <row r="947" spans="1:27" ht="13">
+    <row r="947" spans="1:27" ht="13.2">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="14"/>
@@ -29632,7 +29632,7 @@
       <c r="Z947" s="2"/>
       <c r="AA947" s="2"/>
     </row>
-    <row r="948" spans="1:27" ht="13">
+    <row r="948" spans="1:27" ht="13.2">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="14"/>
@@ -29661,7 +29661,7 @@
       <c r="Z948" s="2"/>
       <c r="AA948" s="2"/>
     </row>
-    <row r="949" spans="1:27" ht="13">
+    <row r="949" spans="1:27" ht="13.2">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="14"/>
@@ -29690,7 +29690,7 @@
       <c r="Z949" s="2"/>
       <c r="AA949" s="2"/>
     </row>
-    <row r="950" spans="1:27" ht="13">
+    <row r="950" spans="1:27" ht="13.2">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="14"/>
@@ -29719,7 +29719,7 @@
       <c r="Z950" s="2"/>
       <c r="AA950" s="2"/>
     </row>
-    <row r="951" spans="1:27" ht="13">
+    <row r="951" spans="1:27" ht="13.2">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="14"/>
@@ -29748,7 +29748,7 @@
       <c r="Z951" s="2"/>
       <c r="AA951" s="2"/>
     </row>
-    <row r="952" spans="1:27" ht="13">
+    <row r="952" spans="1:27" ht="13.2">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="14"/>
@@ -29777,7 +29777,7 @@
       <c r="Z952" s="2"/>
       <c r="AA952" s="2"/>
     </row>
-    <row r="953" spans="1:27" ht="13">
+    <row r="953" spans="1:27" ht="13.2">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="14"/>
@@ -29806,7 +29806,7 @@
       <c r="Z953" s="2"/>
       <c r="AA953" s="2"/>
     </row>
-    <row r="954" spans="1:27" ht="13">
+    <row r="954" spans="1:27" ht="13.2">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="14"/>
@@ -29835,7 +29835,7 @@
       <c r="Z954" s="2"/>
       <c r="AA954" s="2"/>
     </row>
-    <row r="955" spans="1:27" ht="13">
+    <row r="955" spans="1:27" ht="13.2">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="14"/>
@@ -29864,7 +29864,7 @@
       <c r="Z955" s="2"/>
       <c r="AA955" s="2"/>
     </row>
-    <row r="956" spans="1:27" ht="13">
+    <row r="956" spans="1:27" ht="13.2">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="14"/>
@@ -29893,7 +29893,7 @@
       <c r="Z956" s="2"/>
       <c r="AA956" s="2"/>
     </row>
-    <row r="957" spans="1:27" ht="13">
+    <row r="957" spans="1:27" ht="13.2">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="14"/>
@@ -29922,7 +29922,7 @@
       <c r="Z957" s="2"/>
       <c r="AA957" s="2"/>
     </row>
-    <row r="958" spans="1:27" ht="13">
+    <row r="958" spans="1:27" ht="13.2">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="14"/>
@@ -29951,7 +29951,7 @@
       <c r="Z958" s="2"/>
       <c r="AA958" s="2"/>
     </row>
-    <row r="959" spans="1:27" ht="13">
+    <row r="959" spans="1:27" ht="13.2">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="14"/>
@@ -29980,7 +29980,7 @@
       <c r="Z959" s="2"/>
       <c r="AA959" s="2"/>
     </row>
-    <row r="960" spans="1:27" ht="13">
+    <row r="960" spans="1:27" ht="13.2">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="14"/>
@@ -30009,7 +30009,7 @@
       <c r="Z960" s="2"/>
       <c r="AA960" s="2"/>
     </row>
-    <row r="961" spans="1:27" ht="13">
+    <row r="961" spans="1:27" ht="13.2">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="14"/>
@@ -30038,7 +30038,7 @@
       <c r="Z961" s="2"/>
       <c r="AA961" s="2"/>
     </row>
-    <row r="962" spans="1:27" ht="13">
+    <row r="962" spans="1:27" ht="13.2">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="14"/>
@@ -30067,7 +30067,7 @@
       <c r="Z962" s="2"/>
       <c r="AA962" s="2"/>
     </row>
-    <row r="963" spans="1:27" ht="13">
+    <row r="963" spans="1:27" ht="13.2">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="14"/>
@@ -30096,7 +30096,7 @@
       <c r="Z963" s="2"/>
       <c r="AA963" s="2"/>
     </row>
-    <row r="964" spans="1:27" ht="13">
+    <row r="964" spans="1:27" ht="13.2">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="14"/>
@@ -30125,7 +30125,7 @@
       <c r="Z964" s="2"/>
       <c r="AA964" s="2"/>
     </row>
-    <row r="965" spans="1:27" ht="13">
+    <row r="965" spans="1:27" ht="13.2">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="14"/>
@@ -30154,7 +30154,7 @@
       <c r="Z965" s="2"/>
       <c r="AA965" s="2"/>
     </row>
-    <row r="966" spans="1:27" ht="13">
+    <row r="966" spans="1:27" ht="13.2">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="14"/>
@@ -30183,7 +30183,7 @@
       <c r="Z966" s="2"/>
       <c r="AA966" s="2"/>
     </row>
-    <row r="967" spans="1:27" ht="13">
+    <row r="967" spans="1:27" ht="13.2">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="14"/>
@@ -30212,7 +30212,7 @@
       <c r="Z967" s="2"/>
       <c r="AA967" s="2"/>
     </row>
-    <row r="968" spans="1:27" ht="13">
+    <row r="968" spans="1:27" ht="13.2">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="14"/>
@@ -30241,7 +30241,7 @@
       <c r="Z968" s="2"/>
       <c r="AA968" s="2"/>
     </row>
-    <row r="969" spans="1:27" ht="13">
+    <row r="969" spans="1:27" ht="13.2">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="14"/>
@@ -30270,7 +30270,7 @@
       <c r="Z969" s="2"/>
       <c r="AA969" s="2"/>
     </row>
-    <row r="970" spans="1:27" ht="13">
+    <row r="970" spans="1:27" ht="13.2">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="14"/>
@@ -30299,7 +30299,7 @@
       <c r="Z970" s="2"/>
       <c r="AA970" s="2"/>
     </row>
-    <row r="971" spans="1:27" ht="13">
+    <row r="971" spans="1:27" ht="13.2">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="14"/>
@@ -30328,7 +30328,7 @@
       <c r="Z971" s="2"/>
       <c r="AA971" s="2"/>
     </row>
-    <row r="972" spans="1:27" ht="13">
+    <row r="972" spans="1:27" ht="13.2">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="14"/>
@@ -30357,7 +30357,7 @@
       <c r="Z972" s="2"/>
       <c r="AA972" s="2"/>
     </row>
-    <row r="973" spans="1:27" ht="13">
+    <row r="973" spans="1:27" ht="13.2">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="14"/>
@@ -30386,7 +30386,7 @@
       <c r="Z973" s="2"/>
       <c r="AA973" s="2"/>
     </row>
-    <row r="974" spans="1:27" ht="13">
+    <row r="974" spans="1:27" ht="13.2">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="14"/>
@@ -30415,7 +30415,7 @@
       <c r="Z974" s="2"/>
       <c r="AA974" s="2"/>
     </row>
-    <row r="975" spans="1:27" ht="13">
+    <row r="975" spans="1:27" ht="13.2">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="14"/>
@@ -30444,7 +30444,7 @@
       <c r="Z975" s="2"/>
       <c r="AA975" s="2"/>
     </row>
-    <row r="976" spans="1:27" ht="13">
+    <row r="976" spans="1:27" ht="13.2">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="14"/>
@@ -30473,7 +30473,7 @@
       <c r="Z976" s="2"/>
       <c r="AA976" s="2"/>
     </row>
-    <row r="977" spans="1:27" ht="13">
+    <row r="977" spans="1:27" ht="13.2">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="14"/>
@@ -30502,7 +30502,7 @@
       <c r="Z977" s="2"/>
       <c r="AA977" s="2"/>
     </row>
-    <row r="978" spans="1:27" ht="13">
+    <row r="978" spans="1:27" ht="13.2">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="14"/>
@@ -30531,7 +30531,7 @@
       <c r="Z978" s="2"/>
       <c r="AA978" s="2"/>
     </row>
-    <row r="979" spans="1:27" ht="13">
+    <row r="979" spans="1:27" ht="13.2">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="14"/>
@@ -30560,7 +30560,7 @@
       <c r="Z979" s="2"/>
       <c r="AA979" s="2"/>
     </row>
-    <row r="980" spans="1:27" ht="13">
+    <row r="980" spans="1:27" ht="13.2">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="14"/>
@@ -30589,7 +30589,7 @@
       <c r="Z980" s="2"/>
       <c r="AA980" s="2"/>
     </row>
-    <row r="981" spans="1:27" ht="13">
+    <row r="981" spans="1:27" ht="13.2">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="14"/>
@@ -30618,7 +30618,7 @@
       <c r="Z981" s="2"/>
       <c r="AA981" s="2"/>
     </row>
-    <row r="982" spans="1:27" ht="13">
+    <row r="982" spans="1:27" ht="13.2">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="14"/>
@@ -30647,7 +30647,7 @@
       <c r="Z982" s="2"/>
       <c r="AA982" s="2"/>
     </row>
-    <row r="983" spans="1:27" ht="13">
+    <row r="983" spans="1:27" ht="13.2">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="14"/>
@@ -30676,7 +30676,7 @@
       <c r="Z983" s="2"/>
       <c r="AA983" s="2"/>
     </row>
-    <row r="984" spans="1:27" ht="13">
+    <row r="984" spans="1:27" ht="13.2">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="14"/>
@@ -30705,7 +30705,7 @@
       <c r="Z984" s="2"/>
       <c r="AA984" s="2"/>
     </row>
-    <row r="985" spans="1:27" ht="13">
+    <row r="985" spans="1:27" ht="13.2">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="14"/>
@@ -30734,7 +30734,7 @@
       <c r="Z985" s="2"/>
       <c r="AA985" s="2"/>
     </row>
-    <row r="986" spans="1:27" ht="13">
+    <row r="986" spans="1:27" ht="13.2">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="14"/>
@@ -30763,7 +30763,7 @@
       <c r="Z986" s="2"/>
       <c r="AA986" s="2"/>
     </row>
-    <row r="987" spans="1:27" ht="13">
+    <row r="987" spans="1:27" ht="13.2">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="14"/>
@@ -30792,7 +30792,7 @@
       <c r="Z987" s="2"/>
       <c r="AA987" s="2"/>
     </row>
-    <row r="988" spans="1:27" ht="13">
+    <row r="988" spans="1:27" ht="13.2">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="14"/>
@@ -30821,7 +30821,7 @@
       <c r="Z988" s="2"/>
       <c r="AA988" s="2"/>
     </row>
-    <row r="989" spans="1:27" ht="13">
+    <row r="989" spans="1:27" ht="13.2">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="14"/>
@@ -30850,7 +30850,7 @@
       <c r="Z989" s="2"/>
       <c r="AA989" s="2"/>
     </row>
-    <row r="990" spans="1:27" ht="13">
+    <row r="990" spans="1:27" ht="13.2">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="14"/>
@@ -30879,7 +30879,7 @@
       <c r="Z990" s="2"/>
       <c r="AA990" s="2"/>
     </row>
-    <row r="991" spans="1:27" ht="13">
+    <row r="991" spans="1:27" ht="13.2">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="14"/>
@@ -30908,7 +30908,7 @@
       <c r="Z991" s="2"/>
       <c r="AA991" s="2"/>
     </row>
-    <row r="992" spans="1:27" ht="13">
+    <row r="992" spans="1:27" ht="13.2">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="14"/>
@@ -30937,7 +30937,7 @@
       <c r="Z992" s="2"/>
       <c r="AA992" s="2"/>
     </row>
-    <row r="993" spans="1:27" ht="13">
+    <row r="993" spans="1:27" ht="13.2">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="14"/>
@@ -30966,7 +30966,7 @@
       <c r="Z993" s="2"/>
       <c r="AA993" s="2"/>
     </row>
-    <row r="994" spans="1:27" ht="13">
+    <row r="994" spans="1:27" ht="13.2">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="14"/>
@@ -30995,7 +30995,7 @@
       <c r="Z994" s="2"/>
       <c r="AA994" s="2"/>
     </row>
-    <row r="995" spans="1:27" ht="13">
+    <row r="995" spans="1:27" ht="13.2">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="14"/>
@@ -31024,7 +31024,7 @@
       <c r="Z995" s="2"/>
       <c r="AA995" s="2"/>
     </row>
-    <row r="996" spans="1:27" ht="13">
+    <row r="996" spans="1:27" ht="13.2">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="14"/>
@@ -31053,7 +31053,7 @@
       <c r="Z996" s="2"/>
       <c r="AA996" s="2"/>
     </row>
-    <row r="997" spans="1:27" ht="13">
+    <row r="997" spans="1:27" ht="13.2">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="14"/>
@@ -31082,7 +31082,7 @@
       <c r="Z997" s="2"/>
       <c r="AA997" s="2"/>
     </row>
-    <row r="998" spans="1:27" ht="13">
+    <row r="998" spans="1:27" ht="13.2">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="14"/>
@@ -31111,7 +31111,7 @@
       <c r="Z998" s="2"/>
       <c r="AA998" s="2"/>
     </row>
-    <row r="999" spans="1:27" ht="13">
+    <row r="999" spans="1:27" ht="13.2">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="C999" s="14"/>
@@ -31140,7 +31140,7 @@
       <c r="Z999" s="2"/>
       <c r="AA999" s="2"/>
     </row>
-    <row r="1000" spans="1:27" ht="13">
+    <row r="1000" spans="1:27" ht="13.2">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="14"/>
@@ -31169,7 +31169,7 @@
       <c r="Z1000" s="2"/>
       <c r="AA1000" s="2"/>
     </row>
-    <row r="1001" spans="1:27" ht="13">
+    <row r="1001" spans="1:27" ht="13.2">
       <c r="A1001" s="2"/>
       <c r="B1001" s="2"/>
       <c r="C1001" s="14"/>
@@ -31214,9 +31214,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="22.40625" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -31340,7 +31340,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
@@ -31439,7 +31439,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="10" t="s">
@@ -31498,23 +31498,23 @@
   </sheetPr>
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.40625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="127.1328125" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1328125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="184.54296875" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62.26953125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.40625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.54296875" style="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="127.109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="33" customWidth="1"/>
+    <col min="4" max="4" width="184.5546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.21875" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.5546875" style="33" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.54296875" style="33"/>
+    <col min="10" max="10" width="15.21875" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.5546875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20.25" customHeight="1">
@@ -31929,7 +31929,7 @@
         <v>172</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I10" s="30" t="s">
         <v>173</v>
@@ -31992,28 +31992,23 @@
     </row>
     <row r="12" spans="1:24" ht="20.25" customHeight="1">
       <c r="A12" s="30" t="s">
-        <v>97</v>
+        <v>230</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
-      <c r="C12" s="31">
-        <v>2024</v>
+      <c r="C12" s="30">
+        <v>2023</v>
       </c>
-      <c r="D12" s="32" t="s">
-        <v>180</v>
+      <c r="D12" s="30" t="s">
+        <v>125</v>
       </c>
-      <c r="E12" t="s">
-        <v>181</v>
-      </c>
+      <c r="E12" s="30"/>
       <c r="F12" s="30"/>
-      <c r="G12" s="32"/>
-      <c r="H12"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
@@ -32092,7 +32087,7 @@
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
       <c r="H14" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I14" s="30" t="s">
         <v>179</v>
@@ -32130,7 +32125,7 @@
     </row>
     <row r="16" spans="1:24" ht="20.25" customHeight="1">
       <c r="A16" s="30" t="s">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="B16" s="30" t="s">
         <v>158</v>
@@ -32170,137 +32165,145 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="33" t="s">
         <v>225</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="33">
         <v>2024</v>
       </c>
-      <c r="D18" s="38" t="s">
-        <v>186</v>
+      <c r="D18" s="41" t="s">
+        <v>227</v>
       </c>
-      <c r="E18" s="39" t="s">
-        <v>247</v>
+      <c r="E18" s="30" t="s">
+        <v>104</v>
       </c>
-      <c r="H18"/>
-      <c r="I18" s="30" t="s">
-        <v>163</v>
+      <c r="I18" s="33" t="s">
+        <v>179</v>
       </c>
       <c r="J18" s="33" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="20.25" customHeight="1">
+      <c r="A19" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="30">
+        <v>2024</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" s="33" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A19" s="33" t="s">
+    <row r="20" spans="1:24" ht="20.25" customHeight="1">
+      <c r="A20" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="C19" s="33">
-        <v>2024</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>227</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A20" s="30" t="s">
-        <v>230</v>
-      </c>
       <c r="B20" s="30" t="s">
-        <v>124</v>
+        <v>244</v>
       </c>
       <c r="C20" s="30">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>125</v>
+        <v>243</v>
       </c>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
       <c r="I20" s="30" t="s">
-        <v>157</v>
+        <v>241</v>
       </c>
+      <c r="J20" s="30"/>
     </row>
     <row r="21" spans="1:24" ht="20.25" customHeight="1">
       <c r="A21" s="30" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>52</v>
+        <v>246</v>
       </c>
       <c r="C21" s="30">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>160</v>
+        <v>245</v>
       </c>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
       <c r="H21" s="30"/>
       <c r="I21" s="30" t="s">
-        <v>157</v>
+        <v>241</v>
       </c>
-      <c r="J21" s="33" t="s">
-        <v>103</v>
-      </c>
+      <c r="J21" s="30"/>
     </row>
     <row r="22" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="30" t="s">
         <v>225</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="30">
         <v>2024</v>
       </c>
-      <c r="D22" s="33" t="s">
-        <v>242</v>
+      <c r="D22" s="30" t="s">
+        <v>248</v>
       </c>
+      <c r="E22" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
       <c r="I22" s="30" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
+      <c r="J22" s="30"/>
     </row>
     <row r="23" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A23" s="33" t="s">
-        <v>225</v>
+      <c r="A23" s="30" t="s">
+        <v>97</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>233</v>
+        <v>52</v>
       </c>
-      <c r="C23" s="30">
-        <v>2024</v>
+      <c r="C23" s="31">
+        <v>2025</v>
       </c>
-      <c r="D23" s="30" t="s">
-        <v>265</v>
+      <c r="D23" s="32" t="s">
+        <v>180</v>
       </c>
-      <c r="E23" s="30" t="s">
-        <v>255</v>
+      <c r="E23" t="s">
+        <v>181</v>
       </c>
       <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
+      <c r="G23" s="32"/>
+      <c r="H23"/>
       <c r="I23" s="30" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
-      <c r="J23" s="30"/>
+      <c r="J23" s="33" t="s">
+        <v>103</v>
+      </c>
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
       <c r="M23" s="30"/>
@@ -32317,26 +32320,28 @@
       <c r="X23" s="30"/>
     </row>
     <row r="24" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="B24" s="30" t="s">
-        <v>234</v>
+      <c r="B24" s="33" t="s">
+        <v>187</v>
       </c>
       <c r="C24" s="30">
-        <v>2024</v>
+        <v>2025</v>
       </c>
-      <c r="D24" s="30" t="s">
-        <v>236</v>
+      <c r="D24" s="38" t="s">
+        <v>186</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
+      <c r="E24" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="H24"/>
       <c r="I24" s="30" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
-      <c r="J24" s="30"/>
+      <c r="J24" s="33" t="s">
+        <v>103</v>
+      </c>
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
       <c r="M24" s="30"/>
@@ -32353,28 +32358,21 @@
       <c r="X24" s="30"/>
     </row>
     <row r="25" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="33" t="s">
         <v>225</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
-      <c r="C25" s="30">
-        <v>2024</v>
+      <c r="C25" s="33">
+        <v>2025</v>
       </c>
-      <c r="D25" s="30" t="s">
-        <v>238</v>
+      <c r="D25" s="33" t="s">
+        <v>242</v>
       </c>
-      <c r="E25" s="30" t="s">
-        <v>237</v>
+      <c r="I25" s="30" t="s">
+        <v>157</v>
       </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="J25" s="30"/>
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
       <c r="M25" s="30"/>
@@ -32391,24 +32389,26 @@
       <c r="X25" s="30"/>
     </row>
     <row r="26" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="33" t="s">
         <v>225</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C26" s="30">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
-      <c r="E26" s="30"/>
+      <c r="E26" s="30" t="s">
+        <v>104</v>
+      </c>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
       <c r="I26" s="30" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="J26" s="30"/>
       <c r="K26" s="30"/>
@@ -32427,24 +32427,24 @@
       <c r="X26" s="30"/>
     </row>
     <row r="27" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="33" t="s">
         <v>225</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C27" s="30">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E27" s="30"/>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
       <c r="I27" s="30" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
@@ -32467,20 +32467,22 @@
         <v>225</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C28" s="30">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
-      <c r="E28" s="30"/>
+      <c r="E28" s="30" t="s">
+        <v>237</v>
+      </c>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
       <c r="I28" s="30" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="J28" s="30"/>
       <c r="K28" s="30"/>
@@ -32503,22 +32505,22 @@
         <v>225</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C29" s="30">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>178</v>
+        <v>267</v>
       </c>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
       <c r="I29" s="30" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="J29" s="30"/>
       <c r="K29" s="30"/>
@@ -57758,8 +57760,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J21" xr:uid="{00000000-0001-0000-0600-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J21">
-      <sortCondition ref="A1:A21"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J29">
+      <sortCondition ref="C1:C21"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -57779,7 +57781,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
@@ -57814,7 +57816,7 @@
         <v>2024</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>104</v>
@@ -57825,13 +57827,13 @@
         <v>2024</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.5">
+    <row r="6" spans="1:5" ht="13.8">
       <c r="A6" s="43"/>
     </row>
   </sheetData>
@@ -57852,14 +57854,14 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7265625" customWidth="1"/>
-    <col min="5" max="5" width="46.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.77734375" customWidth="1"/>
+    <col min="5" max="5" width="46.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13">
+    <row r="1" spans="1:21" ht="13.2">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -57896,7 +57898,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" ht="13">
+    <row r="2" spans="1:21" ht="13.2">
       <c r="A2" s="2" t="s">
         <v>127</v>
       </c>
@@ -57933,7 +57935,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" ht="13">
+    <row r="3" spans="1:21" ht="13.2">
       <c r="A3" s="2" t="s">
         <v>127</v>
       </c>
@@ -57970,7 +57972,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="13">
+    <row r="4" spans="1:21" ht="13.2">
       <c r="A4" s="2" t="s">
         <v>127</v>
       </c>
@@ -58006,7 +58008,7 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="13">
+    <row r="5" spans="1:21" ht="13.2">
       <c r="A5" s="2" t="s">
         <v>127</v>
       </c>
@@ -58043,7 +58045,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="14.25">
+    <row r="6" spans="1:21" ht="13.8">
       <c r="A6" s="2" t="s">
         <v>127</v>
       </c>
@@ -58080,7 +58082,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="13.75" thickBot="1">
+    <row r="7" spans="1:21" ht="13.8" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>127</v>
       </c>
@@ -58117,7 +58119,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="13.75" thickBot="1">
+    <row r="8" spans="1:21" ht="13.8" thickBot="1">
       <c r="A8" s="2" t="s">
         <v>127</v>
       </c>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slee2462\Documents\github\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EC09D9-9BE8-4A18-9AA6-CB2837AD0666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF77AF2-9504-4221-BAA5-43E673EDDA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
     <sheet name="Experience" sheetId="5" r:id="rId2"/>
     <sheet name="Presentation" sheetId="2" r:id="rId3"/>
-    <sheet name="Teaching" sheetId="3" r:id="rId4"/>
-    <sheet name="FellowshipAwards" sheetId="4" r:id="rId5"/>
+    <sheet name="FellowshipAwards" sheetId="4" r:id="rId4"/>
+    <sheet name="Teaching" sheetId="3" r:id="rId5"/>
     <sheet name="Skills" sheetId="6" r:id="rId6"/>
     <sheet name="Publication" sheetId="7" r:id="rId7"/>
     <sheet name="Service" sheetId="9" r:id="rId8"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="269">
   <si>
     <t>Degree</t>
   </si>
@@ -719,10 +719,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Discrete-time Survival Analysis Incorporating Time Structure in Developmental Research</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Under review</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -755,10 +751,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>A Comparative Study of Bayesian and Maximum-Likelihood Moderated Nonlinear Factor Analysis for Graded Response Data</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Multivariate Behavioral Research</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -771,15 +763,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Comparing Approaches to Moderated Mediation in Multilevel Structural Equation Modeling</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>In preparation</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comparing Blimp vs. Mplus for Bayesian Multilevel Structural Equation Modeling with random slopes</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -861,6 +845,21 @@
   </si>
   <si>
     <t>Frontier in Psychology</t>
+  </si>
+  <si>
+    <t>Discrete-time Survival Analysis Incorporating Time Structure in Developmental Research</t>
+  </si>
+  <si>
+    <t>https://www.tandfonline.com/doi/abs/10.1080/10705511.2024.2432598</t>
+  </si>
+  <si>
+    <t>Comparing Bayesian Random Coefficient Prediction and Latent Interaction Models for Multilevel Moderated Mediation</t>
+  </si>
+  <si>
+    <t>Tutorial for Bayesian Multilevel Structural Equation Modeling using Blimp</t>
+  </si>
+  <si>
+    <t>Anchor Detection Strategy Using Moderated Non-linear Factor Analysis for Differential Item Functioning</t>
   </si>
 </sst>
 </file>
@@ -1400,7 +1399,7 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1760,7 +1759,7 @@
         <v>219</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1933,7 +1932,9 @@
   </sheetPr>
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -2523,19 +2524,19 @@
         <v>40</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C14" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D14" t="s">
-        <v>256</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="F14" s="21" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -2566,19 +2567,19 @@
         <v>40</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C15" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="F15" s="21" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -31206,6 +31207,105 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -31331,105 +31431,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="27" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
@@ -31498,8 +31499,8 @@
   </sheetPr>
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="20.25" customHeight="1"/>
@@ -31929,7 +31930,7 @@
         <v>172</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I10" s="30" t="s">
         <v>173</v>
@@ -31992,23 +31993,32 @@
     </row>
     <row r="12" spans="1:24" ht="20.25" customHeight="1">
       <c r="A12" s="30" t="s">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="C12" s="30">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>125</v>
+        <v>248</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30" t="s">
-        <v>157</v>
+      <c r="E12" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="H12" t="s">
+        <v>220</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30" t="s">
+        <v>103</v>
       </c>
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
@@ -32030,28 +32040,26 @@
         <v>97</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C13" s="30">
         <v>2024</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>252</v>
+      <c r="D13" s="40" t="s">
+        <v>224</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>221</v>
+        <v>104</v>
       </c>
-      <c r="F13" s="30" t="s">
-        <v>253</v>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30" t="s">
+        <v>261</v>
       </c>
-      <c r="G13" s="30" t="s">
-        <v>254</v>
+      <c r="I13" s="30" t="s">
+        <v>179</v>
       </c>
-      <c r="H13" t="s">
-        <v>220</v>
-      </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30" t="s">
+      <c r="J13" s="33" t="s">
         <v>103</v>
       </c>
       <c r="K13" s="30"/>
@@ -32073,185 +32081,190 @@
         <v>97</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>52</v>
+        <v>223</v>
       </c>
       <c r="C14" s="30">
         <v>2024</v>
       </c>
-      <c r="D14" s="40" t="s">
-        <v>224</v>
+      <c r="D14" s="33" t="s">
+        <v>161</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30" t="s">
-        <v>265</v>
+      <c r="G14" s="42" t="s">
+        <v>247</v>
       </c>
-      <c r="I14" s="30" t="s">
-        <v>179</v>
+      <c r="H14" t="s">
+        <v>222</v>
       </c>
+      <c r="I14" s="30"/>
       <c r="J14" s="33" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A15" s="30" t="s">
-        <v>97</v>
+      <c r="A15" s="33" t="s">
+        <v>225</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>223</v>
+      <c r="B15" s="33" t="s">
+        <v>226</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="33">
         <v>2024</v>
       </c>
-      <c r="D15" s="33" t="s">
-        <v>161</v>
+      <c r="D15" s="41" t="s">
+        <v>264</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="G15" s="42" t="s">
-        <v>251</v>
+      <c r="H15" s="22" t="s">
+        <v>265</v>
       </c>
-      <c r="H15" t="s">
-        <v>222</v>
+      <c r="I15" s="33" t="s">
+        <v>179</v>
       </c>
-      <c r="I15" s="30"/>
       <c r="J15" s="33" t="s">
-        <v>103</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="20.25" customHeight="1">
       <c r="A16" s="30" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>158</v>
+        <v>245</v>
       </c>
       <c r="C16" s="30">
         <v>2024</v>
       </c>
-      <c r="D16" s="35" t="s">
-        <v>159</v>
+      <c r="D16" s="30" t="s">
+        <v>244</v>
       </c>
-      <c r="H16"/>
+      <c r="E16" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="30" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
-      <c r="J16" s="33" t="s">
-        <v>103</v>
-      </c>
+      <c r="J16" s="30"/>
     </row>
     <row r="17" spans="1:24" ht="20.25" customHeight="1">
       <c r="A17" s="30" t="s">
-        <v>250</v>
+        <v>97</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
-      <c r="C17" s="30">
-        <v>2024</v>
+      <c r="C17" s="31">
+        <v>2025</v>
       </c>
-      <c r="D17" s="33" t="s">
-        <v>215</v>
+      <c r="D17" s="32" t="s">
+        <v>180</v>
       </c>
+      <c r="E17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="32"/>
+      <c r="H17"/>
       <c r="I17" s="30" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="J17" s="33" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="30" t="s">
         <v>225</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
-      <c r="C18" s="33">
-        <v>2024</v>
+      <c r="C18" s="30">
+        <v>2025</v>
       </c>
-      <c r="D18" s="41" t="s">
-        <v>227</v>
+      <c r="D18" s="38" t="s">
+        <v>186</v>
       </c>
-      <c r="E18" s="30" t="s">
-        <v>104</v>
+      <c r="E18" s="39" t="s">
+        <v>243</v>
       </c>
-      <c r="I18" s="33" t="s">
-        <v>179</v>
+      <c r="H18"/>
+      <c r="I18" s="30" t="s">
+        <v>163</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>229</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A19" s="30" t="s">
-        <v>230</v>
+      <c r="A19" s="33" t="s">
+        <v>225</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>52</v>
+        <v>231</v>
       </c>
-      <c r="C19" s="30">
-        <v>2024</v>
+      <c r="C19" s="33">
+        <v>2025</v>
       </c>
-      <c r="D19" s="30" t="s">
-        <v>160</v>
+      <c r="D19" s="33" t="s">
+        <v>267</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
       <c r="I19" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="J19" s="33" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="20" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="33" t="s">
         <v>225</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C20" s="30">
         <v>2025</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
-      <c r="E20" s="30"/>
+      <c r="E20" s="30" t="s">
+        <v>104</v>
+      </c>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
       <c r="I20" s="30" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="J20" s="30"/>
     </row>
     <row r="21" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A21" s="30" t="s">
-        <v>250</v>
+      <c r="A21" s="33" t="s">
+        <v>225</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C21" s="30">
         <v>2025</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
-      <c r="E21" s="30"/>
+      <c r="E21" s="30" t="s">
+        <v>109</v>
+      </c>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
       <c r="H21" s="30"/>
       <c r="I21" s="30" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="J21" s="30"/>
     </row>
@@ -32260,50 +32273,48 @@
         <v>225</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C22" s="30">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="J22" s="30"/>
     </row>
     <row r="23" spans="1:24" ht="20.25" customHeight="1">
       <c r="A23" s="30" t="s">
-        <v>97</v>
+        <v>225</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>52</v>
+        <v>237</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="30">
         <v>2025</v>
       </c>
-      <c r="D23" s="32" t="s">
-        <v>180</v>
+      <c r="D23" s="30" t="s">
+        <v>266</v>
       </c>
-      <c r="E23" t="s">
-        <v>181</v>
+      <c r="E23" s="30" t="s">
+        <v>263</v>
       </c>
       <c r="F23" s="30"/>
-      <c r="G23" s="32"/>
-      <c r="H23"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
       <c r="I23" s="30" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
-      <c r="J23" s="33" t="s">
-        <v>103</v>
-      </c>
+      <c r="J23" s="30"/>
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
       <c r="M23" s="30"/>
@@ -32321,27 +32332,25 @@
     </row>
     <row r="24" spans="1:24" ht="20.25" customHeight="1">
       <c r="A24" s="30" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
-      <c r="B24" s="33" t="s">
-        <v>187</v>
+      <c r="B24" s="30" t="s">
+        <v>240</v>
       </c>
       <c r="C24" s="30">
         <v>2025</v>
       </c>
-      <c r="D24" s="38" t="s">
-        <v>186</v>
+      <c r="D24" s="30" t="s">
+        <v>239</v>
       </c>
-      <c r="E24" s="39" t="s">
-        <v>247</v>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30" t="s">
+        <v>238</v>
       </c>
-      <c r="H24"/>
-      <c r="I24" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="J24" s="33" t="s">
-        <v>103</v>
-      </c>
+      <c r="J24" s="30"/>
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
       <c r="M24" s="30"/>
@@ -32358,18 +32367,22 @@
       <c r="X24" s="30"/>
     </row>
     <row r="25" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A25" s="33" t="s">
-        <v>225</v>
+      <c r="A25" s="30" t="s">
+        <v>229</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>232</v>
+        <v>124</v>
       </c>
-      <c r="C25" s="33">
-        <v>2025</v>
+      <c r="C25" s="30">
+        <v>2023</v>
       </c>
-      <c r="D25" s="33" t="s">
-        <v>242</v>
+      <c r="D25" s="30" t="s">
+        <v>125</v>
       </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
       <c r="I25" s="30" t="s">
         <v>157</v>
       </c>
@@ -32389,28 +32402,25 @@
       <c r="X25" s="30"/>
     </row>
     <row r="26" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A26" s="33" t="s">
-        <v>225</v>
+      <c r="A26" s="30" t="s">
+        <v>246</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>233</v>
+        <v>158</v>
       </c>
       <c r="C26" s="30">
-        <v>2025</v>
+        <v>2024</v>
       </c>
-      <c r="D26" s="30" t="s">
-        <v>264</v>
+      <c r="D26" s="35" t="s">
+        <v>159</v>
       </c>
-      <c r="E26" s="30" t="s">
-        <v>104</v>
+      <c r="H26"/>
+      <c r="I26" s="30" t="s">
+        <v>157</v>
       </c>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30" t="s">
-        <v>228</v>
+      <c r="J26" s="33" t="s">
+        <v>103</v>
       </c>
-      <c r="J26" s="30"/>
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
       <c r="M26" s="30"/>
@@ -32427,26 +32437,24 @@
       <c r="X26" s="30"/>
     </row>
     <row r="27" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A27" s="33" t="s">
-        <v>225</v>
+      <c r="A27" s="30" t="s">
+        <v>246</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>234</v>
+        <v>158</v>
       </c>
       <c r="C27" s="30">
-        <v>2025</v>
+        <v>2024</v>
       </c>
-      <c r="D27" s="30" t="s">
-        <v>236</v>
+      <c r="D27" s="33" t="s">
+        <v>215</v>
       </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
       <c r="I27" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="J27" s="30"/>
+      <c r="J27" s="33" t="s">
+        <v>103</v>
+      </c>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
@@ -32464,27 +32472,27 @@
     </row>
     <row r="28" spans="1:24" ht="20.25" customHeight="1">
       <c r="A28" s="30" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>235</v>
+        <v>52</v>
       </c>
       <c r="C28" s="30">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>238</v>
+        <v>160</v>
       </c>
-      <c r="E28" s="30" t="s">
-        <v>237</v>
-      </c>
+      <c r="E28" s="30"/>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
       <c r="I28" s="30" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
-      <c r="J28" s="30"/>
+      <c r="J28" s="33" t="s">
+        <v>103</v>
+      </c>
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
@@ -32502,25 +32510,23 @@
     </row>
     <row r="29" spans="1:24" ht="20.25" customHeight="1">
       <c r="A29" s="30" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C29" s="30">
         <v>2025</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
-      <c r="E29" s="30" t="s">
-        <v>267</v>
-      </c>
+      <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
       <c r="I29" s="30" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="J29" s="30"/>
       <c r="K29" s="30"/>
@@ -57761,15 +57767,16 @@
   </sheetData>
   <autoFilter ref="A1:J21" xr:uid="{00000000-0001-0000-0600-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J29">
-      <sortCondition ref="C1:C21"/>
+      <sortCondition ref="A1:A21"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H10" r:id="rId1" xr:uid="{EA9A8237-32EE-4828-902C-BF843B0673D1}"/>
+    <hyperlink ref="H15" r:id="rId2" xr:uid="{9FA698D4-510B-4E75-A98B-530B9A769900}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -57816,7 +57823,7 @@
         <v>2024</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>104</v>
@@ -57827,10 +57834,10 @@
         <v>2024</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.8">

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slee2462\Documents\github\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF77AF2-9504-4221-BAA5-43E673EDDA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4EF93A-8AAE-4EE1-8A69-9C7CC6F2ED6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34890" yWindow="0" windowWidth="21240" windowHeight="16305" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="272">
   <si>
     <t>Degree</t>
   </si>
@@ -861,6 +861,15 @@
   <si>
     <t>Anchor Detection Strategy Using Moderated Non-linear Factor Analysis for Differential Item Functioning</t>
   </si>
+  <si>
+    <t>Cory L. Cobb, Sooyong Lee</t>
+  </si>
+  <si>
+    <t>Psychopathology Typologies and their Correlates among Latinos: A Latent Profile Analysis</t>
+  </si>
+  <si>
+    <t>Social Psychiatry and Psychiatric Epidemiology</t>
+  </si>
 </sst>
 </file>
 
@@ -1399,7 +1408,7 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -31499,8 +31508,8 @@
   </sheetPr>
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B11" activeCellId="1" sqref="B16 B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="20.25" customHeight="1"/>
@@ -32332,25 +32341,29 @@
     </row>
     <row r="24" spans="1:24" ht="20.25" customHeight="1">
       <c r="A24" s="30" t="s">
-        <v>246</v>
+        <v>97</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="C24" s="30">
         <v>2025</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
-      <c r="E24" s="30"/>
+      <c r="E24" s="30" t="s">
+        <v>271</v>
+      </c>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
       <c r="H24" s="30"/>
       <c r="I24" s="30" t="s">
-        <v>238</v>
+        <v>163</v>
       </c>
-      <c r="J24" s="30"/>
+      <c r="J24" s="30" t="s">
+        <v>103</v>
+      </c>
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
       <c r="M24" s="30"/>
@@ -32368,24 +32381,25 @@
     </row>
     <row r="25" spans="1:24" ht="20.25" customHeight="1">
       <c r="A25" s="30" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>124</v>
+        <v>240</v>
       </c>
       <c r="C25" s="30">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>125</v>
+        <v>239</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30" t="s">
-        <v>157</v>
+        <v>238</v>
       </c>
+      <c r="J25" s="30"/>
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
       <c r="M25" s="30"/>
@@ -32403,23 +32417,23 @@
     </row>
     <row r="26" spans="1:24" ht="20.25" customHeight="1">
       <c r="A26" s="30" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="C26" s="30">
-        <v>2024</v>
+        <v>2023</v>
       </c>
-      <c r="D26" s="35" t="s">
-        <v>159</v>
+      <c r="D26" s="30" t="s">
+        <v>125</v>
       </c>
-      <c r="H26"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
       <c r="I26" s="30" t="s">
         <v>157</v>
-      </c>
-      <c r="J26" s="33" t="s">
-        <v>103</v>
       </c>
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
@@ -32446,9 +32460,10 @@
       <c r="C27" s="30">
         <v>2024</v>
       </c>
-      <c r="D27" s="33" t="s">
-        <v>215</v>
+      <c r="D27" s="35" t="s">
+        <v>159</v>
       </c>
+      <c r="H27"/>
       <c r="I27" s="30" t="s">
         <v>157</v>
       </c>
@@ -32472,21 +32487,17 @@
     </row>
     <row r="28" spans="1:24" ht="20.25" customHeight="1">
       <c r="A28" s="30" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="C28" s="30">
         <v>2024</v>
       </c>
-      <c r="D28" s="30" t="s">
-        <v>160</v>
+      <c r="D28" s="33" t="s">
+        <v>215</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
       <c r="I28" s="30" t="s">
         <v>157</v>
       </c>
@@ -32510,25 +32521,27 @@
     </row>
     <row r="29" spans="1:24" ht="20.25" customHeight="1">
       <c r="A29" s="30" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
       <c r="C29" s="30">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>241</v>
+        <v>160</v>
       </c>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
       <c r="I29" s="30" t="s">
-        <v>238</v>
+        <v>157</v>
       </c>
-      <c r="J29" s="30"/>
+      <c r="J29" s="33" t="s">
+        <v>103</v>
+      </c>
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
       <c r="M29" s="30"/>
@@ -32545,16 +32558,28 @@
       <c r="X29" s="30"/>
     </row>
     <row r="30" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
+      <c r="A30" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="C30" s="30">
+        <v>2025</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>241</v>
+      </c>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
+      <c r="I30" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="J30" s="30" t="s">
+        <v>103</v>
+      </c>
       <c r="K30" s="30"/>
       <c r="L30" s="30"/>
       <c r="M30" s="30"/>
@@ -57766,7 +57791,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J21" xr:uid="{00000000-0001-0000-0600-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J29">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J30">
       <sortCondition ref="A1:A21"/>
     </sortState>
   </autoFilter>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slee2462\Documents\github\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4EF93A-8AAE-4EE1-8A69-9C7CC6F2ED6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4491636D-ECBC-484E-AD9C-FD91E6181678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34890" yWindow="0" windowWidth="21240" windowHeight="16305" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="16440" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="281">
   <si>
     <t>Degree</t>
   </si>
@@ -870,6 +870,33 @@
   <si>
     <t>Social Psychiatry and Psychiatric Epidemiology</t>
   </si>
+  <si>
+    <t>Sooyong Lee</t>
+  </si>
+  <si>
+    <t>Nominal mediator: MLE vs Bayesian estimation</t>
+  </si>
+  <si>
+    <t>Effect Coding for DIF without reference group</t>
+  </si>
+  <si>
+    <t>Vertical Scaling for Second-order LGM</t>
+  </si>
+  <si>
+    <t>GMM for Alternate ACCESS</t>
+  </si>
+  <si>
+    <t>Competing risk and recurrent events</t>
+  </si>
+  <si>
+    <t>Expectation of life</t>
+  </si>
+  <si>
+    <t>Belongness in PISA or TIMSS</t>
+  </si>
+  <si>
+    <t>idea</t>
+  </si>
 </sst>
 </file>
 
@@ -31509,7 +31536,7 @@
   <dimension ref="A1:X999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B11" activeCellId="1" sqref="B16 B11"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="20.25" customHeight="1"/>
@@ -32381,25 +32408,24 @@
     </row>
     <row r="25" spans="1:24" ht="20.25" customHeight="1">
       <c r="A25" s="30" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>240</v>
+        <v>124</v>
       </c>
       <c r="C25" s="30">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>239</v>
+        <v>125</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30" t="s">
-        <v>238</v>
+        <v>157</v>
       </c>
-      <c r="J25" s="30"/>
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
       <c r="M25" s="30"/>
@@ -32417,23 +32443,23 @@
     </row>
     <row r="26" spans="1:24" ht="20.25" customHeight="1">
       <c r="A26" s="30" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="C26" s="30">
-        <v>2023</v>
+        <v>2024</v>
       </c>
-      <c r="D26" s="30" t="s">
-        <v>125</v>
+      <c r="D26" s="35" t="s">
+        <v>159</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
+      <c r="H26"/>
       <c r="I26" s="30" t="s">
         <v>157</v>
+      </c>
+      <c r="J26" s="33" t="s">
+        <v>103</v>
       </c>
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
@@ -32460,10 +32486,9 @@
       <c r="C27" s="30">
         <v>2024</v>
       </c>
-      <c r="D27" s="35" t="s">
-        <v>159</v>
+      <c r="D27" s="33" t="s">
+        <v>215</v>
       </c>
-      <c r="H27"/>
       <c r="I27" s="30" t="s">
         <v>157</v>
       </c>
@@ -32487,17 +32512,21 @@
     </row>
     <row r="28" spans="1:24" ht="20.25" customHeight="1">
       <c r="A28" s="30" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="C28" s="30">
         <v>2024</v>
       </c>
-      <c r="D28" s="33" t="s">
-        <v>215</v>
+      <c r="D28" s="30" t="s">
+        <v>160</v>
       </c>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
       <c r="I28" s="30" t="s">
         <v>157</v>
       </c>
@@ -32521,27 +32550,25 @@
     </row>
     <row r="29" spans="1:24" ht="20.25" customHeight="1">
       <c r="A29" s="30" t="s">
-        <v>229</v>
+        <v>280</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>52</v>
+        <v>240</v>
       </c>
       <c r="C29" s="30">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
       <c r="I29" s="30" t="s">
-        <v>157</v>
+        <v>238</v>
       </c>
-      <c r="J29" s="33" t="s">
-        <v>103</v>
-      </c>
+      <c r="J29" s="30"/>
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
       <c r="M29" s="30"/>
@@ -32559,7 +32586,7 @@
     </row>
     <row r="30" spans="1:24" ht="20.25" customHeight="1">
       <c r="A30" s="30" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>242</v>
@@ -32596,10 +32623,16 @@
       <c r="X30" s="30"/>
     </row>
     <row r="31" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
+      <c r="A31" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
+      <c r="D31" s="30" t="s">
+        <v>273</v>
+      </c>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
@@ -32622,10 +32655,16 @@
       <c r="X31" s="30"/>
     </row>
     <row r="32" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
+      <c r="A32" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
+      <c r="D32" s="30" t="s">
+        <v>274</v>
+      </c>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
       <c r="G32" s="30"/>
@@ -32648,10 +32687,16 @@
       <c r="X32" s="30"/>
     </row>
     <row r="33" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
+      <c r="A33" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
+      <c r="D33" s="30" t="s">
+        <v>275</v>
+      </c>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
       <c r="G33" s="30"/>
@@ -32674,10 +32719,16 @@
       <c r="X33" s="30"/>
     </row>
     <row r="34" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
+      <c r="A34" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
+      <c r="D34" s="30" t="s">
+        <v>276</v>
+      </c>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
       <c r="G34" s="30"/>
@@ -32700,10 +32751,16 @@
       <c r="X34" s="30"/>
     </row>
     <row r="35" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
+      <c r="A35" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
+      <c r="D35" s="30" t="s">
+        <v>277</v>
+      </c>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
@@ -32726,10 +32783,16 @@
       <c r="X35" s="30"/>
     </row>
     <row r="36" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
+      <c r="A36" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
+      <c r="D36" s="30" t="s">
+        <v>278</v>
+      </c>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
@@ -32752,10 +32815,16 @@
       <c r="X36" s="30"/>
     </row>
     <row r="37" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
+      <c r="A37" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>272</v>
+      </c>
       <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
+      <c r="D37" s="30" t="s">
+        <v>279</v>
+      </c>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
       <c r="G37" s="30"/>
@@ -57791,7 +57860,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J21" xr:uid="{00000000-0001-0000-0600-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J30">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J37">
       <sortCondition ref="A1:A21"/>
     </sortState>
   </autoFilter>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slee2462\Documents\github\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4491636D-ECBC-484E-AD9C-FD91E6181678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B699C1EA-39D4-4D2B-BCB5-146FE004AE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="16440" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30930" yWindow="1950" windowWidth="21165" windowHeight="13425" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="283">
   <si>
     <t>Degree</t>
   </si>
@@ -897,6 +897,12 @@
   <si>
     <t>idea</t>
   </si>
+  <si>
+    <t>Sooyong Lee Kahyun Lee</t>
+  </si>
+  <si>
+    <t>Propensity score approach to black paretner vs non-balck parents</t>
+  </si>
 </sst>
 </file>
 
@@ -31535,8 +31541,8 @@
   </sheetPr>
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="20.25" customHeight="1"/>
@@ -32847,10 +32853,16 @@
       <c r="X37" s="30"/>
     </row>
     <row r="38" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
+      <c r="A38" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>281</v>
+      </c>
       <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
+      <c r="D38" s="30" t="s">
+        <v>282</v>
+      </c>
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
       <c r="G38" s="30"/>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slee2462\Documents\github\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B699C1EA-39D4-4D2B-BCB5-146FE004AE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49B35A7-8B72-412B-8B67-070BAFBC36ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30930" yWindow="1950" windowWidth="21165" windowHeight="13425" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29760" yWindow="960" windowWidth="28800" windowHeight="11775" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -755,10 +755,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Development of a Method for Addressing Doubly-Censored Effects in a Latent Growth Curve Modeling Framework </t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Sooyong Lee &amp; Soyoung Kim</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -868,9 +864,6 @@
     <t>Psychopathology Typologies and their Correlates among Latinos: A Latent Profile Analysis</t>
   </si>
   <si>
-    <t>Social Psychiatry and Psychiatric Epidemiology</t>
-  </si>
-  <si>
     <t>Sooyong Lee</t>
   </si>
   <si>
@@ -902,6 +895,12 @@
   </si>
   <si>
     <t>Propensity score approach to black paretner vs non-balck parents</t>
+  </si>
+  <si>
+    <t>Development of a Method for Handling Doubly-Censored Data in a Latent Growth Curve Modeling Framework</t>
+  </si>
+  <si>
+    <t>Psychiatry Research</t>
   </si>
 </sst>
 </file>
@@ -2566,19 +2565,19 @@
         <v>40</v>
       </c>
       <c r="B14" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" t="s">
+        <v>251</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="F14" s="21" t="s">
         <v>252</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>253</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -2609,19 +2608,19 @@
         <v>40</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>255</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -31541,8 +31540,8 @@
   </sheetPr>
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="20.25" customHeight="1"/>
@@ -31972,7 +31971,7 @@
         <v>172</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I10" s="30" t="s">
         <v>173</v>
@@ -32044,16 +32043,16 @@
         <v>2024</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>221</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H12" t="s">
         <v>220</v>
@@ -32096,7 +32095,7 @@
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
       <c r="H13" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I13" s="30" t="s">
         <v>179</v>
@@ -32135,7 +32134,7 @@
         <v>104</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H14" t="s">
         <v>222</v>
@@ -32156,13 +32155,13 @@
         <v>2024</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I15" s="33" t="s">
         <v>179</v>
@@ -32176,13 +32175,13 @@
         <v>225</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C16" s="30">
         <v>2024</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>178</v>
@@ -32235,7 +32234,7 @@
         <v>186</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H18"/>
       <c r="I18" s="30" t="s">
@@ -32256,7 +32255,7 @@
         <v>2025</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I19" s="30" t="s">
         <v>157</v>
@@ -32273,7 +32272,7 @@
         <v>2025</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>104</v>
@@ -32297,7 +32296,7 @@
         <v>2025</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>109</v>
@@ -32321,7 +32320,7 @@
         <v>2025</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>235</v>
@@ -32330,7 +32329,7 @@
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
       <c r="J22" s="30"/>
     </row>
@@ -32339,16 +32338,16 @@
         <v>225</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C23" s="30">
         <v>2025</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
@@ -32377,16 +32376,16 @@
         <v>97</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C24" s="30">
         <v>2025</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
@@ -32449,7 +32448,7 @@
     </row>
     <row r="26" spans="1:24" ht="20.25" customHeight="1">
       <c r="A26" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>158</v>
@@ -32484,7 +32483,7 @@
     </row>
     <row r="27" spans="1:24" ht="20.25" customHeight="1">
       <c r="A27" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>158</v>
@@ -32556,23 +32555,23 @@
     </row>
     <row r="29" spans="1:24" ht="20.25" customHeight="1">
       <c r="A29" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C29" s="30">
         <v>2025</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
       <c r="I29" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J29" s="30"/>
       <c r="K29" s="30"/>
@@ -32592,23 +32591,23 @@
     </row>
     <row r="30" spans="1:24" ht="20.25" customHeight="1">
       <c r="A30" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C30" s="30">
         <v>2025</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
       <c r="I30" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J30" s="30" t="s">
         <v>103</v>
@@ -32630,14 +32629,14 @@
     </row>
     <row r="31" spans="1:24" ht="20.25" customHeight="1">
       <c r="A31" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="30" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
@@ -32662,14 +32661,14 @@
     </row>
     <row r="32" spans="1:24" ht="20.25" customHeight="1">
       <c r="A32" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="30" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
@@ -32694,14 +32693,14 @@
     </row>
     <row r="33" spans="1:24" ht="20.25" customHeight="1">
       <c r="A33" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="30" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
@@ -32726,14 +32725,14 @@
     </row>
     <row r="34" spans="1:24" ht="20.25" customHeight="1">
       <c r="A34" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
@@ -32758,14 +32757,14 @@
     </row>
     <row r="35" spans="1:24" ht="20.25" customHeight="1">
       <c r="A35" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -32790,14 +32789,14 @@
     </row>
     <row r="36" spans="1:24" ht="20.25" customHeight="1">
       <c r="A36" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="30" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
@@ -32822,14 +32821,14 @@
     </row>
     <row r="37" spans="1:24" ht="20.25" customHeight="1">
       <c r="A37" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="30" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
@@ -32854,14 +32853,14 @@
     </row>
     <row r="38" spans="1:24" ht="20.25" customHeight="1">
       <c r="A38" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
@@ -57929,7 +57928,7 @@
         <v>2024</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>104</v>
@@ -57940,10 +57939,10 @@
         <v>2024</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.8">

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slee2462\Documents\github\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49B35A7-8B72-412B-8B67-070BAFBC36ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8565126-5869-4D14-B1DF-E26F844303D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="960" windowWidth="28800" windowHeight="11775" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2952" yWindow="0" windowWidth="20184" windowHeight="12336" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="285">
   <si>
     <t>Degree</t>
   </si>
@@ -561,9 +561,6 @@
     <t>Reviewer</t>
   </si>
   <si>
-    <t>Jonghwan Lee, Christina Schneider, Garron Gianopulos, Luping Niu, Sooyong Lee, Sangdon Lim, &amp; Seung W Choi</t>
-  </si>
-  <si>
     <t>The Impact of Item Bank Transition Rules on Student Ability Estimates and Achievement Level Classifications</t>
   </si>
   <si>
@@ -782,12 +779,6 @@
     <t>Journal of Social and Personal Relationships</t>
   </si>
   <si>
-    <t>The impact of item pool size and item pool distribution on student ability estimates for a hybrid interim-summative CAT</t>
-  </si>
-  <si>
-    <t>Gianopulos, G., Lee, J., Lim, S., Niu, L., Sooyong Lee., &amp; Choi, S. W.</t>
-  </si>
-  <si>
     <t>failed</t>
   </si>
   <si>
@@ -901,6 +892,21 @@
   </si>
   <si>
     <t>Psychiatry Research</t>
+  </si>
+  <si>
+    <t>The Impact of Item Bank Size and Item Bank Distribution on Student Ability Estimates for a Hybrid Interim-Summative CAT</t>
+  </si>
+  <si>
+    <t>DOI 10.7333/2502-1201054</t>
+  </si>
+  <si>
+    <t>DOI 10.7333/2502-1201088</t>
+  </si>
+  <si>
+    <t>Lee, J, Lim, S., Schneider, C, Gianopulos, G, Niu, L., Sooyong Lee., &amp; Choi, S. W.</t>
+  </si>
+  <si>
+    <t>Jonghwan Lee, Sangdon Lim, Luping Niu, Sooyong Lee, &amp; Seung W Choi</t>
   </si>
 </sst>
 </file>
@@ -1474,7 +1480,7 @@
         <v>170</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -1483,7 +1489,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.8" thickBot="1">
@@ -1500,7 +1506,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
@@ -1574,7 +1580,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>71</v>
@@ -1600,7 +1606,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>74</v>
@@ -1628,10 +1634,10 @@
         <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>77</v>
@@ -1654,16 +1660,16 @@
         <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1679,19 +1685,19 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1763,19 +1769,19 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1791,16 +1797,16 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="D10" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2044,7 +2050,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -2089,7 +2095,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -2134,7 +2140,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
@@ -2179,7 +2185,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>35</v>
@@ -2222,7 +2228,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
@@ -2265,7 +2271,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>42</v>
@@ -2312,7 +2318,7 @@
         <v>46</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>47</v>
@@ -2357,7 +2363,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>51</v>
@@ -2402,7 +2408,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>53</v>
@@ -2445,7 +2451,7 @@
         <v>155</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>154</v>
@@ -2483,19 +2489,19 @@
         <v>19</v>
       </c>
       <c r="B12" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="E12" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="F12" s="27" t="s">
         <v>196</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>197</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2527,16 +2533,16 @@
         <v>52</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -2565,19 +2571,19 @@
         <v>40</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -2608,19 +2614,19 @@
         <v>40</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D15" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="F15" s="21" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -31540,8 +31546,8 @@
   </sheetPr>
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="20.25" customHeight="1"/>
@@ -31881,10 +31887,10 @@
         <v>104</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H8" t="s">
         <v>119</v>
@@ -31926,7 +31932,7 @@
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H9" t="s">
         <v>122</v>
@@ -31971,7 +31977,7 @@
         <v>172</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I10" s="30" t="s">
         <v>173</v>
@@ -31999,20 +32005,25 @@
         <v>97</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>176</v>
+        <v>284</v>
       </c>
       <c r="C11" s="30">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D11" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="E11" t="s">
         <v>177</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" s="33">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>281</v>
+      </c>
+      <c r="I11" s="30" t="s">
         <v>178</v>
-      </c>
-      <c r="H11"/>
-      <c r="I11" s="30" t="s">
-        <v>179</v>
       </c>
       <c r="J11" s="33" t="s">
         <v>103</v>
@@ -32043,19 +32054,19 @@
         <v>2024</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="30" t="s">
@@ -32087,7 +32098,7 @@
         <v>2024</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>104</v>
@@ -32095,10 +32106,10 @@
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
       <c r="H13" s="30" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J13" s="33" t="s">
         <v>103</v>
@@ -32122,7 +32133,7 @@
         <v>97</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C14" s="30">
         <v>2024</v>
@@ -32134,10 +32145,10 @@
         <v>104</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I14" s="30"/>
       <c r="J14" s="33" t="s">
@@ -32146,51 +32157,55 @@
     </row>
     <row r="15" spans="1:24" ht="20.25" customHeight="1">
       <c r="A15" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C15" s="33">
         <v>2024</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="20.25" customHeight="1">
       <c r="A16" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="C16" s="30">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>243</v>
+        <v>176</v>
       </c>
       <c r="E16" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" s="30">
+        <v>12</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" t="s">
+        <v>282</v>
+      </c>
+      <c r="I16" s="30" t="s">
         <v>178</v>
-      </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30" t="s">
-        <v>179</v>
       </c>
       <c r="J16" s="30"/>
     </row>
@@ -32205,16 +32220,16 @@
         <v>2025</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="32"/>
       <c r="H17"/>
       <c r="I17" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J17" s="33" t="s">
         <v>103</v>
@@ -32222,19 +32237,19 @@
     </row>
     <row r="18" spans="1:24" ht="20.25" customHeight="1">
       <c r="A18" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18" s="30">
         <v>2025</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H18"/>
       <c r="I18" s="30" t="s">
@@ -32246,16 +32261,16 @@
     </row>
     <row r="19" spans="1:24" ht="20.25" customHeight="1">
       <c r="A19" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C19" s="33">
         <v>2025</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I19" s="30" t="s">
         <v>157</v>
@@ -32263,16 +32278,16 @@
     </row>
     <row r="20" spans="1:24" ht="20.25" customHeight="1">
       <c r="A20" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C20" s="30">
         <v>2025</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>104</v>
@@ -32281,22 +32296,22 @@
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
       <c r="I20" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J20" s="30"/>
     </row>
     <row r="21" spans="1:24" ht="20.25" customHeight="1">
       <c r="A21" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="30">
         <v>2025</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>109</v>
@@ -32311,43 +32326,43 @@
     </row>
     <row r="22" spans="1:24" ht="20.25" customHeight="1">
       <c r="A22" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C22" s="30">
         <v>2025</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J22" s="30"/>
     </row>
     <row r="23" spans="1:24" ht="20.25" customHeight="1">
       <c r="A23" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C23" s="30">
         <v>2025</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
@@ -32376,16 +32391,16 @@
         <v>97</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C24" s="30">
         <v>2025</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
@@ -32413,7 +32428,7 @@
     </row>
     <row r="25" spans="1:24" ht="20.25" customHeight="1">
       <c r="A25" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B25" s="30" t="s">
         <v>124</v>
@@ -32448,7 +32463,7 @@
     </row>
     <row r="26" spans="1:24" ht="20.25" customHeight="1">
       <c r="A26" s="30" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>158</v>
@@ -32483,7 +32498,7 @@
     </row>
     <row r="27" spans="1:24" ht="20.25" customHeight="1">
       <c r="A27" s="30" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>158</v>
@@ -32492,7 +32507,7 @@
         <v>2024</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I27" s="30" t="s">
         <v>157</v>
@@ -32517,7 +32532,7 @@
     </row>
     <row r="28" spans="1:24" ht="20.25" customHeight="1">
       <c r="A28" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B28" s="30" t="s">
         <v>52</v>
@@ -32555,23 +32570,23 @@
     </row>
     <row r="29" spans="1:24" ht="20.25" customHeight="1">
       <c r="A29" s="30" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C29" s="30">
         <v>2025</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E29" s="30"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
       <c r="I29" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J29" s="30"/>
       <c r="K29" s="30"/>
@@ -32591,23 +32606,23 @@
     </row>
     <row r="30" spans="1:24" ht="20.25" customHeight="1">
       <c r="A30" s="30" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C30" s="30">
         <v>2025</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
       <c r="I30" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J30" s="30" t="s">
         <v>103</v>
@@ -32629,14 +32644,14 @@
     </row>
     <row r="31" spans="1:24" ht="20.25" customHeight="1">
       <c r="A31" s="30" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="30" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
@@ -32661,14 +32676,14 @@
     </row>
     <row r="32" spans="1:24" ht="20.25" customHeight="1">
       <c r="A32" s="30" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="30" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
@@ -32693,14 +32708,14 @@
     </row>
     <row r="33" spans="1:24" ht="20.25" customHeight="1">
       <c r="A33" s="30" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="30" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
@@ -32725,14 +32740,14 @@
     </row>
     <row r="34" spans="1:24" ht="20.25" customHeight="1">
       <c r="A34" s="30" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="30" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
@@ -32757,14 +32772,14 @@
     </row>
     <row r="35" spans="1:24" ht="20.25" customHeight="1">
       <c r="A35" s="30" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -32789,14 +32804,14 @@
     </row>
     <row r="36" spans="1:24" ht="20.25" customHeight="1">
       <c r="A36" s="30" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
@@ -32821,14 +32836,14 @@
     </row>
     <row r="37" spans="1:24" ht="20.25" customHeight="1">
       <c r="A37" s="30" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="30" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
@@ -32853,14 +32868,14 @@
     </row>
     <row r="38" spans="1:24" ht="20.25" customHeight="1">
       <c r="A38" s="30" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
@@ -57914,7 +57929,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
         <v>175</v>
@@ -57928,7 +57943,7 @@
         <v>2024</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>104</v>
@@ -57939,10 +57954,10 @@
         <v>2024</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.8">
@@ -58104,7 +58119,7 @@
         <v>131</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
@@ -58208,7 +58223,7 @@
         <v>137</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>136</v>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slee2462\Documents\github\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8565126-5869-4D14-B1DF-E26F844303D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7B8661-0CDD-4CCA-9BA8-D78468DA103E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2952" yWindow="0" windowWidth="20184" windowHeight="12336" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45450" yWindow="3045" windowWidth="20295" windowHeight="17310" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="287">
   <si>
     <t>Degree</t>
   </si>
@@ -740,10 +740,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Sooyong Lee &amp; Seung W. Choi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Sooyong Lee &amp; Tiffany A. Whittaker</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -906,7 +902,16 @@
     <t>Lee, J, Lim, S., Schneider, C, Gianopulos, G, Niu, L., Sooyong Lee., &amp; Choi, S. W.</t>
   </si>
   <si>
-    <t>Jonghwan Lee, Sangdon Lim, Luping Niu, Sooyong Lee, &amp; Seung W Choi</t>
+    <t>Garron Gianopulos, Jonghwan Lee, Sangdon Lim, Luping Niu, Sooyong Lee, &amp; Seung W. Choi</t>
+  </si>
+  <si>
+    <t>54-87</t>
+  </si>
+  <si>
+    <t>88-122</t>
+  </si>
+  <si>
+    <t>Sooyong Lee, Suyoung Kim, &amp; Seung W. Choi</t>
   </si>
 </sst>
 </file>
@@ -2571,19 +2576,19 @@
         <v>40</v>
       </c>
       <c r="B14" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="D14" t="s">
+        <v>247</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="F14" s="21" t="s">
         <v>248</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>249</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -2614,19 +2619,19 @@
         <v>40</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C15" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>251</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -31546,8 +31551,8 @@
   </sheetPr>
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A34" activeCellId="11" sqref="A2:XFD17 A20:XFD20 A22:XFD22 A23:XFD23 A19:XFD19 A21:XFD21 A18:XFD18 A24:XFD24 A32:XFD32 A31:XFD31 A33:XFD33 A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="20.25" customHeight="1"/>
@@ -31977,7 +31982,7 @@
         <v>172</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I10" s="30" t="s">
         <v>173</v>
@@ -32004,28 +32009,29 @@
       <c r="A11" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="32" t="s">
-        <v>284</v>
+      <c r="B11" s="30" t="s">
+        <v>38</v>
       </c>
       <c r="C11" s="30">
-        <v>2025</v>
+        <v>2024</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>280</v>
+      <c r="D11" s="30" t="s">
+        <v>243</v>
       </c>
-      <c r="E11" t="s">
-        <v>177</v>
+      <c r="E11" s="30" t="s">
+        <v>220</v>
       </c>
-      <c r="F11" s="33">
-        <v>12</v>
+      <c r="F11" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>245</v>
       </c>
       <c r="H11" t="s">
-        <v>281</v>
+        <v>219</v>
       </c>
-      <c r="I11" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="J11" s="33" t="s">
+      <c r="I11" s="30"/>
+      <c r="J11" s="30" t="s">
         <v>103</v>
       </c>
       <c r="K11" s="30"/>
@@ -32048,28 +32054,26 @@
         <v>97</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C12" s="30">
         <v>2024</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>244</v>
+      <c r="D12" s="40" t="s">
+        <v>223</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>220</v>
+        <v>104</v>
       </c>
-      <c r="F12" s="30" t="s">
-        <v>245</v>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30" t="s">
+        <v>256</v>
       </c>
-      <c r="G12" s="30" t="s">
-        <v>246</v>
+      <c r="I12" s="30" t="s">
+        <v>178</v>
       </c>
-      <c r="H12" t="s">
-        <v>219</v>
-      </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="33" t="s">
         <v>103</v>
       </c>
       <c r="K12" s="30"/>
@@ -32092,25 +32096,24 @@
         <v>97</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>52</v>
+        <v>222</v>
       </c>
       <c r="C13" s="30">
         <v>2024</v>
       </c>
-      <c r="D13" s="40" t="s">
-        <v>223</v>
+      <c r="D13" s="33" t="s">
+        <v>161</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30" t="s">
-        <v>257</v>
+      <c r="G13" s="42" t="s">
+        <v>242</v>
       </c>
-      <c r="I13" s="30" t="s">
-        <v>178</v>
+      <c r="H13" s="22" t="s">
+        <v>221</v>
       </c>
+      <c r="I13" s="30"/>
       <c r="J13" s="33" t="s">
         <v>103</v>
       </c>
@@ -32129,56 +32132,61 @@
       <c r="X13" s="30"/>
     </row>
     <row r="14" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A14" s="30" t="s">
-        <v>97</v>
+      <c r="A14" s="33" t="s">
+        <v>224</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>222</v>
+      <c r="B14" s="33" t="s">
+        <v>225</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="33">
         <v>2024</v>
       </c>
-      <c r="D14" s="33" t="s">
-        <v>161</v>
+      <c r="D14" s="41" t="s">
+        <v>259</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="H14" t="s">
-        <v>221</v>
-      </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A15" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="C15" s="33">
-        <v>2024</v>
-      </c>
-      <c r="D15" s="41" t="s">
+      <c r="H14" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="E15" s="30" t="s">
-        <v>104</v>
+      <c r="I14" s="33" t="s">
+        <v>178</v>
       </c>
-      <c r="H15" s="22" t="s">
-        <v>261</v>
+      <c r="J14" s="33" t="s">
+        <v>227</v>
       </c>
-      <c r="I15" s="33" t="s">
+    </row>
+    <row r="15" spans="1:24" ht="20.25" customHeight="1">
+      <c r="A15" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="C15" s="30">
+        <v>2025</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="E15" t="s">
+        <v>177</v>
+      </c>
+      <c r="F15" s="33">
+        <v>12</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="H15" t="s">
+        <v>280</v>
+      </c>
+      <c r="I15" s="30" t="s">
         <v>178</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>227</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="20.25" customHeight="1">
@@ -32186,7 +32194,7 @@
         <v>224</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C16" s="30">
         <v>2025</v>
@@ -32200,9 +32208,11 @@
       <c r="F16" s="30">
         <v>12</v>
       </c>
-      <c r="G16" s="30"/>
+      <c r="G16" s="30" t="s">
+        <v>285</v>
+      </c>
       <c r="H16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I16" s="30" t="s">
         <v>178</v>
@@ -32249,7 +32259,7 @@
         <v>185</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H18"/>
       <c r="I18" s="30" t="s">
@@ -32270,7 +32280,7 @@
         <v>2025</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I19" s="30" t="s">
         <v>157</v>
@@ -32287,7 +32297,7 @@
         <v>2025</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>104</v>
@@ -32305,13 +32315,13 @@
         <v>224</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="C21" s="30">
         <v>2025</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>109</v>
@@ -32329,16 +32339,16 @@
         <v>224</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C22" s="30">
         <v>2025</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
@@ -32353,16 +32363,16 @@
         <v>224</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C23" s="30">
         <v>2025</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
@@ -32391,16 +32401,16 @@
         <v>97</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C24" s="30">
         <v>2025</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
@@ -32428,24 +32438,25 @@
     </row>
     <row r="25" spans="1:24" ht="20.25" customHeight="1">
       <c r="A25" s="30" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>124</v>
+        <v>237</v>
       </c>
       <c r="C25" s="30">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>125</v>
+        <v>236</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30" t="s">
-        <v>157</v>
+        <v>235</v>
       </c>
+      <c r="J25" s="30"/>
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
       <c r="M25" s="30"/>
@@ -32463,22 +32474,25 @@
     </row>
     <row r="26" spans="1:24" ht="20.25" customHeight="1">
       <c r="A26" s="30" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="C26" s="30">
-        <v>2024</v>
+        <v>2025</v>
       </c>
-      <c r="D26" s="35" t="s">
-        <v>159</v>
+      <c r="D26" s="30" t="s">
+        <v>238</v>
       </c>
-      <c r="H26"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
       <c r="I26" s="30" t="s">
-        <v>157</v>
+        <v>235</v>
       </c>
-      <c r="J26" s="33" t="s">
+      <c r="J26" s="30" t="s">
         <v>103</v>
       </c>
       <c r="K26" s="30"/>
@@ -32498,22 +32512,21 @@
     </row>
     <row r="27" spans="1:24" ht="20.25" customHeight="1">
       <c r="A27" s="30" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
-      <c r="C27" s="30">
-        <v>2024</v>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30" t="s">
+        <v>125</v>
       </c>
-      <c r="D27" s="33" t="s">
-        <v>214</v>
-      </c>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
       <c r="I27" s="30" t="s">
         <v>157</v>
-      </c>
-      <c r="J27" s="33" t="s">
-        <v>103</v>
       </c>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
@@ -32532,21 +32545,16 @@
     </row>
     <row r="28" spans="1:24" ht="20.25" customHeight="1">
       <c r="A28" s="30" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
-      <c r="C28" s="30">
-        <v>2024</v>
+      <c r="C28" s="30"/>
+      <c r="D28" s="35" t="s">
+        <v>159</v>
       </c>
-      <c r="D28" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
+      <c r="H28"/>
       <c r="I28" s="30" t="s">
         <v>157</v>
       </c>
@@ -32570,25 +32578,21 @@
     </row>
     <row r="29" spans="1:24" ht="20.25" customHeight="1">
       <c r="A29" s="30" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>238</v>
+        <v>158</v>
       </c>
-      <c r="C29" s="30">
-        <v>2025</v>
+      <c r="C29" s="30"/>
+      <c r="D29" s="33" t="s">
+        <v>214</v>
       </c>
-      <c r="D29" s="30" t="s">
-        <v>237</v>
+      <c r="I29" s="30" t="s">
+        <v>157</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30" t="s">
-        <v>236</v>
+      <c r="J29" s="33" t="s">
+        <v>103</v>
       </c>
-      <c r="J29" s="30"/>
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
       <c r="M29" s="30"/>
@@ -32606,25 +32610,23 @@
     </row>
     <row r="30" spans="1:24" ht="20.25" customHeight="1">
       <c r="A30" s="30" t="s">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>240</v>
+        <v>52</v>
       </c>
-      <c r="C30" s="30">
-        <v>2025</v>
-      </c>
+      <c r="C30" s="30"/>
       <c r="D30" s="30" t="s">
-        <v>239</v>
+        <v>160</v>
       </c>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
       <c r="I30" s="30" t="s">
-        <v>236</v>
+        <v>157</v>
       </c>
-      <c r="J30" s="30" t="s">
+      <c r="J30" s="33" t="s">
         <v>103</v>
       </c>
       <c r="K30" s="30"/>
@@ -32644,14 +32646,14 @@
     </row>
     <row r="31" spans="1:24" ht="20.25" customHeight="1">
       <c r="A31" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
@@ -32676,14 +32678,14 @@
     </row>
     <row r="32" spans="1:24" ht="20.25" customHeight="1">
       <c r="A32" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
@@ -32708,14 +32710,14 @@
     </row>
     <row r="33" spans="1:24" ht="20.25" customHeight="1">
       <c r="A33" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
@@ -32740,14 +32742,14 @@
     </row>
     <row r="34" spans="1:24" ht="20.25" customHeight="1">
       <c r="A34" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
@@ -32772,14 +32774,14 @@
     </row>
     <row r="35" spans="1:24" ht="20.25" customHeight="1">
       <c r="A35" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -32804,14 +32806,14 @@
     </row>
     <row r="36" spans="1:24" ht="20.25" customHeight="1">
       <c r="A36" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
@@ -32836,14 +32838,14 @@
     </row>
     <row r="37" spans="1:24" ht="20.25" customHeight="1">
       <c r="A37" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
@@ -32868,14 +32870,14 @@
     </row>
     <row r="38" spans="1:24" ht="20.25" customHeight="1">
       <c r="A38" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
@@ -57886,17 +57888,18 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J21" xr:uid="{00000000-0001-0000-0600-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J37">
-      <sortCondition ref="A1:A21"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J38">
+      <sortCondition ref="C1:C21"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H10" r:id="rId1" xr:uid="{EA9A8237-32EE-4828-902C-BF843B0673D1}"/>
-    <hyperlink ref="H15" r:id="rId2" xr:uid="{9FA698D4-510B-4E75-A98B-530B9A769900}"/>
+    <hyperlink ref="H14" r:id="rId2" xr:uid="{9FA698D4-510B-4E75-A98B-530B9A769900}"/>
+    <hyperlink ref="H13" r:id="rId3" xr:uid="{34C7BA2E-AE5E-4AAE-9D97-AF6E732EB65E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -57943,7 +57946,7 @@
         <v>2024</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>104</v>
@@ -57954,10 +57957,10 @@
         <v>2024</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.8">

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slee2462\Documents\github\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7B8661-0CDD-4CCA-9BA8-D78468DA103E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678D4FA1-DA31-44BD-9702-A0B370C21421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45450" yWindow="3045" windowWidth="20295" windowHeight="17310" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="288">
   <si>
     <t>Degree</t>
   </si>
@@ -913,6 +913,9 @@
   <si>
     <t>Sooyong Lee, Suyoung Kim, &amp; Seung W. Choi</t>
   </si>
+  <si>
+    <t>https://doi.org/10.1080/00273171.2025.2478071</t>
+  </si>
 </sst>
 </file>
 
@@ -31551,8 +31554,8 @@
   </sheetPr>
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A34" activeCellId="11" sqref="A2:XFD17 A20:XFD20 A22:XFD22 A23:XFD23 A19:XFD19 A21:XFD21 A18:XFD18 A24:XFD24 A32:XFD32 A31:XFD31 A33:XFD33 A34:XFD34"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="20.25" customHeight="1"/>
@@ -32352,7 +32355,9 @@
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
+      <c r="H22" s="22" t="s">
+        <v>287</v>
+      </c>
       <c r="I22" s="30" t="s">
         <v>178</v>
       </c>
@@ -57897,9 +57902,10 @@
     <hyperlink ref="H10" r:id="rId1" xr:uid="{EA9A8237-32EE-4828-902C-BF843B0673D1}"/>
     <hyperlink ref="H14" r:id="rId2" xr:uid="{9FA698D4-510B-4E75-A98B-530B9A769900}"/>
     <hyperlink ref="H13" r:id="rId3" xr:uid="{34C7BA2E-AE5E-4AAE-9D97-AF6E732EB65E}"/>
+    <hyperlink ref="H22" r:id="rId4" xr:uid="{944264E1-1A29-4998-BEBB-3E83A3D5A9C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slee2462\Documents\github\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678D4FA1-DA31-44BD-9702-A0B370C21421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329D7C1D-0BFA-4066-B4E9-7CF9CB8E75B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="290">
   <si>
     <t>Degree</t>
   </si>
@@ -603,9 +603,6 @@
     <t>284-295</t>
   </si>
   <si>
-    <t>1-12</t>
-  </si>
-  <si>
     <t>https://sooyonglee.shinyapps.io/ESS_shiny/</t>
   </si>
   <si>
@@ -703,20 +700,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-Model Estimation Approaches for Fully-latent Principal Stratification with Small Samples</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>article</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Sooyong Lee, Kahyun Lee, &amp; Kejin Lee</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Under review</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -776,9 +764,6 @@
   </si>
   <si>
     <t>failed</t>
-  </si>
-  <si>
-    <t>p. 1-13</t>
   </si>
   <si>
     <t>A Bayesian Moderated Nonlinear Factor Analysis Approach for DIF Detection under Violation of the Equal Variance Assumption</t>
@@ -915,6 +900,24 @@
   </si>
   <si>
     <t>https://doi.org/10.1080/00273171.2025.2478071</t>
+  </si>
+  <si>
+    <t>In print(accepted)</t>
+  </si>
+  <si>
+    <t>30(5)</t>
+  </si>
+  <si>
+    <t>831-842</t>
+  </si>
+  <si>
+    <t>31(6)</t>
+  </si>
+  <si>
+    <t>1043-1055</t>
+  </si>
+  <si>
+    <t>Model Estimation Approaches for Fully-latent Principal Stratification with Small Samples</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1517,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
@@ -1588,7 +1591,7 @@
         <v>70</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>71</v>
@@ -1614,7 +1617,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>74</v>
@@ -1642,10 +1645,10 @@
         <v>76</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>77</v>
@@ -1668,16 +1671,16 @@
         <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1696,16 +1699,16 @@
         <v>183</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1777,19 +1780,19 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1805,16 +1808,16 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="D10" s="21" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -2058,7 +2061,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
@@ -2103,7 +2106,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -2148,7 +2151,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
@@ -2193,7 +2196,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>35</v>
@@ -2236,7 +2239,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
@@ -2279,7 +2282,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>42</v>
@@ -2326,7 +2329,7 @@
         <v>46</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>47</v>
@@ -2371,7 +2374,7 @@
         <v>50</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>51</v>
@@ -2416,7 +2419,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>53</v>
@@ -2459,7 +2462,7 @@
         <v>155</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>154</v>
@@ -2497,19 +2500,19 @@
         <v>19</v>
       </c>
       <c r="B12" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="E12" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="F12" s="27" t="s">
         <v>195</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>196</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2541,16 +2544,16 @@
         <v>52</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -2579,19 +2582,19 @@
         <v>40</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C14" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D14" t="s">
-        <v>247</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="F14" s="21" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -2622,19 +2625,19 @@
         <v>40</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C15" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="F15" s="21" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -31554,8 +31557,8 @@
   </sheetPr>
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="20.25" customHeight="1"/>
@@ -31938,9 +31941,11 @@
       <c r="E9" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="30"/>
+      <c r="F9" s="30" t="s">
+        <v>285</v>
+      </c>
       <c r="G9" s="34" t="s">
-        <v>190</v>
+        <v>286</v>
       </c>
       <c r="H9" t="s">
         <v>122</v>
@@ -31985,7 +31990,7 @@
         <v>172</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="I10" s="30" t="s">
         <v>173</v>
@@ -32019,19 +32024,19 @@
         <v>2024</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I11" s="30"/>
       <c r="J11" s="30" t="s">
@@ -32063,19 +32068,21 @@
         <v>2024</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>223</v>
+        <v>289</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
+      <c r="F12" s="30">
+        <v>32</v>
+      </c>
+      <c r="G12" s="30">
+        <v>2</v>
+      </c>
       <c r="H12" s="30" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
-      <c r="I12" s="30" t="s">
-        <v>178</v>
-      </c>
+      <c r="I12" s="30"/>
       <c r="J12" s="33" t="s">
         <v>103</v>
       </c>
@@ -32099,7 +32106,7 @@
         <v>97</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C13" s="30">
         <v>2024</v>
@@ -32110,11 +32117,14 @@
       <c r="E13" s="30" t="s">
         <v>104</v>
       </c>
+      <c r="F13" s="33" t="s">
+        <v>287</v>
+      </c>
       <c r="G13" s="42" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I13" s="30"/>
       <c r="J13" s="33" t="s">
@@ -32136,28 +32146,28 @@
     </row>
     <row r="14" spans="1:24" ht="20.25" customHeight="1">
       <c r="A14" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C14" s="33">
         <v>2024</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I14" s="33" t="s">
         <v>178</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="20.25" customHeight="1">
@@ -32165,13 +32175,13 @@
         <v>97</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C15" s="30">
         <v>2025</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E15" t="s">
         <v>177</v>
@@ -32180,24 +32190,22 @@
         <v>12</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H15" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
-      <c r="I15" s="30" t="s">
-        <v>178</v>
-      </c>
+      <c r="I15" s="30"/>
       <c r="J15" s="33" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="20.25" customHeight="1">
       <c r="A16" s="30" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C16" s="30">
         <v>2025</v>
@@ -32212,14 +32220,12 @@
         <v>12</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
-      <c r="I16" s="30" t="s">
-        <v>178</v>
-      </c>
+      <c r="I16" s="30"/>
       <c r="J16" s="30"/>
     </row>
     <row r="17" spans="1:24" ht="20.25" customHeight="1">
@@ -32250,7 +32256,7 @@
     </row>
     <row r="18" spans="1:24" ht="20.25" customHeight="1">
       <c r="A18" s="30" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>186</v>
@@ -32262,7 +32268,7 @@
         <v>185</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H18"/>
       <c r="I18" s="30" t="s">
@@ -32274,16 +32280,16 @@
     </row>
     <row r="19" spans="1:24" ht="20.25" customHeight="1">
       <c r="A19" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C19" s="33">
         <v>2025</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="I19" s="30" t="s">
         <v>157</v>
@@ -32291,16 +32297,16 @@
     </row>
     <row r="20" spans="1:24" ht="20.25" customHeight="1">
       <c r="A20" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C20" s="30">
         <v>2025</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>104</v>
@@ -32309,22 +32315,22 @@
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
       <c r="I20" s="30" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="J20" s="30"/>
     </row>
     <row r="21" spans="1:24" ht="20.25" customHeight="1">
       <c r="A21" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C21" s="30">
         <v>2025</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>109</v>
@@ -32339,45 +32345,45 @@
     </row>
     <row r="22" spans="1:24" ht="20.25" customHeight="1">
       <c r="A22" s="30" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C22" s="30">
         <v>2025</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="H22" s="22" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>178</v>
+        <v>284</v>
       </c>
       <c r="J22" s="30"/>
     </row>
     <row r="23" spans="1:24" ht="20.25" customHeight="1">
       <c r="A23" s="30" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C23" s="30">
         <v>2025</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
@@ -32406,16 +32412,16 @@
         <v>97</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C24" s="30">
         <v>2025</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
@@ -32443,23 +32449,23 @@
     </row>
     <row r="25" spans="1:24" ht="20.25" customHeight="1">
       <c r="A25" s="30" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C25" s="30">
         <v>2025</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
       <c r="I25" s="30" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J25" s="30"/>
       <c r="K25" s="30"/>
@@ -32479,23 +32485,23 @@
     </row>
     <row r="26" spans="1:24" ht="20.25" customHeight="1">
       <c r="A26" s="30" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C26" s="30">
         <v>2025</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
       <c r="I26" s="30" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J26" s="30" t="s">
         <v>103</v>
@@ -32517,7 +32523,7 @@
     </row>
     <row r="27" spans="1:24" ht="20.25" customHeight="1">
       <c r="A27" s="30" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>124</v>
@@ -32550,7 +32556,7 @@
     </row>
     <row r="28" spans="1:24" ht="20.25" customHeight="1">
       <c r="A28" s="30" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B28" s="30" t="s">
         <v>158</v>
@@ -32583,14 +32589,14 @@
     </row>
     <row r="29" spans="1:24" ht="20.25" customHeight="1">
       <c r="A29" s="30" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B29" s="30" t="s">
         <v>158</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I29" s="30" t="s">
         <v>157</v>
@@ -32615,7 +32621,7 @@
     </row>
     <row r="30" spans="1:24" ht="20.25" customHeight="1">
       <c r="A30" s="30" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>52</v>
@@ -32651,14 +32657,14 @@
     </row>
     <row r="31" spans="1:24" ht="20.25" customHeight="1">
       <c r="A31" s="30" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="30" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
@@ -32683,14 +32689,14 @@
     </row>
     <row r="32" spans="1:24" ht="20.25" customHeight="1">
       <c r="A32" s="30" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="30" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
@@ -32715,14 +32721,14 @@
     </row>
     <row r="33" spans="1:24" ht="20.25" customHeight="1">
       <c r="A33" s="30" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="30" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
@@ -32747,14 +32753,14 @@
     </row>
     <row r="34" spans="1:24" ht="20.25" customHeight="1">
       <c r="A34" s="30" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="30" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
@@ -32779,14 +32785,14 @@
     </row>
     <row r="35" spans="1:24" ht="20.25" customHeight="1">
       <c r="A35" s="30" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -32811,14 +32817,14 @@
     </row>
     <row r="36" spans="1:24" ht="20.25" customHeight="1">
       <c r="A36" s="30" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="30" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
@@ -32843,14 +32849,14 @@
     </row>
     <row r="37" spans="1:24" ht="20.25" customHeight="1">
       <c r="A37" s="30" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="30" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
@@ -32875,14 +32881,14 @@
     </row>
     <row r="38" spans="1:24" ht="20.25" customHeight="1">
       <c r="A38" s="30" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
@@ -57952,7 +57958,7 @@
         <v>2024</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>104</v>
@@ -57963,10 +57969,10 @@
         <v>2024</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.8">
@@ -58128,7 +58134,7 @@
         <v>131</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slee2462\Documents\github\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329D7C1D-0BFA-4066-B4E9-7CF9CB8E75B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE7BDF3-E110-415B-9015-AD584A1F19B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="291">
   <si>
     <t>Degree</t>
   </si>
@@ -919,6 +919,9 @@
   <si>
     <t>Model Estimation Approaches for Fully-latent Principal Stratification with Small Samples</t>
   </si>
+  <si>
+    <t>DOI 10.3102/10769986251321428</t>
+  </si>
 </sst>
 </file>
 
@@ -31557,8 +31560,8 @@
   </sheetPr>
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="20.25" customHeight="1"/>
@@ -32246,7 +32249,9 @@
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="32"/>
-      <c r="H17"/>
+      <c r="H17" t="s">
+        <v>290</v>
+      </c>
       <c r="I17" s="30" t="s">
         <v>178</v>
       </c>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slee2462\Documents\github\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE7BDF3-E110-415B-9015-AD584A1F19B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E24E974-58E4-47BE-A41E-2C52F5B8E792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30555" yWindow="1650" windowWidth="26160" windowHeight="18555" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="297">
   <si>
     <t>Degree</t>
   </si>
@@ -809,9 +809,6 @@
     <t>https://doi.org/10.1080/10705511.2024.2402331</t>
   </si>
   <si>
-    <t>https://doi.org/10.1007/978-3-031-27781-8</t>
-  </si>
-  <si>
     <t>Frontier in Psychology</t>
   </si>
   <si>
@@ -922,6 +919,27 @@
   <si>
     <t>DOI 10.3102/10769986251321428</t>
   </si>
+  <si>
+    <t>Fully-Latent Principal Stratification for Modeling Complex Program Implementation Data</t>
+  </si>
+  <si>
+    <t>Sales, A., Sooyong Lee, Whittaker, T., &amp; Kang, H. A</t>
+  </si>
+  <si>
+    <t>Society for Research on Educational Effectiveness</t>
+  </si>
+  <si>
+    <t>non-journal</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>https://eric.ed.gov/?id=ED659422 (Report)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-031-27781-8 (Conference proceedings)</t>
+  </si>
 </sst>
 </file>
 
@@ -930,7 +948,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\-yy;@"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1115,6 +1133,21 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1164,7 +1197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1239,6 +1272,8 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -31560,8 +31595,8 @@
   </sheetPr>
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="20.25" customHeight="1"/>
@@ -31945,10 +31980,10 @@
         <v>104</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H9" t="s">
         <v>122</v>
@@ -31993,7 +32028,7 @@
         <v>172</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="I10" s="30" t="s">
         <v>173</v>
@@ -32071,7 +32106,7 @@
         <v>2024</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>104</v>
@@ -32121,10 +32156,10 @@
         <v>104</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>220</v>
@@ -32158,13 +32193,13 @@
         <v>2024</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I14" s="33" t="s">
         <v>178</v>
@@ -32178,13 +32213,13 @@
         <v>97</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C15" s="30">
         <v>2025</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E15" t="s">
         <v>177</v>
@@ -32193,10 +32228,10 @@
         <v>12</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="33" t="s">
@@ -32208,7 +32243,7 @@
         <v>222</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C16" s="30">
         <v>2025</v>
@@ -32223,10 +32258,10 @@
         <v>12</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
@@ -32250,7 +32285,7 @@
       <c r="F17" s="30"/>
       <c r="G17" s="32"/>
       <c r="H17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I17" s="30" t="s">
         <v>178</v>
@@ -32294,7 +32329,7 @@
         <v>2025</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I19" s="30" t="s">
         <v>157</v>
@@ -32320,7 +32355,7 @@
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
       <c r="I20" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J20" s="30"/>
     </row>
@@ -32329,13 +32364,13 @@
         <v>222</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C21" s="30">
         <v>2025</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>109</v>
@@ -32359,7 +32394,7 @@
         <v>2025</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>230</v>
@@ -32367,10 +32402,10 @@
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="H22" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J22" s="30"/>
     </row>
@@ -32385,10 +32420,10 @@
         <v>2025</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
@@ -32417,16 +32452,16 @@
         <v>97</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C24" s="30">
         <v>2025</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
@@ -32454,7 +32489,7 @@
     </row>
     <row r="25" spans="1:24" ht="20.25" customHeight="1">
       <c r="A25" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B25" s="30" t="s">
         <v>234</v>
@@ -32490,7 +32525,7 @@
     </row>
     <row r="26" spans="1:24" ht="20.25" customHeight="1">
       <c r="A26" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B26" s="30" t="s">
         <v>236</v>
@@ -32662,14 +32697,14 @@
     </row>
     <row r="31" spans="1:24" ht="20.25" customHeight="1">
       <c r="A31" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
@@ -32694,14 +32729,14 @@
     </row>
     <row r="32" spans="1:24" ht="20.25" customHeight="1">
       <c r="A32" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
@@ -32726,14 +32761,14 @@
     </row>
     <row r="33" spans="1:24" ht="20.25" customHeight="1">
       <c r="A33" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
@@ -32758,14 +32793,14 @@
     </row>
     <row r="34" spans="1:24" ht="20.25" customHeight="1">
       <c r="A34" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
@@ -32790,14 +32825,14 @@
     </row>
     <row r="35" spans="1:24" ht="20.25" customHeight="1">
       <c r="A35" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -32822,14 +32857,14 @@
     </row>
     <row r="36" spans="1:24" ht="20.25" customHeight="1">
       <c r="A36" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
@@ -32854,14 +32889,14 @@
     </row>
     <row r="37" spans="1:24" ht="20.25" customHeight="1">
       <c r="A37" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
@@ -32886,14 +32921,14 @@
     </row>
     <row r="38" spans="1:24" ht="20.25" customHeight="1">
       <c r="A38" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
@@ -32917,16 +32952,32 @@
       <c r="X38" s="30"/>
     </row>
     <row r="39" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
+      <c r="A39" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="C39" s="30">
+        <v>2023</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="E39" s="45" t="s">
+        <v>292</v>
+      </c>
       <c r="F39" s="30"/>
       <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
+      <c r="H39" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="I39" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="J39" s="30" t="s">
+        <v>293</v>
+      </c>
       <c r="K39" s="30"/>
       <c r="L39" s="30"/>
       <c r="M39" s="30"/>
@@ -57914,9 +57965,10 @@
     <hyperlink ref="H14" r:id="rId2" xr:uid="{9FA698D4-510B-4E75-A98B-530B9A769900}"/>
     <hyperlink ref="H13" r:id="rId3" xr:uid="{34C7BA2E-AE5E-4AAE-9D97-AF6E732EB65E}"/>
     <hyperlink ref="H22" r:id="rId4" xr:uid="{944264E1-1A29-4998-BEBB-3E83A3D5A9C7}"/>
+    <hyperlink ref="H39" r:id="rId5" xr:uid="{1E794ED6-3FDC-4A22-8E05-460A0AE97089}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slee2462\Documents\github\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E24E974-58E4-47BE-A41E-2C52F5B8E792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CF9832-7FC0-4FAE-B2AA-44356677EC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30555" yWindow="1650" windowWidth="26160" windowHeight="18555" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37440" yWindow="5385" windowWidth="23085" windowHeight="13005" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="299">
   <si>
     <t>Degree</t>
   </si>
@@ -940,6 +940,12 @@
   <si>
     <t>https://doi.org/10.1007/978-3-031-27781-8 (Conference proceedings)</t>
   </si>
+  <si>
+    <t>32(2)</t>
+  </si>
+  <si>
+    <t>251-263</t>
+  </si>
 </sst>
 </file>
 
@@ -31595,8 +31601,8 @@
   </sheetPr>
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="20.25" customHeight="1"/>
@@ -32103,7 +32109,7 @@
         <v>52</v>
       </c>
       <c r="C12" s="30">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D12" s="40" t="s">
         <v>288</v>
@@ -32111,11 +32117,11 @@
       <c r="E12" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="30">
-        <v>32</v>
+      <c r="F12" s="30" t="s">
+        <v>297</v>
       </c>
-      <c r="G12" s="30">
-        <v>2</v>
+      <c r="G12" s="30" t="s">
+        <v>298</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>252</v>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slee2462\Documents\github\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CF9832-7FC0-4FAE-B2AA-44356677EC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9432D265-C32E-47E6-935A-077EB2DDABEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37440" yWindow="5385" windowWidth="23085" windowHeight="13005" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21840" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -869,9 +869,6 @@
     <t>Development of a Method for Handling Doubly-Censored Data in a Latent Growth Curve Modeling Framework</t>
   </si>
   <si>
-    <t>Psychiatry Research</t>
-  </si>
-  <si>
     <t>The Impact of Item Bank Size and Item Bank Distribution on Student Ability Estimates for a Hybrid Interim-Summative CAT</t>
   </si>
   <si>
@@ -945,6 +942,9 @@
   </si>
   <si>
     <t>251-263</t>
+  </si>
+  <si>
+    <t>International Journal of Social Psychiatry</t>
   </si>
 </sst>
 </file>
@@ -31601,8 +31601,8 @@
   </sheetPr>
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="20.25" customHeight="1"/>
@@ -31986,10 +31986,10 @@
         <v>104</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H9" t="s">
         <v>122</v>
@@ -32034,7 +32034,7 @@
         <v>172</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I10" s="30" t="s">
         <v>173</v>
@@ -32112,16 +32112,16 @@
         <v>2025</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>104</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>252</v>
@@ -32162,10 +32162,10 @@
         <v>104</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>220</v>
@@ -32219,13 +32219,13 @@
         <v>97</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C15" s="30">
         <v>2025</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E15" t="s">
         <v>177</v>
@@ -32234,10 +32234,10 @@
         <v>12</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="33" t="s">
@@ -32249,7 +32249,7 @@
         <v>222</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C16" s="30">
         <v>2025</v>
@@ -32264,10 +32264,10 @@
         <v>12</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
@@ -32291,7 +32291,7 @@
       <c r="F17" s="30"/>
       <c r="G17" s="32"/>
       <c r="H17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I17" s="30" t="s">
         <v>178</v>
@@ -32361,7 +32361,7 @@
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
       <c r="I20" s="30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J20" s="30"/>
     </row>
@@ -32370,7 +32370,7 @@
         <v>222</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C21" s="30">
         <v>2025</v>
@@ -32408,10 +32408,10 @@
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="H22" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J22" s="30"/>
     </row>
@@ -32467,7 +32467,7 @@
         <v>260</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
@@ -32962,27 +32962,27 @@
         <v>97</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C39" s="30">
         <v>2023</v>
       </c>
       <c r="D39" s="44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E39" s="45" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F39" s="30"/>
       <c r="G39" s="30"/>
       <c r="H39" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I39" s="30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J39" s="30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K39" s="30"/>
       <c r="L39" s="30"/>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slee2462\Documents\github\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9432D265-C32E-47E6-935A-077EB2DDABEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E4673D-C98A-45D0-9DC3-B21E032547AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21840" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="302">
   <si>
     <t>Degree</t>
   </si>
@@ -946,6 +946,15 @@
   <si>
     <t>International Journal of Social Psychiatry</t>
   </si>
+  <si>
+    <t>Alt ACCESS Covid Impact (using equipercentile equating)</t>
+  </si>
+  <si>
+    <t>Comparison Equating methods for longitudinal data</t>
+  </si>
+  <si>
+    <t>GBIT applied to Alt ACCESS</t>
+  </si>
 </sst>
 </file>
 
@@ -31601,8 +31610,8 @@
   </sheetPr>
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="20.25" customHeight="1"/>
@@ -32495,25 +32504,31 @@
     </row>
     <row r="25" spans="1:24" ht="20.25" customHeight="1">
       <c r="A25" s="30" t="s">
-        <v>269</v>
+        <v>97</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>234</v>
+        <v>290</v>
       </c>
       <c r="C25" s="30">
-        <v>2025</v>
+        <v>2023</v>
       </c>
-      <c r="D25" s="30" t="s">
-        <v>233</v>
+      <c r="D25" s="44" t="s">
+        <v>289</v>
       </c>
-      <c r="E25" s="30"/>
+      <c r="E25" s="45" t="s">
+        <v>291</v>
+      </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
+      <c r="H25" s="22" t="s">
+        <v>294</v>
+      </c>
       <c r="I25" s="30" t="s">
-        <v>232</v>
+        <v>293</v>
       </c>
-      <c r="J25" s="30"/>
+      <c r="J25" s="30" t="s">
+        <v>292</v>
+      </c>
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
       <c r="M25" s="30"/>
@@ -32531,26 +32546,21 @@
     </row>
     <row r="26" spans="1:24" ht="20.25" customHeight="1">
       <c r="A26" s="30" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>236</v>
+        <v>124</v>
       </c>
-      <c r="C26" s="30">
-        <v>2025</v>
-      </c>
+      <c r="C26" s="30"/>
       <c r="D26" s="30" t="s">
-        <v>235</v>
+        <v>125</v>
       </c>
       <c r="E26" s="30"/>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
       <c r="I26" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="J26" s="30" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
@@ -32569,21 +32579,21 @@
     </row>
     <row r="27" spans="1:24" ht="20.25" customHeight="1">
       <c r="A27" s="30" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="C27" s="30"/>
-      <c r="D27" s="30" t="s">
-        <v>125</v>
+      <c r="D27" s="35" t="s">
+        <v>159</v>
       </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
+      <c r="H27"/>
       <c r="I27" s="30" t="s">
         <v>157</v>
+      </c>
+      <c r="J27" s="33" t="s">
+        <v>103</v>
       </c>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
@@ -32608,10 +32618,9 @@
         <v>158</v>
       </c>
       <c r="C28" s="30"/>
-      <c r="D28" s="35" t="s">
-        <v>159</v>
+      <c r="D28" s="33" t="s">
+        <v>213</v>
       </c>
-      <c r="H28"/>
       <c r="I28" s="30" t="s">
         <v>157</v>
       </c>
@@ -32635,15 +32644,19 @@
     </row>
     <row r="29" spans="1:24" ht="20.25" customHeight="1">
       <c r="A29" s="30" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="C29" s="30"/>
-      <c r="D29" s="33" t="s">
-        <v>213</v>
+      <c r="D29" s="30" t="s">
+        <v>160</v>
       </c>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
       <c r="I29" s="30" t="s">
         <v>157</v>
       </c>
@@ -32667,25 +32680,25 @@
     </row>
     <row r="30" spans="1:24" ht="20.25" customHeight="1">
       <c r="A30" s="30" t="s">
-        <v>225</v>
+        <v>269</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>52</v>
+        <v>234</v>
       </c>
-      <c r="C30" s="30"/>
+      <c r="C30" s="30">
+        <v>2025</v>
+      </c>
       <c r="D30" s="30" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
       <c r="I30" s="30" t="s">
-        <v>157</v>
+        <v>232</v>
       </c>
-      <c r="J30" s="33" t="s">
-        <v>103</v>
-      </c>
+      <c r="J30" s="30"/>
       <c r="K30" s="30"/>
       <c r="L30" s="30"/>
       <c r="M30" s="30"/>
@@ -32706,18 +32719,24 @@
         <v>269</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
-      <c r="C31" s="30"/>
+      <c r="C31" s="30">
+        <v>2025</v>
+      </c>
       <c r="D31" s="30" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
+      <c r="I31" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>103</v>
+      </c>
       <c r="K31" s="30"/>
       <c r="L31" s="30"/>
       <c r="M31" s="30"/>
@@ -32742,7 +32761,7 @@
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
@@ -32774,7 +32793,7 @@
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
@@ -32806,7 +32825,7 @@
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
@@ -32838,7 +32857,7 @@
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -32870,7 +32889,7 @@
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
@@ -32902,7 +32921,7 @@
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
@@ -32930,11 +32949,11 @@
         <v>269</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
@@ -32959,31 +32978,21 @@
     </row>
     <row r="39" spans="1:24" ht="20.25" customHeight="1">
       <c r="A39" s="30" t="s">
-        <v>97</v>
+        <v>269</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
-      <c r="C39" s="30">
-        <v>2023</v>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30" t="s">
+        <v>271</v>
       </c>
-      <c r="D39" s="44" t="s">
-        <v>289</v>
-      </c>
-      <c r="E39" s="45" t="s">
-        <v>291</v>
-      </c>
+      <c r="E39" s="30"/>
       <c r="F39" s="30"/>
       <c r="G39" s="30"/>
-      <c r="H39" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="I39" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="J39" s="30" t="s">
-        <v>292</v>
-      </c>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
       <c r="K39" s="30"/>
       <c r="L39" s="30"/>
       <c r="M39" s="30"/>
@@ -33000,10 +33009,14 @@
       <c r="X39" s="30"/>
     </row>
     <row r="40" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A40" s="30"/>
+      <c r="A40" s="30" t="s">
+        <v>269</v>
+      </c>
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
+      <c r="D40" s="30" t="s">
+        <v>299</v>
+      </c>
       <c r="E40" s="30"/>
       <c r="F40" s="30"/>
       <c r="G40" s="30"/>
@@ -33026,10 +33039,14 @@
       <c r="X40" s="30"/>
     </row>
     <row r="41" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A41" s="30"/>
+      <c r="A41" s="30" t="s">
+        <v>269</v>
+      </c>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
+      <c r="D41" s="30" t="s">
+        <v>300</v>
+      </c>
       <c r="E41" s="30"/>
       <c r="F41" s="30"/>
       <c r="G41" s="30"/>
@@ -33052,10 +33069,14 @@
       <c r="X41" s="30"/>
     </row>
     <row r="42" spans="1:24" ht="20.25" customHeight="1">
-      <c r="A42" s="30"/>
+      <c r="A42" s="30" t="s">
+        <v>269</v>
+      </c>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
+      <c r="D42" s="30" t="s">
+        <v>301</v>
+      </c>
       <c r="E42" s="30"/>
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
@@ -57961,8 +57982,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J21" xr:uid="{00000000-0001-0000-0600-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J38">
-      <sortCondition ref="C1:C21"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J39">
+      <sortCondition ref="A1:A21"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -57971,7 +57992,7 @@
     <hyperlink ref="H14" r:id="rId2" xr:uid="{9FA698D4-510B-4E75-A98B-530B9A769900}"/>
     <hyperlink ref="H13" r:id="rId3" xr:uid="{34C7BA2E-AE5E-4AAE-9D97-AF6E732EB65E}"/>
     <hyperlink ref="H22" r:id="rId4" xr:uid="{944264E1-1A29-4998-BEBB-3E83A3D5A9C7}"/>
-    <hyperlink ref="H39" r:id="rId5" xr:uid="{1E794ED6-3FDC-4A22-8E05-460A0AE97089}"/>
+    <hyperlink ref="H25" r:id="rId5" xr:uid="{1E794ED6-3FDC-4A22-8E05-460A0AE97089}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slee2462\Documents\github\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E4673D-C98A-45D0-9DC3-B21E032547AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690EA199-A450-4876-B25F-34F524326F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21840" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36930" yWindow="2160" windowWidth="27660" windowHeight="17055" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="309">
   <si>
     <t>Degree</t>
   </si>
@@ -955,6 +955,27 @@
   <si>
     <t>GBIT applied to Alt ACCESS</t>
   </si>
+  <si>
+    <t>2025-04</t>
+  </si>
+  <si>
+    <t>Two rating scale Rasch model linking in a large-scale language assessment: psychometric and content reviews</t>
+  </si>
+  <si>
+    <t>Kei Bishop, Hacer Karamese, Syed Abdul Hadi, &amp; Sooyong Lee</t>
+  </si>
+  <si>
+    <t>Colorado, USA</t>
+  </si>
+  <si>
+    <t>International Objective Measurement Workshio</t>
+  </si>
+  <si>
+    <t>Sooyong Lee, Kei Bishop, Hacer Karamese, &amp; Syed Abdul Hadi</t>
+  </si>
+  <si>
+    <t>Hacer Karamese, Kei Bishop, Sooyong Lee, &amp; Syed Abdul Hadi</t>
+  </si>
 </sst>
 </file>
 
@@ -2044,7 +2065,7 @@
   <dimension ref="A1:AA1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -2717,15 +2738,29 @@
       <c r="AA15" s="2"/>
     </row>
     <row r="16" spans="1:27" ht="13.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>306</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -2746,15 +2781,27 @@
       <c r="AA16" s="2"/>
     </row>
     <row r="17" spans="1:27" ht="13.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>302</v>
+      </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -2775,15 +2822,27 @@
       <c r="AA17" s="2"/>
     </row>
     <row r="18" spans="1:27" ht="13.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="14"/>
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>302</v>
+      </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -2804,15 +2863,27 @@
       <c r="AA18" s="2"/>
     </row>
     <row r="19" spans="1:27" ht="13.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="14"/>
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>302</v>
+      </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -31610,8 +31681,8 @@
   </sheetPr>
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="20.25" customHeight="1"/>
@@ -32346,8 +32417,11 @@
       <c r="D19" s="33" t="s">
         <v>257</v>
       </c>
+      <c r="E19" s="33" t="s">
+        <v>104</v>
+      </c>
       <c r="I19" s="30" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="20.25" customHeight="1">

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slee2462\Documents\github\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690EA199-A450-4876-B25F-34F524326F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9206AA6B-49FA-442D-9DF9-1A4547799914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36930" yWindow="2160" windowWidth="27660" windowHeight="17055" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40590" yWindow="2280" windowWidth="21750" windowHeight="17055" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="313">
   <si>
     <t>Degree</t>
   </si>
@@ -976,6 +976,18 @@
   <si>
     <t>Hacer Karamese, Kei Bishop, Sooyong Lee, &amp; Syed Abdul Hadi</t>
   </si>
+  <si>
+    <t>An Empirical Comparison of Linking Methods in Multistage Adaptive Test</t>
+  </si>
+  <si>
+    <t>Automated Plagiarism Detection in Spoken Responses using Linguistic and Acoustic Features</t>
+  </si>
+  <si>
+    <t>Censored Confirmatory Factor Analysis for Non-Normal Likert-Type Data in Language</t>
+  </si>
+  <si>
+    <t>Virtual (Cancelled)</t>
+  </si>
 </sst>
 </file>
 
@@ -2064,8 +2076,8 @@
   </sheetPr>
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
@@ -2276,7 +2288,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>36</v>
+        <v>312</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>37</v>
@@ -2790,7 +2802,9 @@
       <c r="C17" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" t="s">
+        <v>311</v>
+      </c>
       <c r="E17" s="2" t="s">
         <v>305</v>
       </c>
@@ -2831,7 +2845,9 @@
       <c r="C18" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" t="s">
+        <v>309</v>
+      </c>
       <c r="E18" s="2" t="s">
         <v>305</v>
       </c>
@@ -2872,7 +2888,9 @@
       <c r="C19" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" t="s">
+        <v>310</v>
+      </c>
       <c r="E19" s="2" t="s">
         <v>305</v>
       </c>
@@ -31681,7 +31699,7 @@
   </sheetPr>
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slee2462\Documents\github\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9206AA6B-49FA-442D-9DF9-1A4547799914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E75AF4-430F-4370-9711-DA88C58F786F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40590" yWindow="2280" windowWidth="21750" windowHeight="17055" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29250" yWindow="2610" windowWidth="27300" windowHeight="15855" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -760,9 +760,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Journal of Social and Personal Relationships</t>
-  </si>
-  <si>
     <t>failed</t>
   </si>
   <si>
@@ -987,6 +984,9 @@
   </si>
   <si>
     <t>Virtual (Cancelled)</t>
+  </si>
+  <si>
+    <t>Personal Relationships</t>
   </si>
 </sst>
 </file>
@@ -2076,7 +2076,7 @@
   </sheetPr>
   <dimension ref="A1:AA1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2288,7 +2288,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>37</v>
@@ -2668,19 +2668,19 @@
         <v>40</v>
       </c>
       <c r="B14" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" t="s">
+        <v>242</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>245</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="F14" s="21" t="s">
         <v>243</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>244</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -2711,19 +2711,19 @@
         <v>40</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C15" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>246</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -2754,19 +2754,19 @@
         <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -2797,16 +2797,16 @@
         <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D17" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>44</v>
@@ -2840,16 +2840,16 @@
         <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="D18" t="s">
         <v>308</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="D18" t="s">
-        <v>309</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>44</v>
@@ -2883,16 +2883,16 @@
         <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>44</v>
@@ -31699,8 +31699,8 @@
   </sheetPr>
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="20.25" customHeight="1"/>
@@ -32084,10 +32084,10 @@
         <v>104</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H9" t="s">
         <v>122</v>
@@ -32132,7 +32132,7 @@
         <v>172</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I10" s="30" t="s">
         <v>173</v>
@@ -32166,16 +32166,16 @@
         <v>2024</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>219</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H11" t="s">
         <v>218</v>
@@ -32210,19 +32210,19 @@
         <v>2025</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>104</v>
       </c>
       <c r="F12" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="G12" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="G12" s="30" t="s">
-        <v>297</v>
-      </c>
       <c r="H12" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="33" t="s">
@@ -32260,10 +32260,10 @@
         <v>104</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>220</v>
@@ -32297,13 +32297,13 @@
         <v>2024</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I14" s="33" t="s">
         <v>178</v>
@@ -32317,13 +32317,13 @@
         <v>97</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C15" s="30">
         <v>2025</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E15" t="s">
         <v>177</v>
@@ -32332,10 +32332,10 @@
         <v>12</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="33" t="s">
@@ -32347,7 +32347,7 @@
         <v>222</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C16" s="30">
         <v>2025</v>
@@ -32362,10 +32362,10 @@
         <v>12</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
@@ -32389,7 +32389,7 @@
       <c r="F17" s="30"/>
       <c r="G17" s="32"/>
       <c r="H17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I17" s="30" t="s">
         <v>178</v>
@@ -32412,7 +32412,7 @@
         <v>185</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>237</v>
+        <v>312</v>
       </c>
       <c r="H18"/>
       <c r="I18" s="30" t="s">
@@ -32433,7 +32433,7 @@
         <v>2025</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E19" s="33" t="s">
         <v>104</v>
@@ -32453,7 +32453,7 @@
         <v>2025</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>104</v>
@@ -32462,7 +32462,7 @@
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
       <c r="I20" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J20" s="30"/>
     </row>
@@ -32471,13 +32471,13 @@
         <v>222</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C21" s="30">
         <v>2025</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>109</v>
@@ -32501,7 +32501,7 @@
         <v>2025</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>230</v>
@@ -32509,10 +32509,10 @@
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="H22" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J22" s="30"/>
     </row>
@@ -32527,10 +32527,10 @@
         <v>2025</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
@@ -32559,16 +32559,16 @@
         <v>97</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C24" s="30">
         <v>2025</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
@@ -32599,27 +32599,27 @@
         <v>97</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C25" s="30">
         <v>2023</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
       <c r="H25" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
@@ -32671,7 +32671,7 @@
     </row>
     <row r="27" spans="1:24" ht="20.25" customHeight="1">
       <c r="A27" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>158</v>
@@ -32704,7 +32704,7 @@
     </row>
     <row r="28" spans="1:24" ht="20.25" customHeight="1">
       <c r="A28" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B28" s="30" t="s">
         <v>158</v>
@@ -32772,7 +32772,7 @@
     </row>
     <row r="30" spans="1:24" ht="20.25" customHeight="1">
       <c r="A30" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B30" s="30" t="s">
         <v>234</v>
@@ -32808,7 +32808,7 @@
     </row>
     <row r="31" spans="1:24" ht="20.25" customHeight="1">
       <c r="A31" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B31" s="30" t="s">
         <v>236</v>
@@ -32846,14 +32846,14 @@
     </row>
     <row r="32" spans="1:24" ht="20.25" customHeight="1">
       <c r="A32" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
@@ -32878,14 +32878,14 @@
     </row>
     <row r="33" spans="1:24" ht="20.25" customHeight="1">
       <c r="A33" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
@@ -32910,14 +32910,14 @@
     </row>
     <row r="34" spans="1:24" ht="20.25" customHeight="1">
       <c r="A34" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
@@ -32942,14 +32942,14 @@
     </row>
     <row r="35" spans="1:24" ht="20.25" customHeight="1">
       <c r="A35" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -32974,14 +32974,14 @@
     </row>
     <row r="36" spans="1:24" ht="20.25" customHeight="1">
       <c r="A36" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
@@ -33006,14 +33006,14 @@
     </row>
     <row r="37" spans="1:24" ht="20.25" customHeight="1">
       <c r="A37" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
@@ -33038,14 +33038,14 @@
     </row>
     <row r="38" spans="1:24" ht="20.25" customHeight="1">
       <c r="A38" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
@@ -33070,14 +33070,14 @@
     </row>
     <row r="39" spans="1:24" ht="20.25" customHeight="1">
       <c r="A39" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E39" s="30"/>
       <c r="F39" s="30"/>
@@ -33102,12 +33102,12 @@
     </row>
     <row r="40" spans="1:24" ht="20.25" customHeight="1">
       <c r="A40" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E40" s="30"/>
       <c r="F40" s="30"/>
@@ -33132,12 +33132,12 @@
     </row>
     <row r="41" spans="1:24" ht="20.25" customHeight="1">
       <c r="A41" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E41" s="30"/>
       <c r="F41" s="30"/>
@@ -33162,12 +33162,12 @@
     </row>
     <row r="42" spans="1:24" ht="20.25" customHeight="1">
       <c r="A42" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E42" s="30"/>
       <c r="F42" s="30"/>
@@ -58134,7 +58134,7 @@
         <v>2024</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>104</v>
@@ -58145,10 +58145,10 @@
         <v>2024</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.8">

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slee2462\Documents\github\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E75AF4-430F-4370-9711-DA88C58F786F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0DFFE1-107D-4964-BAEA-4DAB7EAE69C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29250" yWindow="2610" windowWidth="27300" windowHeight="15855" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -720,10 +720,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>Jiwon Kim, Suyoung Kim, Sooyong Lee, &amp; Brian Keller</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Sooyong Lee, Kahyun Lee, &amp; Hanjo Kim</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -987,6 +983,9 @@
   </si>
   <si>
     <t>Personal Relationships</t>
+  </si>
+  <si>
+    <t>Jiwon Kim, Sooyong Lee, Suyoung Kim, &amp; Brian Keller</t>
   </si>
 </sst>
 </file>
@@ -2288,7 +2287,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>37</v>
@@ -2668,19 +2667,19 @@
         <v>40</v>
       </c>
       <c r="B14" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="D14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>244</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="F14" s="21" t="s">
         <v>242</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>243</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -2711,19 +2710,19 @@
         <v>40</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C15" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>245</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -2754,19 +2753,19 @@
         <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -2797,16 +2796,16 @@
         <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D17" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>44</v>
@@ -2840,16 +2839,16 @@
         <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="D18" t="s">
         <v>307</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="D18" t="s">
-        <v>308</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>44</v>
@@ -2883,16 +2882,16 @@
         <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>44</v>
@@ -31699,8 +31698,8 @@
   </sheetPr>
   <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="20.25" customHeight="1"/>
@@ -32084,10 +32083,10 @@
         <v>104</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H9" t="s">
         <v>122</v>
@@ -32132,7 +32131,7 @@
         <v>172</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I10" s="30" t="s">
         <v>173</v>
@@ -32166,16 +32165,16 @@
         <v>2024</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>219</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H11" t="s">
         <v>218</v>
@@ -32210,19 +32209,19 @@
         <v>2025</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>104</v>
       </c>
       <c r="F12" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="G12" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="G12" s="30" t="s">
-        <v>296</v>
-      </c>
       <c r="H12" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="33" t="s">
@@ -32260,10 +32259,10 @@
         <v>104</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>220</v>
@@ -32297,13 +32296,13 @@
         <v>2024</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I14" s="33" t="s">
         <v>178</v>
@@ -32317,13 +32316,13 @@
         <v>97</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C15" s="30">
         <v>2025</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E15" t="s">
         <v>177</v>
@@ -32332,10 +32331,10 @@
         <v>12</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="33" t="s">
@@ -32347,7 +32346,7 @@
         <v>222</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C16" s="30">
         <v>2025</v>
@@ -32362,10 +32361,10 @@
         <v>12</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
@@ -32389,7 +32388,7 @@
       <c r="F17" s="30"/>
       <c r="G17" s="32"/>
       <c r="H17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I17" s="30" t="s">
         <v>178</v>
@@ -32412,7 +32411,7 @@
         <v>185</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H18"/>
       <c r="I18" s="30" t="s">
@@ -32427,19 +32426,19 @@
         <v>222</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>227</v>
+        <v>312</v>
       </c>
       <c r="C19" s="33">
         <v>2025</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E19" s="33" t="s">
         <v>104</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>163</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:24" ht="20.25" customHeight="1">
@@ -32447,13 +32446,13 @@
         <v>222</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C20" s="30">
         <v>2025</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>104</v>
@@ -32462,7 +32461,7 @@
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
       <c r="I20" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J20" s="30"/>
     </row>
@@ -32471,13 +32470,13 @@
         <v>222</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C21" s="30">
         <v>2025</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>109</v>
@@ -32486,7 +32485,7 @@
       <c r="G21" s="30"/>
       <c r="H21" s="30"/>
       <c r="I21" s="30" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="J21" s="30"/>
     </row>
@@ -32495,24 +32494,24 @@
         <v>222</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C22" s="30">
         <v>2025</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="H22" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J22" s="30"/>
     </row>
@@ -32521,16 +32520,16 @@
         <v>222</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C23" s="30">
         <v>2025</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
@@ -32559,16 +32558,16 @@
         <v>97</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C24" s="30">
         <v>2025</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
@@ -32599,27 +32598,27 @@
         <v>97</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C25" s="30">
         <v>2023</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
       <c r="H25" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
@@ -32671,7 +32670,7 @@
     </row>
     <row r="27" spans="1:24" ht="20.25" customHeight="1">
       <c r="A27" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>158</v>
@@ -32704,7 +32703,7 @@
     </row>
     <row r="28" spans="1:24" ht="20.25" customHeight="1">
       <c r="A28" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B28" s="30" t="s">
         <v>158</v>
@@ -32772,23 +32771,23 @@
     </row>
     <row r="30" spans="1:24" ht="20.25" customHeight="1">
       <c r="A30" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C30" s="30">
         <v>2025</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E30" s="30"/>
       <c r="F30" s="30"/>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
       <c r="I30" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J30" s="30"/>
       <c r="K30" s="30"/>
@@ -32808,23 +32807,23 @@
     </row>
     <row r="31" spans="1:24" ht="20.25" customHeight="1">
       <c r="A31" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C31" s="30">
         <v>2025</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
       <c r="I31" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J31" s="30" t="s">
         <v>103</v>
@@ -32846,14 +32845,14 @@
     </row>
     <row r="32" spans="1:24" ht="20.25" customHeight="1">
       <c r="A32" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
@@ -32878,14 +32877,14 @@
     </row>
     <row r="33" spans="1:24" ht="20.25" customHeight="1">
       <c r="A33" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E33" s="30"/>
       <c r="F33" s="30"/>
@@ -32910,14 +32909,14 @@
     </row>
     <row r="34" spans="1:24" ht="20.25" customHeight="1">
       <c r="A34" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C34" s="30"/>
       <c r="D34" s="30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
@@ -32942,14 +32941,14 @@
     </row>
     <row r="35" spans="1:24" ht="20.25" customHeight="1">
       <c r="A35" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
@@ -32974,14 +32973,14 @@
     </row>
     <row r="36" spans="1:24" ht="20.25" customHeight="1">
       <c r="A36" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C36" s="30"/>
       <c r="D36" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
@@ -33006,14 +33005,14 @@
     </row>
     <row r="37" spans="1:24" ht="20.25" customHeight="1">
       <c r="A37" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
@@ -33038,14 +33037,14 @@
     </row>
     <row r="38" spans="1:24" ht="20.25" customHeight="1">
       <c r="A38" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
@@ -33070,14 +33069,14 @@
     </row>
     <row r="39" spans="1:24" ht="20.25" customHeight="1">
       <c r="A39" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="30" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E39" s="30"/>
       <c r="F39" s="30"/>
@@ -33102,12 +33101,12 @@
     </row>
     <row r="40" spans="1:24" ht="20.25" customHeight="1">
       <c r="A40" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E40" s="30"/>
       <c r="F40" s="30"/>
@@ -33132,12 +33131,12 @@
     </row>
     <row r="41" spans="1:24" ht="20.25" customHeight="1">
       <c r="A41" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="30" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E41" s="30"/>
       <c r="F41" s="30"/>
@@ -33162,12 +33161,12 @@
     </row>
     <row r="42" spans="1:24" ht="20.25" customHeight="1">
       <c r="A42" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
       <c r="D42" s="30" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E42" s="30"/>
       <c r="F42" s="30"/>
@@ -58134,7 +58133,7 @@
         <v>2024</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>104</v>
@@ -58145,10 +58144,10 @@
         <v>2024</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.8">

--- a/data/CV_infolist.xlsx
+++ b/data/CV_infolist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slee2462\Documents\github\sylcv\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Documents\GitHub\sylcv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0DFFE1-107D-4964-BAEA-4DAB7EAE69C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F427347E-7546-4A1F-A81F-E6C7A39151D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19500" yWindow="1365" windowWidth="16815" windowHeight="13275" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -1546,15 +1546,15 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" customWidth="1"/>
-    <col min="3" max="3" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="136.77734375" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="136.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.2">
+    <row r="1" spans="1:5" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="39.6">
+    <row r="2" spans="1:5" ht="38.25">
       <c r="A2" s="26" t="s">
         <v>170</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8" thickBot="1">
+    <row r="3" spans="1:5" ht="13.5" thickBot="1">
       <c r="A3" s="24" t="s">
         <v>139</v>
       </c>
@@ -1638,9 +1638,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="39.109375" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" customHeight="1">
@@ -2079,19 +2079,19 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="13.2">
+    <row r="1" spans="1:27" ht="12.75">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2138,7 +2138,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="13.2">
+    <row r="2" spans="1:27" ht="12.75">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -2183,7 +2183,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="13.2">
+    <row r="3" spans="1:27" ht="12.75">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -2228,7 +2228,7 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:27" ht="13.2">
+    <row r="4" spans="1:27" ht="12.75">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -2316,7 +2316,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="1:27" ht="13.2">
+    <row r="6" spans="1:27" ht="12.75">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2359,7 +2359,7 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="1:27" ht="16.8">
+    <row r="7" spans="1:27" ht="18">
       <c r="A7" s="2" t="s">
         <v>40</v>
       </c>
@@ -2406,7 +2406,7 @@
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
     </row>
-    <row r="8" spans="1:27" ht="16.8">
+    <row r="8" spans="1:27" ht="18">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
@@ -2451,7 +2451,7 @@
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
     </row>
-    <row r="9" spans="1:27" ht="16.8">
+    <row r="9" spans="1:27" ht="18">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -2496,7 +2496,7 @@
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
     </row>
-    <row r="10" spans="1:27" ht="13.2">
+    <row r="10" spans="1:27" ht="12.75">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -2539,7 +2539,7 @@
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
     </row>
-    <row r="11" spans="1:27" ht="13.2">
+    <row r="11" spans="1:27" ht="12.75">
       <c r="A11" s="21" t="s">
         <v>40</v>
       </c>
@@ -2580,7 +2580,7 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:27" ht="15.6">
+    <row r="12" spans="1:27">
       <c r="A12" s="21" t="s">
         <v>19</v>
       </c>
@@ -2621,7 +2621,7 @@
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
     </row>
-    <row r="13" spans="1:27" ht="15.6">
+    <row r="13" spans="1:27">
       <c r="A13" s="21" t="s">
         <v>40</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
     </row>
-    <row r="14" spans="1:27" ht="13.2">
+    <row r="14" spans="1:27" ht="12.75">
       <c r="A14" s="21" t="s">
         <v>40</v>
       </c>
@@ -2705,7 +2705,7 @@
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
     </row>
-    <row r="15" spans="1:27" ht="13.2">
+    <row r="15" spans="1:27" ht="12.75">
       <c r="A15" s="21" t="s">
         <v>40</v>
       </c>
@@ -2748,7 +2748,7 @@
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
     </row>
-    <row r="16" spans="1:27" ht="13.2">
+    <row r="16" spans="1:27" ht="12.75">
       <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
@@ -2791,7 +2791,7 @@
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
     </row>
-    <row r="17" spans="1:27" ht="13.2">
+    <row r="17" spans="1:27" ht="12.75">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -2834,7 +2834,7 @@
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
     </row>
-    <row r="18" spans="1:27" ht="13.2">
+    <row r="18" spans="1:27" ht="12.75">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
@@ -2877,7 +2877,7 @@
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
     </row>
-    <row r="19" spans="1:27" ht="13.2">
+    <row r="19" spans="1:27" ht="12.75">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -2920,7 +2920,7 @@
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
     </row>
-    <row r="20" spans="1:27" ht="13.2">
+    <row r="20" spans="1:27" ht="12.75">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="14"/>
@@ -2949,7 +2949,7 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21" spans="1:27" ht="13.2">
+    <row r="21" spans="1:27" ht="12.75">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="14"/>
@@ -2978,7 +2978,7 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
     </row>
-    <row r="22" spans="1:27" ht="13.2">
+    <row r="22" spans="1:27" ht="12.75">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="14"/>
@@ -3007,7 +3007,7 @@
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
     </row>
-    <row r="23" spans="1:27" ht="13.2">
+    <row r="23" spans="1:27" ht="12.75">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="14"/>
@@ -3036,7 +3036,7 @@
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
     </row>
-    <row r="24" spans="1:27" ht="13.2">
+    <row r="24" spans="1:27" ht="12.75">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="14"/>
@@ -3065,7 +3065,7 @@
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
     </row>
-    <row r="25" spans="1:27" ht="13.2">
+    <row r="25" spans="1:27" ht="12.75">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="14"/>
@@ -3094,7 +3094,7 @@
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
     </row>
-    <row r="26" spans="1:27" ht="13.2">
+    <row r="26" spans="1:27" ht="12.75">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="14"/>
@@ -3123,7 +3123,7 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" spans="1:27" ht="13.2">
+    <row r="27" spans="1:27" ht="12.75">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="14"/>
@@ -3152,7 +3152,7 @@
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
     </row>
-    <row r="28" spans="1:27" ht="13.2">
+    <row r="28" spans="1:27" ht="12.75">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="14"/>
@@ -3181,7 +3181,7 @@
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
     </row>
-    <row r="29" spans="1:27" ht="13.2">
+    <row r="29" spans="1:27" ht="12.75">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="14"/>
@@ -3210,7 +3210,7 @@
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
     </row>
-    <row r="30" spans="1:27" ht="13.2">
+    <row r="30" spans="1:27" ht="12.75">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="14"/>
@@ -3239,7 +3239,7 @@
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
     </row>
-    <row r="31" spans="1:27" ht="13.2">
+    <row r="31" spans="1:27" ht="12.75">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="14"/>
@@ -3268,7 +3268,7 @@
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
     </row>
-    <row r="32" spans="1:27" ht="13.2">
+    <row r="32" spans="1:27" ht="12.75">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="14"/>
@@ -3297,7 +3297,7 @@
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="1:27" ht="13.2">
+    <row r="33" spans="1:27" ht="12.75">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="14"/>
@@ -3326,7 +3326,7 @@
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="1:27" ht="13.2">
+    <row r="34" spans="1:27" ht="12.75">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="14"/>
@@ -3355,7 +3355,7 @@
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="1:27" ht="13.2">
+    <row r="35" spans="1:27" ht="12.75">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="14"/>
@@ -3384,7 +3384,7 @@
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
     </row>
-    <row r="36" spans="1:27" ht="13.2">
+    <row r="36" spans="1:27" ht="12.75">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="14"/>
@@ -3413,7 +3413,7 @@
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
     </row>
-    <row r="37" spans="1:27" ht="13.2">
+    <row r="37" spans="1:27" ht="12.75">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="14"/>
@@ -3442,7 +3442,7 @@
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
     </row>
-    <row r="38" spans="1:27" ht="13.2">
+    <row r="38" spans="1:27" ht="12.75">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="14"/>
@@ -3471,7 +3471,7 @@
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
     </row>
-    <row r="39" spans="1:27" ht="13.2">
+    <row r="39" spans="1:27" ht="12.75">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="14"/>
@@ -3500,7 +3500,7 @@
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
     </row>
-    <row r="40" spans="1:27" ht="13.2">
+    <row r="40" spans="1:27" ht="12.75">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="14"/>
@@ -3529,7 +3529,7 @@
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="1:27" ht="13.2">
+    <row r="41" spans="1:27" ht="12.75">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="14"/>
@@ -3558,7 +3558,7 @@
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
     </row>
-    <row r="42" spans="1:27" ht="13.2">
+    <row r="42" spans="1:27" ht="12.75">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="14"/>
@@ -3587,7 +3587,7 @@
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
     </row>
-    <row r="43" spans="1:27" ht="13.2">
+    <row r="43" spans="1:27" ht="12.75">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="14"/>
@@ -3616,7 +3616,7 @@
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
     </row>
-    <row r="44" spans="1:27" ht="13.2">
+    <row r="44" spans="1:27" ht="12.75">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="14"/>
@@ -3645,7 +3645,7 @@
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
     </row>
-    <row r="45" spans="1:27" ht="13.2">
+    <row r="45" spans="1:27" ht="12.75">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="14"/>
@@ -3674,7 +3674,7 @@
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
     </row>
-    <row r="46" spans="1:27" ht="13.2">
+    <row r="46" spans="1:27" ht="12.75">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="14"/>
@@ -3703,7 +3703,7 @@
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
     </row>
-    <row r="47" spans="1:27" ht="13.2">
+    <row r="47" spans="1:27" ht="12.75">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="14"/>
@@ -3732,7 +3732,7 @@
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
     </row>
-    <row r="48" spans="1:27" ht="13.2">
+    <row r="48" spans="1:27" ht="12.75">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="14"/>
@@ -3761,7 +3761,7 @@
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
     </row>
-    <row r="49" spans="1:27" ht="13.2">
+    <row r="49" spans="1:27" ht="12.75">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="14"/>
@@ -3790,7 +3790,7 @@
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
     </row>
-    <row r="50" spans="1:27" ht="13.2">
+    <row r="50" spans="1:27" ht="12.75">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="14"/>
@@ -3819,7 +3819,7 @@
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
     </row>
-    <row r="51" spans="1:27" ht="13.2">
+    <row r="51" spans="1:27" ht="12.75">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="14"/>
@@ -3848,7 +3848,7 @@
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
     </row>
-    <row r="52" spans="1:27" ht="13.2">
+    <row r="52" spans="1:27" ht="12.75">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="14"/>
@@ -3877,7 +3877,7 @@
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
     </row>
-    <row r="53" spans="1:27" ht="13.2">
+    <row r="53" spans="1:27" ht="12.75">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="14"/>
@@ -3906,7 +3906,7 @@
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
     </row>
-    <row r="54" spans="1:27" ht="13.2">
+    <row r="54" spans="1:27" ht="12.75">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="14"/>
@@ -3935,7 +3935,7 @@
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
     </row>
-    <row r="55" spans="1:27" ht="13.2">
+    <row r="55" spans="1:27" ht="12.75">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="14"/>
@@ -3964,7 +3964,7 @@
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
     </row>
-    <row r="56" spans="1:27" ht="13.2">
+    <row r="56" spans="1:27" ht="12.75">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="14"/>
@@ -3993,7 +3993,7 @@
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
     </row>
-    <row r="57" spans="1:27" ht="13.2">
+    <row r="57" spans="1:27" ht="12.75">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="14"/>
@@ -4022,7 +4022,7 @@
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
     </row>
-    <row r="58" spans="1:27" ht="13.2">
+    <row r="58" spans="1:27" ht="12.75">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="14"/>
@@ -4051,7 +4051,7 @@
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
     </row>
-    <row r="59" spans="1:27" ht="13.2">
+    <row r="59" spans="1:27" ht="12.75">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="14"/>
@@ -4080,7 +4080,7 @@
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
     </row>
-    <row r="60" spans="1:27" ht="13.2">
+    <row r="60" spans="1:27" ht="12.75">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="14"/>
@@ -4109,7 +4109,7 @@
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
     </row>
-    <row r="61" spans="1:27" ht="13.2">
+    <row r="61" spans="1:27" ht="12.75">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="14"/>
@@ -4138,7 +4138,7 @@
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
     </row>
-    <row r="62" spans="1:27" ht="13.2">
+    <row r="62" spans="1:27" ht="12.75">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="14"/>
@@ -4167,7 +4167,7 @@
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
     </row>
-    <row r="63" spans="1:27" ht="13.2">
+    <row r="63" spans="1:27" ht="12.75">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="14"/>
@@ -4196,7 +4196,7 @@
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
     </row>
-    <row r="64" spans="1:27" ht="13.2">
+    <row r="64" spans="1:27" ht="12.75">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="14"/>
@@ -4225,7 +4225,7 @@
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
     </row>
-    <row r="65" spans="1:27" ht="13.2">
+    <row r="65" spans="1:27" ht="12.75">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="14"/>
@@ -4254,7 +4254,7 @@
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
     </row>
-    <row r="66" spans="1:27" ht="13.2">
+    <row r="66" spans="1:27" ht="12.75">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="14"/>
@@ -4283,7 +4283,7 @@
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
     </row>
-    <row r="67" spans="1:27" ht="13.2">
+    <row r="67" spans="1:27" ht="12.75">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="14"/>
@@ -4312,7 +4312,7 @@
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
     </row>
-    <row r="68" spans="1:27" ht="13.2">
+    <row r="68" spans="1:27" ht="12.75">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="14"/>
@@ -4341,7 +4341,7 @@
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
     </row>
-    <row r="69" spans="1:27" ht="13.2">
+    <row r="69" spans="1:27" ht="12.75">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="14"/>
@@ -4370,7 +4370,7 @@
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
     </row>
-    <row r="70" spans="1:27" ht="13.2">
+    <row r="70" spans="1:27" ht="12.75">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="14"/>
@@ -4399,7 +4399,7 @@
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
     </row>
-    <row r="71" spans="1:27" ht="13.2">
+    <row r="71" spans="1:27" ht="12.75">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="14"/>
@@ -4428,7 +4428,7 @@
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
     </row>
-    <row r="72" spans="1:27" ht="13.2">
+    <row r="72" spans="1:27" ht="12.75">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="14"/>
@@ -4457,7 +4457,7 @@
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
     </row>
-    <row r="73" spans="1:27" ht="13.2">
+    <row r="73" spans="1:27" ht="12.75">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="14"/>
@@ -4486,7 +4486,7 @@
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
     </row>
-    <row r="74" spans="1:27" ht="13.2">
+    <row r="74" spans="1:27" ht="12.75">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="14"/>
@@ -4515,7 +4515,7 @@
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
     </row>
-    <row r="75" spans="1:27" ht="13.2">
+    <row r="75" spans="1:27" ht="12.75">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="14"/>
@@ -4544,7 +4544,7 @@
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
     </row>
-    <row r="76" spans="1:27" ht="13.2">
+    <row r="76" spans="1:27" ht="12.75">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="14"/>
@@ -4573,7 +4573,7 @@
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
     </row>
-    <row r="77" spans="1:27" ht="13.2">
+    <row r="77" spans="1:27" ht="12.75">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="14"/>
@@ -4602,7 +4602,7 @@
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
     </row>
-    <row r="78" spans="1:27" ht="13.2">
+    <row r="78" spans="1:27" ht="12.75">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="14"/>
@@ -4631,7 +4631,7 @@
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
     </row>
-    <row r="79" spans="1:27" ht="13.2">
+    <row r="79" spans="1:27" ht="12.75">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="14"/>
@@ -4660,7 +4660,7 @@
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
     </row>
-    <row r="80" spans="1:27" ht="13.2">
+    <row r="80" spans="1:27" ht="12.75">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="14"/>
@@ -4689,7 +4689,7 @@
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
     </row>
-    <row r="81" spans="1:27" ht="13.2">
+    <row r="81" spans="1:27" ht="12.75">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="14"/>
@@ -4718,7 +4718,7 @@
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
     </row>
-    <row r="82" spans="1:27" ht="13.2">
+    <row r="82" spans="1:27" ht="12.75">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="14"/>
@@ -4747,7 +4747,7 @@
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
     </row>
-    <row r="83" spans="1:27" ht="13.2">
+    <row r="83" spans="1:27" ht="12.75">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="14"/>
@@ -4776,7 +4776,7 @@
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
     </row>
-    <row r="84" spans="1:27" ht="13.2">
+    <row r="84" spans="1:27" ht="12.75">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="14"/>
@@ -4805,7 +4805,7 @@
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
     </row>
-    <row r="85" spans="1:27" ht="13.2">
+    <row r="85" spans="1:27" ht="12.75">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="14"/>
@@ -4834,7 +4834,7 @@
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
     </row>
-    <row r="86" spans="1:27" ht="13.2">
+    <row r="86" spans="1:27" ht="12.75">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="14"/>
@@ -4863,7 +4863,7 @@
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
     </row>
-    <row r="87" spans="1:27" ht="13.2">
+    <row r="87" spans="1:27" ht="12.75">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="14"/>
@@ -4892,7 +4892,7 @@
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
     </row>
-    <row r="88" spans="1:27" ht="13.2">
+    <row r="88" spans="1:27" ht="12.75">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="14"/>
@@ -4921,7 +4921,7 @@
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
     </row>
-    <row r="89" spans="1:27" ht="13.2">
+    <row r="89" spans="1:27" ht="12.75">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="14"/>
@@ -4950,7 +4950,7 @@
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
     </row>
-    <row r="90" spans="1:27" ht="13.2">
+    <row r="90" spans="1:27" ht="12.75">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="14"/>
@@ -4979,7 +4979,7 @@
       <c r="Z90" s="2"/>
       <c r="AA90" s="2"/>
     </row>
-    <row r="91" spans="1:27" ht="13.2">
+    <row r="91" spans="1:27" ht="12.75">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="14"/>
@@ -5008,7 +5008,7 @@
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
     </row>
-    <row r="92" spans="1:27" ht="13.2">
+    <row r="92" spans="1:27" ht="12.75">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="14"/>
@@ -5037,7 +5037,7 @@
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
     </row>
-    <row r="93" spans="1:27" ht="13.2">
+    <row r="93" spans="1:27" ht="12.75">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="14"/>
@@ -5066,7 +5066,7 @@
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
     </row>
-    <row r="94" spans="1:27" ht="13.2">
+    <row r="94" spans="1:27" ht="12.75">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="14"/>
@@ -5095,7 +5095,7 @@
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
     </row>
-    <row r="95" spans="1:27" ht="13.2">
+    <row r="95" spans="1:27" ht="12.75">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="14"/>
@@ -5124,7 +5124,7 @@
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
     </row>
-    <row r="96" spans="1:27" ht="13.2">
+    <row r="96" spans="1:27" ht="12.75">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="14"/>
@@ -5153,7 +5153,7 @@
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
     </row>
-    <row r="97" spans="1:27" ht="13.2">
+    <row r="97" spans="1:27" ht="12.75">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="14"/>
@@ -5182,7 +5182,7 @@
       <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
     </row>
-    <row r="98" spans="1:27" ht="13.2">
+    <row r="98" spans="1:27" ht="12.75">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="14"/>
@@ -5211,7 +5211,7 @@
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
     </row>
-    <row r="99" spans="1:27" ht="13.2">
+    <row r="99" spans="1:27" ht="12.75">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="14"/>
@@ -5240,7 +5240,7 @@
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
     </row>
-    <row r="100" spans="1:27" ht="13.2">
+    <row r="100" spans="1:27" ht="12.75">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="14"/>
@@ -5269,7 +5269,7 @@
       <c r="Z100" s="2"/>
       <c r="AA100" s="2"/>
     </row>
-    <row r="101" spans="1:27" ht="13.2">
+    <row r="101" spans="1:27" ht="12.75">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="14"/>
@@ -5298,7 +5298,7 @@
       <c r="Z101" s="2"/>
       <c r="AA101" s="2"/>
     </row>
-    <row r="102" spans="1:27" ht="13.2">
+    <row r="102" spans="1:27" ht="12.75">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="14"/>
@@ -5327,7 +5327,7 @@
       <c r="Z102" s="2"/>
       <c r="AA102" s="2"/>
     </row>
-    <row r="103" spans="1:27" ht="13.2">
+    <row r="103" spans="1:27" ht="12.75">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="14"/>
@@ -5356,7 +5356,7 @@
       <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
     </row>
-    <row r="104" spans="1:27" ht="13.2">
+    <row r="104" spans="1:27" ht="12.75">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="14"/>
@@ -5385,7 +5385,7 @@
       <c r="Z104" s="2"/>
       <c r="AA104" s="2"/>
     </row>
-    <row r="105" spans="1:27" ht="13.2">
+    <row r="105" spans="1:27" ht="12.75">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="14"/>
@@ -5414,7 +5414,7 @@
       <c r="Z105" s="2"/>
       <c r="AA105" s="2"/>
     </row>
-    <row r="106" spans="1:27" ht="13.2">
+    <row r="106" spans="1:27" ht="12.75">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="14"/>
@@ -5443,7 +5443,7 @@
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
     </row>
-    <row r="107" spans="1:27" ht="13.2">
+    <row r="107" spans="1:27" ht="12.75">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="14"/>
@@ -5472,7 +5472,7 @@
       <c r="Z107" s="2"/>
       <c r="AA107" s="2"/>
     </row>
-    <row r="108" spans="1:27" ht="13.2">
+    <row r="108" spans="1:27" ht="12.75">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="14"/>
@@ -5501,7 +5501,7 @@
       <c r="Z108" s="2"/>
       <c r="AA108" s="2"/>
     </row>
-    <row r="109" spans="1:27" ht="13.2">
+    <row r="109" spans="1:27" ht="12.75">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="14"/>
@@ -5530,7 +5530,7 @@
       <c r="Z109" s="2"/>
       <c r="AA109" s="2"/>
     </row>
-    <row r="110" spans="1:27" ht="13.2">
+    <row r="110" spans="1:27" ht="12.75">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="14"/>
@@ -5559,7 +5559,7 @@
       <c r="Z110" s="2"/>
       <c r="AA110" s="2"/>
     </row>
-    <row r="111" spans="1:27" ht="13.2">
+    <row r="111" spans="1:27" ht="12.75">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="14"/>
@@ -5588,7 +5588,7 @@
       <c r="Z111" s="2"/>
       <c r="AA111" s="2"/>
     </row>
-    <row r="112" spans="1:27" ht="13.2">
+    <row r="112" spans="1:27" ht="12.75">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="14"/>
@@ -5617,7 +5617,7 @@
       <c r="Z112" s="2"/>
       <c r="AA112" s="2"/>
     </row>
-    <row r="113" spans="1:27" ht="13.2">
+    <row r="113" spans="1:27" ht="12.75">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="14"/>
@@ -5646,7 +5646,7 @@
       <c r="Z113" s="2"/>
       <c r="AA113" s="2"/>
     </row>
-    <row r="114" spans="1:27" ht="13.2">
+    <row r="114" spans="1:27" ht="12.75">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="14"/>
@@ -5675,7 +5675,7 @@
       <c r="Z114" s="2"/>
       <c r="AA114" s="2"/>
     </row>
-    <row r="115" spans="1:27" ht="13.2">
+    <row r="115" spans="1:27" ht="12.75">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="14"/>
@@ -5704,7 +5704,7 @@
       <c r="Z115" s="2"/>
       <c r="AA115" s="2"/>
     </row>
-    <row r="116" spans="1:27" ht="13.2">
+    <row r="116" spans="1:27" ht="12.75">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="14"/>
@@ -5733,7 +5733,7 @@
       <c r="Z116" s="2"/>
       <c r="AA116" s="2"/>
     </row>
-    <row r="117" spans="1:27" ht="13.2">
+    <row r="117" spans="1:27" ht="12.75">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="14"/>
@@ -5762,7 +5762,7 @@
       <c r="Z117" s="2"/>
       <c r="AA117" s="2"/>
     </row>
-    <row r="118" spans="1:27" ht="13.2">
+    <row r="118" spans="1:27" ht="12.75">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="14"/>
@@ -5791,7 +5791,7 @@
       <c r="Z118" s="2"/>
       <c r="AA118" s="2"/>
     </row>
-    <row r="119" spans="1:27" ht="13.2">
+    <row r="119" spans="1:27" ht="12.75">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="14"/>
@@ -5820,7 +5820,7 @@
       <c r="Z119" s="2"/>
       <c r="AA119" s="2"/>
     </row>
-    <row r="120" spans="1:27" ht="13.2">
+    <row r="120" spans="1:27" ht="12.75">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="14"/>
@@ -5849,7 +5849,7 @@
       <c r="Z120" s="2"/>
       <c r="AA120" s="2"/>
     </row>
-    <row r="121" spans="1:27" ht="13.2">
+    <row r="121" spans="1:27" ht="12.75">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="14"/>
@@ -5878,7 +5878,7 @@
       <c r="Z121" s="2"/>
       <c r="AA121" s="2"/>
     </row>
-    <row r="122" spans="1:27" ht="13.2">
+    <row r="122" spans="1:27" ht="12.75">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="14"/>
@@ -5907,7 +5907,7 @@
       <c r="Z122" s="2"/>
       <c r="AA122" s="2"/>
     </row>
-    <row r="123" spans="1:27" ht="13.2">
+    <row r="123" spans="1:27" ht="12.75">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="14"/>
@@ -5936,7 +5936,7 @@
       <c r="Z123" s="2"/>
       <c r="AA123" s="2"/>
     </row>
-    <row r="124" spans="1:27" ht="13.2">
+    <row r="124" spans="1:27" ht="12.75">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="14"/>
@@ -5965,7 +5965,7 @@
       <c r="Z124" s="2"/>
       <c r="AA124" s="2"/>
     </row>
-    <row r="125" spans="1:27" ht="13.2">
+    <row r="125" spans="1:27" ht="12.75">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="14"/>
@@ -5994,7 +5994,7 @@
       <c r="Z125" s="2"/>
       <c r="AA125" s="2"/>
     </row>
-    <row r="126" spans="1:27" ht="13.2">
+    <row r="126" spans="1:27" ht="12.75">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="14"/>
@@ -6023,7 +6023,7 @@
       <c r="Z126" s="2"/>
       <c r="AA126" s="2"/>
     </row>
-    <row r="127" spans="1:27" ht="13.2">
+    <row r="127" spans="1:27" ht="12.75">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="14"/>
@@ -6052,7 +6052,7 @@
       <c r="Z127" s="2"/>
       <c r="AA127" s="2"/>
     </row>
-    <row r="128" spans="1:27" ht="13.2">
+    <row r="128" spans="1:27" ht="12.75">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="14"/>
@@ -6081,7 +6081,7 @@
       <c r="Z128" s="2"/>
       <c r="AA128" s="2"/>
     </row>
-    <row r="129" spans="1:27" ht="13.2">
+    <row r="129" spans="1:27" ht="12.75">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="14"/>
@@ -6110,7 +6110,7 @@
       <c r="Z129" s="2"/>
       <c r="AA129" s="2"/>
     </row>
-    <row r="130" spans="1:27" ht="13.2">
+    <row r="130" spans="1:27" ht="12.75">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="14"/>
@@ -6139,7 +6139,7 @@
       <c r="Z130" s="2"/>
       <c r="AA130" s="2"/>
     </row>
-    <row r="131" spans="1:27" ht="13.2">
+    <row r="131" spans="1:27" ht="12.75">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="14"/>
@@ -6168,7 +6168,7 @@
       <c r="Z131" s="2"/>
       <c r="AA131" s="2"/>
     </row>
-    <row r="132" spans="1:27" ht="13.2">
+    <row r="132" spans="1:27" ht="12.75">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="14"/>
@@ -6197,7 +6197,7 @@
       <c r="Z132" s="2"/>
       <c r="AA132" s="2"/>
     </row>
-    <row r="133" spans="1:27" ht="13.2">
+    <row r="133" spans="1:27" ht="12.75">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="14"/>
@@ -6226,7 +6226,7 @@
       <c r="Z133" s="2"/>
       <c r="AA133" s="2"/>
     </row>
-    <row r="134" spans="1:27" ht="13.2">
+    <row r="134" spans="1:27" ht="12.75">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="14"/>
@@ -6255,7 +6255,7 @@
       <c r="Z134" s="2"/>
       <c r="AA134" s="2"/>
     </row>
-    <row r="135" spans="1:27" ht="13.2">
+    <row r="135" spans="1:27" ht="12.75">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="14"/>
@@ -6284,7 +6284,7 @@
       <c r="Z135" s="2"/>
       <c r="AA135" s="2"/>
     </row>
-    <row r="136" spans="1:27" ht="13.2">
+    <row r="136" spans="1:27" ht="12.75">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="14"/>
@@ -6313,7 +6313,7 @@
       <c r="Z136" s="2"/>
       <c r="AA136" s="2"/>
     </row>
-    <row r="137" spans="1:27" ht="13.2">
+    <row r="137" spans="1:27" ht="12.75">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="14"/>
@@ -6342,7 +6342,7 @@
       <c r="Z137" s="2"/>
       <c r="AA137" s="2"/>
     </row>
-    <row r="138" spans="1:27" ht="13.2">
+    <row r="138" spans="1:27" ht="12.75">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="14"/>
@@ -6371,7 +6371,7 @@
       <c r="Z138" s="2"/>
       <c r="AA138" s="2"/>
     </row>
-    <row r="139" spans="1:27" ht="13.2">
+    <row r="139" spans="1:27" ht="12.75">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="14"/>
@@ -6400,7 +6400,7 @@
       <c r="Z139" s="2"/>
       <c r="AA139" s="2"/>
     </row>
-    <row r="140" spans="1:27" ht="13.2">
+    <row r="140" spans="1:27" ht="12.75">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="14"/>
@@ -6429,7 +6429,7 @@
       <c r="Z140" s="2"/>
       <c r="AA140" s="2"/>
     </row>
-    <row r="141" spans="1:27" ht="13.2">
+    <row r="141" spans="1:27" ht="12.75">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="14"/>
@@ -6458,7 +6458,7 @@
       <c r="Z141" s="2"/>
       <c r="AA141" s="2"/>
     </row>
-    <row r="142" spans="1:27" ht="13.2">
+    <row r="142" spans="1:27" ht="12.75">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="14"/>
@@ -6487,7 +6487,7 @@
       <c r="Z142" s="2"/>
       <c r="AA142" s="2"/>
     </row>
-    <row r="143" spans="1:27" ht="13.2">
+    <row r="143" spans="1:27" ht="12.75">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="14"/>
@@ -6516,7 +6516,7 @@
       <c r="Z143" s="2"/>
       <c r="AA143" s="2"/>
     </row>
-    <row r="144" spans="1:27" ht="13.2">
+    <row r="144" spans="1:27" ht="12.75">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="14"/>
@@ -6545,7 +6545,7 @@
       <c r="Z144" s="2"/>
       <c r="AA144" s="2"/>
     </row>
-    <row r="145" spans="1:27" ht="13.2">
+    <row r="145" spans="1:27" ht="12.75">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="14"/>
@@ -6574,7 +6574,7 @@
       <c r="Z145" s="2"/>
       <c r="AA145" s="2"/>
     </row>
-    <row r="146" spans="1:27" ht="13.2">
+    <row r="146" spans="1:27" ht="12.75">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="14"/>
@@ -6603,7 +6603,7 @@
       <c r="Z146" s="2"/>
       <c r="AA146" s="2"/>
     </row>
-    <row r="147" spans="1:27" ht="13.2">
+    <row r="147" spans="1:27" ht="12.75">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="14"/>
@@ -6632,7 +6632,7 @@
       <c r="Z147" s="2"/>
       <c r="AA147" s="2"/>
     </row>
-    <row r="148" spans="1:27" ht="13.2">
+    <row r="148" spans="1:27" ht="12.75">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="14"/>
@@ -6661,7 +6661,7 @@
       <c r="Z148" s="2"/>
       <c r="AA148" s="2"/>
     </row>
-    <row r="149" spans="1:27" ht="13.2">
+    <row r="149" spans="1:27" ht="12.75">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="14"/>
@@ -6690,7 +6690,7 @@
       <c r="Z149" s="2"/>
       <c r="AA149" s="2"/>
     </row>
-    <row r="150" spans="1:27" ht="13.2">
+    <row r="150" spans="1:27" ht="12.75">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="14"/>
@@ -6719,7 +6719,7 @@
       <c r="Z150" s="2"/>
       <c r="AA150" s="2"/>
     </row>
-    <row r="151" spans="1:27" ht="13.2">
+    <row r="151" spans="1:27" ht="12.75">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="14"/>
@@ -6748,7 +6748,7 @@
       <c r="Z151" s="2"/>
       <c r="AA151" s="2"/>
     </row>
-    <row r="152" spans="1:27" ht="13.2">
+    <row r="152" spans="1:27" ht="12.75">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="14"/>
@@ -6777,7 +6777,7 @@
       <c r="Z152" s="2"/>
       <c r="AA152" s="2"/>
     </row>
-    <row r="153" spans="1:27" ht="13.2">
+    <row r="153" spans="1:27" ht="12.75">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="14"/>
@@ -6806,7 +6806,7 @@
       <c r="Z153" s="2"/>
       <c r="AA153" s="2"/>
     </row>
-    <row r="154" spans="1:27" ht="13.2">
+    <row r="154" spans="1:27" ht="12.75">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="14"/>
@@ -6835,7 +6835,7 @@
       <c r="Z154" s="2"/>
       <c r="AA154" s="2"/>
     </row>
-    <row r="155" spans="1:27" ht="13.2">
+    <row r="155" spans="1:27" ht="12.75">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="14"/>
@@ -6864,7 +6864,7 @@
       <c r="Z155" s="2"/>
       <c r="AA155" s="2"/>
     </row>
-    <row r="156" spans="1:27" ht="13.2">
+    <row r="156" spans="1:27" ht="12.75">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="14"/>
@@ -6893,7 +6893,7 @@
       <c r="Z156" s="2"/>
       <c r="AA156" s="2"/>
     </row>
-    <row r="157" spans="1:27" ht="13.2">
+    <row r="157" spans="1:27" ht="12.75">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="14"/>
@@ -6922,7 +6922,7 @@
       <c r="Z157" s="2"/>
       <c r="AA157" s="2"/>
     </row>
-    <row r="158" spans="1:27" ht="13.2">
+    <row r="158" spans="1:27" ht="12.75">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="14"/>
@@ -6951,7 +6951,7 @@
       <c r="Z158" s="2"/>
       <c r="AA158" s="2"/>
     </row>
-    <row r="159" spans="1:27" ht="13.2">
+    <row r="159" spans="1:27" ht="12.75">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="14"/>
@@ -6980,7 +6980,7 @@
       <c r="Z159" s="2"/>
       <c r="AA159" s="2"/>
     </row>
-    <row r="160" spans="1:27" ht="13.2">
+    <row r="160" spans="1:27" ht="12.75">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="14"/>
@@ -7009,7 +7009,7 @@
       <c r="Z160" s="2"/>
       <c r="AA160" s="2"/>
     </row>
-    <row r="161" spans="1:27" ht="13.2">
+    <row r="161" spans="1:27" ht="12.75">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="14"/>
@@ -7038,7 +7038,7 @@
       <c r="Z161" s="2"/>
       <c r="AA161" s="2"/>
     </row>
-    <row r="162" spans="1:27" ht="13.2">
+    <row r="162" spans="1:27" ht="12.75">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="14"/>
@@ -7067,7 +7067,7 @@
       <c r="Z162" s="2"/>
       <c r="AA162" s="2"/>
     </row>
-    <row r="163" spans="1:27" ht="13.2">
+    <row r="163" spans="1:27" ht="12.75">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="14"/>
@@ -7096,7 +7096,7 @@
       <c r="Z163" s="2"/>
       <c r="AA163" s="2"/>
     </row>
-    <row r="164" spans="1:27" ht="13.2">
+    <row r="164" spans="1:27" ht="12.75">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="14"/>
@@ -7125,7 +7125,7 @@
       <c r="Z164" s="2"/>
       <c r="AA164" s="2"/>
     </row>
-    <row r="165" spans="1:27" ht="13.2">
+    <row r="165" spans="1:27" ht="12.75">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="14"/>
@@ -7154,7 +7154,7 @@
       <c r="Z165" s="2"/>
       <c r="AA165" s="2"/>
     </row>
-    <row r="166" spans="1:27" ht="13.2">
+    <row r="166" spans="1:27" ht="12.75">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="14"/>
@@ -7183,7 +7183,7 @@
       <c r="Z166" s="2"/>
       <c r="AA166" s="2"/>
     </row>
-    <row r="167" spans="1:27" ht="13.2">
+    <row r="167" spans="1:27" ht="12.75">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="14"/>
@@ -7212,7 +7212,7 @@
       <c r="Z167" s="2"/>
       <c r="AA167" s="2"/>
     </row>
-    <row r="168" spans="1:27" ht="13.2">
+    <row r="168" spans="1:27" ht="12.75">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="14"/>
@@ -7241,7 +7241,7 @@
       <c r="Z168" s="2"/>
       <c r="AA168" s="2"/>
     </row>
-    <row r="169" spans="1:27" ht="13.2">
+    <row r="169" spans="1:27" ht="12.75">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="14"/>
@@ -7270,7 +7270,7 @@
       <c r="Z169" s="2"/>
       <c r="AA169" s="2"/>
     </row>
-    <row r="170" spans="1:27" ht="13.2">
+    <row r="170" spans="1:27" ht="12.75">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="14"/>
@@ -7299,7 +7299,7 @@
       <c r="Z170" s="2"/>
       <c r="AA170" s="2"/>
     </row>
-    <row r="171" spans="1:27" ht="13.2">
+    <row r="171" spans="1:27" ht="12.75">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="14"/>
@@ -7328,7 +7328,7 @@
       <c r="Z171" s="2"/>
       <c r="AA171" s="2"/>
     </row>
-    <row r="172" spans="1:27" ht="13.2">
+    <row r="172" spans="1:27" ht="12.75">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="14"/>
@@ -7357,7 +7357,7 @@
       <c r="Z172" s="2"/>
       <c r="AA172" s="2"/>
     </row>
-    <row r="173" spans="1:27" ht="13.2">
+    <row r="173" spans="1:27" ht="12.75">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="14"/>
@@ -7386,7 +7386,7 @@
       <c r="Z173" s="2"/>
       <c r="AA173" s="2"/>
     </row>
-    <row r="174" spans="1:27" ht="13.2">
+    <row r="174" spans="1:27" ht="12.75">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="14"/>
@@ -7415,7 +7415,7 @@
       <c r="Z174" s="2"/>
       <c r="AA174" s="2"/>
     </row>
-    <row r="175" spans="1:27" ht="13.2">
+    <row r="175" spans="1:27" ht="12.75">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="14"/>
@@ -7444,7 +7444,7 @@
       <c r="Z175" s="2"/>
       <c r="AA175" s="2"/>
     </row>
-    <row r="176" spans="1:27" ht="13.2">
+    <row r="176" spans="1:27" ht="12.75">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="14"/>
@@ -7473,7 +7473,7 @@
       <c r="Z176" s="2"/>
       <c r="AA176" s="2"/>
     </row>
-    <row r="177" spans="1:27" ht="13.2">
+    <row r="177" spans="1:27" ht="12.75">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="14"/>
@@ -7502,7 +7502,7 @@
       <c r="Z177" s="2"/>
       <c r="AA177" s="2"/>
     </row>
-    <row r="178" spans="1:27" ht="13.2">
+    <row r="178" spans="1:27" ht="12.75">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="14"/>
@@ -7531,7 +7531,7 @@
       <c r="Z178" s="2"/>
       <c r="AA178" s="2"/>
     </row>
-    <row r="179" spans="1:27" ht="13.2">
+    <row r="179" spans="1:27" ht="12.75">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="14"/>
@@ -7560,7 +7560,7 @@
       <c r="Z179" s="2"/>
       <c r="AA179" s="2"/>
     </row>
-    <row r="180" spans="1:27" ht="13.2">
+    <row r="180" spans="1:27" ht="12.75">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="14"/>
@@ -7589,7 +7589,7 @@
       <c r="Z180" s="2"/>
       <c r="AA180" s="2"/>
     </row>
-    <row r="181" spans="1:27" ht="13.2">
+    <row r="181" spans="1:27" ht="12.75">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="14"/>
@@ -7618,7 +7618,7 @@
       <c r="Z181" s="2"/>
       <c r="AA181" s="2"/>
     </row>
-    <row r="182" spans="1:27" ht="13.2">
+    <row r="182" spans="1:27" ht="12.75">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="14"/>
@@ -7647,7 +7647,7 @@
       <c r="Z182" s="2"/>
       <c r="AA182" s="2"/>
     </row>
-    <row r="183" spans="1:27" ht="13.2">
+    <row r="183" spans="1:27" ht="12.75">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="14"/>
@@ -7676,7 +7676,7 @@
       <c r="Z183" s="2"/>
       <c r="AA183" s="2"/>
     </row>
-    <row r="184" spans="1:27" ht="13.2">
+    <row r="184" spans="1:27" ht="12.75">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="14"/>
@@ -7705,7 +7705,7 @@
       <c r="Z184" s="2"/>
       <c r="AA184" s="2"/>
     </row>
-    <row r="185" spans="1:27" ht="13.2">
+    <row r="185" spans="1:27" ht="12.75">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="14"/>
@@ -7734,7 +7734,7 @@
       <c r="Z185" s="2"/>
       <c r="AA185" s="2"/>
     </row>
-    <row r="186" spans="1:27" ht="13.2">
+    <row r="186" spans="1:27" ht="12.75">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="14"/>
@@ -7763,7 +7763,7 @@
       <c r="Z186" s="2"/>
       <c r="AA186" s="2"/>
     </row>
-    <row r="187" spans="1:27" ht="13.2">
+    <row r="187" spans="1:27" ht="12.75">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="14"/>
@@ -7792,7 +7792,7 @@
       <c r="Z187" s="2"/>
       <c r="AA187" s="2"/>
     </row>
-    <row r="188" spans="1:27" ht="13.2">
+    <row r="188" spans="1:27" ht="12.75">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="14"/>
@@ -7821,7 +7821,7 @@
       <c r="Z188" s="2"/>
       <c r="AA188" s="2"/>
     </row>
-    <row r="189" spans="1:27" ht="13.2">
+    <row r="189" spans="1:27" ht="12.75">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="14"/>
@@ -7850,7 +7850,7 @@
       <c r="Z189" s="2"/>
       <c r="AA189" s="2"/>
     </row>
-    <row r="190" spans="1:27" ht="13.2">
+    <row r="190" spans="1:27" ht="12.75">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="14"/>
@@ -7879,7 +7879,7 @@
       <c r="Z190" s="2"/>
       <c r="AA190" s="2"/>
     </row>
-    <row r="191" spans="1:27" ht="13.2">
+    <row r="191" spans="1:27" ht="12.75">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="14"/>
@@ -7908,7 +7908,7 @@
       <c r="Z191" s="2"/>
       <c r="AA191" s="2"/>
     </row>
-    <row r="192" spans="1:27" ht="13.2">
+    <row r="192" spans="1:27" ht="12.75">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="14"/>
@@ -7937,7 +7937,7 @@
       <c r="Z192" s="2"/>
       <c r="AA192" s="2"/>
     </row>
-    <row r="193" spans="1:27" ht="13.2">
+    <row r="193" spans="1:27" ht="12.75">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="14"/>
@@ -7966,7 +7966,7 @@
       <c r="Z193" s="2"/>
       <c r="AA193" s="2"/>
     </row>
-    <row r="194" spans="1:27" ht="13.2">
+    <row r="194" spans="1:27" ht="12.75">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="14"/>
@@ -7995,7 +7995,7 @@
       <c r="Z194" s="2"/>
       <c r="AA194" s="2"/>
     </row>
-    <row r="195" spans="1:27" ht="13.2">
+    <row r="195" spans="1:27" ht="12.75">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="14"/>
@@ -8024,7 +8024,7 @@
       <c r="Z195" s="2"/>
       <c r="AA195" s="2"/>
     </row>
-    <row r="196" spans="1:27" ht="13.2">
+    <row r="196" spans="1:27" ht="12.75">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="14"/>
@@ -8053,7 +8053,7 @@
       <c r="Z196" s="2"/>
       <c r="AA196" s="2"/>
     </row>
-    <row r="197" spans="1:27" ht="13.2">
+    <row r="197" spans="1:27" ht="12.75">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="14"/>
@@ -8082,7 +8082,7 @@
       <c r="Z197" s="2"/>
       <c r="AA197" s="2"/>
     </row>
-    <row r="198" spans="1:27" ht="13.2">
+    <row r="198" spans="1:27" ht="12.75">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="14"/>
@@ -8111,7 +8111,7 @@
       <c r="Z198" s="2"/>
       <c r="AA198" s="2"/>
     </row>
-    <row r="199" spans="1:27" ht="13.2">
+    <row r="199" spans="1:27" ht="12.75">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="14"/>
@@ -8140,7 +8140,7 @@
       <c r="Z199" s="2"/>
       <c r="AA199" s="2"/>
     </row>
-    <row r="200" spans="1:27" ht="13.2">
+    <row r="200" spans="1:27" ht="12.75">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="14"/>
@@ -8169,7 +8169,7 @@
       <c r="Z200" s="2"/>
       <c r="AA200" s="2"/>
     </row>
-    <row r="201" spans="1:27" ht="13.2">
+    <row r="201" spans="1:27" ht="12.75">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="14"/>
@@ -8198,7 +8198,7 @@
       <c r="Z201" s="2"/>
       <c r="AA201" s="2"/>
     </row>
-    <row r="202" spans="1:27" ht="13.2">
+    <row r="202" spans="1:27" ht="12.75">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="14"/>
@@ -8227,7 +8227,7 @@
       <c r="Z202" s="2"/>
       <c r="AA202" s="2"/>
     </row>
-    <row r="203" spans="1:27" ht="13.2">
+    <row r="203" spans="1:27" ht="12.75">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="14"/>
@@ -8256,7 +8256,7 @@
       <c r="Z203" s="2"/>
       <c r="AA203" s="2"/>
     </row>
-    <row r="204" spans="1:27" ht="13.2">
+    <row r="204" spans="1:27" ht="12.75">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="14"/>
@@ -8285,7 +8285,7 @@
       <c r="Z204" s="2"/>
       <c r="AA204" s="2"/>
     </row>
-    <row r="205" spans="1:27" ht="13.2">
+    <row r="205" spans="1:27" ht="12.75">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="14"/>
@@ -8314,7 +8314,7 @@
       <c r="Z205" s="2"/>
       <c r="AA205" s="2"/>
     </row>
-    <row r="206" spans="1:27" ht="13.2">
+    <row r="206" spans="1:27" ht="12.75">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="14"/>
@@ -8343,7 +8343,7 @@
       <c r="Z206" s="2"/>
       <c r="AA206" s="2"/>
     </row>
-    <row r="207" spans="1:27" ht="13.2">
+    <row r="207" spans="1:27" ht="12.75">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="14"/>
@@ -8372,7 +8372,7 @@
       <c r="Z207" s="2"/>
       <c r="AA207" s="2"/>
     </row>
-    <row r="208" spans="1:27" ht="13.2">
+    <row r="208" spans="1:27" ht="12.75">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="14"/>
@@ -8401,7 +8401,7 @@
       <c r="Z208" s="2"/>
       <c r="AA208" s="2"/>
     </row>
-    <row r="209" spans="1:27" ht="13.2">
+    <row r="209" spans="1:27" ht="12.75">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="14"/>
@@ -8430,7 +8430,7 @@
       <c r="Z209" s="2"/>
       <c r="AA209" s="2"/>
     </row>
-    <row r="210" spans="1:27" ht="13.2">
+    <row r="210" spans="1:27" ht="12.75">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="14"/>
@@ -8459,7 +8459,7 @@
       <c r="Z210" s="2"/>
       <c r="AA210" s="2"/>
     </row>
-    <row r="211" spans="1:27" ht="13.2">
+    <row r="211" spans="1:27" ht="12.75">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="14"/>
@@ -8488,7 +8488,7 @@
       <c r="Z211" s="2"/>
       <c r="AA211" s="2"/>
     </row>
-    <row r="212" spans="1:27" ht="13.2">
+    <row r="212" spans="1:27" ht="12.75">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="14"/>
@@ -8517,7 +8517,7 @@
       <c r="Z212" s="2"/>
       <c r="AA212" s="2"/>
     </row>
-    <row r="213" spans="1:27" ht="13.2">
+    <row r="213" spans="1:27" ht="12.75">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="14"/>
@@ -8546,7 +8546,7 @@
       <c r="Z213" s="2"/>
       <c r="AA213" s="2"/>
     </row>
-    <row r="214" spans="1:27" ht="13.2">
+    <row r="214" spans="1:27" ht="12.75">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="14"/>
@@ -8575,7 +8575,7 @@
       <c r="Z214" s="2"/>
       <c r="AA214" s="2"/>
     </row>
-    <row r="215" spans="1:27" ht="13.2">
+    <row r="215" spans="1:27" ht="12.75">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="14"/>
@@ -8604,7 +8604,7 @@
       <c r="Z215" s="2"/>
       <c r="AA215" s="2"/>
     </row>
-    <row r="216" spans="1:27" ht="13.2">
+    <row r="216" spans="1:27" ht="12.75">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="14"/>
@@ -8633,7 +8633,7 @@
       <c r="Z216" s="2"/>
       <c r="AA216" s="2"/>
     </row>
-    <row r="217" spans="1:27" ht="13.2">
+    <row r="217" spans="1:27" ht="12.75">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="14"/>
@@ -8662,7 +8662,7 @@
       <c r="Z217" s="2"/>
       <c r="AA217" s="2"/>
     </row>
-    <row r="218" spans="1:27" ht="13.2">
+    <row r="218" spans="1:27" ht="12.75">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="14"/>
@@ -8691,7 +8691,7 @@
       <c r="Z218" s="2"/>
       <c r="AA218" s="2"/>
     </row>
-    <row r="219" spans="1:27" ht="13.2">
+    <row r="219" spans="1:27" ht="12.75">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="14"/>
@@ -8720,7 +8720,7 @@
       <c r="Z219" s="2"/>
       <c r="AA219" s="2"/>
     </row>
-    <row r="220" spans="1:27" ht="13.2">
+    <row r="220" spans="1:27" ht="12.75">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="14"/>
@@ -8749,7 +8749,7 @@
       <c r="Z220" s="2"/>
       <c r="AA220" s="2"/>
     </row>
-    <row r="221" spans="1:27" ht="13.2">
+    <row r="221" spans="1:27" ht="12.75">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="14"/>
@@ -8778,7 +8778,7 @@
       <c r="Z221" s="2"/>
       <c r="AA221" s="2"/>
     </row>
-    <row r="222" spans="1:27" ht="13.2">
+    <row r="222" spans="1:27" ht="12.75">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="14"/>
@@ -8807,7 +8807,7 @@
       <c r="Z222" s="2"/>
       <c r="AA222" s="2"/>
     </row>
-    <row r="223" spans="1:27" ht="13.2">
+    <row r="223" spans="1:27" ht="12.75">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="14"/>
@@ -8836,7 +8836,7 @@
       <c r="Z223" s="2"/>
       <c r="AA223" s="2"/>
     </row>
-    <row r="224" spans="1:27" ht="13.2">
+    <row r="224" spans="1:27" ht="12.75">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="14"/>
@@ -8865,7 +8865,7 @@
       <c r="Z224" s="2"/>
       <c r="AA224" s="2"/>
     </row>
-    <row r="225" spans="1:27" ht="13.2">
+    <row r="225" spans="1:27" ht="12.75">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="14"/>
@@ -8894,7 +8894,7 @@
       <c r="Z225" s="2"/>
       <c r="AA225" s="2"/>
     </row>
-    <row r="226" spans="1:27" ht="13.2">
+    <row r="226" spans="1:27" ht="12.75">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="14"/>
@@ -8923,7 +8923,7 @@
       <c r="Z226" s="2"/>
       <c r="AA226" s="2"/>
     </row>
-    <row r="227" spans="1:27" ht="13.2">
+    <row r="227" spans="1:27" ht="12.75">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="14"/>
@@ -8952,7 +8952,7 @@
       <c r="Z227" s="2"/>
       <c r="AA227" s="2"/>
     </row>
-    <row r="228" spans="1:27" ht="13.2">
+    <row r="228" spans="1:27" ht="12.75">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="14"/>
@@ -8981,7 +8981,7 @@
       <c r="Z228" s="2"/>
       <c r="AA228" s="2"/>
     </row>
-    <row r="229" spans="1:27" ht="13.2">
+    <row r="229" spans="1:27" ht="12.75">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="14"/>
@@ -9010,7 +9010,7 @@
       <c r="Z229" s="2"/>
       <c r="AA229" s="2"/>
     </row>
-    <row r="230" spans="1:27" ht="13.2">
+    <row r="230" spans="1:27" ht="12.75">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="14"/>
@@ -9039,7 +9039,7 @@
       <c r="Z230" s="2"/>
       <c r="AA230" s="2"/>
     </row>
-    <row r="231" spans="1:27" ht="13.2">
+    <row r="231" spans="1:27" ht="12.75">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="14"/>
@@ -9068,7 +9068,7 @@
       <c r="Z231" s="2"/>
       <c r="AA231" s="2"/>
     </row>
-    <row r="232" spans="1:27" ht="13.2">
+    <row r="232" spans="1:27" ht="12.75">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="14"/>
@@ -9097,7 +9097,7 @@
       <c r="Z232" s="2"/>
       <c r="AA232" s="2"/>
     </row>
-    <row r="233" spans="1:27" ht="13.2">
+    <row r="233" spans="1:27" ht="12.75">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="14"/>
@@ -9126,7 +9126,7 @@
       <c r="Z233" s="2"/>
       <c r="AA233" s="2"/>
     </row>
-    <row r="234" spans="1:27" ht="13.2">
+    <row r="234" spans="1:27" ht="12.75">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="14"/>
@@ -9155,7 +9155,7 @@
       <c r="Z234" s="2"/>
       <c r="AA234" s="2"/>
     </row>
-    <row r="235" spans="1:27" ht="13.2">
+    <row r="235" spans="1:27" ht="12.75">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="14"/>
@@ -9184,7 +9184,7 @@
       <c r="Z235" s="2"/>
       <c r="AA235" s="2"/>
     </row>
-    <row r="236" spans="1:27" ht="13.2">
+    <row r="236" spans="1:27" ht="12.75">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="14"/>
@@ -9213,7 +9213,7 @@
       <c r="Z236" s="2"/>
       <c r="AA236" s="2"/>
     </row>
-    <row r="237" spans="1:27" ht="13.2">
+    <row r="237" spans="1:27" ht="12.75">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="14"/>
@@ -9242,7 +9242,7 @@
       <c r="Z237" s="2"/>
       <c r="AA237" s="2"/>
     </row>
-    <row r="238" spans="1:27" ht="13.2">
+    <row r="238" spans="1:27" ht="12.75">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="14"/>
@@ -9271,7 +9271,7 @@
       <c r="Z238" s="2"/>
       <c r="AA238" s="2"/>
     </row>
-    <row r="239" spans="1:27" ht="13.2">
+    <row r="239" spans="1:27" ht="12.75">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="14"/>
@@ -9300,7 +9300,7 @@
       <c r="Z239" s="2"/>
       <c r="AA239" s="2"/>
     </row>
-    <row r="240" spans="1:27" ht="13.2">
+    <row r="240" spans="1:27" ht="12.75">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="14"/>
@@ -9329,7 +9329,7 @@
       <c r="Z240" s="2"/>
       <c r="AA240" s="2"/>
     </row>
-    <row r="241" spans="1:27" ht="13.2">
+    <row r="241" spans="1:27" ht="12.75">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="14"/>
@@ -9358,7 +9358,7 @@
       <c r="Z241" s="2"/>
       <c r="AA241" s="2"/>
     </row>
-    <row r="242" spans="1:27" ht="13.2">
+    <row r="242" spans="1:27" ht="12.75">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="14"/>
@@ -9387,7 +9387,7 @@
       <c r="Z242" s="2"/>
       <c r="AA242" s="2"/>
     </row>
-    <row r="243" spans="1:27" ht="13.2">
+    <row r="243" spans="1:27" ht="12.75">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="14"/>
@@ -9416,7 +9416,7 @@
       <c r="Z243" s="2"/>
       <c r="AA243" s="2"/>
     </row>
-    <row r="244" spans="1:27" ht="13.2">
+    <row r="244" spans="1:27" ht="12.75">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="14"/>
@@ -9445,7 +9445,7 @@
       <c r="Z244" s="2"/>
       <c r="AA244" s="2"/>
     </row>
-    <row r="245" spans="1:27" ht="13.2">
+    <row r="245" spans="1:27" ht="12.75">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="14"/>
@@ -9474,7 +9474,7 @@
       <c r="Z245" s="2"/>
       <c r="AA245" s="2"/>
     </row>
-    <row r="246" spans="1:27" ht="13.2">
+    <row r="246" spans="1:27" ht="12.75">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="14"/>
@@ -9503,7 +9503,7 @@
       <c r="Z246" s="2"/>
       <c r="AA246" s="2"/>
     </row>
-    <row r="247" spans="1:27" ht="13.2">
+    <row r="247" spans="1:27" ht="12.75">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="14"/>
@@ -9532,7 +9532,7 @@
       <c r="Z247" s="2"/>
       <c r="AA247" s="2"/>
     </row>
-    <row r="248" spans="1:27" ht="13.2">
+    <row r="248" spans="1:27" ht="12.75">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="14"/>
@@ -9561,7 +9561,7 @@
       <c r="Z248" s="2"/>
       <c r="AA248" s="2"/>
     </row>
-    <row r="249" spans="1:27" ht="13.2">
+    <row r="249" spans="1:27" ht="12.75">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="14"/>
@@ -9590,7 +9590,7 @@
       <c r="Z249" s="2"/>
       <c r="AA249" s="2"/>
     </row>
-    <row r="250" spans="1:27" ht="13.2">
+    <row r="250" spans="1:27" ht="12.75">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="14"/>
@@ -9619,7 +9619,7 @@
       <c r="Z250" s="2"/>
       <c r="AA250" s="2"/>
     </row>
-    <row r="251" spans="1:27" ht="13.2">
+    <row r="251" spans="1:27" ht="12.75">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="14"/>
@@ -9648,7 +9648,7 @@
       <c r="Z251" s="2"/>
       <c r="AA251" s="2"/>
     </row>
-    <row r="252" spans="1:27" ht="13.2">
+    <row r="252" spans="1:27" ht="12.75">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="14"/>
@@ -9677,7 +9677,7 @@
       <c r="Z252" s="2"/>
       <c r="AA252" s="2"/>
     </row>
-    <row r="253" spans="1:27" ht="13.2">
+    <row r="253" spans="1:27" ht="12.75">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="14"/>
@@ -9706,7 +9706,7 @@
       <c r="Z253" s="2"/>
       <c r="AA253" s="2"/>
     </row>
-    <row r="254" spans="1:27" ht="13.2">
+    <row r="254" spans="1:27" ht="12.75">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="14"/>
@@ -9735,7 +9735,7 @@
       <c r="Z254" s="2"/>
       <c r="AA254" s="2"/>
     </row>
-    <row r="255" spans="1:27" ht="13.2">
+    <row r="255" spans="1:27" ht="12.75">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="14"/>
@@ -9764,7 +9764,7 @@
       <c r="Z255" s="2"/>
       <c r="AA255" s="2"/>
     </row>
-    <row r="256" spans="1:27" ht="13.2">
+    <row r="256" spans="1:27" ht="12.75">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="14"/>
@@ -9793,7 +9793,7 @@
       <c r="Z256" s="2"/>
       <c r="AA256" s="2"/>
     </row>
-    <row r="257" spans="1:27" ht="13.2">
+    <row r="257" spans="1:27" ht="12.75">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="14"/>
@@ -9822,7 +9822,7 @@
       <c r="Z257" s="2"/>
       <c r="AA257" s="2"/>
     </row>
-    <row r="258" spans="1:27" ht="13.2">
+    <row r="258" spans="1:27" ht="12.75">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="14"/>
@@ -9851,7 +9851,7 @@
       <c r="Z258" s="2"/>
       <c r="AA258" s="2"/>
     </row>
-    <row r="259" spans="1:27" ht="13.2">
+    <row r="259" spans="1:27" ht="12.75">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="14"/>
@@ -9880,7 +9880,7 @@
       <c r="Z259" s="2"/>
       <c r="AA259" s="2"/>
     </row>
-    <row r="260" spans="1:27" ht="13.2">
+    <row r="260" spans="1:27" ht="12.75">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="14"/>
@@ -9909,7 +9909,7 @@
       <c r="Z260" s="2"/>
       <c r="AA260" s="2"/>
     </row>
-    <row r="261" spans="1:27" ht="13.2">
+    <row r="261" spans="1:27" ht="12.75">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="14"/>
@@ -9938,7 +9938,7 @@
       <c r="Z261" s="2"/>
       <c r="AA261" s="2"/>
     </row>
-    <row r="262" spans="1:27" ht="13.2">
+    <row r="262" spans="1:27" ht="12.75">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="14"/>
@@ -9967,7 +9967,7 @@
       <c r="Z262" s="2"/>
       <c r="AA262" s="2"/>
     </row>
-    <row r="263" spans="1:27" ht="13.2">
+    <row r="263" spans="1:27" ht="12.75">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="14"/>
@@ -9996,7 +9996,7 @@
       <c r="Z263" s="2"/>
       <c r="AA263" s="2"/>
     </row>
-    <row r="264" spans="1:27" ht="13.2">
+    <row r="264" spans="1:27" ht="12.75">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="14"/>
@@ -10025,7 +10025,7 @@
       <c r="Z264" s="2"/>
       <c r="AA264" s="2"/>
     </row>
-    <row r="265" spans="1:27" ht="13.2">
+    <row r="265" spans="1:27" ht="12.75">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="14"/>
@@ -10054,7 +10054,7 @@
       <c r="Z265" s="2"/>
       <c r="AA265" s="2"/>
     </row>
-    <row r="266" spans="1:27" ht="13.2">
+    <row r="266" spans="1:27" ht="12.75">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="14"/>
@@ -10083,7 +10083,7 @@
       <c r="Z266" s="2"/>
       <c r="AA266" s="2"/>
     </row>
-    <row r="267" spans="1:27" ht="13.2">
+    <row r="267" spans="1:27" ht="12.75">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="14"/>
@@ -10112,7 +10112,7 @@
       <c r="Z267" s="2"/>
       <c r="AA267" s="2"/>
     </row>
-    <row r="268" spans="1:27" ht="13.2">
+    <row r="268" spans="1:27" ht="12.75">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="14"/>
@@ -10141,7 +10141,7 @@
       <c r="Z268" s="2"/>
       <c r="AA268" s="2"/>
     </row>
-    <row r="269" spans="1:27" ht="13.2">
+    <row r="269" spans="1:27" ht="12.75">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="14"/>
@@ -10170,7 +10170,7 @@
       <c r="Z269" s="2"/>
       <c r="AA269" s="2"/>
     </row>
-    <row r="270" spans="1:27" ht="13.2">
+    <row r="270" spans="1:27" ht="12.75">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="14"/>
@@ -10199,7 +10199,7 @@
       <c r="Z270" s="2"/>
       <c r="AA270" s="2"/>
     </row>
-    <row r="271" spans="1:27" ht="13.2">
+    <row r="271" spans="1:27" ht="12.75">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="14"/>
@@ -10228,7 +10228,7 @@
       <c r="Z271" s="2"/>
       <c r="AA271" s="2"/>
     </row>
-    <row r="272" spans="1:27" ht="13.2">
+    <row r="272" spans="1:27" ht="12.75">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="14"/>
@@ -10257,7 +10257,7 @@
       <c r="Z272" s="2"/>
       <c r="AA272" s="2"/>
     </row>
-    <row r="273" spans="1:27" ht="13.2">
+    <row r="273" spans="1:27" ht="12.75">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="14"/>
@@ -10286,7 +10286,7 @@
       <c r="Z273" s="2"/>
       <c r="AA273" s="2"/>
     </row>
-    <row r="274" spans="1:27" ht="13.2">
+    <row r="274" spans="1:27" ht="12.75">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="14"/>
@@ -10315,7 +10315,7 @@
       <c r="Z274" s="2"/>
       <c r="AA274" s="2"/>
     </row>
-    <row r="275" spans="1:27" ht="13.2">
+    <row r="275" spans="1:27" ht="12.75">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="14"/>
@@ -10344,7 +10344,7 @@
       <c r="Z275" s="2"/>
       <c r="AA275" s="2"/>
     </row>
-    <row r="276" spans="1:27" ht="13.2">
+    <row r="276" spans="1:27" ht="12.75">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="14"/>
@@ -10373,7 +10373,7 @@
       <c r="Z276" s="2"/>
       <c r="AA276" s="2"/>
     </row>
-    <row r="277" spans="1:27" ht="13.2">
+    <row r="277" spans="1:27" ht="12.75">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="14"/>
@@ -10402,7 +10402,7 @@
       <c r="Z277" s="2"/>
       <c r="AA277" s="2"/>
     </row>
-    <row r="278" spans="1:27" ht="13.2">
+    <row r="278" spans="1:27" ht="12.75">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="14"/>
@@ -10431,7 +10431,7 @@
       <c r="Z278" s="2"/>
       <c r="AA278" s="2"/>
     </row>
-    <row r="279" spans="1:27" ht="13.2">
+    <row r="279" spans="1:27" ht="12.75">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="14"/>
@@ -10460,7 +10460,7 @@
       <c r="Z279" s="2"/>
       <c r="AA279" s="2"/>
     </row>
-    <row r="280" spans="1:27" ht="13.2">
+    <row r="280" spans="1:27" ht="12.75">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="14"/>
@@ -10489,7 +10489,7 @@
       <c r="Z280" s="2"/>
       <c r="AA280" s="2"/>
     </row>
-    <row r="281" spans="1:27" ht="13.2">
+    <row r="281" spans="1:27" ht="12.75">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="14"/>
@@ -10518,7 +10518,7 @@
       <c r="Z281" s="2"/>
       <c r="AA281" s="2"/>
     </row>
-    <row r="282" spans="1:27" ht="13.2">
+    <row r="282" spans="1:27" ht="12.75">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="14"/>
@@ -10547,7 +10547,7 @@
       <c r="Z282" s="2"/>
       <c r="AA282" s="2"/>
     </row>
-    <row r="283" spans="1:27" ht="13.2">
+    <row r="283" spans="1:27" ht="12.75">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="14"/>
@@ -10576,7 +10576,7 @@
       <c r="Z283" s="2"/>
       <c r="AA283" s="2"/>
     </row>
-    <row r="284" spans="1:27" ht="13.2">
+    <row r="284" spans="1:27" ht="12.75">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="14"/>
@@ -10605,7 +10605,7 @@
       <c r="Z284" s="2"/>
       <c r="AA284" s="2"/>
     </row>
-    <row r="285" spans="1:27" ht="13.2">
+    <row r="285" spans="1:27" ht="12.75">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="14"/>
@@ -10634,7 +10634,7 @@
       <c r="Z285" s="2"/>
       <c r="AA285" s="2"/>
     </row>
-    <row r="286" spans="1:27" ht="13.2">
+    <row r="286" spans="1:27" ht="12.75">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="14"/>
@@ -10663,7 +10663,7 @@
       <c r="Z286" s="2"/>
       <c r="AA286" s="2"/>
     </row>
-    <row r="287" spans="1:27" ht="13.2">
+    <row r="287" spans="1:27" ht="12.75">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="14"/>
@@ -10692,7 +10692,7 @@
       <c r="Z287" s="2"/>
       <c r="AA287" s="2"/>
     </row>
-    <row r="288" spans="1:27" ht="13.2">
+    <row r="288" spans="1:27" ht="12.75">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="14"/>
@@ -10721,7 +10721,7 @@
       <c r="Z288" s="2"/>
       <c r="AA288" s="2"/>
     </row>
-    <row r="289" spans="1:27" ht="13.2">
+    <row r="289" spans="1:27" ht="12.75">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="14"/>
@@ -10750,7 +10750,7 @@
       <c r="Z289" s="2"/>
       <c r="AA289" s="2"/>
     </row>
-    <row r="290" spans="1:27" ht="13.2">
+    <row r="290" spans="1:27" ht="12.75">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="14"/>
@@ -10779,7 +10779,7 @@
       <c r="Z290" s="2"/>
       <c r="AA290" s="2"/>
     </row>
-    <row r="291" spans="1:27" ht="13.2">
+    <row r="291" spans="1:27" ht="12.75">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="14"/>
@@ -10808,7 +10808,7 @@
       <c r="Z291" s="2"/>
       <c r="AA291" s="2"/>
     </row>
-    <row r="292" spans="1:27" ht="13.2">
+    <row r="292" spans="1:27" ht="12.75">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="14"/>
@@ -10837,7 +10837,7 @@
       <c r="Z292" s="2"/>
       <c r="AA292" s="2"/>
     </row>
-    <row r="293" spans="1:27" ht="13.2">
+    <row r="293" spans="1:27" ht="12.75">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="14"/>
@@ -10866,7 +10866,7 @@
       <c r="Z293" s="2"/>
       <c r="AA293" s="2"/>
     </row>
-    <row r="294" spans="1:27" ht="13.2">
+    <row r="294" spans="1:27" ht="12.75">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="14"/>
@@ -10895,7 +10895,7 @@
       <c r="Z294" s="2"/>
       <c r="AA294" s="2"/>
     </row>
-    <row r="295" spans="1:27" ht="13.2">
+    <row r="295" spans="1:27" ht="12.75">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="14"/>
@@ -10924,7 +10924,7 @@
       <c r="Z295" s="2"/>
       <c r="AA295" s="2"/>
     </row>
-    <row r="296" spans="1:27" ht="13.2">
+    <row r="296" spans="1:27" ht="12.75">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="14"/>
@@ -10953,7 +10953,7 @@
       <c r="Z296" s="2"/>
       <c r="AA296" s="2"/>
     </row>
-    <row r="297" spans="1:27" ht="13.2">
+    <row r="297" spans="1:27" ht="12.75">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="14"/>
@@ -10982,7 +10982,7 @@
       <c r="Z297" s="2"/>
       <c r="AA297" s="2"/>
     </row>
-    <row r="298" spans="1:27" ht="13.2">
+    <row r="298" spans="1:27" ht="12.75">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="14"/>
@@ -11011,7 +11011,7 @@
       <c r="Z298" s="2"/>
       <c r="AA298" s="2"/>
     </row>
-    <row r="299" spans="1:27" ht="13.2">
+    <row r="299" spans="1:27" ht="12.75">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="14"/>
@@ -11040,7 +11040,7 @@
       <c r="Z299" s="2"/>
       <c r="AA299" s="2"/>
     </row>
-    <row r="300" spans="1:27" ht="13.2">
+    <row r="300" spans="1:27" ht="12.75">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="14"/>
@@ -11069,7 +11069,7 @@
       <c r="Z300" s="2"/>
       <c r="AA300" s="2"/>
     </row>
-    <row r="301" spans="1:27" ht="13.2">
+    <row r="301" spans="1:27" ht="12.75">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="14"/>
@@ -11098,7 +11098,7 @@
       <c r="Z301" s="2"/>
       <c r="AA301" s="2"/>
     </row>
-    <row r="302" spans="1:27" ht="13.2">
+    <row r="302" spans="1:27" ht="12.75">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="14"/>
@@ -11127,7 +11127,7 @@
       <c r="Z302" s="2"/>
       <c r="AA302" s="2"/>
     </row>
-    <row r="303" spans="1:27" ht="13.2">
+    <row r="303" spans="1:27" ht="12.75">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="14"/>
@@ -11156,7 +11156,7 @@
       <c r="Z303" s="2"/>
       <c r="AA303" s="2"/>
     </row>
-    <row r="304" spans="1:27" ht="13.2">
+    <row r="304" spans="1:27" ht="12.75">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="14"/>
@@ -11185,7 +11185,7 @@
       <c r="Z304" s="2"/>
       <c r="AA304" s="2"/>
     </row>
-    <row r="305" spans="1:27" ht="13.2">
+    <row r="305" spans="1:27" ht="12.75">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="14"/>
@@ -11214,7 +11214,7 @@
       <c r="Z305" s="2"/>
       <c r="AA305" s="2"/>
     </row>
-    <row r="306" spans="1:27" ht="13.2">
+    <row r="306" spans="1:27" ht="12.75">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="14"/>
@@ -11243,7 +11243,7 @@
       <c r="Z306" s="2"/>
       <c r="AA306" s="2"/>
     </row>
-    <row r="307" spans="1:27" ht="13.2">
+    <row r="307" spans="1:27" ht="12.75">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="14"/>
@@ -11272,7 +11272,7 @@
       <c r="Z307" s="2"/>
       <c r="AA307" s="2"/>
     </row>
-    <row r="308" spans="1:27" ht="13.2">
+    <row r="308" spans="1:27" ht="12.75">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="14"/>
@@ -11301,7 +11301,7 @@
       <c r="Z308" s="2"/>
       <c r="AA308" s="2"/>
     </row>
-    <row r="309" spans="1:27" ht="13.2">
+    <row r="309" spans="1:27" ht="12.75">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="14"/>
@@ -11330,7 +11330,7 @@
       <c r="Z309" s="2"/>
       <c r="AA309" s="2"/>
     </row>
-    <row r="310" spans="1:27" ht="13.2">
+    <row r="310" spans="1:27" ht="12.75">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="14"/>
@@ -11359,7 +11359,7 @@
       <c r="Z310" s="2"/>
       <c r="AA310" s="2"/>
     </row>
-    <row r="311" spans="1:27" ht="13.2">
+    <row r="311" spans="1:27" ht="12.75">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="14"/>
@@ -11388,7 +11388,7 @@
       <c r="Z311" s="2"/>
       <c r="AA311" s="2"/>
     </row>
-    <row r="312" spans="1:27" ht="13.2">
+    <row r="312" spans="1:27" ht="12.75">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="14"/>
@@ -11417,7 +11417,7 @@
       <c r="Z312" s="2"/>
       <c r="AA312" s="2"/>
     </row>
-    <row r="313" spans="1:27" ht="13.2">
+    <row r="313" spans="1:27" ht="12.75">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="14"/>
@@ -11446,7 +11446,7 @@
       <c r="Z313" s="2"/>
       <c r="AA313" s="2"/>
     </row>
-    <row r="314" spans="1:27" ht="13.2">
+    <row r="314" spans="1:27" ht="12.75">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="14"/>
@@ -11475,7 +11475,7 @@
       <c r="Z314" s="2"/>
       <c r="AA314" s="2"/>
     </row>
-    <row r="315" spans="1:27" ht="13.2">
+    <row r="315" spans="1:27" ht="12.75">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="14"/>
@@ -11504,7 +11504,7 @@
       <c r="Z315" s="2"/>
       <c r="AA315" s="2"/>
     </row>
-    <row r="316" spans="1:27" ht="13.2">
+    <row r="316" spans="1:27" ht="12.75">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="14"/>
@@ -11533,7 +11533,7 @@
       <c r="Z316" s="2"/>
       <c r="AA316" s="2"/>
     </row>
-    <row r="317" spans="1:27" ht="13.2">
+    <row r="317" spans="1:27" ht="12.75">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="14"/>
@@ -11562,7 +11562,7 @@
       <c r="Z317" s="2"/>
       <c r="AA317" s="2"/>
     </row>
-    <row r="318" spans="1:27" ht="13.2">
+    <row r="318" spans="1:27" ht="12.75">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="14"/>
@@ -11591,7 +11591,7 @@
       <c r="Z318" s="2"/>
       <c r="AA318" s="2"/>
     </row>
-    <row r="319" spans="1:27" ht="13.2">
+    <row r="319" spans="1:27" ht="12.75">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="14"/>
@@ -11620,7 +11620,7 @@
       <c r="Z319" s="2"/>
       <c r="AA319" s="2"/>
     </row>
-    <row r="320" spans="1:27" ht="13.2">
+    <row r="320" spans="1:27" ht="12.75">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="14"/>
@@ -11649,7 +11649,7 @@
       <c r="Z320" s="2"/>
       <c r="AA320" s="2"/>
     </row>
-    <row r="321" spans="1:27" ht="13.2">
+    <row r="321" spans="1:27" ht="12.75">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="14"/>
@@ -11678,7 +11678,7 @@
       <c r="Z321" s="2"/>
       <c r="AA321" s="2"/>
     </row>
-    <row r="322" spans="1:27" ht="13.2">
+    <row r="322" spans="1:27" ht="12.75">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="14"/>
@@ -11707,7 +11707,7 @@
       <c r="Z322" s="2"/>
       <c r="AA322" s="2"/>
     </row>
-    <row r="323" spans="1:27" ht="13.2">
+    <row r="323" spans="1:27" ht="12.75">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="14"/>
@@ -11736,7 +11736,7 @@
       <c r="Z323" s="2"/>
       <c r="AA323" s="2"/>
     </row>
-    <row r="324" spans="1:27" ht="13.2">
+    <row r="324" spans="1:27" ht="12.75">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="14"/>
@@ -11765,7 +11765,7 @@
       <c r="Z324" s="2"/>
       <c r="AA324" s="2"/>
     </row>
-    <row r="325" spans="1:27" ht="13.2">
+    <row r="325" spans="1:27" ht="12.75">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="14"/>
@@ -11794,7 +11794,7 @@
       <c r="Z325" s="2"/>
       <c r="AA325" s="2"/>
     </row>
-    <row r="326" spans="1:27" ht="13.2">
+    <row r="326" spans="1:27" ht="12.75">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="14"/>
@@ -11823,7 +11823,7 @@
       <c r="Z326" s="2"/>
       <c r="AA326" s="2"/>
     </row>
-    <row r="327" spans="1:27" ht="13.2">
+    <row r="327" spans="1:27" ht="12.75">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="14"/>
@@ -11852,7 +11852,7 @@
       <c r="Z327" s="2"/>
       <c r="AA327" s="2"/>
     </row>
-    <row r="328" spans="1:27" ht="13.2">
+    <row r="328" spans="1:27" ht="12.75">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="14"/>
@@ -11881,7 +11881,7 @@
       <c r="Z328" s="2"/>
       <c r="AA328" s="2"/>
     </row>
-    <row r="329" spans="1:27" ht="13.2">
+    <row r="329" spans="1:27" ht="12.75">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="14"/>
@@ -11910,7 +11910,7 @@
       <c r="Z329" s="2"/>
       <c r="AA329" s="2"/>
     </row>
-    <row r="330" spans="1:27" ht="13.2">
+    <row r="330" spans="1:27" ht="12.75">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="14"/>
@@ -11939,7 +11939,7 @@
       <c r="Z330" s="2"/>
       <c r="AA330" s="2"/>
     </row>
-    <row r="331" spans="1:27" ht="13.2">
+    <row r="331" spans="1:27" ht="12.75">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="14"/>
@@ -11968,7 +11968,7 @@
       <c r="Z331" s="2"/>
       <c r="AA331" s="2"/>
     </row>
-    <row r="332" spans="1:27" ht="13.2">
+    <row r="332" spans="1:27" ht="12.75">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="14"/>
@@ -11997,7 +11997,7 @@
       <c r="Z332" s="2"/>
       <c r="AA332" s="2"/>
     </row>
-    <row r="333" spans="1:27" ht="13.2">
+    <row r="333" spans="1:27" ht="12.75">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="14"/>
@@ -12026,7 +12026,7 @@
       <c r="Z333" s="2"/>
       <c r="AA333" s="2"/>
     </row>
-    <row r="334" spans="1:27" ht="13.2">
+    <row r="334" spans="1:27" ht="12.75">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="14"/>
@@ -12055,7 +12055,7 @@
       <c r="Z334" s="2"/>
       <c r="AA334" s="2"/>
     </row>
-    <row r="335" spans="1:27" ht="13.2">
+    <row r="335" spans="1:27" ht="12.75">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="14"/>
@@ -12084,7 +12084,7 @@
       <c r="Z335" s="2"/>
       <c r="AA335" s="2"/>
     </row>
-    <row r="336" spans="1:27" ht="13.2">
+    <row r="336" spans="1:27" ht="12.75">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="14"/>
@@ -12113,7 +12113,7 @@
       <c r="Z336" s="2"/>
       <c r="AA336" s="2"/>
     </row>
-    <row r="337" spans="1:27" ht="13.2">
+    <row r="337" spans="1:27" ht="12.75">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="14"/>
@@ -12142,7 +12142,7 @@
       <c r="Z337" s="2"/>
       <c r="AA337" s="2"/>
     </row>
-    <row r="338" spans="1:27" ht="13.2">
+    <row r="338" spans="1:27" ht="12.75">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="14"/>
@@ -12171,7 +12171,7 @@
       <c r="Z338" s="2"/>
       <c r="AA338" s="2"/>
     </row>
-    <row r="339" spans="1:27" ht="13.2">
+    <row r="339" spans="1:27" ht="12.75">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="14"/>
@@ -12200,7 +12200,7 @@
       <c r="Z339" s="2"/>
       <c r="AA339" s="2"/>
     </row>
-    <row r="340" spans="1:27" ht="13.2">
+    <row r="340" spans="1:27" ht="12.75">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="14"/>
@@ -12229,7 +12229,7 @@
       <c r="Z340" s="2"/>
       <c r="AA340" s="2"/>
     </row>
-    <row r="341" spans="1:27" ht="13.2">
+    <row r="341" spans="1:27" ht="12.75">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="14"/>
@@ -12258,7 +12258,7 @@
       <c r="Z341" s="2"/>
       <c r="AA341" s="2"/>
     </row>
-    <row r="342" spans="1:27" ht="13.2">
+    <row r="342" spans="1:27" ht="12.75">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="14"/>
@@ -12287,7 +12287,7 @@
       <c r="Z342" s